--- a/Rawdata/tor.riptransekter helags sommar 2018.xlsx
+++ b/Rawdata/tor.riptransekter helags sommar 2018.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-740" yWindow="3020" windowWidth="25440" windowHeight="14140" xr2:uid="{6F562989-0C69-724E-8921-452EAD0C9874}"/>
+    <workbookView xWindow="580" yWindow="2420" windowWidth="25440" windowHeight="14140" xr2:uid="{6F562989-0C69-724E-8921-452EAD0C9874}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="532" uniqueCount="396">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="826" uniqueCount="395">
   <si>
     <t>lya</t>
   </si>
@@ -116,9 +116,6 @@
     <t>1008 m</t>
   </si>
   <si>
-    <t>RS158</t>
-  </si>
-  <si>
     <t>980 m</t>
   </si>
   <si>
@@ -128,234 +125,99 @@
     <t>962 m</t>
   </si>
   <si>
-    <t>RS219</t>
-  </si>
-  <si>
     <t>941 m</t>
   </si>
   <si>
-    <t>RS312</t>
-  </si>
-  <si>
     <t>912 m</t>
   </si>
   <si>
-    <t>RS411</t>
-  </si>
-  <si>
     <t>953 m</t>
   </si>
   <si>
-    <t>RS511</t>
-  </si>
-  <si>
     <t>955 m</t>
   </si>
   <si>
-    <t>FJALLABB1</t>
-  </si>
-  <si>
     <t>987 m</t>
   </si>
   <si>
-    <t>NYRIKT24</t>
-  </si>
-  <si>
     <t>998 m</t>
   </si>
   <si>
-    <t>F19</t>
-  </si>
-  <si>
     <t>997 m</t>
   </si>
   <si>
-    <t>NYRIKT212</t>
-  </si>
-  <si>
-    <t>RS611</t>
-  </si>
-  <si>
     <t>991 m</t>
   </si>
   <si>
-    <t>RS711</t>
-  </si>
-  <si>
     <t>995 m</t>
   </si>
   <si>
-    <t>FJALLABB2</t>
-  </si>
-  <si>
-    <t>RS811</t>
-  </si>
-  <si>
     <t>988 m</t>
   </si>
   <si>
-    <t>RS911</t>
-  </si>
-  <si>
     <t>1007 m</t>
   </si>
   <si>
-    <t>RS1011</t>
-  </si>
-  <si>
-    <t>RS1113</t>
-  </si>
-  <si>
     <t>964 m</t>
   </si>
   <si>
-    <t>RS1211</t>
-  </si>
-  <si>
     <t>960 m</t>
   </si>
   <si>
-    <t>RS1311</t>
-  </si>
-  <si>
-    <t>RS1101</t>
-  </si>
-  <si>
     <t>1162 m</t>
   </si>
   <si>
-    <t>RS223</t>
-  </si>
-  <si>
     <t>1164 m</t>
   </si>
   <si>
-    <t>RS322</t>
-  </si>
-  <si>
     <t>1124 m</t>
   </si>
   <si>
-    <t>RS421</t>
-  </si>
-  <si>
     <t>1000 m</t>
   </si>
   <si>
-    <t>RS521</t>
-  </si>
-  <si>
-    <t>RS621</t>
-  </si>
-  <si>
-    <t>RS721</t>
-  </si>
-  <si>
     <t>975 m</t>
   </si>
   <si>
-    <t>RS821</t>
-  </si>
-  <si>
-    <t>RS921</t>
-  </si>
-  <si>
     <t>969 m</t>
   </si>
   <si>
-    <t>RS1021</t>
-  </si>
-  <si>
     <t>968 m</t>
   </si>
   <si>
-    <t>RS1121</t>
-  </si>
-  <si>
-    <t>RS1221</t>
-  </si>
-  <si>
-    <t>NYRIKT25</t>
-  </si>
-  <si>
     <t>974 m</t>
   </si>
   <si>
-    <t>NYRIKT213</t>
-  </si>
-  <si>
     <t>970 m</t>
   </si>
   <si>
-    <t>RS1321</t>
-  </si>
-  <si>
     <t>976 m</t>
   </si>
   <si>
-    <t>RS1411</t>
-  </si>
-  <si>
-    <t>RS1511</t>
-  </si>
-  <si>
     <t>990 m</t>
   </si>
   <si>
-    <t>RS165</t>
-  </si>
-  <si>
-    <t>F111</t>
-  </si>
-  <si>
     <t>1022 m</t>
   </si>
   <si>
-    <t>RS176</t>
-  </si>
-  <si>
     <t>1049 m</t>
   </si>
   <si>
-    <t>F25</t>
-  </si>
-  <si>
     <t>1070 m</t>
   </si>
   <si>
-    <t>RS186</t>
-  </si>
-  <si>
     <t>1040 m</t>
   </si>
   <si>
-    <t>F35</t>
-  </si>
-  <si>
-    <t>RS194</t>
-  </si>
-  <si>
-    <t>NYRIKT222</t>
-  </si>
-  <si>
     <t>1002 m</t>
   </si>
   <si>
-    <t>RS203</t>
-  </si>
-  <si>
     <t>1047 m</t>
   </si>
   <si>
-    <t>NYRIKT231</t>
-  </si>
-  <si>
     <t>1010 m</t>
   </si>
   <si>
-    <t>RS2111</t>
-  </si>
-  <si>
     <t>1030 m</t>
   </si>
   <si>
@@ -1212,6 +1074,141 @@
   </si>
   <si>
     <t>ljusbruna, några gamla</t>
+  </si>
+  <si>
+    <t>stora ljusbruna, stora fibrer</t>
+  </si>
+  <si>
+    <t>10 + 35</t>
+  </si>
+  <si>
+    <t>några ljusa, några mörka</t>
+  </si>
+  <si>
+    <t>mycket ljus</t>
+  </si>
+  <si>
+    <t>ljusbrun</t>
+  </si>
+  <si>
+    <t>ljusa spridda, samma hög som jag räknade under våren</t>
+  </si>
+  <si>
+    <t>mörk, stora fibrer</t>
+  </si>
+  <si>
+    <t>16 + 4</t>
+  </si>
+  <si>
+    <t>hög 1 ljusa, hög 2 ljusa, grova fibrer</t>
+  </si>
+  <si>
+    <t>mörka och ljusa</t>
+  </si>
+  <si>
+    <t>ljusa</t>
+  </si>
+  <si>
+    <t>zz042</t>
+  </si>
+  <si>
+    <t>STARTZZ042</t>
+  </si>
+  <si>
+    <t>FJÄLLABB</t>
+  </si>
+  <si>
+    <t>917 m</t>
+  </si>
+  <si>
+    <t>F1</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>HSE</t>
+  </si>
+  <si>
+    <t>växlande molnighet, 2-3 m/s, 10°C</t>
+  </si>
+  <si>
+    <t>ljusbruna</t>
+  </si>
+  <si>
+    <t>stora mörka, stora fibrer. Gick omväg runt myr.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ljusbrun. GPS:en blir konstig här. Koordinaten stämmer inte. </t>
+  </si>
+  <si>
+    <t>ljusbrun, stora fibrer</t>
+  </si>
+  <si>
+    <t>zz020</t>
+  </si>
+  <si>
+    <t>START020</t>
+  </si>
+  <si>
+    <t>ljus</t>
+  </si>
+  <si>
+    <t>mulet, 6-7 m/s, 7-8°C</t>
+  </si>
+  <si>
+    <t>stor ljusbrun, stora fibrer</t>
+  </si>
+  <si>
+    <t>L4</t>
+  </si>
+  <si>
+    <t>ljusbrun, märklig form</t>
+  </si>
+  <si>
+    <t>RS15</t>
+  </si>
+  <si>
+    <t>26 + 2</t>
+  </si>
+  <si>
+    <t>stora mörka, stora fibrer andra högen ljus</t>
+  </si>
+  <si>
+    <t>RS16</t>
+  </si>
+  <si>
+    <t>RS17</t>
+  </si>
+  <si>
+    <t>F2</t>
+  </si>
+  <si>
+    <t>RS18</t>
+  </si>
+  <si>
+    <t>F3</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> grå, vit (färsk)</t>
+  </si>
+  <si>
+    <t>L8</t>
+  </si>
+  <si>
+    <t>971 m</t>
+  </si>
+  <si>
+    <t>brun</t>
+  </si>
+  <si>
+    <t>RS19</t>
+  </si>
+  <si>
+    <t>RS20</t>
+  </si>
+  <si>
+    <t>RS21</t>
   </si>
 </sst>
 </file>
@@ -1566,17 +1563,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7481D24-4BBD-9743-96A3-63B52605E732}">
-  <dimension ref="A1:O227"/>
+  <dimension ref="A1:O248"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M7" sqref="M7"/>
+      <pane ySplit="1" topLeftCell="A83" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G92" sqref="G92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="3" max="4" width="16.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="7" width="15.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.2">
@@ -1628,33 +1625,33 @@
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>366</v>
+        <v>320</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>367</v>
+        <v>321</v>
       </c>
       <c r="C2" s="2">
         <v>6976680377753</v>
       </c>
       <c r="D2" t="s">
-        <v>368</v>
+        <v>322</v>
       </c>
       <c r="E2" s="1">
         <v>43271.520833333336</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>370</v>
+        <v>324</v>
       </c>
       <c r="N2" t="s">
-        <v>393</v>
+        <v>347</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>366</v>
+        <v>320</v>
       </c>
       <c r="B3" t="s">
-        <v>371</v>
+        <v>325</v>
       </c>
       <c r="C3" s="2">
         <v>6976296377160</v>
@@ -1666,7 +1663,7 @@
         <v>43271.53125</v>
       </c>
       <c r="F3" t="s">
-        <v>372</v>
+        <v>326</v>
       </c>
       <c r="G3">
         <v>2.42</v>
@@ -1681,18 +1678,18 @@
         <v>2</v>
       </c>
       <c r="M3" t="s">
-        <v>392</v>
+        <v>346</v>
       </c>
       <c r="N3" t="s">
-        <v>393</v>
+        <v>347</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>366</v>
+        <v>320</v>
       </c>
       <c r="B4" t="s">
-        <v>373</v>
+        <v>327</v>
       </c>
       <c r="C4" s="2">
         <v>6976013376681</v>
@@ -1704,7 +1701,7 @@
         <v>43271.539583333331</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>372</v>
+        <v>326</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -1719,18 +1716,18 @@
         <v>17</v>
       </c>
       <c r="M4" t="s">
-        <v>394</v>
+        <v>348</v>
       </c>
       <c r="N4" t="s">
-        <v>393</v>
+        <v>347</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>366</v>
+        <v>320</v>
       </c>
       <c r="B5" t="s">
-        <v>374</v>
+        <v>328</v>
       </c>
       <c r="C5" s="2">
         <v>6975623376165</v>
@@ -1742,7 +1739,7 @@
         <v>43271.549305555556</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>372</v>
+        <v>326</v>
       </c>
       <c r="G5">
         <v>0.89</v>
@@ -1757,18 +1754,18 @@
         <v>3</v>
       </c>
       <c r="M5" t="s">
-        <v>394</v>
+        <v>348</v>
       </c>
       <c r="N5" t="s">
-        <v>393</v>
+        <v>347</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>366</v>
+        <v>320</v>
       </c>
       <c r="B6" t="s">
-        <v>375</v>
+        <v>329</v>
       </c>
       <c r="C6" s="2">
         <v>6975398375851</v>
@@ -1780,7 +1777,7 @@
         <v>43271.554861111108</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>372</v>
+        <v>326</v>
       </c>
       <c r="G6">
         <v>2.5299999999999998</v>
@@ -1795,18 +1792,18 @@
         <v>21</v>
       </c>
       <c r="M6" t="s">
-        <v>395</v>
+        <v>349</v>
       </c>
       <c r="N6" t="s">
-        <v>393</v>
+        <v>347</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>366</v>
+        <v>320</v>
       </c>
       <c r="B7" t="s">
-        <v>376</v>
+        <v>330</v>
       </c>
       <c r="C7" s="2">
         <v>6975378375815</v>
@@ -1818,18 +1815,33 @@
         <v>43271.556944444441</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>372</v>
+        <v>326</v>
+      </c>
+      <c r="G7">
+        <v>0.02</v>
+      </c>
+      <c r="H7">
+        <v>270</v>
+      </c>
+      <c r="K7">
+        <v>1</v>
+      </c>
+      <c r="L7">
+        <v>32</v>
+      </c>
+      <c r="M7" t="s">
+        <v>350</v>
       </c>
       <c r="N7" t="s">
-        <v>393</v>
+        <v>347</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>366</v>
+        <v>320</v>
       </c>
       <c r="B8" t="s">
-        <v>377</v>
+        <v>331</v>
       </c>
       <c r="C8" s="2">
         <v>6975015375406</v>
@@ -1841,41 +1853,56 @@
         <v>43271.563888888886</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>372</v>
+        <v>326</v>
+      </c>
+      <c r="G8">
+        <v>0.35</v>
+      </c>
+      <c r="H8">
+        <v>270</v>
+      </c>
+      <c r="K8">
+        <v>2</v>
+      </c>
+      <c r="L8" t="s">
+        <v>351</v>
+      </c>
+      <c r="M8" t="s">
+        <v>352</v>
       </c>
       <c r="N8" t="s">
-        <v>393</v>
+        <v>347</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>366</v>
+        <v>320</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>378</v>
+        <v>332</v>
       </c>
       <c r="C9" s="2">
         <v>6974207374604</v>
       </c>
       <c r="D9" t="s">
-        <v>379</v>
+        <v>333</v>
       </c>
       <c r="E9" s="1">
         <v>43271.579861111109</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>369</v>
+        <v>323</v>
       </c>
       <c r="N9" t="s">
-        <v>393</v>
+        <v>347</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>366</v>
+        <v>320</v>
       </c>
       <c r="B10" t="s">
-        <v>380</v>
+        <v>334</v>
       </c>
       <c r="C10" s="2">
         <v>6977240373959</v>
@@ -1887,18 +1914,18 @@
         <v>43271.618055555555</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>381</v>
+        <v>335</v>
       </c>
       <c r="N10" t="s">
-        <v>393</v>
+        <v>347</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>366</v>
+        <v>320</v>
       </c>
       <c r="B11" t="s">
-        <v>382</v>
+        <v>336</v>
       </c>
       <c r="C11" s="2">
         <v>6977315373891</v>
@@ -1910,18 +1937,33 @@
         <v>43271.619444444441</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>372</v>
+        <v>326</v>
+      </c>
+      <c r="G11">
+        <v>0.43</v>
+      </c>
+      <c r="H11">
+        <v>90</v>
+      </c>
+      <c r="K11">
+        <v>1</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11" t="s">
+        <v>353</v>
       </c>
       <c r="N11" t="s">
-        <v>393</v>
+        <v>347</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>366</v>
+        <v>320</v>
       </c>
       <c r="B12" t="s">
-        <v>380</v>
+        <v>334</v>
       </c>
       <c r="C12" s="2">
         <v>6977394373829</v>
@@ -1933,18 +1975,18 @@
         <v>43271.62222222222</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>381</v>
+        <v>335</v>
       </c>
       <c r="N12" t="s">
-        <v>393</v>
+        <v>347</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>366</v>
+        <v>320</v>
       </c>
       <c r="B13" t="s">
-        <v>383</v>
+        <v>337</v>
       </c>
       <c r="C13" s="2">
         <v>6977624373925</v>
@@ -1956,18 +1998,33 @@
         <v>43271.625694444447</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>372</v>
+        <v>326</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="K13">
+        <v>1</v>
+      </c>
+      <c r="L13">
+        <v>2</v>
+      </c>
+      <c r="M13" t="s">
+        <v>354</v>
       </c>
       <c r="N13" t="s">
-        <v>393</v>
+        <v>347</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>366</v>
+        <v>320</v>
       </c>
       <c r="B14" t="s">
-        <v>380</v>
+        <v>334</v>
       </c>
       <c r="C14" s="2">
         <v>6977758373979</v>
@@ -1979,18 +2036,18 @@
         <v>43271.628472222219</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>381</v>
+        <v>335</v>
       </c>
       <c r="N14" t="s">
-        <v>393</v>
+        <v>347</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>366</v>
+        <v>320</v>
       </c>
       <c r="B15" t="s">
-        <v>384</v>
+        <v>338</v>
       </c>
       <c r="C15" s="2">
         <v>6977791373973</v>
@@ -2002,18 +2059,33 @@
         <v>43271.629861111112</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>372</v>
+        <v>326</v>
+      </c>
+      <c r="G15">
+        <v>0.39</v>
+      </c>
+      <c r="H15">
+        <v>270</v>
+      </c>
+      <c r="K15">
+        <v>1</v>
+      </c>
+      <c r="L15">
+        <v>27</v>
+      </c>
+      <c r="M15" t="s">
+        <v>355</v>
       </c>
       <c r="N15" t="s">
-        <v>393</v>
+        <v>347</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>366</v>
+        <v>320</v>
       </c>
       <c r="B16" t="s">
-        <v>385</v>
+        <v>339</v>
       </c>
       <c r="C16" s="2">
         <v>6977844373969</v>
@@ -2025,18 +2097,33 @@
         <v>43271.631944444445</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>372</v>
+        <v>326</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="K16">
+        <v>1</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16" t="s">
+        <v>356</v>
       </c>
       <c r="N16" t="s">
-        <v>393</v>
+        <v>347</v>
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>366</v>
+        <v>320</v>
       </c>
       <c r="B17" t="s">
-        <v>386</v>
+        <v>340</v>
       </c>
       <c r="C17" s="2">
         <v>6978044373945</v>
@@ -2048,41 +2135,56 @@
         <v>43271.634722222225</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>372</v>
+        <v>326</v>
+      </c>
+      <c r="G17">
+        <v>0.1</v>
+      </c>
+      <c r="H17">
+        <v>270</v>
+      </c>
+      <c r="K17">
+        <v>1</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17" t="s">
+        <v>354</v>
       </c>
       <c r="N17" t="s">
-        <v>393</v>
+        <v>347</v>
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>366</v>
+        <v>320</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>387</v>
+        <v>341</v>
       </c>
       <c r="C18" s="2">
         <v>6978155373957</v>
       </c>
       <c r="D18" t="s">
-        <v>388</v>
+        <v>342</v>
       </c>
       <c r="E18" s="1">
         <v>43271.637499999997</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>369</v>
+        <v>323</v>
       </c>
       <c r="N18" t="s">
-        <v>393</v>
+        <v>347</v>
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>366</v>
+        <v>320</v>
       </c>
       <c r="B19" t="s">
-        <v>389</v>
+        <v>343</v>
       </c>
       <c r="C19" s="2">
         <v>6977403375505</v>
@@ -2094,18 +2196,33 @@
         <v>43271.656944444447</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>372</v>
+        <v>326</v>
+      </c>
+      <c r="G19">
+        <v>0.59</v>
+      </c>
+      <c r="H19">
+        <v>90</v>
+      </c>
+      <c r="K19">
+        <v>2</v>
+      </c>
+      <c r="L19" t="s">
+        <v>357</v>
+      </c>
+      <c r="M19" t="s">
+        <v>358</v>
       </c>
       <c r="N19" t="s">
-        <v>393</v>
+        <v>347</v>
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>366</v>
+        <v>320</v>
       </c>
       <c r="B20" t="s">
-        <v>390</v>
+        <v>344</v>
       </c>
       <c r="C20" s="2">
         <v>6977221375845</v>
@@ -2117,18 +2234,33 @@
         <v>43271.662499999999</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>372</v>
+        <v>326</v>
+      </c>
+      <c r="G20">
+        <v>0</v>
+      </c>
+      <c r="H20">
+        <v>0</v>
+      </c>
+      <c r="K20">
+        <v>1</v>
+      </c>
+      <c r="L20">
+        <v>28</v>
+      </c>
+      <c r="M20" t="s">
+        <v>359</v>
       </c>
       <c r="N20" t="s">
-        <v>393</v>
+        <v>347</v>
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>366</v>
+        <v>320</v>
       </c>
       <c r="B21" t="s">
-        <v>391</v>
+        <v>345</v>
       </c>
       <c r="C21" s="2">
         <v>6976904376798</v>
@@ -2140,3087 +2272,4654 @@
         <v>43271.713888888888</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>372</v>
+        <v>326</v>
+      </c>
+      <c r="G21">
+        <v>0.62</v>
+      </c>
+      <c r="H21">
+        <v>90</v>
+      </c>
+      <c r="K21">
+        <v>1</v>
+      </c>
+      <c r="L21">
+        <v>2</v>
+      </c>
+      <c r="M21" t="s">
+        <v>360</v>
       </c>
       <c r="N21" t="s">
-        <v>393</v>
+        <v>347</v>
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.2">
       <c r="F22" s="1"/>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>361</v>
+      </c>
       <c r="B23" t="s">
+        <v>362</v>
+      </c>
+      <c r="C23" s="2">
+        <v>6973557372594</v>
+      </c>
+      <c r="D23" t="s">
+        <v>36</v>
+      </c>
+      <c r="E23" s="1">
+        <v>43272.509722222225</v>
+      </c>
+      <c r="F23" t="s">
+        <v>324</v>
+      </c>
+      <c r="N23" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>361</v>
+      </c>
+      <c r="B24" t="s">
+        <v>325</v>
+      </c>
+      <c r="C24" s="2">
+        <v>6972945370967</v>
+      </c>
+      <c r="D24" t="s">
         <v>30</v>
       </c>
-      <c r="C23" s="2">
-        <v>6972945370967</v>
-      </c>
-      <c r="D23" t="s">
+      <c r="E24" s="1">
+        <v>43272.530555555553</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="G24">
+        <v>0.33</v>
+      </c>
+      <c r="H24">
+        <v>270</v>
+      </c>
+      <c r="K24">
+        <v>1</v>
+      </c>
+      <c r="L24">
+        <v>2</v>
+      </c>
+      <c r="M24" t="s">
+        <v>360</v>
+      </c>
+      <c r="N24" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>361</v>
+      </c>
+      <c r="B25" t="s">
         <v>31</v>
       </c>
-      <c r="E23" s="1">
-        <v>43272.530555555553</v>
-      </c>
-      <c r="F23" s="1"/>
-    </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B24" t="s">
+      <c r="C25" s="2">
+        <v>6972870370730</v>
+      </c>
+      <c r="D25" t="s">
         <v>32</v>
       </c>
-      <c r="C24" s="2">
-        <v>6972870370730</v>
-      </c>
-      <c r="D24" t="s">
+      <c r="E25" s="1">
+        <v>43272.53402777778</v>
+      </c>
+      <c r="F25" t="s">
+        <v>363</v>
+      </c>
+      <c r="G25">
+        <v>8.5299999999999994</v>
+      </c>
+      <c r="H25">
+        <v>90</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="N25" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>361</v>
+      </c>
+      <c r="B26" t="s">
+        <v>327</v>
+      </c>
+      <c r="C26" s="2">
+        <v>6972775370330</v>
+      </c>
+      <c r="D26" t="s">
         <v>33</v>
       </c>
-      <c r="E24" s="1">
-        <v>43272.53402777778</v>
-      </c>
-      <c r="F24" s="1"/>
-    </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B25" t="s">
+      <c r="E26" s="1">
+        <v>43272.539583333331</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="G26">
+        <v>0.05</v>
+      </c>
+      <c r="H26">
+        <v>90</v>
+      </c>
+      <c r="K26">
+        <v>1</v>
+      </c>
+      <c r="L26">
+        <v>2</v>
+      </c>
+      <c r="M26" t="s">
+        <v>369</v>
+      </c>
+      <c r="N26" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>361</v>
+      </c>
+      <c r="B27" t="s">
+        <v>321</v>
+      </c>
+      <c r="C27" s="2">
+        <v>6972275368795</v>
+      </c>
+      <c r="D27" t="s">
+        <v>364</v>
+      </c>
+      <c r="E27" s="1">
+        <v>43272.561111111114</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="N27" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>361</v>
+      </c>
+      <c r="B28" t="s">
+        <v>328</v>
+      </c>
+      <c r="C28" s="2">
+        <v>6972145368891</v>
+      </c>
+      <c r="D28" t="s">
         <v>34</v>
       </c>
-      <c r="C25" s="2">
-        <v>6972775370330</v>
-      </c>
-      <c r="D25" t="s">
+      <c r="E28" s="1">
+        <v>43272.564583333333</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="G28">
+        <v>0</v>
+      </c>
+      <c r="H28">
+        <v>0</v>
+      </c>
+      <c r="K28">
+        <v>1</v>
+      </c>
+      <c r="L28">
+        <v>25</v>
+      </c>
+      <c r="M28" t="s">
+        <v>370</v>
+      </c>
+      <c r="N28" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>361</v>
+      </c>
+      <c r="B29" t="s">
+        <v>329</v>
+      </c>
+      <c r="C29" s="2">
+        <v>6971716369396</v>
+      </c>
+      <c r="D29" t="s">
         <v>35</v>
       </c>
-      <c r="E25" s="1">
-        <v>43272.539583333331</v>
-      </c>
-      <c r="F25" s="1"/>
-    </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B26" t="s">
+      <c r="E29" s="1">
+        <v>43272.57708333333</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="G29">
+        <v>0.18</v>
+      </c>
+      <c r="H29">
+        <v>90</v>
+      </c>
+      <c r="K29">
+        <v>1</v>
+      </c>
+      <c r="L29">
+        <v>9</v>
+      </c>
+      <c r="M29" t="s">
+        <v>350</v>
+      </c>
+      <c r="N29" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>361</v>
+      </c>
+      <c r="B30" t="s">
+        <v>329</v>
+      </c>
+      <c r="C30" s="2">
+        <v>6971716369396</v>
+      </c>
+      <c r="D30" t="s">
+        <v>35</v>
+      </c>
+      <c r="E30" s="1">
+        <v>43272.57708333333</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="G30">
+        <v>0.36</v>
+      </c>
+      <c r="H30">
+        <v>270</v>
+      </c>
+      <c r="K30">
+        <v>1</v>
+      </c>
+      <c r="L30">
+        <v>10</v>
+      </c>
+      <c r="M30" t="s">
+        <v>350</v>
+      </c>
+      <c r="N30" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>361</v>
+      </c>
+      <c r="B31" t="s">
+        <v>330</v>
+      </c>
+      <c r="C31" s="2">
+        <v>6971670369452</v>
+      </c>
+      <c r="D31" t="s">
         <v>36</v>
       </c>
-      <c r="C26" s="2">
-        <v>6972145368891</v>
-      </c>
-      <c r="D26" t="s">
+      <c r="E31" s="1">
+        <v>43272.579861111109</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="G31">
+        <v>0.12</v>
+      </c>
+      <c r="H31">
+        <v>90</v>
+      </c>
+      <c r="K31">
+        <v>1</v>
+      </c>
+      <c r="L31">
+        <v>28</v>
+      </c>
+      <c r="M31" t="s">
+        <v>350</v>
+      </c>
+      <c r="N31" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>361</v>
+      </c>
+      <c r="B32" t="s">
+        <v>330</v>
+      </c>
+      <c r="C32" s="2">
+        <v>6971670369452</v>
+      </c>
+      <c r="D32" t="s">
+        <v>36</v>
+      </c>
+      <c r="E32" s="1">
+        <v>43272.579861111109</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="G32">
+        <v>0.03</v>
+      </c>
+      <c r="H32">
+        <v>270</v>
+      </c>
+      <c r="K32">
+        <v>1</v>
+      </c>
+      <c r="L32">
+        <v>32</v>
+      </c>
+      <c r="M32" t="s">
+        <v>350</v>
+      </c>
+      <c r="N32" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>361</v>
+      </c>
+      <c r="B33" t="s">
+        <v>31</v>
+      </c>
+      <c r="C33" s="2">
+        <v>6971344369813</v>
+      </c>
+      <c r="D33" t="s">
         <v>37</v>
       </c>
-      <c r="E26" s="1">
-        <v>43272.564583333333</v>
-      </c>
-      <c r="F26" s="1"/>
-    </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B27" t="s">
+      <c r="E33" s="1">
+        <v>43272.59097222222</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="G33">
+        <v>12</v>
+      </c>
+      <c r="H33">
+        <v>245</v>
+      </c>
+      <c r="L33">
+        <v>1</v>
+      </c>
+      <c r="N33" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>361</v>
+      </c>
+      <c r="B34" t="s">
+        <v>334</v>
+      </c>
+      <c r="C34" s="2">
+        <v>6970950370375</v>
+      </c>
+      <c r="D34" t="s">
         <v>38</v>
       </c>
-      <c r="C27" s="2">
-        <v>6971716369396</v>
-      </c>
-      <c r="D27" t="s">
+      <c r="E34" s="1">
+        <v>43272.599305555559</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="N34" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>361</v>
+      </c>
+      <c r="B35" t="s">
+        <v>365</v>
+      </c>
+      <c r="C35" s="2">
+        <v>6971077370439</v>
+      </c>
+      <c r="D35" t="s">
         <v>39</v>
       </c>
-      <c r="E27" s="1">
-        <v>43272.57708333333</v>
-      </c>
-      <c r="F27" s="1"/>
-    </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B28" t="s">
+      <c r="E35" s="1">
+        <v>43272.602777777778</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="G35">
+        <v>18.600000000000001</v>
+      </c>
+      <c r="H35">
+        <v>348</v>
+      </c>
+      <c r="I35" t="s">
+        <v>367</v>
+      </c>
+      <c r="L35">
+        <v>1</v>
+      </c>
+      <c r="N35" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>361</v>
+      </c>
+      <c r="B36" t="s">
+        <v>334</v>
+      </c>
+      <c r="C36" s="2">
+        <v>6971115370459</v>
+      </c>
+      <c r="D36" t="s">
+        <v>39</v>
+      </c>
+      <c r="E36" s="1">
+        <v>43272.604861111111</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="N36" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>361</v>
+      </c>
+      <c r="B37" t="s">
+        <v>331</v>
+      </c>
+      <c r="C37" s="2">
+        <v>6970732370812</v>
+      </c>
+      <c r="D37" t="s">
         <v>40</v>
       </c>
-      <c r="C28" s="2">
-        <v>6971670369452</v>
-      </c>
-      <c r="D28" t="s">
+      <c r="E37" s="1">
+        <v>43272.611111111109</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="G37">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="H37">
+        <v>90</v>
+      </c>
+      <c r="K37">
+        <v>1</v>
+      </c>
+      <c r="L37">
+        <v>12</v>
+      </c>
+      <c r="M37" t="s">
+        <v>354</v>
+      </c>
+      <c r="N37" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>361</v>
+      </c>
+      <c r="B38" t="s">
+        <v>336</v>
+      </c>
+      <c r="C38" s="2">
+        <v>6970232371242</v>
+      </c>
+      <c r="D38" t="s">
         <v>41</v>
       </c>
-      <c r="E28" s="1">
-        <v>43272.579861111109</v>
-      </c>
-      <c r="F28" s="1"/>
-    </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B29" t="s">
+      <c r="E38" s="1">
+        <v>43272.620138888888</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="G38">
+        <v>0.03</v>
+      </c>
+      <c r="H38">
+        <v>90</v>
+      </c>
+      <c r="K38">
+        <v>1</v>
+      </c>
+      <c r="L38">
+        <v>1</v>
+      </c>
+      <c r="M38" t="s">
+        <v>353</v>
+      </c>
+      <c r="N38" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>361</v>
+      </c>
+      <c r="B39" t="s">
+        <v>31</v>
+      </c>
+      <c r="C39" s="2">
+        <v>6970179371313</v>
+      </c>
+      <c r="D39" t="s">
+        <v>37</v>
+      </c>
+      <c r="E39" s="1">
+        <v>43272.62222222222</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="G39">
+        <v>89</v>
+      </c>
+      <c r="H39">
+        <v>84</v>
+      </c>
+      <c r="L39">
+        <v>2</v>
+      </c>
+      <c r="N39" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>361</v>
+      </c>
+      <c r="B40" t="s">
+        <v>332</v>
+      </c>
+      <c r="C40" s="2">
+        <v>6969791371950</v>
+      </c>
+      <c r="D40" t="s">
+        <v>52</v>
+      </c>
+      <c r="E40" s="1">
+        <v>43272.637499999997</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="N40" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>361</v>
+      </c>
+      <c r="B41" t="s">
+        <v>337</v>
+      </c>
+      <c r="C41" s="2">
+        <v>6970457371894</v>
+      </c>
+      <c r="D41" t="s">
         <v>42</v>
       </c>
-      <c r="C29" s="2">
-        <v>6971344369813</v>
-      </c>
-      <c r="D29" t="s">
+      <c r="E41" s="1">
+        <v>43272.645833333336</v>
+      </c>
+      <c r="F41" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="G41">
+        <v>0</v>
+      </c>
+      <c r="H41">
+        <v>0</v>
+      </c>
+      <c r="K41">
+        <v>1</v>
+      </c>
+      <c r="L41">
+        <v>16</v>
+      </c>
+      <c r="M41" t="s">
+        <v>371</v>
+      </c>
+      <c r="N41" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>361</v>
+      </c>
+      <c r="B42" t="s">
+        <v>338</v>
+      </c>
+      <c r="C42" s="2">
+        <v>6970401372178</v>
+      </c>
+      <c r="D42" t="s">
         <v>43</v>
       </c>
-      <c r="E29" s="1">
-        <v>43272.59097222222</v>
-      </c>
-      <c r="F29" s="1"/>
-    </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B30" t="s">
+      <c r="E42" s="1">
+        <v>43272.647916666669</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="G42">
+        <v>0.48</v>
+      </c>
+      <c r="H42">
+        <v>270</v>
+      </c>
+      <c r="K42">
+        <v>1</v>
+      </c>
+      <c r="L42">
+        <v>3</v>
+      </c>
+      <c r="M42" t="s">
+        <v>354</v>
+      </c>
+      <c r="N42" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>361</v>
+      </c>
+      <c r="B43" t="s">
+        <v>338</v>
+      </c>
+      <c r="C43" s="2">
+        <v>6970401372178</v>
+      </c>
+      <c r="D43" t="s">
+        <v>43</v>
+      </c>
+      <c r="E43" s="1">
+        <v>43272.647916666669</v>
+      </c>
+      <c r="F43" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="G43">
+        <v>1.0900000000000001</v>
+      </c>
+      <c r="H43">
+        <v>270</v>
+      </c>
+      <c r="K43">
+        <v>1</v>
+      </c>
+      <c r="M43" t="s">
+        <v>354</v>
+      </c>
+      <c r="N43" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>361</v>
+      </c>
+      <c r="B44" t="s">
+        <v>339</v>
+      </c>
+      <c r="C44" s="2">
+        <v>6972049372362</v>
+      </c>
+      <c r="D44" t="s">
+        <v>32</v>
+      </c>
+      <c r="E44" s="1">
+        <v>43272.762499999997</v>
+      </c>
+      <c r="F44" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="G44">
+        <v>0.39</v>
+      </c>
+      <c r="H44">
+        <v>270</v>
+      </c>
+      <c r="K44">
+        <v>1</v>
+      </c>
+      <c r="L44">
+        <v>16</v>
+      </c>
+      <c r="M44" t="s">
+        <v>372</v>
+      </c>
+      <c r="N44" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>361</v>
+      </c>
+      <c r="B45" t="s">
+        <v>340</v>
+      </c>
+      <c r="C45" s="2">
+        <v>6972064372366</v>
+      </c>
+      <c r="D45" t="s">
         <v>44</v>
       </c>
-      <c r="C30" s="2">
-        <v>6970950370375</v>
-      </c>
-      <c r="D30" t="s">
-        <v>45</v>
-      </c>
-      <c r="E30" s="1">
-        <v>43272.599305555559</v>
-      </c>
-      <c r="F30" s="1"/>
-    </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B31" t="s">
-        <v>46</v>
-      </c>
-      <c r="C31" s="2">
-        <v>6971077370439</v>
-      </c>
-      <c r="D31" t="s">
-        <v>47</v>
-      </c>
-      <c r="E31" s="1">
-        <v>43272.602777777778</v>
-      </c>
-      <c r="F31" s="1"/>
-    </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B32" t="s">
-        <v>48</v>
-      </c>
-      <c r="C32" s="2">
-        <v>6971115370459</v>
-      </c>
-      <c r="D32" t="s">
-        <v>47</v>
-      </c>
-      <c r="E32" s="1">
-        <v>43272.604861111111</v>
-      </c>
-      <c r="F32" s="1"/>
-    </row>
-    <row r="33" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B33" t="s">
-        <v>49</v>
-      </c>
-      <c r="C33" s="2">
-        <v>6970732370812</v>
-      </c>
-      <c r="D33" t="s">
-        <v>50</v>
-      </c>
-      <c r="E33" s="1">
-        <v>43272.611111111109</v>
-      </c>
-      <c r="F33" s="1"/>
-    </row>
-    <row r="34" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B34" t="s">
-        <v>51</v>
-      </c>
-      <c r="C34" s="2">
-        <v>6970232371242</v>
-      </c>
-      <c r="D34" t="s">
-        <v>52</v>
-      </c>
-      <c r="E34" s="1">
-        <v>43272.620138888888</v>
-      </c>
-      <c r="F34" s="1"/>
-    </row>
-    <row r="35" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B35" t="s">
-        <v>53</v>
-      </c>
-      <c r="C35" s="2">
-        <v>6970179371313</v>
-      </c>
-      <c r="D35" t="s">
-        <v>43</v>
-      </c>
-      <c r="E35" s="1">
-        <v>43272.62222222222</v>
-      </c>
-      <c r="F35" s="1"/>
-    </row>
-    <row r="36" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B36" t="s">
-        <v>54</v>
-      </c>
-      <c r="C36" s="2">
-        <v>6970457371894</v>
-      </c>
-      <c r="D36" t="s">
-        <v>55</v>
-      </c>
-      <c r="E36" s="1">
-        <v>43272.645833333336</v>
-      </c>
-      <c r="F36" s="1"/>
-    </row>
-    <row r="37" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B37" t="s">
-        <v>56</v>
-      </c>
-      <c r="C37" s="2">
-        <v>6970401372178</v>
-      </c>
-      <c r="D37" t="s">
-        <v>57</v>
-      </c>
-      <c r="E37" s="1">
-        <v>43272.647916666669</v>
-      </c>
-      <c r="F37" s="1"/>
-    </row>
-    <row r="38" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B38" t="s">
-        <v>58</v>
-      </c>
-      <c r="C38" s="2">
-        <v>6972049372362</v>
-      </c>
-      <c r="D38" t="s">
-        <v>33</v>
-      </c>
-      <c r="E38" s="1">
-        <v>43272.762499999997</v>
-      </c>
-      <c r="F38" s="1"/>
-    </row>
-    <row r="39" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B39" t="s">
-        <v>59</v>
-      </c>
-      <c r="C39" s="2">
+      <c r="E45" s="1">
+        <v>43272.763888888891</v>
+      </c>
+      <c r="F45" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="G45">
+        <v>0.08</v>
+      </c>
+      <c r="H45">
+        <v>90</v>
+      </c>
+      <c r="K45">
+        <v>1</v>
+      </c>
+      <c r="L45">
+        <v>17</v>
+      </c>
+      <c r="M45" t="s">
+        <v>372</v>
+      </c>
+      <c r="N45" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>361</v>
+      </c>
+      <c r="B46" t="s">
+        <v>340</v>
+      </c>
+      <c r="C46" s="2">
         <v>6972064372366</v>
       </c>
-      <c r="D39" t="s">
-        <v>60</v>
-      </c>
-      <c r="E39" s="1">
+      <c r="D46" t="s">
+        <v>44</v>
+      </c>
+      <c r="E46" s="1">
         <v>43272.763888888891</v>
       </c>
-      <c r="F39" s="1"/>
-    </row>
-    <row r="40" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B40" t="s">
-        <v>61</v>
-      </c>
-      <c r="C40" s="2">
+      <c r="F46" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="G46">
+        <v>0.34</v>
+      </c>
+      <c r="H46">
+        <v>90</v>
+      </c>
+      <c r="K46">
+        <v>1</v>
+      </c>
+      <c r="L46">
+        <v>14</v>
+      </c>
+      <c r="M46" t="s">
+        <v>372</v>
+      </c>
+      <c r="N46" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>361</v>
+      </c>
+      <c r="B47" t="s">
+        <v>343</v>
+      </c>
+      <c r="C47" s="2">
         <v>6972536372393</v>
-      </c>
-      <c r="D40" t="s">
-        <v>62</v>
-      </c>
-      <c r="E40" s="1">
-        <v>43272.770138888889</v>
-      </c>
-      <c r="F40" s="1"/>
-    </row>
-    <row r="41" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B41" t="s">
-        <v>63</v>
-      </c>
-      <c r="C41" s="2">
-        <v>6972698372400</v>
-      </c>
-      <c r="D41" t="s">
-        <v>60</v>
-      </c>
-      <c r="E41" s="1">
-        <v>43272.772916666669</v>
-      </c>
-      <c r="F41" s="1"/>
-    </row>
-    <row r="42" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B42" t="s">
-        <v>64</v>
-      </c>
-      <c r="C42" s="2">
-        <v>6979259374093</v>
-      </c>
-      <c r="D42" t="s">
-        <v>65</v>
-      </c>
-      <c r="E42" s="1">
-        <v>43275.482638888891</v>
-      </c>
-      <c r="F42" s="1"/>
-    </row>
-    <row r="43" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B43" t="s">
-        <v>66</v>
-      </c>
-      <c r="C43" s="2">
-        <v>6979294374207</v>
-      </c>
-      <c r="D43" t="s">
-        <v>67</v>
-      </c>
-      <c r="E43" s="1">
-        <v>43275.486111111109</v>
-      </c>
-      <c r="F43" s="1"/>
-    </row>
-    <row r="44" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B44" t="s">
-        <v>68</v>
-      </c>
-      <c r="C44" s="2">
-        <v>6979349374543</v>
-      </c>
-      <c r="D44" t="s">
-        <v>69</v>
-      </c>
-      <c r="E44" s="1">
-        <v>43275.490972222222</v>
-      </c>
-      <c r="F44" s="1"/>
-    </row>
-    <row r="45" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B45" t="s">
-        <v>70</v>
-      </c>
-      <c r="C45" s="2">
-        <v>6979393375428</v>
-      </c>
-      <c r="D45" t="s">
-        <v>71</v>
-      </c>
-      <c r="E45" s="1">
-        <v>43275.503472222219</v>
-      </c>
-      <c r="F45" s="1"/>
-    </row>
-    <row r="46" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B46" t="s">
-        <v>72</v>
-      </c>
-      <c r="C46" s="2">
-        <v>6979402375452</v>
-      </c>
-      <c r="D46" t="s">
-        <v>45</v>
-      </c>
-      <c r="E46" s="1">
-        <v>43275.505555555559</v>
-      </c>
-      <c r="F46" s="1"/>
-    </row>
-    <row r="47" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B47" t="s">
-        <v>73</v>
-      </c>
-      <c r="C47" s="2">
-        <v>6979403375458</v>
       </c>
       <c r="D47" t="s">
         <v>45</v>
       </c>
       <c r="E47" s="1">
+        <v>43272.770138888889</v>
+      </c>
+      <c r="F47" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="G47">
+        <v>0</v>
+      </c>
+      <c r="H47">
+        <v>0</v>
+      </c>
+      <c r="K47">
+        <v>1</v>
+      </c>
+      <c r="L47">
+        <v>5</v>
+      </c>
+      <c r="M47" t="s">
+        <v>372</v>
+      </c>
+      <c r="N47" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>361</v>
+      </c>
+      <c r="B48" t="s">
+        <v>344</v>
+      </c>
+      <c r="C48" s="2">
+        <v>6972698372400</v>
+      </c>
+      <c r="D48" t="s">
+        <v>44</v>
+      </c>
+      <c r="E48" s="1">
+        <v>43272.772916666669</v>
+      </c>
+      <c r="F48" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="G48">
+        <v>0.16</v>
+      </c>
+      <c r="H48">
+        <v>270</v>
+      </c>
+      <c r="K48">
+        <v>1</v>
+      </c>
+      <c r="L48">
+        <v>22</v>
+      </c>
+      <c r="M48" t="s">
+        <v>372</v>
+      </c>
+      <c r="N48" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>361</v>
+      </c>
+      <c r="B49" t="s">
+        <v>344</v>
+      </c>
+      <c r="C49" s="2">
+        <v>6972698372400</v>
+      </c>
+      <c r="D49" t="s">
+        <v>44</v>
+      </c>
+      <c r="E49" s="1">
+        <v>43272.772916666669</v>
+      </c>
+      <c r="F49" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="G49">
+        <v>0.31</v>
+      </c>
+      <c r="H49">
+        <v>270</v>
+      </c>
+      <c r="K49">
+        <v>1</v>
+      </c>
+      <c r="L49">
+        <v>18</v>
+      </c>
+      <c r="M49" t="s">
+        <v>372</v>
+      </c>
+      <c r="N49" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="F50" s="1"/>
+    </row>
+    <row r="51" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>373</v>
+      </c>
+      <c r="B51" t="s">
+        <v>374</v>
+      </c>
+      <c r="C51" s="2">
+        <v>6979244373084</v>
+      </c>
+      <c r="D51" t="s">
+        <v>29</v>
+      </c>
+      <c r="E51" s="1">
+        <v>43275.466666666667</v>
+      </c>
+      <c r="F51" t="s">
+        <v>324</v>
+      </c>
+      <c r="N51" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="52" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>373</v>
+      </c>
+      <c r="B52" t="s">
+        <v>325</v>
+      </c>
+      <c r="C52" s="2">
+        <v>6979259374093</v>
+      </c>
+      <c r="D52" t="s">
+        <v>46</v>
+      </c>
+      <c r="E52" s="1">
+        <v>43275.482638888891</v>
+      </c>
+      <c r="F52" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="G52">
+        <v>0.47</v>
+      </c>
+      <c r="H52">
+        <v>90</v>
+      </c>
+      <c r="K52">
+        <v>1</v>
+      </c>
+      <c r="L52">
+        <v>38</v>
+      </c>
+      <c r="M52" t="s">
+        <v>375</v>
+      </c>
+      <c r="N52" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="53" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>373</v>
+      </c>
+      <c r="B53" t="s">
+        <v>327</v>
+      </c>
+      <c r="C53" s="2">
+        <v>6979294374207</v>
+      </c>
+      <c r="D53" t="s">
+        <v>47</v>
+      </c>
+      <c r="E53" s="1">
+        <v>43275.486111111109</v>
+      </c>
+      <c r="F53" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="G53">
+        <v>0.09</v>
+      </c>
+      <c r="H53">
+        <v>90</v>
+      </c>
+      <c r="K53">
+        <v>1</v>
+      </c>
+      <c r="L53">
+        <v>2</v>
+      </c>
+      <c r="M53" t="s">
+        <v>375</v>
+      </c>
+      <c r="N53" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="54" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>373</v>
+      </c>
+      <c r="B54" t="s">
+        <v>328</v>
+      </c>
+      <c r="C54" s="2">
+        <v>6979349374543</v>
+      </c>
+      <c r="D54" t="s">
+        <v>48</v>
+      </c>
+      <c r="E54" s="1">
+        <v>43275.490972222222</v>
+      </c>
+      <c r="F54" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="G54">
+        <v>1.1200000000000001</v>
+      </c>
+      <c r="H54">
+        <v>270</v>
+      </c>
+      <c r="K54">
+        <v>1</v>
+      </c>
+      <c r="L54">
+        <v>10</v>
+      </c>
+      <c r="M54" t="s">
+        <v>354</v>
+      </c>
+      <c r="N54" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="55" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>373</v>
+      </c>
+      <c r="B55" t="s">
+        <v>329</v>
+      </c>
+      <c r="C55" s="2">
+        <v>6979393375428</v>
+      </c>
+      <c r="D55" t="s">
+        <v>49</v>
+      </c>
+      <c r="E55" s="1">
+        <v>43275.503472222219</v>
+      </c>
+      <c r="F55" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="G55">
+        <v>1.22</v>
+      </c>
+      <c r="H55">
+        <v>270</v>
+      </c>
+      <c r="K55">
+        <v>1</v>
+      </c>
+      <c r="L55">
+        <v>5</v>
+      </c>
+      <c r="M55" t="s">
+        <v>354</v>
+      </c>
+      <c r="N55" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="56" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>373</v>
+      </c>
+      <c r="B56" t="s">
+        <v>329</v>
+      </c>
+      <c r="C56" s="2">
+        <v>6979393375428</v>
+      </c>
+      <c r="D56" t="s">
+        <v>49</v>
+      </c>
+      <c r="E56" s="1">
+        <v>43275.503472222219</v>
+      </c>
+      <c r="F56" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="G56">
+        <v>1.27</v>
+      </c>
+      <c r="H56">
+        <v>270</v>
+      </c>
+      <c r="K56">
+        <v>1</v>
+      </c>
+      <c r="L56">
+        <v>10</v>
+      </c>
+      <c r="M56" t="s">
+        <v>354</v>
+      </c>
+      <c r="N56" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="57" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>373</v>
+      </c>
+      <c r="B57" t="s">
+        <v>330</v>
+      </c>
+      <c r="C57" s="2">
+        <v>6979402375452</v>
+      </c>
+      <c r="D57" t="s">
+        <v>38</v>
+      </c>
+      <c r="E57" s="1">
+        <v>43275.505555555559</v>
+      </c>
+      <c r="F57" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="G57">
+        <v>0.11</v>
+      </c>
+      <c r="H57">
+        <v>90</v>
+      </c>
+      <c r="K57">
+        <v>1</v>
+      </c>
+      <c r="L57">
+        <v>3</v>
+      </c>
+      <c r="M57" t="s">
+        <v>377</v>
+      </c>
+      <c r="N57" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="58" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>373</v>
+      </c>
+      <c r="B58" t="s">
+        <v>331</v>
+      </c>
+      <c r="C58" s="2">
+        <v>6979403375458</v>
+      </c>
+      <c r="D58" t="s">
+        <v>38</v>
+      </c>
+      <c r="E58" s="1">
         <v>43275.506249999999</v>
       </c>
-      <c r="F47" s="1"/>
-    </row>
-    <row r="48" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B48" t="s">
-        <v>74</v>
-      </c>
-      <c r="C48" s="2">
+      <c r="F58" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="G58">
+        <v>0.16</v>
+      </c>
+      <c r="H58">
+        <v>270</v>
+      </c>
+      <c r="K58">
+        <v>1</v>
+      </c>
+      <c r="L58">
+        <v>4</v>
+      </c>
+      <c r="M58" t="s">
+        <v>375</v>
+      </c>
+      <c r="N58" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="59" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>373</v>
+      </c>
+      <c r="B59" t="s">
+        <v>336</v>
+      </c>
+      <c r="C59" s="2">
         <v>6979447375644</v>
-      </c>
-      <c r="D48" t="s">
-        <v>75</v>
-      </c>
-      <c r="E48" s="1">
-        <v>43275.509027777778</v>
-      </c>
-      <c r="F48" s="1"/>
-    </row>
-    <row r="49" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B49" t="s">
-        <v>76</v>
-      </c>
-      <c r="C49" s="2">
-        <v>6979449375655</v>
-      </c>
-      <c r="D49" t="s">
-        <v>75</v>
-      </c>
-      <c r="E49" s="1">
-        <v>43275.510416666664</v>
-      </c>
-      <c r="F49" s="1"/>
-    </row>
-    <row r="50" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B50" t="s">
-        <v>77</v>
-      </c>
-      <c r="C50" s="2">
-        <v>6979453375702</v>
-      </c>
-      <c r="D50" t="s">
-        <v>78</v>
-      </c>
-      <c r="E50" s="1">
-        <v>43275.511805555558</v>
-      </c>
-      <c r="F50" s="1"/>
-    </row>
-    <row r="51" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B51" t="s">
-        <v>79</v>
-      </c>
-      <c r="C51" s="2">
-        <v>6979461376376</v>
-      </c>
-      <c r="D51" t="s">
-        <v>80</v>
-      </c>
-      <c r="E51" s="1">
-        <v>43275.520138888889</v>
-      </c>
-      <c r="F51" s="1"/>
-    </row>
-    <row r="52" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B52" t="s">
-        <v>81</v>
-      </c>
-      <c r="C52" s="2">
-        <v>6979810376940</v>
-      </c>
-      <c r="D52" t="s">
-        <v>80</v>
-      </c>
-      <c r="E52" s="1">
-        <v>43275.574305555558</v>
-      </c>
-      <c r="F52" s="1"/>
-    </row>
-    <row r="53" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B53" t="s">
-        <v>82</v>
-      </c>
-      <c r="C53" s="2">
-        <v>6979827376931</v>
-      </c>
-      <c r="D53" t="s">
-        <v>60</v>
-      </c>
-      <c r="E53" s="1">
-        <v>43275.577777777777</v>
-      </c>
-      <c r="F53" s="1"/>
-    </row>
-    <row r="54" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B54" t="s">
-        <v>83</v>
-      </c>
-      <c r="C54" s="2">
-        <v>6980190376690</v>
-      </c>
-      <c r="D54" t="s">
-        <v>84</v>
-      </c>
-      <c r="E54" s="1">
-        <v>43275.584722222222</v>
-      </c>
-      <c r="F54" s="1"/>
-    </row>
-    <row r="55" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B55" t="s">
-        <v>85</v>
-      </c>
-      <c r="C55" s="2">
-        <v>6980386376751</v>
-      </c>
-      <c r="D55" t="s">
-        <v>86</v>
-      </c>
-      <c r="E55" s="1">
-        <v>43275.587500000001</v>
-      </c>
-      <c r="F55" s="1"/>
-    </row>
-    <row r="56" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B56" t="s">
-        <v>87</v>
-      </c>
-      <c r="C56" s="2">
-        <v>6980495376677</v>
-      </c>
-      <c r="D56" t="s">
-        <v>88</v>
-      </c>
-      <c r="E56" s="1">
-        <v>43275.591666666667</v>
-      </c>
-      <c r="F56" s="1"/>
-    </row>
-    <row r="57" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B57" t="s">
-        <v>89</v>
-      </c>
-      <c r="C57" s="2">
-        <v>6981379376002</v>
-      </c>
-      <c r="D57" t="s">
-        <v>55</v>
-      </c>
-      <c r="E57" s="1">
-        <v>43275.605555555558</v>
-      </c>
-      <c r="F57" s="1"/>
-    </row>
-    <row r="58" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B58" t="s">
-        <v>90</v>
-      </c>
-      <c r="C58" s="2">
-        <v>6981405375984</v>
-      </c>
-      <c r="D58" t="s">
-        <v>91</v>
-      </c>
-      <c r="E58" s="1">
-        <v>43275.609722222223</v>
-      </c>
-      <c r="F58" s="1"/>
-    </row>
-    <row r="59" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B59" t="s">
-        <v>92</v>
-      </c>
-      <c r="C59" s="2">
-        <v>6981405375983</v>
       </c>
       <c r="D59" t="s">
         <v>50</v>
       </c>
       <c r="E59" s="1">
+        <v>43275.509027777778</v>
+      </c>
+      <c r="F59" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="G59">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="H59">
+        <v>270</v>
+      </c>
+      <c r="K59">
+        <v>1</v>
+      </c>
+      <c r="L59">
+        <v>2</v>
+      </c>
+      <c r="M59" t="s">
+        <v>375</v>
+      </c>
+      <c r="N59" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="60" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>373</v>
+      </c>
+      <c r="B60" t="s">
+        <v>337</v>
+      </c>
+      <c r="C60" s="2">
+        <v>6979449375655</v>
+      </c>
+      <c r="D60" t="s">
+        <v>50</v>
+      </c>
+      <c r="E60" s="1">
+        <v>43275.510416666664</v>
+      </c>
+      <c r="F60" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="G60">
+        <v>0.34</v>
+      </c>
+      <c r="H60">
+        <v>270</v>
+      </c>
+      <c r="K60">
+        <v>1</v>
+      </c>
+      <c r="L60">
+        <v>6</v>
+      </c>
+      <c r="M60" t="s">
+        <v>354</v>
+      </c>
+      <c r="N60" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="61" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
+        <v>373</v>
+      </c>
+      <c r="B61" t="s">
+        <v>337</v>
+      </c>
+      <c r="C61" s="2">
+        <v>6979449375655</v>
+      </c>
+      <c r="D61" t="s">
+        <v>50</v>
+      </c>
+      <c r="E61" s="1">
+        <v>43275.510416666664</v>
+      </c>
+      <c r="F61" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="G61">
+        <v>0.49</v>
+      </c>
+      <c r="H61">
+        <v>270</v>
+      </c>
+      <c r="K61">
+        <v>1</v>
+      </c>
+      <c r="L61">
+        <v>10</v>
+      </c>
+      <c r="M61" t="s">
+        <v>354</v>
+      </c>
+      <c r="N61" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="62" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
+        <v>373</v>
+      </c>
+      <c r="B62" t="s">
+        <v>338</v>
+      </c>
+      <c r="C62" s="2">
+        <v>6979453375702</v>
+      </c>
+      <c r="D62" t="s">
+        <v>51</v>
+      </c>
+      <c r="E62" s="1">
+        <v>43275.511805555558</v>
+      </c>
+      <c r="F62" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="G62">
+        <v>0.96</v>
+      </c>
+      <c r="H62">
+        <v>90</v>
+      </c>
+      <c r="K62">
+        <v>1</v>
+      </c>
+      <c r="L62">
+        <v>16</v>
+      </c>
+      <c r="M62" t="s">
+        <v>354</v>
+      </c>
+      <c r="N62" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="63" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
+        <v>373</v>
+      </c>
+      <c r="B63" t="s">
+        <v>338</v>
+      </c>
+      <c r="C63" s="2">
+        <v>6979453375702</v>
+      </c>
+      <c r="D63" t="s">
+        <v>51</v>
+      </c>
+      <c r="E63" s="1">
+        <v>43275.511805555558</v>
+      </c>
+      <c r="F63" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="G63">
+        <v>1.76</v>
+      </c>
+      <c r="H63">
+        <v>90</v>
+      </c>
+      <c r="K63">
+        <v>1</v>
+      </c>
+      <c r="L63">
+        <v>1</v>
+      </c>
+      <c r="M63" t="s">
+        <v>354</v>
+      </c>
+      <c r="N63" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="64" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
+        <v>373</v>
+      </c>
+      <c r="B64" t="s">
+        <v>339</v>
+      </c>
+      <c r="C64" s="2">
+        <v>6979461376376</v>
+      </c>
+      <c r="D64" t="s">
+        <v>52</v>
+      </c>
+      <c r="E64" s="1">
+        <v>43275.520138888889</v>
+      </c>
+      <c r="F64" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="G64">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="H64">
+        <v>270</v>
+      </c>
+      <c r="K64">
+        <v>1</v>
+      </c>
+      <c r="L64">
+        <v>13</v>
+      </c>
+      <c r="M64" t="s">
+        <v>377</v>
+      </c>
+      <c r="N64" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="65" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
+        <v>373</v>
+      </c>
+      <c r="B65" t="s">
+        <v>378</v>
+      </c>
+      <c r="C65" s="2">
+        <v>6979540377111</v>
+      </c>
+      <c r="D65" t="s">
+        <v>32</v>
+      </c>
+      <c r="E65" s="1">
+        <v>43275.53125</v>
+      </c>
+      <c r="F65" t="s">
+        <v>323</v>
+      </c>
+      <c r="N65" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="66" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
+        <v>373</v>
+      </c>
+      <c r="B66" t="s">
+        <v>340</v>
+      </c>
+      <c r="C66" s="2">
+        <v>6979810376940</v>
+      </c>
+      <c r="D66" t="s">
+        <v>52</v>
+      </c>
+      <c r="E66" s="1">
+        <v>43275.574305555558</v>
+      </c>
+      <c r="F66" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="G66">
+        <v>0.27</v>
+      </c>
+      <c r="H66">
+        <v>270</v>
+      </c>
+      <c r="K66">
+        <v>1</v>
+      </c>
+      <c r="L66">
+        <v>22</v>
+      </c>
+      <c r="M66" t="s">
+        <v>377</v>
+      </c>
+      <c r="N66" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="67" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A67" t="s">
+        <v>373</v>
+      </c>
+      <c r="B67" t="s">
+        <v>343</v>
+      </c>
+      <c r="C67" s="2">
+        <v>6979827376931</v>
+      </c>
+      <c r="D67" t="s">
+        <v>44</v>
+      </c>
+      <c r="E67" s="1">
+        <v>43275.577777777777</v>
+      </c>
+      <c r="F67" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="G67">
+        <v>0.03</v>
+      </c>
+      <c r="H67">
+        <v>90</v>
+      </c>
+      <c r="K67">
+        <v>1</v>
+      </c>
+      <c r="L67">
+        <v>10</v>
+      </c>
+      <c r="M67" t="s">
+        <v>375</v>
+      </c>
+      <c r="N67" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="68" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A68" t="s">
+        <v>373</v>
+      </c>
+      <c r="B68" t="s">
+        <v>334</v>
+      </c>
+      <c r="C68" s="2">
+        <v>6980190376690</v>
+      </c>
+      <c r="D68" t="s">
+        <v>53</v>
+      </c>
+      <c r="E68" s="1">
+        <v>43275.584722222222</v>
+      </c>
+      <c r="F68" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="N68" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="69" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A69" t="s">
+        <v>373</v>
+      </c>
+      <c r="B69" t="s">
+        <v>334</v>
+      </c>
+      <c r="C69" s="2">
+        <v>6980386376751</v>
+      </c>
+      <c r="D69" t="s">
+        <v>54</v>
+      </c>
+      <c r="E69" s="1">
+        <v>43275.587500000001</v>
+      </c>
+      <c r="F69" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="N69" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="70" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A70" t="s">
+        <v>373</v>
+      </c>
+      <c r="B70" t="s">
+        <v>344</v>
+      </c>
+      <c r="C70" s="2">
+        <v>6980495376677</v>
+      </c>
+      <c r="D70" t="s">
+        <v>55</v>
+      </c>
+      <c r="E70" s="1">
+        <v>43275.591666666667</v>
+      </c>
+      <c r="F70" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="G70">
+        <v>0.06</v>
+      </c>
+      <c r="H70">
+        <v>90</v>
+      </c>
+      <c r="K70">
+        <v>1</v>
+      </c>
+      <c r="L70">
+        <v>26</v>
+      </c>
+      <c r="M70" t="s">
+        <v>354</v>
+      </c>
+      <c r="N70" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="71" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A71" t="s">
+        <v>373</v>
+      </c>
+      <c r="B71" t="s">
+        <v>345</v>
+      </c>
+      <c r="C71" s="2">
+        <v>6981379376002</v>
+      </c>
+      <c r="D71" t="s">
+        <v>42</v>
+      </c>
+      <c r="E71" s="1">
+        <v>43275.605555555558</v>
+      </c>
+      <c r="F71" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="G71">
+        <v>0.04</v>
+      </c>
+      <c r="H71">
+        <v>270</v>
+      </c>
+      <c r="K71">
+        <v>1</v>
+      </c>
+      <c r="L71">
+        <v>11</v>
+      </c>
+      <c r="M71" t="s">
+        <v>379</v>
+      </c>
+      <c r="N71" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="72" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A72" t="s">
+        <v>373</v>
+      </c>
+      <c r="B72" t="s">
+        <v>380</v>
+      </c>
+      <c r="C72" s="2">
+        <v>6981405375984</v>
+      </c>
+      <c r="D72" t="s">
+        <v>56</v>
+      </c>
+      <c r="E72" s="1">
+        <v>43275.609722222223</v>
+      </c>
+      <c r="F72" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="G72">
+        <v>0</v>
+      </c>
+      <c r="H72">
+        <v>0</v>
+      </c>
+      <c r="K72">
+        <v>2</v>
+      </c>
+      <c r="L72" t="s">
+        <v>381</v>
+      </c>
+      <c r="M72" t="s">
+        <v>382</v>
+      </c>
+      <c r="N72" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="73" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A73" t="s">
+        <v>373</v>
+      </c>
+      <c r="B73" t="s">
+        <v>383</v>
+      </c>
+      <c r="C73" s="2">
+        <v>6981405375983</v>
+      </c>
+      <c r="D73" t="s">
+        <v>40</v>
+      </c>
+      <c r="E73" s="1">
         <v>43275.61041666667</v>
       </c>
-      <c r="F59" s="1"/>
-    </row>
-    <row r="60" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B60" t="s">
-        <v>93</v>
-      </c>
-      <c r="C60" s="2">
+      <c r="F73" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="G73">
+        <v>0.13</v>
+      </c>
+      <c r="H73">
+        <v>90</v>
+      </c>
+      <c r="K73">
+        <v>1</v>
+      </c>
+      <c r="L73">
+        <v>19</v>
+      </c>
+      <c r="M73" t="s">
+        <v>377</v>
+      </c>
+      <c r="N73" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="74" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A74" t="s">
+        <v>373</v>
+      </c>
+      <c r="B74" t="s">
+        <v>383</v>
+      </c>
+      <c r="C74" s="2">
+        <v>6981405375983</v>
+      </c>
+      <c r="D74" t="s">
+        <v>40</v>
+      </c>
+      <c r="E74" s="1">
+        <v>43275.61041666667</v>
+      </c>
+      <c r="F74" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="G74">
+        <v>0.98</v>
+      </c>
+      <c r="H74">
+        <v>90</v>
+      </c>
+      <c r="K74">
+        <v>1</v>
+      </c>
+      <c r="L74">
+        <v>20</v>
+      </c>
+      <c r="M74" t="s">
+        <v>377</v>
+      </c>
+      <c r="N74" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="75" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A75" t="s">
+        <v>373</v>
+      </c>
+      <c r="B75" t="s">
+        <v>365</v>
+      </c>
+      <c r="C75" s="2">
         <v>6982053375446</v>
       </c>
-      <c r="D60" t="s">
-        <v>94</v>
-      </c>
-      <c r="E60" s="1">
+      <c r="D75" t="s">
+        <v>57</v>
+      </c>
+      <c r="E75" s="1">
         <v>43275.62777777778</v>
       </c>
-      <c r="F60" s="1"/>
-    </row>
-    <row r="61" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B61" t="s">
-        <v>95</v>
-      </c>
-      <c r="C61" s="2">
+      <c r="F75" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="G75">
+        <v>16.2</v>
+      </c>
+      <c r="H75">
+        <v>352</v>
+      </c>
+      <c r="I75" t="s">
+        <v>367</v>
+      </c>
+      <c r="L75">
+        <v>1</v>
+      </c>
+      <c r="N75" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="76" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A76" t="s">
+        <v>373</v>
+      </c>
+      <c r="B76" t="s">
+        <v>384</v>
+      </c>
+      <c r="C76" s="2">
         <v>6982141375389</v>
       </c>
-      <c r="D61" t="s">
-        <v>96</v>
-      </c>
-      <c r="E61" s="1">
+      <c r="D76" t="s">
+        <v>58</v>
+      </c>
+      <c r="E76" s="1">
         <v>43275.633333333331</v>
       </c>
-      <c r="F61" s="1"/>
-    </row>
-    <row r="62" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B62" t="s">
-        <v>97</v>
-      </c>
-      <c r="C62" s="2">
+      <c r="F76" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="G76">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="H76">
+        <v>90</v>
+      </c>
+      <c r="K76">
+        <v>1</v>
+      </c>
+      <c r="L76">
+        <v>3</v>
+      </c>
+      <c r="M76" t="s">
+        <v>375</v>
+      </c>
+      <c r="N76" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="77" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A77" t="s">
+        <v>373</v>
+      </c>
+      <c r="B77" t="s">
+        <v>385</v>
+      </c>
+      <c r="C77" s="2">
         <v>6982655375095</v>
       </c>
-      <c r="D62" t="s">
-        <v>98</v>
-      </c>
-      <c r="E62" s="1">
+      <c r="D77" t="s">
+        <v>59</v>
+      </c>
+      <c r="E77" s="1">
         <v>43275.652083333334</v>
       </c>
-      <c r="F62" s="1"/>
-    </row>
-    <row r="63" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B63" t="s">
-        <v>99</v>
-      </c>
-      <c r="C63" s="2">
+      <c r="F77" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="G77">
+        <v>11.9</v>
+      </c>
+      <c r="H77">
+        <v>316</v>
+      </c>
+      <c r="I77" t="s">
+        <v>367</v>
+      </c>
+      <c r="L77">
+        <v>1</v>
+      </c>
+      <c r="N77" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="78" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A78" t="s">
+        <v>373</v>
+      </c>
+      <c r="B78" t="s">
+        <v>386</v>
+      </c>
+      <c r="C78" s="2">
         <v>6982782375018</v>
       </c>
-      <c r="D63" t="s">
-        <v>100</v>
-      </c>
-      <c r="E63" s="1">
+      <c r="D78" t="s">
+        <v>60</v>
+      </c>
+      <c r="E78" s="1">
         <v>43275.654861111114</v>
       </c>
-      <c r="F63" s="1"/>
-    </row>
-    <row r="64" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B64" t="s">
-        <v>101</v>
-      </c>
-      <c r="C64" s="2">
+      <c r="F78" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="G78">
+        <v>1.41</v>
+      </c>
+      <c r="H78">
+        <v>270</v>
+      </c>
+      <c r="K78">
+        <v>1</v>
+      </c>
+      <c r="L78">
+        <v>42</v>
+      </c>
+      <c r="M78" t="s">
+        <v>375</v>
+      </c>
+      <c r="N78" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="79" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A79" t="s">
+        <v>373</v>
+      </c>
+      <c r="B79" t="s">
+        <v>387</v>
+      </c>
+      <c r="C79" s="2">
         <v>6982934374992</v>
       </c>
-      <c r="D64" t="s">
-        <v>45</v>
-      </c>
-      <c r="E64" s="1">
+      <c r="D79" t="s">
+        <v>38</v>
+      </c>
+      <c r="E79" s="1">
         <v>43275.660416666666</v>
       </c>
-      <c r="F64" s="1"/>
-    </row>
-    <row r="65" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B65" t="s">
-        <v>102</v>
-      </c>
-      <c r="C65" s="2">
+      <c r="F79" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="G79">
+        <v>36.200000000000003</v>
+      </c>
+      <c r="H79">
+        <v>282</v>
+      </c>
+      <c r="I79" t="s">
+        <v>367</v>
+      </c>
+      <c r="L79">
+        <v>2</v>
+      </c>
+      <c r="N79" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="80" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A80" t="s">
+        <v>373</v>
+      </c>
+      <c r="B80" t="s">
+        <v>387</v>
+      </c>
+      <c r="C80" s="2">
+        <v>6982934374992</v>
+      </c>
+      <c r="D80" t="s">
+        <v>38</v>
+      </c>
+      <c r="E80" s="1">
+        <v>43275.660416666666</v>
+      </c>
+      <c r="F80" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="G80">
+        <v>1.78</v>
+      </c>
+      <c r="H80">
+        <v>270</v>
+      </c>
+      <c r="K80">
+        <v>1</v>
+      </c>
+      <c r="L80">
+        <v>5</v>
+      </c>
+      <c r="M80" t="s">
+        <v>388</v>
+      </c>
+      <c r="N80" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="81" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A81" t="s">
+        <v>373</v>
+      </c>
+      <c r="B81" t="s">
+        <v>389</v>
+      </c>
+      <c r="C81" s="2">
+        <v>6983066374961</v>
+      </c>
+      <c r="D81" t="s">
+        <v>390</v>
+      </c>
+      <c r="E81" s="1">
+        <v>43275.665972222225</v>
+      </c>
+      <c r="F81" t="s">
+        <v>323</v>
+      </c>
+      <c r="N81" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="82" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A82" t="s">
+        <v>373</v>
+      </c>
+      <c r="B82" t="s">
+        <v>389</v>
+      </c>
+      <c r="C82" s="2">
+        <v>6983066374961</v>
+      </c>
+      <c r="D82" t="s">
+        <v>390</v>
+      </c>
+      <c r="E82" s="1">
+        <v>43275.665972222225</v>
+      </c>
+      <c r="F82" t="s">
+        <v>326</v>
+      </c>
+      <c r="G82">
+        <v>0.22</v>
+      </c>
+      <c r="H82">
+        <v>270</v>
+      </c>
+      <c r="K82">
+        <v>1</v>
+      </c>
+      <c r="L82">
+        <v>2</v>
+      </c>
+      <c r="M82" t="s">
+        <v>391</v>
+      </c>
+      <c r="N82" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="83" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A83" t="s">
+        <v>373</v>
+      </c>
+      <c r="B83" t="s">
+        <v>392</v>
+      </c>
+      <c r="C83" s="2">
         <v>6982882374576</v>
       </c>
-      <c r="D65" t="s">
+      <c r="D83" t="s">
+        <v>49</v>
+      </c>
+      <c r="E83" s="1">
+        <v>43275.67291666667</v>
+      </c>
+      <c r="F83" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="G83">
+        <v>0.27</v>
+      </c>
+      <c r="H83">
+        <v>270</v>
+      </c>
+      <c r="K83">
+        <v>1</v>
+      </c>
+      <c r="L83">
+        <v>17</v>
+      </c>
+      <c r="M83" t="s">
+        <v>391</v>
+      </c>
+      <c r="N83" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="84" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A84" t="s">
+        <v>373</v>
+      </c>
+      <c r="B84" t="s">
+        <v>334</v>
+      </c>
+      <c r="C84" s="2">
+        <v>6982854374500</v>
+      </c>
+      <c r="D84" t="s">
+        <v>61</v>
+      </c>
+      <c r="E84" s="1">
+        <v>43275.675694444442</v>
+      </c>
+      <c r="F84" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="N84" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="85" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A85" t="s">
+        <v>373</v>
+      </c>
+      <c r="B85" t="s">
+        <v>393</v>
+      </c>
+      <c r="C85" s="2">
+        <v>6981881373834</v>
+      </c>
+      <c r="D85" t="s">
+        <v>62</v>
+      </c>
+      <c r="E85" s="1">
+        <v>43275.695833333331</v>
+      </c>
+      <c r="F85" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="G85">
+        <v>0.04</v>
+      </c>
+      <c r="H85">
+        <v>270</v>
+      </c>
+      <c r="K85">
+        <v>1</v>
+      </c>
+      <c r="L85">
+        <v>1</v>
+      </c>
+      <c r="M85" t="s">
+        <v>375</v>
+      </c>
+      <c r="N85" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="86" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A86" t="s">
+        <v>373</v>
+      </c>
+      <c r="B86" t="s">
+        <v>393</v>
+      </c>
+      <c r="C86" s="2">
+        <v>6981881373834</v>
+      </c>
+      <c r="D86" t="s">
+        <v>62</v>
+      </c>
+      <c r="E86" s="1">
+        <v>43275.695833333331</v>
+      </c>
+      <c r="F86" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="G86">
+        <v>0.84</v>
+      </c>
+      <c r="H86">
+        <v>270</v>
+      </c>
+      <c r="K86">
+        <v>1</v>
+      </c>
+      <c r="L86">
+        <v>32</v>
+      </c>
+      <c r="M86" t="s">
+        <v>372</v>
+      </c>
+      <c r="N86" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="87" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A87" t="s">
+        <v>373</v>
+      </c>
+      <c r="B87" t="s">
+        <v>334</v>
+      </c>
+      <c r="C87" s="2">
+        <v>6981316373475</v>
+      </c>
+      <c r="D87" t="s">
+        <v>63</v>
+      </c>
+      <c r="E87" s="1">
+        <v>43275.705555555556</v>
+      </c>
+      <c r="F87" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="N87" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="88" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A88" t="s">
+        <v>373</v>
+      </c>
+      <c r="B88" t="s">
+        <v>394</v>
+      </c>
+      <c r="C88" s="2">
+        <v>6980670373232</v>
+      </c>
+      <c r="D88" t="s">
+        <v>64</v>
+      </c>
+      <c r="E88" s="1">
+        <v>43275.720138888886</v>
+      </c>
+      <c r="F88" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="G88">
+        <v>0</v>
+      </c>
+      <c r="H88">
+        <v>0</v>
+      </c>
+      <c r="K88">
+        <v>1</v>
+      </c>
+      <c r="L88">
+        <v>1</v>
+      </c>
+      <c r="M88" t="s">
+        <v>375</v>
+      </c>
+      <c r="N88" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="89" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="F89" s="1"/>
+    </row>
+    <row r="90" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="F90" s="1"/>
+    </row>
+    <row r="91" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B91" t="s">
+        <v>65</v>
+      </c>
+      <c r="C91" s="2">
+        <v>6986702371776</v>
+      </c>
+      <c r="D91" t="s">
+        <v>66</v>
+      </c>
+      <c r="E91" s="1">
+        <v>43276.445138888892</v>
+      </c>
+      <c r="F91" s="1"/>
+    </row>
+    <row r="92" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B92" t="s">
+        <v>67</v>
+      </c>
+      <c r="C92" s="2">
+        <v>6988479373370</v>
+      </c>
+      <c r="D92" t="s">
+        <v>56</v>
+      </c>
+      <c r="E92" s="1">
+        <v>43276.551388888889</v>
+      </c>
+      <c r="F92" s="1"/>
+    </row>
+    <row r="93" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B93" t="s">
+        <v>68</v>
+      </c>
+      <c r="C93" s="2">
+        <v>6989072374165</v>
+      </c>
+      <c r="D93" t="s">
+        <v>69</v>
+      </c>
+      <c r="E93" s="1">
+        <v>43276.624305555553</v>
+      </c>
+      <c r="F93" s="1"/>
+    </row>
+    <row r="94" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B94" t="s">
+        <v>70</v>
+      </c>
+      <c r="C94" s="2">
+        <v>6989109374195</v>
+      </c>
+      <c r="D94" t="s">
         <v>71</v>
       </c>
-      <c r="E65" s="1">
-        <v>43275.67291666667</v>
-      </c>
-      <c r="F65" s="1"/>
-    </row>
-    <row r="66" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B66" t="s">
-        <v>103</v>
-      </c>
-      <c r="C66" s="2">
-        <v>6982854374500</v>
-      </c>
-      <c r="D66" t="s">
-        <v>104</v>
-      </c>
-      <c r="E66" s="1">
-        <v>43275.675694444442</v>
-      </c>
-      <c r="F66" s="1"/>
-    </row>
-    <row r="67" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B67" t="s">
-        <v>105</v>
-      </c>
-      <c r="C67" s="2">
-        <v>6981881373834</v>
-      </c>
-      <c r="D67" t="s">
-        <v>106</v>
-      </c>
-      <c r="E67" s="1">
-        <v>43275.695833333331</v>
-      </c>
-      <c r="F67" s="1"/>
-    </row>
-    <row r="68" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B68" t="s">
-        <v>107</v>
-      </c>
-      <c r="C68" s="2">
-        <v>6981316373475</v>
-      </c>
-      <c r="D68" t="s">
-        <v>108</v>
-      </c>
-      <c r="E68" s="1">
-        <v>43275.705555555556</v>
-      </c>
-      <c r="F68" s="1"/>
-    </row>
-    <row r="69" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B69" t="s">
-        <v>109</v>
-      </c>
-      <c r="C69" s="2">
-        <v>6980670373232</v>
-      </c>
-      <c r="D69" t="s">
-        <v>110</v>
-      </c>
-      <c r="E69" s="1">
-        <v>43275.720138888886</v>
-      </c>
-      <c r="F69" s="1"/>
-    </row>
-    <row r="70" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B70" t="s">
-        <v>111</v>
-      </c>
-      <c r="C70" s="2">
-        <v>6986702371776</v>
-      </c>
-      <c r="D70" t="s">
-        <v>112</v>
-      </c>
-      <c r="E70" s="1">
-        <v>43276.445138888892</v>
-      </c>
-      <c r="F70" s="1"/>
-    </row>
-    <row r="71" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B71" t="s">
-        <v>113</v>
-      </c>
-      <c r="C71" s="2">
-        <v>6988479373370</v>
-      </c>
-      <c r="D71" t="s">
-        <v>91</v>
-      </c>
-      <c r="E71" s="1">
-        <v>43276.551388888889</v>
-      </c>
-      <c r="F71" s="1"/>
-    </row>
-    <row r="72" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B72" t="s">
-        <v>114</v>
-      </c>
-      <c r="C72" s="2">
-        <v>6989072374165</v>
-      </c>
-      <c r="D72" t="s">
-        <v>115</v>
-      </c>
-      <c r="E72" s="1">
-        <v>43276.624305555553</v>
-      </c>
-      <c r="F72" s="1"/>
-    </row>
-    <row r="73" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B73" t="s">
-        <v>116</v>
-      </c>
-      <c r="C73" s="2">
-        <v>6989109374195</v>
-      </c>
-      <c r="D73" t="s">
-        <v>117</v>
-      </c>
-      <c r="E73" s="1">
+      <c r="E94" s="1">
         <v>43276.626388888886</v>
       </c>
-      <c r="F73" s="1"/>
-    </row>
-    <row r="74" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B74" t="s">
-        <v>118</v>
-      </c>
-      <c r="C74" s="2">
+      <c r="F94" s="1"/>
+    </row>
+    <row r="95" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B95" t="s">
+        <v>72</v>
+      </c>
+      <c r="C95" s="2">
         <v>6989396374373</v>
       </c>
-      <c r="D74" t="s">
-        <v>119</v>
-      </c>
-      <c r="E74" s="1">
+      <c r="D95" t="s">
+        <v>73</v>
+      </c>
+      <c r="E95" s="1">
         <v>43276.631249999999</v>
       </c>
-      <c r="F74" s="1"/>
-    </row>
-    <row r="75" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B75" t="s">
-        <v>120</v>
-      </c>
-      <c r="C75" s="2">
+      <c r="F95" s="1"/>
+    </row>
+    <row r="96" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B96" t="s">
+        <v>74</v>
+      </c>
+      <c r="C96" s="2">
         <v>6989430374420</v>
       </c>
-      <c r="D75" t="s">
-        <v>121</v>
-      </c>
-      <c r="E75" s="1">
+      <c r="D96" t="s">
+        <v>75</v>
+      </c>
+      <c r="E96" s="1">
         <v>43276.634722222225</v>
-      </c>
-      <c r="F75" s="1"/>
-    </row>
-    <row r="76" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B76" t="s">
-        <v>122</v>
-      </c>
-      <c r="C76" s="2">
-        <v>6989441374434</v>
-      </c>
-      <c r="D76" t="s">
-        <v>121</v>
-      </c>
-      <c r="E76" s="1">
-        <v>43276.636805555558</v>
-      </c>
-      <c r="F76" s="1"/>
-    </row>
-    <row r="77" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B77" t="s">
-        <v>123</v>
-      </c>
-      <c r="C77" s="2">
-        <v>6989492374527</v>
-      </c>
-      <c r="D77" t="s">
-        <v>124</v>
-      </c>
-      <c r="E77" s="1">
-        <v>43276.638888888891</v>
-      </c>
-      <c r="F77" s="1"/>
-    </row>
-    <row r="78" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B78" t="s">
-        <v>125</v>
-      </c>
-      <c r="C78" s="2">
-        <v>6989528374583</v>
-      </c>
-      <c r="D78" t="s">
-        <v>126</v>
-      </c>
-      <c r="E78" s="1">
-        <v>43276.642361111109</v>
-      </c>
-      <c r="F78" s="1"/>
-    </row>
-    <row r="79" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B79" t="s">
-        <v>127</v>
-      </c>
-      <c r="C79" s="2">
-        <v>6989808375053</v>
-      </c>
-      <c r="D79" t="s">
-        <v>28</v>
-      </c>
-      <c r="E79" s="1">
-        <v>43276.652777777781</v>
-      </c>
-      <c r="F79" s="1"/>
-    </row>
-    <row r="80" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B80" t="s">
-        <v>128</v>
-      </c>
-      <c r="C80" s="2">
-        <v>6990146375345</v>
-      </c>
-      <c r="D80" t="s">
-        <v>129</v>
-      </c>
-      <c r="E80" s="1">
-        <v>43276.659722222219</v>
-      </c>
-      <c r="F80" s="1"/>
-    </row>
-    <row r="81" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B81" t="s">
-        <v>130</v>
-      </c>
-      <c r="C81" s="2">
-        <v>6990211375286</v>
-      </c>
-      <c r="D81" t="s">
-        <v>131</v>
-      </c>
-      <c r="E81" s="1">
-        <v>43276.668055555558</v>
-      </c>
-      <c r="F81" s="1"/>
-    </row>
-    <row r="82" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B82" t="s">
-        <v>132</v>
-      </c>
-      <c r="C82" s="2">
-        <v>6990229375196</v>
-      </c>
-      <c r="D82" t="s">
-        <v>133</v>
-      </c>
-      <c r="E82" s="1">
-        <v>43276.671527777777</v>
-      </c>
-      <c r="F82" s="1"/>
-    </row>
-    <row r="83" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B83" t="s">
-        <v>134</v>
-      </c>
-      <c r="C83" s="2">
-        <v>6990229375192</v>
-      </c>
-      <c r="D83" t="s">
-        <v>135</v>
-      </c>
-      <c r="E83" s="1">
-        <v>43276.673611111109</v>
-      </c>
-      <c r="F83" s="1"/>
-    </row>
-    <row r="84" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B84" t="s">
-        <v>136</v>
-      </c>
-      <c r="C84" s="2">
-        <v>6990342374915</v>
-      </c>
-      <c r="D84" t="s">
-        <v>137</v>
-      </c>
-      <c r="E84" s="1">
-        <v>43276.678472222222</v>
-      </c>
-      <c r="F84" s="1"/>
-    </row>
-    <row r="85" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B85" t="s">
-        <v>138</v>
-      </c>
-      <c r="C85" s="2">
-        <v>6990469374617</v>
-      </c>
-      <c r="D85" t="s">
-        <v>139</v>
-      </c>
-      <c r="E85" s="1">
-        <v>43276.6875</v>
-      </c>
-      <c r="F85" s="1"/>
-    </row>
-    <row r="86" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B86" t="s">
-        <v>140</v>
-      </c>
-      <c r="C86" s="2">
-        <v>6990696373981</v>
-      </c>
-      <c r="D86" t="s">
-        <v>91</v>
-      </c>
-      <c r="E86" s="1">
-        <v>43276.696527777778</v>
-      </c>
-      <c r="F86" s="1"/>
-    </row>
-    <row r="87" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B87" t="s">
-        <v>141</v>
-      </c>
-      <c r="C87" s="2">
-        <v>6990700373975</v>
-      </c>
-      <c r="D87" t="s">
-        <v>142</v>
-      </c>
-      <c r="E87" s="1">
-        <v>43276.697222222225</v>
-      </c>
-      <c r="F87" s="1"/>
-    </row>
-    <row r="88" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B88" t="s">
-        <v>143</v>
-      </c>
-      <c r="C88" s="2">
-        <v>6990705373967</v>
-      </c>
-      <c r="D88" t="s">
-        <v>142</v>
-      </c>
-      <c r="E88" s="1">
-        <v>43276.699305555558</v>
-      </c>
-      <c r="F88" s="1"/>
-    </row>
-    <row r="89" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B89" t="s">
-        <v>144</v>
-      </c>
-      <c r="C89" s="2">
-        <v>6990731373922</v>
-      </c>
-      <c r="D89" t="s">
-        <v>142</v>
-      </c>
-      <c r="E89" s="1">
-        <v>43276.701388888891</v>
-      </c>
-      <c r="F89" s="1"/>
-    </row>
-    <row r="90" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B90" t="s">
-        <v>145</v>
-      </c>
-      <c r="C90" s="2">
-        <v>6991108372720</v>
-      </c>
-      <c r="D90" t="s">
-        <v>146</v>
-      </c>
-      <c r="E90" s="1">
-        <v>43276.717361111114</v>
-      </c>
-      <c r="F90" s="1"/>
-    </row>
-    <row r="91" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B91" t="s">
-        <v>147</v>
-      </c>
-      <c r="C91" s="2">
-        <v>6991153372515</v>
-      </c>
-      <c r="D91" t="s">
-        <v>17</v>
-      </c>
-      <c r="E91" s="1">
-        <v>43276.722222222219</v>
-      </c>
-      <c r="F91" s="1"/>
-    </row>
-    <row r="92" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B92" t="s">
-        <v>148</v>
-      </c>
-      <c r="C92" s="2">
-        <v>6991175372451</v>
-      </c>
-      <c r="D92" t="s">
-        <v>146</v>
-      </c>
-      <c r="E92" s="1">
-        <v>43276.724999999999</v>
-      </c>
-      <c r="F92" s="1"/>
-    </row>
-    <row r="93" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B93" t="s">
-        <v>149</v>
-      </c>
-      <c r="C93" s="2">
-        <v>6991331372007</v>
-      </c>
-      <c r="D93" t="s">
-        <v>150</v>
-      </c>
-      <c r="E93" s="1">
-        <v>43276.730555555558</v>
-      </c>
-      <c r="F93" s="1"/>
-    </row>
-    <row r="94" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B94" t="s">
-        <v>151</v>
-      </c>
-      <c r="C94" s="2">
-        <v>6990806371700</v>
-      </c>
-      <c r="D94" t="s">
-        <v>152</v>
-      </c>
-      <c r="E94" s="1">
-        <v>43276.75</v>
-      </c>
-      <c r="F94" s="1"/>
-    </row>
-    <row r="95" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B95" t="s">
-        <v>153</v>
-      </c>
-      <c r="C95" s="2">
-        <v>6988299372150</v>
-      </c>
-      <c r="D95" t="s">
-        <v>154</v>
-      </c>
-      <c r="E95" s="1">
-        <v>43276.79791666667</v>
-      </c>
-      <c r="F95" s="1"/>
-    </row>
-    <row r="96" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B96" t="s">
-        <v>155</v>
-      </c>
-      <c r="C96" s="2">
-        <v>6986421371555</v>
-      </c>
-      <c r="D96" t="s">
-        <v>156</v>
-      </c>
-      <c r="E96" s="1">
-        <v>43277.35833333333</v>
       </c>
       <c r="F96" s="1"/>
     </row>
     <row r="97" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B97" t="s">
-        <v>157</v>
+        <v>76</v>
       </c>
       <c r="C97" s="2">
-        <v>6986539371185</v>
+        <v>6989441374434</v>
       </c>
       <c r="D97" t="s">
-        <v>158</v>
+        <v>75</v>
       </c>
       <c r="E97" s="1">
-        <v>43277.365972222222</v>
+        <v>43276.636805555558</v>
       </c>
       <c r="F97" s="1"/>
     </row>
     <row r="98" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B98" t="s">
-        <v>159</v>
+        <v>77</v>
       </c>
       <c r="C98" s="2">
-        <v>6986987369810</v>
+        <v>6989492374527</v>
       </c>
       <c r="D98" t="s">
-        <v>19</v>
+        <v>78</v>
       </c>
       <c r="E98" s="1">
-        <v>43277.390972222223</v>
+        <v>43276.638888888891</v>
       </c>
       <c r="F98" s="1"/>
     </row>
     <row r="99" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B99" t="s">
-        <v>160</v>
+        <v>79</v>
       </c>
       <c r="C99" s="2">
-        <v>6987165369223</v>
+        <v>6989528374583</v>
       </c>
       <c r="D99" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="E99" s="1">
-        <v>43277.402083333334</v>
+        <v>43276.642361111109</v>
       </c>
       <c r="F99" s="1"/>
     </row>
     <row r="100" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B100" t="s">
-        <v>161</v>
+        <v>81</v>
       </c>
       <c r="C100" s="2">
-        <v>6987303368811</v>
+        <v>6989808375053</v>
       </c>
       <c r="D100" t="s">
-        <v>45</v>
+        <v>28</v>
       </c>
       <c r="E100" s="1">
-        <v>43277.409722222219</v>
+        <v>43276.652777777781</v>
       </c>
       <c r="F100" s="1"/>
     </row>
     <row r="101" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B101" t="s">
-        <v>162</v>
+        <v>82</v>
       </c>
       <c r="C101" s="2">
-        <v>6985525368428</v>
+        <v>6990146375345</v>
       </c>
       <c r="D101" t="s">
-        <v>163</v>
+        <v>83</v>
       </c>
       <c r="E101" s="1">
-        <v>43277.557638888888</v>
+        <v>43276.659722222219</v>
       </c>
       <c r="F101" s="1"/>
     </row>
     <row r="102" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B102" t="s">
-        <v>164</v>
+        <v>84</v>
       </c>
       <c r="C102" s="2">
-        <v>6983906368728</v>
+        <v>6990211375286</v>
       </c>
       <c r="D102" t="s">
-        <v>165</v>
+        <v>85</v>
       </c>
       <c r="E102" s="1">
-        <v>43277.584722222222</v>
+        <v>43276.668055555558</v>
       </c>
       <c r="F102" s="1"/>
     </row>
     <row r="103" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B103" t="s">
-        <v>166</v>
+        <v>86</v>
       </c>
       <c r="C103" s="2">
-        <v>6983977368859</v>
+        <v>6990229375196</v>
       </c>
       <c r="D103" t="s">
-        <v>167</v>
+        <v>87</v>
       </c>
       <c r="E103" s="1">
-        <v>43277.597916666666</v>
+        <v>43276.671527777777</v>
       </c>
       <c r="F103" s="1"/>
     </row>
     <row r="104" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B104" t="s">
-        <v>168</v>
+        <v>88</v>
       </c>
       <c r="C104" s="2">
-        <v>6984203369274</v>
+        <v>6990229375192</v>
       </c>
       <c r="D104" t="s">
-        <v>39</v>
+        <v>89</v>
       </c>
       <c r="E104" s="1">
-        <v>43277.609722222223</v>
+        <v>43276.673611111109</v>
       </c>
       <c r="F104" s="1"/>
     </row>
     <row r="105" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B105" t="s">
-        <v>169</v>
+        <v>90</v>
       </c>
       <c r="C105" s="2">
-        <v>6984634369968</v>
+        <v>6990342374915</v>
       </c>
       <c r="D105" t="s">
-        <v>170</v>
+        <v>91</v>
       </c>
       <c r="E105" s="1">
-        <v>43277.623611111114</v>
+        <v>43276.678472222222</v>
       </c>
       <c r="F105" s="1"/>
     </row>
     <row r="106" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B106" t="s">
-        <v>171</v>
+        <v>92</v>
       </c>
       <c r="C106" s="2">
-        <v>6986354371830</v>
+        <v>6990469374617</v>
       </c>
       <c r="D106" t="s">
-        <v>172</v>
+        <v>93</v>
       </c>
       <c r="E106" s="1">
-        <v>43277.663888888892</v>
+        <v>43276.6875</v>
       </c>
       <c r="F106" s="1"/>
     </row>
     <row r="107" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B107" t="s">
-        <v>173</v>
+        <v>94</v>
       </c>
       <c r="C107" s="2">
-        <v>6985957359366</v>
+        <v>6990696373981</v>
       </c>
       <c r="D107" t="s">
-        <v>174</v>
+        <v>56</v>
       </c>
       <c r="E107" s="1">
-        <v>43278.40625</v>
+        <v>43276.696527777778</v>
       </c>
       <c r="F107" s="1"/>
     </row>
     <row r="108" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B108" t="s">
-        <v>175</v>
+        <v>95</v>
       </c>
       <c r="C108" s="2">
-        <v>6984603358022</v>
+        <v>6990700373975</v>
       </c>
       <c r="D108" t="s">
-        <v>156</v>
+        <v>96</v>
       </c>
       <c r="E108" s="1">
-        <v>43278.430555555555</v>
+        <v>43276.697222222225</v>
       </c>
       <c r="F108" s="1"/>
     </row>
     <row r="109" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B109" t="s">
-        <v>176</v>
+        <v>97</v>
       </c>
       <c r="C109" s="2">
-        <v>6983656356892</v>
+        <v>6990705373967</v>
       </c>
       <c r="D109" t="s">
-        <v>177</v>
+        <v>96</v>
       </c>
       <c r="E109" s="1">
-        <v>43278.449305555558</v>
+        <v>43276.699305555558</v>
       </c>
       <c r="F109" s="1"/>
     </row>
     <row r="110" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B110" t="s">
-        <v>178</v>
+        <v>98</v>
       </c>
       <c r="C110" s="2">
-        <v>6983702356823</v>
+        <v>6990731373922</v>
       </c>
       <c r="D110" t="s">
-        <v>177</v>
+        <v>96</v>
       </c>
       <c r="E110" s="1">
-        <v>43278.452777777777</v>
+        <v>43276.701388888891</v>
       </c>
       <c r="F110" s="1"/>
     </row>
     <row r="111" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B111" t="s">
-        <v>179</v>
+        <v>99</v>
       </c>
       <c r="C111" s="2">
-        <v>6983103356528</v>
+        <v>6991108372720</v>
       </c>
       <c r="D111" t="s">
-        <v>180</v>
+        <v>100</v>
       </c>
       <c r="E111" s="1">
-        <v>43278.467361111114</v>
+        <v>43276.717361111114</v>
       </c>
       <c r="F111" s="1"/>
     </row>
     <row r="112" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B112" t="s">
-        <v>181</v>
+        <v>101</v>
       </c>
       <c r="C112" s="2">
-        <v>6982711357390</v>
+        <v>6991153372515</v>
       </c>
       <c r="D112" t="s">
-        <v>182</v>
+        <v>17</v>
       </c>
       <c r="E112" s="1">
-        <v>43278.480555555558</v>
+        <v>43276.722222222219</v>
       </c>
       <c r="F112" s="1"/>
     </row>
     <row r="113" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B113" t="s">
-        <v>183</v>
+        <v>102</v>
       </c>
       <c r="C113" s="2">
-        <v>6982411358309</v>
+        <v>6991175372451</v>
       </c>
       <c r="D113" t="s">
-        <v>184</v>
+        <v>100</v>
       </c>
       <c r="E113" s="1">
-        <v>43278.493055555555</v>
+        <v>43276.724999999999</v>
       </c>
       <c r="F113" s="1"/>
     </row>
     <row r="114" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B114" t="s">
-        <v>185</v>
+        <v>103</v>
       </c>
       <c r="C114" s="2">
-        <v>6982517358590</v>
+        <v>6991331372007</v>
       </c>
       <c r="D114" t="s">
-        <v>186</v>
+        <v>104</v>
       </c>
       <c r="E114" s="1">
-        <v>43278.500694444447</v>
+        <v>43276.730555555558</v>
       </c>
       <c r="F114" s="1"/>
     </row>
     <row r="115" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B115" t="s">
-        <v>187</v>
+        <v>105</v>
       </c>
       <c r="C115" s="2">
-        <v>6982286358997</v>
+        <v>6990806371700</v>
       </c>
       <c r="D115" t="s">
-        <v>188</v>
+        <v>106</v>
       </c>
       <c r="E115" s="1">
-        <v>43278.559027777781</v>
+        <v>43276.75</v>
       </c>
       <c r="F115" s="1"/>
     </row>
     <row r="116" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B116" t="s">
-        <v>189</v>
+        <v>107</v>
       </c>
       <c r="C116" s="2">
-        <v>6982057359742</v>
+        <v>6988299372150</v>
       </c>
       <c r="D116" t="s">
-        <v>137</v>
+        <v>108</v>
       </c>
       <c r="E116" s="1">
-        <v>43278.569444444445</v>
+        <v>43276.79791666667</v>
       </c>
       <c r="F116" s="1"/>
     </row>
     <row r="117" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B117" t="s">
-        <v>190</v>
+        <v>109</v>
       </c>
       <c r="C117" s="2">
-        <v>6982022359836</v>
+        <v>6986421371555</v>
       </c>
       <c r="D117" t="s">
-        <v>191</v>
+        <v>110</v>
       </c>
       <c r="E117" s="1">
-        <v>43278.572222222225</v>
+        <v>43277.35833333333</v>
       </c>
       <c r="F117" s="1"/>
     </row>
     <row r="118" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B118" t="s">
-        <v>192</v>
+        <v>111</v>
       </c>
       <c r="C118" s="2">
-        <v>6984942359384</v>
+        <v>6986539371185</v>
       </c>
       <c r="D118" t="s">
-        <v>71</v>
+        <v>112</v>
       </c>
       <c r="E118" s="1">
-        <v>43278.62222222222</v>
+        <v>43277.365972222222</v>
       </c>
       <c r="F118" s="1"/>
     </row>
     <row r="119" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B119" t="s">
-        <v>193</v>
+        <v>113</v>
       </c>
       <c r="C119" s="2">
-        <v>6985094359323</v>
+        <v>6986987369810</v>
       </c>
       <c r="D119" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="E119" s="1">
-        <v>43278.62777777778</v>
+        <v>43277.390972222223</v>
       </c>
       <c r="F119" s="1"/>
     </row>
     <row r="120" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B120" t="s">
-        <v>194</v>
+        <v>114</v>
       </c>
       <c r="C120" s="2">
-        <v>6985160359319</v>
+        <v>6987165369223</v>
       </c>
       <c r="D120" t="s">
-        <v>170</v>
+        <v>49</v>
       </c>
       <c r="E120" s="1">
-        <v>43278.629166666666</v>
+        <v>43277.402083333334</v>
       </c>
       <c r="F120" s="1"/>
     </row>
     <row r="121" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B121" t="s">
-        <v>195</v>
+        <v>115</v>
       </c>
       <c r="C121" s="2">
-        <v>6982267355785</v>
+        <v>6987303368811</v>
       </c>
       <c r="D121" t="s">
-        <v>196</v>
+        <v>38</v>
       </c>
       <c r="E121" s="1">
-        <v>43278.884722222225</v>
+        <v>43277.409722222219</v>
       </c>
       <c r="F121" s="1"/>
     </row>
     <row r="122" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B122" t="s">
-        <v>197</v>
+        <v>116</v>
       </c>
       <c r="C122" s="2">
-        <v>6980968353518</v>
+        <v>6985525368428</v>
       </c>
       <c r="D122" t="s">
-        <v>154</v>
+        <v>117</v>
       </c>
       <c r="E122" s="1">
-        <v>43279.265277777777</v>
+        <v>43277.557638888888</v>
       </c>
       <c r="F122" s="1"/>
     </row>
     <row r="123" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B123" t="s">
-        <v>198</v>
+        <v>118</v>
       </c>
       <c r="C123" s="2">
-        <v>6980970353513</v>
+        <v>6983906368728</v>
       </c>
       <c r="D123" t="s">
-        <v>16</v>
+        <v>119</v>
       </c>
       <c r="E123" s="1">
-        <v>43279.265972222223</v>
+        <v>43277.584722222222</v>
       </c>
       <c r="F123" s="1"/>
     </row>
     <row r="124" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B124" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
       <c r="C124" s="2">
-        <v>6980945353432</v>
+        <v>6983977368859</v>
       </c>
       <c r="D124" t="s">
-        <v>47</v>
+        <v>121</v>
       </c>
       <c r="E124" s="1">
-        <v>43279.268055555556</v>
+        <v>43277.597916666666</v>
       </c>
       <c r="F124" s="1"/>
     </row>
     <row r="125" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B125" t="s">
-        <v>200</v>
+        <v>122</v>
       </c>
       <c r="C125" s="2">
-        <v>6980935353395</v>
+        <v>6984203369274</v>
       </c>
       <c r="D125" t="s">
-        <v>201</v>
+        <v>35</v>
       </c>
       <c r="E125" s="1">
-        <v>43279.270138888889</v>
+        <v>43277.609722222223</v>
       </c>
       <c r="F125" s="1"/>
     </row>
     <row r="126" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B126" t="s">
-        <v>202</v>
+        <v>123</v>
       </c>
       <c r="C126" s="2">
-        <v>6980911353331</v>
+        <v>6984634369968</v>
       </c>
       <c r="D126" t="s">
-        <v>203</v>
+        <v>124</v>
       </c>
       <c r="E126" s="1">
-        <v>43279.273611111108</v>
+        <v>43277.623611111114</v>
       </c>
       <c r="F126" s="1"/>
     </row>
     <row r="127" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B127" t="s">
-        <v>204</v>
+        <v>125</v>
       </c>
       <c r="C127" s="2">
-        <v>6980602353081</v>
+        <v>6986354371830</v>
       </c>
       <c r="D127" t="s">
-        <v>205</v>
+        <v>126</v>
       </c>
       <c r="E127" s="1">
-        <v>43279.28125</v>
+        <v>43277.663888888892</v>
       </c>
       <c r="F127" s="1"/>
     </row>
     <row r="128" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B128" t="s">
-        <v>206</v>
+        <v>127</v>
       </c>
       <c r="C128" s="2">
-        <v>6980431352927</v>
+        <v>6985957359366</v>
       </c>
       <c r="D128" t="s">
-        <v>207</v>
+        <v>128</v>
       </c>
       <c r="E128" s="1">
-        <v>43279.284722222219</v>
+        <v>43278.40625</v>
       </c>
       <c r="F128" s="1"/>
     </row>
     <row r="129" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B129" t="s">
-        <v>208</v>
+        <v>129</v>
       </c>
       <c r="C129" s="2">
-        <v>6980212352665</v>
+        <v>6984603358022</v>
       </c>
       <c r="D129" t="s">
-        <v>209</v>
+        <v>110</v>
       </c>
       <c r="E129" s="1">
-        <v>43279.290972222225</v>
+        <v>43278.430555555555</v>
       </c>
       <c r="F129" s="1"/>
     </row>
     <row r="130" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B130" t="s">
-        <v>210</v>
+        <v>130</v>
       </c>
       <c r="C130" s="2">
-        <v>6980059352518</v>
+        <v>6983656356892</v>
       </c>
       <c r="D130" t="s">
-        <v>211</v>
+        <v>131</v>
       </c>
       <c r="E130" s="1">
-        <v>43279.296527777777</v>
+        <v>43278.449305555558</v>
       </c>
       <c r="F130" s="1"/>
     </row>
     <row r="131" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B131" t="s">
-        <v>212</v>
+        <v>132</v>
       </c>
       <c r="C131" s="2">
-        <v>6980047352508</v>
+        <v>6983702356823</v>
       </c>
       <c r="D131" t="s">
-        <v>213</v>
+        <v>131</v>
       </c>
       <c r="E131" s="1">
-        <v>43279.29791666667</v>
+        <v>43278.452777777777</v>
       </c>
       <c r="F131" s="1"/>
     </row>
     <row r="132" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B132" t="s">
-        <v>214</v>
+        <v>133</v>
       </c>
       <c r="C132" s="2">
-        <v>6979533352050</v>
+        <v>6983103356528</v>
       </c>
       <c r="D132" t="s">
-        <v>67</v>
+        <v>134</v>
       </c>
       <c r="E132" s="1">
-        <v>43279.30972222222</v>
+        <v>43278.467361111114</v>
       </c>
       <c r="F132" s="1"/>
     </row>
     <row r="133" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B133" t="s">
-        <v>215</v>
+        <v>135</v>
       </c>
       <c r="C133" s="2">
-        <v>6979485352018</v>
+        <v>6982711357390</v>
       </c>
       <c r="D133" t="s">
-        <v>67</v>
+        <v>136</v>
       </c>
       <c r="E133" s="1">
-        <v>43279.311805555553</v>
+        <v>43278.480555555558</v>
       </c>
       <c r="F133" s="1"/>
     </row>
     <row r="134" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B134" t="s">
-        <v>216</v>
+        <v>137</v>
       </c>
       <c r="C134" s="2">
-        <v>6979450352004</v>
+        <v>6982411358309</v>
       </c>
       <c r="D134" t="s">
-        <v>217</v>
+        <v>138</v>
       </c>
       <c r="E134" s="1">
-        <v>43279.313194444447</v>
+        <v>43278.493055555555</v>
       </c>
       <c r="F134" s="1"/>
     </row>
     <row r="135" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B135" t="s">
-        <v>218</v>
+        <v>139</v>
       </c>
       <c r="C135" s="2">
-        <v>6979451352005</v>
+        <v>6982517358590</v>
       </c>
       <c r="D135" t="s">
-        <v>217</v>
+        <v>140</v>
       </c>
       <c r="E135" s="1">
-        <v>43279.313888888886</v>
+        <v>43278.500694444447</v>
       </c>
       <c r="F135" s="1"/>
     </row>
     <row r="136" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B136" t="s">
-        <v>219</v>
+        <v>141</v>
       </c>
       <c r="C136" s="2">
-        <v>6979455352012</v>
+        <v>6982286358997</v>
       </c>
       <c r="D136" t="s">
-        <v>220</v>
+        <v>142</v>
       </c>
       <c r="E136" s="1">
-        <v>43279.314583333333</v>
+        <v>43278.559027777781</v>
       </c>
       <c r="F136" s="1"/>
     </row>
     <row r="137" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B137" t="s">
-        <v>221</v>
+        <v>143</v>
       </c>
       <c r="C137" s="2">
-        <v>6979459352019</v>
+        <v>6982057359742</v>
       </c>
       <c r="D137" t="s">
-        <v>67</v>
+        <v>91</v>
       </c>
       <c r="E137" s="1">
-        <v>43279.31527777778</v>
+        <v>43278.569444444445</v>
       </c>
       <c r="F137" s="1"/>
     </row>
     <row r="138" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B138" t="s">
-        <v>222</v>
+        <v>144</v>
       </c>
       <c r="C138" s="2">
-        <v>6979457352096</v>
+        <v>6982022359836</v>
       </c>
       <c r="D138" t="s">
-        <v>223</v>
+        <v>145</v>
       </c>
       <c r="E138" s="1">
-        <v>43279.318749999999</v>
+        <v>43278.572222222225</v>
       </c>
       <c r="F138" s="1"/>
     </row>
     <row r="139" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B139" t="s">
-        <v>224</v>
+        <v>146</v>
       </c>
       <c r="C139" s="2">
-        <v>6979451352092</v>
+        <v>6984942359384</v>
       </c>
       <c r="D139" t="s">
-        <v>223</v>
+        <v>49</v>
       </c>
       <c r="E139" s="1">
-        <v>43279.318749999999</v>
+        <v>43278.62222222222</v>
       </c>
       <c r="F139" s="1"/>
     </row>
     <row r="140" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B140" t="s">
-        <v>225</v>
+        <v>147</v>
       </c>
       <c r="C140" s="2">
-        <v>6979362352012</v>
+        <v>6985094359323</v>
       </c>
       <c r="D140" t="s">
-        <v>226</v>
+        <v>29</v>
       </c>
       <c r="E140" s="1">
-        <v>43279.321527777778</v>
+        <v>43278.62777777778</v>
       </c>
       <c r="F140" s="1"/>
     </row>
     <row r="141" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B141" t="s">
-        <v>227</v>
+        <v>148</v>
       </c>
       <c r="C141" s="2">
-        <v>6979058351708</v>
+        <v>6985160359319</v>
       </c>
       <c r="D141" t="s">
-        <v>228</v>
+        <v>124</v>
       </c>
       <c r="E141" s="1">
-        <v>43279.32708333333</v>
+        <v>43278.629166666666</v>
       </c>
       <c r="F141" s="1"/>
     </row>
     <row r="142" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B142" t="s">
-        <v>229</v>
+        <v>149</v>
       </c>
       <c r="C142" s="2">
-        <v>6978301351443</v>
+        <v>6982267355785</v>
       </c>
       <c r="D142" t="s">
-        <v>230</v>
+        <v>150</v>
       </c>
       <c r="E142" s="1">
-        <v>43279.341666666667</v>
+        <v>43278.884722222225</v>
       </c>
       <c r="F142" s="1"/>
     </row>
     <row r="143" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B143" t="s">
-        <v>231</v>
+        <v>151</v>
       </c>
       <c r="C143" s="2">
-        <v>6978297351472</v>
+        <v>6980968353518</v>
       </c>
       <c r="D143" t="s">
-        <v>23</v>
+        <v>108</v>
       </c>
       <c r="E143" s="1">
-        <v>43279.342361111114</v>
+        <v>43279.265277777777</v>
       </c>
       <c r="F143" s="1"/>
     </row>
     <row r="144" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B144" t="s">
-        <v>232</v>
+        <v>152</v>
       </c>
       <c r="C144" s="2">
-        <v>6978291351490</v>
+        <v>6980970353513</v>
       </c>
       <c r="D144" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="E144" s="1">
-        <v>43279.34375</v>
+        <v>43279.265972222223</v>
       </c>
       <c r="F144" s="1"/>
     </row>
     <row r="145" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B145" t="s">
-        <v>233</v>
+        <v>153</v>
       </c>
       <c r="C145" s="2">
-        <v>6977910352784</v>
+        <v>6980945353432</v>
       </c>
       <c r="D145" t="s">
-        <v>234</v>
+        <v>39</v>
       </c>
       <c r="E145" s="1">
-        <v>43279.414583333331</v>
+        <v>43279.268055555556</v>
       </c>
       <c r="F145" s="1"/>
     </row>
     <row r="146" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B146" t="s">
-        <v>235</v>
+        <v>154</v>
       </c>
       <c r="C146" s="2">
-        <v>6977860353046</v>
+        <v>6980935353395</v>
       </c>
       <c r="D146" t="s">
-        <v>31</v>
+        <v>155</v>
       </c>
       <c r="E146" s="1">
-        <v>43279.419444444444</v>
+        <v>43279.270138888889</v>
       </c>
       <c r="F146" s="1"/>
     </row>
     <row r="147" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B147" t="s">
-        <v>236</v>
+        <v>156</v>
       </c>
       <c r="C147" s="2">
-        <v>6977861353067</v>
+        <v>6980911353331</v>
       </c>
       <c r="D147" t="s">
-        <v>31</v>
+        <v>157</v>
       </c>
       <c r="E147" s="1">
-        <v>43279.42083333333</v>
+        <v>43279.273611111108</v>
       </c>
       <c r="F147" s="1"/>
     </row>
     <row r="148" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B148" t="s">
-        <v>237</v>
+        <v>158</v>
       </c>
       <c r="C148" s="2">
-        <v>6977865353087</v>
+        <v>6980602353081</v>
       </c>
       <c r="D148" t="s">
-        <v>139</v>
+        <v>159</v>
       </c>
       <c r="E148" s="1">
-        <v>43279.422222222223</v>
+        <v>43279.28125</v>
       </c>
       <c r="F148" s="1"/>
     </row>
     <row r="149" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B149" t="s">
-        <v>238</v>
+        <v>160</v>
       </c>
       <c r="C149" s="2">
-        <v>6977856353173</v>
+        <v>6980431352927</v>
       </c>
       <c r="D149" t="s">
-        <v>16</v>
+        <v>161</v>
       </c>
       <c r="E149" s="1">
-        <v>43279.424305555556</v>
+        <v>43279.284722222219</v>
       </c>
       <c r="F149" s="1"/>
     </row>
     <row r="150" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B150" t="s">
-        <v>239</v>
+        <v>162</v>
       </c>
       <c r="C150" s="2">
-        <v>6977844353209</v>
+        <v>6980212352665</v>
       </c>
       <c r="D150" t="s">
-        <v>139</v>
+        <v>163</v>
       </c>
       <c r="E150" s="1">
-        <v>43279.425694444442</v>
+        <v>43279.290972222225</v>
       </c>
       <c r="F150" s="1"/>
     </row>
     <row r="151" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B151" t="s">
-        <v>240</v>
+        <v>164</v>
       </c>
       <c r="C151" s="2">
-        <v>6977797353337</v>
+        <v>6980059352518</v>
       </c>
       <c r="D151" t="s">
-        <v>84</v>
+        <v>165</v>
       </c>
       <c r="E151" s="1">
-        <v>43279.428472222222</v>
+        <v>43279.296527777777</v>
       </c>
       <c r="F151" s="1"/>
     </row>
     <row r="152" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B152" t="s">
-        <v>241</v>
+        <v>166</v>
       </c>
       <c r="C152" s="2">
-        <v>6977575354652</v>
+        <v>6980047352508</v>
       </c>
       <c r="D152" t="s">
-        <v>31</v>
+        <v>167</v>
       </c>
       <c r="E152" s="1">
-        <v>43279.447222222225</v>
+        <v>43279.29791666667</v>
       </c>
       <c r="F152" s="1"/>
     </row>
     <row r="153" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B153" t="s">
-        <v>242</v>
+        <v>168</v>
       </c>
       <c r="C153" s="2">
-        <v>6978571354702</v>
+        <v>6979533352050</v>
       </c>
       <c r="D153" t="s">
-        <v>196</v>
+        <v>47</v>
       </c>
       <c r="E153" s="1">
-        <v>43279.47152777778</v>
+        <v>43279.30972222222</v>
       </c>
       <c r="F153" s="1"/>
     </row>
     <row r="154" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B154" t="s">
-        <v>243</v>
+        <v>169</v>
       </c>
       <c r="C154" s="2">
-        <v>6979142354504</v>
+        <v>6979485352018</v>
       </c>
       <c r="D154" t="s">
-        <v>244</v>
+        <v>47</v>
       </c>
       <c r="E154" s="1">
-        <v>43279.486805555556</v>
+        <v>43279.311805555553</v>
       </c>
       <c r="F154" s="1"/>
     </row>
     <row r="155" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B155" t="s">
-        <v>245</v>
+        <v>170</v>
       </c>
       <c r="C155" s="2">
-        <v>6979932354155</v>
+        <v>6979450352004</v>
       </c>
       <c r="D155" t="s">
-        <v>188</v>
+        <v>171</v>
       </c>
       <c r="E155" s="1">
-        <v>43279.498611111114</v>
+        <v>43279.313194444447</v>
       </c>
       <c r="F155" s="1"/>
     </row>
     <row r="156" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B156" t="s">
-        <v>246</v>
+        <v>172</v>
       </c>
       <c r="C156" s="2">
-        <v>6979961354157</v>
+        <v>6979451352005</v>
       </c>
       <c r="D156" t="s">
-        <v>188</v>
+        <v>171</v>
       </c>
       <c r="E156" s="1">
-        <v>43279.500694444447</v>
+        <v>43279.313888888886</v>
       </c>
       <c r="F156" s="1"/>
     </row>
     <row r="157" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B157" t="s">
-        <v>247</v>
+        <v>173</v>
       </c>
       <c r="C157" s="2">
-        <v>6980285354065</v>
+        <v>6979455352012</v>
       </c>
       <c r="D157" t="s">
-        <v>165</v>
+        <v>174</v>
       </c>
       <c r="E157" s="1">
-        <v>43279.506944444445</v>
+        <v>43279.314583333333</v>
       </c>
       <c r="F157" s="1"/>
     </row>
     <row r="158" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B158" t="s">
-        <v>248</v>
+        <v>175</v>
       </c>
       <c r="C158" s="2">
-        <v>6980874353935</v>
+        <v>6979459352019</v>
       </c>
       <c r="D158" t="s">
-        <v>165</v>
+        <v>47</v>
       </c>
       <c r="E158" s="1">
-        <v>43279.515972222223</v>
+        <v>43279.31527777778</v>
       </c>
       <c r="F158" s="1"/>
     </row>
     <row r="159" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B159" t="s">
-        <v>249</v>
+        <v>176</v>
       </c>
       <c r="C159" s="2">
-        <v>6980891353931</v>
+        <v>6979457352096</v>
       </c>
       <c r="D159" t="s">
-        <v>250</v>
+        <v>177</v>
       </c>
       <c r="E159" s="1">
-        <v>43279.517361111109</v>
+        <v>43279.318749999999</v>
       </c>
       <c r="F159" s="1"/>
     </row>
     <row r="160" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B160" t="s">
-        <v>251</v>
+        <v>178</v>
       </c>
       <c r="C160" s="2">
-        <v>6980914353924</v>
+        <v>6979451352092</v>
       </c>
       <c r="D160" t="s">
-        <v>252</v>
+        <v>177</v>
       </c>
       <c r="E160" s="1">
-        <v>43279.518750000003</v>
+        <v>43279.318749999999</v>
       </c>
       <c r="F160" s="1"/>
     </row>
     <row r="161" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B161" t="s">
-        <v>253</v>
+        <v>179</v>
       </c>
       <c r="C161" s="2">
-        <v>7008446366454</v>
+        <v>6979362352012</v>
       </c>
       <c r="D161" t="s">
-        <v>254</v>
+        <v>180</v>
       </c>
       <c r="E161" s="1">
-        <v>43283.498611111114</v>
+        <v>43279.321527777778</v>
       </c>
       <c r="F161" s="1"/>
     </row>
     <row r="162" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B162" t="s">
-        <v>255</v>
+        <v>181</v>
       </c>
       <c r="C162" s="2">
-        <v>7008274366146</v>
+        <v>6979058351708</v>
       </c>
       <c r="D162" t="s">
-        <v>256</v>
+        <v>182</v>
       </c>
       <c r="E162" s="1">
-        <v>43283.506944444445</v>
+        <v>43279.32708333333</v>
       </c>
       <c r="F162" s="1"/>
     </row>
     <row r="163" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B163" t="s">
-        <v>257</v>
+        <v>183</v>
       </c>
       <c r="C163" s="2">
-        <v>7008058365732</v>
+        <v>6978301351443</v>
       </c>
       <c r="D163" t="s">
-        <v>22</v>
+        <v>184</v>
       </c>
       <c r="E163" s="1">
-        <v>43283.513888888891</v>
+        <v>43279.341666666667</v>
       </c>
       <c r="F163" s="1"/>
     </row>
     <row r="164" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B164" t="s">
-        <v>258</v>
+        <v>185</v>
       </c>
       <c r="C164" s="2">
-        <v>7007697364981</v>
+        <v>6978297351472</v>
       </c>
       <c r="D164" t="s">
-        <v>94</v>
+        <v>23</v>
       </c>
       <c r="E164" s="1">
-        <v>43283.525694444441</v>
+        <v>43279.342361111114</v>
       </c>
       <c r="F164" s="1"/>
     </row>
     <row r="165" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B165" t="s">
-        <v>259</v>
+        <v>186</v>
       </c>
       <c r="C165" s="2">
-        <v>7007640364853</v>
+        <v>6978291351490</v>
       </c>
       <c r="D165" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="E165" s="1">
-        <v>43283.529166666667</v>
+        <v>43279.34375</v>
       </c>
       <c r="F165" s="1"/>
     </row>
     <row r="166" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B166" t="s">
-        <v>260</v>
+        <v>187</v>
       </c>
       <c r="C166" s="2">
-        <v>7007642364847</v>
+        <v>6977910352784</v>
       </c>
       <c r="D166" t="s">
-        <v>201</v>
+        <v>188</v>
       </c>
       <c r="E166" s="1">
-        <v>43283.530555555553</v>
+        <v>43279.414583333331</v>
       </c>
       <c r="F166" s="1"/>
     </row>
     <row r="167" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B167" t="s">
-        <v>261</v>
+        <v>189</v>
       </c>
       <c r="C167" s="2">
-        <v>7007282364035</v>
+        <v>6977860353046</v>
       </c>
       <c r="D167" t="s">
-        <v>262</v>
+        <v>30</v>
       </c>
       <c r="E167" s="1">
-        <v>43283.542361111111</v>
+        <v>43279.419444444444</v>
       </c>
       <c r="F167" s="1"/>
     </row>
     <row r="168" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B168" t="s">
-        <v>263</v>
+        <v>190</v>
       </c>
       <c r="C168" s="2">
-        <v>7006937363535</v>
+        <v>6977861353067</v>
       </c>
       <c r="D168" t="s">
-        <v>264</v>
+        <v>30</v>
       </c>
       <c r="E168" s="1">
-        <v>43283.552777777775</v>
+        <v>43279.42083333333</v>
       </c>
       <c r="F168" s="1"/>
     </row>
     <row r="169" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B169" t="s">
-        <v>265</v>
+        <v>191</v>
       </c>
       <c r="C169" s="2">
-        <v>7006658363080</v>
+        <v>6977865353087</v>
       </c>
       <c r="D169" t="s">
-        <v>266</v>
+        <v>93</v>
       </c>
       <c r="E169" s="1">
-        <v>43283.56527777778</v>
+        <v>43279.422222222223</v>
       </c>
       <c r="F169" s="1"/>
     </row>
     <row r="170" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B170" t="s">
-        <v>267</v>
+        <v>192</v>
       </c>
       <c r="C170" s="2">
-        <v>7007092363031</v>
+        <v>6977856353173</v>
       </c>
       <c r="D170" t="s">
-        <v>268</v>
+        <v>16</v>
       </c>
       <c r="E170" s="1">
-        <v>43283.604861111111</v>
+        <v>43279.424305555556</v>
       </c>
       <c r="F170" s="1"/>
     </row>
     <row r="171" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B171" t="s">
-        <v>269</v>
+        <v>193</v>
       </c>
       <c r="C171" s="2">
-        <v>7007443362987</v>
+        <v>6977844353209</v>
       </c>
       <c r="D171" t="s">
-        <v>270</v>
+        <v>93</v>
       </c>
       <c r="E171" s="1">
-        <v>43283.613194444442</v>
+        <v>43279.425694444442</v>
       </c>
       <c r="F171" s="1"/>
     </row>
     <row r="172" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B172" t="s">
-        <v>271</v>
+        <v>194</v>
       </c>
       <c r="C172" s="2">
-        <v>7007870362915</v>
+        <v>6977797353337</v>
       </c>
       <c r="D172" t="s">
-        <v>272</v>
+        <v>53</v>
       </c>
       <c r="E172" s="1">
-        <v>43283.619444444441</v>
+        <v>43279.428472222222</v>
       </c>
       <c r="F172" s="1"/>
     </row>
     <row r="173" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B173" t="s">
-        <v>273</v>
+        <v>195</v>
       </c>
       <c r="C173" s="2">
-        <v>7010603362818</v>
+        <v>6977575354652</v>
       </c>
       <c r="D173" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="E173" s="1">
-        <v>43283.652083333334</v>
+        <v>43279.447222222225</v>
       </c>
       <c r="F173" s="1"/>
     </row>
     <row r="174" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B174" t="s">
-        <v>274</v>
+        <v>196</v>
       </c>
       <c r="C174" s="2">
-        <v>7009945363862</v>
+        <v>6978571354702</v>
       </c>
       <c r="D174" t="s">
-        <v>20</v>
+        <v>150</v>
       </c>
       <c r="E174" s="1">
-        <v>43283.67291666667</v>
+        <v>43279.47152777778</v>
       </c>
       <c r="F174" s="1"/>
     </row>
     <row r="175" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B175" t="s">
-        <v>275</v>
+        <v>197</v>
       </c>
       <c r="C175" s="2">
-        <v>7009257365321</v>
+        <v>6979142354504</v>
       </c>
       <c r="D175" t="s">
-        <v>98</v>
+        <v>198</v>
       </c>
       <c r="E175" s="1">
-        <v>43283.743055555555</v>
+        <v>43279.486805555556</v>
       </c>
       <c r="F175" s="1"/>
     </row>
     <row r="176" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B176" t="s">
-        <v>276</v>
+        <v>199</v>
       </c>
       <c r="C176" s="2">
-        <v>7009246365393</v>
+        <v>6979932354155</v>
       </c>
       <c r="D176" t="s">
-        <v>22</v>
+        <v>142</v>
       </c>
       <c r="E176" s="1">
-        <v>43283.745138888888</v>
+        <v>43279.498611111114</v>
       </c>
       <c r="F176" s="1"/>
     </row>
     <row r="177" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B177" t="s">
-        <v>277</v>
+        <v>200</v>
       </c>
       <c r="C177" s="2">
-        <v>7009221365532</v>
+        <v>6979961354157</v>
       </c>
       <c r="D177" t="s">
-        <v>278</v>
+        <v>142</v>
       </c>
       <c r="E177" s="1">
-        <v>43283.747916666667</v>
+        <v>43279.500694444447</v>
       </c>
       <c r="F177" s="1"/>
     </row>
     <row r="178" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B178" t="s">
-        <v>279</v>
+        <v>201</v>
       </c>
       <c r="C178" s="2">
-        <v>7009215365581</v>
+        <v>6980285354065</v>
       </c>
       <c r="D178" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="E178" s="1">
-        <v>43283.749305555553</v>
+        <v>43279.506944444445</v>
       </c>
       <c r="F178" s="1"/>
     </row>
     <row r="179" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B179" t="s">
-        <v>280</v>
+        <v>202</v>
       </c>
       <c r="C179" s="2">
-        <v>7009220365592</v>
+        <v>6980874353935</v>
       </c>
       <c r="D179" t="s">
-        <v>281</v>
+        <v>119</v>
       </c>
       <c r="E179" s="1">
-        <v>43283.750694444447</v>
+        <v>43279.515972222223</v>
       </c>
       <c r="F179" s="1"/>
     </row>
     <row r="180" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B180" t="s">
-        <v>282</v>
+        <v>203</v>
       </c>
       <c r="C180" s="2">
-        <v>7009216365643</v>
+        <v>6980891353931</v>
       </c>
       <c r="D180" t="s">
-        <v>283</v>
+        <v>204</v>
       </c>
       <c r="E180" s="1">
-        <v>43283.75277777778</v>
+        <v>43279.517361111109</v>
       </c>
       <c r="F180" s="1"/>
     </row>
     <row r="181" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B181" t="s">
-        <v>284</v>
+        <v>205</v>
       </c>
       <c r="C181" s="2">
-        <v>7009215365667</v>
+        <v>6980914353924</v>
       </c>
       <c r="D181" t="s">
-        <v>285</v>
+        <v>206</v>
       </c>
       <c r="E181" s="1">
-        <v>43283.753472222219</v>
+        <v>43279.518750000003</v>
       </c>
       <c r="F181" s="1"/>
     </row>
     <row r="182" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B182" t="s">
-        <v>286</v>
+        <v>207</v>
       </c>
       <c r="C182" s="2">
-        <v>7009073365892</v>
+        <v>7008446366454</v>
       </c>
       <c r="D182" t="s">
-        <v>287</v>
+        <v>208</v>
       </c>
       <c r="E182" s="1">
-        <v>43283.759027777778</v>
+        <v>43283.498611111114</v>
       </c>
       <c r="F182" s="1"/>
     </row>
     <row r="183" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B183" t="s">
-        <v>288</v>
+        <v>209</v>
       </c>
       <c r="C183" s="2">
-        <v>7008870366106</v>
+        <v>7008274366146</v>
       </c>
       <c r="D183" t="s">
-        <v>289</v>
+        <v>210</v>
       </c>
       <c r="E183" s="1">
-        <v>43283.765277777777</v>
+        <v>43283.506944444445</v>
       </c>
       <c r="F183" s="1"/>
     </row>
     <row r="184" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B184" t="s">
-        <v>290</v>
+        <v>211</v>
       </c>
       <c r="C184" s="2">
-        <v>7008555366617</v>
+        <v>7008058365732</v>
       </c>
       <c r="D184" t="s">
-        <v>291</v>
+        <v>22</v>
       </c>
       <c r="E184" s="1">
-        <v>43283.776388888888</v>
+        <v>43283.513888888891</v>
       </c>
       <c r="F184" s="1"/>
     </row>
     <row r="185" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B185" t="s">
-        <v>292</v>
+        <v>212</v>
       </c>
       <c r="C185" s="2">
-        <v>7008548366629</v>
+        <v>7007697364981</v>
       </c>
       <c r="D185" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="E185" s="1">
-        <v>43283.777777777781</v>
+        <v>43283.525694444441</v>
       </c>
       <c r="F185" s="1"/>
     </row>
     <row r="186" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B186" t="s">
-        <v>293</v>
+        <v>213</v>
       </c>
       <c r="C186" s="2">
-        <v>7008546366650</v>
+        <v>7007640364853</v>
       </c>
       <c r="D186" t="s">
-        <v>43</v>
+        <v>17</v>
       </c>
       <c r="E186" s="1">
-        <v>43283.779166666667</v>
+        <v>43283.529166666667</v>
       </c>
       <c r="F186" s="1"/>
     </row>
     <row r="187" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B187" t="s">
-        <v>294</v>
+        <v>214</v>
       </c>
       <c r="C187" s="2">
-        <v>7005699362925</v>
+        <v>7007642364847</v>
       </c>
       <c r="D187" t="s">
-        <v>295</v>
+        <v>155</v>
       </c>
       <c r="E187" s="1">
-        <v>43284.404861111114</v>
+        <v>43283.530555555553</v>
       </c>
       <c r="F187" s="1"/>
     </row>
     <row r="188" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B188" t="s">
-        <v>296</v>
+        <v>215</v>
       </c>
       <c r="C188" s="2">
-        <v>7003859361323</v>
+        <v>7007282364035</v>
       </c>
       <c r="D188" t="s">
-        <v>297</v>
+        <v>216</v>
       </c>
       <c r="E188" s="1">
-        <v>43284.474305555559</v>
+        <v>43283.542361111111</v>
       </c>
       <c r="F188" s="1"/>
     </row>
     <row r="189" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B189" t="s">
-        <v>298</v>
+        <v>217</v>
       </c>
       <c r="C189" s="2">
-        <v>7003856361321</v>
+        <v>7006937363535</v>
       </c>
       <c r="D189" t="s">
-        <v>297</v>
+        <v>218</v>
       </c>
       <c r="E189" s="1">
-        <v>43284.476388888892</v>
+        <v>43283.552777777775</v>
       </c>
       <c r="F189" s="1"/>
     </row>
     <row r="190" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B190" t="s">
-        <v>299</v>
+        <v>219</v>
       </c>
       <c r="C190" s="2">
-        <v>7003558361140</v>
+        <v>7006658363080</v>
       </c>
       <c r="D190" t="s">
-        <v>300</v>
+        <v>220</v>
       </c>
       <c r="E190" s="1">
-        <v>43284.481944444444</v>
+        <v>43283.56527777778</v>
       </c>
       <c r="F190" s="1"/>
     </row>
     <row r="191" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B191" t="s">
-        <v>301</v>
+        <v>221</v>
       </c>
       <c r="C191" s="2">
-        <v>7003118360900</v>
+        <v>7007092363031</v>
       </c>
       <c r="D191" t="s">
-        <v>302</v>
+        <v>222</v>
       </c>
       <c r="E191" s="1">
-        <v>43284.487500000003</v>
+        <v>43283.604861111111</v>
       </c>
       <c r="F191" s="1"/>
     </row>
     <row r="192" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B192" t="s">
-        <v>303</v>
+        <v>223</v>
       </c>
       <c r="C192" s="2">
-        <v>7002855360420</v>
+        <v>7007443362987</v>
       </c>
       <c r="D192" t="s">
-        <v>300</v>
+        <v>224</v>
       </c>
       <c r="E192" s="1">
-        <v>43284.509027777778</v>
+        <v>43283.613194444442</v>
       </c>
       <c r="F192" s="1"/>
     </row>
     <row r="193" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B193" t="s">
-        <v>304</v>
+        <v>225</v>
       </c>
       <c r="C193" s="2">
-        <v>7002885360403</v>
+        <v>7007870362915</v>
       </c>
       <c r="D193" t="s">
-        <v>305</v>
+        <v>226</v>
       </c>
       <c r="E193" s="1">
-        <v>43284.511111111111</v>
+        <v>43283.619444444441</v>
       </c>
       <c r="F193" s="1"/>
     </row>
     <row r="194" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B194" t="s">
-        <v>306</v>
+        <v>227</v>
       </c>
       <c r="C194" s="2">
-        <v>7003077360282</v>
+        <v>7010603362818</v>
       </c>
       <c r="D194" t="s">
-        <v>307</v>
+        <v>33</v>
       </c>
       <c r="E194" s="1">
-        <v>43284.51458333333</v>
+        <v>43283.652083333334</v>
       </c>
       <c r="F194" s="1"/>
     </row>
     <row r="195" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B195" t="s">
-        <v>308</v>
+        <v>228</v>
       </c>
       <c r="C195" s="2">
-        <v>7004668359365</v>
+        <v>7009945363862</v>
       </c>
       <c r="D195" t="s">
-        <v>309</v>
+        <v>20</v>
       </c>
       <c r="E195" s="1">
-        <v>43284.538194444445</v>
+        <v>43283.67291666667</v>
       </c>
       <c r="F195" s="1"/>
     </row>
     <row r="196" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B196" t="s">
-        <v>310</v>
+        <v>229</v>
       </c>
       <c r="C196" s="2">
-        <v>7004947359182</v>
+        <v>7009257365321</v>
       </c>
       <c r="D196" t="s">
-        <v>311</v>
+        <v>59</v>
       </c>
       <c r="E196" s="1">
-        <v>43284.543055555558</v>
+        <v>43283.743055555555</v>
       </c>
       <c r="F196" s="1"/>
     </row>
     <row r="197" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B197" t="s">
-        <v>312</v>
+        <v>230</v>
       </c>
       <c r="C197" s="2">
-        <v>7005389358896</v>
+        <v>7009246365393</v>
       </c>
       <c r="D197" t="s">
-        <v>177</v>
+        <v>22</v>
       </c>
       <c r="E197" s="1">
-        <v>43284.55</v>
+        <v>43283.745138888888</v>
       </c>
       <c r="F197" s="1"/>
     </row>
     <row r="198" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B198" t="s">
-        <v>313</v>
+        <v>231</v>
       </c>
       <c r="C198" s="2">
-        <v>7005467358844</v>
+        <v>7009221365532</v>
       </c>
       <c r="D198" t="s">
-        <v>177</v>
+        <v>232</v>
       </c>
       <c r="E198" s="1">
-        <v>43284.552083333336</v>
+        <v>43283.747916666667</v>
       </c>
       <c r="F198" s="1"/>
     </row>
     <row r="199" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B199" t="s">
-        <v>314</v>
+        <v>233</v>
       </c>
       <c r="C199" s="2">
-        <v>7005608358776</v>
+        <v>7009215365581</v>
       </c>
       <c r="D199" t="s">
-        <v>300</v>
+        <v>78</v>
       </c>
       <c r="E199" s="1">
-        <v>43284.554861111108</v>
+        <v>43283.749305555553</v>
       </c>
       <c r="F199" s="1"/>
     </row>
     <row r="200" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B200" t="s">
-        <v>315</v>
+        <v>234</v>
       </c>
       <c r="C200" s="2">
-        <v>7005953358605</v>
+        <v>7009220365592</v>
       </c>
       <c r="D200" t="s">
-        <v>316</v>
+        <v>235</v>
       </c>
       <c r="E200" s="1">
-        <v>43284.561111111114</v>
+        <v>43283.750694444447</v>
       </c>
       <c r="F200" s="1"/>
     </row>
     <row r="201" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B201" t="s">
-        <v>317</v>
+        <v>236</v>
       </c>
       <c r="C201" s="2">
-        <v>7005947359962</v>
+        <v>7009216365643</v>
       </c>
       <c r="D201" t="s">
-        <v>60</v>
+        <v>237</v>
       </c>
       <c r="E201" s="1">
-        <v>43284.581250000003</v>
+        <v>43283.75277777778</v>
       </c>
       <c r="F201" s="1"/>
     </row>
     <row r="202" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B202" t="s">
-        <v>318</v>
+        <v>238</v>
       </c>
       <c r="C202" s="2">
-        <v>7005968360361</v>
+        <v>7009215365667</v>
       </c>
       <c r="D202" t="s">
-        <v>60</v>
+        <v>239</v>
       </c>
       <c r="E202" s="1">
-        <v>43284.585416666669</v>
+        <v>43283.753472222219</v>
       </c>
       <c r="F202" s="1"/>
     </row>
     <row r="203" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B203" t="s">
-        <v>319</v>
+        <v>240</v>
       </c>
       <c r="C203" s="2">
-        <v>7005953361950</v>
+        <v>7009073365892</v>
       </c>
       <c r="D203" t="s">
-        <v>266</v>
+        <v>241</v>
       </c>
       <c r="E203" s="1">
-        <v>43284.602777777778</v>
+        <v>43283.759027777778</v>
       </c>
       <c r="F203" s="1"/>
     </row>
     <row r="204" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B204" t="s">
-        <v>320</v>
+        <v>242</v>
       </c>
       <c r="C204" s="2">
-        <v>7004327359068</v>
+        <v>7008870366106</v>
       </c>
       <c r="D204" t="s">
-        <v>321</v>
+        <v>243</v>
       </c>
       <c r="E204" s="1">
-        <v>43285.468055555553</v>
+        <v>43283.765277777777</v>
       </c>
       <c r="F204" s="1"/>
     </row>
     <row r="205" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B205" t="s">
-        <v>322</v>
+        <v>244</v>
       </c>
       <c r="C205" s="2">
-        <v>7004323359062</v>
+        <v>7008555366617</v>
       </c>
       <c r="D205" t="s">
-        <v>323</v>
+        <v>245</v>
       </c>
       <c r="E205" s="1">
-        <v>43285.469444444447</v>
+        <v>43283.776388888888</v>
       </c>
       <c r="F205" s="1"/>
     </row>
     <row r="206" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B206" t="s">
-        <v>324</v>
+        <v>246</v>
       </c>
       <c r="C206" s="2">
-        <v>7004287358905</v>
+        <v>7008548366629</v>
       </c>
       <c r="D206" t="s">
-        <v>325</v>
+        <v>41</v>
       </c>
       <c r="E206" s="1">
-        <v>43285.472916666666</v>
+        <v>43283.777777777781</v>
       </c>
       <c r="F206" s="1"/>
     </row>
     <row r="207" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B207" t="s">
-        <v>326</v>
+        <v>247</v>
       </c>
       <c r="C207" s="2">
-        <v>7004221358773</v>
+        <v>7008546366650</v>
       </c>
       <c r="D207" t="s">
-        <v>327</v>
+        <v>37</v>
       </c>
       <c r="E207" s="1">
-        <v>43285.479861111111</v>
+        <v>43283.779166666667</v>
       </c>
       <c r="F207" s="1"/>
     </row>
     <row r="208" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B208" t="s">
-        <v>328</v>
+        <v>248</v>
       </c>
       <c r="C208" s="2">
-        <v>7003851357814</v>
+        <v>7005699362925</v>
       </c>
       <c r="D208" t="s">
-        <v>329</v>
+        <v>249</v>
       </c>
       <c r="E208" s="1">
-        <v>43285.495833333334</v>
+        <v>43284.404861111114</v>
       </c>
       <c r="F208" s="1"/>
     </row>
     <row r="209" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B209" t="s">
-        <v>330</v>
+        <v>250</v>
       </c>
       <c r="C209" s="2">
-        <v>7003591357126</v>
+        <v>7003859361323</v>
       </c>
       <c r="D209" t="s">
-        <v>331</v>
+        <v>251</v>
       </c>
       <c r="E209" s="1">
-        <v>43285.505555555559</v>
+        <v>43284.474305555559</v>
       </c>
       <c r="F209" s="1"/>
     </row>
     <row r="210" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B210" t="s">
-        <v>332</v>
+        <v>252</v>
       </c>
       <c r="C210" s="2">
-        <v>7003588357121</v>
+        <v>7003856361321</v>
       </c>
       <c r="D210" t="s">
-        <v>333</v>
+        <v>251</v>
       </c>
       <c r="E210" s="1">
-        <v>43285.507638888892</v>
+        <v>43284.476388888892</v>
       </c>
       <c r="F210" s="1"/>
     </row>
     <row r="211" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B211" t="s">
-        <v>334</v>
+        <v>253</v>
       </c>
       <c r="C211" s="2">
-        <v>7003563357072</v>
+        <v>7003558361140</v>
       </c>
       <c r="D211" t="s">
-        <v>335</v>
+        <v>254</v>
       </c>
       <c r="E211" s="1">
-        <v>43285.509722222225</v>
+        <v>43284.481944444444</v>
       </c>
       <c r="F211" s="1"/>
     </row>
     <row r="212" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B212" t="s">
-        <v>336</v>
+        <v>255</v>
       </c>
       <c r="C212" s="2">
-        <v>7003167356300</v>
+        <v>7003118360900</v>
       </c>
       <c r="D212" t="s">
-        <v>337</v>
+        <v>256</v>
       </c>
       <c r="E212" s="1">
-        <v>43285.520138888889</v>
+        <v>43284.487500000003</v>
       </c>
       <c r="F212" s="1"/>
     </row>
     <row r="213" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B213" t="s">
-        <v>338</v>
+        <v>257</v>
       </c>
       <c r="C213" s="2">
-        <v>7003070356094</v>
+        <v>7002855360420</v>
       </c>
       <c r="D213" t="s">
-        <v>339</v>
+        <v>254</v>
       </c>
       <c r="E213" s="1">
-        <v>43285.525000000001</v>
+        <v>43284.509027777778</v>
       </c>
       <c r="F213" s="1"/>
     </row>
     <row r="214" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B214" t="s">
-        <v>340</v>
+        <v>258</v>
       </c>
       <c r="C214" s="2">
-        <v>7002942355831</v>
+        <v>7002885360403</v>
       </c>
       <c r="D214" t="s">
-        <v>341</v>
+        <v>259</v>
       </c>
       <c r="E214" s="1">
-        <v>43285.529166666667</v>
+        <v>43284.511111111111</v>
       </c>
       <c r="F214" s="1"/>
     </row>
     <row r="215" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B215" t="s">
-        <v>342</v>
+        <v>260</v>
       </c>
       <c r="C215" s="2">
-        <v>7002927355804</v>
+        <v>7003077360282</v>
       </c>
       <c r="D215" t="s">
-        <v>343</v>
+        <v>261</v>
       </c>
       <c r="E215" s="1">
-        <v>43285.530555555553</v>
+        <v>43284.51458333333</v>
       </c>
       <c r="F215" s="1"/>
     </row>
     <row r="216" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B216" t="s">
-        <v>344</v>
+        <v>262</v>
       </c>
       <c r="C216" s="2">
-        <v>7003815355805</v>
+        <v>7004668359365</v>
       </c>
       <c r="D216" t="s">
-        <v>345</v>
+        <v>263</v>
       </c>
       <c r="E216" s="1">
-        <v>43285.582638888889</v>
+        <v>43284.538194444445</v>
       </c>
       <c r="F216" s="1"/>
     </row>
     <row r="217" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B217" t="s">
-        <v>346</v>
+        <v>264</v>
       </c>
       <c r="C217" s="2">
-        <v>7003868355815</v>
+        <v>7004947359182</v>
       </c>
       <c r="D217" t="s">
-        <v>347</v>
+        <v>265</v>
       </c>
       <c r="E217" s="1">
-        <v>43285.584027777775</v>
+        <v>43284.543055555558</v>
       </c>
       <c r="F217" s="1"/>
     </row>
     <row r="218" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B218" t="s">
-        <v>348</v>
+        <v>266</v>
       </c>
       <c r="C218" s="2">
-        <v>7004676355956</v>
+        <v>7005389358896</v>
       </c>
       <c r="D218" t="s">
-        <v>349</v>
+        <v>131</v>
       </c>
       <c r="E218" s="1">
-        <v>43285.595138888886</v>
+        <v>43284.55</v>
       </c>
       <c r="F218" s="1"/>
     </row>
     <row r="219" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B219" t="s">
-        <v>350</v>
+        <v>267</v>
       </c>
       <c r="C219" s="2">
-        <v>7005109356038</v>
+        <v>7005467358844</v>
       </c>
       <c r="D219" t="s">
-        <v>351</v>
+        <v>131</v>
       </c>
       <c r="E219" s="1">
-        <v>43285.602083333331</v>
+        <v>43284.552083333336</v>
       </c>
       <c r="F219" s="1"/>
     </row>
     <row r="220" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B220" t="s">
-        <v>352</v>
+        <v>268</v>
       </c>
       <c r="C220" s="2">
-        <v>7005919356186</v>
+        <v>7005608358776</v>
       </c>
       <c r="D220" t="s">
-        <v>353</v>
+        <v>254</v>
       </c>
       <c r="E220" s="1">
-        <v>43285.617361111108</v>
+        <v>43284.554861111108</v>
       </c>
       <c r="F220" s="1"/>
     </row>
     <row r="221" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B221" t="s">
-        <v>354</v>
+        <v>269</v>
       </c>
       <c r="C221" s="2">
-        <v>7006690356269</v>
+        <v>7005953358605</v>
       </c>
       <c r="D221" t="s">
-        <v>355</v>
+        <v>270</v>
       </c>
       <c r="E221" s="1">
-        <v>43285.634722222225</v>
+        <v>43284.561111111114</v>
       </c>
       <c r="F221" s="1"/>
     </row>
     <row r="222" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B222" t="s">
-        <v>356</v>
+        <v>271</v>
       </c>
       <c r="C222" s="2">
-        <v>7006735356287</v>
+        <v>7005947359962</v>
       </c>
       <c r="D222" t="s">
-        <v>357</v>
+        <v>44</v>
       </c>
       <c r="E222" s="1">
-        <v>43285.638194444444</v>
+        <v>43284.581250000003</v>
       </c>
       <c r="F222" s="1"/>
     </row>
     <row r="223" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B223" t="s">
-        <v>358</v>
+        <v>272</v>
       </c>
       <c r="C223" s="2">
-        <v>7006631356457</v>
+        <v>7005968360361</v>
       </c>
       <c r="D223" t="s">
-        <v>359</v>
+        <v>44</v>
       </c>
       <c r="E223" s="1">
-        <v>43285.645833333336</v>
-      </c>
+        <v>43284.585416666669</v>
+      </c>
+      <c r="F223" s="1"/>
     </row>
     <row r="224" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B224" t="s">
-        <v>360</v>
+        <v>273</v>
       </c>
       <c r="C224" s="2">
+        <v>7005953361950</v>
+      </c>
+      <c r="D224" t="s">
+        <v>220</v>
+      </c>
+      <c r="E224" s="1">
+        <v>43284.602777777778</v>
+      </c>
+      <c r="F224" s="1"/>
+    </row>
+    <row r="225" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B225" t="s">
+        <v>274</v>
+      </c>
+      <c r="C225" s="2">
+        <v>7004327359068</v>
+      </c>
+      <c r="D225" t="s">
+        <v>275</v>
+      </c>
+      <c r="E225" s="1">
+        <v>43285.468055555553</v>
+      </c>
+      <c r="F225" s="1"/>
+    </row>
+    <row r="226" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B226" t="s">
+        <v>276</v>
+      </c>
+      <c r="C226" s="2">
+        <v>7004323359062</v>
+      </c>
+      <c r="D226" t="s">
+        <v>277</v>
+      </c>
+      <c r="E226" s="1">
+        <v>43285.469444444447</v>
+      </c>
+      <c r="F226" s="1"/>
+    </row>
+    <row r="227" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B227" t="s">
+        <v>278</v>
+      </c>
+      <c r="C227" s="2">
+        <v>7004287358905</v>
+      </c>
+      <c r="D227" t="s">
+        <v>279</v>
+      </c>
+      <c r="E227" s="1">
+        <v>43285.472916666666</v>
+      </c>
+      <c r="F227" s="1"/>
+    </row>
+    <row r="228" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B228" t="s">
+        <v>280</v>
+      </c>
+      <c r="C228" s="2">
+        <v>7004221358773</v>
+      </c>
+      <c r="D228" t="s">
+        <v>281</v>
+      </c>
+      <c r="E228" s="1">
+        <v>43285.479861111111</v>
+      </c>
+      <c r="F228" s="1"/>
+    </row>
+    <row r="229" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B229" t="s">
+        <v>282</v>
+      </c>
+      <c r="C229" s="2">
+        <v>7003851357814</v>
+      </c>
+      <c r="D229" t="s">
+        <v>283</v>
+      </c>
+      <c r="E229" s="1">
+        <v>43285.495833333334</v>
+      </c>
+      <c r="F229" s="1"/>
+    </row>
+    <row r="230" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B230" t="s">
+        <v>284</v>
+      </c>
+      <c r="C230" s="2">
+        <v>7003591357126</v>
+      </c>
+      <c r="D230" t="s">
+        <v>285</v>
+      </c>
+      <c r="E230" s="1">
+        <v>43285.505555555559</v>
+      </c>
+      <c r="F230" s="1"/>
+    </row>
+    <row r="231" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B231" t="s">
+        <v>286</v>
+      </c>
+      <c r="C231" s="2">
+        <v>7003588357121</v>
+      </c>
+      <c r="D231" t="s">
+        <v>287</v>
+      </c>
+      <c r="E231" s="1">
+        <v>43285.507638888892</v>
+      </c>
+      <c r="F231" s="1"/>
+    </row>
+    <row r="232" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B232" t="s">
+        <v>288</v>
+      </c>
+      <c r="C232" s="2">
+        <v>7003563357072</v>
+      </c>
+      <c r="D232" t="s">
+        <v>289</v>
+      </c>
+      <c r="E232" s="1">
+        <v>43285.509722222225</v>
+      </c>
+      <c r="F232" s="1"/>
+    </row>
+    <row r="233" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B233" t="s">
+        <v>290</v>
+      </c>
+      <c r="C233" s="2">
+        <v>7003167356300</v>
+      </c>
+      <c r="D233" t="s">
+        <v>291</v>
+      </c>
+      <c r="E233" s="1">
+        <v>43285.520138888889</v>
+      </c>
+      <c r="F233" s="1"/>
+    </row>
+    <row r="234" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B234" t="s">
+        <v>292</v>
+      </c>
+      <c r="C234" s="2">
+        <v>7003070356094</v>
+      </c>
+      <c r="D234" t="s">
+        <v>293</v>
+      </c>
+      <c r="E234" s="1">
+        <v>43285.525000000001</v>
+      </c>
+      <c r="F234" s="1"/>
+    </row>
+    <row r="235" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B235" t="s">
+        <v>294</v>
+      </c>
+      <c r="C235" s="2">
+        <v>7002942355831</v>
+      </c>
+      <c r="D235" t="s">
+        <v>295</v>
+      </c>
+      <c r="E235" s="1">
+        <v>43285.529166666667</v>
+      </c>
+    </row>
+    <row r="236" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B236" t="s">
+        <v>296</v>
+      </c>
+      <c r="C236" s="2">
+        <v>7002927355804</v>
+      </c>
+      <c r="D236" t="s">
+        <v>297</v>
+      </c>
+      <c r="E236" s="1">
+        <v>43285.530555555553</v>
+      </c>
+      <c r="F236" s="1"/>
+    </row>
+    <row r="237" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B237" t="s">
+        <v>298</v>
+      </c>
+      <c r="C237" s="2">
+        <v>7003815355805</v>
+      </c>
+      <c r="D237" t="s">
+        <v>299</v>
+      </c>
+      <c r="E237" s="1">
+        <v>43285.582638888889</v>
+      </c>
+    </row>
+    <row r="238" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B238" t="s">
+        <v>300</v>
+      </c>
+      <c r="C238" s="2">
+        <v>7003868355815</v>
+      </c>
+      <c r="D238" t="s">
+        <v>301</v>
+      </c>
+      <c r="E238" s="1">
+        <v>43285.584027777775</v>
+      </c>
+    </row>
+    <row r="239" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B239" t="s">
+        <v>302</v>
+      </c>
+      <c r="C239" s="2">
+        <v>7004676355956</v>
+      </c>
+      <c r="D239" t="s">
+        <v>303</v>
+      </c>
+      <c r="E239" s="1">
+        <v>43285.595138888886</v>
+      </c>
+    </row>
+    <row r="240" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B240" t="s">
+        <v>304</v>
+      </c>
+      <c r="C240" s="2">
+        <v>7005109356038</v>
+      </c>
+      <c r="D240" t="s">
+        <v>305</v>
+      </c>
+      <c r="E240" s="1">
+        <v>43285.602083333331</v>
+      </c>
+    </row>
+    <row r="241" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B241" t="s">
+        <v>306</v>
+      </c>
+      <c r="C241" s="2">
+        <v>7005919356186</v>
+      </c>
+      <c r="D241" t="s">
+        <v>307</v>
+      </c>
+      <c r="E241" s="1">
+        <v>43285.617361111108</v>
+      </c>
+    </row>
+    <row r="242" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B242" t="s">
+        <v>308</v>
+      </c>
+      <c r="C242" s="2">
+        <v>7006690356269</v>
+      </c>
+      <c r="D242" t="s">
+        <v>309</v>
+      </c>
+      <c r="E242" s="1">
+        <v>43285.634722222225</v>
+      </c>
+    </row>
+    <row r="243" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B243" t="s">
+        <v>310</v>
+      </c>
+      <c r="C243" s="2">
+        <v>7006735356287</v>
+      </c>
+      <c r="D243" t="s">
+        <v>311</v>
+      </c>
+      <c r="E243" s="1">
+        <v>43285.638194444444</v>
+      </c>
+    </row>
+    <row r="244" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B244" t="s">
+        <v>312</v>
+      </c>
+      <c r="C244" s="2">
+        <v>7006631356457</v>
+      </c>
+      <c r="D244" t="s">
+        <v>313</v>
+      </c>
+      <c r="E244" s="1">
+        <v>43285.645833333336</v>
+      </c>
+    </row>
+    <row r="245" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B245" t="s">
+        <v>314</v>
+      </c>
+      <c r="C245" s="2">
         <v>7006501356636</v>
       </c>
-      <c r="D224" t="s">
-        <v>361</v>
-      </c>
-      <c r="E224" s="1">
+      <c r="D245" t="s">
+        <v>315</v>
+      </c>
+      <c r="E245" s="1">
         <v>43285.649305555555</v>
       </c>
-      <c r="F224" s="1"/>
-    </row>
-    <row r="225" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B225" t="s">
-        <v>362</v>
-      </c>
-      <c r="C225" s="2">
+    </row>
+    <row r="246" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B246" t="s">
+        <v>316</v>
+      </c>
+      <c r="C246" s="2">
         <v>7005394357987</v>
       </c>
-      <c r="D225" t="s">
-        <v>316</v>
-      </c>
-      <c r="E225" s="1">
+      <c r="D246" t="s">
+        <v>270</v>
+      </c>
+      <c r="E246" s="1">
         <v>43285.668749999997</v>
       </c>
     </row>
-    <row r="226" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B226" t="s">
-        <v>363</v>
-      </c>
-      <c r="C226" s="2">
+    <row r="247" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B247" t="s">
+        <v>317</v>
+      </c>
+      <c r="C247" s="2">
         <v>7004438359158</v>
       </c>
-      <c r="D226" t="s">
-        <v>364</v>
-      </c>
-      <c r="E226" s="1">
+      <c r="D247" t="s">
+        <v>318</v>
+      </c>
+      <c r="E247" s="1">
         <v>43285.722916666666</v>
       </c>
     </row>
-    <row r="227" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A227" t="s">
-        <v>365</v>
-      </c>
-      <c r="B227" t="s">
-        <v>365</v>
-      </c>
-      <c r="C227" t="s">
-        <v>365</v>
-      </c>
-      <c r="D227" t="s">
-        <v>365</v>
-      </c>
-      <c r="E227" t="s">
-        <v>365</v>
+    <row r="248" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A248" t="s">
+        <v>319</v>
+      </c>
+      <c r="B248" t="s">
+        <v>319</v>
+      </c>
+      <c r="C248" t="s">
+        <v>319</v>
+      </c>
+      <c r="D248" t="s">
+        <v>319</v>
+      </c>
+      <c r="E248" t="s">
+        <v>319</v>
       </c>
     </row>
   </sheetData>

--- a/Rawdata/tor.riptransekter helags sommar 2018.xlsx
+++ b/Rawdata/tor.riptransekter helags sommar 2018.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="580" yWindow="2420" windowWidth="25440" windowHeight="14140" xr2:uid="{6F562989-0C69-724E-8921-452EAD0C9874}"/>
+    <workbookView xWindow="1660" yWindow="460" windowWidth="25440" windowHeight="14140" xr2:uid="{6F562989-0C69-724E-8921-452EAD0C9874}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="826" uniqueCount="395">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="983" uniqueCount="384">
   <si>
     <t>lya</t>
   </si>
@@ -50,9 +50,6 @@
     <t>vinkel</t>
   </si>
   <si>
-    <t>obstyp</t>
-  </si>
-  <si>
     <t>marktyp</t>
   </si>
   <si>
@@ -227,129 +224,57 @@
     <t>874 m</t>
   </si>
   <si>
-    <t>FJALLABB3</t>
-  </si>
-  <si>
-    <t>RS1131</t>
-  </si>
-  <si>
     <t>1113 m</t>
   </si>
   <si>
-    <t>RS232</t>
-  </si>
-  <si>
     <t>1128 m</t>
   </si>
   <si>
-    <t>RS332</t>
-  </si>
-  <si>
     <t>1126 m</t>
   </si>
   <si>
-    <t>RS431</t>
-  </si>
-  <si>
     <t>1118 m</t>
   </si>
   <si>
-    <t>RS531</t>
-  </si>
-  <si>
-    <t>RS631</t>
-  </si>
-  <si>
     <t>1101 m</t>
   </si>
   <si>
-    <t>F121</t>
-  </si>
-  <si>
     <t>1096 m</t>
   </si>
   <si>
-    <t>RS731</t>
-  </si>
-  <si>
-    <t>RS831</t>
-  </si>
-  <si>
     <t>933 m</t>
   </si>
   <si>
-    <t>F211</t>
-  </si>
-  <si>
     <t>929 m</t>
   </si>
   <si>
-    <t>RS931</t>
-  </si>
-  <si>
     <t>940 m</t>
   </si>
   <si>
-    <t>RS1031</t>
-  </si>
-  <si>
     <t>939 m</t>
   </si>
   <si>
-    <t>D16</t>
-  </si>
-  <si>
     <t>948 m</t>
   </si>
   <si>
-    <t>RS1141</t>
-  </si>
-  <si>
     <t>984 m</t>
   </si>
   <si>
-    <t>RS1231</t>
-  </si>
-  <si>
-    <t>RS1331</t>
-  </si>
-  <si>
     <t>989 m</t>
   </si>
   <si>
-    <t>RS1421</t>
-  </si>
-  <si>
-    <t>RS1521</t>
-  </si>
-  <si>
-    <t>RS1611</t>
-  </si>
-  <si>
     <t>1016 m</t>
   </si>
   <si>
-    <t>F311</t>
-  </si>
-  <si>
     <t>LEMMELBO</t>
   </si>
   <si>
-    <t>RS1711</t>
-  </si>
-  <si>
     <t>1026 m</t>
   </si>
   <si>
-    <t>RS1811</t>
-  </si>
-  <si>
     <t>1121 m</t>
   </si>
   <si>
-    <t>RS1911</t>
-  </si>
-  <si>
     <t>981 m</t>
   </si>
   <si>
@@ -1209,6 +1134,48 @@
   </si>
   <si>
     <t>RS21</t>
+  </si>
+  <si>
+    <t>zz033</t>
+  </si>
+  <si>
+    <t>STARTZZ033</t>
+  </si>
+  <si>
+    <t>KUNGSÖRN</t>
+  </si>
+  <si>
+    <t>såg den innan jag började transekten. Den flög över leden i backen ovanför vindskyddet vid Hulke</t>
+  </si>
+  <si>
+    <t>mulet till växlande molnighet. Duggregn ibland. 8 - 10 m/s. 15°C</t>
+  </si>
+  <si>
+    <t>SE</t>
+  </si>
+  <si>
+    <t>mörk</t>
+  </si>
+  <si>
+    <t>grå, vit (färsk)</t>
+  </si>
+  <si>
+    <t>stora mörka, stora fibrer</t>
+  </si>
+  <si>
+    <t>D1</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>brun, rund</t>
+  </si>
+  <si>
+    <t>obstyp (H =hört, SE = sett)</t>
+  </si>
+  <si>
+    <t>LÄMMELBO</t>
   </si>
 </sst>
 </file>
@@ -1563,11 +1530,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7481D24-4BBD-9743-96A3-63B52605E732}">
-  <dimension ref="A1:O248"/>
+  <dimension ref="A1:O258"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A83" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G92" sqref="G92"/>
+      <pane ySplit="1" topLeftCell="A118" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G128" sqref="G128"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1602,68 +1569,68 @@
         <v>7</v>
       </c>
       <c r="I1" t="s">
+        <v>382</v>
+      </c>
+      <c r="J1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>13</v>
-      </c>
-      <c r="O1" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>320</v>
+        <v>295</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>321</v>
+        <v>296</v>
       </c>
       <c r="C2" s="2">
         <v>6976680377753</v>
       </c>
       <c r="D2" t="s">
-        <v>322</v>
+        <v>297</v>
       </c>
       <c r="E2" s="1">
         <v>43271.520833333336</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>324</v>
+        <v>299</v>
       </c>
       <c r="N2" t="s">
-        <v>347</v>
+        <v>322</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>320</v>
+        <v>295</v>
       </c>
       <c r="B3" t="s">
-        <v>325</v>
+        <v>300</v>
       </c>
       <c r="C3" s="2">
         <v>6976296377160</v>
       </c>
       <c r="D3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E3" s="1">
         <v>43271.53125</v>
       </c>
       <c r="F3" t="s">
-        <v>326</v>
+        <v>301</v>
       </c>
       <c r="G3">
         <v>2.42</v>
@@ -1678,30 +1645,30 @@
         <v>2</v>
       </c>
       <c r="M3" t="s">
-        <v>346</v>
+        <v>321</v>
       </c>
       <c r="N3" t="s">
-        <v>347</v>
+        <v>322</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>320</v>
+        <v>295</v>
       </c>
       <c r="B4" t="s">
-        <v>327</v>
+        <v>302</v>
       </c>
       <c r="C4" s="2">
         <v>6976013376681</v>
       </c>
       <c r="D4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E4" s="1">
         <v>43271.539583333331</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>326</v>
+        <v>301</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -1716,30 +1683,30 @@
         <v>17</v>
       </c>
       <c r="M4" t="s">
-        <v>348</v>
+        <v>323</v>
       </c>
       <c r="N4" t="s">
-        <v>347</v>
+        <v>322</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>320</v>
+        <v>295</v>
       </c>
       <c r="B5" t="s">
-        <v>328</v>
+        <v>303</v>
       </c>
       <c r="C5" s="2">
         <v>6975623376165</v>
       </c>
       <c r="D5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E5" s="1">
         <v>43271.549305555556</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>326</v>
+        <v>301</v>
       </c>
       <c r="G5">
         <v>0.89</v>
@@ -1754,30 +1721,30 @@
         <v>3</v>
       </c>
       <c r="M5" t="s">
-        <v>348</v>
+        <v>323</v>
       </c>
       <c r="N5" t="s">
-        <v>347</v>
+        <v>322</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>320</v>
+        <v>295</v>
       </c>
       <c r="B6" t="s">
-        <v>329</v>
+        <v>304</v>
       </c>
       <c r="C6" s="2">
         <v>6975398375851</v>
       </c>
       <c r="D6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E6" s="1">
         <v>43271.554861111108</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>326</v>
+        <v>301</v>
       </c>
       <c r="G6">
         <v>2.5299999999999998</v>
@@ -1792,30 +1759,30 @@
         <v>21</v>
       </c>
       <c r="M6" t="s">
-        <v>349</v>
+        <v>324</v>
       </c>
       <c r="N6" t="s">
-        <v>347</v>
+        <v>322</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>320</v>
+        <v>295</v>
       </c>
       <c r="B7" t="s">
-        <v>330</v>
+        <v>305</v>
       </c>
       <c r="C7" s="2">
         <v>6975378375815</v>
       </c>
       <c r="D7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E7" s="1">
         <v>43271.556944444441</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>326</v>
+        <v>301</v>
       </c>
       <c r="G7">
         <v>0.02</v>
@@ -1830,30 +1797,30 @@
         <v>32</v>
       </c>
       <c r="M7" t="s">
-        <v>350</v>
+        <v>325</v>
       </c>
       <c r="N7" t="s">
-        <v>347</v>
+        <v>322</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>320</v>
+        <v>295</v>
       </c>
       <c r="B8" t="s">
-        <v>331</v>
+        <v>306</v>
       </c>
       <c r="C8" s="2">
         <v>6975015375406</v>
       </c>
       <c r="D8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E8" s="1">
         <v>43271.563888888886</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>326</v>
+        <v>301</v>
       </c>
       <c r="G8">
         <v>0.35</v>
@@ -1865,79 +1832,79 @@
         <v>2</v>
       </c>
       <c r="L8" t="s">
-        <v>351</v>
+        <v>326</v>
       </c>
       <c r="M8" t="s">
-        <v>352</v>
+        <v>327</v>
       </c>
       <c r="N8" t="s">
-        <v>347</v>
+        <v>322</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>320</v>
+        <v>295</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>332</v>
+        <v>307</v>
       </c>
       <c r="C9" s="2">
         <v>6974207374604</v>
       </c>
       <c r="D9" t="s">
-        <v>333</v>
+        <v>308</v>
       </c>
       <c r="E9" s="1">
         <v>43271.579861111109</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>323</v>
+        <v>298</v>
       </c>
       <c r="N9" t="s">
-        <v>347</v>
+        <v>322</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>320</v>
+        <v>295</v>
       </c>
       <c r="B10" t="s">
-        <v>334</v>
+        <v>309</v>
       </c>
       <c r="C10" s="2">
         <v>6977240373959</v>
       </c>
       <c r="D10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E10" s="1">
         <v>43271.618055555555</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>335</v>
+        <v>310</v>
       </c>
       <c r="N10" t="s">
-        <v>347</v>
+        <v>322</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>320</v>
+        <v>295</v>
       </c>
       <c r="B11" t="s">
-        <v>336</v>
+        <v>311</v>
       </c>
       <c r="C11" s="2">
         <v>6977315373891</v>
       </c>
       <c r="D11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E11" s="1">
         <v>43271.619444444441</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>326</v>
+        <v>301</v>
       </c>
       <c r="G11">
         <v>0.43</v>
@@ -1952,53 +1919,53 @@
         <v>1</v>
       </c>
       <c r="M11" t="s">
-        <v>353</v>
+        <v>328</v>
       </c>
       <c r="N11" t="s">
-        <v>347</v>
+        <v>322</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>320</v>
+        <v>295</v>
       </c>
       <c r="B12" t="s">
-        <v>334</v>
+        <v>309</v>
       </c>
       <c r="C12" s="2">
         <v>6977394373829</v>
       </c>
       <c r="D12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E12" s="1">
         <v>43271.62222222222</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>335</v>
+        <v>310</v>
       </c>
       <c r="N12" t="s">
-        <v>347</v>
+        <v>322</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>320</v>
+        <v>295</v>
       </c>
       <c r="B13" t="s">
-        <v>337</v>
+        <v>312</v>
       </c>
       <c r="C13" s="2">
         <v>6977624373925</v>
       </c>
       <c r="D13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E13" s="1">
         <v>43271.625694444447</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>326</v>
+        <v>301</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -2013,53 +1980,53 @@
         <v>2</v>
       </c>
       <c r="M13" t="s">
-        <v>354</v>
+        <v>329</v>
       </c>
       <c r="N13" t="s">
-        <v>347</v>
+        <v>322</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>320</v>
+        <v>295</v>
       </c>
       <c r="B14" t="s">
-        <v>334</v>
+        <v>309</v>
       </c>
       <c r="C14" s="2">
         <v>6977758373979</v>
       </c>
       <c r="D14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E14" s="1">
         <v>43271.628472222219</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>335</v>
+        <v>310</v>
       </c>
       <c r="N14" t="s">
-        <v>347</v>
+        <v>322</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>320</v>
+        <v>295</v>
       </c>
       <c r="B15" t="s">
-        <v>338</v>
+        <v>313</v>
       </c>
       <c r="C15" s="2">
         <v>6977791373973</v>
       </c>
       <c r="D15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E15" s="1">
         <v>43271.629861111112</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>326</v>
+        <v>301</v>
       </c>
       <c r="G15">
         <v>0.39</v>
@@ -2074,30 +2041,30 @@
         <v>27</v>
       </c>
       <c r="M15" t="s">
-        <v>355</v>
+        <v>330</v>
       </c>
       <c r="N15" t="s">
-        <v>347</v>
+        <v>322</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>320</v>
+        <v>295</v>
       </c>
       <c r="B16" t="s">
-        <v>339</v>
+        <v>314</v>
       </c>
       <c r="C16" s="2">
         <v>6977844373969</v>
       </c>
       <c r="D16" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E16" s="1">
         <v>43271.631944444445</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>326</v>
+        <v>301</v>
       </c>
       <c r="G16">
         <v>0</v>
@@ -2112,30 +2079,30 @@
         <v>1</v>
       </c>
       <c r="M16" t="s">
-        <v>356</v>
+        <v>331</v>
       </c>
       <c r="N16" t="s">
-        <v>347</v>
+        <v>322</v>
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>320</v>
+        <v>295</v>
       </c>
       <c r="B17" t="s">
-        <v>340</v>
+        <v>315</v>
       </c>
       <c r="C17" s="2">
         <v>6978044373945</v>
       </c>
       <c r="D17" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E17" s="1">
         <v>43271.634722222225</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>326</v>
+        <v>301</v>
       </c>
       <c r="G17">
         <v>0.1</v>
@@ -2150,53 +2117,53 @@
         <v>1</v>
       </c>
       <c r="M17" t="s">
-        <v>354</v>
+        <v>329</v>
       </c>
       <c r="N17" t="s">
-        <v>347</v>
+        <v>322</v>
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>320</v>
+        <v>295</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>341</v>
+        <v>316</v>
       </c>
       <c r="C18" s="2">
         <v>6978155373957</v>
       </c>
       <c r="D18" t="s">
-        <v>342</v>
+        <v>317</v>
       </c>
       <c r="E18" s="1">
         <v>43271.637499999997</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>323</v>
+        <v>298</v>
       </c>
       <c r="N18" t="s">
-        <v>347</v>
+        <v>322</v>
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>320</v>
+        <v>295</v>
       </c>
       <c r="B19" t="s">
-        <v>343</v>
+        <v>318</v>
       </c>
       <c r="C19" s="2">
         <v>6977403375505</v>
       </c>
       <c r="D19" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E19" s="1">
         <v>43271.656944444447</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>326</v>
+        <v>301</v>
       </c>
       <c r="G19">
         <v>0.59</v>
@@ -2208,33 +2175,33 @@
         <v>2</v>
       </c>
       <c r="L19" t="s">
-        <v>357</v>
+        <v>332</v>
       </c>
       <c r="M19" t="s">
-        <v>358</v>
+        <v>333</v>
       </c>
       <c r="N19" t="s">
-        <v>347</v>
+        <v>322</v>
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>320</v>
+        <v>295</v>
       </c>
       <c r="B20" t="s">
-        <v>344</v>
+        <v>319</v>
       </c>
       <c r="C20" s="2">
         <v>6977221375845</v>
       </c>
       <c r="D20" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E20" s="1">
         <v>43271.662499999999</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>326</v>
+        <v>301</v>
       </c>
       <c r="G20">
         <v>0</v>
@@ -2249,30 +2216,30 @@
         <v>28</v>
       </c>
       <c r="M20" t="s">
-        <v>359</v>
+        <v>334</v>
       </c>
       <c r="N20" t="s">
-        <v>347</v>
+        <v>322</v>
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
+        <v>295</v>
+      </c>
+      <c r="B21" t="s">
         <v>320</v>
-      </c>
-      <c r="B21" t="s">
-        <v>345</v>
       </c>
       <c r="C21" s="2">
         <v>6976904376798</v>
       </c>
       <c r="D21" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E21" s="1">
         <v>43271.713888888888</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>326</v>
+        <v>301</v>
       </c>
       <c r="G21">
         <v>0.62</v>
@@ -2287,10 +2254,10 @@
         <v>2</v>
       </c>
       <c r="M21" t="s">
-        <v>360</v>
+        <v>335</v>
       </c>
       <c r="N21" t="s">
-        <v>347</v>
+        <v>322</v>
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.2">
@@ -2298,45 +2265,45 @@
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>361</v>
+        <v>336</v>
       </c>
       <c r="B23" t="s">
-        <v>362</v>
+        <v>337</v>
       </c>
       <c r="C23" s="2">
         <v>6973557372594</v>
       </c>
       <c r="D23" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E23" s="1">
         <v>43272.509722222225</v>
       </c>
       <c r="F23" t="s">
-        <v>324</v>
+        <v>299</v>
       </c>
       <c r="N23" t="s">
-        <v>368</v>
+        <v>343</v>
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>361</v>
+        <v>336</v>
       </c>
       <c r="B24" t="s">
-        <v>325</v>
+        <v>300</v>
       </c>
       <c r="C24" s="2">
         <v>6972945370967</v>
       </c>
       <c r="D24" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E24" s="1">
         <v>43272.530555555553</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>326</v>
+        <v>301</v>
       </c>
       <c r="G24">
         <v>0.33</v>
@@ -2351,30 +2318,30 @@
         <v>2</v>
       </c>
       <c r="M24" t="s">
-        <v>360</v>
+        <v>335</v>
       </c>
       <c r="N24" t="s">
-        <v>368</v>
+        <v>343</v>
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>361</v>
+        <v>336</v>
       </c>
       <c r="B25" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C25" s="2">
         <v>6972870370730</v>
       </c>
       <c r="D25" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E25" s="1">
         <v>43272.53402777778</v>
       </c>
       <c r="F25" t="s">
-        <v>363</v>
+        <v>338</v>
       </c>
       <c r="G25">
         <v>8.5299999999999994</v>
@@ -2386,27 +2353,27 @@
         <v>1</v>
       </c>
       <c r="N25" t="s">
-        <v>368</v>
+        <v>343</v>
       </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>361</v>
+        <v>336</v>
       </c>
       <c r="B26" t="s">
-        <v>327</v>
+        <v>302</v>
       </c>
       <c r="C26" s="2">
         <v>6972775370330</v>
       </c>
       <c r="D26" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E26" s="1">
         <v>43272.539583333331</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>326</v>
+        <v>301</v>
       </c>
       <c r="G26">
         <v>0.05</v>
@@ -2421,53 +2388,53 @@
         <v>2</v>
       </c>
       <c r="M26" t="s">
-        <v>369</v>
+        <v>344</v>
       </c>
       <c r="N26" t="s">
-        <v>368</v>
+        <v>343</v>
       </c>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>361</v>
+        <v>336</v>
       </c>
       <c r="B27" t="s">
-        <v>321</v>
+        <v>296</v>
       </c>
       <c r="C27" s="2">
         <v>6972275368795</v>
       </c>
       <c r="D27" t="s">
-        <v>364</v>
+        <v>339</v>
       </c>
       <c r="E27" s="1">
         <v>43272.561111111114</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>323</v>
+        <v>298</v>
       </c>
       <c r="N27" t="s">
-        <v>368</v>
+        <v>343</v>
       </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>361</v>
+        <v>336</v>
       </c>
       <c r="B28" t="s">
-        <v>328</v>
+        <v>303</v>
       </c>
       <c r="C28" s="2">
         <v>6972145368891</v>
       </c>
       <c r="D28" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E28" s="1">
         <v>43272.564583333333</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>326</v>
+        <v>301</v>
       </c>
       <c r="G28">
         <v>0</v>
@@ -2482,30 +2449,30 @@
         <v>25</v>
       </c>
       <c r="M28" t="s">
-        <v>370</v>
+        <v>345</v>
       </c>
       <c r="N28" t="s">
-        <v>368</v>
+        <v>343</v>
       </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>361</v>
+        <v>336</v>
       </c>
       <c r="B29" t="s">
-        <v>329</v>
+        <v>304</v>
       </c>
       <c r="C29" s="2">
         <v>6971716369396</v>
       </c>
       <c r="D29" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E29" s="1">
         <v>43272.57708333333</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>326</v>
+        <v>301</v>
       </c>
       <c r="G29">
         <v>0.18</v>
@@ -2520,30 +2487,30 @@
         <v>9</v>
       </c>
       <c r="M29" t="s">
-        <v>350</v>
+        <v>325</v>
       </c>
       <c r="N29" t="s">
-        <v>368</v>
+        <v>343</v>
       </c>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>361</v>
+        <v>336</v>
       </c>
       <c r="B30" t="s">
-        <v>329</v>
+        <v>304</v>
       </c>
       <c r="C30" s="2">
         <v>6971716369396</v>
       </c>
       <c r="D30" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E30" s="1">
         <v>43272.57708333333</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>326</v>
+        <v>301</v>
       </c>
       <c r="G30">
         <v>0.36</v>
@@ -2558,30 +2525,30 @@
         <v>10</v>
       </c>
       <c r="M30" t="s">
-        <v>350</v>
+        <v>325</v>
       </c>
       <c r="N30" t="s">
-        <v>368</v>
+        <v>343</v>
       </c>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>361</v>
+        <v>336</v>
       </c>
       <c r="B31" t="s">
-        <v>330</v>
+        <v>305</v>
       </c>
       <c r="C31" s="2">
         <v>6971670369452</v>
       </c>
       <c r="D31" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E31" s="1">
         <v>43272.579861111109</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>326</v>
+        <v>301</v>
       </c>
       <c r="G31">
         <v>0.12</v>
@@ -2596,30 +2563,30 @@
         <v>28</v>
       </c>
       <c r="M31" t="s">
-        <v>350</v>
+        <v>325</v>
       </c>
       <c r="N31" t="s">
-        <v>368</v>
+        <v>343</v>
       </c>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>361</v>
+        <v>336</v>
       </c>
       <c r="B32" t="s">
-        <v>330</v>
+        <v>305</v>
       </c>
       <c r="C32" s="2">
         <v>6971670369452</v>
       </c>
       <c r="D32" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E32" s="1">
         <v>43272.579861111109</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>326</v>
+        <v>301</v>
       </c>
       <c r="G32">
         <v>0.03</v>
@@ -2634,30 +2601,30 @@
         <v>32</v>
       </c>
       <c r="M32" t="s">
-        <v>350</v>
+        <v>325</v>
       </c>
       <c r="N32" t="s">
-        <v>368</v>
+        <v>343</v>
       </c>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>361</v>
+        <v>336</v>
       </c>
       <c r="B33" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C33" s="2">
         <v>6971344369813</v>
       </c>
       <c r="D33" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E33" s="1">
         <v>43272.59097222222</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>363</v>
+        <v>338</v>
       </c>
       <c r="G33">
         <v>12</v>
@@ -2669,50 +2636,50 @@
         <v>1</v>
       </c>
       <c r="N33" t="s">
-        <v>368</v>
+        <v>343</v>
       </c>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>361</v>
+        <v>336</v>
       </c>
       <c r="B34" t="s">
-        <v>334</v>
+        <v>309</v>
       </c>
       <c r="C34" s="2">
         <v>6970950370375</v>
       </c>
       <c r="D34" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E34" s="1">
         <v>43272.599305555559</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>335</v>
+        <v>310</v>
       </c>
       <c r="N34" t="s">
-        <v>368</v>
+        <v>343</v>
       </c>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>361</v>
+        <v>336</v>
       </c>
       <c r="B35" t="s">
-        <v>365</v>
+        <v>340</v>
       </c>
       <c r="C35" s="2">
         <v>6971077370439</v>
       </c>
       <c r="D35" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E35" s="1">
         <v>43272.602777777778</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>366</v>
+        <v>341</v>
       </c>
       <c r="G35">
         <v>18.600000000000001</v>
@@ -2721,56 +2688,56 @@
         <v>348</v>
       </c>
       <c r="I35" t="s">
-        <v>367</v>
+        <v>342</v>
       </c>
       <c r="L35">
         <v>1</v>
       </c>
       <c r="N35" t="s">
-        <v>368</v>
+        <v>343</v>
       </c>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>361</v>
+        <v>336</v>
       </c>
       <c r="B36" t="s">
-        <v>334</v>
+        <v>309</v>
       </c>
       <c r="C36" s="2">
         <v>6971115370459</v>
       </c>
       <c r="D36" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E36" s="1">
         <v>43272.604861111111</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>335</v>
+        <v>310</v>
       </c>
       <c r="N36" t="s">
-        <v>368</v>
+        <v>343</v>
       </c>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>361</v>
+        <v>336</v>
       </c>
       <c r="B37" t="s">
-        <v>331</v>
+        <v>306</v>
       </c>
       <c r="C37" s="2">
         <v>6970732370812</v>
       </c>
       <c r="D37" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E37" s="1">
         <v>43272.611111111109</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>326</v>
+        <v>301</v>
       </c>
       <c r="G37">
         <v>7.0000000000000007E-2</v>
@@ -2785,30 +2752,30 @@
         <v>12</v>
       </c>
       <c r="M37" t="s">
-        <v>354</v>
+        <v>329</v>
       </c>
       <c r="N37" t="s">
-        <v>368</v>
+        <v>343</v>
       </c>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>361</v>
+        <v>336</v>
       </c>
       <c r="B38" t="s">
-        <v>336</v>
+        <v>311</v>
       </c>
       <c r="C38" s="2">
         <v>6970232371242</v>
       </c>
       <c r="D38" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E38" s="1">
         <v>43272.620138888888</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>326</v>
+        <v>301</v>
       </c>
       <c r="G38">
         <v>0.03</v>
@@ -2823,30 +2790,30 @@
         <v>1</v>
       </c>
       <c r="M38" t="s">
-        <v>353</v>
+        <v>328</v>
       </c>
       <c r="N38" t="s">
-        <v>368</v>
+        <v>343</v>
       </c>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>361</v>
+        <v>336</v>
       </c>
       <c r="B39" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C39" s="2">
         <v>6970179371313</v>
       </c>
       <c r="D39" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E39" s="1">
         <v>43272.62222222222</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>363</v>
+        <v>338</v>
       </c>
       <c r="G39">
         <v>89</v>
@@ -2858,50 +2825,50 @@
         <v>2</v>
       </c>
       <c r="N39" t="s">
-        <v>368</v>
+        <v>343</v>
       </c>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>361</v>
+        <v>336</v>
       </c>
       <c r="B40" t="s">
-        <v>332</v>
+        <v>307</v>
       </c>
       <c r="C40" s="2">
         <v>6969791371950</v>
       </c>
       <c r="D40" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E40" s="1">
         <v>43272.637499999997</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>323</v>
+        <v>298</v>
       </c>
       <c r="N40" t="s">
-        <v>368</v>
+        <v>343</v>
       </c>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>361</v>
+        <v>336</v>
       </c>
       <c r="B41" t="s">
-        <v>337</v>
+        <v>312</v>
       </c>
       <c r="C41" s="2">
         <v>6970457371894</v>
       </c>
       <c r="D41" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E41" s="1">
         <v>43272.645833333336</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>326</v>
+        <v>301</v>
       </c>
       <c r="G41">
         <v>0</v>
@@ -2916,30 +2883,30 @@
         <v>16</v>
       </c>
       <c r="M41" t="s">
-        <v>371</v>
+        <v>346</v>
       </c>
       <c r="N41" t="s">
-        <v>368</v>
+        <v>343</v>
       </c>
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>361</v>
+        <v>336</v>
       </c>
       <c r="B42" t="s">
-        <v>338</v>
+        <v>313</v>
       </c>
       <c r="C42" s="2">
         <v>6970401372178</v>
       </c>
       <c r="D42" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E42" s="1">
         <v>43272.647916666669</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>326</v>
+        <v>301</v>
       </c>
       <c r="G42">
         <v>0.48</v>
@@ -2954,30 +2921,30 @@
         <v>3</v>
       </c>
       <c r="M42" t="s">
-        <v>354</v>
+        <v>329</v>
       </c>
       <c r="N42" t="s">
-        <v>368</v>
+        <v>343</v>
       </c>
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>361</v>
+        <v>336</v>
       </c>
       <c r="B43" t="s">
-        <v>338</v>
+        <v>313</v>
       </c>
       <c r="C43" s="2">
         <v>6970401372178</v>
       </c>
       <c r="D43" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E43" s="1">
         <v>43272.647916666669</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>326</v>
+        <v>301</v>
       </c>
       <c r="G43">
         <v>1.0900000000000001</v>
@@ -2989,30 +2956,30 @@
         <v>1</v>
       </c>
       <c r="M43" t="s">
-        <v>354</v>
+        <v>329</v>
       </c>
       <c r="N43" t="s">
-        <v>368</v>
+        <v>343</v>
       </c>
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>361</v>
+        <v>336</v>
       </c>
       <c r="B44" t="s">
-        <v>339</v>
+        <v>314</v>
       </c>
       <c r="C44" s="2">
         <v>6972049372362</v>
       </c>
       <c r="D44" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E44" s="1">
         <v>43272.762499999997</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>326</v>
+        <v>301</v>
       </c>
       <c r="G44">
         <v>0.39</v>
@@ -3027,30 +2994,30 @@
         <v>16</v>
       </c>
       <c r="M44" t="s">
-        <v>372</v>
+        <v>347</v>
       </c>
       <c r="N44" t="s">
-        <v>368</v>
+        <v>343</v>
       </c>
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>361</v>
+        <v>336</v>
       </c>
       <c r="B45" t="s">
-        <v>340</v>
+        <v>315</v>
       </c>
       <c r="C45" s="2">
         <v>6972064372366</v>
       </c>
       <c r="D45" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E45" s="1">
         <v>43272.763888888891</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>326</v>
+        <v>301</v>
       </c>
       <c r="G45">
         <v>0.08</v>
@@ -3065,30 +3032,30 @@
         <v>17</v>
       </c>
       <c r="M45" t="s">
-        <v>372</v>
+        <v>347</v>
       </c>
       <c r="N45" t="s">
-        <v>368</v>
+        <v>343</v>
       </c>
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>361</v>
+        <v>336</v>
       </c>
       <c r="B46" t="s">
-        <v>340</v>
+        <v>315</v>
       </c>
       <c r="C46" s="2">
         <v>6972064372366</v>
       </c>
       <c r="D46" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E46" s="1">
         <v>43272.763888888891</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>326</v>
+        <v>301</v>
       </c>
       <c r="G46">
         <v>0.34</v>
@@ -3103,30 +3070,30 @@
         <v>14</v>
       </c>
       <c r="M46" t="s">
-        <v>372</v>
+        <v>347</v>
       </c>
       <c r="N46" t="s">
-        <v>368</v>
+        <v>343</v>
       </c>
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>361</v>
+        <v>336</v>
       </c>
       <c r="B47" t="s">
-        <v>343</v>
+        <v>318</v>
       </c>
       <c r="C47" s="2">
         <v>6972536372393</v>
       </c>
       <c r="D47" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E47" s="1">
         <v>43272.770138888889</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>326</v>
+        <v>301</v>
       </c>
       <c r="G47">
         <v>0</v>
@@ -3141,30 +3108,30 @@
         <v>5</v>
       </c>
       <c r="M47" t="s">
-        <v>372</v>
+        <v>347</v>
       </c>
       <c r="N47" t="s">
-        <v>368</v>
+        <v>343</v>
       </c>
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>361</v>
+        <v>336</v>
       </c>
       <c r="B48" t="s">
-        <v>344</v>
+        <v>319</v>
       </c>
       <c r="C48" s="2">
         <v>6972698372400</v>
       </c>
       <c r="D48" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E48" s="1">
         <v>43272.772916666669</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>326</v>
+        <v>301</v>
       </c>
       <c r="G48">
         <v>0.16</v>
@@ -3179,30 +3146,30 @@
         <v>22</v>
       </c>
       <c r="M48" t="s">
-        <v>372</v>
+        <v>347</v>
       </c>
       <c r="N48" t="s">
-        <v>368</v>
+        <v>343</v>
       </c>
     </row>
     <row r="49" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>361</v>
+        <v>336</v>
       </c>
       <c r="B49" t="s">
-        <v>344</v>
+        <v>319</v>
       </c>
       <c r="C49" s="2">
         <v>6972698372400</v>
       </c>
       <c r="D49" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E49" s="1">
         <v>43272.772916666669</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>326</v>
+        <v>301</v>
       </c>
       <c r="G49">
         <v>0.31</v>
@@ -3217,10 +3184,10 @@
         <v>18</v>
       </c>
       <c r="M49" t="s">
-        <v>372</v>
+        <v>347</v>
       </c>
       <c r="N49" t="s">
-        <v>368</v>
+        <v>343</v>
       </c>
     </row>
     <row r="50" spans="1:14" x14ac:dyDescent="0.2">
@@ -3228,45 +3195,45 @@
     </row>
     <row r="51" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>373</v>
+        <v>348</v>
       </c>
       <c r="B51" t="s">
-        <v>374</v>
+        <v>349</v>
       </c>
       <c r="C51" s="2">
         <v>6979244373084</v>
       </c>
       <c r="D51" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E51" s="1">
         <v>43275.466666666667</v>
       </c>
       <c r="F51" t="s">
-        <v>324</v>
+        <v>299</v>
       </c>
       <c r="N51" t="s">
-        <v>376</v>
+        <v>351</v>
       </c>
     </row>
     <row r="52" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>373</v>
+        <v>348</v>
       </c>
       <c r="B52" t="s">
-        <v>325</v>
+        <v>300</v>
       </c>
       <c r="C52" s="2">
         <v>6979259374093</v>
       </c>
       <c r="D52" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E52" s="1">
         <v>43275.482638888891</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>326</v>
+        <v>301</v>
       </c>
       <c r="G52">
         <v>0.47</v>
@@ -3281,30 +3248,30 @@
         <v>38</v>
       </c>
       <c r="M52" t="s">
-        <v>375</v>
+        <v>350</v>
       </c>
       <c r="N52" t="s">
-        <v>376</v>
+        <v>351</v>
       </c>
     </row>
     <row r="53" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>373</v>
+        <v>348</v>
       </c>
       <c r="B53" t="s">
-        <v>327</v>
+        <v>302</v>
       </c>
       <c r="C53" s="2">
         <v>6979294374207</v>
       </c>
       <c r="D53" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E53" s="1">
         <v>43275.486111111109</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>326</v>
+        <v>301</v>
       </c>
       <c r="G53">
         <v>0.09</v>
@@ -3319,30 +3286,30 @@
         <v>2</v>
       </c>
       <c r="M53" t="s">
-        <v>375</v>
+        <v>350</v>
       </c>
       <c r="N53" t="s">
-        <v>376</v>
+        <v>351</v>
       </c>
     </row>
     <row r="54" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>373</v>
+        <v>348</v>
       </c>
       <c r="B54" t="s">
-        <v>328</v>
+        <v>303</v>
       </c>
       <c r="C54" s="2">
         <v>6979349374543</v>
       </c>
       <c r="D54" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E54" s="1">
         <v>43275.490972222222</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>326</v>
+        <v>301</v>
       </c>
       <c r="G54">
         <v>1.1200000000000001</v>
@@ -3357,30 +3324,30 @@
         <v>10</v>
       </c>
       <c r="M54" t="s">
-        <v>354</v>
+        <v>329</v>
       </c>
       <c r="N54" t="s">
-        <v>376</v>
+        <v>351</v>
       </c>
     </row>
     <row r="55" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>373</v>
+        <v>348</v>
       </c>
       <c r="B55" t="s">
-        <v>329</v>
+        <v>304</v>
       </c>
       <c r="C55" s="2">
         <v>6979393375428</v>
       </c>
       <c r="D55" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E55" s="1">
         <v>43275.503472222219</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>326</v>
+        <v>301</v>
       </c>
       <c r="G55">
         <v>1.22</v>
@@ -3395,30 +3362,30 @@
         <v>5</v>
       </c>
       <c r="M55" t="s">
-        <v>354</v>
+        <v>329</v>
       </c>
       <c r="N55" t="s">
-        <v>376</v>
+        <v>351</v>
       </c>
     </row>
     <row r="56" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>373</v>
+        <v>348</v>
       </c>
       <c r="B56" t="s">
-        <v>329</v>
+        <v>304</v>
       </c>
       <c r="C56" s="2">
         <v>6979393375428</v>
       </c>
       <c r="D56" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E56" s="1">
         <v>43275.503472222219</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>326</v>
+        <v>301</v>
       </c>
       <c r="G56">
         <v>1.27</v>
@@ -3433,30 +3400,30 @@
         <v>10</v>
       </c>
       <c r="M56" t="s">
-        <v>354</v>
+        <v>329</v>
       </c>
       <c r="N56" t="s">
-        <v>376</v>
+        <v>351</v>
       </c>
     </row>
     <row r="57" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>373</v>
+        <v>348</v>
       </c>
       <c r="B57" t="s">
-        <v>330</v>
+        <v>305</v>
       </c>
       <c r="C57" s="2">
         <v>6979402375452</v>
       </c>
       <c r="D57" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E57" s="1">
         <v>43275.505555555559</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>326</v>
+        <v>301</v>
       </c>
       <c r="G57">
         <v>0.11</v>
@@ -3471,30 +3438,30 @@
         <v>3</v>
       </c>
       <c r="M57" t="s">
-        <v>377</v>
+        <v>352</v>
       </c>
       <c r="N57" t="s">
-        <v>376</v>
+        <v>351</v>
       </c>
     </row>
     <row r="58" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>373</v>
+        <v>348</v>
       </c>
       <c r="B58" t="s">
-        <v>331</v>
+        <v>306</v>
       </c>
       <c r="C58" s="2">
         <v>6979403375458</v>
       </c>
       <c r="D58" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E58" s="1">
         <v>43275.506249999999</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>326</v>
+        <v>301</v>
       </c>
       <c r="G58">
         <v>0.16</v>
@@ -3509,30 +3476,30 @@
         <v>4</v>
       </c>
       <c r="M58" t="s">
-        <v>375</v>
+        <v>350</v>
       </c>
       <c r="N58" t="s">
-        <v>376</v>
+        <v>351</v>
       </c>
     </row>
     <row r="59" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>373</v>
+        <v>348</v>
       </c>
       <c r="B59" t="s">
-        <v>336</v>
+        <v>311</v>
       </c>
       <c r="C59" s="2">
         <v>6979447375644</v>
       </c>
       <c r="D59" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E59" s="1">
         <v>43275.509027777778</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>326</v>
+        <v>301</v>
       </c>
       <c r="G59">
         <v>7.0000000000000007E-2</v>
@@ -3547,30 +3514,30 @@
         <v>2</v>
       </c>
       <c r="M59" t="s">
-        <v>375</v>
+        <v>350</v>
       </c>
       <c r="N59" t="s">
-        <v>376</v>
+        <v>351</v>
       </c>
     </row>
     <row r="60" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>373</v>
+        <v>348</v>
       </c>
       <c r="B60" t="s">
-        <v>337</v>
+        <v>312</v>
       </c>
       <c r="C60" s="2">
         <v>6979449375655</v>
       </c>
       <c r="D60" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E60" s="1">
         <v>43275.510416666664</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>326</v>
+        <v>301</v>
       </c>
       <c r="G60">
         <v>0.34</v>
@@ -3585,30 +3552,30 @@
         <v>6</v>
       </c>
       <c r="M60" t="s">
-        <v>354</v>
+        <v>329</v>
       </c>
       <c r="N60" t="s">
-        <v>376</v>
+        <v>351</v>
       </c>
     </row>
     <row r="61" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>373</v>
+        <v>348</v>
       </c>
       <c r="B61" t="s">
-        <v>337</v>
+        <v>312</v>
       </c>
       <c r="C61" s="2">
         <v>6979449375655</v>
       </c>
       <c r="D61" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E61" s="1">
         <v>43275.510416666664</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>326</v>
+        <v>301</v>
       </c>
       <c r="G61">
         <v>0.49</v>
@@ -3623,30 +3590,30 @@
         <v>10</v>
       </c>
       <c r="M61" t="s">
-        <v>354</v>
+        <v>329</v>
       </c>
       <c r="N61" t="s">
-        <v>376</v>
+        <v>351</v>
       </c>
     </row>
     <row r="62" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>373</v>
+        <v>348</v>
       </c>
       <c r="B62" t="s">
-        <v>338</v>
+        <v>313</v>
       </c>
       <c r="C62" s="2">
         <v>6979453375702</v>
       </c>
       <c r="D62" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E62" s="1">
         <v>43275.511805555558</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>326</v>
+        <v>301</v>
       </c>
       <c r="G62">
         <v>0.96</v>
@@ -3661,30 +3628,30 @@
         <v>16</v>
       </c>
       <c r="M62" t="s">
-        <v>354</v>
+        <v>329</v>
       </c>
       <c r="N62" t="s">
-        <v>376</v>
+        <v>351</v>
       </c>
     </row>
     <row r="63" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>373</v>
+        <v>348</v>
       </c>
       <c r="B63" t="s">
-        <v>338</v>
+        <v>313</v>
       </c>
       <c r="C63" s="2">
         <v>6979453375702</v>
       </c>
       <c r="D63" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E63" s="1">
         <v>43275.511805555558</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>326</v>
+        <v>301</v>
       </c>
       <c r="G63">
         <v>1.76</v>
@@ -3699,30 +3666,30 @@
         <v>1</v>
       </c>
       <c r="M63" t="s">
-        <v>354</v>
+        <v>329</v>
       </c>
       <c r="N63" t="s">
-        <v>376</v>
+        <v>351</v>
       </c>
     </row>
     <row r="64" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>373</v>
+        <v>348</v>
       </c>
       <c r="B64" t="s">
-        <v>339</v>
+        <v>314</v>
       </c>
       <c r="C64" s="2">
         <v>6979461376376</v>
       </c>
       <c r="D64" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E64" s="1">
         <v>43275.520138888889</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>326</v>
+        <v>301</v>
       </c>
       <c r="G64">
         <v>0.28999999999999998</v>
@@ -3737,53 +3704,53 @@
         <v>13</v>
       </c>
       <c r="M64" t="s">
-        <v>377</v>
+        <v>352</v>
       </c>
       <c r="N64" t="s">
-        <v>376</v>
+        <v>351</v>
       </c>
     </row>
     <row r="65" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>373</v>
+        <v>348</v>
       </c>
       <c r="B65" t="s">
-        <v>378</v>
+        <v>353</v>
       </c>
       <c r="C65" s="2">
         <v>6979540377111</v>
       </c>
       <c r="D65" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E65" s="1">
         <v>43275.53125</v>
       </c>
       <c r="F65" t="s">
-        <v>323</v>
+        <v>298</v>
       </c>
       <c r="N65" t="s">
-        <v>376</v>
+        <v>351</v>
       </c>
     </row>
     <row r="66" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>373</v>
+        <v>348</v>
       </c>
       <c r="B66" t="s">
-        <v>340</v>
+        <v>315</v>
       </c>
       <c r="C66" s="2">
         <v>6979810376940</v>
       </c>
       <c r="D66" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E66" s="1">
         <v>43275.574305555558</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>326</v>
+        <v>301</v>
       </c>
       <c r="G66">
         <v>0.27</v>
@@ -3798,30 +3765,30 @@
         <v>22</v>
       </c>
       <c r="M66" t="s">
-        <v>377</v>
+        <v>352</v>
       </c>
       <c r="N66" t="s">
-        <v>376</v>
+        <v>351</v>
       </c>
     </row>
     <row r="67" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>373</v>
+        <v>348</v>
       </c>
       <c r="B67" t="s">
-        <v>343</v>
+        <v>318</v>
       </c>
       <c r="C67" s="2">
         <v>6979827376931</v>
       </c>
       <c r="D67" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E67" s="1">
         <v>43275.577777777777</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>326</v>
+        <v>301</v>
       </c>
       <c r="G67">
         <v>0.03</v>
@@ -3836,76 +3803,76 @@
         <v>10</v>
       </c>
       <c r="M67" t="s">
-        <v>375</v>
+        <v>350</v>
       </c>
       <c r="N67" t="s">
-        <v>376</v>
+        <v>351</v>
       </c>
     </row>
     <row r="68" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>373</v>
+        <v>348</v>
       </c>
       <c r="B68" t="s">
-        <v>334</v>
+        <v>309</v>
       </c>
       <c r="C68" s="2">
         <v>6980190376690</v>
       </c>
       <c r="D68" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E68" s="1">
         <v>43275.584722222222</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>335</v>
+        <v>310</v>
       </c>
       <c r="N68" t="s">
-        <v>376</v>
+        <v>351</v>
       </c>
     </row>
     <row r="69" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>373</v>
+        <v>348</v>
       </c>
       <c r="B69" t="s">
-        <v>334</v>
+        <v>309</v>
       </c>
       <c r="C69" s="2">
         <v>6980386376751</v>
       </c>
       <c r="D69" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E69" s="1">
         <v>43275.587500000001</v>
       </c>
       <c r="F69" s="1" t="s">
-        <v>335</v>
+        <v>310</v>
       </c>
       <c r="N69" t="s">
-        <v>376</v>
+        <v>351</v>
       </c>
     </row>
     <row r="70" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>373</v>
+        <v>348</v>
       </c>
       <c r="B70" t="s">
-        <v>344</v>
+        <v>319</v>
       </c>
       <c r="C70" s="2">
         <v>6980495376677</v>
       </c>
       <c r="D70" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E70" s="1">
         <v>43275.591666666667</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>326</v>
+        <v>301</v>
       </c>
       <c r="G70">
         <v>0.06</v>
@@ -3920,30 +3887,30 @@
         <v>26</v>
       </c>
       <c r="M70" t="s">
-        <v>354</v>
+        <v>329</v>
       </c>
       <c r="N70" t="s">
-        <v>376</v>
+        <v>351</v>
       </c>
     </row>
     <row r="71" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>373</v>
+        <v>348</v>
       </c>
       <c r="B71" t="s">
-        <v>345</v>
+        <v>320</v>
       </c>
       <c r="C71" s="2">
         <v>6981379376002</v>
       </c>
       <c r="D71" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E71" s="1">
         <v>43275.605555555558</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>326</v>
+        <v>301</v>
       </c>
       <c r="G71">
         <v>0.04</v>
@@ -3958,30 +3925,30 @@
         <v>11</v>
       </c>
       <c r="M71" t="s">
-        <v>379</v>
+        <v>354</v>
       </c>
       <c r="N71" t="s">
-        <v>376</v>
+        <v>351</v>
       </c>
     </row>
     <row r="72" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>373</v>
+        <v>348</v>
       </c>
       <c r="B72" t="s">
-        <v>380</v>
+        <v>355</v>
       </c>
       <c r="C72" s="2">
         <v>6981405375984</v>
       </c>
       <c r="D72" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E72" s="1">
         <v>43275.609722222223</v>
       </c>
       <c r="F72" s="1" t="s">
-        <v>326</v>
+        <v>301</v>
       </c>
       <c r="G72">
         <v>0</v>
@@ -3993,33 +3960,33 @@
         <v>2</v>
       </c>
       <c r="L72" t="s">
-        <v>381</v>
+        <v>356</v>
       </c>
       <c r="M72" t="s">
-        <v>382</v>
+        <v>357</v>
       </c>
       <c r="N72" t="s">
-        <v>376</v>
+        <v>351</v>
       </c>
     </row>
     <row r="73" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>373</v>
+        <v>348</v>
       </c>
       <c r="B73" t="s">
-        <v>383</v>
+        <v>358</v>
       </c>
       <c r="C73" s="2">
         <v>6981405375983</v>
       </c>
       <c r="D73" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E73" s="1">
         <v>43275.61041666667</v>
       </c>
       <c r="F73" s="1" t="s">
-        <v>326</v>
+        <v>301</v>
       </c>
       <c r="G73">
         <v>0.13</v>
@@ -4034,30 +4001,30 @@
         <v>19</v>
       </c>
       <c r="M73" t="s">
-        <v>377</v>
+        <v>352</v>
       </c>
       <c r="N73" t="s">
-        <v>376</v>
+        <v>351</v>
       </c>
     </row>
     <row r="74" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>373</v>
+        <v>348</v>
       </c>
       <c r="B74" t="s">
-        <v>383</v>
+        <v>358</v>
       </c>
       <c r="C74" s="2">
         <v>6981405375983</v>
       </c>
       <c r="D74" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E74" s="1">
         <v>43275.61041666667</v>
       </c>
       <c r="F74" s="1" t="s">
-        <v>326</v>
+        <v>301</v>
       </c>
       <c r="G74">
         <v>0.98</v>
@@ -4072,30 +4039,30 @@
         <v>20</v>
       </c>
       <c r="M74" t="s">
-        <v>377</v>
+        <v>352</v>
       </c>
       <c r="N74" t="s">
-        <v>376</v>
+        <v>351</v>
       </c>
     </row>
     <row r="75" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>373</v>
+        <v>348</v>
       </c>
       <c r="B75" t="s">
-        <v>365</v>
+        <v>340</v>
       </c>
       <c r="C75" s="2">
         <v>6982053375446</v>
       </c>
       <c r="D75" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E75" s="1">
         <v>43275.62777777778</v>
       </c>
       <c r="F75" s="1" t="s">
-        <v>366</v>
+        <v>341</v>
       </c>
       <c r="G75">
         <v>16.2</v>
@@ -4104,33 +4071,33 @@
         <v>352</v>
       </c>
       <c r="I75" t="s">
-        <v>367</v>
+        <v>342</v>
       </c>
       <c r="L75">
         <v>1</v>
       </c>
       <c r="N75" t="s">
-        <v>376</v>
+        <v>351</v>
       </c>
     </row>
     <row r="76" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>373</v>
+        <v>348</v>
       </c>
       <c r="B76" t="s">
-        <v>384</v>
+        <v>359</v>
       </c>
       <c r="C76" s="2">
         <v>6982141375389</v>
       </c>
       <c r="D76" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E76" s="1">
         <v>43275.633333333331</v>
       </c>
       <c r="F76" s="1" t="s">
-        <v>326</v>
+        <v>301</v>
       </c>
       <c r="G76">
         <v>0.14000000000000001</v>
@@ -4145,30 +4112,30 @@
         <v>3</v>
       </c>
       <c r="M76" t="s">
-        <v>375</v>
+        <v>350</v>
       </c>
       <c r="N76" t="s">
-        <v>376</v>
+        <v>351</v>
       </c>
     </row>
     <row r="77" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>373</v>
+        <v>348</v>
       </c>
       <c r="B77" t="s">
-        <v>385</v>
+        <v>360</v>
       </c>
       <c r="C77" s="2">
         <v>6982655375095</v>
       </c>
       <c r="D77" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E77" s="1">
         <v>43275.652083333334</v>
       </c>
       <c r="F77" s="1" t="s">
-        <v>366</v>
+        <v>341</v>
       </c>
       <c r="G77">
         <v>11.9</v>
@@ -4177,33 +4144,33 @@
         <v>316</v>
       </c>
       <c r="I77" t="s">
-        <v>367</v>
+        <v>342</v>
       </c>
       <c r="L77">
         <v>1</v>
       </c>
       <c r="N77" t="s">
-        <v>376</v>
+        <v>351</v>
       </c>
     </row>
     <row r="78" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>373</v>
+        <v>348</v>
       </c>
       <c r="B78" t="s">
-        <v>386</v>
+        <v>361</v>
       </c>
       <c r="C78" s="2">
         <v>6982782375018</v>
       </c>
       <c r="D78" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E78" s="1">
         <v>43275.654861111114</v>
       </c>
       <c r="F78" s="1" t="s">
-        <v>326</v>
+        <v>301</v>
       </c>
       <c r="G78">
         <v>1.41</v>
@@ -4218,30 +4185,30 @@
         <v>42</v>
       </c>
       <c r="M78" t="s">
-        <v>375</v>
+        <v>350</v>
       </c>
       <c r="N78" t="s">
-        <v>376</v>
+        <v>351</v>
       </c>
     </row>
     <row r="79" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>373</v>
+        <v>348</v>
       </c>
       <c r="B79" t="s">
-        <v>387</v>
+        <v>362</v>
       </c>
       <c r="C79" s="2">
         <v>6982934374992</v>
       </c>
       <c r="D79" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E79" s="1">
         <v>43275.660416666666</v>
       </c>
       <c r="F79" s="1" t="s">
-        <v>366</v>
+        <v>341</v>
       </c>
       <c r="G79">
         <v>36.200000000000003</v>
@@ -4250,33 +4217,33 @@
         <v>282</v>
       </c>
       <c r="I79" t="s">
-        <v>367</v>
+        <v>342</v>
       </c>
       <c r="L79">
         <v>2</v>
       </c>
       <c r="N79" t="s">
-        <v>376</v>
+        <v>351</v>
       </c>
     </row>
     <row r="80" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>373</v>
+        <v>348</v>
       </c>
       <c r="B80" t="s">
-        <v>387</v>
+        <v>362</v>
       </c>
       <c r="C80" s="2">
         <v>6982934374992</v>
       </c>
       <c r="D80" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E80" s="1">
         <v>43275.660416666666</v>
       </c>
       <c r="F80" s="1" t="s">
-        <v>326</v>
+        <v>301</v>
       </c>
       <c r="G80">
         <v>1.78</v>
@@ -4291,53 +4258,53 @@
         <v>5</v>
       </c>
       <c r="M80" t="s">
-        <v>388</v>
+        <v>363</v>
       </c>
       <c r="N80" t="s">
-        <v>376</v>
+        <v>351</v>
       </c>
     </row>
     <row r="81" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>373</v>
+        <v>348</v>
       </c>
       <c r="B81" t="s">
-        <v>389</v>
+        <v>364</v>
       </c>
       <c r="C81" s="2">
         <v>6983066374961</v>
       </c>
       <c r="D81" t="s">
-        <v>390</v>
+        <v>365</v>
       </c>
       <c r="E81" s="1">
         <v>43275.665972222225</v>
       </c>
       <c r="F81" t="s">
-        <v>323</v>
+        <v>298</v>
       </c>
       <c r="N81" t="s">
-        <v>376</v>
+        <v>351</v>
       </c>
     </row>
     <row r="82" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>373</v>
+        <v>348</v>
       </c>
       <c r="B82" t="s">
-        <v>389</v>
+        <v>364</v>
       </c>
       <c r="C82" s="2">
         <v>6983066374961</v>
       </c>
       <c r="D82" t="s">
-        <v>390</v>
+        <v>365</v>
       </c>
       <c r="E82" s="1">
         <v>43275.665972222225</v>
       </c>
       <c r="F82" t="s">
-        <v>326</v>
+        <v>301</v>
       </c>
       <c r="G82">
         <v>0.22</v>
@@ -4352,30 +4319,30 @@
         <v>2</v>
       </c>
       <c r="M82" t="s">
-        <v>391</v>
+        <v>366</v>
       </c>
       <c r="N82" t="s">
-        <v>376</v>
+        <v>351</v>
       </c>
     </row>
     <row r="83" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>373</v>
+        <v>348</v>
       </c>
       <c r="B83" t="s">
-        <v>392</v>
+        <v>367</v>
       </c>
       <c r="C83" s="2">
         <v>6982882374576</v>
       </c>
       <c r="D83" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E83" s="1">
         <v>43275.67291666667</v>
       </c>
       <c r="F83" s="1" t="s">
-        <v>326</v>
+        <v>301</v>
       </c>
       <c r="G83">
         <v>0.27</v>
@@ -4390,53 +4357,53 @@
         <v>17</v>
       </c>
       <c r="M83" t="s">
-        <v>391</v>
+        <v>366</v>
       </c>
       <c r="N83" t="s">
-        <v>376</v>
+        <v>351</v>
       </c>
     </row>
     <row r="84" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>373</v>
+        <v>348</v>
       </c>
       <c r="B84" t="s">
-        <v>334</v>
+        <v>309</v>
       </c>
       <c r="C84" s="2">
         <v>6982854374500</v>
       </c>
       <c r="D84" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E84" s="1">
         <v>43275.675694444442</v>
       </c>
       <c r="F84" s="1" t="s">
-        <v>335</v>
+        <v>310</v>
       </c>
       <c r="N84" t="s">
-        <v>376</v>
+        <v>351</v>
       </c>
     </row>
     <row r="85" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>373</v>
+        <v>348</v>
       </c>
       <c r="B85" t="s">
-        <v>393</v>
+        <v>368</v>
       </c>
       <c r="C85" s="2">
         <v>6981881373834</v>
       </c>
       <c r="D85" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E85" s="1">
         <v>43275.695833333331</v>
       </c>
       <c r="F85" s="1" t="s">
-        <v>326</v>
+        <v>301</v>
       </c>
       <c r="G85">
         <v>0.04</v>
@@ -4451,30 +4418,30 @@
         <v>1</v>
       </c>
       <c r="M85" t="s">
-        <v>375</v>
+        <v>350</v>
       </c>
       <c r="N85" t="s">
-        <v>376</v>
+        <v>351</v>
       </c>
     </row>
     <row r="86" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>373</v>
+        <v>348</v>
       </c>
       <c r="B86" t="s">
-        <v>393</v>
+        <v>368</v>
       </c>
       <c r="C86" s="2">
         <v>6981881373834</v>
       </c>
       <c r="D86" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E86" s="1">
         <v>43275.695833333331</v>
       </c>
       <c r="F86" s="1" t="s">
-        <v>326</v>
+        <v>301</v>
       </c>
       <c r="G86">
         <v>0.84</v>
@@ -4489,53 +4456,53 @@
         <v>32</v>
       </c>
       <c r="M86" t="s">
-        <v>372</v>
+        <v>347</v>
       </c>
       <c r="N86" t="s">
-        <v>376</v>
+        <v>351</v>
       </c>
     </row>
     <row r="87" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>373</v>
+        <v>348</v>
       </c>
       <c r="B87" t="s">
-        <v>334</v>
+        <v>309</v>
       </c>
       <c r="C87" s="2">
         <v>6981316373475</v>
       </c>
       <c r="D87" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E87" s="1">
         <v>43275.705555555556</v>
       </c>
       <c r="F87" s="1" t="s">
-        <v>335</v>
+        <v>310</v>
       </c>
       <c r="N87" t="s">
-        <v>376</v>
+        <v>351</v>
       </c>
     </row>
     <row r="88" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>373</v>
+        <v>348</v>
       </c>
       <c r="B88" t="s">
-        <v>394</v>
+        <v>369</v>
       </c>
       <c r="C88" s="2">
         <v>6980670373232</v>
       </c>
       <c r="D88" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E88" s="1">
         <v>43275.720138888886</v>
       </c>
       <c r="F88" s="1" t="s">
-        <v>326</v>
+        <v>301</v>
       </c>
       <c r="G88">
         <v>0</v>
@@ -4550,2376 +4517,3257 @@
         <v>1</v>
       </c>
       <c r="M88" t="s">
-        <v>375</v>
+        <v>350</v>
       </c>
       <c r="N88" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="89" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="F89" s="1"/>
+        <v>351</v>
+      </c>
     </row>
     <row r="90" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="F90" s="1"/>
+      <c r="A90" t="s">
+        <v>370</v>
+      </c>
+      <c r="B90" t="s">
+        <v>64</v>
+      </c>
+      <c r="C90" s="2">
+        <v>6986702371776</v>
+      </c>
+      <c r="D90" t="s">
+        <v>65</v>
+      </c>
+      <c r="E90" s="1">
+        <v>43276.445138888892</v>
+      </c>
+      <c r="F90" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="L90">
+        <v>1</v>
+      </c>
+      <c r="M90" t="s">
+        <v>373</v>
+      </c>
+      <c r="N90" t="s">
+        <v>374</v>
+      </c>
     </row>
     <row r="91" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B91" t="s">
-        <v>65</v>
+      <c r="A91" t="s">
+        <v>370</v>
+      </c>
+      <c r="B91" s="3" t="s">
+        <v>371</v>
       </c>
       <c r="C91" s="2">
-        <v>6986702371776</v>
+        <v>6987664372345</v>
       </c>
       <c r="D91" t="s">
-        <v>66</v>
+        <v>41</v>
       </c>
       <c r="E91" s="1">
-        <v>43276.445138888892</v>
-      </c>
-      <c r="F91" s="1"/>
+        <v>43276.534722222219</v>
+      </c>
+      <c r="F91" t="s">
+        <v>299</v>
+      </c>
+      <c r="N91" t="s">
+        <v>374</v>
+      </c>
     </row>
     <row r="92" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A92" t="s">
+        <v>370</v>
+      </c>
       <c r="B92" t="s">
-        <v>67</v>
+        <v>30</v>
       </c>
       <c r="C92" s="2">
         <v>6988479373370</v>
       </c>
       <c r="D92" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E92" s="1">
         <v>43276.551388888889</v>
       </c>
-      <c r="F92" s="1"/>
+      <c r="F92" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="G92">
+        <v>22</v>
+      </c>
+      <c r="H92">
+        <v>318</v>
+      </c>
+      <c r="I92" t="s">
+        <v>375</v>
+      </c>
+      <c r="L92">
+        <v>1</v>
+      </c>
+      <c r="N92" t="s">
+        <v>374</v>
+      </c>
     </row>
     <row r="93" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A93" t="s">
+        <v>370</v>
+      </c>
       <c r="B93" t="s">
-        <v>68</v>
+        <v>300</v>
       </c>
       <c r="C93" s="2">
         <v>6989072374165</v>
       </c>
       <c r="D93" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="E93" s="1">
         <v>43276.624305555553</v>
       </c>
-      <c r="F93" s="1"/>
+      <c r="F93" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="G93">
+        <v>0.47</v>
+      </c>
+      <c r="H93">
+        <v>90</v>
+      </c>
+      <c r="K93">
+        <v>1</v>
+      </c>
+      <c r="L93">
+        <v>1</v>
+      </c>
+      <c r="M93" t="s">
+        <v>366</v>
+      </c>
+      <c r="N93" t="s">
+        <v>374</v>
+      </c>
     </row>
     <row r="94" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A94" t="s">
+        <v>370</v>
+      </c>
       <c r="B94" t="s">
-        <v>70</v>
+        <v>302</v>
       </c>
       <c r="C94" s="2">
         <v>6989109374195</v>
       </c>
       <c r="D94" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="E94" s="1">
         <v>43276.626388888886</v>
       </c>
-      <c r="F94" s="1"/>
+      <c r="F94" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="G94">
+        <v>0.33</v>
+      </c>
+      <c r="H94">
+        <v>90</v>
+      </c>
+      <c r="K94">
+        <v>1</v>
+      </c>
+      <c r="L94">
+        <v>2</v>
+      </c>
+      <c r="M94" t="s">
+        <v>350</v>
+      </c>
+      <c r="N94" t="s">
+        <v>374</v>
+      </c>
     </row>
     <row r="95" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A95" t="s">
+        <v>370</v>
+      </c>
       <c r="B95" t="s">
-        <v>72</v>
+        <v>303</v>
       </c>
       <c r="C95" s="2">
         <v>6989396374373</v>
       </c>
       <c r="D95" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="E95" s="1">
         <v>43276.631249999999</v>
       </c>
-      <c r="F95" s="1"/>
+      <c r="F95" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="G95">
+        <v>0.26</v>
+      </c>
+      <c r="H95">
+        <v>270</v>
+      </c>
+      <c r="K95">
+        <v>1</v>
+      </c>
+      <c r="L95">
+        <v>15</v>
+      </c>
+      <c r="M95" t="s">
+        <v>376</v>
+      </c>
+      <c r="N95" t="s">
+        <v>374</v>
+      </c>
     </row>
     <row r="96" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A96" t="s">
+        <v>370</v>
+      </c>
       <c r="B96" t="s">
+        <v>303</v>
+      </c>
+      <c r="C96" s="2">
+        <v>6989396374373</v>
+      </c>
+      <c r="D96" t="s">
+        <v>68</v>
+      </c>
+      <c r="E96" s="1">
+        <v>43276.631249999999</v>
+      </c>
+      <c r="F96" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="G96">
+        <v>0.42</v>
+      </c>
+      <c r="H96">
+        <v>270</v>
+      </c>
+      <c r="K96">
+        <v>1</v>
+      </c>
+      <c r="L96">
+        <v>18</v>
+      </c>
+      <c r="M96" t="s">
+        <v>350</v>
+      </c>
+      <c r="N96" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="97" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A97" t="s">
+        <v>370</v>
+      </c>
+      <c r="B97" t="s">
+        <v>304</v>
+      </c>
+      <c r="C97" s="2">
+        <v>6989430374420</v>
+      </c>
+      <c r="D97" t="s">
+        <v>69</v>
+      </c>
+      <c r="E97" s="1">
+        <v>43276.634722222225</v>
+      </c>
+      <c r="F97" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="G97">
+        <v>0.39</v>
+      </c>
+      <c r="H97">
+        <v>270</v>
+      </c>
+      <c r="K97">
+        <v>1</v>
+      </c>
+      <c r="L97">
+        <v>2</v>
+      </c>
+      <c r="M97" t="s">
+        <v>377</v>
+      </c>
+      <c r="N97" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="98" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A98" t="s">
+        <v>370</v>
+      </c>
+      <c r="B98" t="s">
+        <v>304</v>
+      </c>
+      <c r="C98" s="2">
+        <v>6989430374420</v>
+      </c>
+      <c r="D98" t="s">
+        <v>69</v>
+      </c>
+      <c r="E98" s="1">
+        <v>43276.634722222225</v>
+      </c>
+      <c r="F98" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="G98">
+        <v>1.62</v>
+      </c>
+      <c r="H98">
+        <v>270</v>
+      </c>
+      <c r="K98">
+        <v>1</v>
+      </c>
+      <c r="L98">
+        <v>4</v>
+      </c>
+      <c r="M98" t="s">
+        <v>377</v>
+      </c>
+      <c r="N98" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="99" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A99" t="s">
+        <v>370</v>
+      </c>
+      <c r="B99" t="s">
+        <v>305</v>
+      </c>
+      <c r="C99" s="2">
+        <v>6989441374434</v>
+      </c>
+      <c r="D99" t="s">
+        <v>69</v>
+      </c>
+      <c r="E99" s="1">
+        <v>43276.636805555558</v>
+      </c>
+      <c r="F99" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="G99">
+        <v>0.16</v>
+      </c>
+      <c r="H99">
+        <v>270</v>
+      </c>
+      <c r="K99">
+        <v>1</v>
+      </c>
+      <c r="L99">
+        <v>2</v>
+      </c>
+      <c r="M99" t="s">
+        <v>377</v>
+      </c>
+      <c r="N99" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="100" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A100" t="s">
+        <v>370</v>
+      </c>
+      <c r="B100" t="s">
+        <v>306</v>
+      </c>
+      <c r="C100" s="2">
+        <v>6989492374527</v>
+      </c>
+      <c r="D100" t="s">
+        <v>70</v>
+      </c>
+      <c r="E100" s="1">
+        <v>43276.638888888891</v>
+      </c>
+      <c r="F100" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="G100">
+        <v>0.02</v>
+      </c>
+      <c r="H100">
+        <v>90</v>
+      </c>
+      <c r="K100">
+        <v>1</v>
+      </c>
+      <c r="L100">
+        <v>4</v>
+      </c>
+      <c r="M100" t="s">
+        <v>377</v>
+      </c>
+      <c r="N100" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="101" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A101" t="s">
+        <v>370</v>
+      </c>
+      <c r="B101" t="s">
+        <v>306</v>
+      </c>
+      <c r="C101" s="2">
+        <v>6989492374527</v>
+      </c>
+      <c r="D101" t="s">
+        <v>70</v>
+      </c>
+      <c r="E101" s="1">
+        <v>43276.638888888891</v>
+      </c>
+      <c r="F101" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="G101">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="H101">
+        <v>90</v>
+      </c>
+      <c r="K101">
+        <v>1</v>
+      </c>
+      <c r="L101">
+        <v>2</v>
+      </c>
+      <c r="M101" t="s">
+        <v>377</v>
+      </c>
+      <c r="N101" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="102" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A102" t="s">
+        <v>370</v>
+      </c>
+      <c r="B102" t="s">
+        <v>306</v>
+      </c>
+      <c r="C102" s="2">
+        <v>6989492374527</v>
+      </c>
+      <c r="D102" t="s">
+        <v>70</v>
+      </c>
+      <c r="E102" s="1">
+        <v>43276.638888888891</v>
+      </c>
+      <c r="F102" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="G102">
+        <v>0.61</v>
+      </c>
+      <c r="H102">
+        <v>90</v>
+      </c>
+      <c r="K102">
+        <v>1</v>
+      </c>
+      <c r="L102">
+        <v>15</v>
+      </c>
+      <c r="M102" t="s">
+        <v>376</v>
+      </c>
+      <c r="N102" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="103" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A103" t="s">
+        <v>370</v>
+      </c>
+      <c r="B103" t="s">
+        <v>340</v>
+      </c>
+      <c r="C103" s="2">
+        <v>6989528374583</v>
+      </c>
+      <c r="D103" t="s">
+        <v>71</v>
+      </c>
+      <c r="E103" s="1">
+        <v>43276.642361111109</v>
+      </c>
+      <c r="F103" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="G103">
+        <v>59.9</v>
+      </c>
+      <c r="H103">
+        <v>44</v>
+      </c>
+      <c r="I103" t="s">
+        <v>342</v>
+      </c>
+      <c r="L103">
+        <v>1</v>
+      </c>
+      <c r="N103" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="104" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A104" t="s">
+        <v>370</v>
+      </c>
+      <c r="B104" t="s">
+        <v>311</v>
+      </c>
+      <c r="C104" s="2">
+        <v>6989808375053</v>
+      </c>
+      <c r="D104" t="s">
+        <v>27</v>
+      </c>
+      <c r="E104" s="1">
+        <v>43276.652777777781</v>
+      </c>
+      <c r="F104" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="G104">
+        <v>0.41</v>
+      </c>
+      <c r="H104">
+        <v>270</v>
+      </c>
+      <c r="K104">
+        <v>1</v>
+      </c>
+      <c r="L104">
+        <v>1</v>
+      </c>
+      <c r="M104" t="s">
+        <v>366</v>
+      </c>
+      <c r="N104" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="105" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A105" t="s">
+        <v>370</v>
+      </c>
+      <c r="B105" t="s">
+        <v>312</v>
+      </c>
+      <c r="C105" s="2">
+        <v>6990146375345</v>
+      </c>
+      <c r="D105" t="s">
+        <v>72</v>
+      </c>
+      <c r="E105" s="1">
+        <v>43276.659722222219</v>
+      </c>
+      <c r="F105" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="G105">
+        <v>0.24</v>
+      </c>
+      <c r="H105">
+        <v>90</v>
+      </c>
+      <c r="K105">
+        <v>1</v>
+      </c>
+      <c r="L105">
+        <v>36</v>
+      </c>
+      <c r="M105" t="s">
+        <v>350</v>
+      </c>
+      <c r="N105" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="106" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A106" t="s">
+        <v>370</v>
+      </c>
+      <c r="B106" s="3" t="s">
+        <v>296</v>
+      </c>
+      <c r="C106" s="2">
+        <v>6990210375427</v>
+      </c>
+      <c r="D106" t="s">
+        <v>75</v>
+      </c>
+      <c r="E106" s="1">
+        <v>43276.665972222225</v>
+      </c>
+      <c r="F106" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="N106" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="107" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A107" t="s">
+        <v>370</v>
+      </c>
+      <c r="B107" t="s">
+        <v>360</v>
+      </c>
+      <c r="C107" s="2">
+        <v>6990211375286</v>
+      </c>
+      <c r="D107" t="s">
+        <v>73</v>
+      </c>
+      <c r="E107" s="1">
+        <v>43276.668055555558</v>
+      </c>
+      <c r="F107" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="G107">
+        <v>7.9</v>
+      </c>
+      <c r="H107">
+        <v>326</v>
+      </c>
+      <c r="L107">
+        <v>1</v>
+      </c>
+      <c r="N107" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="108" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A108" t="s">
+        <v>370</v>
+      </c>
+      <c r="B108" t="s">
+        <v>360</v>
+      </c>
+      <c r="C108" s="2">
+        <v>6990211375286</v>
+      </c>
+      <c r="D108" t="s">
+        <v>73</v>
+      </c>
+      <c r="E108" s="1">
+        <v>43276.668055555558</v>
+      </c>
+      <c r="F108" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="G108">
+        <v>452</v>
+      </c>
+      <c r="H108">
+        <v>312</v>
+      </c>
+      <c r="L108">
+        <v>1</v>
+      </c>
+      <c r="N108" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="109" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A109" t="s">
+        <v>370</v>
+      </c>
+      <c r="B109" t="s">
+        <v>313</v>
+      </c>
+      <c r="C109" s="2">
+        <v>6990229375196</v>
+      </c>
+      <c r="D109" t="s">
         <v>74</v>
       </c>
-      <c r="C96" s="2">
-        <v>6989430374420</v>
-      </c>
-      <c r="D96" t="s">
+      <c r="E109" s="1">
+        <v>43276.671527777777</v>
+      </c>
+      <c r="F109" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="G109">
+        <v>0.52</v>
+      </c>
+      <c r="H109">
+        <v>90</v>
+      </c>
+      <c r="K109">
+        <v>1</v>
+      </c>
+      <c r="L109">
+        <v>10</v>
+      </c>
+      <c r="M109" t="s">
+        <v>350</v>
+      </c>
+      <c r="N109" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="110" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A110" t="s">
+        <v>370</v>
+      </c>
+      <c r="B110" t="s">
+        <v>313</v>
+      </c>
+      <c r="C110" s="2">
+        <v>6990229375196</v>
+      </c>
+      <c r="D110" t="s">
+        <v>74</v>
+      </c>
+      <c r="E110" s="1">
+        <v>43276.671527777777</v>
+      </c>
+      <c r="F110" s="1"/>
+      <c r="G110">
+        <v>0.38</v>
+      </c>
+      <c r="H110">
+        <v>90</v>
+      </c>
+      <c r="K110">
+        <v>1</v>
+      </c>
+      <c r="L110">
+        <v>19</v>
+      </c>
+      <c r="M110" t="s">
+        <v>350</v>
+      </c>
+      <c r="N110" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="111" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A111" t="s">
+        <v>370</v>
+      </c>
+      <c r="B111" t="s">
+        <v>314</v>
+      </c>
+      <c r="C111" s="2">
+        <v>6990229375192</v>
+      </c>
+      <c r="D111" t="s">
         <v>75</v>
       </c>
-      <c r="E96" s="1">
-        <v>43276.634722222225</v>
-      </c>
-      <c r="F96" s="1"/>
-    </row>
-    <row r="97" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B97" t="s">
+      <c r="E111" s="1">
+        <v>43276.673611111109</v>
+      </c>
+      <c r="F111" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="G111">
+        <v>0.79</v>
+      </c>
+      <c r="H111">
+        <v>270</v>
+      </c>
+      <c r="K111">
+        <v>1</v>
+      </c>
+      <c r="L111">
+        <v>45</v>
+      </c>
+      <c r="M111" t="s">
+        <v>378</v>
+      </c>
+      <c r="N111" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="112" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A112" t="s">
+        <v>370</v>
+      </c>
+      <c r="B112" t="s">
+        <v>379</v>
+      </c>
+      <c r="C112" s="2">
+        <v>6990342374915</v>
+      </c>
+      <c r="D112" t="s">
         <v>76</v>
       </c>
-      <c r="C97" s="2">
-        <v>6989441374434</v>
-      </c>
-      <c r="D97" t="s">
-        <v>75</v>
-      </c>
-      <c r="E97" s="1">
-        <v>43276.636805555558</v>
-      </c>
-      <c r="F97" s="1"/>
-    </row>
-    <row r="98" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B98" t="s">
+      <c r="E112" s="1">
+        <v>43276.678472222222</v>
+      </c>
+      <c r="F112" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="G112">
+        <v>18.399999999999999</v>
+      </c>
+      <c r="H112">
+        <v>20</v>
+      </c>
+      <c r="I112" t="s">
+        <v>342</v>
+      </c>
+      <c r="L112">
+        <v>1</v>
+      </c>
+      <c r="N112" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="113" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A113" t="s">
+        <v>370</v>
+      </c>
+      <c r="B113" t="s">
+        <v>379</v>
+      </c>
+      <c r="C113" s="2">
+        <v>6990342374915</v>
+      </c>
+      <c r="D113" t="s">
+        <v>76</v>
+      </c>
+      <c r="E113" s="1">
+        <v>43276.678472222222</v>
+      </c>
+      <c r="F113" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="G113">
+        <v>14.4</v>
+      </c>
+      <c r="H113">
+        <v>24</v>
+      </c>
+      <c r="I113" t="s">
+        <v>342</v>
+      </c>
+      <c r="L113">
+        <v>1</v>
+      </c>
+      <c r="N113" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="114" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A114" t="s">
+        <v>370</v>
+      </c>
+      <c r="B114" t="s">
+        <v>315</v>
+      </c>
+      <c r="C114" s="2">
+        <v>6990469374617</v>
+      </c>
+      <c r="D114" t="s">
         <v>77</v>
       </c>
-      <c r="C98" s="2">
-        <v>6989492374527</v>
-      </c>
-      <c r="D98" t="s">
+      <c r="E114" s="1">
+        <v>43276.6875</v>
+      </c>
+      <c r="F114" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="G114">
+        <v>0.31</v>
+      </c>
+      <c r="H114">
+        <v>270</v>
+      </c>
+      <c r="K114">
+        <v>1</v>
+      </c>
+      <c r="L114">
+        <v>1</v>
+      </c>
+      <c r="M114" t="s">
+        <v>350</v>
+      </c>
+      <c r="N114" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="115" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A115" t="s">
+        <v>370</v>
+      </c>
+      <c r="B115" t="s">
+        <v>318</v>
+      </c>
+      <c r="C115" s="2">
+        <v>6990696373981</v>
+      </c>
+      <c r="D115" t="s">
+        <v>55</v>
+      </c>
+      <c r="E115" s="1">
+        <v>43276.696527777778</v>
+      </c>
+      <c r="F115" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="G115">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="H115">
+        <v>90</v>
+      </c>
+      <c r="K115">
+        <v>1</v>
+      </c>
+      <c r="L115">
+        <v>1</v>
+      </c>
+      <c r="M115" t="s">
+        <v>350</v>
+      </c>
+      <c r="N115" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="116" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A116" t="s">
+        <v>370</v>
+      </c>
+      <c r="B116" t="s">
+        <v>319</v>
+      </c>
+      <c r="C116" s="2">
+        <v>6990700373975</v>
+      </c>
+      <c r="D116" t="s">
         <v>78</v>
       </c>
-      <c r="E98" s="1">
-        <v>43276.638888888891</v>
-      </c>
-      <c r="F98" s="1"/>
-    </row>
-    <row r="99" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B99" t="s">
+      <c r="E116" s="1">
+        <v>43276.697222222225</v>
+      </c>
+      <c r="F116" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="G116">
+        <v>0.18</v>
+      </c>
+      <c r="H116">
+        <v>270</v>
+      </c>
+      <c r="K116">
+        <v>1</v>
+      </c>
+      <c r="L116">
+        <v>17</v>
+      </c>
+      <c r="M116" t="s">
+        <v>350</v>
+      </c>
+      <c r="N116" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="117" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A117" t="s">
+        <v>370</v>
+      </c>
+      <c r="B117" t="s">
+        <v>320</v>
+      </c>
+      <c r="C117" s="2">
+        <v>6990705373967</v>
+      </c>
+      <c r="D117" t="s">
+        <v>78</v>
+      </c>
+      <c r="E117" s="1">
+        <v>43276.699305555558</v>
+      </c>
+      <c r="F117" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="G117">
+        <v>0.39</v>
+      </c>
+      <c r="H117">
+        <v>90</v>
+      </c>
+      <c r="K117">
+        <v>1</v>
+      </c>
+      <c r="L117">
+        <v>14</v>
+      </c>
+      <c r="M117" t="s">
+        <v>350</v>
+      </c>
+      <c r="N117" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="118" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A118" t="s">
+        <v>370</v>
+      </c>
+      <c r="B118" t="s">
+        <v>355</v>
+      </c>
+      <c r="C118" s="2">
+        <v>6990731373922</v>
+      </c>
+      <c r="D118" t="s">
+        <v>78</v>
+      </c>
+      <c r="E118" s="1">
+        <v>43276.701388888891</v>
+      </c>
+      <c r="F118" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="G118">
+        <v>0.02</v>
+      </c>
+      <c r="H118">
+        <v>270</v>
+      </c>
+      <c r="K118">
+        <v>1</v>
+      </c>
+      <c r="L118">
+        <v>11</v>
+      </c>
+      <c r="M118" t="s">
+        <v>381</v>
+      </c>
+      <c r="N118" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="119" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A119" t="s">
+        <v>370</v>
+      </c>
+      <c r="B119" t="s">
+        <v>358</v>
+      </c>
+      <c r="C119" s="2">
+        <v>6991108372720</v>
+      </c>
+      <c r="D119" t="s">
         <v>79</v>
       </c>
-      <c r="C99" s="2">
-        <v>6989528374583</v>
-      </c>
-      <c r="D99" t="s">
+      <c r="E119" s="1">
+        <v>43276.717361111114</v>
+      </c>
+      <c r="F119" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="G119">
+        <v>0.01</v>
+      </c>
+      <c r="H119">
+        <v>90</v>
+      </c>
+      <c r="K119">
+        <v>1</v>
+      </c>
+      <c r="L119">
+        <v>4</v>
+      </c>
+      <c r="M119" t="s">
+        <v>350</v>
+      </c>
+      <c r="N119" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="120" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A120" t="s">
+        <v>370</v>
+      </c>
+      <c r="B120" t="s">
+        <v>362</v>
+      </c>
+      <c r="C120" s="2">
+        <v>6991153372515</v>
+      </c>
+      <c r="D120" t="s">
+        <v>16</v>
+      </c>
+      <c r="E120" s="1">
+        <v>43276.722222222219</v>
+      </c>
+      <c r="F120" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="G120">
+        <v>33.1</v>
+      </c>
+      <c r="H120">
+        <v>18</v>
+      </c>
+      <c r="I120" t="s">
+        <v>342</v>
+      </c>
+      <c r="L120">
+        <v>1</v>
+      </c>
+      <c r="N120" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="121" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A121" t="s">
+        <v>370</v>
+      </c>
+      <c r="B121" t="s">
         <v>80</v>
       </c>
-      <c r="E99" s="1">
-        <v>43276.642361111109</v>
-      </c>
-      <c r="F99" s="1"/>
-    </row>
-    <row r="100" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B100" t="s">
+      <c r="C121" s="2">
+        <v>6991175372451</v>
+      </c>
+      <c r="D121" t="s">
+        <v>79</v>
+      </c>
+      <c r="E121" s="1">
+        <v>43276.724999999999</v>
+      </c>
+      <c r="F121" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="G121">
+        <v>0</v>
+      </c>
+      <c r="H121">
+        <v>0</v>
+      </c>
+      <c r="L121">
+        <v>1</v>
+      </c>
+      <c r="N121" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="122" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A122" t="s">
+        <v>370</v>
+      </c>
+      <c r="B122" t="s">
+        <v>359</v>
+      </c>
+      <c r="C122" s="2">
+        <v>6991331372007</v>
+      </c>
+      <c r="D122" t="s">
         <v>81</v>
       </c>
-      <c r="C100" s="2">
-        <v>6989808375053</v>
-      </c>
-      <c r="D100" t="s">
-        <v>28</v>
-      </c>
-      <c r="E100" s="1">
-        <v>43276.652777777781</v>
-      </c>
-      <c r="F100" s="1"/>
-    </row>
-    <row r="101" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B101" t="s">
+      <c r="E122" s="1">
+        <v>43276.730555555558</v>
+      </c>
+      <c r="F122" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="G122">
+        <v>0.06</v>
+      </c>
+      <c r="H122">
+        <v>90</v>
+      </c>
+      <c r="K122">
+        <v>1</v>
+      </c>
+      <c r="L122">
+        <v>13</v>
+      </c>
+      <c r="M122" t="s">
+        <v>378</v>
+      </c>
+      <c r="N122" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="123" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A123" t="s">
+        <v>370</v>
+      </c>
+      <c r="B123" s="3" t="s">
+        <v>307</v>
+      </c>
+      <c r="C123" s="2">
+        <v>6991515371569</v>
+      </c>
+      <c r="D123" t="s">
+        <v>59</v>
+      </c>
+      <c r="E123" s="1">
+        <v>43276.736805555556</v>
+      </c>
+      <c r="F123" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="N123" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="124" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A124" t="s">
+        <v>370</v>
+      </c>
+      <c r="B124" t="s">
+        <v>361</v>
+      </c>
+      <c r="C124" s="2">
+        <v>6990806371700</v>
+      </c>
+      <c r="D124" t="s">
         <v>82</v>
       </c>
-      <c r="C101" s="2">
-        <v>6990146375345</v>
-      </c>
-      <c r="D101" t="s">
+      <c r="E124" s="1">
+        <v>43276.75</v>
+      </c>
+      <c r="F124" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="G124">
+        <v>0.36</v>
+      </c>
+      <c r="H124">
+        <v>270</v>
+      </c>
+      <c r="K124">
+        <v>1</v>
+      </c>
+      <c r="L124">
+        <v>16</v>
+      </c>
+      <c r="M124" t="s">
+        <v>350</v>
+      </c>
+      <c r="N124" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="125" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A125" t="s">
+        <v>370</v>
+      </c>
+      <c r="B125" t="s">
+        <v>367</v>
+      </c>
+      <c r="C125" s="2">
+        <v>6988299372150</v>
+      </c>
+      <c r="D125" t="s">
         <v>83</v>
       </c>
-      <c r="E101" s="1">
-        <v>43276.659722222219</v>
-      </c>
-      <c r="F101" s="1"/>
-    </row>
-    <row r="102" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B102" t="s">
+      <c r="E125" s="1">
+        <v>43276.79791666667</v>
+      </c>
+      <c r="F125" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="G125">
+        <v>0.09</v>
+      </c>
+      <c r="H125">
+        <v>90</v>
+      </c>
+      <c r="K125">
+        <v>1</v>
+      </c>
+      <c r="L125">
+        <v>17</v>
+      </c>
+      <c r="M125" t="s">
+        <v>350</v>
+      </c>
+      <c r="N125" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="126" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="F126" s="1"/>
+    </row>
+    <row r="127" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B127" t="s">
         <v>84</v>
       </c>
-      <c r="C102" s="2">
-        <v>6990211375286</v>
-      </c>
-      <c r="D102" t="s">
+      <c r="C127" s="2">
+        <v>6986421371555</v>
+      </c>
+      <c r="D127" t="s">
         <v>85</v>
       </c>
-      <c r="E102" s="1">
-        <v>43276.668055555558</v>
-      </c>
-      <c r="F102" s="1"/>
-    </row>
-    <row r="103" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B103" t="s">
+      <c r="E127" s="1">
+        <v>43277.35833333333</v>
+      </c>
+      <c r="F127" s="1"/>
+    </row>
+    <row r="128" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B128" t="s">
         <v>86</v>
       </c>
-      <c r="C103" s="2">
-        <v>6990229375196</v>
-      </c>
-      <c r="D103" t="s">
+      <c r="C128" s="2">
+        <v>6986539371185</v>
+      </c>
+      <c r="D128" t="s">
         <v>87</v>
       </c>
-      <c r="E103" s="1">
-        <v>43276.671527777777</v>
-      </c>
-      <c r="F103" s="1"/>
-    </row>
-    <row r="104" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B104" t="s">
-        <v>88</v>
-      </c>
-      <c r="C104" s="2">
-        <v>6990229375192</v>
-      </c>
-      <c r="D104" t="s">
-        <v>89</v>
-      </c>
-      <c r="E104" s="1">
-        <v>43276.673611111109</v>
-      </c>
-      <c r="F104" s="1"/>
-    </row>
-    <row r="105" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B105" t="s">
-        <v>90</v>
-      </c>
-      <c r="C105" s="2">
-        <v>6990342374915</v>
-      </c>
-      <c r="D105" t="s">
-        <v>91</v>
-      </c>
-      <c r="E105" s="1">
-        <v>43276.678472222222</v>
-      </c>
-      <c r="F105" s="1"/>
-    </row>
-    <row r="106" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B106" t="s">
-        <v>92</v>
-      </c>
-      <c r="C106" s="2">
-        <v>6990469374617</v>
-      </c>
-      <c r="D106" t="s">
-        <v>93</v>
-      </c>
-      <c r="E106" s="1">
-        <v>43276.6875</v>
-      </c>
-      <c r="F106" s="1"/>
-    </row>
-    <row r="107" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B107" t="s">
-        <v>94</v>
-      </c>
-      <c r="C107" s="2">
-        <v>6990696373981</v>
-      </c>
-      <c r="D107" t="s">
-        <v>56</v>
-      </c>
-      <c r="E107" s="1">
-        <v>43276.696527777778</v>
-      </c>
-      <c r="F107" s="1"/>
-    </row>
-    <row r="108" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B108" t="s">
-        <v>95</v>
-      </c>
-      <c r="C108" s="2">
-        <v>6990700373975</v>
-      </c>
-      <c r="D108" t="s">
-        <v>96</v>
-      </c>
-      <c r="E108" s="1">
-        <v>43276.697222222225</v>
-      </c>
-      <c r="F108" s="1"/>
-    </row>
-    <row r="109" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B109" t="s">
-        <v>97</v>
-      </c>
-      <c r="C109" s="2">
-        <v>6990705373967</v>
-      </c>
-      <c r="D109" t="s">
-        <v>96</v>
-      </c>
-      <c r="E109" s="1">
-        <v>43276.699305555558</v>
-      </c>
-      <c r="F109" s="1"/>
-    </row>
-    <row r="110" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B110" t="s">
-        <v>98</v>
-      </c>
-      <c r="C110" s="2">
-        <v>6990731373922</v>
-      </c>
-      <c r="D110" t="s">
-        <v>96</v>
-      </c>
-      <c r="E110" s="1">
-        <v>43276.701388888891</v>
-      </c>
-      <c r="F110" s="1"/>
-    </row>
-    <row r="111" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B111" t="s">
-        <v>99</v>
-      </c>
-      <c r="C111" s="2">
-        <v>6991108372720</v>
-      </c>
-      <c r="D111" t="s">
-        <v>100</v>
-      </c>
-      <c r="E111" s="1">
-        <v>43276.717361111114</v>
-      </c>
-      <c r="F111" s="1"/>
-    </row>
-    <row r="112" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B112" t="s">
-        <v>101</v>
-      </c>
-      <c r="C112" s="2">
-        <v>6991153372515</v>
-      </c>
-      <c r="D112" t="s">
-        <v>17</v>
-      </c>
-      <c r="E112" s="1">
-        <v>43276.722222222219</v>
-      </c>
-      <c r="F112" s="1"/>
-    </row>
-    <row r="113" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B113" t="s">
-        <v>102</v>
-      </c>
-      <c r="C113" s="2">
-        <v>6991175372451</v>
-      </c>
-      <c r="D113" t="s">
-        <v>100</v>
-      </c>
-      <c r="E113" s="1">
-        <v>43276.724999999999</v>
-      </c>
-      <c r="F113" s="1"/>
-    </row>
-    <row r="114" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B114" t="s">
-        <v>103</v>
-      </c>
-      <c r="C114" s="2">
-        <v>6991331372007</v>
-      </c>
-      <c r="D114" t="s">
-        <v>104</v>
-      </c>
-      <c r="E114" s="1">
-        <v>43276.730555555558</v>
-      </c>
-      <c r="F114" s="1"/>
-    </row>
-    <row r="115" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B115" t="s">
-        <v>105</v>
-      </c>
-      <c r="C115" s="2">
-        <v>6990806371700</v>
-      </c>
-      <c r="D115" t="s">
-        <v>106</v>
-      </c>
-      <c r="E115" s="1">
-        <v>43276.75</v>
-      </c>
-      <c r="F115" s="1"/>
-    </row>
-    <row r="116" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B116" t="s">
-        <v>107</v>
-      </c>
-      <c r="C116" s="2">
-        <v>6988299372150</v>
-      </c>
-      <c r="D116" t="s">
-        <v>108</v>
-      </c>
-      <c r="E116" s="1">
-        <v>43276.79791666667</v>
-      </c>
-      <c r="F116" s="1"/>
-    </row>
-    <row r="117" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B117" t="s">
-        <v>109</v>
-      </c>
-      <c r="C117" s="2">
-        <v>6986421371555</v>
-      </c>
-      <c r="D117" t="s">
-        <v>110</v>
-      </c>
-      <c r="E117" s="1">
-        <v>43277.35833333333</v>
-      </c>
-      <c r="F117" s="1"/>
-    </row>
-    <row r="118" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B118" t="s">
-        <v>111</v>
-      </c>
-      <c r="C118" s="2">
-        <v>6986539371185</v>
-      </c>
-      <c r="D118" t="s">
-        <v>112</v>
-      </c>
-      <c r="E118" s="1">
+      <c r="E128" s="1">
         <v>43277.365972222222</v>
-      </c>
-      <c r="F118" s="1"/>
-    </row>
-    <row r="119" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B119" t="s">
-        <v>113</v>
-      </c>
-      <c r="C119" s="2">
-        <v>6986987369810</v>
-      </c>
-      <c r="D119" t="s">
-        <v>19</v>
-      </c>
-      <c r="E119" s="1">
-        <v>43277.390972222223</v>
-      </c>
-      <c r="F119" s="1"/>
-    </row>
-    <row r="120" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B120" t="s">
-        <v>114</v>
-      </c>
-      <c r="C120" s="2">
-        <v>6987165369223</v>
-      </c>
-      <c r="D120" t="s">
-        <v>49</v>
-      </c>
-      <c r="E120" s="1">
-        <v>43277.402083333334</v>
-      </c>
-      <c r="F120" s="1"/>
-    </row>
-    <row r="121" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B121" t="s">
-        <v>115</v>
-      </c>
-      <c r="C121" s="2">
-        <v>6987303368811</v>
-      </c>
-      <c r="D121" t="s">
-        <v>38</v>
-      </c>
-      <c r="E121" s="1">
-        <v>43277.409722222219</v>
-      </c>
-      <c r="F121" s="1"/>
-    </row>
-    <row r="122" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B122" t="s">
-        <v>116</v>
-      </c>
-      <c r="C122" s="2">
-        <v>6985525368428</v>
-      </c>
-      <c r="D122" t="s">
-        <v>117</v>
-      </c>
-      <c r="E122" s="1">
-        <v>43277.557638888888</v>
-      </c>
-      <c r="F122" s="1"/>
-    </row>
-    <row r="123" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B123" t="s">
-        <v>118</v>
-      </c>
-      <c r="C123" s="2">
-        <v>6983906368728</v>
-      </c>
-      <c r="D123" t="s">
-        <v>119</v>
-      </c>
-      <c r="E123" s="1">
-        <v>43277.584722222222</v>
-      </c>
-      <c r="F123" s="1"/>
-    </row>
-    <row r="124" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B124" t="s">
-        <v>120</v>
-      </c>
-      <c r="C124" s="2">
-        <v>6983977368859</v>
-      </c>
-      <c r="D124" t="s">
-        <v>121</v>
-      </c>
-      <c r="E124" s="1">
-        <v>43277.597916666666</v>
-      </c>
-      <c r="F124" s="1"/>
-    </row>
-    <row r="125" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B125" t="s">
-        <v>122</v>
-      </c>
-      <c r="C125" s="2">
-        <v>6984203369274</v>
-      </c>
-      <c r="D125" t="s">
-        <v>35</v>
-      </c>
-      <c r="E125" s="1">
-        <v>43277.609722222223</v>
-      </c>
-      <c r="F125" s="1"/>
-    </row>
-    <row r="126" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B126" t="s">
-        <v>123</v>
-      </c>
-      <c r="C126" s="2">
-        <v>6984634369968</v>
-      </c>
-      <c r="D126" t="s">
-        <v>124</v>
-      </c>
-      <c r="E126" s="1">
-        <v>43277.623611111114</v>
-      </c>
-      <c r="F126" s="1"/>
-    </row>
-    <row r="127" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B127" t="s">
-        <v>125</v>
-      </c>
-      <c r="C127" s="2">
-        <v>6986354371830</v>
-      </c>
-      <c r="D127" t="s">
-        <v>126</v>
-      </c>
-      <c r="E127" s="1">
-        <v>43277.663888888892</v>
-      </c>
-      <c r="F127" s="1"/>
-    </row>
-    <row r="128" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B128" t="s">
-        <v>127</v>
-      </c>
-      <c r="C128" s="2">
-        <v>6985957359366</v>
-      </c>
-      <c r="D128" t="s">
-        <v>128</v>
-      </c>
-      <c r="E128" s="1">
-        <v>43278.40625</v>
       </c>
       <c r="F128" s="1"/>
     </row>
     <row r="129" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B129" t="s">
-        <v>129</v>
+        <v>88</v>
       </c>
       <c r="C129" s="2">
-        <v>6984603358022</v>
+        <v>6986987369810</v>
       </c>
       <c r="D129" t="s">
-        <v>110</v>
+        <v>18</v>
       </c>
       <c r="E129" s="1">
-        <v>43278.430555555555</v>
+        <v>43277.390972222223</v>
       </c>
       <c r="F129" s="1"/>
     </row>
     <row r="130" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B130" t="s">
-        <v>130</v>
+        <v>89</v>
       </c>
       <c r="C130" s="2">
-        <v>6983656356892</v>
+        <v>6987165369223</v>
       </c>
       <c r="D130" t="s">
-        <v>131</v>
+        <v>48</v>
       </c>
       <c r="E130" s="1">
-        <v>43278.449305555558</v>
+        <v>43277.402083333334</v>
       </c>
       <c r="F130" s="1"/>
     </row>
     <row r="131" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B131" t="s">
-        <v>132</v>
+        <v>90</v>
       </c>
       <c r="C131" s="2">
-        <v>6983702356823</v>
+        <v>6987303368811</v>
       </c>
       <c r="D131" t="s">
-        <v>131</v>
+        <v>37</v>
       </c>
       <c r="E131" s="1">
-        <v>43278.452777777777</v>
+        <v>43277.409722222219</v>
       </c>
       <c r="F131" s="1"/>
     </row>
     <row r="132" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B132" t="s">
-        <v>133</v>
+        <v>91</v>
       </c>
       <c r="C132" s="2">
-        <v>6983103356528</v>
+        <v>6985525368428</v>
       </c>
       <c r="D132" t="s">
-        <v>134</v>
+        <v>92</v>
       </c>
       <c r="E132" s="1">
-        <v>43278.467361111114</v>
+        <v>43277.557638888888</v>
       </c>
       <c r="F132" s="1"/>
     </row>
     <row r="133" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B133" t="s">
-        <v>135</v>
+        <v>93</v>
       </c>
       <c r="C133" s="2">
-        <v>6982711357390</v>
+        <v>6983906368728</v>
       </c>
       <c r="D133" t="s">
-        <v>136</v>
+        <v>94</v>
       </c>
       <c r="E133" s="1">
-        <v>43278.480555555558</v>
+        <v>43277.584722222222</v>
       </c>
       <c r="F133" s="1"/>
     </row>
     <row r="134" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B134" t="s">
-        <v>137</v>
+        <v>95</v>
       </c>
       <c r="C134" s="2">
-        <v>6982411358309</v>
+        <v>6983977368859</v>
       </c>
       <c r="D134" t="s">
-        <v>138</v>
+        <v>96</v>
       </c>
       <c r="E134" s="1">
-        <v>43278.493055555555</v>
+        <v>43277.597916666666</v>
       </c>
       <c r="F134" s="1"/>
     </row>
     <row r="135" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B135" t="s">
-        <v>139</v>
+        <v>97</v>
       </c>
       <c r="C135" s="2">
-        <v>6982517358590</v>
+        <v>6984203369274</v>
       </c>
       <c r="D135" t="s">
-        <v>140</v>
+        <v>34</v>
       </c>
       <c r="E135" s="1">
-        <v>43278.500694444447</v>
+        <v>43277.609722222223</v>
       </c>
       <c r="F135" s="1"/>
     </row>
     <row r="136" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B136" t="s">
-        <v>141</v>
+        <v>98</v>
       </c>
       <c r="C136" s="2">
-        <v>6982286358997</v>
+        <v>6984634369968</v>
       </c>
       <c r="D136" t="s">
-        <v>142</v>
+        <v>99</v>
       </c>
       <c r="E136" s="1">
-        <v>43278.559027777781</v>
+        <v>43277.623611111114</v>
       </c>
       <c r="F136" s="1"/>
     </row>
     <row r="137" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B137" t="s">
-        <v>143</v>
+        <v>100</v>
       </c>
       <c r="C137" s="2">
-        <v>6982057359742</v>
+        <v>6986354371830</v>
       </c>
       <c r="D137" t="s">
-        <v>91</v>
+        <v>101</v>
       </c>
       <c r="E137" s="1">
-        <v>43278.569444444445</v>
+        <v>43277.663888888892</v>
       </c>
       <c r="F137" s="1"/>
     </row>
     <row r="138" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B138" t="s">
-        <v>144</v>
+        <v>102</v>
       </c>
       <c r="C138" s="2">
-        <v>6982022359836</v>
+        <v>6985957359366</v>
       </c>
       <c r="D138" t="s">
-        <v>145</v>
+        <v>103</v>
       </c>
       <c r="E138" s="1">
-        <v>43278.572222222225</v>
+        <v>43278.40625</v>
       </c>
       <c r="F138" s="1"/>
     </row>
     <row r="139" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B139" t="s">
-        <v>146</v>
+        <v>104</v>
       </c>
       <c r="C139" s="2">
-        <v>6984942359384</v>
+        <v>6984603358022</v>
       </c>
       <c r="D139" t="s">
-        <v>49</v>
+        <v>85</v>
       </c>
       <c r="E139" s="1">
-        <v>43278.62222222222</v>
+        <v>43278.430555555555</v>
       </c>
       <c r="F139" s="1"/>
     </row>
     <row r="140" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B140" t="s">
-        <v>147</v>
+        <v>105</v>
       </c>
       <c r="C140" s="2">
-        <v>6985094359323</v>
+        <v>6983656356892</v>
       </c>
       <c r="D140" t="s">
-        <v>29</v>
+        <v>106</v>
       </c>
       <c r="E140" s="1">
-        <v>43278.62777777778</v>
+        <v>43278.449305555558</v>
       </c>
       <c r="F140" s="1"/>
     </row>
     <row r="141" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B141" t="s">
-        <v>148</v>
+        <v>107</v>
       </c>
       <c r="C141" s="2">
-        <v>6985160359319</v>
+        <v>6983702356823</v>
       </c>
       <c r="D141" t="s">
-        <v>124</v>
+        <v>106</v>
       </c>
       <c r="E141" s="1">
-        <v>43278.629166666666</v>
+        <v>43278.452777777777</v>
       </c>
       <c r="F141" s="1"/>
     </row>
     <row r="142" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B142" t="s">
-        <v>149</v>
+        <v>108</v>
       </c>
       <c r="C142" s="2">
-        <v>6982267355785</v>
+        <v>6983103356528</v>
       </c>
       <c r="D142" t="s">
-        <v>150</v>
+        <v>109</v>
       </c>
       <c r="E142" s="1">
-        <v>43278.884722222225</v>
+        <v>43278.467361111114</v>
       </c>
       <c r="F142" s="1"/>
     </row>
     <row r="143" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B143" t="s">
-        <v>151</v>
+        <v>110</v>
       </c>
       <c r="C143" s="2">
-        <v>6980968353518</v>
+        <v>6982711357390</v>
       </c>
       <c r="D143" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="E143" s="1">
-        <v>43279.265277777777</v>
+        <v>43278.480555555558</v>
       </c>
       <c r="F143" s="1"/>
     </row>
     <row r="144" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B144" t="s">
-        <v>152</v>
+        <v>112</v>
       </c>
       <c r="C144" s="2">
-        <v>6980970353513</v>
+        <v>6982411358309</v>
       </c>
       <c r="D144" t="s">
-        <v>16</v>
+        <v>113</v>
       </c>
       <c r="E144" s="1">
-        <v>43279.265972222223</v>
+        <v>43278.493055555555</v>
       </c>
       <c r="F144" s="1"/>
     </row>
     <row r="145" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B145" t="s">
-        <v>153</v>
+        <v>114</v>
       </c>
       <c r="C145" s="2">
-        <v>6980945353432</v>
+        <v>6982517358590</v>
       </c>
       <c r="D145" t="s">
-        <v>39</v>
+        <v>115</v>
       </c>
       <c r="E145" s="1">
-        <v>43279.268055555556</v>
+        <v>43278.500694444447</v>
       </c>
       <c r="F145" s="1"/>
     </row>
     <row r="146" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B146" t="s">
-        <v>154</v>
+        <v>116</v>
       </c>
       <c r="C146" s="2">
-        <v>6980935353395</v>
+        <v>6982286358997</v>
       </c>
       <c r="D146" t="s">
-        <v>155</v>
+        <v>117</v>
       </c>
       <c r="E146" s="1">
-        <v>43279.270138888889</v>
+        <v>43278.559027777781</v>
       </c>
       <c r="F146" s="1"/>
     </row>
     <row r="147" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B147" t="s">
-        <v>156</v>
+        <v>118</v>
       </c>
       <c r="C147" s="2">
-        <v>6980911353331</v>
+        <v>6982057359742</v>
       </c>
       <c r="D147" t="s">
-        <v>157</v>
+        <v>76</v>
       </c>
       <c r="E147" s="1">
-        <v>43279.273611111108</v>
+        <v>43278.569444444445</v>
       </c>
       <c r="F147" s="1"/>
     </row>
     <row r="148" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B148" t="s">
-        <v>158</v>
+        <v>119</v>
       </c>
       <c r="C148" s="2">
-        <v>6980602353081</v>
+        <v>6982022359836</v>
       </c>
       <c r="D148" t="s">
-        <v>159</v>
+        <v>120</v>
       </c>
       <c r="E148" s="1">
-        <v>43279.28125</v>
+        <v>43278.572222222225</v>
       </c>
       <c r="F148" s="1"/>
     </row>
     <row r="149" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B149" t="s">
-        <v>160</v>
+        <v>121</v>
       </c>
       <c r="C149" s="2">
-        <v>6980431352927</v>
+        <v>6984942359384</v>
       </c>
       <c r="D149" t="s">
-        <v>161</v>
+        <v>48</v>
       </c>
       <c r="E149" s="1">
-        <v>43279.284722222219</v>
+        <v>43278.62222222222</v>
       </c>
       <c r="F149" s="1"/>
     </row>
     <row r="150" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B150" t="s">
-        <v>162</v>
+        <v>122</v>
       </c>
       <c r="C150" s="2">
-        <v>6980212352665</v>
+        <v>6985094359323</v>
       </c>
       <c r="D150" t="s">
-        <v>163</v>
+        <v>28</v>
       </c>
       <c r="E150" s="1">
-        <v>43279.290972222225</v>
+        <v>43278.62777777778</v>
       </c>
       <c r="F150" s="1"/>
     </row>
     <row r="151" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B151" t="s">
-        <v>164</v>
+        <v>123</v>
       </c>
       <c r="C151" s="2">
-        <v>6980059352518</v>
+        <v>6985160359319</v>
       </c>
       <c r="D151" t="s">
-        <v>165</v>
+        <v>99</v>
       </c>
       <c r="E151" s="1">
-        <v>43279.296527777777</v>
+        <v>43278.629166666666</v>
       </c>
       <c r="F151" s="1"/>
     </row>
     <row r="152" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B152" t="s">
-        <v>166</v>
+        <v>124</v>
       </c>
       <c r="C152" s="2">
-        <v>6980047352508</v>
+        <v>6982267355785</v>
       </c>
       <c r="D152" t="s">
-        <v>167</v>
+        <v>125</v>
       </c>
       <c r="E152" s="1">
-        <v>43279.29791666667</v>
+        <v>43278.884722222225</v>
       </c>
       <c r="F152" s="1"/>
     </row>
     <row r="153" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B153" t="s">
-        <v>168</v>
+        <v>126</v>
       </c>
       <c r="C153" s="2">
-        <v>6979533352050</v>
+        <v>6980968353518</v>
       </c>
       <c r="D153" t="s">
-        <v>47</v>
+        <v>83</v>
       </c>
       <c r="E153" s="1">
-        <v>43279.30972222222</v>
+        <v>43279.265277777777</v>
       </c>
       <c r="F153" s="1"/>
     </row>
     <row r="154" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B154" t="s">
-        <v>169</v>
+        <v>127</v>
       </c>
       <c r="C154" s="2">
-        <v>6979485352018</v>
+        <v>6980970353513</v>
       </c>
       <c r="D154" t="s">
-        <v>47</v>
+        <v>15</v>
       </c>
       <c r="E154" s="1">
-        <v>43279.311805555553</v>
+        <v>43279.265972222223</v>
       </c>
       <c r="F154" s="1"/>
     </row>
     <row r="155" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B155" t="s">
-        <v>170</v>
+        <v>128</v>
       </c>
       <c r="C155" s="2">
-        <v>6979450352004</v>
+        <v>6980945353432</v>
       </c>
       <c r="D155" t="s">
-        <v>171</v>
+        <v>38</v>
       </c>
       <c r="E155" s="1">
-        <v>43279.313194444447</v>
+        <v>43279.268055555556</v>
       </c>
       <c r="F155" s="1"/>
     </row>
     <row r="156" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B156" t="s">
-        <v>172</v>
+        <v>129</v>
       </c>
       <c r="C156" s="2">
-        <v>6979451352005</v>
+        <v>6980935353395</v>
       </c>
       <c r="D156" t="s">
-        <v>171</v>
+        <v>130</v>
       </c>
       <c r="E156" s="1">
-        <v>43279.313888888886</v>
+        <v>43279.270138888889</v>
       </c>
       <c r="F156" s="1"/>
     </row>
     <row r="157" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B157" t="s">
-        <v>173</v>
+        <v>131</v>
       </c>
       <c r="C157" s="2">
-        <v>6979455352012</v>
+        <v>6980911353331</v>
       </c>
       <c r="D157" t="s">
-        <v>174</v>
+        <v>132</v>
       </c>
       <c r="E157" s="1">
-        <v>43279.314583333333</v>
+        <v>43279.273611111108</v>
       </c>
       <c r="F157" s="1"/>
     </row>
     <row r="158" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B158" t="s">
-        <v>175</v>
+        <v>133</v>
       </c>
       <c r="C158" s="2">
-        <v>6979459352019</v>
+        <v>6980602353081</v>
       </c>
       <c r="D158" t="s">
-        <v>47</v>
+        <v>134</v>
       </c>
       <c r="E158" s="1">
-        <v>43279.31527777778</v>
+        <v>43279.28125</v>
       </c>
       <c r="F158" s="1"/>
     </row>
     <row r="159" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B159" t="s">
-        <v>176</v>
+        <v>135</v>
       </c>
       <c r="C159" s="2">
-        <v>6979457352096</v>
+        <v>6980431352927</v>
       </c>
       <c r="D159" t="s">
-        <v>177</v>
+        <v>136</v>
       </c>
       <c r="E159" s="1">
-        <v>43279.318749999999</v>
+        <v>43279.284722222219</v>
       </c>
       <c r="F159" s="1"/>
     </row>
     <row r="160" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B160" t="s">
-        <v>178</v>
+        <v>137</v>
       </c>
       <c r="C160" s="2">
-        <v>6979451352092</v>
+        <v>6980212352665</v>
       </c>
       <c r="D160" t="s">
-        <v>177</v>
+        <v>138</v>
       </c>
       <c r="E160" s="1">
-        <v>43279.318749999999</v>
+        <v>43279.290972222225</v>
       </c>
       <c r="F160" s="1"/>
     </row>
     <row r="161" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B161" t="s">
-        <v>179</v>
+        <v>139</v>
       </c>
       <c r="C161" s="2">
-        <v>6979362352012</v>
+        <v>6980059352518</v>
       </c>
       <c r="D161" t="s">
-        <v>180</v>
+        <v>140</v>
       </c>
       <c r="E161" s="1">
-        <v>43279.321527777778</v>
+        <v>43279.296527777777</v>
       </c>
       <c r="F161" s="1"/>
     </row>
     <row r="162" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B162" t="s">
-        <v>181</v>
+        <v>141</v>
       </c>
       <c r="C162" s="2">
-        <v>6979058351708</v>
+        <v>6980047352508</v>
       </c>
       <c r="D162" t="s">
-        <v>182</v>
+        <v>142</v>
       </c>
       <c r="E162" s="1">
-        <v>43279.32708333333</v>
+        <v>43279.29791666667</v>
       </c>
       <c r="F162" s="1"/>
     </row>
     <row r="163" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B163" t="s">
-        <v>183</v>
+        <v>143</v>
       </c>
       <c r="C163" s="2">
-        <v>6978301351443</v>
+        <v>6979533352050</v>
       </c>
       <c r="D163" t="s">
-        <v>184</v>
+        <v>46</v>
       </c>
       <c r="E163" s="1">
-        <v>43279.341666666667</v>
+        <v>43279.30972222222</v>
       </c>
       <c r="F163" s="1"/>
     </row>
     <row r="164" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B164" t="s">
-        <v>185</v>
+        <v>144</v>
       </c>
       <c r="C164" s="2">
-        <v>6978297351472</v>
+        <v>6979485352018</v>
       </c>
       <c r="D164" t="s">
-        <v>23</v>
+        <v>46</v>
       </c>
       <c r="E164" s="1">
-        <v>43279.342361111114</v>
+        <v>43279.311805555553</v>
       </c>
       <c r="F164" s="1"/>
     </row>
     <row r="165" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B165" t="s">
-        <v>186</v>
+        <v>145</v>
       </c>
       <c r="C165" s="2">
-        <v>6978291351490</v>
+        <v>6979450352004</v>
       </c>
       <c r="D165" t="s">
-        <v>24</v>
+        <v>146</v>
       </c>
       <c r="E165" s="1">
-        <v>43279.34375</v>
+        <v>43279.313194444447</v>
       </c>
       <c r="F165" s="1"/>
     </row>
     <row r="166" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B166" t="s">
-        <v>187</v>
+        <v>147</v>
       </c>
       <c r="C166" s="2">
-        <v>6977910352784</v>
+        <v>6979451352005</v>
       </c>
       <c r="D166" t="s">
-        <v>188</v>
+        <v>146</v>
       </c>
       <c r="E166" s="1">
-        <v>43279.414583333331</v>
+        <v>43279.313888888886</v>
       </c>
       <c r="F166" s="1"/>
     </row>
     <row r="167" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B167" t="s">
-        <v>189</v>
+        <v>148</v>
       </c>
       <c r="C167" s="2">
-        <v>6977860353046</v>
+        <v>6979455352012</v>
       </c>
       <c r="D167" t="s">
-        <v>30</v>
+        <v>149</v>
       </c>
       <c r="E167" s="1">
-        <v>43279.419444444444</v>
+        <v>43279.314583333333</v>
       </c>
       <c r="F167" s="1"/>
     </row>
     <row r="168" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B168" t="s">
-        <v>190</v>
+        <v>150</v>
       </c>
       <c r="C168" s="2">
-        <v>6977861353067</v>
+        <v>6979459352019</v>
       </c>
       <c r="D168" t="s">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="E168" s="1">
-        <v>43279.42083333333</v>
+        <v>43279.31527777778</v>
       </c>
       <c r="F168" s="1"/>
     </row>
     <row r="169" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B169" t="s">
-        <v>191</v>
+        <v>151</v>
       </c>
       <c r="C169" s="2">
-        <v>6977865353087</v>
+        <v>6979457352096</v>
       </c>
       <c r="D169" t="s">
-        <v>93</v>
+        <v>152</v>
       </c>
       <c r="E169" s="1">
-        <v>43279.422222222223</v>
+        <v>43279.318749999999</v>
       </c>
       <c r="F169" s="1"/>
     </row>
     <row r="170" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B170" t="s">
-        <v>192</v>
+        <v>153</v>
       </c>
       <c r="C170" s="2">
-        <v>6977856353173</v>
+        <v>6979451352092</v>
       </c>
       <c r="D170" t="s">
-        <v>16</v>
+        <v>152</v>
       </c>
       <c r="E170" s="1">
-        <v>43279.424305555556</v>
+        <v>43279.318749999999</v>
       </c>
       <c r="F170" s="1"/>
     </row>
     <row r="171" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B171" t="s">
-        <v>193</v>
+        <v>154</v>
       </c>
       <c r="C171" s="2">
-        <v>6977844353209</v>
+        <v>6979362352012</v>
       </c>
       <c r="D171" t="s">
-        <v>93</v>
+        <v>155</v>
       </c>
       <c r="E171" s="1">
-        <v>43279.425694444442</v>
+        <v>43279.321527777778</v>
       </c>
       <c r="F171" s="1"/>
     </row>
     <row r="172" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B172" t="s">
-        <v>194</v>
+        <v>156</v>
       </c>
       <c r="C172" s="2">
-        <v>6977797353337</v>
+        <v>6979058351708</v>
       </c>
       <c r="D172" t="s">
-        <v>53</v>
+        <v>157</v>
       </c>
       <c r="E172" s="1">
-        <v>43279.428472222222</v>
+        <v>43279.32708333333</v>
       </c>
       <c r="F172" s="1"/>
     </row>
     <row r="173" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B173" t="s">
-        <v>195</v>
+        <v>158</v>
       </c>
       <c r="C173" s="2">
-        <v>6977575354652</v>
+        <v>6978301351443</v>
       </c>
       <c r="D173" t="s">
-        <v>30</v>
+        <v>159</v>
       </c>
       <c r="E173" s="1">
-        <v>43279.447222222225</v>
+        <v>43279.341666666667</v>
       </c>
       <c r="F173" s="1"/>
     </row>
     <row r="174" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B174" t="s">
-        <v>196</v>
+        <v>160</v>
       </c>
       <c r="C174" s="2">
-        <v>6978571354702</v>
+        <v>6978297351472</v>
       </c>
       <c r="D174" t="s">
-        <v>150</v>
+        <v>22</v>
       </c>
       <c r="E174" s="1">
-        <v>43279.47152777778</v>
+        <v>43279.342361111114</v>
       </c>
       <c r="F174" s="1"/>
     </row>
     <row r="175" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B175" t="s">
-        <v>197</v>
+        <v>161</v>
       </c>
       <c r="C175" s="2">
-        <v>6979142354504</v>
+        <v>6978291351490</v>
       </c>
       <c r="D175" t="s">
-        <v>198</v>
+        <v>23</v>
       </c>
       <c r="E175" s="1">
-        <v>43279.486805555556</v>
+        <v>43279.34375</v>
       </c>
       <c r="F175" s="1"/>
     </row>
     <row r="176" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B176" t="s">
-        <v>199</v>
+        <v>162</v>
       </c>
       <c r="C176" s="2">
-        <v>6979932354155</v>
+        <v>6977910352784</v>
       </c>
       <c r="D176" t="s">
-        <v>142</v>
+        <v>163</v>
       </c>
       <c r="E176" s="1">
-        <v>43279.498611111114</v>
+        <v>43279.414583333331</v>
       </c>
       <c r="F176" s="1"/>
     </row>
     <row r="177" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B177" t="s">
-        <v>200</v>
+        <v>164</v>
       </c>
       <c r="C177" s="2">
-        <v>6979961354157</v>
+        <v>6977860353046</v>
       </c>
       <c r="D177" t="s">
-        <v>142</v>
+        <v>29</v>
       </c>
       <c r="E177" s="1">
-        <v>43279.500694444447</v>
+        <v>43279.419444444444</v>
       </c>
       <c r="F177" s="1"/>
     </row>
     <row r="178" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B178" t="s">
-        <v>201</v>
+        <v>165</v>
       </c>
       <c r="C178" s="2">
-        <v>6980285354065</v>
+        <v>6977861353067</v>
       </c>
       <c r="D178" t="s">
-        <v>119</v>
+        <v>29</v>
       </c>
       <c r="E178" s="1">
-        <v>43279.506944444445</v>
+        <v>43279.42083333333</v>
       </c>
       <c r="F178" s="1"/>
     </row>
     <row r="179" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B179" t="s">
-        <v>202</v>
+        <v>166</v>
       </c>
       <c r="C179" s="2">
-        <v>6980874353935</v>
+        <v>6977865353087</v>
       </c>
       <c r="D179" t="s">
-        <v>119</v>
+        <v>77</v>
       </c>
       <c r="E179" s="1">
-        <v>43279.515972222223</v>
+        <v>43279.422222222223</v>
       </c>
       <c r="F179" s="1"/>
     </row>
     <row r="180" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B180" t="s">
-        <v>203</v>
+        <v>167</v>
       </c>
       <c r="C180" s="2">
-        <v>6980891353931</v>
+        <v>6977856353173</v>
       </c>
       <c r="D180" t="s">
-        <v>204</v>
+        <v>15</v>
       </c>
       <c r="E180" s="1">
-        <v>43279.517361111109</v>
+        <v>43279.424305555556</v>
       </c>
       <c r="F180" s="1"/>
     </row>
     <row r="181" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B181" t="s">
-        <v>205</v>
+        <v>168</v>
       </c>
       <c r="C181" s="2">
-        <v>6980914353924</v>
+        <v>6977844353209</v>
       </c>
       <c r="D181" t="s">
-        <v>206</v>
+        <v>77</v>
       </c>
       <c r="E181" s="1">
-        <v>43279.518750000003</v>
+        <v>43279.425694444442</v>
       </c>
       <c r="F181" s="1"/>
     </row>
     <row r="182" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B182" t="s">
-        <v>207</v>
+        <v>169</v>
       </c>
       <c r="C182" s="2">
-        <v>7008446366454</v>
+        <v>6977797353337</v>
       </c>
       <c r="D182" t="s">
-        <v>208</v>
+        <v>52</v>
       </c>
       <c r="E182" s="1">
-        <v>43283.498611111114</v>
+        <v>43279.428472222222</v>
       </c>
       <c r="F182" s="1"/>
     </row>
     <row r="183" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B183" t="s">
-        <v>209</v>
+        <v>170</v>
       </c>
       <c r="C183" s="2">
-        <v>7008274366146</v>
+        <v>6977575354652</v>
       </c>
       <c r="D183" t="s">
-        <v>210</v>
+        <v>29</v>
       </c>
       <c r="E183" s="1">
-        <v>43283.506944444445</v>
+        <v>43279.447222222225</v>
       </c>
       <c r="F183" s="1"/>
     </row>
     <row r="184" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B184" t="s">
-        <v>211</v>
+        <v>171</v>
       </c>
       <c r="C184" s="2">
-        <v>7008058365732</v>
+        <v>6978571354702</v>
       </c>
       <c r="D184" t="s">
-        <v>22</v>
+        <v>125</v>
       </c>
       <c r="E184" s="1">
-        <v>43283.513888888891</v>
+        <v>43279.47152777778</v>
       </c>
       <c r="F184" s="1"/>
     </row>
     <row r="185" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B185" t="s">
-        <v>212</v>
+        <v>172</v>
       </c>
       <c r="C185" s="2">
-        <v>7007697364981</v>
+        <v>6979142354504</v>
       </c>
       <c r="D185" t="s">
-        <v>57</v>
+        <v>173</v>
       </c>
       <c r="E185" s="1">
-        <v>43283.525694444441</v>
+        <v>43279.486805555556</v>
       </c>
       <c r="F185" s="1"/>
     </row>
     <row r="186" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B186" t="s">
-        <v>213</v>
+        <v>174</v>
       </c>
       <c r="C186" s="2">
-        <v>7007640364853</v>
+        <v>6979932354155</v>
       </c>
       <c r="D186" t="s">
-        <v>17</v>
+        <v>117</v>
       </c>
       <c r="E186" s="1">
-        <v>43283.529166666667</v>
+        <v>43279.498611111114</v>
       </c>
       <c r="F186" s="1"/>
     </row>
     <row r="187" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B187" t="s">
-        <v>214</v>
+        <v>175</v>
       </c>
       <c r="C187" s="2">
-        <v>7007642364847</v>
+        <v>6979961354157</v>
       </c>
       <c r="D187" t="s">
-        <v>155</v>
+        <v>117</v>
       </c>
       <c r="E187" s="1">
-        <v>43283.530555555553</v>
+        <v>43279.500694444447</v>
       </c>
       <c r="F187" s="1"/>
     </row>
     <row r="188" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B188" t="s">
-        <v>215</v>
+        <v>176</v>
       </c>
       <c r="C188" s="2">
-        <v>7007282364035</v>
+        <v>6980285354065</v>
       </c>
       <c r="D188" t="s">
-        <v>216</v>
+        <v>94</v>
       </c>
       <c r="E188" s="1">
-        <v>43283.542361111111</v>
+        <v>43279.506944444445</v>
       </c>
       <c r="F188" s="1"/>
     </row>
     <row r="189" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B189" t="s">
-        <v>217</v>
+        <v>177</v>
       </c>
       <c r="C189" s="2">
-        <v>7006937363535</v>
+        <v>6980874353935</v>
       </c>
       <c r="D189" t="s">
-        <v>218</v>
+        <v>94</v>
       </c>
       <c r="E189" s="1">
-        <v>43283.552777777775</v>
+        <v>43279.515972222223</v>
       </c>
       <c r="F189" s="1"/>
     </row>
     <row r="190" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B190" t="s">
-        <v>219</v>
+        <v>178</v>
       </c>
       <c r="C190" s="2">
-        <v>7006658363080</v>
+        <v>6980891353931</v>
       </c>
       <c r="D190" t="s">
-        <v>220</v>
+        <v>179</v>
       </c>
       <c r="E190" s="1">
-        <v>43283.56527777778</v>
+        <v>43279.517361111109</v>
       </c>
       <c r="F190" s="1"/>
     </row>
     <row r="191" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B191" t="s">
-        <v>221</v>
+        <v>180</v>
       </c>
       <c r="C191" s="2">
-        <v>7007092363031</v>
+        <v>6980914353924</v>
       </c>
       <c r="D191" t="s">
-        <v>222</v>
+        <v>181</v>
       </c>
       <c r="E191" s="1">
-        <v>43283.604861111111</v>
+        <v>43279.518750000003</v>
       </c>
       <c r="F191" s="1"/>
     </row>
     <row r="192" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B192" t="s">
-        <v>223</v>
+        <v>182</v>
       </c>
       <c r="C192" s="2">
-        <v>7007443362987</v>
+        <v>7008446366454</v>
       </c>
       <c r="D192" t="s">
-        <v>224</v>
+        <v>183</v>
       </c>
       <c r="E192" s="1">
-        <v>43283.613194444442</v>
+        <v>43283.498611111114</v>
       </c>
       <c r="F192" s="1"/>
     </row>
     <row r="193" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B193" t="s">
-        <v>225</v>
+        <v>184</v>
       </c>
       <c r="C193" s="2">
-        <v>7007870362915</v>
+        <v>7008274366146</v>
       </c>
       <c r="D193" t="s">
-        <v>226</v>
+        <v>185</v>
       </c>
       <c r="E193" s="1">
-        <v>43283.619444444441</v>
+        <v>43283.506944444445</v>
       </c>
       <c r="F193" s="1"/>
     </row>
     <row r="194" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B194" t="s">
-        <v>227</v>
+        <v>186</v>
       </c>
       <c r="C194" s="2">
-        <v>7010603362818</v>
+        <v>7008058365732</v>
       </c>
       <c r="D194" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="E194" s="1">
-        <v>43283.652083333334</v>
+        <v>43283.513888888891</v>
       </c>
       <c r="F194" s="1"/>
     </row>
     <row r="195" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B195" t="s">
-        <v>228</v>
+        <v>187</v>
       </c>
       <c r="C195" s="2">
-        <v>7009945363862</v>
+        <v>7007697364981</v>
       </c>
       <c r="D195" t="s">
-        <v>20</v>
+        <v>56</v>
       </c>
       <c r="E195" s="1">
-        <v>43283.67291666667</v>
+        <v>43283.525694444441</v>
       </c>
       <c r="F195" s="1"/>
     </row>
     <row r="196" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B196" t="s">
-        <v>229</v>
+        <v>188</v>
       </c>
       <c r="C196" s="2">
-        <v>7009257365321</v>
+        <v>7007640364853</v>
       </c>
       <c r="D196" t="s">
-        <v>59</v>
+        <v>16</v>
       </c>
       <c r="E196" s="1">
-        <v>43283.743055555555</v>
+        <v>43283.529166666667</v>
       </c>
       <c r="F196" s="1"/>
     </row>
     <row r="197" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B197" t="s">
-        <v>230</v>
+        <v>189</v>
       </c>
       <c r="C197" s="2">
-        <v>7009246365393</v>
+        <v>7007642364847</v>
       </c>
       <c r="D197" t="s">
-        <v>22</v>
+        <v>130</v>
       </c>
       <c r="E197" s="1">
-        <v>43283.745138888888</v>
+        <v>43283.530555555553</v>
       </c>
       <c r="F197" s="1"/>
     </row>
     <row r="198" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B198" t="s">
-        <v>231</v>
+        <v>190</v>
       </c>
       <c r="C198" s="2">
-        <v>7009221365532</v>
+        <v>7007282364035</v>
       </c>
       <c r="D198" t="s">
-        <v>232</v>
+        <v>191</v>
       </c>
       <c r="E198" s="1">
-        <v>43283.747916666667</v>
+        <v>43283.542361111111</v>
       </c>
       <c r="F198" s="1"/>
     </row>
     <row r="199" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B199" t="s">
-        <v>233</v>
+        <v>192</v>
       </c>
       <c r="C199" s="2">
-        <v>7009215365581</v>
+        <v>7006937363535</v>
       </c>
       <c r="D199" t="s">
-        <v>78</v>
+        <v>193</v>
       </c>
       <c r="E199" s="1">
-        <v>43283.749305555553</v>
+        <v>43283.552777777775</v>
       </c>
       <c r="F199" s="1"/>
     </row>
     <row r="200" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B200" t="s">
-        <v>234</v>
+        <v>194</v>
       </c>
       <c r="C200" s="2">
-        <v>7009220365592</v>
+        <v>7006658363080</v>
       </c>
       <c r="D200" t="s">
-        <v>235</v>
+        <v>195</v>
       </c>
       <c r="E200" s="1">
-        <v>43283.750694444447</v>
+        <v>43283.56527777778</v>
       </c>
       <c r="F200" s="1"/>
     </row>
     <row r="201" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B201" t="s">
-        <v>236</v>
+        <v>196</v>
       </c>
       <c r="C201" s="2">
-        <v>7009216365643</v>
+        <v>7007092363031</v>
       </c>
       <c r="D201" t="s">
-        <v>237</v>
+        <v>197</v>
       </c>
       <c r="E201" s="1">
-        <v>43283.75277777778</v>
+        <v>43283.604861111111</v>
       </c>
       <c r="F201" s="1"/>
     </row>
     <row r="202" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B202" t="s">
-        <v>238</v>
+        <v>198</v>
       </c>
       <c r="C202" s="2">
-        <v>7009215365667</v>
+        <v>7007443362987</v>
       </c>
       <c r="D202" t="s">
-        <v>239</v>
+        <v>199</v>
       </c>
       <c r="E202" s="1">
-        <v>43283.753472222219</v>
+        <v>43283.613194444442</v>
       </c>
       <c r="F202" s="1"/>
     </row>
     <row r="203" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B203" t="s">
-        <v>240</v>
+        <v>200</v>
       </c>
       <c r="C203" s="2">
-        <v>7009073365892</v>
+        <v>7007870362915</v>
       </c>
       <c r="D203" t="s">
-        <v>241</v>
+        <v>201</v>
       </c>
       <c r="E203" s="1">
-        <v>43283.759027777778</v>
+        <v>43283.619444444441</v>
       </c>
       <c r="F203" s="1"/>
     </row>
     <row r="204" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B204" t="s">
-        <v>242</v>
+        <v>202</v>
       </c>
       <c r="C204" s="2">
-        <v>7008870366106</v>
+        <v>7010603362818</v>
       </c>
       <c r="D204" t="s">
-        <v>243</v>
+        <v>32</v>
       </c>
       <c r="E204" s="1">
-        <v>43283.765277777777</v>
+        <v>43283.652083333334</v>
       </c>
       <c r="F204" s="1"/>
     </row>
     <row r="205" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B205" t="s">
-        <v>244</v>
+        <v>203</v>
       </c>
       <c r="C205" s="2">
-        <v>7008555366617</v>
+        <v>7009945363862</v>
       </c>
       <c r="D205" t="s">
-        <v>245</v>
+        <v>19</v>
       </c>
       <c r="E205" s="1">
-        <v>43283.776388888888</v>
+        <v>43283.67291666667</v>
       </c>
       <c r="F205" s="1"/>
     </row>
     <row r="206" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B206" t="s">
-        <v>246</v>
+        <v>204</v>
       </c>
       <c r="C206" s="2">
-        <v>7008548366629</v>
+        <v>7009257365321</v>
       </c>
       <c r="D206" t="s">
-        <v>41</v>
+        <v>58</v>
       </c>
       <c r="E206" s="1">
-        <v>43283.777777777781</v>
+        <v>43283.743055555555</v>
       </c>
       <c r="F206" s="1"/>
     </row>
     <row r="207" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B207" t="s">
-        <v>247</v>
+        <v>205</v>
       </c>
       <c r="C207" s="2">
-        <v>7008546366650</v>
+        <v>7009246365393</v>
       </c>
       <c r="D207" t="s">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="E207" s="1">
-        <v>43283.779166666667</v>
+        <v>43283.745138888888</v>
       </c>
       <c r="F207" s="1"/>
     </row>
     <row r="208" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B208" t="s">
-        <v>248</v>
+        <v>206</v>
       </c>
       <c r="C208" s="2">
-        <v>7005699362925</v>
+        <v>7009221365532</v>
       </c>
       <c r="D208" t="s">
-        <v>249</v>
+        <v>207</v>
       </c>
       <c r="E208" s="1">
-        <v>43284.404861111114</v>
+        <v>43283.747916666667</v>
       </c>
       <c r="F208" s="1"/>
     </row>
     <row r="209" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B209" t="s">
-        <v>250</v>
+        <v>208</v>
       </c>
       <c r="C209" s="2">
-        <v>7003859361323</v>
+        <v>7009215365581</v>
       </c>
       <c r="D209" t="s">
-        <v>251</v>
+        <v>70</v>
       </c>
       <c r="E209" s="1">
-        <v>43284.474305555559</v>
+        <v>43283.749305555553</v>
       </c>
       <c r="F209" s="1"/>
     </row>
     <row r="210" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B210" t="s">
-        <v>252</v>
+        <v>209</v>
       </c>
       <c r="C210" s="2">
-        <v>7003856361321</v>
+        <v>7009220365592</v>
       </c>
       <c r="D210" t="s">
-        <v>251</v>
+        <v>210</v>
       </c>
       <c r="E210" s="1">
-        <v>43284.476388888892</v>
+        <v>43283.750694444447</v>
       </c>
       <c r="F210" s="1"/>
     </row>
     <row r="211" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B211" t="s">
-        <v>253</v>
+        <v>211</v>
       </c>
       <c r="C211" s="2">
-        <v>7003558361140</v>
+        <v>7009216365643</v>
       </c>
       <c r="D211" t="s">
-        <v>254</v>
+        <v>212</v>
       </c>
       <c r="E211" s="1">
-        <v>43284.481944444444</v>
+        <v>43283.75277777778</v>
       </c>
       <c r="F211" s="1"/>
     </row>
     <row r="212" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B212" t="s">
-        <v>255</v>
+        <v>213</v>
       </c>
       <c r="C212" s="2">
-        <v>7003118360900</v>
+        <v>7009215365667</v>
       </c>
       <c r="D212" t="s">
-        <v>256</v>
+        <v>214</v>
       </c>
       <c r="E212" s="1">
-        <v>43284.487500000003</v>
+        <v>43283.753472222219</v>
       </c>
       <c r="F212" s="1"/>
     </row>
     <row r="213" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B213" t="s">
-        <v>257</v>
+        <v>215</v>
       </c>
       <c r="C213" s="2">
-        <v>7002855360420</v>
+        <v>7009073365892</v>
       </c>
       <c r="D213" t="s">
-        <v>254</v>
+        <v>216</v>
       </c>
       <c r="E213" s="1">
-        <v>43284.509027777778</v>
+        <v>43283.759027777778</v>
       </c>
       <c r="F213" s="1"/>
     </row>
     <row r="214" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B214" t="s">
-        <v>258</v>
+        <v>217</v>
       </c>
       <c r="C214" s="2">
-        <v>7002885360403</v>
+        <v>7008870366106</v>
       </c>
       <c r="D214" t="s">
-        <v>259</v>
+        <v>218</v>
       </c>
       <c r="E214" s="1">
-        <v>43284.511111111111</v>
+        <v>43283.765277777777</v>
       </c>
       <c r="F214" s="1"/>
     </row>
     <row r="215" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B215" t="s">
-        <v>260</v>
+        <v>219</v>
       </c>
       <c r="C215" s="2">
-        <v>7003077360282</v>
+        <v>7008555366617</v>
       </c>
       <c r="D215" t="s">
-        <v>261</v>
+        <v>220</v>
       </c>
       <c r="E215" s="1">
-        <v>43284.51458333333</v>
+        <v>43283.776388888888</v>
       </c>
       <c r="F215" s="1"/>
     </row>
     <row r="216" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B216" t="s">
-        <v>262</v>
+        <v>221</v>
       </c>
       <c r="C216" s="2">
-        <v>7004668359365</v>
+        <v>7008548366629</v>
       </c>
       <c r="D216" t="s">
-        <v>263</v>
+        <v>40</v>
       </c>
       <c r="E216" s="1">
-        <v>43284.538194444445</v>
+        <v>43283.777777777781</v>
       </c>
       <c r="F216" s="1"/>
     </row>
     <row r="217" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B217" t="s">
-        <v>264</v>
+        <v>222</v>
       </c>
       <c r="C217" s="2">
-        <v>7004947359182</v>
+        <v>7008546366650</v>
       </c>
       <c r="D217" t="s">
-        <v>265</v>
+        <v>36</v>
       </c>
       <c r="E217" s="1">
-        <v>43284.543055555558</v>
+        <v>43283.779166666667</v>
       </c>
       <c r="F217" s="1"/>
     </row>
     <row r="218" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B218" t="s">
-        <v>266</v>
+        <v>223</v>
       </c>
       <c r="C218" s="2">
-        <v>7005389358896</v>
+        <v>7005699362925</v>
       </c>
       <c r="D218" t="s">
-        <v>131</v>
+        <v>224</v>
       </c>
       <c r="E218" s="1">
-        <v>43284.55</v>
+        <v>43284.404861111114</v>
       </c>
       <c r="F218" s="1"/>
     </row>
     <row r="219" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B219" t="s">
-        <v>267</v>
+        <v>225</v>
       </c>
       <c r="C219" s="2">
-        <v>7005467358844</v>
+        <v>7003859361323</v>
       </c>
       <c r="D219" t="s">
-        <v>131</v>
+        <v>226</v>
       </c>
       <c r="E219" s="1">
-        <v>43284.552083333336</v>
+        <v>43284.474305555559</v>
       </c>
       <c r="F219" s="1"/>
     </row>
     <row r="220" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B220" t="s">
-        <v>268</v>
+        <v>227</v>
       </c>
       <c r="C220" s="2">
-        <v>7005608358776</v>
+        <v>7003856361321</v>
       </c>
       <c r="D220" t="s">
-        <v>254</v>
+        <v>226</v>
       </c>
       <c r="E220" s="1">
-        <v>43284.554861111108</v>
+        <v>43284.476388888892</v>
       </c>
       <c r="F220" s="1"/>
     </row>
     <row r="221" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B221" t="s">
-        <v>269</v>
+        <v>228</v>
       </c>
       <c r="C221" s="2">
-        <v>7005953358605</v>
+        <v>7003558361140</v>
       </c>
       <c r="D221" t="s">
-        <v>270</v>
+        <v>229</v>
       </c>
       <c r="E221" s="1">
-        <v>43284.561111111114</v>
+        <v>43284.481944444444</v>
       </c>
       <c r="F221" s="1"/>
     </row>
     <row r="222" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B222" t="s">
-        <v>271</v>
+        <v>230</v>
       </c>
       <c r="C222" s="2">
-        <v>7005947359962</v>
+        <v>7003118360900</v>
       </c>
       <c r="D222" t="s">
-        <v>44</v>
+        <v>231</v>
       </c>
       <c r="E222" s="1">
-        <v>43284.581250000003</v>
+        <v>43284.487500000003</v>
       </c>
       <c r="F222" s="1"/>
     </row>
     <row r="223" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B223" t="s">
-        <v>272</v>
+        <v>232</v>
       </c>
       <c r="C223" s="2">
-        <v>7005968360361</v>
+        <v>7002855360420</v>
       </c>
       <c r="D223" t="s">
-        <v>44</v>
+        <v>229</v>
       </c>
       <c r="E223" s="1">
-        <v>43284.585416666669</v>
+        <v>43284.509027777778</v>
       </c>
       <c r="F223" s="1"/>
     </row>
     <row r="224" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B224" t="s">
-        <v>273</v>
+        <v>233</v>
       </c>
       <c r="C224" s="2">
-        <v>7005953361950</v>
+        <v>7002885360403</v>
       </c>
       <c r="D224" t="s">
-        <v>220</v>
+        <v>234</v>
       </c>
       <c r="E224" s="1">
-        <v>43284.602777777778</v>
+        <v>43284.511111111111</v>
       </c>
       <c r="F224" s="1"/>
     </row>
     <row r="225" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B225" t="s">
-        <v>274</v>
+        <v>235</v>
       </c>
       <c r="C225" s="2">
-        <v>7004327359068</v>
+        <v>7003077360282</v>
       </c>
       <c r="D225" t="s">
-        <v>275</v>
+        <v>236</v>
       </c>
       <c r="E225" s="1">
-        <v>43285.468055555553</v>
+        <v>43284.51458333333</v>
       </c>
       <c r="F225" s="1"/>
     </row>
     <row r="226" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B226" t="s">
-        <v>276</v>
+        <v>237</v>
       </c>
       <c r="C226" s="2">
-        <v>7004323359062</v>
+        <v>7004668359365</v>
       </c>
       <c r="D226" t="s">
-        <v>277</v>
+        <v>238</v>
       </c>
       <c r="E226" s="1">
-        <v>43285.469444444447</v>
+        <v>43284.538194444445</v>
       </c>
       <c r="F226" s="1"/>
     </row>
     <row r="227" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B227" t="s">
-        <v>278</v>
+        <v>239</v>
       </c>
       <c r="C227" s="2">
-        <v>7004287358905</v>
+        <v>7004947359182</v>
       </c>
       <c r="D227" t="s">
-        <v>279</v>
+        <v>240</v>
       </c>
       <c r="E227" s="1">
-        <v>43285.472916666666</v>
+        <v>43284.543055555558</v>
       </c>
       <c r="F227" s="1"/>
     </row>
     <row r="228" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B228" t="s">
-        <v>280</v>
+        <v>241</v>
       </c>
       <c r="C228" s="2">
-        <v>7004221358773</v>
+        <v>7005389358896</v>
       </c>
       <c r="D228" t="s">
-        <v>281</v>
+        <v>106</v>
       </c>
       <c r="E228" s="1">
-        <v>43285.479861111111</v>
+        <v>43284.55</v>
       </c>
       <c r="F228" s="1"/>
     </row>
     <row r="229" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B229" t="s">
-        <v>282</v>
+        <v>242</v>
       </c>
       <c r="C229" s="2">
-        <v>7003851357814</v>
+        <v>7005467358844</v>
       </c>
       <c r="D229" t="s">
-        <v>283</v>
+        <v>106</v>
       </c>
       <c r="E229" s="1">
-        <v>43285.495833333334</v>
+        <v>43284.552083333336</v>
       </c>
       <c r="F229" s="1"/>
     </row>
     <row r="230" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B230" t="s">
-        <v>284</v>
+        <v>243</v>
       </c>
       <c r="C230" s="2">
-        <v>7003591357126</v>
+        <v>7005608358776</v>
       </c>
       <c r="D230" t="s">
-        <v>285</v>
+        <v>229</v>
       </c>
       <c r="E230" s="1">
-        <v>43285.505555555559</v>
+        <v>43284.554861111108</v>
       </c>
       <c r="F230" s="1"/>
     </row>
     <row r="231" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B231" t="s">
-        <v>286</v>
+        <v>244</v>
       </c>
       <c r="C231" s="2">
-        <v>7003588357121</v>
+        <v>7005953358605</v>
       </c>
       <c r="D231" t="s">
-        <v>287</v>
+        <v>245</v>
       </c>
       <c r="E231" s="1">
-        <v>43285.507638888892</v>
+        <v>43284.561111111114</v>
       </c>
       <c r="F231" s="1"/>
     </row>
     <row r="232" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B232" t="s">
-        <v>288</v>
+        <v>246</v>
       </c>
       <c r="C232" s="2">
-        <v>7003563357072</v>
+        <v>7005947359962</v>
       </c>
       <c r="D232" t="s">
-        <v>289</v>
+        <v>43</v>
       </c>
       <c r="E232" s="1">
-        <v>43285.509722222225</v>
+        <v>43284.581250000003</v>
       </c>
       <c r="F232" s="1"/>
     </row>
     <row r="233" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B233" t="s">
-        <v>290</v>
+        <v>247</v>
       </c>
       <c r="C233" s="2">
-        <v>7003167356300</v>
+        <v>7005968360361</v>
       </c>
       <c r="D233" t="s">
-        <v>291</v>
+        <v>43</v>
       </c>
       <c r="E233" s="1">
-        <v>43285.520138888889</v>
+        <v>43284.585416666669</v>
       </c>
       <c r="F233" s="1"/>
     </row>
     <row r="234" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B234" t="s">
-        <v>292</v>
+        <v>248</v>
       </c>
       <c r="C234" s="2">
-        <v>7003070356094</v>
+        <v>7005953361950</v>
       </c>
       <c r="D234" t="s">
-        <v>293</v>
+        <v>195</v>
       </c>
       <c r="E234" s="1">
-        <v>43285.525000000001</v>
+        <v>43284.602777777778</v>
       </c>
       <c r="F234" s="1"/>
     </row>
     <row r="235" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B235" t="s">
-        <v>294</v>
+        <v>249</v>
       </c>
       <c r="C235" s="2">
-        <v>7002942355831</v>
+        <v>7004327359068</v>
       </c>
       <c r="D235" t="s">
-        <v>295</v>
+        <v>250</v>
       </c>
       <c r="E235" s="1">
-        <v>43285.529166666667</v>
-      </c>
+        <v>43285.468055555553</v>
+      </c>
+      <c r="F235" s="1"/>
     </row>
     <row r="236" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B236" t="s">
-        <v>296</v>
+        <v>251</v>
       </c>
       <c r="C236" s="2">
-        <v>7002927355804</v>
+        <v>7004323359062</v>
       </c>
       <c r="D236" t="s">
-        <v>297</v>
+        <v>252</v>
       </c>
       <c r="E236" s="1">
-        <v>43285.530555555553</v>
+        <v>43285.469444444447</v>
       </c>
       <c r="F236" s="1"/>
     </row>
     <row r="237" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B237" t="s">
-        <v>298</v>
+        <v>253</v>
       </c>
       <c r="C237" s="2">
-        <v>7003815355805</v>
+        <v>7004287358905</v>
       </c>
       <c r="D237" t="s">
-        <v>299</v>
+        <v>254</v>
       </c>
       <c r="E237" s="1">
-        <v>43285.582638888889</v>
-      </c>
+        <v>43285.472916666666</v>
+      </c>
+      <c r="F237" s="1"/>
     </row>
     <row r="238" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B238" t="s">
-        <v>300</v>
+        <v>255</v>
       </c>
       <c r="C238" s="2">
-        <v>7003868355815</v>
+        <v>7004221358773</v>
       </c>
       <c r="D238" t="s">
-        <v>301</v>
+        <v>256</v>
       </c>
       <c r="E238" s="1">
-        <v>43285.584027777775</v>
-      </c>
+        <v>43285.479861111111</v>
+      </c>
+      <c r="F238" s="1"/>
     </row>
     <row r="239" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B239" t="s">
-        <v>302</v>
+        <v>257</v>
       </c>
       <c r="C239" s="2">
-        <v>7004676355956</v>
+        <v>7003851357814</v>
       </c>
       <c r="D239" t="s">
-        <v>303</v>
+        <v>258</v>
       </c>
       <c r="E239" s="1">
-        <v>43285.595138888886</v>
-      </c>
+        <v>43285.495833333334</v>
+      </c>
+      <c r="F239" s="1"/>
     </row>
     <row r="240" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B240" t="s">
-        <v>304</v>
+        <v>259</v>
       </c>
       <c r="C240" s="2">
+        <v>7003591357126</v>
+      </c>
+      <c r="D240" t="s">
+        <v>260</v>
+      </c>
+      <c r="E240" s="1">
+        <v>43285.505555555559</v>
+      </c>
+    </row>
+    <row r="241" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B241" t="s">
+        <v>261</v>
+      </c>
+      <c r="C241" s="2">
+        <v>7003588357121</v>
+      </c>
+      <c r="D241" t="s">
+        <v>262</v>
+      </c>
+      <c r="E241" s="1">
+        <v>43285.507638888892</v>
+      </c>
+      <c r="F241" s="1"/>
+    </row>
+    <row r="242" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B242" t="s">
+        <v>263</v>
+      </c>
+      <c r="C242" s="2">
+        <v>7003563357072</v>
+      </c>
+      <c r="D242" t="s">
+        <v>264</v>
+      </c>
+      <c r="E242" s="1">
+        <v>43285.509722222225</v>
+      </c>
+    </row>
+    <row r="243" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B243" t="s">
+        <v>265</v>
+      </c>
+      <c r="C243" s="2">
+        <v>7003167356300</v>
+      </c>
+      <c r="D243" t="s">
+        <v>266</v>
+      </c>
+      <c r="E243" s="1">
+        <v>43285.520138888889</v>
+      </c>
+    </row>
+    <row r="244" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B244" t="s">
+        <v>267</v>
+      </c>
+      <c r="C244" s="2">
+        <v>7003070356094</v>
+      </c>
+      <c r="D244" t="s">
+        <v>268</v>
+      </c>
+      <c r="E244" s="1">
+        <v>43285.525000000001</v>
+      </c>
+    </row>
+    <row r="245" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B245" t="s">
+        <v>269</v>
+      </c>
+      <c r="C245" s="2">
+        <v>7002942355831</v>
+      </c>
+      <c r="D245" t="s">
+        <v>270</v>
+      </c>
+      <c r="E245" s="1">
+        <v>43285.529166666667</v>
+      </c>
+    </row>
+    <row r="246" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B246" t="s">
+        <v>271</v>
+      </c>
+      <c r="C246" s="2">
+        <v>7002927355804</v>
+      </c>
+      <c r="D246" t="s">
+        <v>272</v>
+      </c>
+      <c r="E246" s="1">
+        <v>43285.530555555553</v>
+      </c>
+    </row>
+    <row r="247" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B247" t="s">
+        <v>273</v>
+      </c>
+      <c r="C247" s="2">
+        <v>7003815355805</v>
+      </c>
+      <c r="D247" t="s">
+        <v>274</v>
+      </c>
+      <c r="E247" s="1">
+        <v>43285.582638888889</v>
+      </c>
+    </row>
+    <row r="248" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B248" t="s">
+        <v>275</v>
+      </c>
+      <c r="C248" s="2">
+        <v>7003868355815</v>
+      </c>
+      <c r="D248" t="s">
+        <v>276</v>
+      </c>
+      <c r="E248" s="1">
+        <v>43285.584027777775</v>
+      </c>
+    </row>
+    <row r="249" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B249" t="s">
+        <v>277</v>
+      </c>
+      <c r="C249" s="2">
+        <v>7004676355956</v>
+      </c>
+      <c r="D249" t="s">
+        <v>278</v>
+      </c>
+      <c r="E249" s="1">
+        <v>43285.595138888886</v>
+      </c>
+    </row>
+    <row r="250" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B250" t="s">
+        <v>279</v>
+      </c>
+      <c r="C250" s="2">
         <v>7005109356038</v>
       </c>
-      <c r="D240" t="s">
-        <v>305</v>
-      </c>
-      <c r="E240" s="1">
+      <c r="D250" t="s">
+        <v>280</v>
+      </c>
+      <c r="E250" s="1">
         <v>43285.602083333331</v>
       </c>
     </row>
-    <row r="241" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B241" t="s">
-        <v>306</v>
-      </c>
-      <c r="C241" s="2">
+    <row r="251" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B251" t="s">
+        <v>281</v>
+      </c>
+      <c r="C251" s="2">
         <v>7005919356186</v>
       </c>
-      <c r="D241" t="s">
-        <v>307</v>
-      </c>
-      <c r="E241" s="1">
+      <c r="D251" t="s">
+        <v>282</v>
+      </c>
+      <c r="E251" s="1">
         <v>43285.617361111108</v>
       </c>
     </row>
-    <row r="242" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B242" t="s">
-        <v>308</v>
-      </c>
-      <c r="C242" s="2">
+    <row r="252" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B252" t="s">
+        <v>283</v>
+      </c>
+      <c r="C252" s="2">
         <v>7006690356269</v>
       </c>
-      <c r="D242" t="s">
-        <v>309</v>
-      </c>
-      <c r="E242" s="1">
+      <c r="D252" t="s">
+        <v>284</v>
+      </c>
+      <c r="E252" s="1">
         <v>43285.634722222225</v>
       </c>
     </row>
-    <row r="243" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B243" t="s">
-        <v>310</v>
-      </c>
-      <c r="C243" s="2">
+    <row r="253" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B253" t="s">
+        <v>285</v>
+      </c>
+      <c r="C253" s="2">
         <v>7006735356287</v>
       </c>
-      <c r="D243" t="s">
-        <v>311</v>
-      </c>
-      <c r="E243" s="1">
+      <c r="D253" t="s">
+        <v>286</v>
+      </c>
+      <c r="E253" s="1">
         <v>43285.638194444444</v>
       </c>
     </row>
-    <row r="244" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B244" t="s">
-        <v>312</v>
-      </c>
-      <c r="C244" s="2">
+    <row r="254" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B254" t="s">
+        <v>287</v>
+      </c>
+      <c r="C254" s="2">
         <v>7006631356457</v>
       </c>
-      <c r="D244" t="s">
-        <v>313</v>
-      </c>
-      <c r="E244" s="1">
+      <c r="D254" t="s">
+        <v>288</v>
+      </c>
+      <c r="E254" s="1">
         <v>43285.645833333336</v>
       </c>
     </row>
-    <row r="245" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B245" t="s">
-        <v>314</v>
-      </c>
-      <c r="C245" s="2">
+    <row r="255" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B255" t="s">
+        <v>289</v>
+      </c>
+      <c r="C255" s="2">
         <v>7006501356636</v>
       </c>
-      <c r="D245" t="s">
-        <v>315</v>
-      </c>
-      <c r="E245" s="1">
+      <c r="D255" t="s">
+        <v>290</v>
+      </c>
+      <c r="E255" s="1">
         <v>43285.649305555555</v>
       </c>
     </row>
-    <row r="246" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B246" t="s">
-        <v>316</v>
-      </c>
-      <c r="C246" s="2">
+    <row r="256" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B256" t="s">
+        <v>291</v>
+      </c>
+      <c r="C256" s="2">
         <v>7005394357987</v>
       </c>
-      <c r="D246" t="s">
-        <v>270</v>
-      </c>
-      <c r="E246" s="1">
+      <c r="D256" t="s">
+        <v>245</v>
+      </c>
+      <c r="E256" s="1">
         <v>43285.668749999997</v>
       </c>
     </row>
-    <row r="247" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B247" t="s">
-        <v>317</v>
-      </c>
-      <c r="C247" s="2">
+    <row r="257" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B257" t="s">
+        <v>292</v>
+      </c>
+      <c r="C257" s="2">
         <v>7004438359158</v>
       </c>
-      <c r="D247" t="s">
-        <v>318</v>
-      </c>
-      <c r="E247" s="1">
+      <c r="D257" t="s">
+        <v>293</v>
+      </c>
+      <c r="E257" s="1">
         <v>43285.722916666666</v>
       </c>
     </row>
-    <row r="248" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A248" t="s">
-        <v>319</v>
-      </c>
-      <c r="B248" t="s">
-        <v>319</v>
-      </c>
-      <c r="C248" t="s">
-        <v>319</v>
-      </c>
-      <c r="D248" t="s">
-        <v>319</v>
-      </c>
-      <c r="E248" t="s">
-        <v>319</v>
+    <row r="258" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A258" t="s">
+        <v>294</v>
+      </c>
+      <c r="B258" t="s">
+        <v>294</v>
+      </c>
+      <c r="C258" t="s">
+        <v>294</v>
+      </c>
+      <c r="D258" t="s">
+        <v>294</v>
+      </c>
+      <c r="E258" t="s">
+        <v>294</v>
       </c>
     </row>
   </sheetData>

--- a/Rawdata/tor.riptransekter helags sommar 2018.xlsx
+++ b/Rawdata/tor.riptransekter helags sommar 2018.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1660" yWindow="460" windowWidth="25440" windowHeight="14140" xr2:uid="{6F562989-0C69-724E-8921-452EAD0C9874}"/>
+    <workbookView xWindow="940" yWindow="2420" windowWidth="25440" windowHeight="14140" xr2:uid="{6F562989-0C69-724E-8921-452EAD0C9874}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="983" uniqueCount="384">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1058" uniqueCount="380">
   <si>
     <t>lya</t>
   </si>
@@ -278,66 +278,27 @@
     <t>981 m</t>
   </si>
   <si>
-    <t>FJALLABB4</t>
-  </si>
-  <si>
     <t>947 m</t>
   </si>
   <si>
-    <t>F131</t>
-  </si>
-  <si>
     <t>959 m</t>
   </si>
   <si>
-    <t>RS1151</t>
-  </si>
-  <si>
-    <t>RS242</t>
-  </si>
-  <si>
-    <t>RS342</t>
-  </si>
-  <si>
-    <t>RS441</t>
-  </si>
-  <si>
     <t>983 m</t>
   </si>
   <si>
-    <t>RS541</t>
-  </si>
-  <si>
     <t>928 m</t>
   </si>
   <si>
-    <t>FJALLABB11</t>
-  </si>
-  <si>
     <t>923 m</t>
   </si>
   <si>
-    <t>RS641</t>
-  </si>
-  <si>
-    <t>FJALLABB21</t>
-  </si>
-  <si>
     <t>1005 m</t>
   </si>
   <si>
-    <t>RS741</t>
-  </si>
-  <si>
     <t>937 m</t>
   </si>
   <si>
-    <t>TALT</t>
-  </si>
-  <si>
-    <t>1037 m</t>
-  </si>
-  <si>
     <t>RS1161</t>
   </si>
   <si>
@@ -1176,6 +1137,33 @@
   </si>
   <si>
     <t>LÄMMELBO</t>
+  </si>
+  <si>
+    <t>SLUT</t>
+  </si>
+  <si>
+    <t>zz062</t>
+  </si>
+  <si>
+    <t>STARTZZ062</t>
+  </si>
+  <si>
+    <t>935 m</t>
+  </si>
+  <si>
+    <t>soligt, varmt, vindstilla, 15°C</t>
+  </si>
+  <si>
+    <t>låg på marken</t>
+  </si>
+  <si>
+    <t>909 m</t>
+  </si>
+  <si>
+    <t>stora ljusa, stora fibrer</t>
+  </si>
+  <si>
+    <t>ljusa, tjocka oformliga</t>
   </si>
 </sst>
 </file>
@@ -1530,11 +1518,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7481D24-4BBD-9743-96A3-63B52605E732}">
-  <dimension ref="A1:O258"/>
+  <dimension ref="A1:O265"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A118" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G128" sqref="G128"/>
+      <pane ySplit="1" topLeftCell="A123" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G143" sqref="G143"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1569,7 +1557,7 @@
         <v>7</v>
       </c>
       <c r="I1" t="s">
-        <v>382</v>
+        <v>369</v>
       </c>
       <c r="J1" t="s">
         <v>8</v>
@@ -1592,33 +1580,33 @@
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>295</v>
+        <v>282</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>296</v>
+        <v>283</v>
       </c>
       <c r="C2" s="2">
         <v>6976680377753</v>
       </c>
       <c r="D2" t="s">
-        <v>297</v>
+        <v>284</v>
       </c>
       <c r="E2" s="1">
         <v>43271.520833333336</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>299</v>
+        <v>286</v>
       </c>
       <c r="N2" t="s">
-        <v>322</v>
+        <v>309</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>295</v>
+        <v>282</v>
       </c>
       <c r="B3" t="s">
-        <v>300</v>
+        <v>287</v>
       </c>
       <c r="C3" s="2">
         <v>6976296377160</v>
@@ -1630,7 +1618,7 @@
         <v>43271.53125</v>
       </c>
       <c r="F3" t="s">
-        <v>301</v>
+        <v>288</v>
       </c>
       <c r="G3">
         <v>2.42</v>
@@ -1645,18 +1633,18 @@
         <v>2</v>
       </c>
       <c r="M3" t="s">
-        <v>321</v>
+        <v>308</v>
       </c>
       <c r="N3" t="s">
-        <v>322</v>
+        <v>309</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>295</v>
+        <v>282</v>
       </c>
       <c r="B4" t="s">
-        <v>302</v>
+        <v>289</v>
       </c>
       <c r="C4" s="2">
         <v>6976013376681</v>
@@ -1668,7 +1656,7 @@
         <v>43271.539583333331</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>301</v>
+        <v>288</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -1683,18 +1671,18 @@
         <v>17</v>
       </c>
       <c r="M4" t="s">
-        <v>323</v>
+        <v>310</v>
       </c>
       <c r="N4" t="s">
-        <v>322</v>
+        <v>309</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>295</v>
+        <v>282</v>
       </c>
       <c r="B5" t="s">
-        <v>303</v>
+        <v>290</v>
       </c>
       <c r="C5" s="2">
         <v>6975623376165</v>
@@ -1706,7 +1694,7 @@
         <v>43271.549305555556</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>301</v>
+        <v>288</v>
       </c>
       <c r="G5">
         <v>0.89</v>
@@ -1721,18 +1709,18 @@
         <v>3</v>
       </c>
       <c r="M5" t="s">
-        <v>323</v>
+        <v>310</v>
       </c>
       <c r="N5" t="s">
-        <v>322</v>
+        <v>309</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>295</v>
+        <v>282</v>
       </c>
       <c r="B6" t="s">
-        <v>304</v>
+        <v>291</v>
       </c>
       <c r="C6" s="2">
         <v>6975398375851</v>
@@ -1744,7 +1732,7 @@
         <v>43271.554861111108</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>301</v>
+        <v>288</v>
       </c>
       <c r="G6">
         <v>2.5299999999999998</v>
@@ -1759,18 +1747,18 @@
         <v>21</v>
       </c>
       <c r="M6" t="s">
-        <v>324</v>
+        <v>311</v>
       </c>
       <c r="N6" t="s">
-        <v>322</v>
+        <v>309</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>295</v>
+        <v>282</v>
       </c>
       <c r="B7" t="s">
-        <v>305</v>
+        <v>292</v>
       </c>
       <c r="C7" s="2">
         <v>6975378375815</v>
@@ -1782,7 +1770,7 @@
         <v>43271.556944444441</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>301</v>
+        <v>288</v>
       </c>
       <c r="G7">
         <v>0.02</v>
@@ -1797,18 +1785,18 @@
         <v>32</v>
       </c>
       <c r="M7" t="s">
-        <v>325</v>
+        <v>312</v>
       </c>
       <c r="N7" t="s">
-        <v>322</v>
+        <v>309</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>295</v>
+        <v>282</v>
       </c>
       <c r="B8" t="s">
-        <v>306</v>
+        <v>293</v>
       </c>
       <c r="C8" s="2">
         <v>6975015375406</v>
@@ -1820,7 +1808,7 @@
         <v>43271.563888888886</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>301</v>
+        <v>288</v>
       </c>
       <c r="G8">
         <v>0.35</v>
@@ -1832,44 +1820,44 @@
         <v>2</v>
       </c>
       <c r="L8" t="s">
-        <v>326</v>
+        <v>313</v>
       </c>
       <c r="M8" t="s">
-        <v>327</v>
+        <v>314</v>
       </c>
       <c r="N8" t="s">
-        <v>322</v>
+        <v>309</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>295</v>
+        <v>282</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>307</v>
+        <v>294</v>
       </c>
       <c r="C9" s="2">
         <v>6974207374604</v>
       </c>
       <c r="D9" t="s">
-        <v>308</v>
+        <v>295</v>
       </c>
       <c r="E9" s="1">
         <v>43271.579861111109</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>298</v>
+        <v>285</v>
       </c>
       <c r="N9" t="s">
-        <v>322</v>
+        <v>309</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>295</v>
+        <v>282</v>
       </c>
       <c r="B10" t="s">
-        <v>309</v>
+        <v>296</v>
       </c>
       <c r="C10" s="2">
         <v>6977240373959</v>
@@ -1881,18 +1869,18 @@
         <v>43271.618055555555</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>310</v>
+        <v>297</v>
       </c>
       <c r="N10" t="s">
-        <v>322</v>
+        <v>309</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>295</v>
+        <v>282</v>
       </c>
       <c r="B11" t="s">
-        <v>311</v>
+        <v>298</v>
       </c>
       <c r="C11" s="2">
         <v>6977315373891</v>
@@ -1904,7 +1892,7 @@
         <v>43271.619444444441</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>301</v>
+        <v>288</v>
       </c>
       <c r="G11">
         <v>0.43</v>
@@ -1919,18 +1907,18 @@
         <v>1</v>
       </c>
       <c r="M11" t="s">
-        <v>328</v>
+        <v>315</v>
       </c>
       <c r="N11" t="s">
-        <v>322</v>
+        <v>309</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>295</v>
+        <v>282</v>
       </c>
       <c r="B12" t="s">
-        <v>309</v>
+        <v>296</v>
       </c>
       <c r="C12" s="2">
         <v>6977394373829</v>
@@ -1942,18 +1930,18 @@
         <v>43271.62222222222</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>310</v>
+        <v>297</v>
       </c>
       <c r="N12" t="s">
-        <v>322</v>
+        <v>309</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>295</v>
+        <v>282</v>
       </c>
       <c r="B13" t="s">
-        <v>312</v>
+        <v>299</v>
       </c>
       <c r="C13" s="2">
         <v>6977624373925</v>
@@ -1965,7 +1953,7 @@
         <v>43271.625694444447</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>301</v>
+        <v>288</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -1980,18 +1968,18 @@
         <v>2</v>
       </c>
       <c r="M13" t="s">
-        <v>329</v>
+        <v>316</v>
       </c>
       <c r="N13" t="s">
-        <v>322</v>
+        <v>309</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>295</v>
+        <v>282</v>
       </c>
       <c r="B14" t="s">
-        <v>309</v>
+        <v>296</v>
       </c>
       <c r="C14" s="2">
         <v>6977758373979</v>
@@ -2003,18 +1991,18 @@
         <v>43271.628472222219</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>310</v>
+        <v>297</v>
       </c>
       <c r="N14" t="s">
-        <v>322</v>
+        <v>309</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>295</v>
+        <v>282</v>
       </c>
       <c r="B15" t="s">
-        <v>313</v>
+        <v>300</v>
       </c>
       <c r="C15" s="2">
         <v>6977791373973</v>
@@ -2026,7 +2014,7 @@
         <v>43271.629861111112</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>301</v>
+        <v>288</v>
       </c>
       <c r="G15">
         <v>0.39</v>
@@ -2041,18 +2029,18 @@
         <v>27</v>
       </c>
       <c r="M15" t="s">
-        <v>330</v>
+        <v>317</v>
       </c>
       <c r="N15" t="s">
-        <v>322</v>
+        <v>309</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>295</v>
+        <v>282</v>
       </c>
       <c r="B16" t="s">
-        <v>314</v>
+        <v>301</v>
       </c>
       <c r="C16" s="2">
         <v>6977844373969</v>
@@ -2064,7 +2052,7 @@
         <v>43271.631944444445</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>301</v>
+        <v>288</v>
       </c>
       <c r="G16">
         <v>0</v>
@@ -2079,18 +2067,18 @@
         <v>1</v>
       </c>
       <c r="M16" t="s">
-        <v>331</v>
+        <v>318</v>
       </c>
       <c r="N16" t="s">
-        <v>322</v>
+        <v>309</v>
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>295</v>
+        <v>282</v>
       </c>
       <c r="B17" t="s">
-        <v>315</v>
+        <v>302</v>
       </c>
       <c r="C17" s="2">
         <v>6978044373945</v>
@@ -2102,7 +2090,7 @@
         <v>43271.634722222225</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>301</v>
+        <v>288</v>
       </c>
       <c r="G17">
         <v>0.1</v>
@@ -2117,41 +2105,41 @@
         <v>1</v>
       </c>
       <c r="M17" t="s">
-        <v>329</v>
+        <v>316</v>
       </c>
       <c r="N17" t="s">
-        <v>322</v>
+        <v>309</v>
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>295</v>
+        <v>282</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>316</v>
+        <v>303</v>
       </c>
       <c r="C18" s="2">
         <v>6978155373957</v>
       </c>
       <c r="D18" t="s">
-        <v>317</v>
+        <v>304</v>
       </c>
       <c r="E18" s="1">
         <v>43271.637499999997</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>298</v>
+        <v>285</v>
       </c>
       <c r="N18" t="s">
-        <v>322</v>
+        <v>309</v>
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>295</v>
+        <v>282</v>
       </c>
       <c r="B19" t="s">
-        <v>318</v>
+        <v>305</v>
       </c>
       <c r="C19" s="2">
         <v>6977403375505</v>
@@ -2163,7 +2151,7 @@
         <v>43271.656944444447</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>301</v>
+        <v>288</v>
       </c>
       <c r="G19">
         <v>0.59</v>
@@ -2175,21 +2163,21 @@
         <v>2</v>
       </c>
       <c r="L19" t="s">
-        <v>332</v>
+        <v>319</v>
       </c>
       <c r="M19" t="s">
-        <v>333</v>
+        <v>320</v>
       </c>
       <c r="N19" t="s">
-        <v>322</v>
+        <v>309</v>
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>295</v>
+        <v>282</v>
       </c>
       <c r="B20" t="s">
-        <v>319</v>
+        <v>306</v>
       </c>
       <c r="C20" s="2">
         <v>6977221375845</v>
@@ -2201,7 +2189,7 @@
         <v>43271.662499999999</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>301</v>
+        <v>288</v>
       </c>
       <c r="G20">
         <v>0</v>
@@ -2216,18 +2204,18 @@
         <v>28</v>
       </c>
       <c r="M20" t="s">
-        <v>334</v>
+        <v>321</v>
       </c>
       <c r="N20" t="s">
-        <v>322</v>
+        <v>309</v>
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>295</v>
+        <v>282</v>
       </c>
       <c r="B21" t="s">
-        <v>320</v>
+        <v>307</v>
       </c>
       <c r="C21" s="2">
         <v>6976904376798</v>
@@ -2239,7 +2227,7 @@
         <v>43271.713888888888</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>301</v>
+        <v>288</v>
       </c>
       <c r="G21">
         <v>0.62</v>
@@ -2254,251 +2242,233 @@
         <v>2</v>
       </c>
       <c r="M21" t="s">
-        <v>335</v>
+        <v>322</v>
       </c>
       <c r="N21" t="s">
-        <v>322</v>
+        <v>309</v>
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="F22" s="1"/>
-    </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
-        <v>336</v>
-      </c>
-      <c r="B23" t="s">
-        <v>337</v>
-      </c>
-      <c r="C23" s="2">
-        <v>6973557372594</v>
-      </c>
-      <c r="D23" t="s">
-        <v>35</v>
-      </c>
-      <c r="E23" s="1">
-        <v>43272.509722222225</v>
-      </c>
-      <c r="F23" t="s">
-        <v>299</v>
-      </c>
-      <c r="N23" t="s">
-        <v>343</v>
+      <c r="A22" t="s">
+        <v>282</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>283</v>
+      </c>
+      <c r="C22" s="2">
+        <v>6976680377753</v>
+      </c>
+      <c r="D22" t="s">
+        <v>284</v>
+      </c>
+      <c r="E22" s="1">
+        <v>43271.725694444445</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="N22" t="s">
+        <v>309</v>
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>336</v>
+        <v>323</v>
       </c>
       <c r="B24" t="s">
-        <v>300</v>
+        <v>324</v>
       </c>
       <c r="C24" s="2">
-        <v>6972945370967</v>
+        <v>6973557372594</v>
       </c>
       <c r="D24" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="E24" s="1">
-        <v>43272.530555555553</v>
-      </c>
-      <c r="F24" s="1" t="s">
-        <v>301</v>
-      </c>
-      <c r="G24">
-        <v>0.33</v>
-      </c>
-      <c r="H24">
-        <v>270</v>
-      </c>
-      <c r="K24">
-        <v>1</v>
-      </c>
-      <c r="L24">
-        <v>2</v>
-      </c>
-      <c r="M24" t="s">
-        <v>335</v>
+        <v>43272.509722222225</v>
+      </c>
+      <c r="F24" t="s">
+        <v>286</v>
       </c>
       <c r="N24" t="s">
-        <v>343</v>
+        <v>330</v>
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>336</v>
+        <v>323</v>
       </c>
       <c r="B25" t="s">
-        <v>30</v>
+        <v>287</v>
       </c>
       <c r="C25" s="2">
-        <v>6972870370730</v>
+        <v>6972945370967</v>
       </c>
       <c r="D25" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E25" s="1">
-        <v>43272.53402777778</v>
-      </c>
-      <c r="F25" t="s">
-        <v>338</v>
+        <v>43272.530555555553</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>288</v>
       </c>
       <c r="G25">
-        <v>8.5299999999999994</v>
+        <v>0.33</v>
       </c>
       <c r="H25">
-        <v>90</v>
+        <v>270</v>
+      </c>
+      <c r="K25">
+        <v>1</v>
       </c>
       <c r="L25">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="M25" t="s">
+        <v>322</v>
       </c>
       <c r="N25" t="s">
-        <v>343</v>
+        <v>330</v>
       </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>336</v>
+        <v>323</v>
       </c>
       <c r="B26" t="s">
-        <v>302</v>
+        <v>30</v>
       </c>
       <c r="C26" s="2">
-        <v>6972775370330</v>
+        <v>6972870370730</v>
       </c>
       <c r="D26" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E26" s="1">
-        <v>43272.539583333331</v>
-      </c>
-      <c r="F26" s="1" t="s">
-        <v>301</v>
+        <v>43272.53402777778</v>
+      </c>
+      <c r="F26" t="s">
+        <v>325</v>
       </c>
       <c r="G26">
-        <v>0.05</v>
+        <v>8.5299999999999994</v>
       </c>
       <c r="H26">
         <v>90</v>
       </c>
-      <c r="K26">
-        <v>1</v>
-      </c>
       <c r="L26">
-        <v>2</v>
-      </c>
-      <c r="M26" t="s">
-        <v>344</v>
+        <v>1</v>
       </c>
       <c r="N26" t="s">
-        <v>343</v>
+        <v>330</v>
       </c>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>336</v>
+        <v>323</v>
       </c>
       <c r="B27" t="s">
-        <v>296</v>
+        <v>289</v>
       </c>
       <c r="C27" s="2">
-        <v>6972275368795</v>
+        <v>6972775370330</v>
       </c>
       <c r="D27" t="s">
-        <v>339</v>
+        <v>32</v>
       </c>
       <c r="E27" s="1">
-        <v>43272.561111111114</v>
+        <v>43272.539583333331</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>298</v>
+        <v>288</v>
+      </c>
+      <c r="G27">
+        <v>0.05</v>
+      </c>
+      <c r="H27">
+        <v>90</v>
+      </c>
+      <c r="K27">
+        <v>1</v>
+      </c>
+      <c r="L27">
+        <v>2</v>
+      </c>
+      <c r="M27" t="s">
+        <v>331</v>
       </c>
       <c r="N27" t="s">
-        <v>343</v>
+        <v>330</v>
       </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>336</v>
+        <v>323</v>
       </c>
       <c r="B28" t="s">
-        <v>303</v>
+        <v>283</v>
       </c>
       <c r="C28" s="2">
-        <v>6972145368891</v>
+        <v>6972275368795</v>
       </c>
       <c r="D28" t="s">
-        <v>33</v>
+        <v>326</v>
       </c>
       <c r="E28" s="1">
-        <v>43272.564583333333</v>
+        <v>43272.561111111114</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>301</v>
-      </c>
-      <c r="G28">
-        <v>0</v>
-      </c>
-      <c r="H28">
-        <v>0</v>
-      </c>
-      <c r="K28">
-        <v>1</v>
-      </c>
-      <c r="L28">
-        <v>25</v>
-      </c>
-      <c r="M28" t="s">
-        <v>345</v>
+        <v>285</v>
       </c>
       <c r="N28" t="s">
-        <v>343</v>
+        <v>330</v>
       </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>336</v>
+        <v>323</v>
       </c>
       <c r="B29" t="s">
-        <v>304</v>
+        <v>290</v>
       </c>
       <c r="C29" s="2">
-        <v>6971716369396</v>
+        <v>6972145368891</v>
       </c>
       <c r="D29" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E29" s="1">
-        <v>43272.57708333333</v>
+        <v>43272.564583333333</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>301</v>
+        <v>288</v>
       </c>
       <c r="G29">
-        <v>0.18</v>
+        <v>0</v>
       </c>
       <c r="H29">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="K29">
         <v>1</v>
       </c>
       <c r="L29">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="M29" t="s">
-        <v>325</v>
+        <v>332</v>
       </c>
       <c r="N29" t="s">
-        <v>343</v>
+        <v>330</v>
       </c>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>336</v>
+        <v>323</v>
       </c>
       <c r="B30" t="s">
-        <v>304</v>
+        <v>291</v>
       </c>
       <c r="C30" s="2">
         <v>6971716369396</v>
@@ -2510,71 +2480,71 @@
         <v>43272.57708333333</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>301</v>
+        <v>288</v>
       </c>
       <c r="G30">
-        <v>0.36</v>
+        <v>0.18</v>
       </c>
       <c r="H30">
-        <v>270</v>
+        <v>90</v>
       </c>
       <c r="K30">
         <v>1</v>
       </c>
       <c r="L30">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="M30" t="s">
-        <v>325</v>
+        <v>312</v>
       </c>
       <c r="N30" t="s">
-        <v>343</v>
+        <v>330</v>
       </c>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>336</v>
+        <v>323</v>
       </c>
       <c r="B31" t="s">
-        <v>305</v>
+        <v>291</v>
       </c>
       <c r="C31" s="2">
-        <v>6971670369452</v>
+        <v>6971716369396</v>
       </c>
       <c r="D31" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E31" s="1">
-        <v>43272.579861111109</v>
+        <v>43272.57708333333</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>301</v>
+        <v>288</v>
       </c>
       <c r="G31">
-        <v>0.12</v>
+        <v>0.36</v>
       </c>
       <c r="H31">
-        <v>90</v>
+        <v>270</v>
       </c>
       <c r="K31">
         <v>1</v>
       </c>
       <c r="L31">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="M31" t="s">
-        <v>325</v>
+        <v>312</v>
       </c>
       <c r="N31" t="s">
-        <v>343</v>
+        <v>330</v>
       </c>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>336</v>
+        <v>323</v>
       </c>
       <c r="B32" t="s">
-        <v>305</v>
+        <v>292</v>
       </c>
       <c r="C32" s="2">
         <v>6971670369452</v>
@@ -2586,199 +2556,199 @@
         <v>43272.579861111109</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>301</v>
+        <v>288</v>
       </c>
       <c r="G32">
-        <v>0.03</v>
+        <v>0.12</v>
       </c>
       <c r="H32">
-        <v>270</v>
+        <v>90</v>
       </c>
       <c r="K32">
         <v>1</v>
       </c>
       <c r="L32">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="M32" t="s">
-        <v>325</v>
+        <v>312</v>
       </c>
       <c r="N32" t="s">
-        <v>343</v>
+        <v>330</v>
       </c>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>336</v>
+        <v>323</v>
       </c>
       <c r="B33" t="s">
-        <v>30</v>
+        <v>292</v>
       </c>
       <c r="C33" s="2">
-        <v>6971344369813</v>
+        <v>6971670369452</v>
       </c>
       <c r="D33" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E33" s="1">
-        <v>43272.59097222222</v>
+        <v>43272.579861111109</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>338</v>
+        <v>288</v>
       </c>
       <c r="G33">
-        <v>12</v>
+        <v>0.03</v>
       </c>
       <c r="H33">
-        <v>245</v>
+        <v>270</v>
+      </c>
+      <c r="K33">
+        <v>1</v>
       </c>
       <c r="L33">
-        <v>1</v>
+        <v>32</v>
+      </c>
+      <c r="M33" t="s">
+        <v>312</v>
       </c>
       <c r="N33" t="s">
-        <v>343</v>
+        <v>330</v>
       </c>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>336</v>
+        <v>323</v>
       </c>
       <c r="B34" t="s">
-        <v>309</v>
+        <v>30</v>
       </c>
       <c r="C34" s="2">
-        <v>6970950370375</v>
+        <v>6971344369813</v>
       </c>
       <c r="D34" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E34" s="1">
-        <v>43272.599305555559</v>
+        <v>43272.59097222222</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>310</v>
+        <v>325</v>
+      </c>
+      <c r="G34">
+        <v>12</v>
+      </c>
+      <c r="H34">
+        <v>245</v>
+      </c>
+      <c r="L34">
+        <v>1</v>
       </c>
       <c r="N34" t="s">
-        <v>343</v>
+        <v>330</v>
       </c>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>336</v>
+        <v>323</v>
       </c>
       <c r="B35" t="s">
-        <v>340</v>
+        <v>296</v>
       </c>
       <c r="C35" s="2">
-        <v>6971077370439</v>
+        <v>6970950370375</v>
       </c>
       <c r="D35" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E35" s="1">
-        <v>43272.602777777778</v>
+        <v>43272.599305555559</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>341</v>
-      </c>
-      <c r="G35">
-        <v>18.600000000000001</v>
-      </c>
-      <c r="H35">
-        <v>348</v>
-      </c>
-      <c r="I35" t="s">
-        <v>342</v>
-      </c>
-      <c r="L35">
-        <v>1</v>
+        <v>297</v>
       </c>
       <c r="N35" t="s">
-        <v>343</v>
+        <v>330</v>
       </c>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>336</v>
+        <v>323</v>
       </c>
       <c r="B36" t="s">
-        <v>309</v>
+        <v>327</v>
       </c>
       <c r="C36" s="2">
-        <v>6971115370459</v>
+        <v>6971077370439</v>
       </c>
       <c r="D36" t="s">
         <v>38</v>
       </c>
       <c r="E36" s="1">
-        <v>43272.604861111111</v>
+        <v>43272.602777777778</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>310</v>
+        <v>328</v>
+      </c>
+      <c r="G36">
+        <v>18.600000000000001</v>
+      </c>
+      <c r="H36">
+        <v>348</v>
+      </c>
+      <c r="I36" t="s">
+        <v>329</v>
+      </c>
+      <c r="L36">
+        <v>1</v>
       </c>
       <c r="N36" t="s">
-        <v>343</v>
+        <v>330</v>
       </c>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>336</v>
+        <v>323</v>
       </c>
       <c r="B37" t="s">
-        <v>306</v>
+        <v>296</v>
       </c>
       <c r="C37" s="2">
-        <v>6970732370812</v>
+        <v>6971115370459</v>
       </c>
       <c r="D37" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E37" s="1">
-        <v>43272.611111111109</v>
+        <v>43272.604861111111</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>301</v>
-      </c>
-      <c r="G37">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="H37">
-        <v>90</v>
-      </c>
-      <c r="K37">
-        <v>1</v>
-      </c>
-      <c r="L37">
-        <v>12</v>
-      </c>
-      <c r="M37" t="s">
-        <v>329</v>
+        <v>297</v>
       </c>
       <c r="N37" t="s">
-        <v>343</v>
+        <v>330</v>
       </c>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>336</v>
+        <v>323</v>
       </c>
       <c r="B38" t="s">
-        <v>311</v>
+        <v>293</v>
       </c>
       <c r="C38" s="2">
-        <v>6970232371242</v>
+        <v>6970732370812</v>
       </c>
       <c r="D38" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E38" s="1">
-        <v>43272.620138888888</v>
+        <v>43272.611111111109</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>301</v>
+        <v>288</v>
       </c>
       <c r="G38">
-        <v>0.03</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="H38">
         <v>90</v>
@@ -2787,152 +2757,152 @@
         <v>1</v>
       </c>
       <c r="L38">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="M38" t="s">
-        <v>328</v>
+        <v>316</v>
       </c>
       <c r="N38" t="s">
-        <v>343</v>
+        <v>330</v>
       </c>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>336</v>
+        <v>323</v>
       </c>
       <c r="B39" t="s">
-        <v>30</v>
+        <v>298</v>
       </c>
       <c r="C39" s="2">
-        <v>6970179371313</v>
+        <v>6970232371242</v>
       </c>
       <c r="D39" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="E39" s="1">
-        <v>43272.62222222222</v>
+        <v>43272.620138888888</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>338</v>
+        <v>288</v>
       </c>
       <c r="G39">
-        <v>89</v>
+        <v>0.03</v>
       </c>
       <c r="H39">
-        <v>84</v>
+        <v>90</v>
+      </c>
+      <c r="K39">
+        <v>1</v>
       </c>
       <c r="L39">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="M39" t="s">
+        <v>315</v>
       </c>
       <c r="N39" t="s">
-        <v>343</v>
+        <v>330</v>
       </c>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>336</v>
+        <v>323</v>
       </c>
       <c r="B40" t="s">
-        <v>307</v>
+        <v>30</v>
       </c>
       <c r="C40" s="2">
-        <v>6969791371950</v>
+        <v>6970179371313</v>
       </c>
       <c r="D40" t="s">
-        <v>51</v>
+        <v>36</v>
       </c>
       <c r="E40" s="1">
-        <v>43272.637499999997</v>
+        <v>43272.62222222222</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>298</v>
+        <v>325</v>
+      </c>
+      <c r="G40">
+        <v>89</v>
+      </c>
+      <c r="H40">
+        <v>84</v>
+      </c>
+      <c r="L40">
+        <v>2</v>
       </c>
       <c r="N40" t="s">
-        <v>343</v>
+        <v>330</v>
       </c>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>336</v>
+        <v>323</v>
       </c>
       <c r="B41" t="s">
-        <v>312</v>
+        <v>294</v>
       </c>
       <c r="C41" s="2">
-        <v>6970457371894</v>
+        <v>6969791371950</v>
       </c>
       <c r="D41" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="E41" s="1">
-        <v>43272.645833333336</v>
+        <v>43272.637499999997</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>301</v>
-      </c>
-      <c r="G41">
-        <v>0</v>
-      </c>
-      <c r="H41">
-        <v>0</v>
-      </c>
-      <c r="K41">
-        <v>1</v>
-      </c>
-      <c r="L41">
-        <v>16</v>
-      </c>
-      <c r="M41" t="s">
-        <v>346</v>
+        <v>285</v>
       </c>
       <c r="N41" t="s">
-        <v>343</v>
+        <v>330</v>
       </c>
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>336</v>
+        <v>323</v>
       </c>
       <c r="B42" t="s">
-        <v>313</v>
+        <v>299</v>
       </c>
       <c r="C42" s="2">
-        <v>6970401372178</v>
+        <v>6970457371894</v>
       </c>
       <c r="D42" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E42" s="1">
-        <v>43272.647916666669</v>
+        <v>43272.645833333336</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>301</v>
+        <v>288</v>
       </c>
       <c r="G42">
-        <v>0.48</v>
+        <v>0</v>
       </c>
       <c r="H42">
-        <v>270</v>
+        <v>0</v>
       </c>
       <c r="K42">
         <v>1</v>
       </c>
       <c r="L42">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="M42" t="s">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="N42" t="s">
-        <v>343</v>
+        <v>330</v>
       </c>
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>336</v>
+        <v>323</v>
       </c>
       <c r="B43" t="s">
-        <v>313</v>
+        <v>300</v>
       </c>
       <c r="C43" s="2">
         <v>6970401372178</v>
@@ -2944,10 +2914,10 @@
         <v>43272.647916666669</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>301</v>
+        <v>288</v>
       </c>
       <c r="G43">
-        <v>1.0900000000000001</v>
+        <v>0.48</v>
       </c>
       <c r="H43">
         <v>270</v>
@@ -2955,34 +2925,37 @@
       <c r="K43">
         <v>1</v>
       </c>
+      <c r="L43">
+        <v>3</v>
+      </c>
       <c r="M43" t="s">
-        <v>329</v>
+        <v>316</v>
       </c>
       <c r="N43" t="s">
-        <v>343</v>
+        <v>330</v>
       </c>
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>336</v>
+        <v>323</v>
       </c>
       <c r="B44" t="s">
-        <v>314</v>
+        <v>300</v>
       </c>
       <c r="C44" s="2">
-        <v>6972049372362</v>
+        <v>6970401372178</v>
       </c>
       <c r="D44" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="E44" s="1">
-        <v>43272.762499999997</v>
+        <v>43272.647916666669</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>301</v>
+        <v>288</v>
       </c>
       <c r="G44">
-        <v>0.39</v>
+        <v>1.0900000000000001</v>
       </c>
       <c r="H44">
         <v>270</v>
@@ -2990,60 +2963,57 @@
       <c r="K44">
         <v>1</v>
       </c>
-      <c r="L44">
-        <v>16</v>
-      </c>
       <c r="M44" t="s">
-        <v>347</v>
+        <v>316</v>
       </c>
       <c r="N44" t="s">
-        <v>343</v>
+        <v>330</v>
       </c>
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>336</v>
+        <v>323</v>
       </c>
       <c r="B45" t="s">
-        <v>315</v>
+        <v>301</v>
       </c>
       <c r="C45" s="2">
-        <v>6972064372366</v>
+        <v>6972049372362</v>
       </c>
       <c r="D45" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="E45" s="1">
-        <v>43272.763888888891</v>
+        <v>43272.762499999997</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>301</v>
+        <v>288</v>
       </c>
       <c r="G45">
-        <v>0.08</v>
+        <v>0.39</v>
       </c>
       <c r="H45">
-        <v>90</v>
+        <v>270</v>
       </c>
       <c r="K45">
         <v>1</v>
       </c>
       <c r="L45">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M45" t="s">
-        <v>347</v>
+        <v>334</v>
       </c>
       <c r="N45" t="s">
-        <v>343</v>
+        <v>330</v>
       </c>
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>336</v>
+        <v>323</v>
       </c>
       <c r="B46" t="s">
-        <v>315</v>
+        <v>302</v>
       </c>
       <c r="C46" s="2">
         <v>6972064372366</v>
@@ -3055,10 +3025,10 @@
         <v>43272.763888888891</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>301</v>
+        <v>288</v>
       </c>
       <c r="G46">
-        <v>0.34</v>
+        <v>0.08</v>
       </c>
       <c r="H46">
         <v>90</v>
@@ -3067,97 +3037,97 @@
         <v>1</v>
       </c>
       <c r="L46">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="M46" t="s">
-        <v>347</v>
+        <v>334</v>
       </c>
       <c r="N46" t="s">
-        <v>343</v>
+        <v>330</v>
       </c>
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>336</v>
+        <v>323</v>
       </c>
       <c r="B47" t="s">
-        <v>318</v>
+        <v>302</v>
       </c>
       <c r="C47" s="2">
-        <v>6972536372393</v>
+        <v>6972064372366</v>
       </c>
       <c r="D47" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E47" s="1">
-        <v>43272.770138888889</v>
+        <v>43272.763888888891</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>301</v>
+        <v>288</v>
       </c>
       <c r="G47">
-        <v>0</v>
+        <v>0.34</v>
       </c>
       <c r="H47">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="K47">
         <v>1</v>
       </c>
       <c r="L47">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="M47" t="s">
-        <v>347</v>
+        <v>334</v>
       </c>
       <c r="N47" t="s">
-        <v>343</v>
+        <v>330</v>
       </c>
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>336</v>
+        <v>323</v>
       </c>
       <c r="B48" t="s">
-        <v>319</v>
+        <v>305</v>
       </c>
       <c r="C48" s="2">
-        <v>6972698372400</v>
+        <v>6972536372393</v>
       </c>
       <c r="D48" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E48" s="1">
-        <v>43272.772916666669</v>
+        <v>43272.770138888889</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>301</v>
+        <v>288</v>
       </c>
       <c r="G48">
-        <v>0.16</v>
+        <v>0</v>
       </c>
       <c r="H48">
-        <v>270</v>
+        <v>0</v>
       </c>
       <c r="K48">
         <v>1</v>
       </c>
       <c r="L48">
-        <v>22</v>
+        <v>5</v>
       </c>
       <c r="M48" t="s">
-        <v>347</v>
+        <v>334</v>
       </c>
       <c r="N48" t="s">
-        <v>343</v>
+        <v>330</v>
       </c>
     </row>
     <row r="49" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>336</v>
+        <v>323</v>
       </c>
       <c r="B49" t="s">
-        <v>319</v>
+        <v>306</v>
       </c>
       <c r="C49" s="2">
         <v>6972698372400</v>
@@ -3169,10 +3139,10 @@
         <v>43272.772916666669</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>301</v>
+        <v>288</v>
       </c>
       <c r="G49">
-        <v>0.31</v>
+        <v>0.16</v>
       </c>
       <c r="H49">
         <v>270</v>
@@ -3181,214 +3151,196 @@
         <v>1</v>
       </c>
       <c r="L49">
+        <v>22</v>
+      </c>
+      <c r="M49" t="s">
+        <v>334</v>
+      </c>
+      <c r="N49" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>323</v>
+      </c>
+      <c r="B50" t="s">
+        <v>306</v>
+      </c>
+      <c r="C50" s="2">
+        <v>6972698372400</v>
+      </c>
+      <c r="D50" t="s">
+        <v>43</v>
+      </c>
+      <c r="E50" s="1">
+        <v>43272.772916666669</v>
+      </c>
+      <c r="F50" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="G50">
+        <v>0.31</v>
+      </c>
+      <c r="H50">
+        <v>270</v>
+      </c>
+      <c r="K50">
+        <v>1</v>
+      </c>
+      <c r="L50">
         <v>18</v>
       </c>
-      <c r="M49" t="s">
-        <v>347</v>
-      </c>
-      <c r="N49" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="F50" s="1"/>
+      <c r="M50" t="s">
+        <v>334</v>
+      </c>
+      <c r="N50" t="s">
+        <v>330</v>
+      </c>
     </row>
     <row r="51" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>348</v>
+        <v>323</v>
       </c>
       <c r="B51" t="s">
-        <v>349</v>
+        <v>324</v>
       </c>
       <c r="C51" s="2">
-        <v>6979244373084</v>
+        <v>6973557372594</v>
       </c>
       <c r="D51" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="E51" s="1">
-        <v>43275.466666666667</v>
+        <v>43272.78402777778</v>
       </c>
       <c r="F51" t="s">
-        <v>299</v>
+        <v>371</v>
       </c>
       <c r="N51" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A52" t="s">
-        <v>348</v>
-      </c>
-      <c r="B52" t="s">
-        <v>300</v>
-      </c>
-      <c r="C52" s="2">
-        <v>6979259374093</v>
-      </c>
-      <c r="D52" t="s">
-        <v>45</v>
-      </c>
-      <c r="E52" s="1">
-        <v>43275.482638888891</v>
-      </c>
-      <c r="F52" s="1" t="s">
-        <v>301</v>
-      </c>
-      <c r="G52">
-        <v>0.47</v>
-      </c>
-      <c r="H52">
-        <v>90</v>
-      </c>
-      <c r="K52">
-        <v>1</v>
-      </c>
-      <c r="L52">
-        <v>38</v>
-      </c>
-      <c r="M52" t="s">
-        <v>350</v>
-      </c>
-      <c r="N52" t="s">
-        <v>351</v>
+        <v>330</v>
       </c>
     </row>
     <row r="53" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>348</v>
+        <v>335</v>
       </c>
       <c r="B53" t="s">
-        <v>302</v>
+        <v>336</v>
       </c>
       <c r="C53" s="2">
-        <v>6979294374207</v>
+        <v>6979244373084</v>
       </c>
       <c r="D53" t="s">
-        <v>46</v>
+        <v>28</v>
       </c>
       <c r="E53" s="1">
-        <v>43275.486111111109</v>
-      </c>
-      <c r="F53" s="1" t="s">
-        <v>301</v>
-      </c>
-      <c r="G53">
-        <v>0.09</v>
-      </c>
-      <c r="H53">
-        <v>90</v>
-      </c>
-      <c r="K53">
-        <v>1</v>
-      </c>
-      <c r="L53">
-        <v>2</v>
-      </c>
-      <c r="M53" t="s">
-        <v>350</v>
+        <v>43275.466666666667</v>
+      </c>
+      <c r="F53" t="s">
+        <v>286</v>
       </c>
       <c r="N53" t="s">
-        <v>351</v>
+        <v>338</v>
       </c>
     </row>
     <row r="54" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>348</v>
+        <v>335</v>
       </c>
       <c r="B54" t="s">
-        <v>303</v>
+        <v>287</v>
       </c>
       <c r="C54" s="2">
-        <v>6979349374543</v>
+        <v>6979259374093</v>
       </c>
       <c r="D54" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E54" s="1">
-        <v>43275.490972222222</v>
+        <v>43275.482638888891</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>301</v>
+        <v>288</v>
       </c>
       <c r="G54">
-        <v>1.1200000000000001</v>
+        <v>0.47</v>
       </c>
       <c r="H54">
-        <v>270</v>
+        <v>90</v>
       </c>
       <c r="K54">
         <v>1</v>
       </c>
       <c r="L54">
-        <v>10</v>
+        <v>38</v>
       </c>
       <c r="M54" t="s">
-        <v>329</v>
+        <v>337</v>
       </c>
       <c r="N54" t="s">
-        <v>351</v>
+        <v>338</v>
       </c>
     </row>
     <row r="55" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>348</v>
+        <v>335</v>
       </c>
       <c r="B55" t="s">
-        <v>304</v>
+        <v>289</v>
       </c>
       <c r="C55" s="2">
-        <v>6979393375428</v>
+        <v>6979294374207</v>
       </c>
       <c r="D55" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E55" s="1">
-        <v>43275.503472222219</v>
+        <v>43275.486111111109</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>301</v>
+        <v>288</v>
       </c>
       <c r="G55">
-        <v>1.22</v>
+        <v>0.09</v>
       </c>
       <c r="H55">
-        <v>270</v>
+        <v>90</v>
       </c>
       <c r="K55">
         <v>1</v>
       </c>
       <c r="L55">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="M55" t="s">
-        <v>329</v>
+        <v>337</v>
       </c>
       <c r="N55" t="s">
-        <v>351</v>
+        <v>338</v>
       </c>
     </row>
     <row r="56" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>348</v>
+        <v>335</v>
       </c>
       <c r="B56" t="s">
-        <v>304</v>
+        <v>290</v>
       </c>
       <c r="C56" s="2">
-        <v>6979393375428</v>
+        <v>6979349374543</v>
       </c>
       <c r="D56" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E56" s="1">
-        <v>43275.503472222219</v>
+        <v>43275.490972222222</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>301</v>
+        <v>288</v>
       </c>
       <c r="G56">
-        <v>1.27</v>
+        <v>1.1200000000000001</v>
       </c>
       <c r="H56">
         <v>270</v>
@@ -3400,71 +3352,71 @@
         <v>10</v>
       </c>
       <c r="M56" t="s">
-        <v>329</v>
+        <v>316</v>
       </c>
       <c r="N56" t="s">
-        <v>351</v>
+        <v>338</v>
       </c>
     </row>
     <row r="57" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>348</v>
+        <v>335</v>
       </c>
       <c r="B57" t="s">
-        <v>305</v>
+        <v>291</v>
       </c>
       <c r="C57" s="2">
-        <v>6979402375452</v>
+        <v>6979393375428</v>
       </c>
       <c r="D57" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="E57" s="1">
-        <v>43275.505555555559</v>
+        <v>43275.503472222219</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>301</v>
+        <v>288</v>
       </c>
       <c r="G57">
-        <v>0.11</v>
+        <v>1.22</v>
       </c>
       <c r="H57">
-        <v>90</v>
+        <v>270</v>
       </c>
       <c r="K57">
         <v>1</v>
       </c>
       <c r="L57">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M57" t="s">
-        <v>352</v>
+        <v>316</v>
       </c>
       <c r="N57" t="s">
-        <v>351</v>
+        <v>338</v>
       </c>
     </row>
     <row r="58" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>348</v>
+        <v>335</v>
       </c>
       <c r="B58" t="s">
-        <v>306</v>
+        <v>291</v>
       </c>
       <c r="C58" s="2">
-        <v>6979403375458</v>
+        <v>6979393375428</v>
       </c>
       <c r="D58" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="E58" s="1">
-        <v>43275.506249999999</v>
+        <v>43275.503472222219</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>301</v>
+        <v>288</v>
       </c>
       <c r="G58">
-        <v>0.16</v>
+        <v>1.27</v>
       </c>
       <c r="H58">
         <v>270</v>
@@ -3473,74 +3425,74 @@
         <v>1</v>
       </c>
       <c r="L58">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="M58" t="s">
-        <v>350</v>
+        <v>316</v>
       </c>
       <c r="N58" t="s">
-        <v>351</v>
+        <v>338</v>
       </c>
     </row>
     <row r="59" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>348</v>
+        <v>335</v>
       </c>
       <c r="B59" t="s">
-        <v>311</v>
+        <v>292</v>
       </c>
       <c r="C59" s="2">
-        <v>6979447375644</v>
+        <v>6979402375452</v>
       </c>
       <c r="D59" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="E59" s="1">
-        <v>43275.509027777778</v>
+        <v>43275.505555555559</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>301</v>
+        <v>288</v>
       </c>
       <c r="G59">
-        <v>7.0000000000000007E-2</v>
+        <v>0.11</v>
       </c>
       <c r="H59">
-        <v>270</v>
+        <v>90</v>
       </c>
       <c r="K59">
         <v>1</v>
       </c>
       <c r="L59">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M59" t="s">
-        <v>350</v>
+        <v>339</v>
       </c>
       <c r="N59" t="s">
-        <v>351</v>
+        <v>338</v>
       </c>
     </row>
     <row r="60" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>348</v>
+        <v>335</v>
       </c>
       <c r="B60" t="s">
-        <v>312</v>
+        <v>293</v>
       </c>
       <c r="C60" s="2">
-        <v>6979449375655</v>
+        <v>6979403375458</v>
       </c>
       <c r="D60" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="E60" s="1">
-        <v>43275.510416666664</v>
+        <v>43275.506249999999</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>301</v>
+        <v>288</v>
       </c>
       <c r="G60">
-        <v>0.34</v>
+        <v>0.16</v>
       </c>
       <c r="H60">
         <v>270</v>
@@ -3549,36 +3501,36 @@
         <v>1</v>
       </c>
       <c r="L60">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="M60" t="s">
-        <v>329</v>
+        <v>337</v>
       </c>
       <c r="N60" t="s">
-        <v>351</v>
+        <v>338</v>
       </c>
     </row>
     <row r="61" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>348</v>
+        <v>335</v>
       </c>
       <c r="B61" t="s">
-        <v>312</v>
+        <v>298</v>
       </c>
       <c r="C61" s="2">
-        <v>6979449375655</v>
+        <v>6979447375644</v>
       </c>
       <c r="D61" t="s">
         <v>49</v>
       </c>
       <c r="E61" s="1">
-        <v>43275.510416666664</v>
+        <v>43275.509027777778</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>301</v>
+        <v>288</v>
       </c>
       <c r="G61">
-        <v>0.49</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="H61">
         <v>270</v>
@@ -3587,173 +3539,188 @@
         <v>1</v>
       </c>
       <c r="L61">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="M61" t="s">
-        <v>329</v>
+        <v>337</v>
       </c>
       <c r="N61" t="s">
-        <v>351</v>
+        <v>338</v>
       </c>
     </row>
     <row r="62" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>348</v>
+        <v>335</v>
       </c>
       <c r="B62" t="s">
-        <v>313</v>
+        <v>299</v>
       </c>
       <c r="C62" s="2">
-        <v>6979453375702</v>
+        <v>6979449375655</v>
       </c>
       <c r="D62" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E62" s="1">
-        <v>43275.511805555558</v>
+        <v>43275.510416666664</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>301</v>
+        <v>288</v>
       </c>
       <c r="G62">
-        <v>0.96</v>
+        <v>0.34</v>
       </c>
       <c r="H62">
-        <v>90</v>
+        <v>270</v>
       </c>
       <c r="K62">
         <v>1</v>
       </c>
       <c r="L62">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="M62" t="s">
-        <v>329</v>
+        <v>316</v>
       </c>
       <c r="N62" t="s">
-        <v>351</v>
+        <v>338</v>
       </c>
     </row>
     <row r="63" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>348</v>
+        <v>335</v>
       </c>
       <c r="B63" t="s">
-        <v>313</v>
+        <v>299</v>
       </c>
       <c r="C63" s="2">
-        <v>6979453375702</v>
+        <v>6979449375655</v>
       </c>
       <c r="D63" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E63" s="1">
-        <v>43275.511805555558</v>
+        <v>43275.510416666664</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>301</v>
+        <v>288</v>
       </c>
       <c r="G63">
-        <v>1.76</v>
+        <v>0.49</v>
       </c>
       <c r="H63">
-        <v>90</v>
+        <v>270</v>
       </c>
       <c r="K63">
         <v>1</v>
       </c>
       <c r="L63">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="M63" t="s">
-        <v>329</v>
+        <v>316</v>
       </c>
       <c r="N63" t="s">
-        <v>351</v>
+        <v>338</v>
       </c>
     </row>
     <row r="64" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>348</v>
+        <v>335</v>
       </c>
       <c r="B64" t="s">
-        <v>314</v>
+        <v>300</v>
       </c>
       <c r="C64" s="2">
-        <v>6979461376376</v>
+        <v>6979453375702</v>
       </c>
       <c r="D64" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E64" s="1">
-        <v>43275.520138888889</v>
+        <v>43275.511805555558</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>301</v>
+        <v>288</v>
       </c>
       <c r="G64">
-        <v>0.28999999999999998</v>
+        <v>0.96</v>
       </c>
       <c r="H64">
-        <v>270</v>
+        <v>90</v>
       </c>
       <c r="K64">
         <v>1</v>
       </c>
       <c r="L64">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="M64" t="s">
-        <v>352</v>
+        <v>316</v>
       </c>
       <c r="N64" t="s">
-        <v>351</v>
+        <v>338</v>
       </c>
     </row>
     <row r="65" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>348</v>
+        <v>335</v>
       </c>
       <c r="B65" t="s">
-        <v>353</v>
+        <v>300</v>
       </c>
       <c r="C65" s="2">
-        <v>6979540377111</v>
+        <v>6979453375702</v>
       </c>
       <c r="D65" t="s">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="E65" s="1">
-        <v>43275.53125</v>
-      </c>
-      <c r="F65" t="s">
-        <v>298</v>
+        <v>43275.511805555558</v>
+      </c>
+      <c r="F65" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="G65">
+        <v>1.76</v>
+      </c>
+      <c r="H65">
+        <v>90</v>
+      </c>
+      <c r="K65">
+        <v>1</v>
+      </c>
+      <c r="L65">
+        <v>1</v>
+      </c>
+      <c r="M65" t="s">
+        <v>316</v>
       </c>
       <c r="N65" t="s">
-        <v>351</v>
+        <v>338</v>
       </c>
     </row>
     <row r="66" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>348</v>
+        <v>335</v>
       </c>
       <c r="B66" t="s">
-        <v>315</v>
+        <v>301</v>
       </c>
       <c r="C66" s="2">
-        <v>6979810376940</v>
+        <v>6979461376376</v>
       </c>
       <c r="D66" t="s">
         <v>51</v>
       </c>
       <c r="E66" s="1">
-        <v>43275.574305555558</v>
+        <v>43275.520138888889</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>301</v>
+        <v>288</v>
       </c>
       <c r="G66">
-        <v>0.27</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="H66">
         <v>270</v>
@@ -3762,345 +3729,333 @@
         <v>1</v>
       </c>
       <c r="L66">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="M66" t="s">
-        <v>352</v>
+        <v>339</v>
       </c>
       <c r="N66" t="s">
-        <v>351</v>
+        <v>338</v>
       </c>
     </row>
     <row r="67" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>348</v>
+        <v>335</v>
       </c>
       <c r="B67" t="s">
-        <v>318</v>
+        <v>340</v>
       </c>
       <c r="C67" s="2">
-        <v>6979827376931</v>
+        <v>6979540377111</v>
       </c>
       <c r="D67" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="E67" s="1">
-        <v>43275.577777777777</v>
-      </c>
-      <c r="F67" s="1" t="s">
-        <v>301</v>
-      </c>
-      <c r="G67">
-        <v>0.03</v>
-      </c>
-      <c r="H67">
-        <v>90</v>
-      </c>
-      <c r="K67">
-        <v>1</v>
-      </c>
-      <c r="L67">
-        <v>10</v>
-      </c>
-      <c r="M67" t="s">
-        <v>350</v>
+        <v>43275.53125</v>
+      </c>
+      <c r="F67" t="s">
+        <v>285</v>
       </c>
       <c r="N67" t="s">
-        <v>351</v>
+        <v>338</v>
       </c>
     </row>
     <row r="68" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>348</v>
+        <v>335</v>
       </c>
       <c r="B68" t="s">
-        <v>309</v>
+        <v>302</v>
       </c>
       <c r="C68" s="2">
-        <v>6980190376690</v>
+        <v>6979810376940</v>
       </c>
       <c r="D68" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E68" s="1">
-        <v>43275.584722222222</v>
+        <v>43275.574305555558</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>310</v>
+        <v>288</v>
+      </c>
+      <c r="G68">
+        <v>0.27</v>
+      </c>
+      <c r="H68">
+        <v>270</v>
+      </c>
+      <c r="K68">
+        <v>1</v>
+      </c>
+      <c r="L68">
+        <v>22</v>
+      </c>
+      <c r="M68" t="s">
+        <v>339</v>
       </c>
       <c r="N68" t="s">
-        <v>351</v>
+        <v>338</v>
       </c>
     </row>
     <row r="69" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>348</v>
+        <v>335</v>
       </c>
       <c r="B69" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="C69" s="2">
-        <v>6980386376751</v>
+        <v>6979827376931</v>
       </c>
       <c r="D69" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="E69" s="1">
-        <v>43275.587500000001</v>
+        <v>43275.577777777777</v>
       </c>
       <c r="F69" s="1" t="s">
-        <v>310</v>
+        <v>288</v>
+      </c>
+      <c r="G69">
+        <v>0.03</v>
+      </c>
+      <c r="H69">
+        <v>90</v>
+      </c>
+      <c r="K69">
+        <v>1</v>
+      </c>
+      <c r="L69">
+        <v>10</v>
+      </c>
+      <c r="M69" t="s">
+        <v>337</v>
       </c>
       <c r="N69" t="s">
-        <v>351</v>
+        <v>338</v>
       </c>
     </row>
     <row r="70" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>348</v>
+        <v>335</v>
       </c>
       <c r="B70" t="s">
-        <v>319</v>
+        <v>296</v>
       </c>
       <c r="C70" s="2">
-        <v>6980495376677</v>
+        <v>6980190376690</v>
       </c>
       <c r="D70" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E70" s="1">
-        <v>43275.591666666667</v>
+        <v>43275.584722222222</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>301</v>
-      </c>
-      <c r="G70">
-        <v>0.06</v>
-      </c>
-      <c r="H70">
-        <v>90</v>
-      </c>
-      <c r="K70">
-        <v>1</v>
-      </c>
-      <c r="L70">
-        <v>26</v>
-      </c>
-      <c r="M70" t="s">
-        <v>329</v>
+        <v>297</v>
       </c>
       <c r="N70" t="s">
-        <v>351</v>
+        <v>338</v>
       </c>
     </row>
     <row r="71" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>348</v>
+        <v>335</v>
       </c>
       <c r="B71" t="s">
-        <v>320</v>
+        <v>296</v>
       </c>
       <c r="C71" s="2">
-        <v>6981379376002</v>
+        <v>6980386376751</v>
       </c>
       <c r="D71" t="s">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="E71" s="1">
-        <v>43275.605555555558</v>
+        <v>43275.587500000001</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>301</v>
-      </c>
-      <c r="G71">
-        <v>0.04</v>
-      </c>
-      <c r="H71">
-        <v>270</v>
-      </c>
-      <c r="K71">
-        <v>1</v>
-      </c>
-      <c r="L71">
-        <v>11</v>
-      </c>
-      <c r="M71" t="s">
-        <v>354</v>
+        <v>297</v>
       </c>
       <c r="N71" t="s">
-        <v>351</v>
+        <v>338</v>
       </c>
     </row>
     <row r="72" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>348</v>
+        <v>335</v>
       </c>
       <c r="B72" t="s">
-        <v>355</v>
+        <v>306</v>
       </c>
       <c r="C72" s="2">
-        <v>6981405375984</v>
+        <v>6980495376677</v>
       </c>
       <c r="D72" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E72" s="1">
-        <v>43275.609722222223</v>
+        <v>43275.591666666667</v>
       </c>
       <c r="F72" s="1" t="s">
-        <v>301</v>
+        <v>288</v>
       </c>
       <c r="G72">
-        <v>0</v>
+        <v>0.06</v>
       </c>
       <c r="H72">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="K72">
-        <v>2</v>
-      </c>
-      <c r="L72" t="s">
-        <v>356</v>
+        <v>1</v>
+      </c>
+      <c r="L72">
+        <v>26</v>
       </c>
       <c r="M72" t="s">
-        <v>357</v>
+        <v>316</v>
       </c>
       <c r="N72" t="s">
-        <v>351</v>
+        <v>338</v>
       </c>
     </row>
     <row r="73" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>348</v>
+        <v>335</v>
       </c>
       <c r="B73" t="s">
-        <v>358</v>
+        <v>307</v>
       </c>
       <c r="C73" s="2">
-        <v>6981405375983</v>
+        <v>6981379376002</v>
       </c>
       <c r="D73" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E73" s="1">
-        <v>43275.61041666667</v>
+        <v>43275.605555555558</v>
       </c>
       <c r="F73" s="1" t="s">
-        <v>301</v>
+        <v>288</v>
       </c>
       <c r="G73">
-        <v>0.13</v>
+        <v>0.04</v>
       </c>
       <c r="H73">
-        <v>90</v>
+        <v>270</v>
       </c>
       <c r="K73">
         <v>1</v>
       </c>
       <c r="L73">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="M73" t="s">
-        <v>352</v>
+        <v>341</v>
       </c>
       <c r="N73" t="s">
-        <v>351</v>
+        <v>338</v>
       </c>
     </row>
     <row r="74" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>348</v>
+        <v>335</v>
       </c>
       <c r="B74" t="s">
-        <v>358</v>
+        <v>342</v>
       </c>
       <c r="C74" s="2">
-        <v>6981405375983</v>
+        <v>6981405375984</v>
       </c>
       <c r="D74" t="s">
-        <v>39</v>
+        <v>55</v>
       </c>
       <c r="E74" s="1">
-        <v>43275.61041666667</v>
+        <v>43275.609722222223</v>
       </c>
       <c r="F74" s="1" t="s">
-        <v>301</v>
+        <v>288</v>
       </c>
       <c r="G74">
-        <v>0.98</v>
+        <v>0</v>
       </c>
       <c r="H74">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="K74">
-        <v>1</v>
-      </c>
-      <c r="L74">
-        <v>20</v>
+        <v>2</v>
+      </c>
+      <c r="L74" t="s">
+        <v>343</v>
       </c>
       <c r="M74" t="s">
-        <v>352</v>
+        <v>344</v>
       </c>
       <c r="N74" t="s">
-        <v>351</v>
+        <v>338</v>
       </c>
     </row>
     <row r="75" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>348</v>
+        <v>335</v>
       </c>
       <c r="B75" t="s">
-        <v>340</v>
+        <v>345</v>
       </c>
       <c r="C75" s="2">
-        <v>6982053375446</v>
+        <v>6981405375983</v>
       </c>
       <c r="D75" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="E75" s="1">
-        <v>43275.62777777778</v>
+        <v>43275.61041666667</v>
       </c>
       <c r="F75" s="1" t="s">
-        <v>341</v>
+        <v>288</v>
       </c>
       <c r="G75">
-        <v>16.2</v>
+        <v>0.13</v>
       </c>
       <c r="H75">
-        <v>352</v>
-      </c>
-      <c r="I75" t="s">
-        <v>342</v>
+        <v>90</v>
+      </c>
+      <c r="K75">
+        <v>1</v>
       </c>
       <c r="L75">
-        <v>1</v>
+        <v>19</v>
+      </c>
+      <c r="M75" t="s">
+        <v>339</v>
       </c>
       <c r="N75" t="s">
-        <v>351</v>
+        <v>338</v>
       </c>
     </row>
     <row r="76" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>348</v>
+        <v>335</v>
       </c>
       <c r="B76" t="s">
-        <v>359</v>
+        <v>345</v>
       </c>
       <c r="C76" s="2">
-        <v>6982141375389</v>
+        <v>6981405375983</v>
       </c>
       <c r="D76" t="s">
-        <v>57</v>
+        <v>39</v>
       </c>
       <c r="E76" s="1">
-        <v>43275.633333333331</v>
+        <v>43275.61041666667</v>
       </c>
       <c r="F76" s="1" t="s">
-        <v>301</v>
+        <v>288</v>
       </c>
       <c r="G76">
-        <v>0.14000000000000001</v>
+        <v>0.98</v>
       </c>
       <c r="H76">
         <v>90</v>
@@ -4109,144 +4064,144 @@
         <v>1</v>
       </c>
       <c r="L76">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="M76" t="s">
-        <v>350</v>
+        <v>339</v>
       </c>
       <c r="N76" t="s">
-        <v>351</v>
+        <v>338</v>
       </c>
     </row>
     <row r="77" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>348</v>
+        <v>335</v>
       </c>
       <c r="B77" t="s">
-        <v>360</v>
+        <v>327</v>
       </c>
       <c r="C77" s="2">
-        <v>6982655375095</v>
+        <v>6982053375446</v>
       </c>
       <c r="D77" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E77" s="1">
-        <v>43275.652083333334</v>
+        <v>43275.62777777778</v>
       </c>
       <c r="F77" s="1" t="s">
-        <v>341</v>
+        <v>328</v>
       </c>
       <c r="G77">
-        <v>11.9</v>
+        <v>16.2</v>
       </c>
       <c r="H77">
-        <v>316</v>
+        <v>352</v>
       </c>
       <c r="I77" t="s">
-        <v>342</v>
+        <v>329</v>
       </c>
       <c r="L77">
         <v>1</v>
       </c>
       <c r="N77" t="s">
-        <v>351</v>
+        <v>338</v>
       </c>
     </row>
     <row r="78" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>348</v>
+        <v>335</v>
       </c>
       <c r="B78" t="s">
-        <v>361</v>
+        <v>346</v>
       </c>
       <c r="C78" s="2">
-        <v>6982782375018</v>
+        <v>6982141375389</v>
       </c>
       <c r="D78" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E78" s="1">
-        <v>43275.654861111114</v>
+        <v>43275.633333333331</v>
       </c>
       <c r="F78" s="1" t="s">
-        <v>301</v>
+        <v>288</v>
       </c>
       <c r="G78">
-        <v>1.41</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="H78">
-        <v>270</v>
+        <v>90</v>
       </c>
       <c r="K78">
         <v>1</v>
       </c>
       <c r="L78">
-        <v>42</v>
+        <v>3</v>
       </c>
       <c r="M78" t="s">
-        <v>350</v>
+        <v>337</v>
       </c>
       <c r="N78" t="s">
-        <v>351</v>
+        <v>338</v>
       </c>
     </row>
     <row r="79" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>348</v>
+        <v>335</v>
       </c>
       <c r="B79" t="s">
-        <v>362</v>
+        <v>347</v>
       </c>
       <c r="C79" s="2">
-        <v>6982934374992</v>
+        <v>6982655375095</v>
       </c>
       <c r="D79" t="s">
-        <v>37</v>
+        <v>58</v>
       </c>
       <c r="E79" s="1">
-        <v>43275.660416666666</v>
+        <v>43275.652083333334</v>
       </c>
       <c r="F79" s="1" t="s">
-        <v>341</v>
+        <v>328</v>
       </c>
       <c r="G79">
-        <v>36.200000000000003</v>
+        <v>11.9</v>
       </c>
       <c r="H79">
-        <v>282</v>
+        <v>316</v>
       </c>
       <c r="I79" t="s">
-        <v>342</v>
+        <v>329</v>
       </c>
       <c r="L79">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N79" t="s">
-        <v>351</v>
+        <v>338</v>
       </c>
     </row>
     <row r="80" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
+        <v>335</v>
+      </c>
+      <c r="B80" t="s">
         <v>348</v>
       </c>
-      <c r="B80" t="s">
-        <v>362</v>
-      </c>
       <c r="C80" s="2">
-        <v>6982934374992</v>
+        <v>6982782375018</v>
       </c>
       <c r="D80" t="s">
-        <v>37</v>
+        <v>59</v>
       </c>
       <c r="E80" s="1">
-        <v>43275.660416666666</v>
+        <v>43275.654861111114</v>
       </c>
       <c r="F80" s="1" t="s">
-        <v>301</v>
+        <v>288</v>
       </c>
       <c r="G80">
-        <v>1.78</v>
+        <v>1.41</v>
       </c>
       <c r="H80">
         <v>270</v>
@@ -4255,59 +4210,71 @@
         <v>1</v>
       </c>
       <c r="L80">
-        <v>5</v>
+        <v>42</v>
       </c>
       <c r="M80" t="s">
-        <v>363</v>
+        <v>337</v>
       </c>
       <c r="N80" t="s">
-        <v>351</v>
+        <v>338</v>
       </c>
     </row>
     <row r="81" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>348</v>
+        <v>335</v>
       </c>
       <c r="B81" t="s">
-        <v>364</v>
+        <v>349</v>
       </c>
       <c r="C81" s="2">
-        <v>6983066374961</v>
+        <v>6982934374992</v>
       </c>
       <c r="D81" t="s">
-        <v>365</v>
+        <v>37</v>
       </c>
       <c r="E81" s="1">
-        <v>43275.665972222225</v>
-      </c>
-      <c r="F81" t="s">
-        <v>298</v>
+        <v>43275.660416666666</v>
+      </c>
+      <c r="F81" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="G81">
+        <v>36.200000000000003</v>
+      </c>
+      <c r="H81">
+        <v>282</v>
+      </c>
+      <c r="I81" t="s">
+        <v>329</v>
+      </c>
+      <c r="L81">
+        <v>2</v>
       </c>
       <c r="N81" t="s">
-        <v>351</v>
+        <v>338</v>
       </c>
     </row>
     <row r="82" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>348</v>
+        <v>335</v>
       </c>
       <c r="B82" t="s">
-        <v>364</v>
+        <v>349</v>
       </c>
       <c r="C82" s="2">
-        <v>6983066374961</v>
+        <v>6982934374992</v>
       </c>
       <c r="D82" t="s">
-        <v>365</v>
+        <v>37</v>
       </c>
       <c r="E82" s="1">
-        <v>43275.665972222225</v>
-      </c>
-      <c r="F82" t="s">
-        <v>301</v>
+        <v>43275.660416666666</v>
+      </c>
+      <c r="F82" s="1" t="s">
+        <v>288</v>
       </c>
       <c r="G82">
-        <v>0.22</v>
+        <v>1.78</v>
       </c>
       <c r="H82">
         <v>270</v>
@@ -4316,97 +4283,97 @@
         <v>1</v>
       </c>
       <c r="L82">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="M82" t="s">
-        <v>366</v>
+        <v>350</v>
       </c>
       <c r="N82" t="s">
-        <v>351</v>
+        <v>338</v>
       </c>
     </row>
     <row r="83" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>348</v>
+        <v>335</v>
       </c>
       <c r="B83" t="s">
-        <v>367</v>
+        <v>351</v>
       </c>
       <c r="C83" s="2">
-        <v>6982882374576</v>
+        <v>6983066374961</v>
       </c>
       <c r="D83" t="s">
-        <v>48</v>
+        <v>352</v>
       </c>
       <c r="E83" s="1">
-        <v>43275.67291666667</v>
-      </c>
-      <c r="F83" s="1" t="s">
-        <v>301</v>
-      </c>
-      <c r="G83">
-        <v>0.27</v>
-      </c>
-      <c r="H83">
-        <v>270</v>
-      </c>
-      <c r="K83">
-        <v>1</v>
-      </c>
-      <c r="L83">
-        <v>17</v>
-      </c>
-      <c r="M83" t="s">
-        <v>366</v>
+        <v>43275.665972222225</v>
+      </c>
+      <c r="F83" t="s">
+        <v>285</v>
       </c>
       <c r="N83" t="s">
-        <v>351</v>
+        <v>338</v>
       </c>
     </row>
     <row r="84" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>348</v>
+        <v>335</v>
       </c>
       <c r="B84" t="s">
-        <v>309</v>
+        <v>351</v>
       </c>
       <c r="C84" s="2">
-        <v>6982854374500</v>
+        <v>6983066374961</v>
       </c>
       <c r="D84" t="s">
-        <v>60</v>
+        <v>352</v>
       </c>
       <c r="E84" s="1">
-        <v>43275.675694444442</v>
-      </c>
-      <c r="F84" s="1" t="s">
-        <v>310</v>
+        <v>43275.665972222225</v>
+      </c>
+      <c r="F84" t="s">
+        <v>288</v>
+      </c>
+      <c r="G84">
+        <v>0.22</v>
+      </c>
+      <c r="H84">
+        <v>270</v>
+      </c>
+      <c r="K84">
+        <v>1</v>
+      </c>
+      <c r="L84">
+        <v>2</v>
+      </c>
+      <c r="M84" t="s">
+        <v>353</v>
       </c>
       <c r="N84" t="s">
-        <v>351</v>
+        <v>338</v>
       </c>
     </row>
     <row r="85" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>348</v>
+        <v>335</v>
       </c>
       <c r="B85" t="s">
-        <v>368</v>
+        <v>354</v>
       </c>
       <c r="C85" s="2">
-        <v>6981881373834</v>
+        <v>6982882374576</v>
       </c>
       <c r="D85" t="s">
-        <v>61</v>
+        <v>48</v>
       </c>
       <c r="E85" s="1">
-        <v>43275.695833333331</v>
+        <v>43275.67291666667</v>
       </c>
       <c r="F85" s="1" t="s">
-        <v>301</v>
+        <v>288</v>
       </c>
       <c r="G85">
-        <v>0.04</v>
+        <v>0.27</v>
       </c>
       <c r="H85">
         <v>270</v>
@@ -4415,377 +4382,347 @@
         <v>1</v>
       </c>
       <c r="L85">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="M85" t="s">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="N85" t="s">
-        <v>351</v>
+        <v>338</v>
       </c>
     </row>
     <row r="86" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>348</v>
+        <v>335</v>
       </c>
       <c r="B86" t="s">
-        <v>368</v>
+        <v>296</v>
       </c>
       <c r="C86" s="2">
-        <v>6981881373834</v>
+        <v>6982854374500</v>
       </c>
       <c r="D86" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E86" s="1">
-        <v>43275.695833333331</v>
+        <v>43275.675694444442</v>
       </c>
       <c r="F86" s="1" t="s">
-        <v>301</v>
-      </c>
-      <c r="G86">
-        <v>0.84</v>
-      </c>
-      <c r="H86">
-        <v>270</v>
-      </c>
-      <c r="K86">
-        <v>1</v>
-      </c>
-      <c r="L86">
-        <v>32</v>
-      </c>
-      <c r="M86" t="s">
-        <v>347</v>
+        <v>297</v>
       </c>
       <c r="N86" t="s">
-        <v>351</v>
+        <v>338</v>
       </c>
     </row>
     <row r="87" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>348</v>
+        <v>335</v>
       </c>
       <c r="B87" t="s">
-        <v>309</v>
+        <v>355</v>
       </c>
       <c r="C87" s="2">
-        <v>6981316373475</v>
+        <v>6981881373834</v>
       </c>
       <c r="D87" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E87" s="1">
-        <v>43275.705555555556</v>
+        <v>43275.695833333331</v>
       </c>
       <c r="F87" s="1" t="s">
-        <v>310</v>
+        <v>288</v>
+      </c>
+      <c r="G87">
+        <v>0.04</v>
+      </c>
+      <c r="H87">
+        <v>270</v>
+      </c>
+      <c r="K87">
+        <v>1</v>
+      </c>
+      <c r="L87">
+        <v>1</v>
+      </c>
+      <c r="M87" t="s">
+        <v>337</v>
       </c>
       <c r="N87" t="s">
-        <v>351</v>
+        <v>338</v>
       </c>
     </row>
     <row r="88" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>348</v>
+        <v>335</v>
       </c>
       <c r="B88" t="s">
-        <v>369</v>
+        <v>355</v>
       </c>
       <c r="C88" s="2">
-        <v>6980670373232</v>
+        <v>6981881373834</v>
       </c>
       <c r="D88" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E88" s="1">
-        <v>43275.720138888886</v>
+        <v>43275.695833333331</v>
       </c>
       <c r="F88" s="1" t="s">
-        <v>301</v>
+        <v>288</v>
       </c>
       <c r="G88">
-        <v>0</v>
+        <v>0.84</v>
       </c>
       <c r="H88">
-        <v>0</v>
+        <v>270</v>
       </c>
       <c r="K88">
         <v>1</v>
       </c>
       <c r="L88">
-        <v>1</v>
+        <v>32</v>
       </c>
       <c r="M88" t="s">
-        <v>350</v>
+        <v>334</v>
       </c>
       <c r="N88" t="s">
-        <v>351</v>
+        <v>338</v>
+      </c>
+    </row>
+    <row r="89" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A89" t="s">
+        <v>335</v>
+      </c>
+      <c r="B89" t="s">
+        <v>296</v>
+      </c>
+      <c r="C89" s="2">
+        <v>6981316373475</v>
+      </c>
+      <c r="D89" t="s">
+        <v>62</v>
+      </c>
+      <c r="E89" s="1">
+        <v>43275.705555555556</v>
+      </c>
+      <c r="F89" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="N89" t="s">
+        <v>338</v>
       </c>
     </row>
     <row r="90" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>370</v>
+        <v>335</v>
       </c>
       <c r="B90" t="s">
-        <v>64</v>
+        <v>356</v>
       </c>
       <c r="C90" s="2">
-        <v>6986702371776</v>
+        <v>6980670373232</v>
       </c>
       <c r="D90" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E90" s="1">
-        <v>43276.445138888892</v>
+        <v>43275.720138888886</v>
       </c>
       <c r="F90" s="1" t="s">
-        <v>372</v>
+        <v>288</v>
+      </c>
+      <c r="G90">
+        <v>0</v>
+      </c>
+      <c r="H90">
+        <v>0</v>
+      </c>
+      <c r="K90">
+        <v>1</v>
       </c>
       <c r="L90">
         <v>1</v>
       </c>
       <c r="M90" t="s">
-        <v>373</v>
+        <v>337</v>
       </c>
       <c r="N90" t="s">
-        <v>374</v>
+        <v>338</v>
       </c>
     </row>
     <row r="91" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>370</v>
-      </c>
-      <c r="B91" s="3" t="s">
+        <v>335</v>
+      </c>
+      <c r="B91" t="s">
+        <v>336</v>
+      </c>
+      <c r="C91" s="2">
+        <v>6979244373084</v>
+      </c>
+      <c r="D91" t="s">
+        <v>28</v>
+      </c>
+      <c r="E91" s="1">
+        <v>43275.743055555555</v>
+      </c>
+      <c r="F91" t="s">
         <v>371</v>
       </c>
-      <c r="C91" s="2">
-        <v>6987664372345</v>
-      </c>
-      <c r="D91" t="s">
-        <v>41</v>
-      </c>
-      <c r="E91" s="1">
-        <v>43276.534722222219</v>
-      </c>
-      <c r="F91" t="s">
-        <v>299</v>
-      </c>
       <c r="N91" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="92" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A92" t="s">
-        <v>370</v>
-      </c>
-      <c r="B92" t="s">
-        <v>30</v>
-      </c>
-      <c r="C92" s="2">
-        <v>6988479373370</v>
-      </c>
-      <c r="D92" t="s">
-        <v>55</v>
-      </c>
-      <c r="E92" s="1">
-        <v>43276.551388888889</v>
-      </c>
-      <c r="F92" s="1" t="s">
         <v>338</v>
-      </c>
-      <c r="G92">
-        <v>22</v>
-      </c>
-      <c r="H92">
-        <v>318</v>
-      </c>
-      <c r="I92" t="s">
-        <v>375</v>
-      </c>
-      <c r="L92">
-        <v>1</v>
-      </c>
-      <c r="N92" t="s">
-        <v>374</v>
       </c>
     </row>
     <row r="93" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>370</v>
+        <v>357</v>
       </c>
       <c r="B93" t="s">
-        <v>300</v>
+        <v>64</v>
       </c>
       <c r="C93" s="2">
-        <v>6989072374165</v>
+        <v>6986702371776</v>
       </c>
       <c r="D93" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E93" s="1">
-        <v>43276.624305555553</v>
+        <v>43276.445138888892</v>
       </c>
       <c r="F93" s="1" t="s">
-        <v>301</v>
-      </c>
-      <c r="G93">
-        <v>0.47</v>
-      </c>
-      <c r="H93">
-        <v>90</v>
-      </c>
-      <c r="K93">
-        <v>1</v>
+        <v>359</v>
       </c>
       <c r="L93">
         <v>1</v>
       </c>
       <c r="M93" t="s">
-        <v>366</v>
+        <v>360</v>
       </c>
       <c r="N93" t="s">
-        <v>374</v>
+        <v>361</v>
       </c>
     </row>
     <row r="94" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>370</v>
-      </c>
-      <c r="B94" t="s">
-        <v>302</v>
+        <v>357</v>
+      </c>
+      <c r="B94" s="3" t="s">
+        <v>358</v>
       </c>
       <c r="C94" s="2">
-        <v>6989109374195</v>
+        <v>6987664372345</v>
       </c>
       <c r="D94" t="s">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="E94" s="1">
-        <v>43276.626388888886</v>
-      </c>
-      <c r="F94" s="1" t="s">
-        <v>301</v>
-      </c>
-      <c r="G94">
-        <v>0.33</v>
-      </c>
-      <c r="H94">
-        <v>90</v>
-      </c>
-      <c r="K94">
-        <v>1</v>
-      </c>
-      <c r="L94">
-        <v>2</v>
-      </c>
-      <c r="M94" t="s">
-        <v>350</v>
+        <v>43276.534722222219</v>
+      </c>
+      <c r="F94" t="s">
+        <v>286</v>
       </c>
       <c r="N94" t="s">
-        <v>374</v>
+        <v>361</v>
       </c>
     </row>
     <row r="95" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>370</v>
+        <v>357</v>
       </c>
       <c r="B95" t="s">
-        <v>303</v>
+        <v>30</v>
       </c>
       <c r="C95" s="2">
-        <v>6989396374373</v>
+        <v>6988479373370</v>
       </c>
       <c r="D95" t="s">
-        <v>68</v>
+        <v>55</v>
       </c>
       <c r="E95" s="1">
-        <v>43276.631249999999</v>
+        <v>43276.551388888889</v>
       </c>
       <c r="F95" s="1" t="s">
-        <v>301</v>
+        <v>325</v>
       </c>
       <c r="G95">
-        <v>0.26</v>
+        <v>22</v>
       </c>
       <c r="H95">
-        <v>270</v>
-      </c>
-      <c r="K95">
-        <v>1</v>
+        <v>318</v>
+      </c>
+      <c r="I95" t="s">
+        <v>362</v>
       </c>
       <c r="L95">
-        <v>15</v>
-      </c>
-      <c r="M95" t="s">
-        <v>376</v>
+        <v>1</v>
       </c>
       <c r="N95" t="s">
-        <v>374</v>
+        <v>361</v>
       </c>
     </row>
     <row r="96" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>370</v>
+        <v>357</v>
       </c>
       <c r="B96" t="s">
-        <v>303</v>
+        <v>287</v>
       </c>
       <c r="C96" s="2">
-        <v>6989396374373</v>
+        <v>6989072374165</v>
       </c>
       <c r="D96" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E96" s="1">
-        <v>43276.631249999999</v>
+        <v>43276.624305555553</v>
       </c>
       <c r="F96" s="1" t="s">
-        <v>301</v>
+        <v>288</v>
       </c>
       <c r="G96">
-        <v>0.42</v>
+        <v>0.47</v>
       </c>
       <c r="H96">
-        <v>270</v>
+        <v>90</v>
       </c>
       <c r="K96">
         <v>1</v>
       </c>
       <c r="L96">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="M96" t="s">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="N96" t="s">
-        <v>374</v>
+        <v>361</v>
       </c>
     </row>
     <row r="97" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>370</v>
+        <v>357</v>
       </c>
       <c r="B97" t="s">
-        <v>304</v>
+        <v>289</v>
       </c>
       <c r="C97" s="2">
-        <v>6989430374420</v>
+        <v>6989109374195</v>
       </c>
       <c r="D97" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E97" s="1">
-        <v>43276.634722222225</v>
+        <v>43276.626388888886</v>
       </c>
       <c r="F97" s="1" t="s">
-        <v>301</v>
+        <v>288</v>
       </c>
       <c r="G97">
-        <v>0.39</v>
+        <v>0.33</v>
       </c>
       <c r="H97">
-        <v>270</v>
+        <v>90</v>
       </c>
       <c r="K97">
         <v>1</v>
@@ -4794,33 +4731,33 @@
         <v>2</v>
       </c>
       <c r="M97" t="s">
-        <v>377</v>
+        <v>337</v>
       </c>
       <c r="N97" t="s">
-        <v>374</v>
+        <v>361</v>
       </c>
     </row>
     <row r="98" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>370</v>
+        <v>357</v>
       </c>
       <c r="B98" t="s">
-        <v>304</v>
+        <v>290</v>
       </c>
       <c r="C98" s="2">
-        <v>6989430374420</v>
+        <v>6989396374373</v>
       </c>
       <c r="D98" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E98" s="1">
-        <v>43276.634722222225</v>
+        <v>43276.631249999999</v>
       </c>
       <c r="F98" s="1" t="s">
-        <v>301</v>
+        <v>288</v>
       </c>
       <c r="G98">
-        <v>1.62</v>
+        <v>0.26</v>
       </c>
       <c r="H98">
         <v>270</v>
@@ -4829,36 +4766,36 @@
         <v>1</v>
       </c>
       <c r="L98">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="M98" t="s">
-        <v>377</v>
+        <v>363</v>
       </c>
       <c r="N98" t="s">
-        <v>374</v>
+        <v>361</v>
       </c>
     </row>
     <row r="99" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>370</v>
+        <v>357</v>
       </c>
       <c r="B99" t="s">
-        <v>305</v>
+        <v>290</v>
       </c>
       <c r="C99" s="2">
-        <v>6989441374434</v>
+        <v>6989396374373</v>
       </c>
       <c r="D99" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E99" s="1">
-        <v>43276.636805555558</v>
+        <v>43276.631249999999</v>
       </c>
       <c r="F99" s="1" t="s">
-        <v>301</v>
+        <v>288</v>
       </c>
       <c r="G99">
-        <v>0.16</v>
+        <v>0.42</v>
       </c>
       <c r="H99">
         <v>270</v>
@@ -4867,223 +4804,226 @@
         <v>1</v>
       </c>
       <c r="L99">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="M99" t="s">
-        <v>377</v>
+        <v>337</v>
       </c>
       <c r="N99" t="s">
-        <v>374</v>
+        <v>361</v>
       </c>
     </row>
     <row r="100" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>370</v>
+        <v>357</v>
       </c>
       <c r="B100" t="s">
-        <v>306</v>
+        <v>291</v>
       </c>
       <c r="C100" s="2">
-        <v>6989492374527</v>
+        <v>6989430374420</v>
       </c>
       <c r="D100" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E100" s="1">
-        <v>43276.638888888891</v>
+        <v>43276.634722222225</v>
       </c>
       <c r="F100" s="1" t="s">
-        <v>301</v>
+        <v>288</v>
       </c>
       <c r="G100">
-        <v>0.02</v>
+        <v>0.39</v>
       </c>
       <c r="H100">
-        <v>90</v>
+        <v>270</v>
       </c>
       <c r="K100">
         <v>1</v>
       </c>
       <c r="L100">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M100" t="s">
-        <v>377</v>
+        <v>364</v>
       </c>
       <c r="N100" t="s">
-        <v>374</v>
+        <v>361</v>
       </c>
     </row>
     <row r="101" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>370</v>
+        <v>357</v>
       </c>
       <c r="B101" t="s">
-        <v>306</v>
+        <v>291</v>
       </c>
       <c r="C101" s="2">
-        <v>6989492374527</v>
+        <v>6989430374420</v>
       </c>
       <c r="D101" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E101" s="1">
-        <v>43276.638888888891</v>
+        <v>43276.634722222225</v>
       </c>
       <c r="F101" s="1" t="s">
-        <v>301</v>
+        <v>288</v>
       </c>
       <c r="G101">
-        <v>0.56999999999999995</v>
+        <v>1.62</v>
       </c>
       <c r="H101">
-        <v>90</v>
+        <v>270</v>
       </c>
       <c r="K101">
         <v>1</v>
       </c>
       <c r="L101">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M101" t="s">
-        <v>377</v>
+        <v>364</v>
       </c>
       <c r="N101" t="s">
-        <v>374</v>
+        <v>361</v>
       </c>
     </row>
     <row r="102" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
-        <v>370</v>
+        <v>357</v>
       </c>
       <c r="B102" t="s">
-        <v>306</v>
+        <v>292</v>
       </c>
       <c r="C102" s="2">
-        <v>6989492374527</v>
+        <v>6989441374434</v>
       </c>
       <c r="D102" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E102" s="1">
-        <v>43276.638888888891</v>
+        <v>43276.636805555558</v>
       </c>
       <c r="F102" s="1" t="s">
-        <v>301</v>
+        <v>288</v>
       </c>
       <c r="G102">
-        <v>0.61</v>
+        <v>0.16</v>
       </c>
       <c r="H102">
-        <v>90</v>
+        <v>270</v>
       </c>
       <c r="K102">
         <v>1</v>
       </c>
       <c r="L102">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="M102" t="s">
-        <v>376</v>
+        <v>364</v>
       </c>
       <c r="N102" t="s">
-        <v>374</v>
+        <v>361</v>
       </c>
     </row>
     <row r="103" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
-        <v>370</v>
+        <v>357</v>
       </c>
       <c r="B103" t="s">
-        <v>340</v>
+        <v>293</v>
       </c>
       <c r="C103" s="2">
-        <v>6989528374583</v>
+        <v>6989492374527</v>
       </c>
       <c r="D103" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E103" s="1">
-        <v>43276.642361111109</v>
+        <v>43276.638888888891</v>
       </c>
       <c r="F103" s="1" t="s">
-        <v>341</v>
+        <v>288</v>
       </c>
       <c r="G103">
-        <v>59.9</v>
+        <v>0.02</v>
       </c>
       <c r="H103">
-        <v>44</v>
-      </c>
-      <c r="I103" t="s">
-        <v>342</v>
+        <v>90</v>
+      </c>
+      <c r="K103">
+        <v>1</v>
       </c>
       <c r="L103">
-        <v>1</v>
+        <v>4</v>
+      </c>
+      <c r="M103" t="s">
+        <v>364</v>
       </c>
       <c r="N103" t="s">
-        <v>374</v>
+        <v>361</v>
       </c>
     </row>
     <row r="104" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
-        <v>370</v>
+        <v>357</v>
       </c>
       <c r="B104" t="s">
-        <v>311</v>
+        <v>293</v>
       </c>
       <c r="C104" s="2">
-        <v>6989808375053</v>
+        <v>6989492374527</v>
       </c>
       <c r="D104" t="s">
-        <v>27</v>
+        <v>70</v>
       </c>
       <c r="E104" s="1">
-        <v>43276.652777777781</v>
+        <v>43276.638888888891</v>
       </c>
       <c r="F104" s="1" t="s">
-        <v>301</v>
+        <v>288</v>
       </c>
       <c r="G104">
-        <v>0.41</v>
+        <v>0.56999999999999995</v>
       </c>
       <c r="H104">
-        <v>270</v>
+        <v>90</v>
       </c>
       <c r="K104">
         <v>1</v>
       </c>
       <c r="L104">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M104" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="N104" t="s">
-        <v>374</v>
+        <v>361</v>
       </c>
     </row>
     <row r="105" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
-        <v>370</v>
+        <v>357</v>
       </c>
       <c r="B105" t="s">
-        <v>312</v>
+        <v>293</v>
       </c>
       <c r="C105" s="2">
-        <v>6990146375345</v>
+        <v>6989492374527</v>
       </c>
       <c r="D105" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E105" s="1">
-        <v>43276.659722222219</v>
+        <v>43276.638888888891</v>
       </c>
       <c r="F105" s="1" t="s">
-        <v>301</v>
+        <v>288</v>
       </c>
       <c r="G105">
-        <v>0.24</v>
+        <v>0.61</v>
       </c>
       <c r="H105">
         <v>90</v>
@@ -5092,305 +5032,308 @@
         <v>1</v>
       </c>
       <c r="L105">
-        <v>36</v>
+        <v>15</v>
       </c>
       <c r="M105" t="s">
-        <v>350</v>
+        <v>363</v>
       </c>
       <c r="N105" t="s">
-        <v>374</v>
+        <v>361</v>
       </c>
     </row>
     <row r="106" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
-        <v>370</v>
-      </c>
-      <c r="B106" s="3" t="s">
-        <v>296</v>
+        <v>357</v>
+      </c>
+      <c r="B106" t="s">
+        <v>327</v>
       </c>
       <c r="C106" s="2">
-        <v>6990210375427</v>
+        <v>6989528374583</v>
       </c>
       <c r="D106" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="E106" s="1">
-        <v>43276.665972222225</v>
+        <v>43276.642361111109</v>
       </c>
       <c r="F106" s="1" t="s">
-        <v>298</v>
+        <v>328</v>
+      </c>
+      <c r="G106">
+        <v>59.9</v>
+      </c>
+      <c r="H106">
+        <v>44</v>
+      </c>
+      <c r="I106" t="s">
+        <v>329</v>
+      </c>
+      <c r="L106">
+        <v>1</v>
       </c>
       <c r="N106" t="s">
-        <v>374</v>
+        <v>361</v>
       </c>
     </row>
     <row r="107" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
-        <v>370</v>
+        <v>357</v>
       </c>
       <c r="B107" t="s">
-        <v>360</v>
+        <v>298</v>
       </c>
       <c r="C107" s="2">
-        <v>6990211375286</v>
+        <v>6989808375053</v>
       </c>
       <c r="D107" t="s">
-        <v>73</v>
+        <v>27</v>
       </c>
       <c r="E107" s="1">
-        <v>43276.668055555558</v>
+        <v>43276.652777777781</v>
       </c>
       <c r="F107" s="1" t="s">
-        <v>341</v>
+        <v>288</v>
       </c>
       <c r="G107">
-        <v>7.9</v>
+        <v>0.41</v>
       </c>
       <c r="H107">
-        <v>326</v>
+        <v>270</v>
+      </c>
+      <c r="K107">
+        <v>1</v>
       </c>
       <c r="L107">
         <v>1</v>
       </c>
+      <c r="M107" t="s">
+        <v>353</v>
+      </c>
       <c r="N107" t="s">
-        <v>374</v>
+        <v>361</v>
       </c>
     </row>
     <row r="108" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
-        <v>370</v>
+        <v>357</v>
       </c>
       <c r="B108" t="s">
-        <v>360</v>
+        <v>299</v>
       </c>
       <c r="C108" s="2">
-        <v>6990211375286</v>
+        <v>6990146375345</v>
       </c>
       <c r="D108" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E108" s="1">
-        <v>43276.668055555558</v>
+        <v>43276.659722222219</v>
       </c>
       <c r="F108" s="1" t="s">
-        <v>338</v>
+        <v>288</v>
       </c>
       <c r="G108">
-        <v>452</v>
+        <v>0.24</v>
       </c>
       <c r="H108">
-        <v>312</v>
+        <v>90</v>
+      </c>
+      <c r="K108">
+        <v>1</v>
       </c>
       <c r="L108">
-        <v>1</v>
+        <v>36</v>
+      </c>
+      <c r="M108" t="s">
+        <v>337</v>
       </c>
       <c r="N108" t="s">
-        <v>374</v>
+        <v>361</v>
       </c>
     </row>
     <row r="109" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
-        <v>370</v>
-      </c>
-      <c r="B109" t="s">
-        <v>313</v>
+        <v>357</v>
+      </c>
+      <c r="B109" s="3" t="s">
+        <v>283</v>
       </c>
       <c r="C109" s="2">
-        <v>6990229375196</v>
+        <v>6990210375427</v>
       </c>
       <c r="D109" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E109" s="1">
-        <v>43276.671527777777</v>
+        <v>43276.665972222225</v>
       </c>
       <c r="F109" s="1" t="s">
-        <v>301</v>
-      </c>
-      <c r="G109">
-        <v>0.52</v>
-      </c>
-      <c r="H109">
-        <v>90</v>
-      </c>
-      <c r="K109">
-        <v>1</v>
-      </c>
-      <c r="L109">
-        <v>10</v>
-      </c>
-      <c r="M109" t="s">
-        <v>350</v>
+        <v>285</v>
       </c>
       <c r="N109" t="s">
-        <v>374</v>
+        <v>361</v>
       </c>
     </row>
     <row r="110" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
-        <v>370</v>
+        <v>357</v>
       </c>
       <c r="B110" t="s">
-        <v>313</v>
+        <v>347</v>
       </c>
       <c r="C110" s="2">
-        <v>6990229375196</v>
+        <v>6990211375286</v>
       </c>
       <c r="D110" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E110" s="1">
-        <v>43276.671527777777</v>
-      </c>
-      <c r="F110" s="1"/>
+        <v>43276.668055555558</v>
+      </c>
+      <c r="F110" s="1" t="s">
+        <v>328</v>
+      </c>
       <c r="G110">
-        <v>0.38</v>
+        <v>7.9</v>
       </c>
       <c r="H110">
-        <v>90</v>
-      </c>
-      <c r="K110">
-        <v>1</v>
+        <v>326</v>
       </c>
       <c r="L110">
-        <v>19</v>
-      </c>
-      <c r="M110" t="s">
-        <v>350</v>
+        <v>1</v>
       </c>
       <c r="N110" t="s">
-        <v>374</v>
+        <v>361</v>
       </c>
     </row>
     <row r="111" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
-        <v>370</v>
+        <v>357</v>
       </c>
       <c r="B111" t="s">
-        <v>314</v>
+        <v>347</v>
       </c>
       <c r="C111" s="2">
-        <v>6990229375192</v>
+        <v>6990211375286</v>
       </c>
       <c r="D111" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E111" s="1">
-        <v>43276.673611111109</v>
+        <v>43276.668055555558</v>
       </c>
       <c r="F111" s="1" t="s">
-        <v>301</v>
+        <v>325</v>
       </c>
       <c r="G111">
-        <v>0.79</v>
+        <v>452</v>
       </c>
       <c r="H111">
-        <v>270</v>
-      </c>
-      <c r="K111">
-        <v>1</v>
+        <v>312</v>
       </c>
       <c r="L111">
-        <v>45</v>
-      </c>
-      <c r="M111" t="s">
-        <v>378</v>
+        <v>1</v>
       </c>
       <c r="N111" t="s">
-        <v>374</v>
+        <v>361</v>
       </c>
     </row>
     <row r="112" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
-        <v>370</v>
+        <v>357</v>
       </c>
       <c r="B112" t="s">
-        <v>379</v>
+        <v>300</v>
       </c>
       <c r="C112" s="2">
-        <v>6990342374915</v>
+        <v>6990229375196</v>
       </c>
       <c r="D112" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E112" s="1">
-        <v>43276.678472222222</v>
+        <v>43276.671527777777</v>
       </c>
       <c r="F112" s="1" t="s">
-        <v>380</v>
+        <v>288</v>
       </c>
       <c r="G112">
-        <v>18.399999999999999</v>
+        <v>0.52</v>
       </c>
       <c r="H112">
-        <v>20</v>
-      </c>
-      <c r="I112" t="s">
-        <v>342</v>
+        <v>90</v>
+      </c>
+      <c r="K112">
+        <v>1</v>
       </c>
       <c r="L112">
-        <v>1</v>
+        <v>10</v>
+      </c>
+      <c r="M112" t="s">
+        <v>337</v>
       </c>
       <c r="N112" t="s">
-        <v>374</v>
+        <v>361</v>
       </c>
     </row>
     <row r="113" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
-        <v>370</v>
+        <v>357</v>
       </c>
       <c r="B113" t="s">
-        <v>379</v>
+        <v>300</v>
       </c>
       <c r="C113" s="2">
-        <v>6990342374915</v>
+        <v>6990229375196</v>
       </c>
       <c r="D113" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E113" s="1">
-        <v>43276.678472222222</v>
-      </c>
-      <c r="F113" s="1" t="s">
-        <v>380</v>
-      </c>
+        <v>43276.671527777777</v>
+      </c>
+      <c r="F113" s="1"/>
       <c r="G113">
-        <v>14.4</v>
+        <v>0.38</v>
       </c>
       <c r="H113">
-        <v>24</v>
-      </c>
-      <c r="I113" t="s">
-        <v>342</v>
+        <v>90</v>
+      </c>
+      <c r="K113">
+        <v>1</v>
       </c>
       <c r="L113">
-        <v>1</v>
+        <v>19</v>
+      </c>
+      <c r="M113" t="s">
+        <v>337</v>
       </c>
       <c r="N113" t="s">
-        <v>374</v>
+        <v>361</v>
       </c>
     </row>
     <row r="114" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
-        <v>370</v>
+        <v>357</v>
       </c>
       <c r="B114" t="s">
-        <v>315</v>
+        <v>301</v>
       </c>
       <c r="C114" s="2">
-        <v>6990469374617</v>
+        <v>6990229375192</v>
       </c>
       <c r="D114" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E114" s="1">
-        <v>43276.6875</v>
+        <v>43276.673611111109</v>
       </c>
       <c r="F114" s="1" t="s">
-        <v>301</v>
+        <v>288</v>
       </c>
       <c r="G114">
-        <v>0.31</v>
+        <v>0.79</v>
       </c>
       <c r="H114">
         <v>270</v>
@@ -5399,293 +5342,296 @@
         <v>1</v>
       </c>
       <c r="L114">
-        <v>1</v>
+        <v>45</v>
       </c>
       <c r="M114" t="s">
-        <v>350</v>
+        <v>365</v>
       </c>
       <c r="N114" t="s">
-        <v>374</v>
+        <v>361</v>
       </c>
     </row>
     <row r="115" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
-        <v>370</v>
+        <v>357</v>
       </c>
       <c r="B115" t="s">
-        <v>318</v>
+        <v>366</v>
       </c>
       <c r="C115" s="2">
-        <v>6990696373981</v>
+        <v>6990342374915</v>
       </c>
       <c r="D115" t="s">
-        <v>55</v>
+        <v>76</v>
       </c>
       <c r="E115" s="1">
-        <v>43276.696527777778</v>
+        <v>43276.678472222222</v>
       </c>
       <c r="F115" s="1" t="s">
-        <v>301</v>
+        <v>367</v>
       </c>
       <c r="G115">
-        <v>7.0000000000000007E-2</v>
+        <v>18.399999999999999</v>
       </c>
       <c r="H115">
-        <v>90</v>
-      </c>
-      <c r="K115">
-        <v>1</v>
+        <v>20</v>
+      </c>
+      <c r="I115" t="s">
+        <v>329</v>
       </c>
       <c r="L115">
         <v>1</v>
       </c>
-      <c r="M115" t="s">
-        <v>350</v>
-      </c>
       <c r="N115" t="s">
-        <v>374</v>
+        <v>361</v>
       </c>
     </row>
     <row r="116" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
-        <v>370</v>
+        <v>357</v>
       </c>
       <c r="B116" t="s">
-        <v>319</v>
+        <v>366</v>
       </c>
       <c r="C116" s="2">
-        <v>6990700373975</v>
+        <v>6990342374915</v>
       </c>
       <c r="D116" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E116" s="1">
-        <v>43276.697222222225</v>
+        <v>43276.678472222222</v>
       </c>
       <c r="F116" s="1" t="s">
-        <v>301</v>
+        <v>367</v>
       </c>
       <c r="G116">
-        <v>0.18</v>
+        <v>14.4</v>
       </c>
       <c r="H116">
-        <v>270</v>
-      </c>
-      <c r="K116">
-        <v>1</v>
+        <v>24</v>
+      </c>
+      <c r="I116" t="s">
+        <v>329</v>
       </c>
       <c r="L116">
-        <v>17</v>
-      </c>
-      <c r="M116" t="s">
-        <v>350</v>
+        <v>1</v>
       </c>
       <c r="N116" t="s">
-        <v>374</v>
+        <v>361</v>
       </c>
     </row>
     <row r="117" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
-        <v>370</v>
+        <v>357</v>
       </c>
       <c r="B117" t="s">
-        <v>320</v>
+        <v>302</v>
       </c>
       <c r="C117" s="2">
-        <v>6990705373967</v>
+        <v>6990469374617</v>
       </c>
       <c r="D117" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E117" s="1">
-        <v>43276.699305555558</v>
+        <v>43276.6875</v>
       </c>
       <c r="F117" s="1" t="s">
-        <v>301</v>
+        <v>288</v>
       </c>
       <c r="G117">
-        <v>0.39</v>
+        <v>0.31</v>
       </c>
       <c r="H117">
-        <v>90</v>
+        <v>270</v>
       </c>
       <c r="K117">
         <v>1</v>
       </c>
       <c r="L117">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="M117" t="s">
-        <v>350</v>
+        <v>337</v>
       </c>
       <c r="N117" t="s">
-        <v>374</v>
+        <v>361</v>
       </c>
     </row>
     <row r="118" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
-        <v>370</v>
+        <v>357</v>
       </c>
       <c r="B118" t="s">
-        <v>355</v>
+        <v>305</v>
       </c>
       <c r="C118" s="2">
-        <v>6990731373922</v>
+        <v>6990696373981</v>
       </c>
       <c r="D118" t="s">
-        <v>78</v>
+        <v>55</v>
       </c>
       <c r="E118" s="1">
-        <v>43276.701388888891</v>
+        <v>43276.696527777778</v>
       </c>
       <c r="F118" s="1" t="s">
-        <v>301</v>
+        <v>288</v>
       </c>
       <c r="G118">
-        <v>0.02</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="H118">
-        <v>270</v>
+        <v>90</v>
       </c>
       <c r="K118">
         <v>1</v>
       </c>
       <c r="L118">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="M118" t="s">
-        <v>381</v>
+        <v>337</v>
       </c>
       <c r="N118" t="s">
-        <v>374</v>
+        <v>361</v>
       </c>
     </row>
     <row r="119" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
-        <v>370</v>
+        <v>357</v>
       </c>
       <c r="B119" t="s">
-        <v>358</v>
+        <v>306</v>
       </c>
       <c r="C119" s="2">
-        <v>6991108372720</v>
+        <v>6990700373975</v>
       </c>
       <c r="D119" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E119" s="1">
-        <v>43276.717361111114</v>
+        <v>43276.697222222225</v>
       </c>
       <c r="F119" s="1" t="s">
-        <v>301</v>
+        <v>288</v>
       </c>
       <c r="G119">
-        <v>0.01</v>
+        <v>0.18</v>
       </c>
       <c r="H119">
-        <v>90</v>
+        <v>270</v>
       </c>
       <c r="K119">
         <v>1</v>
       </c>
       <c r="L119">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="M119" t="s">
-        <v>350</v>
+        <v>337</v>
       </c>
       <c r="N119" t="s">
-        <v>374</v>
+        <v>361</v>
       </c>
     </row>
     <row r="120" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
-        <v>370</v>
+        <v>357</v>
       </c>
       <c r="B120" t="s">
-        <v>362</v>
+        <v>307</v>
       </c>
       <c r="C120" s="2">
-        <v>6991153372515</v>
+        <v>6990705373967</v>
       </c>
       <c r="D120" t="s">
-        <v>16</v>
+        <v>78</v>
       </c>
       <c r="E120" s="1">
-        <v>43276.722222222219</v>
+        <v>43276.699305555558</v>
       </c>
       <c r="F120" s="1" t="s">
-        <v>341</v>
+        <v>288</v>
       </c>
       <c r="G120">
-        <v>33.1</v>
+        <v>0.39</v>
       </c>
       <c r="H120">
-        <v>18</v>
-      </c>
-      <c r="I120" t="s">
-        <v>342</v>
+        <v>90</v>
+      </c>
+      <c r="K120">
+        <v>1</v>
       </c>
       <c r="L120">
-        <v>1</v>
+        <v>14</v>
+      </c>
+      <c r="M120" t="s">
+        <v>337</v>
       </c>
       <c r="N120" t="s">
-        <v>374</v>
+        <v>361</v>
       </c>
     </row>
     <row r="121" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
-        <v>370</v>
+        <v>357</v>
       </c>
       <c r="B121" t="s">
-        <v>80</v>
+        <v>342</v>
       </c>
       <c r="C121" s="2">
-        <v>6991175372451</v>
+        <v>6990731373922</v>
       </c>
       <c r="D121" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E121" s="1">
-        <v>43276.724999999999</v>
+        <v>43276.701388888891</v>
       </c>
       <c r="F121" s="1" t="s">
-        <v>383</v>
+        <v>288</v>
       </c>
       <c r="G121">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="H121">
-        <v>0</v>
+        <v>270</v>
+      </c>
+      <c r="K121">
+        <v>1</v>
       </c>
       <c r="L121">
-        <v>1</v>
+        <v>11</v>
+      </c>
+      <c r="M121" t="s">
+        <v>368</v>
       </c>
       <c r="N121" t="s">
-        <v>374</v>
+        <v>361</v>
       </c>
     </row>
     <row r="122" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
-        <v>370</v>
+        <v>357</v>
       </c>
       <c r="B122" t="s">
-        <v>359</v>
+        <v>345</v>
       </c>
       <c r="C122" s="2">
-        <v>6991331372007</v>
+        <v>6991108372720</v>
       </c>
       <c r="D122" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E122" s="1">
-        <v>43276.730555555558</v>
+        <v>43276.717361111114</v>
       </c>
       <c r="F122" s="1" t="s">
-        <v>301</v>
+        <v>288</v>
       </c>
       <c r="G122">
-        <v>0.06</v>
+        <v>0.01</v>
       </c>
       <c r="H122">
         <v>90</v>
@@ -5694,97 +5640,103 @@
         <v>1</v>
       </c>
       <c r="L122">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="M122" t="s">
-        <v>378</v>
+        <v>337</v>
       </c>
       <c r="N122" t="s">
-        <v>374</v>
+        <v>361</v>
       </c>
     </row>
     <row r="123" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
-        <v>370</v>
-      </c>
-      <c r="B123" s="3" t="s">
-        <v>307</v>
+        <v>357</v>
+      </c>
+      <c r="B123" t="s">
+        <v>349</v>
       </c>
       <c r="C123" s="2">
-        <v>6991515371569</v>
+        <v>6991153372515</v>
       </c>
       <c r="D123" t="s">
-        <v>59</v>
+        <v>16</v>
       </c>
       <c r="E123" s="1">
-        <v>43276.736805555556</v>
+        <v>43276.722222222219</v>
       </c>
       <c r="F123" s="1" t="s">
-        <v>298</v>
+        <v>328</v>
+      </c>
+      <c r="G123">
+        <v>33.1</v>
+      </c>
+      <c r="H123">
+        <v>18</v>
+      </c>
+      <c r="I123" t="s">
+        <v>329</v>
+      </c>
+      <c r="L123">
+        <v>1</v>
       </c>
       <c r="N123" t="s">
-        <v>374</v>
+        <v>361</v>
       </c>
     </row>
     <row r="124" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
+        <v>357</v>
+      </c>
+      <c r="B124" t="s">
+        <v>80</v>
+      </c>
+      <c r="C124" s="2">
+        <v>6991175372451</v>
+      </c>
+      <c r="D124" t="s">
+        <v>79</v>
+      </c>
+      <c r="E124" s="1">
+        <v>43276.724999999999</v>
+      </c>
+      <c r="F124" s="1" t="s">
         <v>370</v>
       </c>
-      <c r="B124" t="s">
+      <c r="G124">
+        <v>0</v>
+      </c>
+      <c r="H124">
+        <v>0</v>
+      </c>
+      <c r="L124">
+        <v>1</v>
+      </c>
+      <c r="N124" t="s">
         <v>361</v>
-      </c>
-      <c r="C124" s="2">
-        <v>6990806371700</v>
-      </c>
-      <c r="D124" t="s">
-        <v>82</v>
-      </c>
-      <c r="E124" s="1">
-        <v>43276.75</v>
-      </c>
-      <c r="F124" s="1" t="s">
-        <v>301</v>
-      </c>
-      <c r="G124">
-        <v>0.36</v>
-      </c>
-      <c r="H124">
-        <v>270</v>
-      </c>
-      <c r="K124">
-        <v>1</v>
-      </c>
-      <c r="L124">
-        <v>16</v>
-      </c>
-      <c r="M124" t="s">
-        <v>350</v>
-      </c>
-      <c r="N124" t="s">
-        <v>374</v>
       </c>
     </row>
     <row r="125" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
-        <v>370</v>
+        <v>357</v>
       </c>
       <c r="B125" t="s">
-        <v>367</v>
+        <v>346</v>
       </c>
       <c r="C125" s="2">
-        <v>6988299372150</v>
+        <v>6991331372007</v>
       </c>
       <c r="D125" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E125" s="1">
-        <v>43276.79791666667</v>
+        <v>43276.730555555558</v>
       </c>
       <c r="F125" s="1" t="s">
-        <v>301</v>
+        <v>288</v>
       </c>
       <c r="G125">
-        <v>0.09</v>
+        <v>0.06</v>
       </c>
       <c r="H125">
         <v>90</v>
@@ -5793,1981 +5745,2391 @@
         <v>1</v>
       </c>
       <c r="L125">
+        <v>13</v>
+      </c>
+      <c r="M125" t="s">
+        <v>365</v>
+      </c>
+      <c r="N125" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="126" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A126" t="s">
+        <v>357</v>
+      </c>
+      <c r="B126" s="3" t="s">
+        <v>294</v>
+      </c>
+      <c r="C126" s="2">
+        <v>6991515371569</v>
+      </c>
+      <c r="D126" t="s">
+        <v>59</v>
+      </c>
+      <c r="E126" s="1">
+        <v>43276.736805555556</v>
+      </c>
+      <c r="F126" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="N126" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="127" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A127" t="s">
+        <v>357</v>
+      </c>
+      <c r="B127" t="s">
+        <v>348</v>
+      </c>
+      <c r="C127" s="2">
+        <v>6990806371700</v>
+      </c>
+      <c r="D127" t="s">
+        <v>82</v>
+      </c>
+      <c r="E127" s="1">
+        <v>43276.75</v>
+      </c>
+      <c r="F127" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="G127">
+        <v>0.36</v>
+      </c>
+      <c r="H127">
+        <v>270</v>
+      </c>
+      <c r="K127">
+        <v>1</v>
+      </c>
+      <c r="L127">
+        <v>16</v>
+      </c>
+      <c r="M127" t="s">
+        <v>337</v>
+      </c>
+      <c r="N127" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="128" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A128" t="s">
+        <v>357</v>
+      </c>
+      <c r="B128" t="s">
+        <v>354</v>
+      </c>
+      <c r="C128" s="2">
+        <v>6988299372150</v>
+      </c>
+      <c r="D128" t="s">
+        <v>83</v>
+      </c>
+      <c r="E128" s="1">
+        <v>43276.79791666667</v>
+      </c>
+      <c r="F128" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="G128">
+        <v>0.09</v>
+      </c>
+      <c r="H128">
+        <v>90</v>
+      </c>
+      <c r="K128">
+        <v>1</v>
+      </c>
+      <c r="L128">
         <v>17</v>
       </c>
-      <c r="M125" t="s">
-        <v>350</v>
-      </c>
-      <c r="N125" t="s">
+      <c r="M128" t="s">
+        <v>337</v>
+      </c>
+      <c r="N128" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="129" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A129" t="s">
+        <v>357</v>
+      </c>
+      <c r="B129" s="3" t="s">
+        <v>358</v>
+      </c>
+      <c r="C129" s="2">
+        <v>6987664372345</v>
+      </c>
+      <c r="D129" t="s">
+        <v>41</v>
+      </c>
+      <c r="E129" s="1">
+        <v>43276.806944444441</v>
+      </c>
+      <c r="F129" t="s">
+        <v>371</v>
+      </c>
+      <c r="N129" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="130" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="F130" s="1"/>
+    </row>
+    <row r="131" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A131" t="s">
+        <v>372</v>
+      </c>
+      <c r="B131" s="3" t="s">
+        <v>373</v>
+      </c>
+      <c r="C131" s="2">
+        <v>6986351371839</v>
+      </c>
+      <c r="D131" t="s">
         <v>374</v>
       </c>
-    </row>
-    <row r="126" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="F126" s="1"/>
-    </row>
-    <row r="127" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B127" t="s">
+      <c r="E131" s="1">
+        <v>43277.354166666664</v>
+      </c>
+      <c r="F131" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="N131" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="132" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A132" t="s">
+        <v>372</v>
+      </c>
+      <c r="B132" t="s">
+        <v>30</v>
+      </c>
+      <c r="C132" s="2">
+        <v>6986421371555</v>
+      </c>
+      <c r="D132" t="s">
         <v>84</v>
       </c>
-      <c r="C127" s="2">
-        <v>6986421371555</v>
-      </c>
-      <c r="D127" t="s">
+      <c r="E132" s="1">
+        <v>43277.35833333333</v>
+      </c>
+      <c r="F132" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="G132">
+        <v>33.1</v>
+      </c>
+      <c r="H132">
+        <v>48</v>
+      </c>
+      <c r="L132">
+        <v>1</v>
+      </c>
+      <c r="M132" t="s">
+        <v>376</v>
+      </c>
+      <c r="N132" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="133" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A133" t="s">
+        <v>372</v>
+      </c>
+      <c r="B133" t="s">
+        <v>327</v>
+      </c>
+      <c r="C133" s="2">
+        <v>6986539371185</v>
+      </c>
+      <c r="D133" t="s">
         <v>85</v>
       </c>
-      <c r="E127" s="1">
-        <v>43277.35833333333</v>
-      </c>
-      <c r="F127" s="1"/>
-    </row>
-    <row r="128" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B128" t="s">
+      <c r="E133" s="1">
+        <v>43277.365972222222</v>
+      </c>
+      <c r="F133" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="G133">
+        <v>82.6</v>
+      </c>
+      <c r="H133">
+        <v>312</v>
+      </c>
+      <c r="I133" t="s">
+        <v>329</v>
+      </c>
+      <c r="L133">
+        <v>1</v>
+      </c>
+      <c r="N133" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="134" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A134" t="s">
+        <v>372</v>
+      </c>
+      <c r="B134" t="s">
+        <v>287</v>
+      </c>
+      <c r="C134" s="2">
+        <v>6986987369810</v>
+      </c>
+      <c r="D134" t="s">
+        <v>18</v>
+      </c>
+      <c r="E134" s="1">
+        <v>43277.390972222223</v>
+      </c>
+      <c r="F134" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="G134">
+        <v>1.23</v>
+      </c>
+      <c r="H134">
+        <v>270</v>
+      </c>
+      <c r="K134">
+        <v>1</v>
+      </c>
+      <c r="L134">
+        <v>4</v>
+      </c>
+      <c r="M134" t="s">
+        <v>337</v>
+      </c>
+      <c r="N134" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="135" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A135" t="s">
+        <v>372</v>
+      </c>
+      <c r="B135" t="s">
+        <v>289</v>
+      </c>
+      <c r="C135" s="2">
+        <v>6987165369223</v>
+      </c>
+      <c r="D135" t="s">
+        <v>48</v>
+      </c>
+      <c r="E135" s="1">
+        <v>43277.402083333334</v>
+      </c>
+      <c r="F135" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="G135">
+        <v>0.1</v>
+      </c>
+      <c r="H135">
+        <v>270</v>
+      </c>
+      <c r="K135">
+        <v>1</v>
+      </c>
+      <c r="L135">
+        <v>7</v>
+      </c>
+      <c r="M135" t="s">
+        <v>337</v>
+      </c>
+      <c r="N135" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="136" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A136" t="s">
+        <v>372</v>
+      </c>
+      <c r="B136" t="s">
+        <v>290</v>
+      </c>
+      <c r="C136" s="2">
+        <v>6987303368811</v>
+      </c>
+      <c r="D136" t="s">
+        <v>37</v>
+      </c>
+      <c r="E136" s="1">
+        <v>43277.409722222219</v>
+      </c>
+      <c r="F136" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="G136">
+        <v>0.04</v>
+      </c>
+      <c r="H136">
+        <v>270</v>
+      </c>
+      <c r="K136">
+        <v>1</v>
+      </c>
+      <c r="L136">
+        <v>1</v>
+      </c>
+      <c r="M136" t="s">
+        <v>337</v>
+      </c>
+      <c r="N136" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="137" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A137" t="s">
+        <v>372</v>
+      </c>
+      <c r="B137" s="3" t="s">
+        <v>283</v>
+      </c>
+      <c r="C137" s="2">
+        <v>6987650367997</v>
+      </c>
+      <c r="D137" t="s">
+        <v>377</v>
+      </c>
+      <c r="E137" s="1">
+        <v>43277.425694444442</v>
+      </c>
+      <c r="F137" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="N137" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="138" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A138" t="s">
+        <v>372</v>
+      </c>
+      <c r="B138" t="s">
+        <v>291</v>
+      </c>
+      <c r="C138" s="2">
+        <v>6985525368428</v>
+      </c>
+      <c r="D138" t="s">
         <v>86</v>
       </c>
-      <c r="C128" s="2">
-        <v>6986539371185</v>
-      </c>
-      <c r="D128" t="s">
+      <c r="E138" s="1">
+        <v>43277.557638888888</v>
+      </c>
+      <c r="F138" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="G138">
+        <v>0.21</v>
+      </c>
+      <c r="H138">
+        <v>270</v>
+      </c>
+      <c r="K138">
+        <v>1</v>
+      </c>
+      <c r="L138">
+        <v>24</v>
+      </c>
+      <c r="M138" t="s">
+        <v>378</v>
+      </c>
+      <c r="N138" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="139" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A139" t="s">
+        <v>372</v>
+      </c>
+      <c r="B139" t="s">
+        <v>292</v>
+      </c>
+      <c r="C139" s="2">
+        <v>6983906368728</v>
+      </c>
+      <c r="D139" t="s">
         <v>87</v>
       </c>
-      <c r="E128" s="1">
-        <v>43277.365972222222</v>
-      </c>
-      <c r="F128" s="1"/>
-    </row>
-    <row r="129" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B129" t="s">
+      <c r="E139" s="1">
+        <v>43277.584722222222</v>
+      </c>
+      <c r="F139" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="G139">
+        <v>0.11</v>
+      </c>
+      <c r="H139">
+        <v>90</v>
+      </c>
+      <c r="K139">
+        <v>1</v>
+      </c>
+      <c r="L139">
+        <v>25</v>
+      </c>
+      <c r="M139" t="s">
+        <v>316</v>
+      </c>
+      <c r="N139" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="140" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A140" t="s">
+        <v>372</v>
+      </c>
+      <c r="B140" t="s">
+        <v>30</v>
+      </c>
+      <c r="C140" s="2">
+        <v>6983977368859</v>
+      </c>
+      <c r="D140" t="s">
         <v>88</v>
       </c>
-      <c r="C129" s="2">
-        <v>6986987369810</v>
-      </c>
-      <c r="D129" t="s">
-        <v>18</v>
-      </c>
-      <c r="E129" s="1">
-        <v>43277.390972222223</v>
-      </c>
-      <c r="F129" s="1"/>
-    </row>
-    <row r="130" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B130" t="s">
+      <c r="E140" s="1">
+        <v>43277.597916666666</v>
+      </c>
+      <c r="F140" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="G140">
+        <v>153.1</v>
+      </c>
+      <c r="H140">
+        <v>36</v>
+      </c>
+      <c r="L140">
+        <v>3</v>
+      </c>
+      <c r="N140" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="141" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A141" t="s">
+        <v>372</v>
+      </c>
+      <c r="B141" t="s">
+        <v>293</v>
+      </c>
+      <c r="C141" s="2">
+        <v>6984203369274</v>
+      </c>
+      <c r="D141" t="s">
+        <v>34</v>
+      </c>
+      <c r="E141" s="1">
+        <v>43277.609722222223</v>
+      </c>
+      <c r="F141" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="G141">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="H141">
+        <v>90</v>
+      </c>
+      <c r="K141">
+        <v>1</v>
+      </c>
+      <c r="L141">
+        <v>8</v>
+      </c>
+      <c r="M141" t="s">
+        <v>379</v>
+      </c>
+      <c r="N141" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="142" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A142" t="s">
+        <v>372</v>
+      </c>
+      <c r="B142" t="s">
+        <v>30</v>
+      </c>
+      <c r="C142" s="2">
+        <v>6984634369968</v>
+      </c>
+      <c r="D142" t="s">
         <v>89</v>
       </c>
-      <c r="C130" s="2">
-        <v>6987165369223</v>
-      </c>
-      <c r="D130" t="s">
-        <v>48</v>
-      </c>
-      <c r="E130" s="1">
-        <v>43277.402083333334</v>
-      </c>
-      <c r="F130" s="1"/>
-    </row>
-    <row r="131" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B131" t="s">
+      <c r="E142" s="1">
+        <v>43277.623611111114</v>
+      </c>
+      <c r="F142" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="G142">
+        <v>139.4</v>
+      </c>
+      <c r="H142">
+        <v>82</v>
+      </c>
+      <c r="L142">
+        <v>3</v>
+      </c>
+      <c r="N142" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="143" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A143" t="s">
+        <v>372</v>
+      </c>
+      <c r="B143" t="s">
+        <v>298</v>
+      </c>
+      <c r="C143" s="2">
+        <v>6986354371830</v>
+      </c>
+      <c r="D143" t="s">
         <v>90</v>
       </c>
-      <c r="C131" s="2">
-        <v>6987303368811</v>
-      </c>
-      <c r="D131" t="s">
-        <v>37</v>
-      </c>
-      <c r="E131" s="1">
-        <v>43277.409722222219</v>
-      </c>
-      <c r="F131" s="1"/>
-    </row>
-    <row r="132" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B132" t="s">
-        <v>91</v>
-      </c>
-      <c r="C132" s="2">
-        <v>6985525368428</v>
-      </c>
-      <c r="D132" t="s">
-        <v>92</v>
-      </c>
-      <c r="E132" s="1">
-        <v>43277.557638888888</v>
-      </c>
-      <c r="F132" s="1"/>
-    </row>
-    <row r="133" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B133" t="s">
-        <v>93</v>
-      </c>
-      <c r="C133" s="2">
-        <v>6983906368728</v>
-      </c>
-      <c r="D133" t="s">
-        <v>94</v>
-      </c>
-      <c r="E133" s="1">
-        <v>43277.584722222222</v>
-      </c>
-      <c r="F133" s="1"/>
-    </row>
-    <row r="134" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B134" t="s">
-        <v>95</v>
-      </c>
-      <c r="C134" s="2">
-        <v>6983977368859</v>
-      </c>
-      <c r="D134" t="s">
-        <v>96</v>
-      </c>
-      <c r="E134" s="1">
-        <v>43277.597916666666</v>
-      </c>
-      <c r="F134" s="1"/>
-    </row>
-    <row r="135" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B135" t="s">
-        <v>97</v>
-      </c>
-      <c r="C135" s="2">
-        <v>6984203369274</v>
-      </c>
-      <c r="D135" t="s">
-        <v>34</v>
-      </c>
-      <c r="E135" s="1">
-        <v>43277.609722222223</v>
-      </c>
-      <c r="F135" s="1"/>
-    </row>
-    <row r="136" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B136" t="s">
-        <v>98</v>
-      </c>
-      <c r="C136" s="2">
-        <v>6984634369968</v>
-      </c>
-      <c r="D136" t="s">
-        <v>99</v>
-      </c>
-      <c r="E136" s="1">
-        <v>43277.623611111114</v>
-      </c>
-      <c r="F136" s="1"/>
-    </row>
-    <row r="137" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B137" t="s">
-        <v>100</v>
-      </c>
-      <c r="C137" s="2">
-        <v>6986354371830</v>
-      </c>
-      <c r="D137" t="s">
-        <v>101</v>
-      </c>
-      <c r="E137" s="1">
+      <c r="E143" s="1">
         <v>43277.663888888892</v>
       </c>
-      <c r="F137" s="1"/>
-    </row>
-    <row r="138" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B138" t="s">
-        <v>102</v>
-      </c>
-      <c r="C138" s="2">
-        <v>6985957359366</v>
-      </c>
-      <c r="D138" t="s">
-        <v>103</v>
-      </c>
-      <c r="E138" s="1">
-        <v>43278.40625</v>
-      </c>
-      <c r="F138" s="1"/>
-    </row>
-    <row r="139" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B139" t="s">
-        <v>104</v>
-      </c>
-      <c r="C139" s="2">
-        <v>6984603358022</v>
-      </c>
-      <c r="D139" t="s">
-        <v>85</v>
-      </c>
-      <c r="E139" s="1">
-        <v>43278.430555555555</v>
-      </c>
-      <c r="F139" s="1"/>
-    </row>
-    <row r="140" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B140" t="s">
-        <v>105</v>
-      </c>
-      <c r="C140" s="2">
-        <v>6983656356892</v>
-      </c>
-      <c r="D140" t="s">
-        <v>106</v>
-      </c>
-      <c r="E140" s="1">
-        <v>43278.449305555558</v>
-      </c>
-      <c r="F140" s="1"/>
-    </row>
-    <row r="141" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B141" t="s">
-        <v>107</v>
-      </c>
-      <c r="C141" s="2">
-        <v>6983702356823</v>
-      </c>
-      <c r="D141" t="s">
-        <v>106</v>
-      </c>
-      <c r="E141" s="1">
-        <v>43278.452777777777</v>
-      </c>
-      <c r="F141" s="1"/>
-    </row>
-    <row r="142" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B142" t="s">
-        <v>108</v>
-      </c>
-      <c r="C142" s="2">
-        <v>6983103356528</v>
-      </c>
-      <c r="D142" t="s">
-        <v>109</v>
-      </c>
-      <c r="E142" s="1">
-        <v>43278.467361111114</v>
-      </c>
-      <c r="F142" s="1"/>
-    </row>
-    <row r="143" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B143" t="s">
-        <v>110</v>
-      </c>
-      <c r="C143" s="2">
-        <v>6982711357390</v>
-      </c>
-      <c r="D143" t="s">
-        <v>111</v>
-      </c>
-      <c r="E143" s="1">
-        <v>43278.480555555558</v>
-      </c>
-      <c r="F143" s="1"/>
-    </row>
-    <row r="144" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B144" t="s">
-        <v>112</v>
+      <c r="F143" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="G143">
+        <v>0.18</v>
+      </c>
+      <c r="H143">
+        <v>270</v>
+      </c>
+      <c r="K143">
+        <v>1</v>
+      </c>
+      <c r="L143">
+        <v>3</v>
+      </c>
+      <c r="M143" t="s">
+        <v>364</v>
+      </c>
+      <c r="N143" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="144" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A144" t="s">
+        <v>372</v>
+      </c>
+      <c r="B144" s="3" t="s">
+        <v>373</v>
       </c>
       <c r="C144" s="2">
-        <v>6982411358309</v>
+        <v>6986351371839</v>
       </c>
       <c r="D144" t="s">
-        <v>113</v>
+        <v>374</v>
       </c>
       <c r="E144" s="1">
-        <v>43278.493055555555</v>
-      </c>
-      <c r="F144" s="1"/>
+        <v>43277.666666666664</v>
+      </c>
+      <c r="F144" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="N144" t="s">
+        <v>375</v>
+      </c>
     </row>
     <row r="145" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B145" t="s">
-        <v>114</v>
-      </c>
-      <c r="C145" s="2">
-        <v>6982517358590</v>
-      </c>
-      <c r="D145" t="s">
-        <v>115</v>
-      </c>
-      <c r="E145" s="1">
-        <v>43278.500694444447</v>
-      </c>
       <c r="F145" s="1"/>
     </row>
     <row r="146" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B146" t="s">
-        <v>116</v>
+        <v>91</v>
       </c>
       <c r="C146" s="2">
-        <v>6982286358997</v>
+        <v>6984603358022</v>
       </c>
       <c r="D146" t="s">
-        <v>117</v>
+        <v>84</v>
       </c>
       <c r="E146" s="1">
-        <v>43278.559027777781</v>
+        <v>43278.430555555555</v>
       </c>
       <c r="F146" s="1"/>
     </row>
     <row r="147" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B147" t="s">
-        <v>118</v>
+        <v>92</v>
       </c>
       <c r="C147" s="2">
-        <v>6982057359742</v>
+        <v>6983656356892</v>
       </c>
       <c r="D147" t="s">
-        <v>76</v>
+        <v>93</v>
       </c>
       <c r="E147" s="1">
-        <v>43278.569444444445</v>
+        <v>43278.449305555558</v>
       </c>
       <c r="F147" s="1"/>
     </row>
     <row r="148" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B148" t="s">
-        <v>119</v>
+        <v>94</v>
       </c>
       <c r="C148" s="2">
-        <v>6982022359836</v>
+        <v>6983702356823</v>
       </c>
       <c r="D148" t="s">
-        <v>120</v>
+        <v>93</v>
       </c>
       <c r="E148" s="1">
-        <v>43278.572222222225</v>
+        <v>43278.452777777777</v>
       </c>
       <c r="F148" s="1"/>
     </row>
     <row r="149" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B149" t="s">
-        <v>121</v>
+        <v>95</v>
       </c>
       <c r="C149" s="2">
-        <v>6984942359384</v>
+        <v>6983103356528</v>
       </c>
       <c r="D149" t="s">
-        <v>48</v>
+        <v>96</v>
       </c>
       <c r="E149" s="1">
-        <v>43278.62222222222</v>
+        <v>43278.467361111114</v>
       </c>
       <c r="F149" s="1"/>
     </row>
     <row r="150" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B150" t="s">
-        <v>122</v>
+        <v>97</v>
       </c>
       <c r="C150" s="2">
-        <v>6985094359323</v>
+        <v>6982711357390</v>
       </c>
       <c r="D150" t="s">
-        <v>28</v>
+        <v>98</v>
       </c>
       <c r="E150" s="1">
-        <v>43278.62777777778</v>
+        <v>43278.480555555558</v>
       </c>
       <c r="F150" s="1"/>
     </row>
     <row r="151" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B151" t="s">
-        <v>123</v>
+        <v>99</v>
       </c>
       <c r="C151" s="2">
-        <v>6985160359319</v>
+        <v>6982411358309</v>
       </c>
       <c r="D151" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E151" s="1">
-        <v>43278.629166666666</v>
+        <v>43278.493055555555</v>
       </c>
       <c r="F151" s="1"/>
     </row>
     <row r="152" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B152" t="s">
-        <v>124</v>
+        <v>101</v>
       </c>
       <c r="C152" s="2">
-        <v>6982267355785</v>
+        <v>6982517358590</v>
       </c>
       <c r="D152" t="s">
-        <v>125</v>
+        <v>102</v>
       </c>
       <c r="E152" s="1">
-        <v>43278.884722222225</v>
+        <v>43278.500694444447</v>
       </c>
       <c r="F152" s="1"/>
     </row>
     <row r="153" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B153" t="s">
-        <v>126</v>
+        <v>103</v>
       </c>
       <c r="C153" s="2">
-        <v>6980968353518</v>
+        <v>6982286358997</v>
       </c>
       <c r="D153" t="s">
-        <v>83</v>
+        <v>104</v>
       </c>
       <c r="E153" s="1">
-        <v>43279.265277777777</v>
+        <v>43278.559027777781</v>
       </c>
       <c r="F153" s="1"/>
     </row>
     <row r="154" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B154" t="s">
-        <v>127</v>
+        <v>105</v>
       </c>
       <c r="C154" s="2">
-        <v>6980970353513</v>
+        <v>6982057359742</v>
       </c>
       <c r="D154" t="s">
-        <v>15</v>
+        <v>76</v>
       </c>
       <c r="E154" s="1">
-        <v>43279.265972222223</v>
+        <v>43278.569444444445</v>
       </c>
       <c r="F154" s="1"/>
     </row>
     <row r="155" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B155" t="s">
-        <v>128</v>
+        <v>106</v>
       </c>
       <c r="C155" s="2">
-        <v>6980945353432</v>
+        <v>6982022359836</v>
       </c>
       <c r="D155" t="s">
-        <v>38</v>
+        <v>107</v>
       </c>
       <c r="E155" s="1">
-        <v>43279.268055555556</v>
+        <v>43278.572222222225</v>
       </c>
       <c r="F155" s="1"/>
     </row>
     <row r="156" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B156" t="s">
-        <v>129</v>
+        <v>108</v>
       </c>
       <c r="C156" s="2">
-        <v>6980935353395</v>
+        <v>6984942359384</v>
       </c>
       <c r="D156" t="s">
-        <v>130</v>
+        <v>48</v>
       </c>
       <c r="E156" s="1">
-        <v>43279.270138888889</v>
+        <v>43278.62222222222</v>
       </c>
       <c r="F156" s="1"/>
     </row>
     <row r="157" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B157" t="s">
-        <v>131</v>
+        <v>109</v>
       </c>
       <c r="C157" s="2">
-        <v>6980911353331</v>
+        <v>6985094359323</v>
       </c>
       <c r="D157" t="s">
-        <v>132</v>
+        <v>28</v>
       </c>
       <c r="E157" s="1">
-        <v>43279.273611111108</v>
+        <v>43278.62777777778</v>
       </c>
       <c r="F157" s="1"/>
     </row>
     <row r="158" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B158" t="s">
-        <v>133</v>
+        <v>110</v>
       </c>
       <c r="C158" s="2">
-        <v>6980602353081</v>
+        <v>6985160359319</v>
       </c>
       <c r="D158" t="s">
-        <v>134</v>
+        <v>89</v>
       </c>
       <c r="E158" s="1">
-        <v>43279.28125</v>
+        <v>43278.629166666666</v>
       </c>
       <c r="F158" s="1"/>
     </row>
     <row r="159" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B159" t="s">
-        <v>135</v>
+        <v>111</v>
       </c>
       <c r="C159" s="2">
-        <v>6980431352927</v>
+        <v>6982267355785</v>
       </c>
       <c r="D159" t="s">
-        <v>136</v>
+        <v>112</v>
       </c>
       <c r="E159" s="1">
-        <v>43279.284722222219</v>
+        <v>43278.884722222225</v>
       </c>
       <c r="F159" s="1"/>
     </row>
     <row r="160" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B160" t="s">
-        <v>137</v>
+        <v>113</v>
       </c>
       <c r="C160" s="2">
-        <v>6980212352665</v>
+        <v>6980968353518</v>
       </c>
       <c r="D160" t="s">
-        <v>138</v>
+        <v>83</v>
       </c>
       <c r="E160" s="1">
-        <v>43279.290972222225</v>
+        <v>43279.265277777777</v>
       </c>
       <c r="F160" s="1"/>
     </row>
     <row r="161" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B161" t="s">
-        <v>139</v>
+        <v>114</v>
       </c>
       <c r="C161" s="2">
-        <v>6980059352518</v>
+        <v>6980970353513</v>
       </c>
       <c r="D161" t="s">
-        <v>140</v>
+        <v>15</v>
       </c>
       <c r="E161" s="1">
-        <v>43279.296527777777</v>
+        <v>43279.265972222223</v>
       </c>
       <c r="F161" s="1"/>
     </row>
     <row r="162" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B162" t="s">
-        <v>141</v>
+        <v>115</v>
       </c>
       <c r="C162" s="2">
-        <v>6980047352508</v>
+        <v>6980945353432</v>
       </c>
       <c r="D162" t="s">
-        <v>142</v>
+        <v>38</v>
       </c>
       <c r="E162" s="1">
-        <v>43279.29791666667</v>
+        <v>43279.268055555556</v>
       </c>
       <c r="F162" s="1"/>
     </row>
     <row r="163" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B163" t="s">
-        <v>143</v>
+        <v>116</v>
       </c>
       <c r="C163" s="2">
-        <v>6979533352050</v>
+        <v>6980935353395</v>
       </c>
       <c r="D163" t="s">
-        <v>46</v>
+        <v>117</v>
       </c>
       <c r="E163" s="1">
-        <v>43279.30972222222</v>
+        <v>43279.270138888889</v>
       </c>
       <c r="F163" s="1"/>
     </row>
     <row r="164" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B164" t="s">
-        <v>144</v>
+        <v>118</v>
       </c>
       <c r="C164" s="2">
-        <v>6979485352018</v>
+        <v>6980911353331</v>
       </c>
       <c r="D164" t="s">
-        <v>46</v>
+        <v>119</v>
       </c>
       <c r="E164" s="1">
-        <v>43279.311805555553</v>
+        <v>43279.273611111108</v>
       </c>
       <c r="F164" s="1"/>
     </row>
     <row r="165" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B165" t="s">
-        <v>145</v>
+        <v>120</v>
       </c>
       <c r="C165" s="2">
-        <v>6979450352004</v>
+        <v>6980602353081</v>
       </c>
       <c r="D165" t="s">
-        <v>146</v>
+        <v>121</v>
       </c>
       <c r="E165" s="1">
-        <v>43279.313194444447</v>
+        <v>43279.28125</v>
       </c>
       <c r="F165" s="1"/>
     </row>
     <row r="166" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B166" t="s">
-        <v>147</v>
+        <v>122</v>
       </c>
       <c r="C166" s="2">
-        <v>6979451352005</v>
+        <v>6980431352927</v>
       </c>
       <c r="D166" t="s">
-        <v>146</v>
+        <v>123</v>
       </c>
       <c r="E166" s="1">
-        <v>43279.313888888886</v>
+        <v>43279.284722222219</v>
       </c>
       <c r="F166" s="1"/>
     </row>
     <row r="167" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B167" t="s">
-        <v>148</v>
+        <v>124</v>
       </c>
       <c r="C167" s="2">
-        <v>6979455352012</v>
+        <v>6980212352665</v>
       </c>
       <c r="D167" t="s">
-        <v>149</v>
+        <v>125</v>
       </c>
       <c r="E167" s="1">
-        <v>43279.314583333333</v>
+        <v>43279.290972222225</v>
       </c>
       <c r="F167" s="1"/>
     </row>
     <row r="168" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B168" t="s">
-        <v>150</v>
+        <v>126</v>
       </c>
       <c r="C168" s="2">
-        <v>6979459352019</v>
+        <v>6980059352518</v>
       </c>
       <c r="D168" t="s">
-        <v>46</v>
+        <v>127</v>
       </c>
       <c r="E168" s="1">
-        <v>43279.31527777778</v>
+        <v>43279.296527777777</v>
       </c>
       <c r="F168" s="1"/>
     </row>
     <row r="169" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B169" t="s">
-        <v>151</v>
+        <v>128</v>
       </c>
       <c r="C169" s="2">
-        <v>6979457352096</v>
+        <v>6980047352508</v>
       </c>
       <c r="D169" t="s">
-        <v>152</v>
+        <v>129</v>
       </c>
       <c r="E169" s="1">
-        <v>43279.318749999999</v>
+        <v>43279.29791666667</v>
       </c>
       <c r="F169" s="1"/>
     </row>
     <row r="170" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B170" t="s">
-        <v>153</v>
+        <v>130</v>
       </c>
       <c r="C170" s="2">
-        <v>6979451352092</v>
+        <v>6979533352050</v>
       </c>
       <c r="D170" t="s">
-        <v>152</v>
+        <v>46</v>
       </c>
       <c r="E170" s="1">
-        <v>43279.318749999999</v>
+        <v>43279.30972222222</v>
       </c>
       <c r="F170" s="1"/>
     </row>
     <row r="171" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B171" t="s">
-        <v>154</v>
+        <v>131</v>
       </c>
       <c r="C171" s="2">
-        <v>6979362352012</v>
+        <v>6979485352018</v>
       </c>
       <c r="D171" t="s">
-        <v>155</v>
+        <v>46</v>
       </c>
       <c r="E171" s="1">
-        <v>43279.321527777778</v>
+        <v>43279.311805555553</v>
       </c>
       <c r="F171" s="1"/>
     </row>
     <row r="172" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B172" t="s">
-        <v>156</v>
+        <v>132</v>
       </c>
       <c r="C172" s="2">
-        <v>6979058351708</v>
+        <v>6979450352004</v>
       </c>
       <c r="D172" t="s">
-        <v>157</v>
+        <v>133</v>
       </c>
       <c r="E172" s="1">
-        <v>43279.32708333333</v>
+        <v>43279.313194444447</v>
       </c>
       <c r="F172" s="1"/>
     </row>
     <row r="173" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B173" t="s">
-        <v>158</v>
+        <v>134</v>
       </c>
       <c r="C173" s="2">
-        <v>6978301351443</v>
+        <v>6979451352005</v>
       </c>
       <c r="D173" t="s">
-        <v>159</v>
+        <v>133</v>
       </c>
       <c r="E173" s="1">
-        <v>43279.341666666667</v>
+        <v>43279.313888888886</v>
       </c>
       <c r="F173" s="1"/>
     </row>
     <row r="174" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B174" t="s">
-        <v>160</v>
+        <v>135</v>
       </c>
       <c r="C174" s="2">
-        <v>6978297351472</v>
+        <v>6979455352012</v>
       </c>
       <c r="D174" t="s">
-        <v>22</v>
+        <v>136</v>
       </c>
       <c r="E174" s="1">
-        <v>43279.342361111114</v>
+        <v>43279.314583333333</v>
       </c>
       <c r="F174" s="1"/>
     </row>
     <row r="175" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B175" t="s">
-        <v>161</v>
+        <v>137</v>
       </c>
       <c r="C175" s="2">
-        <v>6978291351490</v>
+        <v>6979459352019</v>
       </c>
       <c r="D175" t="s">
-        <v>23</v>
+        <v>46</v>
       </c>
       <c r="E175" s="1">
-        <v>43279.34375</v>
+        <v>43279.31527777778</v>
       </c>
       <c r="F175" s="1"/>
     </row>
     <row r="176" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B176" t="s">
-        <v>162</v>
+        <v>138</v>
       </c>
       <c r="C176" s="2">
-        <v>6977910352784</v>
+        <v>6979457352096</v>
       </c>
       <c r="D176" t="s">
-        <v>163</v>
+        <v>139</v>
       </c>
       <c r="E176" s="1">
-        <v>43279.414583333331</v>
+        <v>43279.318749999999</v>
       </c>
       <c r="F176" s="1"/>
     </row>
     <row r="177" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B177" t="s">
-        <v>164</v>
+        <v>140</v>
       </c>
       <c r="C177" s="2">
-        <v>6977860353046</v>
+        <v>6979451352092</v>
       </c>
       <c r="D177" t="s">
-        <v>29</v>
+        <v>139</v>
       </c>
       <c r="E177" s="1">
-        <v>43279.419444444444</v>
+        <v>43279.318749999999</v>
       </c>
       <c r="F177" s="1"/>
     </row>
     <row r="178" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B178" t="s">
-        <v>165</v>
+        <v>141</v>
       </c>
       <c r="C178" s="2">
-        <v>6977861353067</v>
+        <v>6979362352012</v>
       </c>
       <c r="D178" t="s">
-        <v>29</v>
+        <v>142</v>
       </c>
       <c r="E178" s="1">
-        <v>43279.42083333333</v>
+        <v>43279.321527777778</v>
       </c>
       <c r="F178" s="1"/>
     </row>
     <row r="179" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B179" t="s">
-        <v>166</v>
+        <v>143</v>
       </c>
       <c r="C179" s="2">
-        <v>6977865353087</v>
+        <v>6979058351708</v>
       </c>
       <c r="D179" t="s">
-        <v>77</v>
+        <v>144</v>
       </c>
       <c r="E179" s="1">
-        <v>43279.422222222223</v>
+        <v>43279.32708333333</v>
       </c>
       <c r="F179" s="1"/>
     </row>
     <row r="180" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B180" t="s">
-        <v>167</v>
+        <v>145</v>
       </c>
       <c r="C180" s="2">
-        <v>6977856353173</v>
+        <v>6978301351443</v>
       </c>
       <c r="D180" t="s">
-        <v>15</v>
+        <v>146</v>
       </c>
       <c r="E180" s="1">
-        <v>43279.424305555556</v>
+        <v>43279.341666666667</v>
       </c>
       <c r="F180" s="1"/>
     </row>
     <row r="181" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B181" t="s">
-        <v>168</v>
+        <v>147</v>
       </c>
       <c r="C181" s="2">
-        <v>6977844353209</v>
+        <v>6978297351472</v>
       </c>
       <c r="D181" t="s">
-        <v>77</v>
+        <v>22</v>
       </c>
       <c r="E181" s="1">
-        <v>43279.425694444442</v>
+        <v>43279.342361111114</v>
       </c>
       <c r="F181" s="1"/>
     </row>
     <row r="182" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B182" t="s">
-        <v>169</v>
+        <v>148</v>
       </c>
       <c r="C182" s="2">
-        <v>6977797353337</v>
+        <v>6978291351490</v>
       </c>
       <c r="D182" t="s">
-        <v>52</v>
+        <v>23</v>
       </c>
       <c r="E182" s="1">
-        <v>43279.428472222222</v>
+        <v>43279.34375</v>
       </c>
       <c r="F182" s="1"/>
     </row>
     <row r="183" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B183" t="s">
-        <v>170</v>
+        <v>149</v>
       </c>
       <c r="C183" s="2">
-        <v>6977575354652</v>
+        <v>6977910352784</v>
       </c>
       <c r="D183" t="s">
-        <v>29</v>
+        <v>150</v>
       </c>
       <c r="E183" s="1">
-        <v>43279.447222222225</v>
+        <v>43279.414583333331</v>
       </c>
       <c r="F183" s="1"/>
     </row>
     <row r="184" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B184" t="s">
-        <v>171</v>
+        <v>151</v>
       </c>
       <c r="C184" s="2">
-        <v>6978571354702</v>
+        <v>6977860353046</v>
       </c>
       <c r="D184" t="s">
-        <v>125</v>
+        <v>29</v>
       </c>
       <c r="E184" s="1">
-        <v>43279.47152777778</v>
+        <v>43279.419444444444</v>
       </c>
       <c r="F184" s="1"/>
     </row>
     <row r="185" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B185" t="s">
-        <v>172</v>
+        <v>152</v>
       </c>
       <c r="C185" s="2">
-        <v>6979142354504</v>
+        <v>6977861353067</v>
       </c>
       <c r="D185" t="s">
-        <v>173</v>
+        <v>29</v>
       </c>
       <c r="E185" s="1">
-        <v>43279.486805555556</v>
+        <v>43279.42083333333</v>
       </c>
       <c r="F185" s="1"/>
     </row>
     <row r="186" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B186" t="s">
-        <v>174</v>
+        <v>153</v>
       </c>
       <c r="C186" s="2">
-        <v>6979932354155</v>
+        <v>6977865353087</v>
       </c>
       <c r="D186" t="s">
-        <v>117</v>
+        <v>77</v>
       </c>
       <c r="E186" s="1">
-        <v>43279.498611111114</v>
+        <v>43279.422222222223</v>
       </c>
       <c r="F186" s="1"/>
     </row>
     <row r="187" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B187" t="s">
-        <v>175</v>
+        <v>154</v>
       </c>
       <c r="C187" s="2">
-        <v>6979961354157</v>
+        <v>6977856353173</v>
       </c>
       <c r="D187" t="s">
-        <v>117</v>
+        <v>15</v>
       </c>
       <c r="E187" s="1">
-        <v>43279.500694444447</v>
+        <v>43279.424305555556</v>
       </c>
       <c r="F187" s="1"/>
     </row>
     <row r="188" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B188" t="s">
-        <v>176</v>
+        <v>155</v>
       </c>
       <c r="C188" s="2">
-        <v>6980285354065</v>
+        <v>6977844353209</v>
       </c>
       <c r="D188" t="s">
-        <v>94</v>
+        <v>77</v>
       </c>
       <c r="E188" s="1">
-        <v>43279.506944444445</v>
+        <v>43279.425694444442</v>
       </c>
       <c r="F188" s="1"/>
     </row>
     <row r="189" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B189" t="s">
-        <v>177</v>
+        <v>156</v>
       </c>
       <c r="C189" s="2">
-        <v>6980874353935</v>
+        <v>6977797353337</v>
       </c>
       <c r="D189" t="s">
-        <v>94</v>
+        <v>52</v>
       </c>
       <c r="E189" s="1">
-        <v>43279.515972222223</v>
+        <v>43279.428472222222</v>
       </c>
       <c r="F189" s="1"/>
     </row>
     <row r="190" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B190" t="s">
-        <v>178</v>
+        <v>157</v>
       </c>
       <c r="C190" s="2">
-        <v>6980891353931</v>
+        <v>6977575354652</v>
       </c>
       <c r="D190" t="s">
-        <v>179</v>
+        <v>29</v>
       </c>
       <c r="E190" s="1">
-        <v>43279.517361111109</v>
+        <v>43279.447222222225</v>
       </c>
       <c r="F190" s="1"/>
     </row>
     <row r="191" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B191" t="s">
-        <v>180</v>
+        <v>158</v>
       </c>
       <c r="C191" s="2">
-        <v>6980914353924</v>
+        <v>6978571354702</v>
       </c>
       <c r="D191" t="s">
-        <v>181</v>
+        <v>112</v>
       </c>
       <c r="E191" s="1">
-        <v>43279.518750000003</v>
+        <v>43279.47152777778</v>
       </c>
       <c r="F191" s="1"/>
     </row>
     <row r="192" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B192" t="s">
-        <v>182</v>
+        <v>159</v>
       </c>
       <c r="C192" s="2">
-        <v>7008446366454</v>
+        <v>6979142354504</v>
       </c>
       <c r="D192" t="s">
-        <v>183</v>
+        <v>160</v>
       </c>
       <c r="E192" s="1">
-        <v>43283.498611111114</v>
+        <v>43279.486805555556</v>
       </c>
       <c r="F192" s="1"/>
     </row>
     <row r="193" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B193" t="s">
-        <v>184</v>
+        <v>161</v>
       </c>
       <c r="C193" s="2">
-        <v>7008274366146</v>
+        <v>6979932354155</v>
       </c>
       <c r="D193" t="s">
-        <v>185</v>
+        <v>104</v>
       </c>
       <c r="E193" s="1">
-        <v>43283.506944444445</v>
+        <v>43279.498611111114</v>
       </c>
       <c r="F193" s="1"/>
     </row>
     <row r="194" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B194" t="s">
-        <v>186</v>
+        <v>162</v>
       </c>
       <c r="C194" s="2">
-        <v>7008058365732</v>
+        <v>6979961354157</v>
       </c>
       <c r="D194" t="s">
-        <v>21</v>
+        <v>104</v>
       </c>
       <c r="E194" s="1">
-        <v>43283.513888888891</v>
+        <v>43279.500694444447</v>
       </c>
       <c r="F194" s="1"/>
     </row>
     <row r="195" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B195" t="s">
-        <v>187</v>
+        <v>163</v>
       </c>
       <c r="C195" s="2">
-        <v>7007697364981</v>
+        <v>6980285354065</v>
       </c>
       <c r="D195" t="s">
-        <v>56</v>
+        <v>87</v>
       </c>
       <c r="E195" s="1">
-        <v>43283.525694444441</v>
+        <v>43279.506944444445</v>
       </c>
       <c r="F195" s="1"/>
     </row>
     <row r="196" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B196" t="s">
-        <v>188</v>
+        <v>164</v>
       </c>
       <c r="C196" s="2">
-        <v>7007640364853</v>
+        <v>6980874353935</v>
       </c>
       <c r="D196" t="s">
-        <v>16</v>
+        <v>87</v>
       </c>
       <c r="E196" s="1">
-        <v>43283.529166666667</v>
+        <v>43279.515972222223</v>
       </c>
       <c r="F196" s="1"/>
     </row>
     <row r="197" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B197" t="s">
-        <v>189</v>
+        <v>165</v>
       </c>
       <c r="C197" s="2">
-        <v>7007642364847</v>
+        <v>6980891353931</v>
       </c>
       <c r="D197" t="s">
-        <v>130</v>
+        <v>166</v>
       </c>
       <c r="E197" s="1">
-        <v>43283.530555555553</v>
+        <v>43279.517361111109</v>
       </c>
       <c r="F197" s="1"/>
     </row>
     <row r="198" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B198" t="s">
-        <v>190</v>
+        <v>167</v>
       </c>
       <c r="C198" s="2">
-        <v>7007282364035</v>
+        <v>6980914353924</v>
       </c>
       <c r="D198" t="s">
-        <v>191</v>
+        <v>168</v>
       </c>
       <c r="E198" s="1">
-        <v>43283.542361111111</v>
+        <v>43279.518750000003</v>
       </c>
       <c r="F198" s="1"/>
     </row>
     <row r="199" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B199" t="s">
-        <v>192</v>
+        <v>169</v>
       </c>
       <c r="C199" s="2">
-        <v>7006937363535</v>
+        <v>7008446366454</v>
       </c>
       <c r="D199" t="s">
-        <v>193</v>
+        <v>170</v>
       </c>
       <c r="E199" s="1">
-        <v>43283.552777777775</v>
+        <v>43283.498611111114</v>
       </c>
       <c r="F199" s="1"/>
     </row>
     <row r="200" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B200" t="s">
-        <v>194</v>
+        <v>171</v>
       </c>
       <c r="C200" s="2">
-        <v>7006658363080</v>
+        <v>7008274366146</v>
       </c>
       <c r="D200" t="s">
-        <v>195</v>
+        <v>172</v>
       </c>
       <c r="E200" s="1">
-        <v>43283.56527777778</v>
+        <v>43283.506944444445</v>
       </c>
       <c r="F200" s="1"/>
     </row>
     <row r="201" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B201" t="s">
-        <v>196</v>
+        <v>173</v>
       </c>
       <c r="C201" s="2">
-        <v>7007092363031</v>
+        <v>7008058365732</v>
       </c>
       <c r="D201" t="s">
-        <v>197</v>
+        <v>21</v>
       </c>
       <c r="E201" s="1">
-        <v>43283.604861111111</v>
+        <v>43283.513888888891</v>
       </c>
       <c r="F201" s="1"/>
     </row>
     <row r="202" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B202" t="s">
-        <v>198</v>
+        <v>174</v>
       </c>
       <c r="C202" s="2">
-        <v>7007443362987</v>
+        <v>7007697364981</v>
       </c>
       <c r="D202" t="s">
-        <v>199</v>
+        <v>56</v>
       </c>
       <c r="E202" s="1">
-        <v>43283.613194444442</v>
+        <v>43283.525694444441</v>
       </c>
       <c r="F202" s="1"/>
     </row>
     <row r="203" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B203" t="s">
-        <v>200</v>
+        <v>175</v>
       </c>
       <c r="C203" s="2">
-        <v>7007870362915</v>
+        <v>7007640364853</v>
       </c>
       <c r="D203" t="s">
-        <v>201</v>
+        <v>16</v>
       </c>
       <c r="E203" s="1">
-        <v>43283.619444444441</v>
+        <v>43283.529166666667</v>
       </c>
       <c r="F203" s="1"/>
     </row>
     <row r="204" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B204" t="s">
-        <v>202</v>
+        <v>176</v>
       </c>
       <c r="C204" s="2">
-        <v>7010603362818</v>
+        <v>7007642364847</v>
       </c>
       <c r="D204" t="s">
-        <v>32</v>
+        <v>117</v>
       </c>
       <c r="E204" s="1">
-        <v>43283.652083333334</v>
+        <v>43283.530555555553</v>
       </c>
       <c r="F204" s="1"/>
     </row>
     <row r="205" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B205" t="s">
-        <v>203</v>
+        <v>177</v>
       </c>
       <c r="C205" s="2">
-        <v>7009945363862</v>
+        <v>7007282364035</v>
       </c>
       <c r="D205" t="s">
-        <v>19</v>
+        <v>178</v>
       </c>
       <c r="E205" s="1">
-        <v>43283.67291666667</v>
+        <v>43283.542361111111</v>
       </c>
       <c r="F205" s="1"/>
     </row>
     <row r="206" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B206" t="s">
-        <v>204</v>
+        <v>179</v>
       </c>
       <c r="C206" s="2">
-        <v>7009257365321</v>
+        <v>7006937363535</v>
       </c>
       <c r="D206" t="s">
-        <v>58</v>
+        <v>180</v>
       </c>
       <c r="E206" s="1">
-        <v>43283.743055555555</v>
+        <v>43283.552777777775</v>
       </c>
       <c r="F206" s="1"/>
     </row>
     <row r="207" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B207" t="s">
-        <v>205</v>
+        <v>181</v>
       </c>
       <c r="C207" s="2">
-        <v>7009246365393</v>
+        <v>7006658363080</v>
       </c>
       <c r="D207" t="s">
-        <v>21</v>
+        <v>182</v>
       </c>
       <c r="E207" s="1">
-        <v>43283.745138888888</v>
+        <v>43283.56527777778</v>
       </c>
       <c r="F207" s="1"/>
     </row>
     <row r="208" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B208" t="s">
-        <v>206</v>
+        <v>183</v>
       </c>
       <c r="C208" s="2">
-        <v>7009221365532</v>
+        <v>7007092363031</v>
       </c>
       <c r="D208" t="s">
-        <v>207</v>
+        <v>184</v>
       </c>
       <c r="E208" s="1">
-        <v>43283.747916666667</v>
+        <v>43283.604861111111</v>
       </c>
       <c r="F208" s="1"/>
     </row>
     <row r="209" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B209" t="s">
-        <v>208</v>
+        <v>185</v>
       </c>
       <c r="C209" s="2">
-        <v>7009215365581</v>
+        <v>7007443362987</v>
       </c>
       <c r="D209" t="s">
-        <v>70</v>
+        <v>186</v>
       </c>
       <c r="E209" s="1">
-        <v>43283.749305555553</v>
+        <v>43283.613194444442</v>
       </c>
       <c r="F209" s="1"/>
     </row>
     <row r="210" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B210" t="s">
-        <v>209</v>
+        <v>187</v>
       </c>
       <c r="C210" s="2">
-        <v>7009220365592</v>
+        <v>7007870362915</v>
       </c>
       <c r="D210" t="s">
-        <v>210</v>
+        <v>188</v>
       </c>
       <c r="E210" s="1">
-        <v>43283.750694444447</v>
+        <v>43283.619444444441</v>
       </c>
       <c r="F210" s="1"/>
     </row>
     <row r="211" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B211" t="s">
-        <v>211</v>
+        <v>189</v>
       </c>
       <c r="C211" s="2">
-        <v>7009216365643</v>
+        <v>7010603362818</v>
       </c>
       <c r="D211" t="s">
-        <v>212</v>
+        <v>32</v>
       </c>
       <c r="E211" s="1">
-        <v>43283.75277777778</v>
+        <v>43283.652083333334</v>
       </c>
       <c r="F211" s="1"/>
     </row>
     <row r="212" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B212" t="s">
-        <v>213</v>
+        <v>190</v>
       </c>
       <c r="C212" s="2">
-        <v>7009215365667</v>
+        <v>7009945363862</v>
       </c>
       <c r="D212" t="s">
-        <v>214</v>
+        <v>19</v>
       </c>
       <c r="E212" s="1">
-        <v>43283.753472222219</v>
+        <v>43283.67291666667</v>
       </c>
       <c r="F212" s="1"/>
     </row>
     <row r="213" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B213" t="s">
-        <v>215</v>
+        <v>191</v>
       </c>
       <c r="C213" s="2">
-        <v>7009073365892</v>
+        <v>7009257365321</v>
       </c>
       <c r="D213" t="s">
-        <v>216</v>
+        <v>58</v>
       </c>
       <c r="E213" s="1">
-        <v>43283.759027777778</v>
+        <v>43283.743055555555</v>
       </c>
       <c r="F213" s="1"/>
     </row>
     <row r="214" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B214" t="s">
-        <v>217</v>
+        <v>192</v>
       </c>
       <c r="C214" s="2">
-        <v>7008870366106</v>
+        <v>7009246365393</v>
       </c>
       <c r="D214" t="s">
-        <v>218</v>
+        <v>21</v>
       </c>
       <c r="E214" s="1">
-        <v>43283.765277777777</v>
+        <v>43283.745138888888</v>
       </c>
       <c r="F214" s="1"/>
     </row>
     <row r="215" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B215" t="s">
-        <v>219</v>
+        <v>193</v>
       </c>
       <c r="C215" s="2">
-        <v>7008555366617</v>
+        <v>7009221365532</v>
       </c>
       <c r="D215" t="s">
-        <v>220</v>
+        <v>194</v>
       </c>
       <c r="E215" s="1">
-        <v>43283.776388888888</v>
+        <v>43283.747916666667</v>
       </c>
       <c r="F215" s="1"/>
     </row>
     <row r="216" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B216" t="s">
-        <v>221</v>
+        <v>195</v>
       </c>
       <c r="C216" s="2">
-        <v>7008548366629</v>
+        <v>7009215365581</v>
       </c>
       <c r="D216" t="s">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="E216" s="1">
-        <v>43283.777777777781</v>
+        <v>43283.749305555553</v>
       </c>
       <c r="F216" s="1"/>
     </row>
     <row r="217" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B217" t="s">
-        <v>222</v>
+        <v>196</v>
       </c>
       <c r="C217" s="2">
-        <v>7008546366650</v>
+        <v>7009220365592</v>
       </c>
       <c r="D217" t="s">
-        <v>36</v>
+        <v>197</v>
       </c>
       <c r="E217" s="1">
-        <v>43283.779166666667</v>
+        <v>43283.750694444447</v>
       </c>
       <c r="F217" s="1"/>
     </row>
     <row r="218" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B218" t="s">
-        <v>223</v>
+        <v>198</v>
       </c>
       <c r="C218" s="2">
-        <v>7005699362925</v>
+        <v>7009216365643</v>
       </c>
       <c r="D218" t="s">
-        <v>224</v>
+        <v>199</v>
       </c>
       <c r="E218" s="1">
-        <v>43284.404861111114</v>
+        <v>43283.75277777778</v>
       </c>
       <c r="F218" s="1"/>
     </row>
     <row r="219" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B219" t="s">
-        <v>225</v>
+        <v>200</v>
       </c>
       <c r="C219" s="2">
-        <v>7003859361323</v>
+        <v>7009215365667</v>
       </c>
       <c r="D219" t="s">
-        <v>226</v>
+        <v>201</v>
       </c>
       <c r="E219" s="1">
-        <v>43284.474305555559</v>
+        <v>43283.753472222219</v>
       </c>
       <c r="F219" s="1"/>
     </row>
     <row r="220" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B220" t="s">
-        <v>227</v>
+        <v>202</v>
       </c>
       <c r="C220" s="2">
-        <v>7003856361321</v>
+        <v>7009073365892</v>
       </c>
       <c r="D220" t="s">
-        <v>226</v>
+        <v>203</v>
       </c>
       <c r="E220" s="1">
-        <v>43284.476388888892</v>
+        <v>43283.759027777778</v>
       </c>
       <c r="F220" s="1"/>
     </row>
     <row r="221" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B221" t="s">
-        <v>228</v>
+        <v>204</v>
       </c>
       <c r="C221" s="2">
-        <v>7003558361140</v>
+        <v>7008870366106</v>
       </c>
       <c r="D221" t="s">
-        <v>229</v>
+        <v>205</v>
       </c>
       <c r="E221" s="1">
-        <v>43284.481944444444</v>
+        <v>43283.765277777777</v>
       </c>
       <c r="F221" s="1"/>
     </row>
     <row r="222" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B222" t="s">
-        <v>230</v>
+        <v>206</v>
       </c>
       <c r="C222" s="2">
-        <v>7003118360900</v>
+        <v>7008555366617</v>
       </c>
       <c r="D222" t="s">
-        <v>231</v>
+        <v>207</v>
       </c>
       <c r="E222" s="1">
-        <v>43284.487500000003</v>
+        <v>43283.776388888888</v>
       </c>
       <c r="F222" s="1"/>
     </row>
     <row r="223" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B223" t="s">
-        <v>232</v>
+        <v>208</v>
       </c>
       <c r="C223" s="2">
-        <v>7002855360420</v>
+        <v>7008548366629</v>
       </c>
       <c r="D223" t="s">
-        <v>229</v>
+        <v>40</v>
       </c>
       <c r="E223" s="1">
-        <v>43284.509027777778</v>
+        <v>43283.777777777781</v>
       </c>
       <c r="F223" s="1"/>
     </row>
     <row r="224" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B224" t="s">
-        <v>233</v>
+        <v>209</v>
       </c>
       <c r="C224" s="2">
-        <v>7002885360403</v>
+        <v>7008546366650</v>
       </c>
       <c r="D224" t="s">
-        <v>234</v>
+        <v>36</v>
       </c>
       <c r="E224" s="1">
-        <v>43284.511111111111</v>
+        <v>43283.779166666667</v>
       </c>
       <c r="F224" s="1"/>
     </row>
     <row r="225" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B225" t="s">
-        <v>235</v>
+        <v>210</v>
       </c>
       <c r="C225" s="2">
-        <v>7003077360282</v>
+        <v>7005699362925</v>
       </c>
       <c r="D225" t="s">
-        <v>236</v>
+        <v>211</v>
       </c>
       <c r="E225" s="1">
-        <v>43284.51458333333</v>
+        <v>43284.404861111114</v>
       </c>
       <c r="F225" s="1"/>
     </row>
     <row r="226" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B226" t="s">
-        <v>237</v>
+        <v>212</v>
       </c>
       <c r="C226" s="2">
-        <v>7004668359365</v>
+        <v>7003859361323</v>
       </c>
       <c r="D226" t="s">
-        <v>238</v>
+        <v>213</v>
       </c>
       <c r="E226" s="1">
-        <v>43284.538194444445</v>
+        <v>43284.474305555559</v>
       </c>
       <c r="F226" s="1"/>
     </row>
     <row r="227" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B227" t="s">
-        <v>239</v>
+        <v>214</v>
       </c>
       <c r="C227" s="2">
-        <v>7004947359182</v>
+        <v>7003856361321</v>
       </c>
       <c r="D227" t="s">
-        <v>240</v>
+        <v>213</v>
       </c>
       <c r="E227" s="1">
-        <v>43284.543055555558</v>
+        <v>43284.476388888892</v>
       </c>
       <c r="F227" s="1"/>
     </row>
     <row r="228" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B228" t="s">
-        <v>241</v>
+        <v>215</v>
       </c>
       <c r="C228" s="2">
-        <v>7005389358896</v>
+        <v>7003558361140</v>
       </c>
       <c r="D228" t="s">
-        <v>106</v>
+        <v>216</v>
       </c>
       <c r="E228" s="1">
-        <v>43284.55</v>
+        <v>43284.481944444444</v>
       </c>
       <c r="F228" s="1"/>
     </row>
     <row r="229" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B229" t="s">
-        <v>242</v>
+        <v>217</v>
       </c>
       <c r="C229" s="2">
-        <v>7005467358844</v>
+        <v>7003118360900</v>
       </c>
       <c r="D229" t="s">
-        <v>106</v>
+        <v>218</v>
       </c>
       <c r="E229" s="1">
-        <v>43284.552083333336</v>
+        <v>43284.487500000003</v>
       </c>
       <c r="F229" s="1"/>
     </row>
     <row r="230" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B230" t="s">
-        <v>243</v>
+        <v>219</v>
       </c>
       <c r="C230" s="2">
-        <v>7005608358776</v>
+        <v>7002855360420</v>
       </c>
       <c r="D230" t="s">
-        <v>229</v>
+        <v>216</v>
       </c>
       <c r="E230" s="1">
-        <v>43284.554861111108</v>
+        <v>43284.509027777778</v>
       </c>
       <c r="F230" s="1"/>
     </row>
     <row r="231" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B231" t="s">
-        <v>244</v>
+        <v>220</v>
       </c>
       <c r="C231" s="2">
-        <v>7005953358605</v>
+        <v>7002885360403</v>
       </c>
       <c r="D231" t="s">
-        <v>245</v>
+        <v>221</v>
       </c>
       <c r="E231" s="1">
-        <v>43284.561111111114</v>
+        <v>43284.511111111111</v>
       </c>
       <c r="F231" s="1"/>
     </row>
     <row r="232" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B232" t="s">
-        <v>246</v>
+        <v>222</v>
       </c>
       <c r="C232" s="2">
-        <v>7005947359962</v>
+        <v>7003077360282</v>
       </c>
       <c r="D232" t="s">
-        <v>43</v>
+        <v>223</v>
       </c>
       <c r="E232" s="1">
-        <v>43284.581250000003</v>
+        <v>43284.51458333333</v>
       </c>
       <c r="F232" s="1"/>
     </row>
     <row r="233" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B233" t="s">
-        <v>247</v>
+        <v>224</v>
       </c>
       <c r="C233" s="2">
-        <v>7005968360361</v>
+        <v>7004668359365</v>
       </c>
       <c r="D233" t="s">
-        <v>43</v>
+        <v>225</v>
       </c>
       <c r="E233" s="1">
-        <v>43284.585416666669</v>
+        <v>43284.538194444445</v>
       </c>
       <c r="F233" s="1"/>
     </row>
     <row r="234" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B234" t="s">
-        <v>248</v>
+        <v>226</v>
       </c>
       <c r="C234" s="2">
-        <v>7005953361950</v>
+        <v>7004947359182</v>
       </c>
       <c r="D234" t="s">
-        <v>195</v>
+        <v>227</v>
       </c>
       <c r="E234" s="1">
-        <v>43284.602777777778</v>
+        <v>43284.543055555558</v>
       </c>
       <c r="F234" s="1"/>
     </row>
     <row r="235" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B235" t="s">
-        <v>249</v>
+        <v>228</v>
       </c>
       <c r="C235" s="2">
-        <v>7004327359068</v>
+        <v>7005389358896</v>
       </c>
       <c r="D235" t="s">
-        <v>250</v>
+        <v>93</v>
       </c>
       <c r="E235" s="1">
-        <v>43285.468055555553</v>
+        <v>43284.55</v>
       </c>
       <c r="F235" s="1"/>
     </row>
     <row r="236" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B236" t="s">
-        <v>251</v>
+        <v>229</v>
       </c>
       <c r="C236" s="2">
-        <v>7004323359062</v>
+        <v>7005467358844</v>
       </c>
       <c r="D236" t="s">
-        <v>252</v>
+        <v>93</v>
       </c>
       <c r="E236" s="1">
-        <v>43285.469444444447</v>
+        <v>43284.552083333336</v>
       </c>
       <c r="F236" s="1"/>
     </row>
     <row r="237" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B237" t="s">
-        <v>253</v>
+        <v>230</v>
       </c>
       <c r="C237" s="2">
-        <v>7004287358905</v>
+        <v>7005608358776</v>
       </c>
       <c r="D237" t="s">
-        <v>254</v>
+        <v>216</v>
       </c>
       <c r="E237" s="1">
-        <v>43285.472916666666</v>
+        <v>43284.554861111108</v>
       </c>
       <c r="F237" s="1"/>
     </row>
     <row r="238" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B238" t="s">
-        <v>255</v>
+        <v>231</v>
       </c>
       <c r="C238" s="2">
-        <v>7004221358773</v>
+        <v>7005953358605</v>
       </c>
       <c r="D238" t="s">
-        <v>256</v>
+        <v>232</v>
       </c>
       <c r="E238" s="1">
-        <v>43285.479861111111</v>
+        <v>43284.561111111114</v>
       </c>
       <c r="F238" s="1"/>
     </row>
     <row r="239" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B239" t="s">
-        <v>257</v>
+        <v>233</v>
       </c>
       <c r="C239" s="2">
-        <v>7003851357814</v>
+        <v>7005947359962</v>
       </c>
       <c r="D239" t="s">
-        <v>258</v>
+        <v>43</v>
       </c>
       <c r="E239" s="1">
-        <v>43285.495833333334</v>
+        <v>43284.581250000003</v>
       </c>
       <c r="F239" s="1"/>
     </row>
     <row r="240" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B240" t="s">
-        <v>259</v>
+        <v>234</v>
       </c>
       <c r="C240" s="2">
-        <v>7003591357126</v>
+        <v>7005968360361</v>
       </c>
       <c r="D240" t="s">
-        <v>260</v>
+        <v>43</v>
       </c>
       <c r="E240" s="1">
-        <v>43285.505555555559</v>
-      </c>
+        <v>43284.585416666669</v>
+      </c>
+      <c r="F240" s="1"/>
     </row>
     <row r="241" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B241" t="s">
-        <v>261</v>
+        <v>235</v>
       </c>
       <c r="C241" s="2">
-        <v>7003588357121</v>
+        <v>7005953361950</v>
       </c>
       <c r="D241" t="s">
-        <v>262</v>
+        <v>182</v>
       </c>
       <c r="E241" s="1">
-        <v>43285.507638888892</v>
+        <v>43284.602777777778</v>
       </c>
       <c r="F241" s="1"/>
     </row>
     <row r="242" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B242" t="s">
-        <v>263</v>
+        <v>236</v>
       </c>
       <c r="C242" s="2">
-        <v>7003563357072</v>
+        <v>7004327359068</v>
       </c>
       <c r="D242" t="s">
-        <v>264</v>
+        <v>237</v>
       </c>
       <c r="E242" s="1">
-        <v>43285.509722222225</v>
-      </c>
+        <v>43285.468055555553</v>
+      </c>
+      <c r="F242" s="1"/>
     </row>
     <row r="243" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B243" t="s">
-        <v>265</v>
+        <v>238</v>
       </c>
       <c r="C243" s="2">
-        <v>7003167356300</v>
+        <v>7004323359062</v>
       </c>
       <c r="D243" t="s">
-        <v>266</v>
+        <v>239</v>
       </c>
       <c r="E243" s="1">
-        <v>43285.520138888889</v>
+        <v>43285.469444444447</v>
       </c>
     </row>
     <row r="244" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B244" t="s">
-        <v>267</v>
+        <v>240</v>
       </c>
       <c r="C244" s="2">
-        <v>7003070356094</v>
+        <v>7004287358905</v>
       </c>
       <c r="D244" t="s">
-        <v>268</v>
+        <v>241</v>
       </c>
       <c r="E244" s="1">
-        <v>43285.525000000001</v>
-      </c>
+        <v>43285.472916666666</v>
+      </c>
+      <c r="F244" s="1"/>
     </row>
     <row r="245" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B245" t="s">
-        <v>269</v>
+        <v>242</v>
       </c>
       <c r="C245" s="2">
-        <v>7002942355831</v>
+        <v>7004221358773</v>
       </c>
       <c r="D245" t="s">
-        <v>270</v>
+        <v>243</v>
       </c>
       <c r="E245" s="1">
-        <v>43285.529166666667</v>
+        <v>43285.479861111111</v>
       </c>
     </row>
     <row r="246" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B246" t="s">
-        <v>271</v>
+        <v>244</v>
       </c>
       <c r="C246" s="2">
-        <v>7002927355804</v>
+        <v>7003851357814</v>
       </c>
       <c r="D246" t="s">
-        <v>272</v>
+        <v>245</v>
       </c>
       <c r="E246" s="1">
-        <v>43285.530555555553</v>
+        <v>43285.495833333334</v>
       </c>
     </row>
     <row r="247" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B247" t="s">
-        <v>273</v>
+        <v>246</v>
       </c>
       <c r="C247" s="2">
-        <v>7003815355805</v>
+        <v>7003591357126</v>
       </c>
       <c r="D247" t="s">
-        <v>274</v>
+        <v>247</v>
       </c>
       <c r="E247" s="1">
-        <v>43285.582638888889</v>
+        <v>43285.505555555559</v>
       </c>
     </row>
     <row r="248" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B248" t="s">
-        <v>275</v>
+        <v>248</v>
       </c>
       <c r="C248" s="2">
-        <v>7003868355815</v>
+        <v>7003588357121</v>
       </c>
       <c r="D248" t="s">
-        <v>276</v>
+        <v>249</v>
       </c>
       <c r="E248" s="1">
-        <v>43285.584027777775</v>
+        <v>43285.507638888892</v>
       </c>
     </row>
     <row r="249" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B249" t="s">
-        <v>277</v>
+        <v>250</v>
       </c>
       <c r="C249" s="2">
-        <v>7004676355956</v>
+        <v>7003563357072</v>
       </c>
       <c r="D249" t="s">
-        <v>278</v>
+        <v>251</v>
       </c>
       <c r="E249" s="1">
-        <v>43285.595138888886</v>
+        <v>43285.509722222225</v>
       </c>
     </row>
     <row r="250" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B250" t="s">
-        <v>279</v>
+        <v>252</v>
       </c>
       <c r="C250" s="2">
-        <v>7005109356038</v>
+        <v>7003167356300</v>
       </c>
       <c r="D250" t="s">
-        <v>280</v>
+        <v>253</v>
       </c>
       <c r="E250" s="1">
-        <v>43285.602083333331</v>
+        <v>43285.520138888889</v>
       </c>
     </row>
     <row r="251" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B251" t="s">
-        <v>281</v>
+        <v>254</v>
       </c>
       <c r="C251" s="2">
-        <v>7005919356186</v>
+        <v>7003070356094</v>
       </c>
       <c r="D251" t="s">
-        <v>282</v>
+        <v>255</v>
       </c>
       <c r="E251" s="1">
-        <v>43285.617361111108</v>
+        <v>43285.525000000001</v>
       </c>
     </row>
     <row r="252" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B252" t="s">
-        <v>283</v>
+        <v>256</v>
       </c>
       <c r="C252" s="2">
-        <v>7006690356269</v>
+        <v>7002942355831</v>
       </c>
       <c r="D252" t="s">
-        <v>284</v>
+        <v>257</v>
       </c>
       <c r="E252" s="1">
-        <v>43285.634722222225</v>
+        <v>43285.529166666667</v>
       </c>
     </row>
     <row r="253" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B253" t="s">
-        <v>285</v>
+        <v>258</v>
       </c>
       <c r="C253" s="2">
-        <v>7006735356287</v>
+        <v>7002927355804</v>
       </c>
       <c r="D253" t="s">
-        <v>286</v>
+        <v>259</v>
       </c>
       <c r="E253" s="1">
-        <v>43285.638194444444</v>
+        <v>43285.530555555553</v>
       </c>
     </row>
     <row r="254" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B254" t="s">
-        <v>287</v>
+        <v>260</v>
       </c>
       <c r="C254" s="2">
-        <v>7006631356457</v>
+        <v>7003815355805</v>
       </c>
       <c r="D254" t="s">
-        <v>288</v>
+        <v>261</v>
       </c>
       <c r="E254" s="1">
-        <v>43285.645833333336</v>
+        <v>43285.582638888889</v>
       </c>
     </row>
     <row r="255" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B255" t="s">
-        <v>289</v>
+        <v>262</v>
       </c>
       <c r="C255" s="2">
-        <v>7006501356636</v>
+        <v>7003868355815</v>
       </c>
       <c r="D255" t="s">
-        <v>290</v>
+        <v>263</v>
       </c>
       <c r="E255" s="1">
-        <v>43285.649305555555</v>
+        <v>43285.584027777775</v>
       </c>
     </row>
     <row r="256" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B256" t="s">
-        <v>291</v>
+        <v>264</v>
       </c>
       <c r="C256" s="2">
-        <v>7005394357987</v>
+        <v>7004676355956</v>
       </c>
       <c r="D256" t="s">
-        <v>245</v>
+        <v>265</v>
       </c>
       <c r="E256" s="1">
-        <v>43285.668749999997</v>
+        <v>43285.595138888886</v>
       </c>
     </row>
     <row r="257" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B257" t="s">
-        <v>292</v>
+        <v>266</v>
       </c>
       <c r="C257" s="2">
+        <v>7005109356038</v>
+      </c>
+      <c r="D257" t="s">
+        <v>267</v>
+      </c>
+      <c r="E257" s="1">
+        <v>43285.602083333331</v>
+      </c>
+    </row>
+    <row r="258" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B258" t="s">
+        <v>268</v>
+      </c>
+      <c r="C258" s="2">
+        <v>7005919356186</v>
+      </c>
+      <c r="D258" t="s">
+        <v>269</v>
+      </c>
+      <c r="E258" s="1">
+        <v>43285.617361111108</v>
+      </c>
+    </row>
+    <row r="259" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B259" t="s">
+        <v>270</v>
+      </c>
+      <c r="C259" s="2">
+        <v>7006690356269</v>
+      </c>
+      <c r="D259" t="s">
+        <v>271</v>
+      </c>
+      <c r="E259" s="1">
+        <v>43285.634722222225</v>
+      </c>
+    </row>
+    <row r="260" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B260" t="s">
+        <v>272</v>
+      </c>
+      <c r="C260" s="2">
+        <v>7006735356287</v>
+      </c>
+      <c r="D260" t="s">
+        <v>273</v>
+      </c>
+      <c r="E260" s="1">
+        <v>43285.638194444444</v>
+      </c>
+    </row>
+    <row r="261" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B261" t="s">
+        <v>274</v>
+      </c>
+      <c r="C261" s="2">
+        <v>7006631356457</v>
+      </c>
+      <c r="D261" t="s">
+        <v>275</v>
+      </c>
+      <c r="E261" s="1">
+        <v>43285.645833333336</v>
+      </c>
+    </row>
+    <row r="262" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B262" t="s">
+        <v>276</v>
+      </c>
+      <c r="C262" s="2">
+        <v>7006501356636</v>
+      </c>
+      <c r="D262" t="s">
+        <v>277</v>
+      </c>
+      <c r="E262" s="1">
+        <v>43285.649305555555</v>
+      </c>
+    </row>
+    <row r="263" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B263" t="s">
+        <v>278</v>
+      </c>
+      <c r="C263" s="2">
+        <v>7005394357987</v>
+      </c>
+      <c r="D263" t="s">
+        <v>232</v>
+      </c>
+      <c r="E263" s="1">
+        <v>43285.668749999997</v>
+      </c>
+    </row>
+    <row r="264" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B264" t="s">
+        <v>279</v>
+      </c>
+      <c r="C264" s="2">
         <v>7004438359158</v>
       </c>
-      <c r="D257" t="s">
-        <v>293</v>
-      </c>
-      <c r="E257" s="1">
+      <c r="D264" t="s">
+        <v>280</v>
+      </c>
+      <c r="E264" s="1">
         <v>43285.722916666666</v>
       </c>
     </row>
-    <row r="258" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A258" t="s">
-        <v>294</v>
-      </c>
-      <c r="B258" t="s">
-        <v>294</v>
-      </c>
-      <c r="C258" t="s">
-        <v>294</v>
-      </c>
-      <c r="D258" t="s">
-        <v>294</v>
-      </c>
-      <c r="E258" t="s">
-        <v>294</v>
+    <row r="265" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A265" t="s">
+        <v>281</v>
+      </c>
+      <c r="B265" t="s">
+        <v>281</v>
+      </c>
+      <c r="C265" t="s">
+        <v>281</v>
+      </c>
+      <c r="D265" t="s">
+        <v>281</v>
+      </c>
+      <c r="E265" t="s">
+        <v>281</v>
       </c>
     </row>
   </sheetData>

--- a/Rawdata/tor.riptransekter helags sommar 2018.xlsx
+++ b/Rawdata/tor.riptransekter helags sommar 2018.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1058" uniqueCount="380">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1147" uniqueCount="377">
   <si>
     <t>lya</t>
   </si>
@@ -299,69 +299,27 @@
     <t>937 m</t>
   </si>
   <si>
-    <t>RS1161</t>
-  </si>
-  <si>
-    <t>NYRIKT26</t>
-  </si>
-  <si>
     <t>876 m</t>
   </si>
   <si>
-    <t>NYRIKT214</t>
-  </si>
-  <si>
-    <t>RS252</t>
-  </si>
-  <si>
     <t>904 m</t>
   </si>
   <si>
-    <t>RS351</t>
-  </si>
-  <si>
     <t>868 m</t>
   </si>
   <si>
-    <t>FJALLABB5</t>
-  </si>
-  <si>
     <t>906 m</t>
   </si>
   <si>
-    <t>FJALLVRAK4</t>
-  </si>
-  <si>
     <t>920 m</t>
   </si>
   <si>
-    <t>FJALLABB12</t>
-  </si>
-  <si>
     <t>924 m</t>
   </si>
   <si>
-    <t>RS451</t>
-  </si>
-  <si>
-    <t>RS551</t>
-  </si>
-  <si>
     <t>956 m</t>
   </si>
   <si>
-    <t>RS651</t>
-  </si>
-  <si>
-    <t>NYRIKT223</t>
-  </si>
-  <si>
-    <t>RS751</t>
-  </si>
-  <si>
-    <t>FJALLVRAK1</t>
-  </si>
-  <si>
     <t>898 m</t>
   </si>
   <si>
@@ -1164,6 +1122,39 @@
   </si>
   <si>
     <t>ljusa, tjocka oformliga</t>
+  </si>
+  <si>
+    <t>zz096</t>
+  </si>
+  <si>
+    <t>1031 m</t>
+  </si>
+  <si>
+    <t>soligt, nästan vindstilla, 15°C</t>
+  </si>
+  <si>
+    <t>ljus, oformlig</t>
+  </si>
+  <si>
+    <t>STARTZZ096</t>
+  </si>
+  <si>
+    <t>896 m</t>
+  </si>
+  <si>
+    <t>FJALLVRAK</t>
+  </si>
+  <si>
+    <t>FJÄLLVRÅK</t>
+  </si>
+  <si>
+    <t>ljusa, spridda</t>
+  </si>
+  <si>
+    <t>985 m</t>
+  </si>
+  <si>
+    <t>bruna, låg i vatten</t>
   </si>
 </sst>
 </file>
@@ -1518,11 +1509,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7481D24-4BBD-9743-96A3-63B52605E732}">
-  <dimension ref="A1:O265"/>
+  <dimension ref="A1:O276"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A123" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G143" sqref="G143"/>
+      <pane ySplit="1" topLeftCell="A159" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H170" sqref="H170"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1557,7 +1548,7 @@
         <v>7</v>
       </c>
       <c r="I1" t="s">
-        <v>369</v>
+        <v>355</v>
       </c>
       <c r="J1" t="s">
         <v>8</v>
@@ -1580,33 +1571,33 @@
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>282</v>
+        <v>268</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>283</v>
+        <v>269</v>
       </c>
       <c r="C2" s="2">
         <v>6976680377753</v>
       </c>
       <c r="D2" t="s">
-        <v>284</v>
+        <v>270</v>
       </c>
       <c r="E2" s="1">
         <v>43271.520833333336</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>286</v>
+        <v>272</v>
       </c>
       <c r="N2" t="s">
-        <v>309</v>
+        <v>295</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>282</v>
+        <v>268</v>
       </c>
       <c r="B3" t="s">
-        <v>287</v>
+        <v>273</v>
       </c>
       <c r="C3" s="2">
         <v>6976296377160</v>
@@ -1618,7 +1609,7 @@
         <v>43271.53125</v>
       </c>
       <c r="F3" t="s">
-        <v>288</v>
+        <v>274</v>
       </c>
       <c r="G3">
         <v>2.42</v>
@@ -1633,18 +1624,18 @@
         <v>2</v>
       </c>
       <c r="M3" t="s">
-        <v>308</v>
+        <v>294</v>
       </c>
       <c r="N3" t="s">
-        <v>309</v>
+        <v>295</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>282</v>
+        <v>268</v>
       </c>
       <c r="B4" t="s">
-        <v>289</v>
+        <v>275</v>
       </c>
       <c r="C4" s="2">
         <v>6976013376681</v>
@@ -1656,7 +1647,7 @@
         <v>43271.539583333331</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>288</v>
+        <v>274</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -1671,18 +1662,18 @@
         <v>17</v>
       </c>
       <c r="M4" t="s">
-        <v>310</v>
+        <v>296</v>
       </c>
       <c r="N4" t="s">
-        <v>309</v>
+        <v>295</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>282</v>
+        <v>268</v>
       </c>
       <c r="B5" t="s">
-        <v>290</v>
+        <v>276</v>
       </c>
       <c r="C5" s="2">
         <v>6975623376165</v>
@@ -1694,7 +1685,7 @@
         <v>43271.549305555556</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>288</v>
+        <v>274</v>
       </c>
       <c r="G5">
         <v>0.89</v>
@@ -1709,18 +1700,18 @@
         <v>3</v>
       </c>
       <c r="M5" t="s">
-        <v>310</v>
+        <v>296</v>
       </c>
       <c r="N5" t="s">
-        <v>309</v>
+        <v>295</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>282</v>
+        <v>268</v>
       </c>
       <c r="B6" t="s">
-        <v>291</v>
+        <v>277</v>
       </c>
       <c r="C6" s="2">
         <v>6975398375851</v>
@@ -1732,7 +1723,7 @@
         <v>43271.554861111108</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>288</v>
+        <v>274</v>
       </c>
       <c r="G6">
         <v>2.5299999999999998</v>
@@ -1747,18 +1738,18 @@
         <v>21</v>
       </c>
       <c r="M6" t="s">
-        <v>311</v>
+        <v>297</v>
       </c>
       <c r="N6" t="s">
-        <v>309</v>
+        <v>295</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>282</v>
+        <v>268</v>
       </c>
       <c r="B7" t="s">
-        <v>292</v>
+        <v>278</v>
       </c>
       <c r="C7" s="2">
         <v>6975378375815</v>
@@ -1770,7 +1761,7 @@
         <v>43271.556944444441</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>288</v>
+        <v>274</v>
       </c>
       <c r="G7">
         <v>0.02</v>
@@ -1785,18 +1776,18 @@
         <v>32</v>
       </c>
       <c r="M7" t="s">
-        <v>312</v>
+        <v>298</v>
       </c>
       <c r="N7" t="s">
-        <v>309</v>
+        <v>295</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>282</v>
+        <v>268</v>
       </c>
       <c r="B8" t="s">
-        <v>293</v>
+        <v>279</v>
       </c>
       <c r="C8" s="2">
         <v>6975015375406</v>
@@ -1808,7 +1799,7 @@
         <v>43271.563888888886</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>288</v>
+        <v>274</v>
       </c>
       <c r="G8">
         <v>0.35</v>
@@ -1820,44 +1811,44 @@
         <v>2</v>
       </c>
       <c r="L8" t="s">
-        <v>313</v>
+        <v>299</v>
       </c>
       <c r="M8" t="s">
-        <v>314</v>
+        <v>300</v>
       </c>
       <c r="N8" t="s">
-        <v>309</v>
+        <v>295</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>282</v>
+        <v>268</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>294</v>
+        <v>280</v>
       </c>
       <c r="C9" s="2">
         <v>6974207374604</v>
       </c>
       <c r="D9" t="s">
-        <v>295</v>
+        <v>281</v>
       </c>
       <c r="E9" s="1">
         <v>43271.579861111109</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="N9" t="s">
-        <v>309</v>
+        <v>295</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
+        <v>268</v>
+      </c>
+      <c r="B10" t="s">
         <v>282</v>
-      </c>
-      <c r="B10" t="s">
-        <v>296</v>
       </c>
       <c r="C10" s="2">
         <v>6977240373959</v>
@@ -1869,18 +1860,18 @@
         <v>43271.618055555555</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>297</v>
+        <v>283</v>
       </c>
       <c r="N10" t="s">
-        <v>309</v>
+        <v>295</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>282</v>
+        <v>268</v>
       </c>
       <c r="B11" t="s">
-        <v>298</v>
+        <v>284</v>
       </c>
       <c r="C11" s="2">
         <v>6977315373891</v>
@@ -1892,7 +1883,7 @@
         <v>43271.619444444441</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>288</v>
+        <v>274</v>
       </c>
       <c r="G11">
         <v>0.43</v>
@@ -1907,18 +1898,18 @@
         <v>1</v>
       </c>
       <c r="M11" t="s">
-        <v>315</v>
+        <v>301</v>
       </c>
       <c r="N11" t="s">
-        <v>309</v>
+        <v>295</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
+        <v>268</v>
+      </c>
+      <c r="B12" t="s">
         <v>282</v>
-      </c>
-      <c r="B12" t="s">
-        <v>296</v>
       </c>
       <c r="C12" s="2">
         <v>6977394373829</v>
@@ -1930,18 +1921,18 @@
         <v>43271.62222222222</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>297</v>
+        <v>283</v>
       </c>
       <c r="N12" t="s">
-        <v>309</v>
+        <v>295</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>282</v>
+        <v>268</v>
       </c>
       <c r="B13" t="s">
-        <v>299</v>
+        <v>285</v>
       </c>
       <c r="C13" s="2">
         <v>6977624373925</v>
@@ -1953,7 +1944,7 @@
         <v>43271.625694444447</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>288</v>
+        <v>274</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -1968,18 +1959,18 @@
         <v>2</v>
       </c>
       <c r="M13" t="s">
-        <v>316</v>
+        <v>302</v>
       </c>
       <c r="N13" t="s">
-        <v>309</v>
+        <v>295</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
+        <v>268</v>
+      </c>
+      <c r="B14" t="s">
         <v>282</v>
-      </c>
-      <c r="B14" t="s">
-        <v>296</v>
       </c>
       <c r="C14" s="2">
         <v>6977758373979</v>
@@ -1991,18 +1982,18 @@
         <v>43271.628472222219</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>297</v>
+        <v>283</v>
       </c>
       <c r="N14" t="s">
-        <v>309</v>
+        <v>295</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>282</v>
+        <v>268</v>
       </c>
       <c r="B15" t="s">
-        <v>300</v>
+        <v>286</v>
       </c>
       <c r="C15" s="2">
         <v>6977791373973</v>
@@ -2014,7 +2005,7 @@
         <v>43271.629861111112</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>288</v>
+        <v>274</v>
       </c>
       <c r="G15">
         <v>0.39</v>
@@ -2029,18 +2020,18 @@
         <v>27</v>
       </c>
       <c r="M15" t="s">
-        <v>317</v>
+        <v>303</v>
       </c>
       <c r="N15" t="s">
-        <v>309</v>
+        <v>295</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>282</v>
+        <v>268</v>
       </c>
       <c r="B16" t="s">
-        <v>301</v>
+        <v>287</v>
       </c>
       <c r="C16" s="2">
         <v>6977844373969</v>
@@ -2052,7 +2043,7 @@
         <v>43271.631944444445</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>288</v>
+        <v>274</v>
       </c>
       <c r="G16">
         <v>0</v>
@@ -2067,18 +2058,18 @@
         <v>1</v>
       </c>
       <c r="M16" t="s">
-        <v>318</v>
+        <v>304</v>
       </c>
       <c r="N16" t="s">
-        <v>309</v>
+        <v>295</v>
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>282</v>
+        <v>268</v>
       </c>
       <c r="B17" t="s">
-        <v>302</v>
+        <v>288</v>
       </c>
       <c r="C17" s="2">
         <v>6978044373945</v>
@@ -2090,7 +2081,7 @@
         <v>43271.634722222225</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>288</v>
+        <v>274</v>
       </c>
       <c r="G17">
         <v>0.1</v>
@@ -2105,41 +2096,41 @@
         <v>1</v>
       </c>
       <c r="M17" t="s">
-        <v>316</v>
+        <v>302</v>
       </c>
       <c r="N17" t="s">
-        <v>309</v>
+        <v>295</v>
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>282</v>
+        <v>268</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>303</v>
+        <v>289</v>
       </c>
       <c r="C18" s="2">
         <v>6978155373957</v>
       </c>
       <c r="D18" t="s">
-        <v>304</v>
+        <v>290</v>
       </c>
       <c r="E18" s="1">
         <v>43271.637499999997</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="N18" t="s">
-        <v>309</v>
+        <v>295</v>
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>282</v>
+        <v>268</v>
       </c>
       <c r="B19" t="s">
-        <v>305</v>
+        <v>291</v>
       </c>
       <c r="C19" s="2">
         <v>6977403375505</v>
@@ -2151,7 +2142,7 @@
         <v>43271.656944444447</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>288</v>
+        <v>274</v>
       </c>
       <c r="G19">
         <v>0.59</v>
@@ -2163,21 +2154,21 @@
         <v>2</v>
       </c>
       <c r="L19" t="s">
-        <v>319</v>
+        <v>305</v>
       </c>
       <c r="M19" t="s">
-        <v>320</v>
+        <v>306</v>
       </c>
       <c r="N19" t="s">
-        <v>309</v>
+        <v>295</v>
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>282</v>
+        <v>268</v>
       </c>
       <c r="B20" t="s">
-        <v>306</v>
+        <v>292</v>
       </c>
       <c r="C20" s="2">
         <v>6977221375845</v>
@@ -2189,7 +2180,7 @@
         <v>43271.662499999999</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>288</v>
+        <v>274</v>
       </c>
       <c r="G20">
         <v>0</v>
@@ -2204,18 +2195,18 @@
         <v>28</v>
       </c>
       <c r="M20" t="s">
-        <v>321</v>
+        <v>307</v>
       </c>
       <c r="N20" t="s">
-        <v>309</v>
+        <v>295</v>
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>282</v>
+        <v>268</v>
       </c>
       <c r="B21" t="s">
-        <v>307</v>
+        <v>293</v>
       </c>
       <c r="C21" s="2">
         <v>6976904376798</v>
@@ -2227,7 +2218,7 @@
         <v>43271.713888888888</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>288</v>
+        <v>274</v>
       </c>
       <c r="G21">
         <v>0.62</v>
@@ -2242,41 +2233,41 @@
         <v>2</v>
       </c>
       <c r="M21" t="s">
-        <v>322</v>
+        <v>308</v>
       </c>
       <c r="N21" t="s">
-        <v>309</v>
+        <v>295</v>
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>282</v>
+        <v>268</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>283</v>
+        <v>269</v>
       </c>
       <c r="C22" s="2">
         <v>6976680377753</v>
       </c>
       <c r="D22" t="s">
-        <v>284</v>
+        <v>270</v>
       </c>
       <c r="E22" s="1">
         <v>43271.725694444445</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>371</v>
+        <v>357</v>
       </c>
       <c r="N22" t="s">
-        <v>309</v>
+        <v>295</v>
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>323</v>
+        <v>309</v>
       </c>
       <c r="B24" t="s">
-        <v>324</v>
+        <v>310</v>
       </c>
       <c r="C24" s="2">
         <v>6973557372594</v>
@@ -2288,18 +2279,18 @@
         <v>43272.509722222225</v>
       </c>
       <c r="F24" t="s">
-        <v>286</v>
+        <v>272</v>
       </c>
       <c r="N24" t="s">
-        <v>330</v>
+        <v>316</v>
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>323</v>
+        <v>309</v>
       </c>
       <c r="B25" t="s">
-        <v>287</v>
+        <v>273</v>
       </c>
       <c r="C25" s="2">
         <v>6972945370967</v>
@@ -2311,7 +2302,7 @@
         <v>43272.530555555553</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>288</v>
+        <v>274</v>
       </c>
       <c r="G25">
         <v>0.33</v>
@@ -2326,15 +2317,15 @@
         <v>2</v>
       </c>
       <c r="M25" t="s">
-        <v>322</v>
+        <v>308</v>
       </c>
       <c r="N25" t="s">
-        <v>330</v>
+        <v>316</v>
       </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>323</v>
+        <v>309</v>
       </c>
       <c r="B26" t="s">
         <v>30</v>
@@ -2349,7 +2340,7 @@
         <v>43272.53402777778</v>
       </c>
       <c r="F26" t="s">
-        <v>325</v>
+        <v>311</v>
       </c>
       <c r="G26">
         <v>8.5299999999999994</v>
@@ -2361,15 +2352,15 @@
         <v>1</v>
       </c>
       <c r="N26" t="s">
-        <v>330</v>
+        <v>316</v>
       </c>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>323</v>
+        <v>309</v>
       </c>
       <c r="B27" t="s">
-        <v>289</v>
+        <v>275</v>
       </c>
       <c r="C27" s="2">
         <v>6972775370330</v>
@@ -2381,7 +2372,7 @@
         <v>43272.539583333331</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>288</v>
+        <v>274</v>
       </c>
       <c r="G27">
         <v>0.05</v>
@@ -2396,41 +2387,41 @@
         <v>2</v>
       </c>
       <c r="M27" t="s">
-        <v>331</v>
+        <v>317</v>
       </c>
       <c r="N27" t="s">
-        <v>330</v>
+        <v>316</v>
       </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>323</v>
+        <v>309</v>
       </c>
       <c r="B28" t="s">
-        <v>283</v>
+        <v>269</v>
       </c>
       <c r="C28" s="2">
         <v>6972275368795</v>
       </c>
       <c r="D28" t="s">
-        <v>326</v>
+        <v>312</v>
       </c>
       <c r="E28" s="1">
         <v>43272.561111111114</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="N28" t="s">
-        <v>330</v>
+        <v>316</v>
       </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>323</v>
+        <v>309</v>
       </c>
       <c r="B29" t="s">
-        <v>290</v>
+        <v>276</v>
       </c>
       <c r="C29" s="2">
         <v>6972145368891</v>
@@ -2442,7 +2433,7 @@
         <v>43272.564583333333</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>288</v>
+        <v>274</v>
       </c>
       <c r="G29">
         <v>0</v>
@@ -2457,18 +2448,18 @@
         <v>25</v>
       </c>
       <c r="M29" t="s">
-        <v>332</v>
+        <v>318</v>
       </c>
       <c r="N29" t="s">
-        <v>330</v>
+        <v>316</v>
       </c>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>323</v>
+        <v>309</v>
       </c>
       <c r="B30" t="s">
-        <v>291</v>
+        <v>277</v>
       </c>
       <c r="C30" s="2">
         <v>6971716369396</v>
@@ -2480,7 +2471,7 @@
         <v>43272.57708333333</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>288</v>
+        <v>274</v>
       </c>
       <c r="G30">
         <v>0.18</v>
@@ -2495,18 +2486,18 @@
         <v>9</v>
       </c>
       <c r="M30" t="s">
-        <v>312</v>
+        <v>298</v>
       </c>
       <c r="N30" t="s">
-        <v>330</v>
+        <v>316</v>
       </c>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>323</v>
+        <v>309</v>
       </c>
       <c r="B31" t="s">
-        <v>291</v>
+        <v>277</v>
       </c>
       <c r="C31" s="2">
         <v>6971716369396</v>
@@ -2518,7 +2509,7 @@
         <v>43272.57708333333</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>288</v>
+        <v>274</v>
       </c>
       <c r="G31">
         <v>0.36</v>
@@ -2533,18 +2524,18 @@
         <v>10</v>
       </c>
       <c r="M31" t="s">
-        <v>312</v>
+        <v>298</v>
       </c>
       <c r="N31" t="s">
-        <v>330</v>
+        <v>316</v>
       </c>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>323</v>
+        <v>309</v>
       </c>
       <c r="B32" t="s">
-        <v>292</v>
+        <v>278</v>
       </c>
       <c r="C32" s="2">
         <v>6971670369452</v>
@@ -2556,7 +2547,7 @@
         <v>43272.579861111109</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>288</v>
+        <v>274</v>
       </c>
       <c r="G32">
         <v>0.12</v>
@@ -2571,18 +2562,18 @@
         <v>28</v>
       </c>
       <c r="M32" t="s">
-        <v>312</v>
+        <v>298</v>
       </c>
       <c r="N32" t="s">
-        <v>330</v>
+        <v>316</v>
       </c>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>323</v>
+        <v>309</v>
       </c>
       <c r="B33" t="s">
-        <v>292</v>
+        <v>278</v>
       </c>
       <c r="C33" s="2">
         <v>6971670369452</v>
@@ -2594,7 +2585,7 @@
         <v>43272.579861111109</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>288</v>
+        <v>274</v>
       </c>
       <c r="G33">
         <v>0.03</v>
@@ -2609,15 +2600,15 @@
         <v>32</v>
       </c>
       <c r="M33" t="s">
-        <v>312</v>
+        <v>298</v>
       </c>
       <c r="N33" t="s">
-        <v>330</v>
+        <v>316</v>
       </c>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>323</v>
+        <v>309</v>
       </c>
       <c r="B34" t="s">
         <v>30</v>
@@ -2632,7 +2623,7 @@
         <v>43272.59097222222</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>325</v>
+        <v>311</v>
       </c>
       <c r="G34">
         <v>12</v>
@@ -2644,15 +2635,15 @@
         <v>1</v>
       </c>
       <c r="N34" t="s">
-        <v>330</v>
+        <v>316</v>
       </c>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>323</v>
+        <v>309</v>
       </c>
       <c r="B35" t="s">
-        <v>296</v>
+        <v>282</v>
       </c>
       <c r="C35" s="2">
         <v>6970950370375</v>
@@ -2664,18 +2655,18 @@
         <v>43272.599305555559</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>297</v>
+        <v>283</v>
       </c>
       <c r="N35" t="s">
-        <v>330</v>
+        <v>316</v>
       </c>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>323</v>
+        <v>309</v>
       </c>
       <c r="B36" t="s">
-        <v>327</v>
+        <v>313</v>
       </c>
       <c r="C36" s="2">
         <v>6971077370439</v>
@@ -2687,7 +2678,7 @@
         <v>43272.602777777778</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>328</v>
+        <v>314</v>
       </c>
       <c r="G36">
         <v>18.600000000000001</v>
@@ -2696,21 +2687,21 @@
         <v>348</v>
       </c>
       <c r="I36" t="s">
-        <v>329</v>
+        <v>315</v>
       </c>
       <c r="L36">
         <v>1</v>
       </c>
       <c r="N36" t="s">
-        <v>330</v>
+        <v>316</v>
       </c>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>323</v>
+        <v>309</v>
       </c>
       <c r="B37" t="s">
-        <v>296</v>
+        <v>282</v>
       </c>
       <c r="C37" s="2">
         <v>6971115370459</v>
@@ -2722,18 +2713,18 @@
         <v>43272.604861111111</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>297</v>
+        <v>283</v>
       </c>
       <c r="N37" t="s">
-        <v>330</v>
+        <v>316</v>
       </c>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>323</v>
+        <v>309</v>
       </c>
       <c r="B38" t="s">
-        <v>293</v>
+        <v>279</v>
       </c>
       <c r="C38" s="2">
         <v>6970732370812</v>
@@ -2745,7 +2736,7 @@
         <v>43272.611111111109</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>288</v>
+        <v>274</v>
       </c>
       <c r="G38">
         <v>7.0000000000000007E-2</v>
@@ -2760,18 +2751,18 @@
         <v>12</v>
       </c>
       <c r="M38" t="s">
+        <v>302</v>
+      </c>
+      <c r="N38" t="s">
         <v>316</v>
-      </c>
-      <c r="N38" t="s">
-        <v>330</v>
       </c>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>323</v>
+        <v>309</v>
       </c>
       <c r="B39" t="s">
-        <v>298</v>
+        <v>284</v>
       </c>
       <c r="C39" s="2">
         <v>6970232371242</v>
@@ -2783,7 +2774,7 @@
         <v>43272.620138888888</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>288</v>
+        <v>274</v>
       </c>
       <c r="G39">
         <v>0.03</v>
@@ -2798,15 +2789,15 @@
         <v>1</v>
       </c>
       <c r="M39" t="s">
-        <v>315</v>
+        <v>301</v>
       </c>
       <c r="N39" t="s">
-        <v>330</v>
+        <v>316</v>
       </c>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>323</v>
+        <v>309</v>
       </c>
       <c r="B40" t="s">
         <v>30</v>
@@ -2821,7 +2812,7 @@
         <v>43272.62222222222</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>325</v>
+        <v>311</v>
       </c>
       <c r="G40">
         <v>89</v>
@@ -2833,15 +2824,15 @@
         <v>2</v>
       </c>
       <c r="N40" t="s">
-        <v>330</v>
+        <v>316</v>
       </c>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>323</v>
+        <v>309</v>
       </c>
       <c r="B41" t="s">
-        <v>294</v>
+        <v>280</v>
       </c>
       <c r="C41" s="2">
         <v>6969791371950</v>
@@ -2853,18 +2844,18 @@
         <v>43272.637499999997</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="N41" t="s">
-        <v>330</v>
+        <v>316</v>
       </c>
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>323</v>
+        <v>309</v>
       </c>
       <c r="B42" t="s">
-        <v>299</v>
+        <v>285</v>
       </c>
       <c r="C42" s="2">
         <v>6970457371894</v>
@@ -2876,7 +2867,7 @@
         <v>43272.645833333336</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>288</v>
+        <v>274</v>
       </c>
       <c r="G42">
         <v>0</v>
@@ -2891,18 +2882,18 @@
         <v>16</v>
       </c>
       <c r="M42" t="s">
-        <v>333</v>
+        <v>319</v>
       </c>
       <c r="N42" t="s">
-        <v>330</v>
+        <v>316</v>
       </c>
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>323</v>
+        <v>309</v>
       </c>
       <c r="B43" t="s">
-        <v>300</v>
+        <v>286</v>
       </c>
       <c r="C43" s="2">
         <v>6970401372178</v>
@@ -2914,7 +2905,7 @@
         <v>43272.647916666669</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>288</v>
+        <v>274</v>
       </c>
       <c r="G43">
         <v>0.48</v>
@@ -2929,18 +2920,18 @@
         <v>3</v>
       </c>
       <c r="M43" t="s">
+        <v>302</v>
+      </c>
+      <c r="N43" t="s">
         <v>316</v>
-      </c>
-      <c r="N43" t="s">
-        <v>330</v>
       </c>
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>323</v>
+        <v>309</v>
       </c>
       <c r="B44" t="s">
-        <v>300</v>
+        <v>286</v>
       </c>
       <c r="C44" s="2">
         <v>6970401372178</v>
@@ -2952,7 +2943,7 @@
         <v>43272.647916666669</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>288</v>
+        <v>274</v>
       </c>
       <c r="G44">
         <v>1.0900000000000001</v>
@@ -2964,18 +2955,18 @@
         <v>1</v>
       </c>
       <c r="M44" t="s">
+        <v>302</v>
+      </c>
+      <c r="N44" t="s">
         <v>316</v>
-      </c>
-      <c r="N44" t="s">
-        <v>330</v>
       </c>
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>323</v>
+        <v>309</v>
       </c>
       <c r="B45" t="s">
-        <v>301</v>
+        <v>287</v>
       </c>
       <c r="C45" s="2">
         <v>6972049372362</v>
@@ -2987,7 +2978,7 @@
         <v>43272.762499999997</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>288</v>
+        <v>274</v>
       </c>
       <c r="G45">
         <v>0.39</v>
@@ -3002,18 +2993,18 @@
         <v>16</v>
       </c>
       <c r="M45" t="s">
-        <v>334</v>
+        <v>320</v>
       </c>
       <c r="N45" t="s">
-        <v>330</v>
+        <v>316</v>
       </c>
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>323</v>
+        <v>309</v>
       </c>
       <c r="B46" t="s">
-        <v>302</v>
+        <v>288</v>
       </c>
       <c r="C46" s="2">
         <v>6972064372366</v>
@@ -3025,7 +3016,7 @@
         <v>43272.763888888891</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>288</v>
+        <v>274</v>
       </c>
       <c r="G46">
         <v>0.08</v>
@@ -3040,18 +3031,18 @@
         <v>17</v>
       </c>
       <c r="M46" t="s">
-        <v>334</v>
+        <v>320</v>
       </c>
       <c r="N46" t="s">
-        <v>330</v>
+        <v>316</v>
       </c>
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>323</v>
+        <v>309</v>
       </c>
       <c r="B47" t="s">
-        <v>302</v>
+        <v>288</v>
       </c>
       <c r="C47" s="2">
         <v>6972064372366</v>
@@ -3063,7 +3054,7 @@
         <v>43272.763888888891</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>288</v>
+        <v>274</v>
       </c>
       <c r="G47">
         <v>0.34</v>
@@ -3078,18 +3069,18 @@
         <v>14</v>
       </c>
       <c r="M47" t="s">
-        <v>334</v>
+        <v>320</v>
       </c>
       <c r="N47" t="s">
-        <v>330</v>
+        <v>316</v>
       </c>
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>323</v>
+        <v>309</v>
       </c>
       <c r="B48" t="s">
-        <v>305</v>
+        <v>291</v>
       </c>
       <c r="C48" s="2">
         <v>6972536372393</v>
@@ -3101,7 +3092,7 @@
         <v>43272.770138888889</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>288</v>
+        <v>274</v>
       </c>
       <c r="G48">
         <v>0</v>
@@ -3116,18 +3107,18 @@
         <v>5</v>
       </c>
       <c r="M48" t="s">
-        <v>334</v>
+        <v>320</v>
       </c>
       <c r="N48" t="s">
-        <v>330</v>
+        <v>316</v>
       </c>
     </row>
     <row r="49" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>323</v>
+        <v>309</v>
       </c>
       <c r="B49" t="s">
-        <v>306</v>
+        <v>292</v>
       </c>
       <c r="C49" s="2">
         <v>6972698372400</v>
@@ -3139,7 +3130,7 @@
         <v>43272.772916666669</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>288</v>
+        <v>274</v>
       </c>
       <c r="G49">
         <v>0.16</v>
@@ -3154,18 +3145,18 @@
         <v>22</v>
       </c>
       <c r="M49" t="s">
-        <v>334</v>
+        <v>320</v>
       </c>
       <c r="N49" t="s">
-        <v>330</v>
+        <v>316</v>
       </c>
     </row>
     <row r="50" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>323</v>
+        <v>309</v>
       </c>
       <c r="B50" t="s">
-        <v>306</v>
+        <v>292</v>
       </c>
       <c r="C50" s="2">
         <v>6972698372400</v>
@@ -3177,7 +3168,7 @@
         <v>43272.772916666669</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>288</v>
+        <v>274</v>
       </c>
       <c r="G50">
         <v>0.31</v>
@@ -3192,18 +3183,18 @@
         <v>18</v>
       </c>
       <c r="M50" t="s">
-        <v>334</v>
+        <v>320</v>
       </c>
       <c r="N50" t="s">
-        <v>330</v>
+        <v>316</v>
       </c>
     </row>
     <row r="51" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>323</v>
+        <v>309</v>
       </c>
       <c r="B51" t="s">
-        <v>324</v>
+        <v>310</v>
       </c>
       <c r="C51" s="2">
         <v>6973557372594</v>
@@ -3215,18 +3206,18 @@
         <v>43272.78402777778</v>
       </c>
       <c r="F51" t="s">
-        <v>371</v>
+        <v>357</v>
       </c>
       <c r="N51" t="s">
-        <v>330</v>
+        <v>316</v>
       </c>
     </row>
     <row r="53" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>335</v>
+        <v>321</v>
       </c>
       <c r="B53" t="s">
-        <v>336</v>
+        <v>322</v>
       </c>
       <c r="C53" s="2">
         <v>6979244373084</v>
@@ -3238,18 +3229,18 @@
         <v>43275.466666666667</v>
       </c>
       <c r="F53" t="s">
-        <v>286</v>
+        <v>272</v>
       </c>
       <c r="N53" t="s">
-        <v>338</v>
+        <v>324</v>
       </c>
     </row>
     <row r="54" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>335</v>
+        <v>321</v>
       </c>
       <c r="B54" t="s">
-        <v>287</v>
+        <v>273</v>
       </c>
       <c r="C54" s="2">
         <v>6979259374093</v>
@@ -3261,7 +3252,7 @@
         <v>43275.482638888891</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>288</v>
+        <v>274</v>
       </c>
       <c r="G54">
         <v>0.47</v>
@@ -3276,18 +3267,18 @@
         <v>38</v>
       </c>
       <c r="M54" t="s">
-        <v>337</v>
+        <v>323</v>
       </c>
       <c r="N54" t="s">
-        <v>338</v>
+        <v>324</v>
       </c>
     </row>
     <row r="55" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>335</v>
+        <v>321</v>
       </c>
       <c r="B55" t="s">
-        <v>289</v>
+        <v>275</v>
       </c>
       <c r="C55" s="2">
         <v>6979294374207</v>
@@ -3299,7 +3290,7 @@
         <v>43275.486111111109</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>288</v>
+        <v>274</v>
       </c>
       <c r="G55">
         <v>0.09</v>
@@ -3314,18 +3305,18 @@
         <v>2</v>
       </c>
       <c r="M55" t="s">
-        <v>337</v>
+        <v>323</v>
       </c>
       <c r="N55" t="s">
-        <v>338</v>
+        <v>324</v>
       </c>
     </row>
     <row r="56" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>335</v>
+        <v>321</v>
       </c>
       <c r="B56" t="s">
-        <v>290</v>
+        <v>276</v>
       </c>
       <c r="C56" s="2">
         <v>6979349374543</v>
@@ -3337,7 +3328,7 @@
         <v>43275.490972222222</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>288</v>
+        <v>274</v>
       </c>
       <c r="G56">
         <v>1.1200000000000001</v>
@@ -3352,18 +3343,18 @@
         <v>10</v>
       </c>
       <c r="M56" t="s">
-        <v>316</v>
+        <v>302</v>
       </c>
       <c r="N56" t="s">
-        <v>338</v>
+        <v>324</v>
       </c>
     </row>
     <row r="57" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>335</v>
+        <v>321</v>
       </c>
       <c r="B57" t="s">
-        <v>291</v>
+        <v>277</v>
       </c>
       <c r="C57" s="2">
         <v>6979393375428</v>
@@ -3375,7 +3366,7 @@
         <v>43275.503472222219</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>288</v>
+        <v>274</v>
       </c>
       <c r="G57">
         <v>1.22</v>
@@ -3390,18 +3381,18 @@
         <v>5</v>
       </c>
       <c r="M57" t="s">
-        <v>316</v>
+        <v>302</v>
       </c>
       <c r="N57" t="s">
-        <v>338</v>
+        <v>324</v>
       </c>
     </row>
     <row r="58" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>335</v>
+        <v>321</v>
       </c>
       <c r="B58" t="s">
-        <v>291</v>
+        <v>277</v>
       </c>
       <c r="C58" s="2">
         <v>6979393375428</v>
@@ -3413,7 +3404,7 @@
         <v>43275.503472222219</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>288</v>
+        <v>274</v>
       </c>
       <c r="G58">
         <v>1.27</v>
@@ -3428,18 +3419,18 @@
         <v>10</v>
       </c>
       <c r="M58" t="s">
-        <v>316</v>
+        <v>302</v>
       </c>
       <c r="N58" t="s">
-        <v>338</v>
+        <v>324</v>
       </c>
     </row>
     <row r="59" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>335</v>
+        <v>321</v>
       </c>
       <c r="B59" t="s">
-        <v>292</v>
+        <v>278</v>
       </c>
       <c r="C59" s="2">
         <v>6979402375452</v>
@@ -3451,7 +3442,7 @@
         <v>43275.505555555559</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>288</v>
+        <v>274</v>
       </c>
       <c r="G59">
         <v>0.11</v>
@@ -3466,18 +3457,18 @@
         <v>3</v>
       </c>
       <c r="M59" t="s">
-        <v>339</v>
+        <v>325</v>
       </c>
       <c r="N59" t="s">
-        <v>338</v>
+        <v>324</v>
       </c>
     </row>
     <row r="60" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>335</v>
+        <v>321</v>
       </c>
       <c r="B60" t="s">
-        <v>293</v>
+        <v>279</v>
       </c>
       <c r="C60" s="2">
         <v>6979403375458</v>
@@ -3489,7 +3480,7 @@
         <v>43275.506249999999</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>288</v>
+        <v>274</v>
       </c>
       <c r="G60">
         <v>0.16</v>
@@ -3504,18 +3495,18 @@
         <v>4</v>
       </c>
       <c r="M60" t="s">
-        <v>337</v>
+        <v>323</v>
       </c>
       <c r="N60" t="s">
-        <v>338</v>
+        <v>324</v>
       </c>
     </row>
     <row r="61" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>335</v>
+        <v>321</v>
       </c>
       <c r="B61" t="s">
-        <v>298</v>
+        <v>284</v>
       </c>
       <c r="C61" s="2">
         <v>6979447375644</v>
@@ -3527,7 +3518,7 @@
         <v>43275.509027777778</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>288</v>
+        <v>274</v>
       </c>
       <c r="G61">
         <v>7.0000000000000007E-2</v>
@@ -3542,18 +3533,18 @@
         <v>2</v>
       </c>
       <c r="M61" t="s">
-        <v>337</v>
+        <v>323</v>
       </c>
       <c r="N61" t="s">
-        <v>338</v>
+        <v>324</v>
       </c>
     </row>
     <row r="62" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>335</v>
+        <v>321</v>
       </c>
       <c r="B62" t="s">
-        <v>299</v>
+        <v>285</v>
       </c>
       <c r="C62" s="2">
         <v>6979449375655</v>
@@ -3565,7 +3556,7 @@
         <v>43275.510416666664</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>288</v>
+        <v>274</v>
       </c>
       <c r="G62">
         <v>0.34</v>
@@ -3580,18 +3571,18 @@
         <v>6</v>
       </c>
       <c r="M62" t="s">
-        <v>316</v>
+        <v>302</v>
       </c>
       <c r="N62" t="s">
-        <v>338</v>
+        <v>324</v>
       </c>
     </row>
     <row r="63" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>335</v>
+        <v>321</v>
       </c>
       <c r="B63" t="s">
-        <v>299</v>
+        <v>285</v>
       </c>
       <c r="C63" s="2">
         <v>6979449375655</v>
@@ -3603,7 +3594,7 @@
         <v>43275.510416666664</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>288</v>
+        <v>274</v>
       </c>
       <c r="G63">
         <v>0.49</v>
@@ -3618,18 +3609,18 @@
         <v>10</v>
       </c>
       <c r="M63" t="s">
-        <v>316</v>
+        <v>302</v>
       </c>
       <c r="N63" t="s">
-        <v>338</v>
+        <v>324</v>
       </c>
     </row>
     <row r="64" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>335</v>
+        <v>321</v>
       </c>
       <c r="B64" t="s">
-        <v>300</v>
+        <v>286</v>
       </c>
       <c r="C64" s="2">
         <v>6979453375702</v>
@@ -3641,7 +3632,7 @@
         <v>43275.511805555558</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>288</v>
+        <v>274</v>
       </c>
       <c r="G64">
         <v>0.96</v>
@@ -3656,18 +3647,18 @@
         <v>16</v>
       </c>
       <c r="M64" t="s">
-        <v>316</v>
+        <v>302</v>
       </c>
       <c r="N64" t="s">
-        <v>338</v>
+        <v>324</v>
       </c>
     </row>
     <row r="65" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>335</v>
+        <v>321</v>
       </c>
       <c r="B65" t="s">
-        <v>300</v>
+        <v>286</v>
       </c>
       <c r="C65" s="2">
         <v>6979453375702</v>
@@ -3679,7 +3670,7 @@
         <v>43275.511805555558</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>288</v>
+        <v>274</v>
       </c>
       <c r="G65">
         <v>1.76</v>
@@ -3694,18 +3685,18 @@
         <v>1</v>
       </c>
       <c r="M65" t="s">
-        <v>316</v>
+        <v>302</v>
       </c>
       <c r="N65" t="s">
-        <v>338</v>
+        <v>324</v>
       </c>
     </row>
     <row r="66" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>335</v>
+        <v>321</v>
       </c>
       <c r="B66" t="s">
-        <v>301</v>
+        <v>287</v>
       </c>
       <c r="C66" s="2">
         <v>6979461376376</v>
@@ -3717,7 +3708,7 @@
         <v>43275.520138888889</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>288</v>
+        <v>274</v>
       </c>
       <c r="G66">
         <v>0.28999999999999998</v>
@@ -3732,18 +3723,18 @@
         <v>13</v>
       </c>
       <c r="M66" t="s">
-        <v>339</v>
+        <v>325</v>
       </c>
       <c r="N66" t="s">
-        <v>338</v>
+        <v>324</v>
       </c>
     </row>
     <row r="67" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>335</v>
+        <v>321</v>
       </c>
       <c r="B67" t="s">
-        <v>340</v>
+        <v>326</v>
       </c>
       <c r="C67" s="2">
         <v>6979540377111</v>
@@ -3755,18 +3746,18 @@
         <v>43275.53125</v>
       </c>
       <c r="F67" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="N67" t="s">
-        <v>338</v>
+        <v>324</v>
       </c>
     </row>
     <row r="68" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>335</v>
+        <v>321</v>
       </c>
       <c r="B68" t="s">
-        <v>302</v>
+        <v>288</v>
       </c>
       <c r="C68" s="2">
         <v>6979810376940</v>
@@ -3778,7 +3769,7 @@
         <v>43275.574305555558</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>288</v>
+        <v>274</v>
       </c>
       <c r="G68">
         <v>0.27</v>
@@ -3793,18 +3784,18 @@
         <v>22</v>
       </c>
       <c r="M68" t="s">
-        <v>339</v>
+        <v>325</v>
       </c>
       <c r="N68" t="s">
-        <v>338</v>
+        <v>324</v>
       </c>
     </row>
     <row r="69" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>335</v>
+        <v>321</v>
       </c>
       <c r="B69" t="s">
-        <v>305</v>
+        <v>291</v>
       </c>
       <c r="C69" s="2">
         <v>6979827376931</v>
@@ -3816,7 +3807,7 @@
         <v>43275.577777777777</v>
       </c>
       <c r="F69" s="1" t="s">
-        <v>288</v>
+        <v>274</v>
       </c>
       <c r="G69">
         <v>0.03</v>
@@ -3831,18 +3822,18 @@
         <v>10</v>
       </c>
       <c r="M69" t="s">
-        <v>337</v>
+        <v>323</v>
       </c>
       <c r="N69" t="s">
-        <v>338</v>
+        <v>324</v>
       </c>
     </row>
     <row r="70" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>335</v>
+        <v>321</v>
       </c>
       <c r="B70" t="s">
-        <v>296</v>
+        <v>282</v>
       </c>
       <c r="C70" s="2">
         <v>6980190376690</v>
@@ -3854,18 +3845,18 @@
         <v>43275.584722222222</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>297</v>
+        <v>283</v>
       </c>
       <c r="N70" t="s">
-        <v>338</v>
+        <v>324</v>
       </c>
     </row>
     <row r="71" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>335</v>
+        <v>321</v>
       </c>
       <c r="B71" t="s">
-        <v>296</v>
+        <v>282</v>
       </c>
       <c r="C71" s="2">
         <v>6980386376751</v>
@@ -3877,18 +3868,18 @@
         <v>43275.587500000001</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>297</v>
+        <v>283</v>
       </c>
       <c r="N71" t="s">
-        <v>338</v>
+        <v>324</v>
       </c>
     </row>
     <row r="72" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>335</v>
+        <v>321</v>
       </c>
       <c r="B72" t="s">
-        <v>306</v>
+        <v>292</v>
       </c>
       <c r="C72" s="2">
         <v>6980495376677</v>
@@ -3900,7 +3891,7 @@
         <v>43275.591666666667</v>
       </c>
       <c r="F72" s="1" t="s">
-        <v>288</v>
+        <v>274</v>
       </c>
       <c r="G72">
         <v>0.06</v>
@@ -3915,18 +3906,18 @@
         <v>26</v>
       </c>
       <c r="M72" t="s">
-        <v>316</v>
+        <v>302</v>
       </c>
       <c r="N72" t="s">
-        <v>338</v>
+        <v>324</v>
       </c>
     </row>
     <row r="73" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>335</v>
+        <v>321</v>
       </c>
       <c r="B73" t="s">
-        <v>307</v>
+        <v>293</v>
       </c>
       <c r="C73" s="2">
         <v>6981379376002</v>
@@ -3938,7 +3929,7 @@
         <v>43275.605555555558</v>
       </c>
       <c r="F73" s="1" t="s">
-        <v>288</v>
+        <v>274</v>
       </c>
       <c r="G73">
         <v>0.04</v>
@@ -3953,18 +3944,18 @@
         <v>11</v>
       </c>
       <c r="M73" t="s">
-        <v>341</v>
+        <v>327</v>
       </c>
       <c r="N73" t="s">
-        <v>338</v>
+        <v>324</v>
       </c>
     </row>
     <row r="74" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>335</v>
+        <v>321</v>
       </c>
       <c r="B74" t="s">
-        <v>342</v>
+        <v>328</v>
       </c>
       <c r="C74" s="2">
         <v>6981405375984</v>
@@ -3976,7 +3967,7 @@
         <v>43275.609722222223</v>
       </c>
       <c r="F74" s="1" t="s">
-        <v>288</v>
+        <v>274</v>
       </c>
       <c r="G74">
         <v>0</v>
@@ -3988,21 +3979,21 @@
         <v>2</v>
       </c>
       <c r="L74" t="s">
-        <v>343</v>
+        <v>329</v>
       </c>
       <c r="M74" t="s">
-        <v>344</v>
+        <v>330</v>
       </c>
       <c r="N74" t="s">
-        <v>338</v>
+        <v>324</v>
       </c>
     </row>
     <row r="75" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>335</v>
+        <v>321</v>
       </c>
       <c r="B75" t="s">
-        <v>345</v>
+        <v>331</v>
       </c>
       <c r="C75" s="2">
         <v>6981405375983</v>
@@ -4014,7 +4005,7 @@
         <v>43275.61041666667</v>
       </c>
       <c r="F75" s="1" t="s">
-        <v>288</v>
+        <v>274</v>
       </c>
       <c r="G75">
         <v>0.13</v>
@@ -4029,18 +4020,18 @@
         <v>19</v>
       </c>
       <c r="M75" t="s">
-        <v>339</v>
+        <v>325</v>
       </c>
       <c r="N75" t="s">
-        <v>338</v>
+        <v>324</v>
       </c>
     </row>
     <row r="76" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>335</v>
+        <v>321</v>
       </c>
       <c r="B76" t="s">
-        <v>345</v>
+        <v>331</v>
       </c>
       <c r="C76" s="2">
         <v>6981405375983</v>
@@ -4052,7 +4043,7 @@
         <v>43275.61041666667</v>
       </c>
       <c r="F76" s="1" t="s">
-        <v>288</v>
+        <v>274</v>
       </c>
       <c r="G76">
         <v>0.98</v>
@@ -4067,18 +4058,18 @@
         <v>20</v>
       </c>
       <c r="M76" t="s">
-        <v>339</v>
+        <v>325</v>
       </c>
       <c r="N76" t="s">
-        <v>338</v>
+        <v>324</v>
       </c>
     </row>
     <row r="77" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>335</v>
+        <v>321</v>
       </c>
       <c r="B77" t="s">
-        <v>327</v>
+        <v>313</v>
       </c>
       <c r="C77" s="2">
         <v>6982053375446</v>
@@ -4090,7 +4081,7 @@
         <v>43275.62777777778</v>
       </c>
       <c r="F77" s="1" t="s">
-        <v>328</v>
+        <v>314</v>
       </c>
       <c r="G77">
         <v>16.2</v>
@@ -4099,21 +4090,21 @@
         <v>352</v>
       </c>
       <c r="I77" t="s">
-        <v>329</v>
+        <v>315</v>
       </c>
       <c r="L77">
         <v>1</v>
       </c>
       <c r="N77" t="s">
-        <v>338</v>
+        <v>324</v>
       </c>
     </row>
     <row r="78" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>335</v>
+        <v>321</v>
       </c>
       <c r="B78" t="s">
-        <v>346</v>
+        <v>332</v>
       </c>
       <c r="C78" s="2">
         <v>6982141375389</v>
@@ -4125,7 +4116,7 @@
         <v>43275.633333333331</v>
       </c>
       <c r="F78" s="1" t="s">
-        <v>288</v>
+        <v>274</v>
       </c>
       <c r="G78">
         <v>0.14000000000000001</v>
@@ -4140,18 +4131,18 @@
         <v>3</v>
       </c>
       <c r="M78" t="s">
-        <v>337</v>
+        <v>323</v>
       </c>
       <c r="N78" t="s">
-        <v>338</v>
+        <v>324</v>
       </c>
     </row>
     <row r="79" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>335</v>
+        <v>321</v>
       </c>
       <c r="B79" t="s">
-        <v>347</v>
+        <v>333</v>
       </c>
       <c r="C79" s="2">
         <v>6982655375095</v>
@@ -4163,7 +4154,7 @@
         <v>43275.652083333334</v>
       </c>
       <c r="F79" s="1" t="s">
-        <v>328</v>
+        <v>314</v>
       </c>
       <c r="G79">
         <v>11.9</v>
@@ -4172,21 +4163,21 @@
         <v>316</v>
       </c>
       <c r="I79" t="s">
-        <v>329</v>
+        <v>315</v>
       </c>
       <c r="L79">
         <v>1</v>
       </c>
       <c r="N79" t="s">
-        <v>338</v>
+        <v>324</v>
       </c>
     </row>
     <row r="80" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>335</v>
+        <v>321</v>
       </c>
       <c r="B80" t="s">
-        <v>348</v>
+        <v>334</v>
       </c>
       <c r="C80" s="2">
         <v>6982782375018</v>
@@ -4198,7 +4189,7 @@
         <v>43275.654861111114</v>
       </c>
       <c r="F80" s="1" t="s">
-        <v>288</v>
+        <v>274</v>
       </c>
       <c r="G80">
         <v>1.41</v>
@@ -4213,18 +4204,18 @@
         <v>42</v>
       </c>
       <c r="M80" t="s">
-        <v>337</v>
+        <v>323</v>
       </c>
       <c r="N80" t="s">
-        <v>338</v>
+        <v>324</v>
       </c>
     </row>
     <row r="81" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
+        <v>321</v>
+      </c>
+      <c r="B81" t="s">
         <v>335</v>
-      </c>
-      <c r="B81" t="s">
-        <v>349</v>
       </c>
       <c r="C81" s="2">
         <v>6982934374992</v>
@@ -4236,7 +4227,7 @@
         <v>43275.660416666666</v>
       </c>
       <c r="F81" s="1" t="s">
-        <v>328</v>
+        <v>314</v>
       </c>
       <c r="G81">
         <v>36.200000000000003</v>
@@ -4245,21 +4236,21 @@
         <v>282</v>
       </c>
       <c r="I81" t="s">
-        <v>329</v>
+        <v>315</v>
       </c>
       <c r="L81">
         <v>2</v>
       </c>
       <c r="N81" t="s">
-        <v>338</v>
+        <v>324</v>
       </c>
     </row>
     <row r="82" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
+        <v>321</v>
+      </c>
+      <c r="B82" t="s">
         <v>335</v>
-      </c>
-      <c r="B82" t="s">
-        <v>349</v>
       </c>
       <c r="C82" s="2">
         <v>6982934374992</v>
@@ -4271,7 +4262,7 @@
         <v>43275.660416666666</v>
       </c>
       <c r="F82" s="1" t="s">
-        <v>288</v>
+        <v>274</v>
       </c>
       <c r="G82">
         <v>1.78</v>
@@ -4286,53 +4277,53 @@
         <v>5</v>
       </c>
       <c r="M82" t="s">
-        <v>350</v>
+        <v>336</v>
       </c>
       <c r="N82" t="s">
-        <v>338</v>
+        <v>324</v>
       </c>
     </row>
     <row r="83" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>335</v>
+        <v>321</v>
       </c>
       <c r="B83" t="s">
-        <v>351</v>
+        <v>337</v>
       </c>
       <c r="C83" s="2">
         <v>6983066374961</v>
       </c>
       <c r="D83" t="s">
-        <v>352</v>
+        <v>338</v>
       </c>
       <c r="E83" s="1">
         <v>43275.665972222225</v>
       </c>
       <c r="F83" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="N83" t="s">
-        <v>338</v>
+        <v>324</v>
       </c>
     </row>
     <row r="84" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>335</v>
+        <v>321</v>
       </c>
       <c r="B84" t="s">
-        <v>351</v>
+        <v>337</v>
       </c>
       <c r="C84" s="2">
         <v>6983066374961</v>
       </c>
       <c r="D84" t="s">
-        <v>352</v>
+        <v>338</v>
       </c>
       <c r="E84" s="1">
         <v>43275.665972222225</v>
       </c>
       <c r="F84" t="s">
-        <v>288</v>
+        <v>274</v>
       </c>
       <c r="G84">
         <v>0.22</v>
@@ -4347,18 +4338,18 @@
         <v>2</v>
       </c>
       <c r="M84" t="s">
-        <v>353</v>
+        <v>339</v>
       </c>
       <c r="N84" t="s">
-        <v>338</v>
+        <v>324</v>
       </c>
     </row>
     <row r="85" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>335</v>
+        <v>321</v>
       </c>
       <c r="B85" t="s">
-        <v>354</v>
+        <v>340</v>
       </c>
       <c r="C85" s="2">
         <v>6982882374576</v>
@@ -4370,7 +4361,7 @@
         <v>43275.67291666667</v>
       </c>
       <c r="F85" s="1" t="s">
-        <v>288</v>
+        <v>274</v>
       </c>
       <c r="G85">
         <v>0.27</v>
@@ -4385,18 +4376,18 @@
         <v>17</v>
       </c>
       <c r="M85" t="s">
-        <v>353</v>
+        <v>339</v>
       </c>
       <c r="N85" t="s">
-        <v>338</v>
+        <v>324</v>
       </c>
     </row>
     <row r="86" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>335</v>
+        <v>321</v>
       </c>
       <c r="B86" t="s">
-        <v>296</v>
+        <v>282</v>
       </c>
       <c r="C86" s="2">
         <v>6982854374500</v>
@@ -4408,18 +4399,18 @@
         <v>43275.675694444442</v>
       </c>
       <c r="F86" s="1" t="s">
-        <v>297</v>
+        <v>283</v>
       </c>
       <c r="N86" t="s">
-        <v>338</v>
+        <v>324</v>
       </c>
     </row>
     <row r="87" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>335</v>
+        <v>321</v>
       </c>
       <c r="B87" t="s">
-        <v>355</v>
+        <v>341</v>
       </c>
       <c r="C87" s="2">
         <v>6981881373834</v>
@@ -4431,7 +4422,7 @@
         <v>43275.695833333331</v>
       </c>
       <c r="F87" s="1" t="s">
-        <v>288</v>
+        <v>274</v>
       </c>
       <c r="G87">
         <v>0.04</v>
@@ -4446,18 +4437,18 @@
         <v>1</v>
       </c>
       <c r="M87" t="s">
-        <v>337</v>
+        <v>323</v>
       </c>
       <c r="N87" t="s">
-        <v>338</v>
+        <v>324</v>
       </c>
     </row>
     <row r="88" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>335</v>
+        <v>321</v>
       </c>
       <c r="B88" t="s">
-        <v>355</v>
+        <v>341</v>
       </c>
       <c r="C88" s="2">
         <v>6981881373834</v>
@@ -4469,7 +4460,7 @@
         <v>43275.695833333331</v>
       </c>
       <c r="F88" s="1" t="s">
-        <v>288</v>
+        <v>274</v>
       </c>
       <c r="G88">
         <v>0.84</v>
@@ -4484,18 +4475,18 @@
         <v>32</v>
       </c>
       <c r="M88" t="s">
-        <v>334</v>
+        <v>320</v>
       </c>
       <c r="N88" t="s">
-        <v>338</v>
+        <v>324</v>
       </c>
     </row>
     <row r="89" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>335</v>
+        <v>321</v>
       </c>
       <c r="B89" t="s">
-        <v>296</v>
+        <v>282</v>
       </c>
       <c r="C89" s="2">
         <v>6981316373475</v>
@@ -4507,18 +4498,18 @@
         <v>43275.705555555556</v>
       </c>
       <c r="F89" s="1" t="s">
-        <v>297</v>
+        <v>283</v>
       </c>
       <c r="N89" t="s">
-        <v>338</v>
+        <v>324</v>
       </c>
     </row>
     <row r="90" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>335</v>
+        <v>321</v>
       </c>
       <c r="B90" t="s">
-        <v>356</v>
+        <v>342</v>
       </c>
       <c r="C90" s="2">
         <v>6980670373232</v>
@@ -4530,7 +4521,7 @@
         <v>43275.720138888886</v>
       </c>
       <c r="F90" s="1" t="s">
-        <v>288</v>
+        <v>274</v>
       </c>
       <c r="G90">
         <v>0</v>
@@ -4545,18 +4536,18 @@
         <v>1</v>
       </c>
       <c r="M90" t="s">
-        <v>337</v>
+        <v>323</v>
       </c>
       <c r="N90" t="s">
-        <v>338</v>
+        <v>324</v>
       </c>
     </row>
     <row r="91" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>335</v>
+        <v>321</v>
       </c>
       <c r="B91" t="s">
-        <v>336</v>
+        <v>322</v>
       </c>
       <c r="C91" s="2">
         <v>6979244373084</v>
@@ -4568,15 +4559,15 @@
         <v>43275.743055555555</v>
       </c>
       <c r="F91" t="s">
-        <v>371</v>
+        <v>357</v>
       </c>
       <c r="N91" t="s">
-        <v>338</v>
+        <v>324</v>
       </c>
     </row>
     <row r="93" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>357</v>
+        <v>343</v>
       </c>
       <c r="B93" t="s">
         <v>64</v>
@@ -4591,24 +4582,24 @@
         <v>43276.445138888892</v>
       </c>
       <c r="F93" s="1" t="s">
-        <v>359</v>
+        <v>345</v>
       </c>
       <c r="L93">
         <v>1</v>
       </c>
       <c r="M93" t="s">
-        <v>360</v>
+        <v>346</v>
       </c>
       <c r="N93" t="s">
-        <v>361</v>
+        <v>347</v>
       </c>
     </row>
     <row r="94" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>357</v>
+        <v>343</v>
       </c>
       <c r="B94" s="3" t="s">
-        <v>358</v>
+        <v>344</v>
       </c>
       <c r="C94" s="2">
         <v>6987664372345</v>
@@ -4620,15 +4611,15 @@
         <v>43276.534722222219</v>
       </c>
       <c r="F94" t="s">
-        <v>286</v>
+        <v>272</v>
       </c>
       <c r="N94" t="s">
-        <v>361</v>
+        <v>347</v>
       </c>
     </row>
     <row r="95" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>357</v>
+        <v>343</v>
       </c>
       <c r="B95" t="s">
         <v>30</v>
@@ -4643,7 +4634,7 @@
         <v>43276.551388888889</v>
       </c>
       <c r="F95" s="1" t="s">
-        <v>325</v>
+        <v>311</v>
       </c>
       <c r="G95">
         <v>22</v>
@@ -4652,21 +4643,21 @@
         <v>318</v>
       </c>
       <c r="I95" t="s">
-        <v>362</v>
+        <v>348</v>
       </c>
       <c r="L95">
         <v>1</v>
       </c>
       <c r="N95" t="s">
-        <v>361</v>
+        <v>347</v>
       </c>
     </row>
     <row r="96" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>357</v>
+        <v>343</v>
       </c>
       <c r="B96" t="s">
-        <v>287</v>
+        <v>273</v>
       </c>
       <c r="C96" s="2">
         <v>6989072374165</v>
@@ -4678,7 +4669,7 @@
         <v>43276.624305555553</v>
       </c>
       <c r="F96" s="1" t="s">
-        <v>288</v>
+        <v>274</v>
       </c>
       <c r="G96">
         <v>0.47</v>
@@ -4693,18 +4684,18 @@
         <v>1</v>
       </c>
       <c r="M96" t="s">
-        <v>353</v>
+        <v>339</v>
       </c>
       <c r="N96" t="s">
-        <v>361</v>
+        <v>347</v>
       </c>
     </row>
     <row r="97" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>357</v>
+        <v>343</v>
       </c>
       <c r="B97" t="s">
-        <v>289</v>
+        <v>275</v>
       </c>
       <c r="C97" s="2">
         <v>6989109374195</v>
@@ -4716,7 +4707,7 @@
         <v>43276.626388888886</v>
       </c>
       <c r="F97" s="1" t="s">
-        <v>288</v>
+        <v>274</v>
       </c>
       <c r="G97">
         <v>0.33</v>
@@ -4731,18 +4722,18 @@
         <v>2</v>
       </c>
       <c r="M97" t="s">
-        <v>337</v>
+        <v>323</v>
       </c>
       <c r="N97" t="s">
-        <v>361</v>
+        <v>347</v>
       </c>
     </row>
     <row r="98" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>357</v>
+        <v>343</v>
       </c>
       <c r="B98" t="s">
-        <v>290</v>
+        <v>276</v>
       </c>
       <c r="C98" s="2">
         <v>6989396374373</v>
@@ -4754,7 +4745,7 @@
         <v>43276.631249999999</v>
       </c>
       <c r="F98" s="1" t="s">
-        <v>288</v>
+        <v>274</v>
       </c>
       <c r="G98">
         <v>0.26</v>
@@ -4769,18 +4760,18 @@
         <v>15</v>
       </c>
       <c r="M98" t="s">
-        <v>363</v>
+        <v>349</v>
       </c>
       <c r="N98" t="s">
-        <v>361</v>
+        <v>347</v>
       </c>
     </row>
     <row r="99" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>357</v>
+        <v>343</v>
       </c>
       <c r="B99" t="s">
-        <v>290</v>
+        <v>276</v>
       </c>
       <c r="C99" s="2">
         <v>6989396374373</v>
@@ -4792,7 +4783,7 @@
         <v>43276.631249999999</v>
       </c>
       <c r="F99" s="1" t="s">
-        <v>288</v>
+        <v>274</v>
       </c>
       <c r="G99">
         <v>0.42</v>
@@ -4807,18 +4798,18 @@
         <v>18</v>
       </c>
       <c r="M99" t="s">
-        <v>337</v>
+        <v>323</v>
       </c>
       <c r="N99" t="s">
-        <v>361</v>
+        <v>347</v>
       </c>
     </row>
     <row r="100" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>357</v>
+        <v>343</v>
       </c>
       <c r="B100" t="s">
-        <v>291</v>
+        <v>277</v>
       </c>
       <c r="C100" s="2">
         <v>6989430374420</v>
@@ -4830,7 +4821,7 @@
         <v>43276.634722222225</v>
       </c>
       <c r="F100" s="1" t="s">
-        <v>288</v>
+        <v>274</v>
       </c>
       <c r="G100">
         <v>0.39</v>
@@ -4845,18 +4836,18 @@
         <v>2</v>
       </c>
       <c r="M100" t="s">
-        <v>364</v>
+        <v>350</v>
       </c>
       <c r="N100" t="s">
-        <v>361</v>
+        <v>347</v>
       </c>
     </row>
     <row r="101" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>357</v>
+        <v>343</v>
       </c>
       <c r="B101" t="s">
-        <v>291</v>
+        <v>277</v>
       </c>
       <c r="C101" s="2">
         <v>6989430374420</v>
@@ -4868,7 +4859,7 @@
         <v>43276.634722222225</v>
       </c>
       <c r="F101" s="1" t="s">
-        <v>288</v>
+        <v>274</v>
       </c>
       <c r="G101">
         <v>1.62</v>
@@ -4883,18 +4874,18 @@
         <v>4</v>
       </c>
       <c r="M101" t="s">
-        <v>364</v>
+        <v>350</v>
       </c>
       <c r="N101" t="s">
-        <v>361</v>
+        <v>347</v>
       </c>
     </row>
     <row r="102" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
-        <v>357</v>
+        <v>343</v>
       </c>
       <c r="B102" t="s">
-        <v>292</v>
+        <v>278</v>
       </c>
       <c r="C102" s="2">
         <v>6989441374434</v>
@@ -4906,7 +4897,7 @@
         <v>43276.636805555558</v>
       </c>
       <c r="F102" s="1" t="s">
-        <v>288</v>
+        <v>274</v>
       </c>
       <c r="G102">
         <v>0.16</v>
@@ -4921,18 +4912,18 @@
         <v>2</v>
       </c>
       <c r="M102" t="s">
-        <v>364</v>
+        <v>350</v>
       </c>
       <c r="N102" t="s">
-        <v>361</v>
+        <v>347</v>
       </c>
     </row>
     <row r="103" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
-        <v>357</v>
+        <v>343</v>
       </c>
       <c r="B103" t="s">
-        <v>293</v>
+        <v>279</v>
       </c>
       <c r="C103" s="2">
         <v>6989492374527</v>
@@ -4944,7 +4935,7 @@
         <v>43276.638888888891</v>
       </c>
       <c r="F103" s="1" t="s">
-        <v>288</v>
+        <v>274</v>
       </c>
       <c r="G103">
         <v>0.02</v>
@@ -4959,18 +4950,18 @@
         <v>4</v>
       </c>
       <c r="M103" t="s">
-        <v>364</v>
+        <v>350</v>
       </c>
       <c r="N103" t="s">
-        <v>361</v>
+        <v>347</v>
       </c>
     </row>
     <row r="104" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
-        <v>357</v>
+        <v>343</v>
       </c>
       <c r="B104" t="s">
-        <v>293</v>
+        <v>279</v>
       </c>
       <c r="C104" s="2">
         <v>6989492374527</v>
@@ -4982,7 +4973,7 @@
         <v>43276.638888888891</v>
       </c>
       <c r="F104" s="1" t="s">
-        <v>288</v>
+        <v>274</v>
       </c>
       <c r="G104">
         <v>0.56999999999999995</v>
@@ -4997,18 +4988,18 @@
         <v>2</v>
       </c>
       <c r="M104" t="s">
-        <v>364</v>
+        <v>350</v>
       </c>
       <c r="N104" t="s">
-        <v>361</v>
+        <v>347</v>
       </c>
     </row>
     <row r="105" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
-        <v>357</v>
+        <v>343</v>
       </c>
       <c r="B105" t="s">
-        <v>293</v>
+        <v>279</v>
       </c>
       <c r="C105" s="2">
         <v>6989492374527</v>
@@ -5020,7 +5011,7 @@
         <v>43276.638888888891</v>
       </c>
       <c r="F105" s="1" t="s">
-        <v>288</v>
+        <v>274</v>
       </c>
       <c r="G105">
         <v>0.61</v>
@@ -5035,18 +5026,18 @@
         <v>15</v>
       </c>
       <c r="M105" t="s">
-        <v>363</v>
+        <v>349</v>
       </c>
       <c r="N105" t="s">
-        <v>361</v>
+        <v>347</v>
       </c>
     </row>
     <row r="106" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
-        <v>357</v>
+        <v>343</v>
       </c>
       <c r="B106" t="s">
-        <v>327</v>
+        <v>313</v>
       </c>
       <c r="C106" s="2">
         <v>6989528374583</v>
@@ -5058,7 +5049,7 @@
         <v>43276.642361111109</v>
       </c>
       <c r="F106" s="1" t="s">
-        <v>328</v>
+        <v>314</v>
       </c>
       <c r="G106">
         <v>59.9</v>
@@ -5067,21 +5058,21 @@
         <v>44</v>
       </c>
       <c r="I106" t="s">
-        <v>329</v>
+        <v>315</v>
       </c>
       <c r="L106">
         <v>1</v>
       </c>
       <c r="N106" t="s">
-        <v>361</v>
+        <v>347</v>
       </c>
     </row>
     <row r="107" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
-        <v>357</v>
+        <v>343</v>
       </c>
       <c r="B107" t="s">
-        <v>298</v>
+        <v>284</v>
       </c>
       <c r="C107" s="2">
         <v>6989808375053</v>
@@ -5093,7 +5084,7 @@
         <v>43276.652777777781</v>
       </c>
       <c r="F107" s="1" t="s">
-        <v>288</v>
+        <v>274</v>
       </c>
       <c r="G107">
         <v>0.41</v>
@@ -5108,18 +5099,18 @@
         <v>1</v>
       </c>
       <c r="M107" t="s">
-        <v>353</v>
+        <v>339</v>
       </c>
       <c r="N107" t="s">
-        <v>361</v>
+        <v>347</v>
       </c>
     </row>
     <row r="108" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
-        <v>357</v>
+        <v>343</v>
       </c>
       <c r="B108" t="s">
-        <v>299</v>
+        <v>285</v>
       </c>
       <c r="C108" s="2">
         <v>6990146375345</v>
@@ -5131,7 +5122,7 @@
         <v>43276.659722222219</v>
       </c>
       <c r="F108" s="1" t="s">
-        <v>288</v>
+        <v>274</v>
       </c>
       <c r="G108">
         <v>0.24</v>
@@ -5146,18 +5137,18 @@
         <v>36</v>
       </c>
       <c r="M108" t="s">
-        <v>337</v>
+        <v>323</v>
       </c>
       <c r="N108" t="s">
-        <v>361</v>
+        <v>347</v>
       </c>
     </row>
     <row r="109" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
-        <v>357</v>
+        <v>343</v>
       </c>
       <c r="B109" s="3" t="s">
-        <v>283</v>
+        <v>269</v>
       </c>
       <c r="C109" s="2">
         <v>6990210375427</v>
@@ -5169,18 +5160,18 @@
         <v>43276.665972222225</v>
       </c>
       <c r="F109" s="1" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="N109" t="s">
-        <v>361</v>
+        <v>347</v>
       </c>
     </row>
     <row r="110" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
-        <v>357</v>
+        <v>343</v>
       </c>
       <c r="B110" t="s">
-        <v>347</v>
+        <v>333</v>
       </c>
       <c r="C110" s="2">
         <v>6990211375286</v>
@@ -5192,7 +5183,7 @@
         <v>43276.668055555558</v>
       </c>
       <c r="F110" s="1" t="s">
-        <v>328</v>
+        <v>314</v>
       </c>
       <c r="G110">
         <v>7.9</v>
@@ -5204,15 +5195,15 @@
         <v>1</v>
       </c>
       <c r="N110" t="s">
-        <v>361</v>
+        <v>347</v>
       </c>
     </row>
     <row r="111" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
-        <v>357</v>
+        <v>343</v>
       </c>
       <c r="B111" t="s">
-        <v>347</v>
+        <v>333</v>
       </c>
       <c r="C111" s="2">
         <v>6990211375286</v>
@@ -5224,7 +5215,7 @@
         <v>43276.668055555558</v>
       </c>
       <c r="F111" s="1" t="s">
-        <v>325</v>
+        <v>311</v>
       </c>
       <c r="G111">
         <v>452</v>
@@ -5236,15 +5227,15 @@
         <v>1</v>
       </c>
       <c r="N111" t="s">
-        <v>361</v>
+        <v>347</v>
       </c>
     </row>
     <row r="112" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
-        <v>357</v>
+        <v>343</v>
       </c>
       <c r="B112" t="s">
-        <v>300</v>
+        <v>286</v>
       </c>
       <c r="C112" s="2">
         <v>6990229375196</v>
@@ -5256,7 +5247,7 @@
         <v>43276.671527777777</v>
       </c>
       <c r="F112" s="1" t="s">
-        <v>288</v>
+        <v>274</v>
       </c>
       <c r="G112">
         <v>0.52</v>
@@ -5271,18 +5262,18 @@
         <v>10</v>
       </c>
       <c r="M112" t="s">
-        <v>337</v>
+        <v>323</v>
       </c>
       <c r="N112" t="s">
-        <v>361</v>
+        <v>347</v>
       </c>
     </row>
     <row r="113" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
-        <v>357</v>
+        <v>343</v>
       </c>
       <c r="B113" t="s">
-        <v>300</v>
+        <v>286</v>
       </c>
       <c r="C113" s="2">
         <v>6990229375196</v>
@@ -5307,18 +5298,18 @@
         <v>19</v>
       </c>
       <c r="M113" t="s">
-        <v>337</v>
+        <v>323</v>
       </c>
       <c r="N113" t="s">
-        <v>361</v>
+        <v>347</v>
       </c>
     </row>
     <row r="114" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
-        <v>357</v>
+        <v>343</v>
       </c>
       <c r="B114" t="s">
-        <v>301</v>
+        <v>287</v>
       </c>
       <c r="C114" s="2">
         <v>6990229375192</v>
@@ -5330,7 +5321,7 @@
         <v>43276.673611111109</v>
       </c>
       <c r="F114" s="1" t="s">
-        <v>288</v>
+        <v>274</v>
       </c>
       <c r="G114">
         <v>0.79</v>
@@ -5345,18 +5336,18 @@
         <v>45</v>
       </c>
       <c r="M114" t="s">
-        <v>365</v>
+        <v>351</v>
       </c>
       <c r="N114" t="s">
-        <v>361</v>
+        <v>347</v>
       </c>
     </row>
     <row r="115" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
-        <v>357</v>
+        <v>343</v>
       </c>
       <c r="B115" t="s">
-        <v>366</v>
+        <v>352</v>
       </c>
       <c r="C115" s="2">
         <v>6990342374915</v>
@@ -5368,7 +5359,7 @@
         <v>43276.678472222222</v>
       </c>
       <c r="F115" s="1" t="s">
-        <v>367</v>
+        <v>353</v>
       </c>
       <c r="G115">
         <v>18.399999999999999</v>
@@ -5377,21 +5368,21 @@
         <v>20</v>
       </c>
       <c r="I115" t="s">
-        <v>329</v>
+        <v>315</v>
       </c>
       <c r="L115">
         <v>1</v>
       </c>
       <c r="N115" t="s">
-        <v>361</v>
+        <v>347</v>
       </c>
     </row>
     <row r="116" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
-        <v>357</v>
+        <v>343</v>
       </c>
       <c r="B116" t="s">
-        <v>366</v>
+        <v>352</v>
       </c>
       <c r="C116" s="2">
         <v>6990342374915</v>
@@ -5403,7 +5394,7 @@
         <v>43276.678472222222</v>
       </c>
       <c r="F116" s="1" t="s">
-        <v>367</v>
+        <v>353</v>
       </c>
       <c r="G116">
         <v>14.4</v>
@@ -5412,21 +5403,21 @@
         <v>24</v>
       </c>
       <c r="I116" t="s">
-        <v>329</v>
+        <v>315</v>
       </c>
       <c r="L116">
         <v>1</v>
       </c>
       <c r="N116" t="s">
-        <v>361</v>
+        <v>347</v>
       </c>
     </row>
     <row r="117" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
-        <v>357</v>
+        <v>343</v>
       </c>
       <c r="B117" t="s">
-        <v>302</v>
+        <v>288</v>
       </c>
       <c r="C117" s="2">
         <v>6990469374617</v>
@@ -5438,7 +5429,7 @@
         <v>43276.6875</v>
       </c>
       <c r="F117" s="1" t="s">
-        <v>288</v>
+        <v>274</v>
       </c>
       <c r="G117">
         <v>0.31</v>
@@ -5453,18 +5444,18 @@
         <v>1</v>
       </c>
       <c r="M117" t="s">
-        <v>337</v>
+        <v>323</v>
       </c>
       <c r="N117" t="s">
-        <v>361</v>
+        <v>347</v>
       </c>
     </row>
     <row r="118" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
-        <v>357</v>
+        <v>343</v>
       </c>
       <c r="B118" t="s">
-        <v>305</v>
+        <v>291</v>
       </c>
       <c r="C118" s="2">
         <v>6990696373981</v>
@@ -5476,7 +5467,7 @@
         <v>43276.696527777778</v>
       </c>
       <c r="F118" s="1" t="s">
-        <v>288</v>
+        <v>274</v>
       </c>
       <c r="G118">
         <v>7.0000000000000007E-2</v>
@@ -5491,18 +5482,18 @@
         <v>1</v>
       </c>
       <c r="M118" t="s">
-        <v>337</v>
+        <v>323</v>
       </c>
       <c r="N118" t="s">
-        <v>361</v>
+        <v>347</v>
       </c>
     </row>
     <row r="119" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
-        <v>357</v>
+        <v>343</v>
       </c>
       <c r="B119" t="s">
-        <v>306</v>
+        <v>292</v>
       </c>
       <c r="C119" s="2">
         <v>6990700373975</v>
@@ -5514,7 +5505,7 @@
         <v>43276.697222222225</v>
       </c>
       <c r="F119" s="1" t="s">
-        <v>288</v>
+        <v>274</v>
       </c>
       <c r="G119">
         <v>0.18</v>
@@ -5529,18 +5520,18 @@
         <v>17</v>
       </c>
       <c r="M119" t="s">
-        <v>337</v>
+        <v>323</v>
       </c>
       <c r="N119" t="s">
-        <v>361</v>
+        <v>347</v>
       </c>
     </row>
     <row r="120" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
-        <v>357</v>
+        <v>343</v>
       </c>
       <c r="B120" t="s">
-        <v>307</v>
+        <v>293</v>
       </c>
       <c r="C120" s="2">
         <v>6990705373967</v>
@@ -5552,7 +5543,7 @@
         <v>43276.699305555558</v>
       </c>
       <c r="F120" s="1" t="s">
-        <v>288</v>
+        <v>274</v>
       </c>
       <c r="G120">
         <v>0.39</v>
@@ -5567,18 +5558,18 @@
         <v>14</v>
       </c>
       <c r="M120" t="s">
-        <v>337</v>
+        <v>323</v>
       </c>
       <c r="N120" t="s">
-        <v>361</v>
+        <v>347</v>
       </c>
     </row>
     <row r="121" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
-        <v>357</v>
+        <v>343</v>
       </c>
       <c r="B121" t="s">
-        <v>342</v>
+        <v>328</v>
       </c>
       <c r="C121" s="2">
         <v>6990731373922</v>
@@ -5590,7 +5581,7 @@
         <v>43276.701388888891</v>
       </c>
       <c r="F121" s="1" t="s">
-        <v>288</v>
+        <v>274</v>
       </c>
       <c r="G121">
         <v>0.02</v>
@@ -5605,18 +5596,18 @@
         <v>11</v>
       </c>
       <c r="M121" t="s">
-        <v>368</v>
+        <v>354</v>
       </c>
       <c r="N121" t="s">
-        <v>361</v>
+        <v>347</v>
       </c>
     </row>
     <row r="122" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
-        <v>357</v>
+        <v>343</v>
       </c>
       <c r="B122" t="s">
-        <v>345</v>
+        <v>331</v>
       </c>
       <c r="C122" s="2">
         <v>6991108372720</v>
@@ -5628,7 +5619,7 @@
         <v>43276.717361111114</v>
       </c>
       <c r="F122" s="1" t="s">
-        <v>288</v>
+        <v>274</v>
       </c>
       <c r="G122">
         <v>0.01</v>
@@ -5643,18 +5634,18 @@
         <v>4</v>
       </c>
       <c r="M122" t="s">
-        <v>337</v>
+        <v>323</v>
       </c>
       <c r="N122" t="s">
-        <v>361</v>
+        <v>347</v>
       </c>
     </row>
     <row r="123" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
-        <v>357</v>
+        <v>343</v>
       </c>
       <c r="B123" t="s">
-        <v>349</v>
+        <v>335</v>
       </c>
       <c r="C123" s="2">
         <v>6991153372515</v>
@@ -5666,7 +5657,7 @@
         <v>43276.722222222219</v>
       </c>
       <c r="F123" s="1" t="s">
-        <v>328</v>
+        <v>314</v>
       </c>
       <c r="G123">
         <v>33.1</v>
@@ -5675,18 +5666,18 @@
         <v>18</v>
       </c>
       <c r="I123" t="s">
-        <v>329</v>
+        <v>315</v>
       </c>
       <c r="L123">
         <v>1</v>
       </c>
       <c r="N123" t="s">
-        <v>361</v>
+        <v>347</v>
       </c>
     </row>
     <row r="124" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
-        <v>357</v>
+        <v>343</v>
       </c>
       <c r="B124" t="s">
         <v>80</v>
@@ -5701,7 +5692,7 @@
         <v>43276.724999999999</v>
       </c>
       <c r="F124" s="1" t="s">
-        <v>370</v>
+        <v>356</v>
       </c>
       <c r="G124">
         <v>0</v>
@@ -5713,15 +5704,15 @@
         <v>1</v>
       </c>
       <c r="N124" t="s">
-        <v>361</v>
+        <v>347</v>
       </c>
     </row>
     <row r="125" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
-        <v>357</v>
+        <v>343</v>
       </c>
       <c r="B125" t="s">
-        <v>346</v>
+        <v>332</v>
       </c>
       <c r="C125" s="2">
         <v>6991331372007</v>
@@ -5733,7 +5724,7 @@
         <v>43276.730555555558</v>
       </c>
       <c r="F125" s="1" t="s">
-        <v>288</v>
+        <v>274</v>
       </c>
       <c r="G125">
         <v>0.06</v>
@@ -5748,18 +5739,18 @@
         <v>13</v>
       </c>
       <c r="M125" t="s">
-        <v>365</v>
+        <v>351</v>
       </c>
       <c r="N125" t="s">
-        <v>361</v>
+        <v>347</v>
       </c>
     </row>
     <row r="126" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
-        <v>357</v>
+        <v>343</v>
       </c>
       <c r="B126" s="3" t="s">
-        <v>294</v>
+        <v>280</v>
       </c>
       <c r="C126" s="2">
         <v>6991515371569</v>
@@ -5771,18 +5762,18 @@
         <v>43276.736805555556</v>
       </c>
       <c r="F126" s="1" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="N126" t="s">
-        <v>361</v>
+        <v>347</v>
       </c>
     </row>
     <row r="127" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
-        <v>357</v>
+        <v>343</v>
       </c>
       <c r="B127" t="s">
-        <v>348</v>
+        <v>334</v>
       </c>
       <c r="C127" s="2">
         <v>6990806371700</v>
@@ -5794,7 +5785,7 @@
         <v>43276.75</v>
       </c>
       <c r="F127" s="1" t="s">
-        <v>288</v>
+        <v>274</v>
       </c>
       <c r="G127">
         <v>0.36</v>
@@ -5809,18 +5800,18 @@
         <v>16</v>
       </c>
       <c r="M127" t="s">
-        <v>337</v>
+        <v>323</v>
       </c>
       <c r="N127" t="s">
-        <v>361</v>
+        <v>347</v>
       </c>
     </row>
     <row r="128" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
-        <v>357</v>
+        <v>343</v>
       </c>
       <c r="B128" t="s">
-        <v>354</v>
+        <v>340</v>
       </c>
       <c r="C128" s="2">
         <v>6988299372150</v>
@@ -5832,7 +5823,7 @@
         <v>43276.79791666667</v>
       </c>
       <c r="F128" s="1" t="s">
-        <v>288</v>
+        <v>274</v>
       </c>
       <c r="G128">
         <v>0.09</v>
@@ -5847,18 +5838,18 @@
         <v>17</v>
       </c>
       <c r="M128" t="s">
-        <v>337</v>
+        <v>323</v>
       </c>
       <c r="N128" t="s">
-        <v>361</v>
+        <v>347</v>
       </c>
     </row>
     <row r="129" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
-        <v>357</v>
+        <v>343</v>
       </c>
       <c r="B129" s="3" t="s">
-        <v>358</v>
+        <v>344</v>
       </c>
       <c r="C129" s="2">
         <v>6987664372345</v>
@@ -5870,10 +5861,10 @@
         <v>43276.806944444441</v>
       </c>
       <c r="F129" t="s">
-        <v>371</v>
+        <v>357</v>
       </c>
       <c r="N129" t="s">
-        <v>361</v>
+        <v>347</v>
       </c>
     </row>
     <row r="130" spans="1:14" x14ac:dyDescent="0.2">
@@ -5881,30 +5872,30 @@
     </row>
     <row r="131" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
-        <v>372</v>
+        <v>358</v>
       </c>
       <c r="B131" s="3" t="s">
-        <v>373</v>
+        <v>359</v>
       </c>
       <c r="C131" s="2">
         <v>6986351371839</v>
       </c>
       <c r="D131" t="s">
-        <v>374</v>
+        <v>360</v>
       </c>
       <c r="E131" s="1">
         <v>43277.354166666664</v>
       </c>
       <c r="F131" s="1" t="s">
-        <v>286</v>
+        <v>272</v>
       </c>
       <c r="N131" t="s">
-        <v>375</v>
+        <v>361</v>
       </c>
     </row>
     <row r="132" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
-        <v>372</v>
+        <v>358</v>
       </c>
       <c r="B132" t="s">
         <v>30</v>
@@ -5919,7 +5910,7 @@
         <v>43277.35833333333</v>
       </c>
       <c r="F132" s="1" t="s">
-        <v>325</v>
+        <v>311</v>
       </c>
       <c r="G132">
         <v>33.1</v>
@@ -5931,18 +5922,18 @@
         <v>1</v>
       </c>
       <c r="M132" t="s">
-        <v>376</v>
+        <v>362</v>
       </c>
       <c r="N132" t="s">
-        <v>375</v>
+        <v>361</v>
       </c>
     </row>
     <row r="133" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
-        <v>372</v>
+        <v>358</v>
       </c>
       <c r="B133" t="s">
-        <v>327</v>
+        <v>313</v>
       </c>
       <c r="C133" s="2">
         <v>6986539371185</v>
@@ -5954,7 +5945,7 @@
         <v>43277.365972222222</v>
       </c>
       <c r="F133" s="1" t="s">
-        <v>328</v>
+        <v>314</v>
       </c>
       <c r="G133">
         <v>82.6</v>
@@ -5963,21 +5954,21 @@
         <v>312</v>
       </c>
       <c r="I133" t="s">
-        <v>329</v>
+        <v>315</v>
       </c>
       <c r="L133">
         <v>1</v>
       </c>
       <c r="N133" t="s">
-        <v>375</v>
+        <v>361</v>
       </c>
     </row>
     <row r="134" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
-        <v>372</v>
+        <v>358</v>
       </c>
       <c r="B134" t="s">
-        <v>287</v>
+        <v>273</v>
       </c>
       <c r="C134" s="2">
         <v>6986987369810</v>
@@ -5989,7 +5980,7 @@
         <v>43277.390972222223</v>
       </c>
       <c r="F134" s="1" t="s">
-        <v>288</v>
+        <v>274</v>
       </c>
       <c r="G134">
         <v>1.23</v>
@@ -6004,18 +5995,18 @@
         <v>4</v>
       </c>
       <c r="M134" t="s">
-        <v>337</v>
+        <v>323</v>
       </c>
       <c r="N134" t="s">
-        <v>375</v>
+        <v>361</v>
       </c>
     </row>
     <row r="135" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
-        <v>372</v>
+        <v>358</v>
       </c>
       <c r="B135" t="s">
-        <v>289</v>
+        <v>275</v>
       </c>
       <c r="C135" s="2">
         <v>6987165369223</v>
@@ -6027,7 +6018,7 @@
         <v>43277.402083333334</v>
       </c>
       <c r="F135" s="1" t="s">
-        <v>288</v>
+        <v>274</v>
       </c>
       <c r="G135">
         <v>0.1</v>
@@ -6042,18 +6033,18 @@
         <v>7</v>
       </c>
       <c r="M135" t="s">
-        <v>337</v>
+        <v>323</v>
       </c>
       <c r="N135" t="s">
-        <v>375</v>
+        <v>361</v>
       </c>
     </row>
     <row r="136" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
-        <v>372</v>
+        <v>358</v>
       </c>
       <c r="B136" t="s">
-        <v>290</v>
+        <v>276</v>
       </c>
       <c r="C136" s="2">
         <v>6987303368811</v>
@@ -6065,7 +6056,7 @@
         <v>43277.409722222219</v>
       </c>
       <c r="F136" s="1" t="s">
-        <v>288</v>
+        <v>274</v>
       </c>
       <c r="G136">
         <v>0.04</v>
@@ -6080,41 +6071,41 @@
         <v>1</v>
       </c>
       <c r="M136" t="s">
-        <v>337</v>
+        <v>323</v>
       </c>
       <c r="N136" t="s">
-        <v>375</v>
+        <v>361</v>
       </c>
     </row>
     <row r="137" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
-        <v>372</v>
+        <v>358</v>
       </c>
       <c r="B137" s="3" t="s">
-        <v>283</v>
+        <v>269</v>
       </c>
       <c r="C137" s="2">
         <v>6987650367997</v>
       </c>
       <c r="D137" t="s">
-        <v>377</v>
+        <v>363</v>
       </c>
       <c r="E137" s="1">
         <v>43277.425694444442</v>
       </c>
       <c r="F137" s="1" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="N137" t="s">
-        <v>375</v>
+        <v>361</v>
       </c>
     </row>
     <row r="138" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
-        <v>372</v>
+        <v>358</v>
       </c>
       <c r="B138" t="s">
-        <v>291</v>
+        <v>277</v>
       </c>
       <c r="C138" s="2">
         <v>6985525368428</v>
@@ -6126,7 +6117,7 @@
         <v>43277.557638888888</v>
       </c>
       <c r="F138" s="1" t="s">
-        <v>288</v>
+        <v>274</v>
       </c>
       <c r="G138">
         <v>0.21</v>
@@ -6141,18 +6132,18 @@
         <v>24</v>
       </c>
       <c r="M138" t="s">
-        <v>378</v>
+        <v>364</v>
       </c>
       <c r="N138" t="s">
-        <v>375</v>
+        <v>361</v>
       </c>
     </row>
     <row r="139" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
-        <v>372</v>
+        <v>358</v>
       </c>
       <c r="B139" t="s">
-        <v>292</v>
+        <v>278</v>
       </c>
       <c r="C139" s="2">
         <v>6983906368728</v>
@@ -6164,7 +6155,7 @@
         <v>43277.584722222222</v>
       </c>
       <c r="F139" s="1" t="s">
-        <v>288</v>
+        <v>274</v>
       </c>
       <c r="G139">
         <v>0.11</v>
@@ -6179,15 +6170,15 @@
         <v>25</v>
       </c>
       <c r="M139" t="s">
-        <v>316</v>
+        <v>302</v>
       </c>
       <c r="N139" t="s">
-        <v>375</v>
+        <v>361</v>
       </c>
     </row>
     <row r="140" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
-        <v>372</v>
+        <v>358</v>
       </c>
       <c r="B140" t="s">
         <v>30</v>
@@ -6202,7 +6193,7 @@
         <v>43277.597916666666</v>
       </c>
       <c r="F140" s="1" t="s">
-        <v>325</v>
+        <v>311</v>
       </c>
       <c r="G140">
         <v>153.1</v>
@@ -6214,15 +6205,15 @@
         <v>3</v>
       </c>
       <c r="N140" t="s">
-        <v>375</v>
+        <v>361</v>
       </c>
     </row>
     <row r="141" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
-        <v>372</v>
+        <v>358</v>
       </c>
       <c r="B141" t="s">
-        <v>293</v>
+        <v>279</v>
       </c>
       <c r="C141" s="2">
         <v>6984203369274</v>
@@ -6234,7 +6225,7 @@
         <v>43277.609722222223</v>
       </c>
       <c r="F141" s="1" t="s">
-        <v>288</v>
+        <v>274</v>
       </c>
       <c r="G141">
         <v>7.0000000000000007E-2</v>
@@ -6249,15 +6240,15 @@
         <v>8</v>
       </c>
       <c r="M141" t="s">
-        <v>379</v>
+        <v>365</v>
       </c>
       <c r="N141" t="s">
-        <v>375</v>
+        <v>361</v>
       </c>
     </row>
     <row r="142" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
-        <v>372</v>
+        <v>358</v>
       </c>
       <c r="B142" t="s">
         <v>30</v>
@@ -6272,7 +6263,7 @@
         <v>43277.623611111114</v>
       </c>
       <c r="F142" s="1" t="s">
-        <v>325</v>
+        <v>311</v>
       </c>
       <c r="G142">
         <v>139.4</v>
@@ -6284,15 +6275,15 @@
         <v>3</v>
       </c>
       <c r="N142" t="s">
-        <v>375</v>
+        <v>361</v>
       </c>
     </row>
     <row r="143" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
-        <v>372</v>
+        <v>358</v>
       </c>
       <c r="B143" t="s">
-        <v>298</v>
+        <v>284</v>
       </c>
       <c r="C143" s="2">
         <v>6986354371830</v>
@@ -6304,7 +6295,7 @@
         <v>43277.663888888892</v>
       </c>
       <c r="F143" s="1" t="s">
-        <v>288</v>
+        <v>274</v>
       </c>
       <c r="G143">
         <v>0.18</v>
@@ -6319,1817 +6310,2292 @@
         <v>3</v>
       </c>
       <c r="M143" t="s">
-        <v>364</v>
+        <v>350</v>
       </c>
       <c r="N143" t="s">
-        <v>375</v>
+        <v>361</v>
       </c>
     </row>
     <row r="144" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
-        <v>372</v>
+        <v>358</v>
       </c>
       <c r="B144" s="3" t="s">
-        <v>373</v>
+        <v>359</v>
       </c>
       <c r="C144" s="2">
         <v>6986351371839</v>
       </c>
       <c r="D144" t="s">
-        <v>374</v>
+        <v>360</v>
       </c>
       <c r="E144" s="1">
         <v>43277.666666666664</v>
       </c>
       <c r="F144" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="N144" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="148" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A148" t="s">
+        <v>366</v>
+      </c>
+      <c r="B148" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="C148" s="2">
+        <v>6985863359293</v>
+      </c>
+      <c r="D148" t="s">
+        <v>367</v>
+      </c>
+      <c r="E148" s="1">
+        <v>43278.409722222219</v>
+      </c>
+      <c r="F148" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="N148" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="149" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A149" t="s">
+        <v>366</v>
+      </c>
+      <c r="B149" t="s">
+        <v>273</v>
+      </c>
+      <c r="C149" s="2">
+        <v>6984603358022</v>
+      </c>
+      <c r="D149" t="s">
+        <v>84</v>
+      </c>
+      <c r="E149" s="1">
+        <v>43278.430555555555</v>
+      </c>
+      <c r="F149" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="G149">
+        <v>0.37</v>
+      </c>
+      <c r="H149">
+        <v>270</v>
+      </c>
+      <c r="K149">
+        <v>1</v>
+      </c>
+      <c r="L149">
+        <v>4</v>
+      </c>
+      <c r="M149" t="s">
+        <v>369</v>
+      </c>
+      <c r="N149" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="150" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A150" t="s">
+        <v>366</v>
+      </c>
+      <c r="B150" t="s">
+        <v>282</v>
+      </c>
+      <c r="C150" s="2">
+        <v>6983656356892</v>
+      </c>
+      <c r="D150" t="s">
+        <v>91</v>
+      </c>
+      <c r="E150" s="1">
+        <v>43278.449305555558</v>
+      </c>
+      <c r="F150" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="N150" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="151" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A151" t="s">
+        <v>366</v>
+      </c>
+      <c r="B151" t="s">
+        <v>282</v>
+      </c>
+      <c r="C151" s="2">
+        <v>6983702356823</v>
+      </c>
+      <c r="D151" t="s">
+        <v>91</v>
+      </c>
+      <c r="E151" s="1">
+        <v>43278.452777777777</v>
+      </c>
+      <c r="F151" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="N151" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="152" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A152" t="s">
+        <v>366</v>
+      </c>
+      <c r="B152" t="s">
+        <v>275</v>
+      </c>
+      <c r="C152" s="2">
+        <v>6983103356528</v>
+      </c>
+      <c r="D152" t="s">
+        <v>92</v>
+      </c>
+      <c r="E152" s="1">
+        <v>43278.467361111114</v>
+      </c>
+      <c r="F152" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="G152">
+        <v>1.21</v>
+      </c>
+      <c r="H152">
+        <v>270</v>
+      </c>
+      <c r="K152">
+        <v>1</v>
+      </c>
+      <c r="L152">
+        <v>4</v>
+      </c>
+      <c r="M152" t="s">
+        <v>323</v>
+      </c>
+      <c r="N152" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="153" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A153" t="s">
+        <v>366</v>
+      </c>
+      <c r="B153" s="3" t="s">
+        <v>370</v>
+      </c>
+      <c r="C153" s="2">
+        <v>6983090356519</v>
+      </c>
+      <c r="D153" t="s">
         <v>371</v>
       </c>
-      <c r="N144" t="s">
+      <c r="E153" s="1">
+        <v>43278.468055555553</v>
+      </c>
+      <c r="F153" s="1" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="154" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A154" t="s">
+        <v>366</v>
+      </c>
+      <c r="B154" t="s">
+        <v>276</v>
+      </c>
+      <c r="C154" s="2">
+        <v>6982711357390</v>
+      </c>
+      <c r="D154" t="s">
+        <v>93</v>
+      </c>
+      <c r="E154" s="1">
+        <v>43278.480555555558</v>
+      </c>
+      <c r="F154" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="G154">
+        <v>0.45</v>
+      </c>
+      <c r="H154">
+        <v>270</v>
+      </c>
+      <c r="K154">
+        <v>1</v>
+      </c>
+      <c r="L154">
+        <v>9</v>
+      </c>
+      <c r="M154" t="s">
+        <v>323</v>
+      </c>
+      <c r="N154" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="155" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A155" t="s">
+        <v>366</v>
+      </c>
+      <c r="B155" t="s">
+        <v>30</v>
+      </c>
+      <c r="C155" s="2">
+        <v>6982411358309</v>
+      </c>
+      <c r="D155" t="s">
+        <v>94</v>
+      </c>
+      <c r="E155" s="1">
+        <v>43278.493055555555</v>
+      </c>
+      <c r="F155" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="G155">
+        <v>248.4</v>
+      </c>
+      <c r="H155">
+        <v>279</v>
+      </c>
+      <c r="K155">
+        <v>1</v>
+      </c>
+      <c r="L155">
+        <v>1</v>
+      </c>
+      <c r="N155" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="156" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A156" t="s">
+        <v>366</v>
+      </c>
+      <c r="B156" t="s">
+        <v>372</v>
+      </c>
+      <c r="C156" s="2">
+        <v>6982517358590</v>
+      </c>
+      <c r="D156" t="s">
+        <v>95</v>
+      </c>
+      <c r="E156" s="1">
+        <v>43278.500694444447</v>
+      </c>
+      <c r="F156" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="G156">
+        <v>462.1</v>
+      </c>
+      <c r="H156">
+        <v>348</v>
+      </c>
+      <c r="K156">
+        <v>1</v>
+      </c>
+      <c r="L156">
+        <v>1</v>
+      </c>
+      <c r="N156" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="157" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A157" t="s">
+        <v>366</v>
+      </c>
+      <c r="B157" t="s">
+        <v>30</v>
+      </c>
+      <c r="C157" s="2">
+        <v>6982286358997</v>
+      </c>
+      <c r="D157" t="s">
+        <v>96</v>
+      </c>
+      <c r="E157" s="1">
+        <v>43278.559027777781</v>
+      </c>
+      <c r="F157" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="G157">
+        <v>121.6</v>
+      </c>
+      <c r="H157">
+        <v>322</v>
+      </c>
+      <c r="L157">
+        <v>2</v>
+      </c>
+      <c r="N157" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="158" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A158" t="s">
+        <v>366</v>
+      </c>
+      <c r="B158" t="s">
+        <v>277</v>
+      </c>
+      <c r="C158" s="2">
+        <v>6982057359742</v>
+      </c>
+      <c r="D158" t="s">
+        <v>76</v>
+      </c>
+      <c r="E158" s="1">
+        <v>43278.569444444445</v>
+      </c>
+      <c r="F158" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="G158">
+        <v>0.61</v>
+      </c>
+      <c r="H158">
+        <v>270</v>
+      </c>
+      <c r="K158">
+        <v>1</v>
+      </c>
+      <c r="L158">
+        <v>1</v>
+      </c>
+      <c r="N158" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="159" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A159" t="s">
+        <v>366</v>
+      </c>
+      <c r="B159" t="s">
+        <v>278</v>
+      </c>
+      <c r="C159" s="2">
+        <v>6982022359836</v>
+      </c>
+      <c r="D159" t="s">
+        <v>97</v>
+      </c>
+      <c r="E159" s="1">
+        <v>43278.572222222225</v>
+      </c>
+      <c r="F159" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="G159">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="H159">
+        <v>270</v>
+      </c>
+      <c r="K159">
+        <v>1</v>
+      </c>
+      <c r="L159">
+        <v>24</v>
+      </c>
+      <c r="M159" t="s">
+        <v>317</v>
+      </c>
+      <c r="N159" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="160" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A160" t="s">
+        <v>366</v>
+      </c>
+      <c r="B160" t="s">
+        <v>278</v>
+      </c>
+      <c r="C160" s="2">
+        <v>6982022359836</v>
+      </c>
+      <c r="D160" t="s">
+        <v>97</v>
+      </c>
+      <c r="E160" s="1">
+        <v>43278.572222222225</v>
+      </c>
+      <c r="F160" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="G160">
+        <v>0.13</v>
+      </c>
+      <c r="H160">
+        <v>270</v>
+      </c>
+      <c r="K160">
+        <v>1</v>
+      </c>
+      <c r="L160">
+        <v>34</v>
+      </c>
+      <c r="M160" t="s">
+        <v>374</v>
+      </c>
+      <c r="N160" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="161" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A161" t="s">
+        <v>366</v>
+      </c>
+      <c r="B161" t="s">
+        <v>278</v>
+      </c>
+      <c r="C161" s="2">
+        <v>6982022359836</v>
+      </c>
+      <c r="D161" t="s">
+        <v>97</v>
+      </c>
+      <c r="E161" s="1">
+        <v>43278.572222222225</v>
+      </c>
+      <c r="F161" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="G161">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="H161">
+        <v>270</v>
+      </c>
+      <c r="K161">
+        <v>1</v>
+      </c>
+      <c r="L161">
+        <v>16</v>
+      </c>
+      <c r="N161" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="162" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A162" t="s">
+        <v>366</v>
+      </c>
+      <c r="B162" s="3" t="s">
+        <v>269</v>
+      </c>
+      <c r="C162" s="2">
+        <v>6981921360308</v>
+      </c>
+      <c r="D162" t="s">
         <v>375</v>
       </c>
-    </row>
-    <row r="145" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="F145" s="1"/>
-    </row>
-    <row r="146" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B146" t="s">
-        <v>91</v>
-      </c>
-      <c r="C146" s="2">
-        <v>6984603358022</v>
-      </c>
-      <c r="D146" t="s">
-        <v>84</v>
-      </c>
-      <c r="E146" s="1">
-        <v>43278.430555555555</v>
-      </c>
-      <c r="F146" s="1"/>
-    </row>
-    <row r="147" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B147" t="s">
-        <v>92</v>
-      </c>
-      <c r="C147" s="2">
-        <v>6983656356892</v>
-      </c>
-      <c r="D147" t="s">
-        <v>93</v>
-      </c>
-      <c r="E147" s="1">
-        <v>43278.449305555558</v>
-      </c>
-      <c r="F147" s="1"/>
-    </row>
-    <row r="148" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B148" t="s">
-        <v>94</v>
-      </c>
-      <c r="C148" s="2">
-        <v>6983702356823</v>
-      </c>
-      <c r="D148" t="s">
-        <v>93</v>
-      </c>
-      <c r="E148" s="1">
-        <v>43278.452777777777</v>
-      </c>
-      <c r="F148" s="1"/>
-    </row>
-    <row r="149" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B149" t="s">
-        <v>95</v>
-      </c>
-      <c r="C149" s="2">
-        <v>6983103356528</v>
-      </c>
-      <c r="D149" t="s">
-        <v>96</v>
-      </c>
-      <c r="E149" s="1">
-        <v>43278.467361111114</v>
-      </c>
-      <c r="F149" s="1"/>
-    </row>
-    <row r="150" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B150" t="s">
-        <v>97</v>
-      </c>
-      <c r="C150" s="2">
-        <v>6982711357390</v>
-      </c>
-      <c r="D150" t="s">
+      <c r="E162" s="1">
+        <v>43278.583333333336</v>
+      </c>
+      <c r="F162" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="N162" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="163" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A163" t="s">
+        <v>366</v>
+      </c>
+      <c r="B163" t="s">
+        <v>279</v>
+      </c>
+      <c r="C163" s="2">
+        <v>6984942359384</v>
+      </c>
+      <c r="D163" t="s">
+        <v>48</v>
+      </c>
+      <c r="E163" s="1">
+        <v>43278.62222222222</v>
+      </c>
+      <c r="F163" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="G163">
+        <v>0.34</v>
+      </c>
+      <c r="H163">
+        <v>90</v>
+      </c>
+      <c r="K163">
+        <v>1</v>
+      </c>
+      <c r="L163">
+        <v>19</v>
+      </c>
+      <c r="M163" t="s">
+        <v>364</v>
+      </c>
+      <c r="N163" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="164" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A164" t="s">
+        <v>366</v>
+      </c>
+      <c r="B164" t="s">
+        <v>279</v>
+      </c>
+      <c r="C164" s="2">
+        <v>6984942359384</v>
+      </c>
+      <c r="D164" t="s">
+        <v>48</v>
+      </c>
+      <c r="E164" s="1">
+        <v>43278.62222222222</v>
+      </c>
+      <c r="F164" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="G164">
+        <v>98.3</v>
+      </c>
+      <c r="H164">
+        <v>274</v>
+      </c>
+      <c r="L164">
+        <v>2</v>
+      </c>
+      <c r="N164" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="165" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A165" t="s">
+        <v>366</v>
+      </c>
+      <c r="B165" t="s">
+        <v>282</v>
+      </c>
+      <c r="C165" s="2">
+        <v>6985094359323</v>
+      </c>
+      <c r="D165" t="s">
+        <v>28</v>
+      </c>
+      <c r="E165" s="1">
+        <v>43278.62777777778</v>
+      </c>
+      <c r="F165" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="N165" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="166" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A166" t="s">
+        <v>366</v>
+      </c>
+      <c r="B166" t="s">
+        <v>284</v>
+      </c>
+      <c r="C166" s="2">
+        <v>6985160359319</v>
+      </c>
+      <c r="D166" t="s">
+        <v>89</v>
+      </c>
+      <c r="E166" s="1">
+        <v>43278.629166666666</v>
+      </c>
+      <c r="F166" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="G166">
+        <v>0.06</v>
+      </c>
+      <c r="H166">
+        <v>90</v>
+      </c>
+      <c r="K166">
+        <v>1</v>
+      </c>
+      <c r="L166">
+        <v>35</v>
+      </c>
+      <c r="M166" t="s">
+        <v>376</v>
+      </c>
+      <c r="N166" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="167" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A167" t="s">
+        <v>366</v>
+      </c>
+      <c r="B167" t="s">
+        <v>284</v>
+      </c>
+      <c r="C167" s="2">
+        <v>6985160359319</v>
+      </c>
+      <c r="D167" t="s">
+        <v>89</v>
+      </c>
+      <c r="E167" s="1">
+        <v>43278.629166666666</v>
+      </c>
+      <c r="F167" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="G167">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="H167">
+        <v>270</v>
+      </c>
+      <c r="K167">
+        <v>1</v>
+      </c>
+      <c r="L167">
+        <v>17</v>
+      </c>
+      <c r="M167" t="s">
+        <v>376</v>
+      </c>
+      <c r="N167" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="168" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A168" t="s">
+        <v>366</v>
+      </c>
+      <c r="B168" t="s">
+        <v>372</v>
+      </c>
+      <c r="C168" s="2">
+        <v>6982267355785</v>
+      </c>
+      <c r="D168" t="s">
         <v>98</v>
       </c>
-      <c r="E150" s="1">
-        <v>43278.480555555558</v>
-      </c>
-      <c r="F150" s="1"/>
-    </row>
-    <row r="151" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B151" t="s">
+      <c r="E168" s="1">
+        <v>43278.884722222225</v>
+      </c>
+      <c r="F168" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="N168" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="169" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A169" t="s">
+        <v>366</v>
+      </c>
+      <c r="B169" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="C169" s="2">
+        <v>6985863359293</v>
+      </c>
+      <c r="D169" t="s">
+        <v>367</v>
+      </c>
+      <c r="E169" s="1">
+        <v>43278.638888888891</v>
+      </c>
+      <c r="F169" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="N169" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="170" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="F170" s="1"/>
+    </row>
+    <row r="171" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B171" t="s">
         <v>99</v>
       </c>
-      <c r="C151" s="2">
-        <v>6982411358309</v>
-      </c>
-      <c r="D151" t="s">
+      <c r="C171" s="2">
+        <v>6980968353518</v>
+      </c>
+      <c r="D171" t="s">
+        <v>83</v>
+      </c>
+      <c r="E171" s="1">
+        <v>43279.265277777777</v>
+      </c>
+      <c r="F171" s="1"/>
+    </row>
+    <row r="172" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B172" t="s">
         <v>100</v>
       </c>
-      <c r="E151" s="1">
-        <v>43278.493055555555</v>
-      </c>
-      <c r="F151" s="1"/>
-    </row>
-    <row r="152" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B152" t="s">
+      <c r="C172" s="2">
+        <v>6980970353513</v>
+      </c>
+      <c r="D172" t="s">
+        <v>15</v>
+      </c>
+      <c r="E172" s="1">
+        <v>43279.265972222223</v>
+      </c>
+      <c r="F172" s="1"/>
+    </row>
+    <row r="173" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B173" t="s">
         <v>101</v>
       </c>
-      <c r="C152" s="2">
-        <v>6982517358590</v>
-      </c>
-      <c r="D152" t="s">
+      <c r="C173" s="2">
+        <v>6980945353432</v>
+      </c>
+      <c r="D173" t="s">
+        <v>38</v>
+      </c>
+      <c r="E173" s="1">
+        <v>43279.268055555556</v>
+      </c>
+      <c r="F173" s="1"/>
+    </row>
+    <row r="174" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B174" t="s">
         <v>102</v>
       </c>
-      <c r="E152" s="1">
-        <v>43278.500694444447</v>
-      </c>
-      <c r="F152" s="1"/>
-    </row>
-    <row r="153" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B153" t="s">
+      <c r="C174" s="2">
+        <v>6980935353395</v>
+      </c>
+      <c r="D174" t="s">
         <v>103</v>
       </c>
-      <c r="C153" s="2">
-        <v>6982286358997</v>
-      </c>
-      <c r="D153" t="s">
+      <c r="E174" s="1">
+        <v>43279.270138888889</v>
+      </c>
+      <c r="F174" s="1"/>
+    </row>
+    <row r="175" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B175" t="s">
         <v>104</v>
       </c>
-      <c r="E153" s="1">
-        <v>43278.559027777781</v>
-      </c>
-      <c r="F153" s="1"/>
-    </row>
-    <row r="154" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B154" t="s">
+      <c r="C175" s="2">
+        <v>6980911353331</v>
+      </c>
+      <c r="D175" t="s">
         <v>105</v>
       </c>
-      <c r="C154" s="2">
-        <v>6982057359742</v>
-      </c>
-      <c r="D154" t="s">
-        <v>76</v>
-      </c>
-      <c r="E154" s="1">
-        <v>43278.569444444445</v>
-      </c>
-      <c r="F154" s="1"/>
-    </row>
-    <row r="155" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B155" t="s">
+      <c r="E175" s="1">
+        <v>43279.273611111108</v>
+      </c>
+      <c r="F175" s="1"/>
+    </row>
+    <row r="176" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B176" t="s">
         <v>106</v>
       </c>
-      <c r="C155" s="2">
-        <v>6982022359836</v>
-      </c>
-      <c r="D155" t="s">
+      <c r="C176" s="2">
+        <v>6980602353081</v>
+      </c>
+      <c r="D176" t="s">
         <v>107</v>
       </c>
-      <c r="E155" s="1">
-        <v>43278.572222222225</v>
-      </c>
-      <c r="F155" s="1"/>
-    </row>
-    <row r="156" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B156" t="s">
-        <v>108</v>
-      </c>
-      <c r="C156" s="2">
-        <v>6984942359384</v>
-      </c>
-      <c r="D156" t="s">
-        <v>48</v>
-      </c>
-      <c r="E156" s="1">
-        <v>43278.62222222222</v>
-      </c>
-      <c r="F156" s="1"/>
-    </row>
-    <row r="157" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B157" t="s">
-        <v>109</v>
-      </c>
-      <c r="C157" s="2">
-        <v>6985094359323</v>
-      </c>
-      <c r="D157" t="s">
-        <v>28</v>
-      </c>
-      <c r="E157" s="1">
-        <v>43278.62777777778</v>
-      </c>
-      <c r="F157" s="1"/>
-    </row>
-    <row r="158" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B158" t="s">
-        <v>110</v>
-      </c>
-      <c r="C158" s="2">
-        <v>6985160359319</v>
-      </c>
-      <c r="D158" t="s">
-        <v>89</v>
-      </c>
-      <c r="E158" s="1">
-        <v>43278.629166666666</v>
-      </c>
-      <c r="F158" s="1"/>
-    </row>
-    <row r="159" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B159" t="s">
-        <v>111</v>
-      </c>
-      <c r="C159" s="2">
-        <v>6982267355785</v>
-      </c>
-      <c r="D159" t="s">
-        <v>112</v>
-      </c>
-      <c r="E159" s="1">
-        <v>43278.884722222225</v>
-      </c>
-      <c r="F159" s="1"/>
-    </row>
-    <row r="160" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B160" t="s">
-        <v>113</v>
-      </c>
-      <c r="C160" s="2">
-        <v>6980968353518</v>
-      </c>
-      <c r="D160" t="s">
-        <v>83</v>
-      </c>
-      <c r="E160" s="1">
-        <v>43279.265277777777</v>
-      </c>
-      <c r="F160" s="1"/>
-    </row>
-    <row r="161" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B161" t="s">
-        <v>114</v>
-      </c>
-      <c r="C161" s="2">
-        <v>6980970353513</v>
-      </c>
-      <c r="D161" t="s">
-        <v>15</v>
-      </c>
-      <c r="E161" s="1">
-        <v>43279.265972222223</v>
-      </c>
-      <c r="F161" s="1"/>
-    </row>
-    <row r="162" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B162" t="s">
-        <v>115</v>
-      </c>
-      <c r="C162" s="2">
-        <v>6980945353432</v>
-      </c>
-      <c r="D162" t="s">
-        <v>38</v>
-      </c>
-      <c r="E162" s="1">
-        <v>43279.268055555556</v>
-      </c>
-      <c r="F162" s="1"/>
-    </row>
-    <row r="163" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B163" t="s">
-        <v>116</v>
-      </c>
-      <c r="C163" s="2">
-        <v>6980935353395</v>
-      </c>
-      <c r="D163" t="s">
-        <v>117</v>
-      </c>
-      <c r="E163" s="1">
-        <v>43279.270138888889</v>
-      </c>
-      <c r="F163" s="1"/>
-    </row>
-    <row r="164" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B164" t="s">
-        <v>118</v>
-      </c>
-      <c r="C164" s="2">
-        <v>6980911353331</v>
-      </c>
-      <c r="D164" t="s">
-        <v>119</v>
-      </c>
-      <c r="E164" s="1">
-        <v>43279.273611111108</v>
-      </c>
-      <c r="F164" s="1"/>
-    </row>
-    <row r="165" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B165" t="s">
-        <v>120</v>
-      </c>
-      <c r="C165" s="2">
-        <v>6980602353081</v>
-      </c>
-      <c r="D165" t="s">
-        <v>121</v>
-      </c>
-      <c r="E165" s="1">
+      <c r="E176" s="1">
         <v>43279.28125</v>
-      </c>
-      <c r="F165" s="1"/>
-    </row>
-    <row r="166" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B166" t="s">
-        <v>122</v>
-      </c>
-      <c r="C166" s="2">
-        <v>6980431352927</v>
-      </c>
-      <c r="D166" t="s">
-        <v>123</v>
-      </c>
-      <c r="E166" s="1">
-        <v>43279.284722222219</v>
-      </c>
-      <c r="F166" s="1"/>
-    </row>
-    <row r="167" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B167" t="s">
-        <v>124</v>
-      </c>
-      <c r="C167" s="2">
-        <v>6980212352665</v>
-      </c>
-      <c r="D167" t="s">
-        <v>125</v>
-      </c>
-      <c r="E167" s="1">
-        <v>43279.290972222225</v>
-      </c>
-      <c r="F167" s="1"/>
-    </row>
-    <row r="168" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B168" t="s">
-        <v>126</v>
-      </c>
-      <c r="C168" s="2">
-        <v>6980059352518</v>
-      </c>
-      <c r="D168" t="s">
-        <v>127</v>
-      </c>
-      <c r="E168" s="1">
-        <v>43279.296527777777</v>
-      </c>
-      <c r="F168" s="1"/>
-    </row>
-    <row r="169" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B169" t="s">
-        <v>128</v>
-      </c>
-      <c r="C169" s="2">
-        <v>6980047352508</v>
-      </c>
-      <c r="D169" t="s">
-        <v>129</v>
-      </c>
-      <c r="E169" s="1">
-        <v>43279.29791666667</v>
-      </c>
-      <c r="F169" s="1"/>
-    </row>
-    <row r="170" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B170" t="s">
-        <v>130</v>
-      </c>
-      <c r="C170" s="2">
-        <v>6979533352050</v>
-      </c>
-      <c r="D170" t="s">
-        <v>46</v>
-      </c>
-      <c r="E170" s="1">
-        <v>43279.30972222222</v>
-      </c>
-      <c r="F170" s="1"/>
-    </row>
-    <row r="171" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B171" t="s">
-        <v>131</v>
-      </c>
-      <c r="C171" s="2">
-        <v>6979485352018</v>
-      </c>
-      <c r="D171" t="s">
-        <v>46</v>
-      </c>
-      <c r="E171" s="1">
-        <v>43279.311805555553</v>
-      </c>
-      <c r="F171" s="1"/>
-    </row>
-    <row r="172" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B172" t="s">
-        <v>132</v>
-      </c>
-      <c r="C172" s="2">
-        <v>6979450352004</v>
-      </c>
-      <c r="D172" t="s">
-        <v>133</v>
-      </c>
-      <c r="E172" s="1">
-        <v>43279.313194444447</v>
-      </c>
-      <c r="F172" s="1"/>
-    </row>
-    <row r="173" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B173" t="s">
-        <v>134</v>
-      </c>
-      <c r="C173" s="2">
-        <v>6979451352005</v>
-      </c>
-      <c r="D173" t="s">
-        <v>133</v>
-      </c>
-      <c r="E173" s="1">
-        <v>43279.313888888886</v>
-      </c>
-      <c r="F173" s="1"/>
-    </row>
-    <row r="174" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B174" t="s">
-        <v>135</v>
-      </c>
-      <c r="C174" s="2">
-        <v>6979455352012</v>
-      </c>
-      <c r="D174" t="s">
-        <v>136</v>
-      </c>
-      <c r="E174" s="1">
-        <v>43279.314583333333</v>
-      </c>
-      <c r="F174" s="1"/>
-    </row>
-    <row r="175" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B175" t="s">
-        <v>137</v>
-      </c>
-      <c r="C175" s="2">
-        <v>6979459352019</v>
-      </c>
-      <c r="D175" t="s">
-        <v>46</v>
-      </c>
-      <c r="E175" s="1">
-        <v>43279.31527777778</v>
-      </c>
-      <c r="F175" s="1"/>
-    </row>
-    <row r="176" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B176" t="s">
-        <v>138</v>
-      </c>
-      <c r="C176" s="2">
-        <v>6979457352096</v>
-      </c>
-      <c r="D176" t="s">
-        <v>139</v>
-      </c>
-      <c r="E176" s="1">
-        <v>43279.318749999999</v>
       </c>
       <c r="F176" s="1"/>
     </row>
     <row r="177" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B177" t="s">
-        <v>140</v>
+        <v>108</v>
       </c>
       <c r="C177" s="2">
-        <v>6979451352092</v>
+        <v>6980431352927</v>
       </c>
       <c r="D177" t="s">
-        <v>139</v>
+        <v>109</v>
       </c>
       <c r="E177" s="1">
-        <v>43279.318749999999</v>
+        <v>43279.284722222219</v>
       </c>
       <c r="F177" s="1"/>
     </row>
     <row r="178" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B178" t="s">
-        <v>141</v>
+        <v>110</v>
       </c>
       <c r="C178" s="2">
-        <v>6979362352012</v>
+        <v>6980212352665</v>
       </c>
       <c r="D178" t="s">
-        <v>142</v>
+        <v>111</v>
       </c>
       <c r="E178" s="1">
-        <v>43279.321527777778</v>
+        <v>43279.290972222225</v>
       </c>
       <c r="F178" s="1"/>
     </row>
     <row r="179" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B179" t="s">
-        <v>143</v>
+        <v>112</v>
       </c>
       <c r="C179" s="2">
-        <v>6979058351708</v>
+        <v>6980059352518</v>
       </c>
       <c r="D179" t="s">
-        <v>144</v>
+        <v>113</v>
       </c>
       <c r="E179" s="1">
-        <v>43279.32708333333</v>
+        <v>43279.296527777777</v>
       </c>
       <c r="F179" s="1"/>
     </row>
     <row r="180" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B180" t="s">
-        <v>145</v>
+        <v>114</v>
       </c>
       <c r="C180" s="2">
-        <v>6978301351443</v>
+        <v>6980047352508</v>
       </c>
       <c r="D180" t="s">
-        <v>146</v>
+        <v>115</v>
       </c>
       <c r="E180" s="1">
-        <v>43279.341666666667</v>
+        <v>43279.29791666667</v>
       </c>
       <c r="F180" s="1"/>
     </row>
     <row r="181" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B181" t="s">
-        <v>147</v>
+        <v>116</v>
       </c>
       <c r="C181" s="2">
-        <v>6978297351472</v>
+        <v>6979533352050</v>
       </c>
       <c r="D181" t="s">
-        <v>22</v>
+        <v>46</v>
       </c>
       <c r="E181" s="1">
-        <v>43279.342361111114</v>
+        <v>43279.30972222222</v>
       </c>
       <c r="F181" s="1"/>
     </row>
     <row r="182" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B182" t="s">
-        <v>148</v>
+        <v>117</v>
       </c>
       <c r="C182" s="2">
-        <v>6978291351490</v>
+        <v>6979485352018</v>
       </c>
       <c r="D182" t="s">
-        <v>23</v>
+        <v>46</v>
       </c>
       <c r="E182" s="1">
-        <v>43279.34375</v>
+        <v>43279.311805555553</v>
       </c>
       <c r="F182" s="1"/>
     </row>
     <row r="183" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B183" t="s">
-        <v>149</v>
+        <v>118</v>
       </c>
       <c r="C183" s="2">
-        <v>6977910352784</v>
+        <v>6979450352004</v>
       </c>
       <c r="D183" t="s">
-        <v>150</v>
+        <v>119</v>
       </c>
       <c r="E183" s="1">
-        <v>43279.414583333331</v>
+        <v>43279.313194444447</v>
       </c>
       <c r="F183" s="1"/>
     </row>
     <row r="184" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B184" t="s">
-        <v>151</v>
+        <v>120</v>
       </c>
       <c r="C184" s="2">
-        <v>6977860353046</v>
+        <v>6979451352005</v>
       </c>
       <c r="D184" t="s">
-        <v>29</v>
+        <v>119</v>
       </c>
       <c r="E184" s="1">
-        <v>43279.419444444444</v>
+        <v>43279.313888888886</v>
       </c>
       <c r="F184" s="1"/>
     </row>
     <row r="185" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B185" t="s">
-        <v>152</v>
+        <v>121</v>
       </c>
       <c r="C185" s="2">
-        <v>6977861353067</v>
+        <v>6979455352012</v>
       </c>
       <c r="D185" t="s">
-        <v>29</v>
+        <v>122</v>
       </c>
       <c r="E185" s="1">
-        <v>43279.42083333333</v>
+        <v>43279.314583333333</v>
       </c>
       <c r="F185" s="1"/>
     </row>
     <row r="186" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B186" t="s">
-        <v>153</v>
+        <v>123</v>
       </c>
       <c r="C186" s="2">
-        <v>6977865353087</v>
+        <v>6979459352019</v>
       </c>
       <c r="D186" t="s">
-        <v>77</v>
+        <v>46</v>
       </c>
       <c r="E186" s="1">
-        <v>43279.422222222223</v>
+        <v>43279.31527777778</v>
       </c>
       <c r="F186" s="1"/>
     </row>
     <row r="187" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B187" t="s">
-        <v>154</v>
+        <v>124</v>
       </c>
       <c r="C187" s="2">
-        <v>6977856353173</v>
+        <v>6979457352096</v>
       </c>
       <c r="D187" t="s">
-        <v>15</v>
+        <v>125</v>
       </c>
       <c r="E187" s="1">
-        <v>43279.424305555556</v>
+        <v>43279.318749999999</v>
       </c>
       <c r="F187" s="1"/>
     </row>
     <row r="188" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B188" t="s">
-        <v>155</v>
+        <v>126</v>
       </c>
       <c r="C188" s="2">
-        <v>6977844353209</v>
+        <v>6979451352092</v>
       </c>
       <c r="D188" t="s">
-        <v>77</v>
+        <v>125</v>
       </c>
       <c r="E188" s="1">
-        <v>43279.425694444442</v>
+        <v>43279.318749999999</v>
       </c>
       <c r="F188" s="1"/>
     </row>
     <row r="189" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B189" t="s">
-        <v>156</v>
+        <v>127</v>
       </c>
       <c r="C189" s="2">
-        <v>6977797353337</v>
+        <v>6979362352012</v>
       </c>
       <c r="D189" t="s">
-        <v>52</v>
+        <v>128</v>
       </c>
       <c r="E189" s="1">
-        <v>43279.428472222222</v>
+        <v>43279.321527777778</v>
       </c>
       <c r="F189" s="1"/>
     </row>
     <row r="190" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B190" t="s">
-        <v>157</v>
+        <v>129</v>
       </c>
       <c r="C190" s="2">
-        <v>6977575354652</v>
+        <v>6979058351708</v>
       </c>
       <c r="D190" t="s">
-        <v>29</v>
+        <v>130</v>
       </c>
       <c r="E190" s="1">
-        <v>43279.447222222225</v>
+        <v>43279.32708333333</v>
       </c>
       <c r="F190" s="1"/>
     </row>
     <row r="191" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B191" t="s">
-        <v>158</v>
+        <v>131</v>
       </c>
       <c r="C191" s="2">
-        <v>6978571354702</v>
+        <v>6978301351443</v>
       </c>
       <c r="D191" t="s">
-        <v>112</v>
+        <v>132</v>
       </c>
       <c r="E191" s="1">
-        <v>43279.47152777778</v>
+        <v>43279.341666666667</v>
       </c>
       <c r="F191" s="1"/>
     </row>
     <row r="192" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B192" t="s">
-        <v>159</v>
+        <v>133</v>
       </c>
       <c r="C192" s="2">
-        <v>6979142354504</v>
+        <v>6978297351472</v>
       </c>
       <c r="D192" t="s">
-        <v>160</v>
+        <v>22</v>
       </c>
       <c r="E192" s="1">
-        <v>43279.486805555556</v>
+        <v>43279.342361111114</v>
       </c>
       <c r="F192" s="1"/>
     </row>
     <row r="193" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B193" t="s">
-        <v>161</v>
+        <v>134</v>
       </c>
       <c r="C193" s="2">
-        <v>6979932354155</v>
+        <v>6978291351490</v>
       </c>
       <c r="D193" t="s">
-        <v>104</v>
+        <v>23</v>
       </c>
       <c r="E193" s="1">
-        <v>43279.498611111114</v>
+        <v>43279.34375</v>
       </c>
       <c r="F193" s="1"/>
     </row>
     <row r="194" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B194" t="s">
-        <v>162</v>
+        <v>135</v>
       </c>
       <c r="C194" s="2">
-        <v>6979961354157</v>
+        <v>6977910352784</v>
       </c>
       <c r="D194" t="s">
-        <v>104</v>
+        <v>136</v>
       </c>
       <c r="E194" s="1">
-        <v>43279.500694444447</v>
+        <v>43279.414583333331</v>
       </c>
       <c r="F194" s="1"/>
     </row>
     <row r="195" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B195" t="s">
-        <v>163</v>
+        <v>137</v>
       </c>
       <c r="C195" s="2">
-        <v>6980285354065</v>
+        <v>6977860353046</v>
       </c>
       <c r="D195" t="s">
-        <v>87</v>
+        <v>29</v>
       </c>
       <c r="E195" s="1">
-        <v>43279.506944444445</v>
+        <v>43279.419444444444</v>
       </c>
       <c r="F195" s="1"/>
     </row>
     <row r="196" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B196" t="s">
-        <v>164</v>
+        <v>138</v>
       </c>
       <c r="C196" s="2">
-        <v>6980874353935</v>
+        <v>6977861353067</v>
       </c>
       <c r="D196" t="s">
-        <v>87</v>
+        <v>29</v>
       </c>
       <c r="E196" s="1">
-        <v>43279.515972222223</v>
+        <v>43279.42083333333</v>
       </c>
       <c r="F196" s="1"/>
     </row>
     <row r="197" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B197" t="s">
-        <v>165</v>
+        <v>139</v>
       </c>
       <c r="C197" s="2">
-        <v>6980891353931</v>
+        <v>6977865353087</v>
       </c>
       <c r="D197" t="s">
-        <v>166</v>
+        <v>77</v>
       </c>
       <c r="E197" s="1">
-        <v>43279.517361111109</v>
+        <v>43279.422222222223</v>
       </c>
       <c r="F197" s="1"/>
     </row>
     <row r="198" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B198" t="s">
-        <v>167</v>
+        <v>140</v>
       </c>
       <c r="C198" s="2">
-        <v>6980914353924</v>
+        <v>6977856353173</v>
       </c>
       <c r="D198" t="s">
-        <v>168</v>
+        <v>15</v>
       </c>
       <c r="E198" s="1">
-        <v>43279.518750000003</v>
+        <v>43279.424305555556</v>
       </c>
       <c r="F198" s="1"/>
     </row>
     <row r="199" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B199" t="s">
-        <v>169</v>
+        <v>141</v>
       </c>
       <c r="C199" s="2">
-        <v>7008446366454</v>
+        <v>6977844353209</v>
       </c>
       <c r="D199" t="s">
-        <v>170</v>
+        <v>77</v>
       </c>
       <c r="E199" s="1">
-        <v>43283.498611111114</v>
+        <v>43279.425694444442</v>
       </c>
       <c r="F199" s="1"/>
     </row>
     <row r="200" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B200" t="s">
-        <v>171</v>
+        <v>142</v>
       </c>
       <c r="C200" s="2">
-        <v>7008274366146</v>
+        <v>6977797353337</v>
       </c>
       <c r="D200" t="s">
-        <v>172</v>
+        <v>52</v>
       </c>
       <c r="E200" s="1">
-        <v>43283.506944444445</v>
+        <v>43279.428472222222</v>
       </c>
       <c r="F200" s="1"/>
     </row>
     <row r="201" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B201" t="s">
-        <v>173</v>
+        <v>143</v>
       </c>
       <c r="C201" s="2">
-        <v>7008058365732</v>
+        <v>6977575354652</v>
       </c>
       <c r="D201" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="E201" s="1">
-        <v>43283.513888888891</v>
+        <v>43279.447222222225</v>
       </c>
       <c r="F201" s="1"/>
     </row>
     <row r="202" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B202" t="s">
-        <v>174</v>
+        <v>144</v>
       </c>
       <c r="C202" s="2">
-        <v>7007697364981</v>
+        <v>6978571354702</v>
       </c>
       <c r="D202" t="s">
-        <v>56</v>
+        <v>98</v>
       </c>
       <c r="E202" s="1">
-        <v>43283.525694444441</v>
+        <v>43279.47152777778</v>
       </c>
       <c r="F202" s="1"/>
     </row>
     <row r="203" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B203" t="s">
-        <v>175</v>
+        <v>145</v>
       </c>
       <c r="C203" s="2">
-        <v>7007640364853</v>
+        <v>6979142354504</v>
       </c>
       <c r="D203" t="s">
-        <v>16</v>
+        <v>146</v>
       </c>
       <c r="E203" s="1">
-        <v>43283.529166666667</v>
+        <v>43279.486805555556</v>
       </c>
       <c r="F203" s="1"/>
     </row>
     <row r="204" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B204" t="s">
-        <v>176</v>
+        <v>147</v>
       </c>
       <c r="C204" s="2">
-        <v>7007642364847</v>
+        <v>6979932354155</v>
       </c>
       <c r="D204" t="s">
-        <v>117</v>
+        <v>96</v>
       </c>
       <c r="E204" s="1">
-        <v>43283.530555555553</v>
+        <v>43279.498611111114</v>
       </c>
       <c r="F204" s="1"/>
     </row>
     <row r="205" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B205" t="s">
-        <v>177</v>
+        <v>148</v>
       </c>
       <c r="C205" s="2">
-        <v>7007282364035</v>
+        <v>6979961354157</v>
       </c>
       <c r="D205" t="s">
-        <v>178</v>
+        <v>96</v>
       </c>
       <c r="E205" s="1">
-        <v>43283.542361111111</v>
+        <v>43279.500694444447</v>
       </c>
       <c r="F205" s="1"/>
     </row>
     <row r="206" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B206" t="s">
-        <v>179</v>
+        <v>149</v>
       </c>
       <c r="C206" s="2">
-        <v>7006937363535</v>
+        <v>6980285354065</v>
       </c>
       <c r="D206" t="s">
-        <v>180</v>
+        <v>87</v>
       </c>
       <c r="E206" s="1">
-        <v>43283.552777777775</v>
+        <v>43279.506944444445</v>
       </c>
       <c r="F206" s="1"/>
     </row>
     <row r="207" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B207" t="s">
-        <v>181</v>
+        <v>150</v>
       </c>
       <c r="C207" s="2">
-        <v>7006658363080</v>
+        <v>6980874353935</v>
       </c>
       <c r="D207" t="s">
-        <v>182</v>
+        <v>87</v>
       </c>
       <c r="E207" s="1">
-        <v>43283.56527777778</v>
+        <v>43279.515972222223</v>
       </c>
       <c r="F207" s="1"/>
     </row>
     <row r="208" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B208" t="s">
-        <v>183</v>
+        <v>151</v>
       </c>
       <c r="C208" s="2">
-        <v>7007092363031</v>
+        <v>6980891353931</v>
       </c>
       <c r="D208" t="s">
-        <v>184</v>
+        <v>152</v>
       </c>
       <c r="E208" s="1">
-        <v>43283.604861111111</v>
+        <v>43279.517361111109</v>
       </c>
       <c r="F208" s="1"/>
     </row>
     <row r="209" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B209" t="s">
-        <v>185</v>
+        <v>153</v>
       </c>
       <c r="C209" s="2">
-        <v>7007443362987</v>
+        <v>6980914353924</v>
       </c>
       <c r="D209" t="s">
-        <v>186</v>
+        <v>154</v>
       </c>
       <c r="E209" s="1">
-        <v>43283.613194444442</v>
+        <v>43279.518750000003</v>
       </c>
       <c r="F209" s="1"/>
     </row>
     <row r="210" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B210" t="s">
-        <v>187</v>
+        <v>155</v>
       </c>
       <c r="C210" s="2">
-        <v>7007870362915</v>
+        <v>7008446366454</v>
       </c>
       <c r="D210" t="s">
-        <v>188</v>
+        <v>156</v>
       </c>
       <c r="E210" s="1">
-        <v>43283.619444444441</v>
+        <v>43283.498611111114</v>
       </c>
       <c r="F210" s="1"/>
     </row>
     <row r="211" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B211" t="s">
-        <v>189</v>
+        <v>157</v>
       </c>
       <c r="C211" s="2">
-        <v>7010603362818</v>
+        <v>7008274366146</v>
       </c>
       <c r="D211" t="s">
-        <v>32</v>
+        <v>158</v>
       </c>
       <c r="E211" s="1">
-        <v>43283.652083333334</v>
+        <v>43283.506944444445</v>
       </c>
       <c r="F211" s="1"/>
     </row>
     <row r="212" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B212" t="s">
-        <v>190</v>
+        <v>159</v>
       </c>
       <c r="C212" s="2">
-        <v>7009945363862</v>
+        <v>7008058365732</v>
       </c>
       <c r="D212" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E212" s="1">
-        <v>43283.67291666667</v>
+        <v>43283.513888888891</v>
       </c>
       <c r="F212" s="1"/>
     </row>
     <row r="213" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B213" t="s">
-        <v>191</v>
+        <v>160</v>
       </c>
       <c r="C213" s="2">
-        <v>7009257365321</v>
+        <v>7007697364981</v>
       </c>
       <c r="D213" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E213" s="1">
-        <v>43283.743055555555</v>
+        <v>43283.525694444441</v>
       </c>
       <c r="F213" s="1"/>
     </row>
     <row r="214" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B214" t="s">
-        <v>192</v>
+        <v>161</v>
       </c>
       <c r="C214" s="2">
-        <v>7009246365393</v>
+        <v>7007640364853</v>
       </c>
       <c r="D214" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="E214" s="1">
-        <v>43283.745138888888</v>
+        <v>43283.529166666667</v>
       </c>
       <c r="F214" s="1"/>
     </row>
     <row r="215" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B215" t="s">
-        <v>193</v>
+        <v>162</v>
       </c>
       <c r="C215" s="2">
-        <v>7009221365532</v>
+        <v>7007642364847</v>
       </c>
       <c r="D215" t="s">
-        <v>194</v>
+        <v>103</v>
       </c>
       <c r="E215" s="1">
-        <v>43283.747916666667</v>
+        <v>43283.530555555553</v>
       </c>
       <c r="F215" s="1"/>
     </row>
     <row r="216" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B216" t="s">
-        <v>195</v>
+        <v>163</v>
       </c>
       <c r="C216" s="2">
-        <v>7009215365581</v>
+        <v>7007282364035</v>
       </c>
       <c r="D216" t="s">
-        <v>70</v>
+        <v>164</v>
       </c>
       <c r="E216" s="1">
-        <v>43283.749305555553</v>
+        <v>43283.542361111111</v>
       </c>
       <c r="F216" s="1"/>
     </row>
     <row r="217" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B217" t="s">
-        <v>196</v>
+        <v>165</v>
       </c>
       <c r="C217" s="2">
-        <v>7009220365592</v>
+        <v>7006937363535</v>
       </c>
       <c r="D217" t="s">
-        <v>197</v>
+        <v>166</v>
       </c>
       <c r="E217" s="1">
-        <v>43283.750694444447</v>
+        <v>43283.552777777775</v>
       </c>
       <c r="F217" s="1"/>
     </row>
     <row r="218" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B218" t="s">
-        <v>198</v>
+        <v>167</v>
       </c>
       <c r="C218" s="2">
-        <v>7009216365643</v>
+        <v>7006658363080</v>
       </c>
       <c r="D218" t="s">
-        <v>199</v>
+        <v>168</v>
       </c>
       <c r="E218" s="1">
-        <v>43283.75277777778</v>
+        <v>43283.56527777778</v>
       </c>
       <c r="F218" s="1"/>
     </row>
     <row r="219" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B219" t="s">
-        <v>200</v>
+        <v>169</v>
       </c>
       <c r="C219" s="2">
-        <v>7009215365667</v>
+        <v>7007092363031</v>
       </c>
       <c r="D219" t="s">
-        <v>201</v>
+        <v>170</v>
       </c>
       <c r="E219" s="1">
-        <v>43283.753472222219</v>
+        <v>43283.604861111111</v>
       </c>
       <c r="F219" s="1"/>
     </row>
     <row r="220" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B220" t="s">
-        <v>202</v>
+        <v>171</v>
       </c>
       <c r="C220" s="2">
-        <v>7009073365892</v>
+        <v>7007443362987</v>
       </c>
       <c r="D220" t="s">
-        <v>203</v>
+        <v>172</v>
       </c>
       <c r="E220" s="1">
-        <v>43283.759027777778</v>
+        <v>43283.613194444442</v>
       </c>
       <c r="F220" s="1"/>
     </row>
     <row r="221" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B221" t="s">
-        <v>204</v>
+        <v>173</v>
       </c>
       <c r="C221" s="2">
-        <v>7008870366106</v>
+        <v>7007870362915</v>
       </c>
       <c r="D221" t="s">
-        <v>205</v>
+        <v>174</v>
       </c>
       <c r="E221" s="1">
-        <v>43283.765277777777</v>
+        <v>43283.619444444441</v>
       </c>
       <c r="F221" s="1"/>
     </row>
     <row r="222" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B222" t="s">
-        <v>206</v>
+        <v>175</v>
       </c>
       <c r="C222" s="2">
-        <v>7008555366617</v>
+        <v>7010603362818</v>
       </c>
       <c r="D222" t="s">
-        <v>207</v>
+        <v>32</v>
       </c>
       <c r="E222" s="1">
-        <v>43283.776388888888</v>
+        <v>43283.652083333334</v>
       </c>
       <c r="F222" s="1"/>
     </row>
     <row r="223" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B223" t="s">
-        <v>208</v>
+        <v>176</v>
       </c>
       <c r="C223" s="2">
-        <v>7008548366629</v>
+        <v>7009945363862</v>
       </c>
       <c r="D223" t="s">
-        <v>40</v>
+        <v>19</v>
       </c>
       <c r="E223" s="1">
-        <v>43283.777777777781</v>
+        <v>43283.67291666667</v>
       </c>
       <c r="F223" s="1"/>
     </row>
     <row r="224" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B224" t="s">
-        <v>209</v>
+        <v>177</v>
       </c>
       <c r="C224" s="2">
-        <v>7008546366650</v>
+        <v>7009257365321</v>
       </c>
       <c r="D224" t="s">
-        <v>36</v>
+        <v>58</v>
       </c>
       <c r="E224" s="1">
-        <v>43283.779166666667</v>
+        <v>43283.743055555555</v>
       </c>
       <c r="F224" s="1"/>
     </row>
     <row r="225" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B225" t="s">
-        <v>210</v>
+        <v>178</v>
       </c>
       <c r="C225" s="2">
-        <v>7005699362925</v>
+        <v>7009246365393</v>
       </c>
       <c r="D225" t="s">
-        <v>211</v>
+        <v>21</v>
       </c>
       <c r="E225" s="1">
-        <v>43284.404861111114</v>
+        <v>43283.745138888888</v>
       </c>
       <c r="F225" s="1"/>
     </row>
     <row r="226" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B226" t="s">
-        <v>212</v>
+        <v>179</v>
       </c>
       <c r="C226" s="2">
-        <v>7003859361323</v>
+        <v>7009221365532</v>
       </c>
       <c r="D226" t="s">
-        <v>213</v>
+        <v>180</v>
       </c>
       <c r="E226" s="1">
-        <v>43284.474305555559</v>
+        <v>43283.747916666667</v>
       </c>
       <c r="F226" s="1"/>
     </row>
     <row r="227" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B227" t="s">
-        <v>214</v>
+        <v>181</v>
       </c>
       <c r="C227" s="2">
-        <v>7003856361321</v>
+        <v>7009215365581</v>
       </c>
       <c r="D227" t="s">
-        <v>213</v>
+        <v>70</v>
       </c>
       <c r="E227" s="1">
-        <v>43284.476388888892</v>
+        <v>43283.749305555553</v>
       </c>
       <c r="F227" s="1"/>
     </row>
     <row r="228" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B228" t="s">
-        <v>215</v>
+        <v>182</v>
       </c>
       <c r="C228" s="2">
-        <v>7003558361140</v>
+        <v>7009220365592</v>
       </c>
       <c r="D228" t="s">
-        <v>216</v>
+        <v>183</v>
       </c>
       <c r="E228" s="1">
-        <v>43284.481944444444</v>
+        <v>43283.750694444447</v>
       </c>
       <c r="F228" s="1"/>
     </row>
     <row r="229" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B229" t="s">
-        <v>217</v>
+        <v>184</v>
       </c>
       <c r="C229" s="2">
-        <v>7003118360900</v>
+        <v>7009216365643</v>
       </c>
       <c r="D229" t="s">
-        <v>218</v>
+        <v>185</v>
       </c>
       <c r="E229" s="1">
-        <v>43284.487500000003</v>
+        <v>43283.75277777778</v>
       </c>
       <c r="F229" s="1"/>
     </row>
     <row r="230" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B230" t="s">
-        <v>219</v>
+        <v>186</v>
       </c>
       <c r="C230" s="2">
-        <v>7002855360420</v>
+        <v>7009215365667</v>
       </c>
       <c r="D230" t="s">
-        <v>216</v>
+        <v>187</v>
       </c>
       <c r="E230" s="1">
-        <v>43284.509027777778</v>
+        <v>43283.753472222219</v>
       </c>
       <c r="F230" s="1"/>
     </row>
     <row r="231" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B231" t="s">
-        <v>220</v>
+        <v>188</v>
       </c>
       <c r="C231" s="2">
-        <v>7002885360403</v>
+        <v>7009073365892</v>
       </c>
       <c r="D231" t="s">
-        <v>221</v>
+        <v>189</v>
       </c>
       <c r="E231" s="1">
-        <v>43284.511111111111</v>
+        <v>43283.759027777778</v>
       </c>
       <c r="F231" s="1"/>
     </row>
     <row r="232" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B232" t="s">
-        <v>222</v>
+        <v>190</v>
       </c>
       <c r="C232" s="2">
-        <v>7003077360282</v>
+        <v>7008870366106</v>
       </c>
       <c r="D232" t="s">
-        <v>223</v>
+        <v>191</v>
       </c>
       <c r="E232" s="1">
-        <v>43284.51458333333</v>
+        <v>43283.765277777777</v>
       </c>
       <c r="F232" s="1"/>
     </row>
     <row r="233" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B233" t="s">
-        <v>224</v>
+        <v>192</v>
       </c>
       <c r="C233" s="2">
-        <v>7004668359365</v>
+        <v>7008555366617</v>
       </c>
       <c r="D233" t="s">
-        <v>225</v>
+        <v>193</v>
       </c>
       <c r="E233" s="1">
-        <v>43284.538194444445</v>
+        <v>43283.776388888888</v>
       </c>
       <c r="F233" s="1"/>
     </row>
     <row r="234" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B234" t="s">
-        <v>226</v>
+        <v>194</v>
       </c>
       <c r="C234" s="2">
-        <v>7004947359182</v>
+        <v>7008548366629</v>
       </c>
       <c r="D234" t="s">
-        <v>227</v>
+        <v>40</v>
       </c>
       <c r="E234" s="1">
-        <v>43284.543055555558</v>
+        <v>43283.777777777781</v>
       </c>
       <c r="F234" s="1"/>
     </row>
     <row r="235" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B235" t="s">
-        <v>228</v>
+        <v>195</v>
       </c>
       <c r="C235" s="2">
-        <v>7005389358896</v>
+        <v>7008546366650</v>
       </c>
       <c r="D235" t="s">
-        <v>93</v>
+        <v>36</v>
       </c>
       <c r="E235" s="1">
-        <v>43284.55</v>
+        <v>43283.779166666667</v>
       </c>
       <c r="F235" s="1"/>
     </row>
     <row r="236" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B236" t="s">
-        <v>229</v>
+        <v>196</v>
       </c>
       <c r="C236" s="2">
-        <v>7005467358844</v>
+        <v>7005699362925</v>
       </c>
       <c r="D236" t="s">
-        <v>93</v>
+        <v>197</v>
       </c>
       <c r="E236" s="1">
-        <v>43284.552083333336</v>
+        <v>43284.404861111114</v>
       </c>
       <c r="F236" s="1"/>
     </row>
     <row r="237" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B237" t="s">
-        <v>230</v>
+        <v>198</v>
       </c>
       <c r="C237" s="2">
-        <v>7005608358776</v>
+        <v>7003859361323</v>
       </c>
       <c r="D237" t="s">
-        <v>216</v>
+        <v>199</v>
       </c>
       <c r="E237" s="1">
-        <v>43284.554861111108</v>
+        <v>43284.474305555559</v>
       </c>
       <c r="F237" s="1"/>
     </row>
     <row r="238" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B238" t="s">
-        <v>231</v>
+        <v>200</v>
       </c>
       <c r="C238" s="2">
-        <v>7005953358605</v>
+        <v>7003856361321</v>
       </c>
       <c r="D238" t="s">
-        <v>232</v>
+        <v>199</v>
       </c>
       <c r="E238" s="1">
-        <v>43284.561111111114</v>
+        <v>43284.476388888892</v>
       </c>
       <c r="F238" s="1"/>
     </row>
     <row r="239" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B239" t="s">
-        <v>233</v>
+        <v>201</v>
       </c>
       <c r="C239" s="2">
-        <v>7005947359962</v>
+        <v>7003558361140</v>
       </c>
       <c r="D239" t="s">
-        <v>43</v>
+        <v>202</v>
       </c>
       <c r="E239" s="1">
-        <v>43284.581250000003</v>
+        <v>43284.481944444444</v>
       </c>
       <c r="F239" s="1"/>
     </row>
     <row r="240" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B240" t="s">
-        <v>234</v>
+        <v>203</v>
       </c>
       <c r="C240" s="2">
-        <v>7005968360361</v>
+        <v>7003118360900</v>
       </c>
       <c r="D240" t="s">
-        <v>43</v>
+        <v>204</v>
       </c>
       <c r="E240" s="1">
-        <v>43284.585416666669</v>
+        <v>43284.487500000003</v>
       </c>
       <c r="F240" s="1"/>
     </row>
     <row r="241" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B241" t="s">
-        <v>235</v>
+        <v>205</v>
       </c>
       <c r="C241" s="2">
-        <v>7005953361950</v>
+        <v>7002855360420</v>
       </c>
       <c r="D241" t="s">
-        <v>182</v>
+        <v>202</v>
       </c>
       <c r="E241" s="1">
-        <v>43284.602777777778</v>
+        <v>43284.509027777778</v>
       </c>
       <c r="F241" s="1"/>
     </row>
     <row r="242" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B242" t="s">
-        <v>236</v>
+        <v>206</v>
       </c>
       <c r="C242" s="2">
-        <v>7004327359068</v>
+        <v>7002885360403</v>
       </c>
       <c r="D242" t="s">
-        <v>237</v>
+        <v>207</v>
       </c>
       <c r="E242" s="1">
-        <v>43285.468055555553</v>
+        <v>43284.511111111111</v>
       </c>
       <c r="F242" s="1"/>
     </row>
     <row r="243" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B243" t="s">
-        <v>238</v>
+        <v>208</v>
       </c>
       <c r="C243" s="2">
-        <v>7004323359062</v>
+        <v>7003077360282</v>
       </c>
       <c r="D243" t="s">
-        <v>239</v>
+        <v>209</v>
       </c>
       <c r="E243" s="1">
-        <v>43285.469444444447</v>
-      </c>
+        <v>43284.51458333333</v>
+      </c>
+      <c r="F243" s="1"/>
     </row>
     <row r="244" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B244" t="s">
-        <v>240</v>
+        <v>210</v>
       </c>
       <c r="C244" s="2">
-        <v>7004287358905</v>
+        <v>7004668359365</v>
       </c>
       <c r="D244" t="s">
-        <v>241</v>
+        <v>211</v>
       </c>
       <c r="E244" s="1">
-        <v>43285.472916666666</v>
+        <v>43284.538194444445</v>
       </c>
       <c r="F244" s="1"/>
     </row>
     <row r="245" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B245" t="s">
-        <v>242</v>
+        <v>212</v>
       </c>
       <c r="C245" s="2">
-        <v>7004221358773</v>
+        <v>7004947359182</v>
       </c>
       <c r="D245" t="s">
-        <v>243</v>
+        <v>213</v>
       </c>
       <c r="E245" s="1">
-        <v>43285.479861111111</v>
-      </c>
+        <v>43284.543055555558</v>
+      </c>
+      <c r="F245" s="1"/>
     </row>
     <row r="246" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B246" t="s">
-        <v>244</v>
+        <v>214</v>
       </c>
       <c r="C246" s="2">
-        <v>7003851357814</v>
+        <v>7005389358896</v>
       </c>
       <c r="D246" t="s">
-        <v>245</v>
+        <v>91</v>
       </c>
       <c r="E246" s="1">
-        <v>43285.495833333334</v>
-      </c>
+        <v>43284.55</v>
+      </c>
+      <c r="F246" s="1"/>
     </row>
     <row r="247" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B247" t="s">
-        <v>246</v>
+        <v>215</v>
       </c>
       <c r="C247" s="2">
-        <v>7003591357126</v>
+        <v>7005467358844</v>
       </c>
       <c r="D247" t="s">
-        <v>247</v>
+        <v>91</v>
       </c>
       <c r="E247" s="1">
-        <v>43285.505555555559</v>
-      </c>
+        <v>43284.552083333336</v>
+      </c>
+      <c r="F247" s="1"/>
     </row>
     <row r="248" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B248" t="s">
-        <v>248</v>
+        <v>216</v>
       </c>
       <c r="C248" s="2">
-        <v>7003588357121</v>
+        <v>7005608358776</v>
       </c>
       <c r="D248" t="s">
-        <v>249</v>
+        <v>202</v>
       </c>
       <c r="E248" s="1">
-        <v>43285.507638888892</v>
-      </c>
+        <v>43284.554861111108</v>
+      </c>
+      <c r="F248" s="1"/>
     </row>
     <row r="249" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B249" t="s">
-        <v>250</v>
+        <v>217</v>
       </c>
       <c r="C249" s="2">
-        <v>7003563357072</v>
+        <v>7005953358605</v>
       </c>
       <c r="D249" t="s">
-        <v>251</v>
+        <v>218</v>
       </c>
       <c r="E249" s="1">
-        <v>43285.509722222225</v>
-      </c>
+        <v>43284.561111111114</v>
+      </c>
+      <c r="F249" s="1"/>
     </row>
     <row r="250" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B250" t="s">
-        <v>252</v>
+        <v>219</v>
       </c>
       <c r="C250" s="2">
-        <v>7003167356300</v>
+        <v>7005947359962</v>
       </c>
       <c r="D250" t="s">
-        <v>253</v>
+        <v>43</v>
       </c>
       <c r="E250" s="1">
-        <v>43285.520138888889</v>
+        <v>43284.581250000003</v>
       </c>
     </row>
     <row r="251" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B251" t="s">
-        <v>254</v>
+        <v>220</v>
       </c>
       <c r="C251" s="2">
-        <v>7003070356094</v>
+        <v>7005968360361</v>
       </c>
       <c r="D251" t="s">
-        <v>255</v>
+        <v>43</v>
       </c>
       <c r="E251" s="1">
-        <v>43285.525000000001</v>
-      </c>
+        <v>43284.585416666669</v>
+      </c>
+      <c r="F251" s="1"/>
     </row>
     <row r="252" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B252" t="s">
-        <v>256</v>
+        <v>221</v>
       </c>
       <c r="C252" s="2">
-        <v>7002942355831</v>
+        <v>7005953361950</v>
       </c>
       <c r="D252" t="s">
-        <v>257</v>
+        <v>168</v>
       </c>
       <c r="E252" s="1">
-        <v>43285.529166666667</v>
+        <v>43284.602777777778</v>
       </c>
     </row>
     <row r="253" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B253" t="s">
-        <v>258</v>
+        <v>222</v>
       </c>
       <c r="C253" s="2">
-        <v>7002927355804</v>
+        <v>7004327359068</v>
       </c>
       <c r="D253" t="s">
-        <v>259</v>
+        <v>223</v>
       </c>
       <c r="E253" s="1">
-        <v>43285.530555555553</v>
+        <v>43285.468055555553</v>
       </c>
     </row>
     <row r="254" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B254" t="s">
-        <v>260</v>
+        <v>224</v>
       </c>
       <c r="C254" s="2">
-        <v>7003815355805</v>
+        <v>7004323359062</v>
       </c>
       <c r="D254" t="s">
-        <v>261</v>
+        <v>225</v>
       </c>
       <c r="E254" s="1">
-        <v>43285.582638888889</v>
+        <v>43285.469444444447</v>
       </c>
     </row>
     <row r="255" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B255" t="s">
-        <v>262</v>
+        <v>226</v>
       </c>
       <c r="C255" s="2">
-        <v>7003868355815</v>
+        <v>7004287358905</v>
       </c>
       <c r="D255" t="s">
-        <v>263</v>
+        <v>227</v>
       </c>
       <c r="E255" s="1">
-        <v>43285.584027777775</v>
+        <v>43285.472916666666</v>
       </c>
     </row>
     <row r="256" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B256" t="s">
+        <v>228</v>
+      </c>
+      <c r="C256" s="2">
+        <v>7004221358773</v>
+      </c>
+      <c r="D256" t="s">
+        <v>229</v>
+      </c>
+      <c r="E256" s="1">
+        <v>43285.479861111111</v>
+      </c>
+    </row>
+    <row r="257" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B257" t="s">
+        <v>230</v>
+      </c>
+      <c r="C257" s="2">
+        <v>7003851357814</v>
+      </c>
+      <c r="D257" t="s">
+        <v>231</v>
+      </c>
+      <c r="E257" s="1">
+        <v>43285.495833333334</v>
+      </c>
+    </row>
+    <row r="258" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B258" t="s">
+        <v>232</v>
+      </c>
+      <c r="C258" s="2">
+        <v>7003591357126</v>
+      </c>
+      <c r="D258" t="s">
+        <v>233</v>
+      </c>
+      <c r="E258" s="1">
+        <v>43285.505555555559</v>
+      </c>
+    </row>
+    <row r="259" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B259" t="s">
+        <v>234</v>
+      </c>
+      <c r="C259" s="2">
+        <v>7003588357121</v>
+      </c>
+      <c r="D259" t="s">
+        <v>235</v>
+      </c>
+      <c r="E259" s="1">
+        <v>43285.507638888892</v>
+      </c>
+    </row>
+    <row r="260" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B260" t="s">
+        <v>236</v>
+      </c>
+      <c r="C260" s="2">
+        <v>7003563357072</v>
+      </c>
+      <c r="D260" t="s">
+        <v>237</v>
+      </c>
+      <c r="E260" s="1">
+        <v>43285.509722222225</v>
+      </c>
+    </row>
+    <row r="261" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B261" t="s">
+        <v>238</v>
+      </c>
+      <c r="C261" s="2">
+        <v>7003167356300</v>
+      </c>
+      <c r="D261" t="s">
+        <v>239</v>
+      </c>
+      <c r="E261" s="1">
+        <v>43285.520138888889</v>
+      </c>
+    </row>
+    <row r="262" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B262" t="s">
+        <v>240</v>
+      </c>
+      <c r="C262" s="2">
+        <v>7003070356094</v>
+      </c>
+      <c r="D262" t="s">
+        <v>241</v>
+      </c>
+      <c r="E262" s="1">
+        <v>43285.525000000001</v>
+      </c>
+    </row>
+    <row r="263" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B263" t="s">
+        <v>242</v>
+      </c>
+      <c r="C263" s="2">
+        <v>7002942355831</v>
+      </c>
+      <c r="D263" t="s">
+        <v>243</v>
+      </c>
+      <c r="E263" s="1">
+        <v>43285.529166666667</v>
+      </c>
+    </row>
+    <row r="264" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B264" t="s">
+        <v>244</v>
+      </c>
+      <c r="C264" s="2">
+        <v>7002927355804</v>
+      </c>
+      <c r="D264" t="s">
+        <v>245</v>
+      </c>
+      <c r="E264" s="1">
+        <v>43285.530555555553</v>
+      </c>
+    </row>
+    <row r="265" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B265" t="s">
+        <v>246</v>
+      </c>
+      <c r="C265" s="2">
+        <v>7003815355805</v>
+      </c>
+      <c r="D265" t="s">
+        <v>247</v>
+      </c>
+      <c r="E265" s="1">
+        <v>43285.582638888889</v>
+      </c>
+    </row>
+    <row r="266" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B266" t="s">
+        <v>248</v>
+      </c>
+      <c r="C266" s="2">
+        <v>7003868355815</v>
+      </c>
+      <c r="D266" t="s">
+        <v>249</v>
+      </c>
+      <c r="E266" s="1">
+        <v>43285.584027777775</v>
+      </c>
+    </row>
+    <row r="267" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B267" t="s">
+        <v>250</v>
+      </c>
+      <c r="C267" s="2">
+        <v>7004676355956</v>
+      </c>
+      <c r="D267" t="s">
+        <v>251</v>
+      </c>
+      <c r="E267" s="1">
+        <v>43285.595138888886</v>
+      </c>
+    </row>
+    <row r="268" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B268" t="s">
+        <v>252</v>
+      </c>
+      <c r="C268" s="2">
+        <v>7005109356038</v>
+      </c>
+      <c r="D268" t="s">
+        <v>253</v>
+      </c>
+      <c r="E268" s="1">
+        <v>43285.602083333331</v>
+      </c>
+    </row>
+    <row r="269" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B269" t="s">
+        <v>254</v>
+      </c>
+      <c r="C269" s="2">
+        <v>7005919356186</v>
+      </c>
+      <c r="D269" t="s">
+        <v>255</v>
+      </c>
+      <c r="E269" s="1">
+        <v>43285.617361111108</v>
+      </c>
+    </row>
+    <row r="270" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B270" t="s">
+        <v>256</v>
+      </c>
+      <c r="C270" s="2">
+        <v>7006690356269</v>
+      </c>
+      <c r="D270" t="s">
+        <v>257</v>
+      </c>
+      <c r="E270" s="1">
+        <v>43285.634722222225</v>
+      </c>
+    </row>
+    <row r="271" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B271" t="s">
+        <v>258</v>
+      </c>
+      <c r="C271" s="2">
+        <v>7006735356287</v>
+      </c>
+      <c r="D271" t="s">
+        <v>259</v>
+      </c>
+      <c r="E271" s="1">
+        <v>43285.638194444444</v>
+      </c>
+    </row>
+    <row r="272" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B272" t="s">
+        <v>260</v>
+      </c>
+      <c r="C272" s="2">
+        <v>7006631356457</v>
+      </c>
+      <c r="D272" t="s">
+        <v>261</v>
+      </c>
+      <c r="E272" s="1">
+        <v>43285.645833333336</v>
+      </c>
+    </row>
+    <row r="273" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B273" t="s">
+        <v>262</v>
+      </c>
+      <c r="C273" s="2">
+        <v>7006501356636</v>
+      </c>
+      <c r="D273" t="s">
+        <v>263</v>
+      </c>
+      <c r="E273" s="1">
+        <v>43285.649305555555</v>
+      </c>
+    </row>
+    <row r="274" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B274" t="s">
         <v>264</v>
       </c>
-      <c r="C256" s="2">
-        <v>7004676355956</v>
-      </c>
-      <c r="D256" t="s">
+      <c r="C274" s="2">
+        <v>7005394357987</v>
+      </c>
+      <c r="D274" t="s">
+        <v>218</v>
+      </c>
+      <c r="E274" s="1">
+        <v>43285.668749999997</v>
+      </c>
+    </row>
+    <row r="275" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B275" t="s">
         <v>265</v>
       </c>
-      <c r="E256" s="1">
-        <v>43285.595138888886</v>
-      </c>
-    </row>
-    <row r="257" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B257" t="s">
+      <c r="C275" s="2">
+        <v>7004438359158</v>
+      </c>
+      <c r="D275" t="s">
         <v>266</v>
       </c>
-      <c r="C257" s="2">
-        <v>7005109356038</v>
-      </c>
-      <c r="D257" t="s">
+      <c r="E275" s="1">
+        <v>43285.722916666666</v>
+      </c>
+    </row>
+    <row r="276" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A276" t="s">
         <v>267</v>
       </c>
-      <c r="E257" s="1">
-        <v>43285.602083333331</v>
-      </c>
-    </row>
-    <row r="258" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B258" t="s">
-        <v>268</v>
-      </c>
-      <c r="C258" s="2">
-        <v>7005919356186</v>
-      </c>
-      <c r="D258" t="s">
-        <v>269</v>
-      </c>
-      <c r="E258" s="1">
-        <v>43285.617361111108</v>
-      </c>
-    </row>
-    <row r="259" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B259" t="s">
-        <v>270</v>
-      </c>
-      <c r="C259" s="2">
-        <v>7006690356269</v>
-      </c>
-      <c r="D259" t="s">
-        <v>271</v>
-      </c>
-      <c r="E259" s="1">
-        <v>43285.634722222225</v>
-      </c>
-    </row>
-    <row r="260" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B260" t="s">
-        <v>272</v>
-      </c>
-      <c r="C260" s="2">
-        <v>7006735356287</v>
-      </c>
-      <c r="D260" t="s">
-        <v>273</v>
-      </c>
-      <c r="E260" s="1">
-        <v>43285.638194444444</v>
-      </c>
-    </row>
-    <row r="261" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B261" t="s">
-        <v>274</v>
-      </c>
-      <c r="C261" s="2">
-        <v>7006631356457</v>
-      </c>
-      <c r="D261" t="s">
-        <v>275</v>
-      </c>
-      <c r="E261" s="1">
-        <v>43285.645833333336</v>
-      </c>
-    </row>
-    <row r="262" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B262" t="s">
-        <v>276</v>
-      </c>
-      <c r="C262" s="2">
-        <v>7006501356636</v>
-      </c>
-      <c r="D262" t="s">
-        <v>277</v>
-      </c>
-      <c r="E262" s="1">
-        <v>43285.649305555555</v>
-      </c>
-    </row>
-    <row r="263" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B263" t="s">
-        <v>278</v>
-      </c>
-      <c r="C263" s="2">
-        <v>7005394357987</v>
-      </c>
-      <c r="D263" t="s">
-        <v>232</v>
-      </c>
-      <c r="E263" s="1">
-        <v>43285.668749999997</v>
-      </c>
-    </row>
-    <row r="264" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B264" t="s">
-        <v>279</v>
-      </c>
-      <c r="C264" s="2">
-        <v>7004438359158</v>
-      </c>
-      <c r="D264" t="s">
-        <v>280</v>
-      </c>
-      <c r="E264" s="1">
-        <v>43285.722916666666</v>
-      </c>
-    </row>
-    <row r="265" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A265" t="s">
-        <v>281</v>
-      </c>
-      <c r="B265" t="s">
-        <v>281</v>
-      </c>
-      <c r="C265" t="s">
-        <v>281</v>
-      </c>
-      <c r="D265" t="s">
-        <v>281</v>
-      </c>
-      <c r="E265" t="s">
-        <v>281</v>
+      <c r="B276" t="s">
+        <v>267</v>
+      </c>
+      <c r="C276" t="s">
+        <v>267</v>
+      </c>
+      <c r="D276" t="s">
+        <v>267</v>
+      </c>
+      <c r="E276" t="s">
+        <v>267</v>
       </c>
     </row>
   </sheetData>

--- a/Rawdata/tor.riptransekter helags sommar 2018.xlsx
+++ b/Rawdata/tor.riptransekter helags sommar 2018.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="940" yWindow="2420" windowWidth="25440" windowHeight="14140" xr2:uid="{6F562989-0C69-724E-8921-452EAD0C9874}"/>
+    <workbookView xWindow="860" yWindow="2440" windowWidth="25440" windowHeight="14140" xr2:uid="{6F562989-0C69-724E-8921-452EAD0C9874}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1147" uniqueCount="377">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1376" uniqueCount="365">
   <si>
     <t>lya</t>
   </si>
@@ -323,171 +323,54 @@
     <t>898 m</t>
   </si>
   <si>
-    <t>NYRIKT27</t>
-  </si>
-  <si>
-    <t>RS1171</t>
-  </si>
-  <si>
-    <t>RS2101</t>
-  </si>
-  <si>
-    <t>RS361</t>
-  </si>
-  <si>
     <t>1013 m</t>
   </si>
   <si>
-    <t>NYRIKT215</t>
-  </si>
-  <si>
     <t>1025 m</t>
   </si>
   <si>
-    <t>FJALLVRAK2</t>
-  </si>
-  <si>
     <t>1048 m</t>
   </si>
   <si>
-    <t>RS461</t>
-  </si>
-  <si>
     <t>1074 m</t>
   </si>
   <si>
-    <t>RS561</t>
-  </si>
-  <si>
     <t>1072 m</t>
   </si>
   <si>
-    <t>RS661</t>
-  </si>
-  <si>
     <t>1097 m</t>
   </si>
   <si>
-    <t>RS761</t>
-  </si>
-  <si>
     <t>1098 m</t>
   </si>
   <si>
-    <t>RS841</t>
-  </si>
-  <si>
-    <t>RS941</t>
-  </si>
-  <si>
-    <t>NYRIKT224</t>
-  </si>
-  <si>
     <t>1169 m</t>
   </si>
   <si>
-    <t>RS1041</t>
-  </si>
-  <si>
-    <t>RS1181</t>
-  </si>
-  <si>
     <t>1167 m</t>
   </si>
   <si>
-    <t>RS1241</t>
-  </si>
-  <si>
-    <t>NYRIKT232</t>
-  </si>
-  <si>
     <t>1139 m</t>
   </si>
   <si>
-    <t>RS1341</t>
-  </si>
-  <si>
-    <t>RS1431</t>
-  </si>
-  <si>
     <t>1137 m</t>
   </si>
   <si>
-    <t>RS1531</t>
-  </si>
-  <si>
     <t>1112 m</t>
   </si>
   <si>
-    <t>RS1621</t>
-  </si>
-  <si>
     <t>1060 m</t>
   </si>
   <si>
-    <t>RS1721</t>
-  </si>
-  <si>
-    <t>RS1821</t>
-  </si>
-  <si>
-    <t>RS1921</t>
-  </si>
-  <si>
     <t>978 m</t>
   </si>
   <si>
-    <t>RS2011</t>
-  </si>
-  <si>
-    <t>RS2121</t>
-  </si>
-  <si>
-    <t>RS2211</t>
-  </si>
-  <si>
-    <t>RS2311</t>
-  </si>
-  <si>
-    <t>RS241</t>
-  </si>
-  <si>
-    <t>RS251</t>
-  </si>
-  <si>
-    <t>RS261</t>
-  </si>
-  <si>
-    <t>RS271</t>
-  </si>
-  <si>
-    <t>RS281</t>
-  </si>
-  <si>
     <t>887 m</t>
   </si>
   <si>
-    <t>RS291</t>
-  </si>
-  <si>
-    <t>RS301</t>
-  </si>
-  <si>
-    <t>RS3111</t>
-  </si>
-  <si>
-    <t>RS321</t>
-  </si>
-  <si>
-    <t>RS331</t>
-  </si>
-  <si>
     <t>927 m</t>
   </si>
   <si>
-    <t>RS341</t>
-  </si>
-  <si>
     <t>930 m</t>
   </si>
   <si>
@@ -1155,6 +1038,87 @@
   </si>
   <si>
     <t>bruna, låg i vatten</t>
+  </si>
+  <si>
+    <t>zz014</t>
+  </si>
+  <si>
+    <t>växlande molnighet, vindstilla varmt, 17°C</t>
+  </si>
+  <si>
+    <t>ljus, spridda</t>
+  </si>
+  <si>
+    <t>mörka, låg i vatten, spridda</t>
+  </si>
+  <si>
+    <t>STARTZZ014</t>
+  </si>
+  <si>
+    <t>1071 m</t>
+  </si>
+  <si>
+    <t>ljus, två stora oformliga</t>
+  </si>
+  <si>
+    <t>RS22</t>
+  </si>
+  <si>
+    <t>RS23</t>
+  </si>
+  <si>
+    <t>RS24</t>
+  </si>
+  <si>
+    <t>RS25</t>
+  </si>
+  <si>
+    <t>RS26</t>
+  </si>
+  <si>
+    <t>ljusa, oformliga</t>
+  </si>
+  <si>
+    <t>RS27</t>
+  </si>
+  <si>
+    <t>889 m</t>
+  </si>
+  <si>
+    <t>RS28</t>
+  </si>
+  <si>
+    <t>ljusbrun, oformlig</t>
+  </si>
+  <si>
+    <t>RS29</t>
+  </si>
+  <si>
+    <t>RS30</t>
+  </si>
+  <si>
+    <t>ljusbruna, spridda över linjen</t>
+  </si>
+  <si>
+    <t>RS31</t>
+  </si>
+  <si>
+    <t>gråa/vita (färska)</t>
+  </si>
+  <si>
+    <t>RS32</t>
+  </si>
+  <si>
+    <t>RS33</t>
+  </si>
+  <si>
+    <t>RS34</t>
+  </si>
+  <si>
+    <t>bruna</t>
+  </si>
+  <si>
+    <t>duggregn</t>
   </si>
 </sst>
 </file>
@@ -1509,11 +1473,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7481D24-4BBD-9743-96A3-63B52605E732}">
-  <dimension ref="A1:O276"/>
+  <dimension ref="A1:O295"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A159" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H170" sqref="H170"/>
+      <pane ySplit="1" topLeftCell="A216" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A229" sqref="A229"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1548,7 +1512,7 @@
         <v>7</v>
       </c>
       <c r="I1" t="s">
-        <v>355</v>
+        <v>316</v>
       </c>
       <c r="J1" t="s">
         <v>8</v>
@@ -1571,33 +1535,33 @@
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>268</v>
+        <v>229</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>269</v>
+        <v>230</v>
       </c>
       <c r="C2" s="2">
         <v>6976680377753</v>
       </c>
       <c r="D2" t="s">
-        <v>270</v>
+        <v>231</v>
       </c>
       <c r="E2" s="1">
         <v>43271.520833333336</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>272</v>
+        <v>233</v>
       </c>
       <c r="N2" t="s">
-        <v>295</v>
+        <v>256</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>268</v>
+        <v>229</v>
       </c>
       <c r="B3" t="s">
-        <v>273</v>
+        <v>234</v>
       </c>
       <c r="C3" s="2">
         <v>6976296377160</v>
@@ -1609,7 +1573,7 @@
         <v>43271.53125</v>
       </c>
       <c r="F3" t="s">
-        <v>274</v>
+        <v>235</v>
       </c>
       <c r="G3">
         <v>2.42</v>
@@ -1624,18 +1588,18 @@
         <v>2</v>
       </c>
       <c r="M3" t="s">
-        <v>294</v>
+        <v>255</v>
       </c>
       <c r="N3" t="s">
-        <v>295</v>
+        <v>256</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>268</v>
+        <v>229</v>
       </c>
       <c r="B4" t="s">
-        <v>275</v>
+        <v>236</v>
       </c>
       <c r="C4" s="2">
         <v>6976013376681</v>
@@ -1647,7 +1611,7 @@
         <v>43271.539583333331</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>274</v>
+        <v>235</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -1662,18 +1626,18 @@
         <v>17</v>
       </c>
       <c r="M4" t="s">
-        <v>296</v>
+        <v>257</v>
       </c>
       <c r="N4" t="s">
-        <v>295</v>
+        <v>256</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>268</v>
+        <v>229</v>
       </c>
       <c r="B5" t="s">
-        <v>276</v>
+        <v>237</v>
       </c>
       <c r="C5" s="2">
         <v>6975623376165</v>
@@ -1685,7 +1649,7 @@
         <v>43271.549305555556</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>274</v>
+        <v>235</v>
       </c>
       <c r="G5">
         <v>0.89</v>
@@ -1700,18 +1664,18 @@
         <v>3</v>
       </c>
       <c r="M5" t="s">
-        <v>296</v>
+        <v>257</v>
       </c>
       <c r="N5" t="s">
-        <v>295</v>
+        <v>256</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>268</v>
+        <v>229</v>
       </c>
       <c r="B6" t="s">
-        <v>277</v>
+        <v>238</v>
       </c>
       <c r="C6" s="2">
         <v>6975398375851</v>
@@ -1723,7 +1687,7 @@
         <v>43271.554861111108</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>274</v>
+        <v>235</v>
       </c>
       <c r="G6">
         <v>2.5299999999999998</v>
@@ -1738,18 +1702,18 @@
         <v>21</v>
       </c>
       <c r="M6" t="s">
-        <v>297</v>
+        <v>258</v>
       </c>
       <c r="N6" t="s">
-        <v>295</v>
+        <v>256</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>268</v>
+        <v>229</v>
       </c>
       <c r="B7" t="s">
-        <v>278</v>
+        <v>239</v>
       </c>
       <c r="C7" s="2">
         <v>6975378375815</v>
@@ -1761,7 +1725,7 @@
         <v>43271.556944444441</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>274</v>
+        <v>235</v>
       </c>
       <c r="G7">
         <v>0.02</v>
@@ -1776,18 +1740,18 @@
         <v>32</v>
       </c>
       <c r="M7" t="s">
-        <v>298</v>
+        <v>259</v>
       </c>
       <c r="N7" t="s">
-        <v>295</v>
+        <v>256</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>268</v>
+        <v>229</v>
       </c>
       <c r="B8" t="s">
-        <v>279</v>
+        <v>240</v>
       </c>
       <c r="C8" s="2">
         <v>6975015375406</v>
@@ -1799,7 +1763,7 @@
         <v>43271.563888888886</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>274</v>
+        <v>235</v>
       </c>
       <c r="G8">
         <v>0.35</v>
@@ -1811,44 +1775,44 @@
         <v>2</v>
       </c>
       <c r="L8" t="s">
-        <v>299</v>
+        <v>260</v>
       </c>
       <c r="M8" t="s">
-        <v>300</v>
+        <v>261</v>
       </c>
       <c r="N8" t="s">
-        <v>295</v>
+        <v>256</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>268</v>
+        <v>229</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>280</v>
+        <v>241</v>
       </c>
       <c r="C9" s="2">
         <v>6974207374604</v>
       </c>
       <c r="D9" t="s">
-        <v>281</v>
+        <v>242</v>
       </c>
       <c r="E9" s="1">
         <v>43271.579861111109</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>271</v>
+        <v>232</v>
       </c>
       <c r="N9" t="s">
-        <v>295</v>
+        <v>256</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>268</v>
+        <v>229</v>
       </c>
       <c r="B10" t="s">
-        <v>282</v>
+        <v>243</v>
       </c>
       <c r="C10" s="2">
         <v>6977240373959</v>
@@ -1860,18 +1824,18 @@
         <v>43271.618055555555</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>283</v>
+        <v>244</v>
       </c>
       <c r="N10" t="s">
-        <v>295</v>
+        <v>256</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>268</v>
+        <v>229</v>
       </c>
       <c r="B11" t="s">
-        <v>284</v>
+        <v>245</v>
       </c>
       <c r="C11" s="2">
         <v>6977315373891</v>
@@ -1883,7 +1847,7 @@
         <v>43271.619444444441</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>274</v>
+        <v>235</v>
       </c>
       <c r="G11">
         <v>0.43</v>
@@ -1898,18 +1862,18 @@
         <v>1</v>
       </c>
       <c r="M11" t="s">
-        <v>301</v>
+        <v>262</v>
       </c>
       <c r="N11" t="s">
-        <v>295</v>
+        <v>256</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>268</v>
+        <v>229</v>
       </c>
       <c r="B12" t="s">
-        <v>282</v>
+        <v>243</v>
       </c>
       <c r="C12" s="2">
         <v>6977394373829</v>
@@ -1921,18 +1885,18 @@
         <v>43271.62222222222</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>283</v>
+        <v>244</v>
       </c>
       <c r="N12" t="s">
-        <v>295</v>
+        <v>256</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>268</v>
+        <v>229</v>
       </c>
       <c r="B13" t="s">
-        <v>285</v>
+        <v>246</v>
       </c>
       <c r="C13" s="2">
         <v>6977624373925</v>
@@ -1944,7 +1908,7 @@
         <v>43271.625694444447</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>274</v>
+        <v>235</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -1959,18 +1923,18 @@
         <v>2</v>
       </c>
       <c r="M13" t="s">
-        <v>302</v>
+        <v>263</v>
       </c>
       <c r="N13" t="s">
-        <v>295</v>
+        <v>256</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>268</v>
+        <v>229</v>
       </c>
       <c r="B14" t="s">
-        <v>282</v>
+        <v>243</v>
       </c>
       <c r="C14" s="2">
         <v>6977758373979</v>
@@ -1982,18 +1946,18 @@
         <v>43271.628472222219</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>283</v>
+        <v>244</v>
       </c>
       <c r="N14" t="s">
-        <v>295</v>
+        <v>256</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>268</v>
+        <v>229</v>
       </c>
       <c r="B15" t="s">
-        <v>286</v>
+        <v>247</v>
       </c>
       <c r="C15" s="2">
         <v>6977791373973</v>
@@ -2005,7 +1969,7 @@
         <v>43271.629861111112</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>274</v>
+        <v>235</v>
       </c>
       <c r="G15">
         <v>0.39</v>
@@ -2020,18 +1984,18 @@
         <v>27</v>
       </c>
       <c r="M15" t="s">
-        <v>303</v>
+        <v>264</v>
       </c>
       <c r="N15" t="s">
-        <v>295</v>
+        <v>256</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>268</v>
+        <v>229</v>
       </c>
       <c r="B16" t="s">
-        <v>287</v>
+        <v>248</v>
       </c>
       <c r="C16" s="2">
         <v>6977844373969</v>
@@ -2043,7 +2007,7 @@
         <v>43271.631944444445</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>274</v>
+        <v>235</v>
       </c>
       <c r="G16">
         <v>0</v>
@@ -2058,18 +2022,18 @@
         <v>1</v>
       </c>
       <c r="M16" t="s">
-        <v>304</v>
+        <v>265</v>
       </c>
       <c r="N16" t="s">
-        <v>295</v>
+        <v>256</v>
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>268</v>
+        <v>229</v>
       </c>
       <c r="B17" t="s">
-        <v>288</v>
+        <v>249</v>
       </c>
       <c r="C17" s="2">
         <v>6978044373945</v>
@@ -2081,7 +2045,7 @@
         <v>43271.634722222225</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>274</v>
+        <v>235</v>
       </c>
       <c r="G17">
         <v>0.1</v>
@@ -2096,41 +2060,41 @@
         <v>1</v>
       </c>
       <c r="M17" t="s">
-        <v>302</v>
+        <v>263</v>
       </c>
       <c r="N17" t="s">
-        <v>295</v>
+        <v>256</v>
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>268</v>
+        <v>229</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>289</v>
+        <v>250</v>
       </c>
       <c r="C18" s="2">
         <v>6978155373957</v>
       </c>
       <c r="D18" t="s">
-        <v>290</v>
+        <v>251</v>
       </c>
       <c r="E18" s="1">
         <v>43271.637499999997</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>271</v>
+        <v>232</v>
       </c>
       <c r="N18" t="s">
-        <v>295</v>
+        <v>256</v>
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>268</v>
+        <v>229</v>
       </c>
       <c r="B19" t="s">
-        <v>291</v>
+        <v>252</v>
       </c>
       <c r="C19" s="2">
         <v>6977403375505</v>
@@ -2142,7 +2106,7 @@
         <v>43271.656944444447</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>274</v>
+        <v>235</v>
       </c>
       <c r="G19">
         <v>0.59</v>
@@ -2154,21 +2118,21 @@
         <v>2</v>
       </c>
       <c r="L19" t="s">
-        <v>305</v>
+        <v>266</v>
       </c>
       <c r="M19" t="s">
-        <v>306</v>
+        <v>267</v>
       </c>
       <c r="N19" t="s">
-        <v>295</v>
+        <v>256</v>
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>268</v>
+        <v>229</v>
       </c>
       <c r="B20" t="s">
-        <v>292</v>
+        <v>253</v>
       </c>
       <c r="C20" s="2">
         <v>6977221375845</v>
@@ -2180,7 +2144,7 @@
         <v>43271.662499999999</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>274</v>
+        <v>235</v>
       </c>
       <c r="G20">
         <v>0</v>
@@ -2195,18 +2159,18 @@
         <v>28</v>
       </c>
       <c r="M20" t="s">
-        <v>307</v>
+        <v>268</v>
       </c>
       <c r="N20" t="s">
-        <v>295</v>
+        <v>256</v>
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>268</v>
+        <v>229</v>
       </c>
       <c r="B21" t="s">
-        <v>293</v>
+        <v>254</v>
       </c>
       <c r="C21" s="2">
         <v>6976904376798</v>
@@ -2218,7 +2182,7 @@
         <v>43271.713888888888</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>274</v>
+        <v>235</v>
       </c>
       <c r="G21">
         <v>0.62</v>
@@ -2233,41 +2197,41 @@
         <v>2</v>
       </c>
       <c r="M21" t="s">
-        <v>308</v>
+        <v>269</v>
       </c>
       <c r="N21" t="s">
-        <v>295</v>
+        <v>256</v>
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>268</v>
+        <v>229</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>269</v>
+        <v>230</v>
       </c>
       <c r="C22" s="2">
         <v>6976680377753</v>
       </c>
       <c r="D22" t="s">
-        <v>270</v>
+        <v>231</v>
       </c>
       <c r="E22" s="1">
         <v>43271.725694444445</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>357</v>
+        <v>318</v>
       </c>
       <c r="N22" t="s">
-        <v>295</v>
+        <v>256</v>
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>309</v>
+        <v>270</v>
       </c>
       <c r="B24" t="s">
-        <v>310</v>
+        <v>271</v>
       </c>
       <c r="C24" s="2">
         <v>6973557372594</v>
@@ -2279,18 +2243,18 @@
         <v>43272.509722222225</v>
       </c>
       <c r="F24" t="s">
-        <v>272</v>
+        <v>233</v>
       </c>
       <c r="N24" t="s">
-        <v>316</v>
+        <v>277</v>
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>309</v>
+        <v>270</v>
       </c>
       <c r="B25" t="s">
-        <v>273</v>
+        <v>234</v>
       </c>
       <c r="C25" s="2">
         <v>6972945370967</v>
@@ -2302,7 +2266,7 @@
         <v>43272.530555555553</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>274</v>
+        <v>235</v>
       </c>
       <c r="G25">
         <v>0.33</v>
@@ -2317,15 +2281,15 @@
         <v>2</v>
       </c>
       <c r="M25" t="s">
-        <v>308</v>
+        <v>269</v>
       </c>
       <c r="N25" t="s">
-        <v>316</v>
+        <v>277</v>
       </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>309</v>
+        <v>270</v>
       </c>
       <c r="B26" t="s">
         <v>30</v>
@@ -2340,7 +2304,7 @@
         <v>43272.53402777778</v>
       </c>
       <c r="F26" t="s">
-        <v>311</v>
+        <v>272</v>
       </c>
       <c r="G26">
         <v>8.5299999999999994</v>
@@ -2352,15 +2316,15 @@
         <v>1</v>
       </c>
       <c r="N26" t="s">
-        <v>316</v>
+        <v>277</v>
       </c>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>309</v>
+        <v>270</v>
       </c>
       <c r="B27" t="s">
-        <v>275</v>
+        <v>236</v>
       </c>
       <c r="C27" s="2">
         <v>6972775370330</v>
@@ -2372,7 +2336,7 @@
         <v>43272.539583333331</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>274</v>
+        <v>235</v>
       </c>
       <c r="G27">
         <v>0.05</v>
@@ -2387,41 +2351,41 @@
         <v>2</v>
       </c>
       <c r="M27" t="s">
-        <v>317</v>
+        <v>278</v>
       </c>
       <c r="N27" t="s">
-        <v>316</v>
+        <v>277</v>
       </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>309</v>
+        <v>270</v>
       </c>
       <c r="B28" t="s">
-        <v>269</v>
+        <v>230</v>
       </c>
       <c r="C28" s="2">
         <v>6972275368795</v>
       </c>
       <c r="D28" t="s">
-        <v>312</v>
+        <v>273</v>
       </c>
       <c r="E28" s="1">
         <v>43272.561111111114</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>271</v>
+        <v>232</v>
       </c>
       <c r="N28" t="s">
-        <v>316</v>
+        <v>277</v>
       </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>309</v>
+        <v>270</v>
       </c>
       <c r="B29" t="s">
-        <v>276</v>
+        <v>237</v>
       </c>
       <c r="C29" s="2">
         <v>6972145368891</v>
@@ -2433,7 +2397,7 @@
         <v>43272.564583333333</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>274</v>
+        <v>235</v>
       </c>
       <c r="G29">
         <v>0</v>
@@ -2448,18 +2412,18 @@
         <v>25</v>
       </c>
       <c r="M29" t="s">
-        <v>318</v>
+        <v>279</v>
       </c>
       <c r="N29" t="s">
-        <v>316</v>
+        <v>277</v>
       </c>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>309</v>
+        <v>270</v>
       </c>
       <c r="B30" t="s">
-        <v>277</v>
+        <v>238</v>
       </c>
       <c r="C30" s="2">
         <v>6971716369396</v>
@@ -2471,7 +2435,7 @@
         <v>43272.57708333333</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>274</v>
+        <v>235</v>
       </c>
       <c r="G30">
         <v>0.18</v>
@@ -2486,18 +2450,18 @@
         <v>9</v>
       </c>
       <c r="M30" t="s">
-        <v>298</v>
+        <v>259</v>
       </c>
       <c r="N30" t="s">
-        <v>316</v>
+        <v>277</v>
       </c>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>309</v>
+        <v>270</v>
       </c>
       <c r="B31" t="s">
-        <v>277</v>
+        <v>238</v>
       </c>
       <c r="C31" s="2">
         <v>6971716369396</v>
@@ -2509,7 +2473,7 @@
         <v>43272.57708333333</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>274</v>
+        <v>235</v>
       </c>
       <c r="G31">
         <v>0.36</v>
@@ -2524,18 +2488,18 @@
         <v>10</v>
       </c>
       <c r="M31" t="s">
-        <v>298</v>
+        <v>259</v>
       </c>
       <c r="N31" t="s">
-        <v>316</v>
+        <v>277</v>
       </c>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>309</v>
+        <v>270</v>
       </c>
       <c r="B32" t="s">
-        <v>278</v>
+        <v>239</v>
       </c>
       <c r="C32" s="2">
         <v>6971670369452</v>
@@ -2547,7 +2511,7 @@
         <v>43272.579861111109</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>274</v>
+        <v>235</v>
       </c>
       <c r="G32">
         <v>0.12</v>
@@ -2562,18 +2526,18 @@
         <v>28</v>
       </c>
       <c r="M32" t="s">
-        <v>298</v>
+        <v>259</v>
       </c>
       <c r="N32" t="s">
-        <v>316</v>
+        <v>277</v>
       </c>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>309</v>
+        <v>270</v>
       </c>
       <c r="B33" t="s">
-        <v>278</v>
+        <v>239</v>
       </c>
       <c r="C33" s="2">
         <v>6971670369452</v>
@@ -2585,7 +2549,7 @@
         <v>43272.579861111109</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>274</v>
+        <v>235</v>
       </c>
       <c r="G33">
         <v>0.03</v>
@@ -2600,15 +2564,15 @@
         <v>32</v>
       </c>
       <c r="M33" t="s">
-        <v>298</v>
+        <v>259</v>
       </c>
       <c r="N33" t="s">
-        <v>316</v>
+        <v>277</v>
       </c>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>309</v>
+        <v>270</v>
       </c>
       <c r="B34" t="s">
         <v>30</v>
@@ -2623,7 +2587,7 @@
         <v>43272.59097222222</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>311</v>
+        <v>272</v>
       </c>
       <c r="G34">
         <v>12</v>
@@ -2635,15 +2599,15 @@
         <v>1</v>
       </c>
       <c r="N34" t="s">
-        <v>316</v>
+        <v>277</v>
       </c>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>309</v>
+        <v>270</v>
       </c>
       <c r="B35" t="s">
-        <v>282</v>
+        <v>243</v>
       </c>
       <c r="C35" s="2">
         <v>6970950370375</v>
@@ -2655,18 +2619,18 @@
         <v>43272.599305555559</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>283</v>
+        <v>244</v>
       </c>
       <c r="N35" t="s">
-        <v>316</v>
+        <v>277</v>
       </c>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>309</v>
+        <v>270</v>
       </c>
       <c r="B36" t="s">
-        <v>313</v>
+        <v>274</v>
       </c>
       <c r="C36" s="2">
         <v>6971077370439</v>
@@ -2678,7 +2642,7 @@
         <v>43272.602777777778</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>314</v>
+        <v>275</v>
       </c>
       <c r="G36">
         <v>18.600000000000001</v>
@@ -2687,21 +2651,21 @@
         <v>348</v>
       </c>
       <c r="I36" t="s">
-        <v>315</v>
+        <v>276</v>
       </c>
       <c r="L36">
         <v>1</v>
       </c>
       <c r="N36" t="s">
-        <v>316</v>
+        <v>277</v>
       </c>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>309</v>
+        <v>270</v>
       </c>
       <c r="B37" t="s">
-        <v>282</v>
+        <v>243</v>
       </c>
       <c r="C37" s="2">
         <v>6971115370459</v>
@@ -2713,18 +2677,18 @@
         <v>43272.604861111111</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>283</v>
+        <v>244</v>
       </c>
       <c r="N37" t="s">
-        <v>316</v>
+        <v>277</v>
       </c>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>309</v>
+        <v>270</v>
       </c>
       <c r="B38" t="s">
-        <v>279</v>
+        <v>240</v>
       </c>
       <c r="C38" s="2">
         <v>6970732370812</v>
@@ -2736,7 +2700,7 @@
         <v>43272.611111111109</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>274</v>
+        <v>235</v>
       </c>
       <c r="G38">
         <v>7.0000000000000007E-2</v>
@@ -2751,18 +2715,18 @@
         <v>12</v>
       </c>
       <c r="M38" t="s">
-        <v>302</v>
+        <v>263</v>
       </c>
       <c r="N38" t="s">
-        <v>316</v>
+        <v>277</v>
       </c>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>309</v>
+        <v>270</v>
       </c>
       <c r="B39" t="s">
-        <v>284</v>
+        <v>245</v>
       </c>
       <c r="C39" s="2">
         <v>6970232371242</v>
@@ -2774,7 +2738,7 @@
         <v>43272.620138888888</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>274</v>
+        <v>235</v>
       </c>
       <c r="G39">
         <v>0.03</v>
@@ -2789,15 +2753,15 @@
         <v>1</v>
       </c>
       <c r="M39" t="s">
-        <v>301</v>
+        <v>262</v>
       </c>
       <c r="N39" t="s">
-        <v>316</v>
+        <v>277</v>
       </c>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>309</v>
+        <v>270</v>
       </c>
       <c r="B40" t="s">
         <v>30</v>
@@ -2812,7 +2776,7 @@
         <v>43272.62222222222</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>311</v>
+        <v>272</v>
       </c>
       <c r="G40">
         <v>89</v>
@@ -2824,15 +2788,15 @@
         <v>2</v>
       </c>
       <c r="N40" t="s">
-        <v>316</v>
+        <v>277</v>
       </c>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>309</v>
+        <v>270</v>
       </c>
       <c r="B41" t="s">
-        <v>280</v>
+        <v>241</v>
       </c>
       <c r="C41" s="2">
         <v>6969791371950</v>
@@ -2844,18 +2808,18 @@
         <v>43272.637499999997</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>271</v>
+        <v>232</v>
       </c>
       <c r="N41" t="s">
-        <v>316</v>
+        <v>277</v>
       </c>
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>309</v>
+        <v>270</v>
       </c>
       <c r="B42" t="s">
-        <v>285</v>
+        <v>246</v>
       </c>
       <c r="C42" s="2">
         <v>6970457371894</v>
@@ -2867,7 +2831,7 @@
         <v>43272.645833333336</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>274</v>
+        <v>235</v>
       </c>
       <c r="G42">
         <v>0</v>
@@ -2882,18 +2846,18 @@
         <v>16</v>
       </c>
       <c r="M42" t="s">
-        <v>319</v>
+        <v>280</v>
       </c>
       <c r="N42" t="s">
-        <v>316</v>
+        <v>277</v>
       </c>
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>309</v>
+        <v>270</v>
       </c>
       <c r="B43" t="s">
-        <v>286</v>
+        <v>247</v>
       </c>
       <c r="C43" s="2">
         <v>6970401372178</v>
@@ -2905,7 +2869,7 @@
         <v>43272.647916666669</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>274</v>
+        <v>235</v>
       </c>
       <c r="G43">
         <v>0.48</v>
@@ -2920,18 +2884,18 @@
         <v>3</v>
       </c>
       <c r="M43" t="s">
-        <v>302</v>
+        <v>263</v>
       </c>
       <c r="N43" t="s">
-        <v>316</v>
+        <v>277</v>
       </c>
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>309</v>
+        <v>270</v>
       </c>
       <c r="B44" t="s">
-        <v>286</v>
+        <v>247</v>
       </c>
       <c r="C44" s="2">
         <v>6970401372178</v>
@@ -2943,7 +2907,7 @@
         <v>43272.647916666669</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>274</v>
+        <v>235</v>
       </c>
       <c r="G44">
         <v>1.0900000000000001</v>
@@ -2955,18 +2919,18 @@
         <v>1</v>
       </c>
       <c r="M44" t="s">
-        <v>302</v>
+        <v>263</v>
       </c>
       <c r="N44" t="s">
-        <v>316</v>
+        <v>277</v>
       </c>
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>309</v>
+        <v>270</v>
       </c>
       <c r="B45" t="s">
-        <v>287</v>
+        <v>248</v>
       </c>
       <c r="C45" s="2">
         <v>6972049372362</v>
@@ -2978,7 +2942,7 @@
         <v>43272.762499999997</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>274</v>
+        <v>235</v>
       </c>
       <c r="G45">
         <v>0.39</v>
@@ -2993,18 +2957,18 @@
         <v>16</v>
       </c>
       <c r="M45" t="s">
-        <v>320</v>
+        <v>281</v>
       </c>
       <c r="N45" t="s">
-        <v>316</v>
+        <v>277</v>
       </c>
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>309</v>
+        <v>270</v>
       </c>
       <c r="B46" t="s">
-        <v>288</v>
+        <v>249</v>
       </c>
       <c r="C46" s="2">
         <v>6972064372366</v>
@@ -3016,7 +2980,7 @@
         <v>43272.763888888891</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>274</v>
+        <v>235</v>
       </c>
       <c r="G46">
         <v>0.08</v>
@@ -3031,18 +2995,18 @@
         <v>17</v>
       </c>
       <c r="M46" t="s">
-        <v>320</v>
+        <v>281</v>
       </c>
       <c r="N46" t="s">
-        <v>316</v>
+        <v>277</v>
       </c>
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>309</v>
+        <v>270</v>
       </c>
       <c r="B47" t="s">
-        <v>288</v>
+        <v>249</v>
       </c>
       <c r="C47" s="2">
         <v>6972064372366</v>
@@ -3054,7 +3018,7 @@
         <v>43272.763888888891</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>274</v>
+        <v>235</v>
       </c>
       <c r="G47">
         <v>0.34</v>
@@ -3069,18 +3033,18 @@
         <v>14</v>
       </c>
       <c r="M47" t="s">
-        <v>320</v>
+        <v>281</v>
       </c>
       <c r="N47" t="s">
-        <v>316</v>
+        <v>277</v>
       </c>
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>309</v>
+        <v>270</v>
       </c>
       <c r="B48" t="s">
-        <v>291</v>
+        <v>252</v>
       </c>
       <c r="C48" s="2">
         <v>6972536372393</v>
@@ -3092,7 +3056,7 @@
         <v>43272.770138888889</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>274</v>
+        <v>235</v>
       </c>
       <c r="G48">
         <v>0</v>
@@ -3107,18 +3071,18 @@
         <v>5</v>
       </c>
       <c r="M48" t="s">
-        <v>320</v>
+        <v>281</v>
       </c>
       <c r="N48" t="s">
-        <v>316</v>
+        <v>277</v>
       </c>
     </row>
     <row r="49" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>309</v>
+        <v>270</v>
       </c>
       <c r="B49" t="s">
-        <v>292</v>
+        <v>253</v>
       </c>
       <c r="C49" s="2">
         <v>6972698372400</v>
@@ -3130,7 +3094,7 @@
         <v>43272.772916666669</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>274</v>
+        <v>235</v>
       </c>
       <c r="G49">
         <v>0.16</v>
@@ -3145,18 +3109,18 @@
         <v>22</v>
       </c>
       <c r="M49" t="s">
-        <v>320</v>
+        <v>281</v>
       </c>
       <c r="N49" t="s">
-        <v>316</v>
+        <v>277</v>
       </c>
     </row>
     <row r="50" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>309</v>
+        <v>270</v>
       </c>
       <c r="B50" t="s">
-        <v>292</v>
+        <v>253</v>
       </c>
       <c r="C50" s="2">
         <v>6972698372400</v>
@@ -3168,7 +3132,7 @@
         <v>43272.772916666669</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>274</v>
+        <v>235</v>
       </c>
       <c r="G50">
         <v>0.31</v>
@@ -3183,18 +3147,18 @@
         <v>18</v>
       </c>
       <c r="M50" t="s">
-        <v>320</v>
+        <v>281</v>
       </c>
       <c r="N50" t="s">
-        <v>316</v>
+        <v>277</v>
       </c>
     </row>
     <row r="51" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>309</v>
+        <v>270</v>
       </c>
       <c r="B51" t="s">
-        <v>310</v>
+        <v>271</v>
       </c>
       <c r="C51" s="2">
         <v>6973557372594</v>
@@ -3206,18 +3170,18 @@
         <v>43272.78402777778</v>
       </c>
       <c r="F51" t="s">
-        <v>357</v>
+        <v>318</v>
       </c>
       <c r="N51" t="s">
-        <v>316</v>
+        <v>277</v>
       </c>
     </row>
     <row r="53" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>321</v>
+        <v>282</v>
       </c>
       <c r="B53" t="s">
-        <v>322</v>
+        <v>283</v>
       </c>
       <c r="C53" s="2">
         <v>6979244373084</v>
@@ -3229,18 +3193,18 @@
         <v>43275.466666666667</v>
       </c>
       <c r="F53" t="s">
-        <v>272</v>
+        <v>233</v>
       </c>
       <c r="N53" t="s">
-        <v>324</v>
+        <v>285</v>
       </c>
     </row>
     <row r="54" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>321</v>
+        <v>282</v>
       </c>
       <c r="B54" t="s">
-        <v>273</v>
+        <v>234</v>
       </c>
       <c r="C54" s="2">
         <v>6979259374093</v>
@@ -3252,7 +3216,7 @@
         <v>43275.482638888891</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>274</v>
+        <v>235</v>
       </c>
       <c r="G54">
         <v>0.47</v>
@@ -3267,18 +3231,18 @@
         <v>38</v>
       </c>
       <c r="M54" t="s">
-        <v>323</v>
+        <v>284</v>
       </c>
       <c r="N54" t="s">
-        <v>324</v>
+        <v>285</v>
       </c>
     </row>
     <row r="55" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>321</v>
+        <v>282</v>
       </c>
       <c r="B55" t="s">
-        <v>275</v>
+        <v>236</v>
       </c>
       <c r="C55" s="2">
         <v>6979294374207</v>
@@ -3290,7 +3254,7 @@
         <v>43275.486111111109</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>274</v>
+        <v>235</v>
       </c>
       <c r="G55">
         <v>0.09</v>
@@ -3305,18 +3269,18 @@
         <v>2</v>
       </c>
       <c r="M55" t="s">
-        <v>323</v>
+        <v>284</v>
       </c>
       <c r="N55" t="s">
-        <v>324</v>
+        <v>285</v>
       </c>
     </row>
     <row r="56" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>321</v>
+        <v>282</v>
       </c>
       <c r="B56" t="s">
-        <v>276</v>
+        <v>237</v>
       </c>
       <c r="C56" s="2">
         <v>6979349374543</v>
@@ -3328,7 +3292,7 @@
         <v>43275.490972222222</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>274</v>
+        <v>235</v>
       </c>
       <c r="G56">
         <v>1.1200000000000001</v>
@@ -3343,18 +3307,18 @@
         <v>10</v>
       </c>
       <c r="M56" t="s">
-        <v>302</v>
+        <v>263</v>
       </c>
       <c r="N56" t="s">
-        <v>324</v>
+        <v>285</v>
       </c>
     </row>
     <row r="57" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>321</v>
+        <v>282</v>
       </c>
       <c r="B57" t="s">
-        <v>277</v>
+        <v>238</v>
       </c>
       <c r="C57" s="2">
         <v>6979393375428</v>
@@ -3366,7 +3330,7 @@
         <v>43275.503472222219</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>274</v>
+        <v>235</v>
       </c>
       <c r="G57">
         <v>1.22</v>
@@ -3381,18 +3345,18 @@
         <v>5</v>
       </c>
       <c r="M57" t="s">
-        <v>302</v>
+        <v>263</v>
       </c>
       <c r="N57" t="s">
-        <v>324</v>
+        <v>285</v>
       </c>
     </row>
     <row r="58" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>321</v>
+        <v>282</v>
       </c>
       <c r="B58" t="s">
-        <v>277</v>
+        <v>238</v>
       </c>
       <c r="C58" s="2">
         <v>6979393375428</v>
@@ -3404,7 +3368,7 @@
         <v>43275.503472222219</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>274</v>
+        <v>235</v>
       </c>
       <c r="G58">
         <v>1.27</v>
@@ -3419,18 +3383,18 @@
         <v>10</v>
       </c>
       <c r="M58" t="s">
-        <v>302</v>
+        <v>263</v>
       </c>
       <c r="N58" t="s">
-        <v>324</v>
+        <v>285</v>
       </c>
     </row>
     <row r="59" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>321</v>
+        <v>282</v>
       </c>
       <c r="B59" t="s">
-        <v>278</v>
+        <v>239</v>
       </c>
       <c r="C59" s="2">
         <v>6979402375452</v>
@@ -3442,7 +3406,7 @@
         <v>43275.505555555559</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>274</v>
+        <v>235</v>
       </c>
       <c r="G59">
         <v>0.11</v>
@@ -3457,18 +3421,18 @@
         <v>3</v>
       </c>
       <c r="M59" t="s">
-        <v>325</v>
+        <v>286</v>
       </c>
       <c r="N59" t="s">
-        <v>324</v>
+        <v>285</v>
       </c>
     </row>
     <row r="60" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>321</v>
+        <v>282</v>
       </c>
       <c r="B60" t="s">
-        <v>279</v>
+        <v>240</v>
       </c>
       <c r="C60" s="2">
         <v>6979403375458</v>
@@ -3480,7 +3444,7 @@
         <v>43275.506249999999</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>274</v>
+        <v>235</v>
       </c>
       <c r="G60">
         <v>0.16</v>
@@ -3495,18 +3459,18 @@
         <v>4</v>
       </c>
       <c r="M60" t="s">
-        <v>323</v>
+        <v>284</v>
       </c>
       <c r="N60" t="s">
-        <v>324</v>
+        <v>285</v>
       </c>
     </row>
     <row r="61" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>321</v>
+        <v>282</v>
       </c>
       <c r="B61" t="s">
-        <v>284</v>
+        <v>245</v>
       </c>
       <c r="C61" s="2">
         <v>6979447375644</v>
@@ -3518,7 +3482,7 @@
         <v>43275.509027777778</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>274</v>
+        <v>235</v>
       </c>
       <c r="G61">
         <v>7.0000000000000007E-2</v>
@@ -3533,18 +3497,18 @@
         <v>2</v>
       </c>
       <c r="M61" t="s">
-        <v>323</v>
+        <v>284</v>
       </c>
       <c r="N61" t="s">
-        <v>324</v>
+        <v>285</v>
       </c>
     </row>
     <row r="62" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>321</v>
+        <v>282</v>
       </c>
       <c r="B62" t="s">
-        <v>285</v>
+        <v>246</v>
       </c>
       <c r="C62" s="2">
         <v>6979449375655</v>
@@ -3556,7 +3520,7 @@
         <v>43275.510416666664</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>274</v>
+        <v>235</v>
       </c>
       <c r="G62">
         <v>0.34</v>
@@ -3571,18 +3535,18 @@
         <v>6</v>
       </c>
       <c r="M62" t="s">
-        <v>302</v>
+        <v>263</v>
       </c>
       <c r="N62" t="s">
-        <v>324</v>
+        <v>285</v>
       </c>
     </row>
     <row r="63" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>321</v>
+        <v>282</v>
       </c>
       <c r="B63" t="s">
-        <v>285</v>
+        <v>246</v>
       </c>
       <c r="C63" s="2">
         <v>6979449375655</v>
@@ -3594,7 +3558,7 @@
         <v>43275.510416666664</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>274</v>
+        <v>235</v>
       </c>
       <c r="G63">
         <v>0.49</v>
@@ -3609,18 +3573,18 @@
         <v>10</v>
       </c>
       <c r="M63" t="s">
-        <v>302</v>
+        <v>263</v>
       </c>
       <c r="N63" t="s">
-        <v>324</v>
+        <v>285</v>
       </c>
     </row>
     <row r="64" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>321</v>
+        <v>282</v>
       </c>
       <c r="B64" t="s">
-        <v>286</v>
+        <v>247</v>
       </c>
       <c r="C64" s="2">
         <v>6979453375702</v>
@@ -3632,7 +3596,7 @@
         <v>43275.511805555558</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>274</v>
+        <v>235</v>
       </c>
       <c r="G64">
         <v>0.96</v>
@@ -3647,18 +3611,18 @@
         <v>16</v>
       </c>
       <c r="M64" t="s">
-        <v>302</v>
+        <v>263</v>
       </c>
       <c r="N64" t="s">
-        <v>324</v>
+        <v>285</v>
       </c>
     </row>
     <row r="65" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>321</v>
+        <v>282</v>
       </c>
       <c r="B65" t="s">
-        <v>286</v>
+        <v>247</v>
       </c>
       <c r="C65" s="2">
         <v>6979453375702</v>
@@ -3670,7 +3634,7 @@
         <v>43275.511805555558</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>274</v>
+        <v>235</v>
       </c>
       <c r="G65">
         <v>1.76</v>
@@ -3685,18 +3649,18 @@
         <v>1</v>
       </c>
       <c r="M65" t="s">
-        <v>302</v>
+        <v>263</v>
       </c>
       <c r="N65" t="s">
-        <v>324</v>
+        <v>285</v>
       </c>
     </row>
     <row r="66" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>321</v>
+        <v>282</v>
       </c>
       <c r="B66" t="s">
-        <v>287</v>
+        <v>248</v>
       </c>
       <c r="C66" s="2">
         <v>6979461376376</v>
@@ -3708,7 +3672,7 @@
         <v>43275.520138888889</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>274</v>
+        <v>235</v>
       </c>
       <c r="G66">
         <v>0.28999999999999998</v>
@@ -3723,18 +3687,18 @@
         <v>13</v>
       </c>
       <c r="M66" t="s">
-        <v>325</v>
+        <v>286</v>
       </c>
       <c r="N66" t="s">
-        <v>324</v>
+        <v>285</v>
       </c>
     </row>
     <row r="67" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>321</v>
+        <v>282</v>
       </c>
       <c r="B67" t="s">
-        <v>326</v>
+        <v>287</v>
       </c>
       <c r="C67" s="2">
         <v>6979540377111</v>
@@ -3746,18 +3710,18 @@
         <v>43275.53125</v>
       </c>
       <c r="F67" t="s">
-        <v>271</v>
+        <v>232</v>
       </c>
       <c r="N67" t="s">
-        <v>324</v>
+        <v>285</v>
       </c>
     </row>
     <row r="68" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>321</v>
+        <v>282</v>
       </c>
       <c r="B68" t="s">
-        <v>288</v>
+        <v>249</v>
       </c>
       <c r="C68" s="2">
         <v>6979810376940</v>
@@ -3769,7 +3733,7 @@
         <v>43275.574305555558</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>274</v>
+        <v>235</v>
       </c>
       <c r="G68">
         <v>0.27</v>
@@ -3784,18 +3748,18 @@
         <v>22</v>
       </c>
       <c r="M68" t="s">
-        <v>325</v>
+        <v>286</v>
       </c>
       <c r="N68" t="s">
-        <v>324</v>
+        <v>285</v>
       </c>
     </row>
     <row r="69" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>321</v>
+        <v>282</v>
       </c>
       <c r="B69" t="s">
-        <v>291</v>
+        <v>252</v>
       </c>
       <c r="C69" s="2">
         <v>6979827376931</v>
@@ -3807,7 +3771,7 @@
         <v>43275.577777777777</v>
       </c>
       <c r="F69" s="1" t="s">
-        <v>274</v>
+        <v>235</v>
       </c>
       <c r="G69">
         <v>0.03</v>
@@ -3822,18 +3786,18 @@
         <v>10</v>
       </c>
       <c r="M69" t="s">
-        <v>323</v>
+        <v>284</v>
       </c>
       <c r="N69" t="s">
-        <v>324</v>
+        <v>285</v>
       </c>
     </row>
     <row r="70" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>321</v>
+        <v>282</v>
       </c>
       <c r="B70" t="s">
-        <v>282</v>
+        <v>243</v>
       </c>
       <c r="C70" s="2">
         <v>6980190376690</v>
@@ -3845,18 +3809,18 @@
         <v>43275.584722222222</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>283</v>
+        <v>244</v>
       </c>
       <c r="N70" t="s">
-        <v>324</v>
+        <v>285</v>
       </c>
     </row>
     <row r="71" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>321</v>
+        <v>282</v>
       </c>
       <c r="B71" t="s">
-        <v>282</v>
+        <v>243</v>
       </c>
       <c r="C71" s="2">
         <v>6980386376751</v>
@@ -3868,18 +3832,18 @@
         <v>43275.587500000001</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>283</v>
+        <v>244</v>
       </c>
       <c r="N71" t="s">
-        <v>324</v>
+        <v>285</v>
       </c>
     </row>
     <row r="72" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>321</v>
+        <v>282</v>
       </c>
       <c r="B72" t="s">
-        <v>292</v>
+        <v>253</v>
       </c>
       <c r="C72" s="2">
         <v>6980495376677</v>
@@ -3891,7 +3855,7 @@
         <v>43275.591666666667</v>
       </c>
       <c r="F72" s="1" t="s">
-        <v>274</v>
+        <v>235</v>
       </c>
       <c r="G72">
         <v>0.06</v>
@@ -3906,18 +3870,18 @@
         <v>26</v>
       </c>
       <c r="M72" t="s">
-        <v>302</v>
+        <v>263</v>
       </c>
       <c r="N72" t="s">
-        <v>324</v>
+        <v>285</v>
       </c>
     </row>
     <row r="73" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>321</v>
+        <v>282</v>
       </c>
       <c r="B73" t="s">
-        <v>293</v>
+        <v>254</v>
       </c>
       <c r="C73" s="2">
         <v>6981379376002</v>
@@ -3929,7 +3893,7 @@
         <v>43275.605555555558</v>
       </c>
       <c r="F73" s="1" t="s">
-        <v>274</v>
+        <v>235</v>
       </c>
       <c r="G73">
         <v>0.04</v>
@@ -3944,18 +3908,18 @@
         <v>11</v>
       </c>
       <c r="M73" t="s">
-        <v>327</v>
+        <v>288</v>
       </c>
       <c r="N73" t="s">
-        <v>324</v>
+        <v>285</v>
       </c>
     </row>
     <row r="74" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>321</v>
+        <v>282</v>
       </c>
       <c r="B74" t="s">
-        <v>328</v>
+        <v>289</v>
       </c>
       <c r="C74" s="2">
         <v>6981405375984</v>
@@ -3967,7 +3931,7 @@
         <v>43275.609722222223</v>
       </c>
       <c r="F74" s="1" t="s">
-        <v>274</v>
+        <v>235</v>
       </c>
       <c r="G74">
         <v>0</v>
@@ -3979,21 +3943,21 @@
         <v>2</v>
       </c>
       <c r="L74" t="s">
-        <v>329</v>
+        <v>290</v>
       </c>
       <c r="M74" t="s">
-        <v>330</v>
+        <v>291</v>
       </c>
       <c r="N74" t="s">
-        <v>324</v>
+        <v>285</v>
       </c>
     </row>
     <row r="75" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>321</v>
+        <v>282</v>
       </c>
       <c r="B75" t="s">
-        <v>331</v>
+        <v>292</v>
       </c>
       <c r="C75" s="2">
         <v>6981405375983</v>
@@ -4005,7 +3969,7 @@
         <v>43275.61041666667</v>
       </c>
       <c r="F75" s="1" t="s">
-        <v>274</v>
+        <v>235</v>
       </c>
       <c r="G75">
         <v>0.13</v>
@@ -4020,18 +3984,18 @@
         <v>19</v>
       </c>
       <c r="M75" t="s">
-        <v>325</v>
+        <v>286</v>
       </c>
       <c r="N75" t="s">
-        <v>324</v>
+        <v>285</v>
       </c>
     </row>
     <row r="76" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>321</v>
+        <v>282</v>
       </c>
       <c r="B76" t="s">
-        <v>331</v>
+        <v>292</v>
       </c>
       <c r="C76" s="2">
         <v>6981405375983</v>
@@ -4043,7 +4007,7 @@
         <v>43275.61041666667</v>
       </c>
       <c r="F76" s="1" t="s">
-        <v>274</v>
+        <v>235</v>
       </c>
       <c r="G76">
         <v>0.98</v>
@@ -4058,18 +4022,18 @@
         <v>20</v>
       </c>
       <c r="M76" t="s">
-        <v>325</v>
+        <v>286</v>
       </c>
       <c r="N76" t="s">
-        <v>324</v>
+        <v>285</v>
       </c>
     </row>
     <row r="77" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>321</v>
+        <v>282</v>
       </c>
       <c r="B77" t="s">
-        <v>313</v>
+        <v>274</v>
       </c>
       <c r="C77" s="2">
         <v>6982053375446</v>
@@ -4081,7 +4045,7 @@
         <v>43275.62777777778</v>
       </c>
       <c r="F77" s="1" t="s">
-        <v>314</v>
+        <v>275</v>
       </c>
       <c r="G77">
         <v>16.2</v>
@@ -4090,21 +4054,21 @@
         <v>352</v>
       </c>
       <c r="I77" t="s">
-        <v>315</v>
+        <v>276</v>
       </c>
       <c r="L77">
         <v>1</v>
       </c>
       <c r="N77" t="s">
-        <v>324</v>
+        <v>285</v>
       </c>
     </row>
     <row r="78" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>321</v>
+        <v>282</v>
       </c>
       <c r="B78" t="s">
-        <v>332</v>
+        <v>293</v>
       </c>
       <c r="C78" s="2">
         <v>6982141375389</v>
@@ -4116,7 +4080,7 @@
         <v>43275.633333333331</v>
       </c>
       <c r="F78" s="1" t="s">
-        <v>274</v>
+        <v>235</v>
       </c>
       <c r="G78">
         <v>0.14000000000000001</v>
@@ -4131,18 +4095,18 @@
         <v>3</v>
       </c>
       <c r="M78" t="s">
-        <v>323</v>
+        <v>284</v>
       </c>
       <c r="N78" t="s">
-        <v>324</v>
+        <v>285</v>
       </c>
     </row>
     <row r="79" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>321</v>
+        <v>282</v>
       </c>
       <c r="B79" t="s">
-        <v>333</v>
+        <v>294</v>
       </c>
       <c r="C79" s="2">
         <v>6982655375095</v>
@@ -4154,7 +4118,7 @@
         <v>43275.652083333334</v>
       </c>
       <c r="F79" s="1" t="s">
-        <v>314</v>
+        <v>275</v>
       </c>
       <c r="G79">
         <v>11.9</v>
@@ -4163,21 +4127,21 @@
         <v>316</v>
       </c>
       <c r="I79" t="s">
-        <v>315</v>
+        <v>276</v>
       </c>
       <c r="L79">
         <v>1</v>
       </c>
       <c r="N79" t="s">
-        <v>324</v>
+        <v>285</v>
       </c>
     </row>
     <row r="80" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>321</v>
+        <v>282</v>
       </c>
       <c r="B80" t="s">
-        <v>334</v>
+        <v>295</v>
       </c>
       <c r="C80" s="2">
         <v>6982782375018</v>
@@ -4189,7 +4153,7 @@
         <v>43275.654861111114</v>
       </c>
       <c r="F80" s="1" t="s">
-        <v>274</v>
+        <v>235</v>
       </c>
       <c r="G80">
         <v>1.41</v>
@@ -4204,18 +4168,18 @@
         <v>42</v>
       </c>
       <c r="M80" t="s">
-        <v>323</v>
+        <v>284</v>
       </c>
       <c r="N80" t="s">
-        <v>324</v>
+        <v>285</v>
       </c>
     </row>
     <row r="81" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>321</v>
+        <v>282</v>
       </c>
       <c r="B81" t="s">
-        <v>335</v>
+        <v>296</v>
       </c>
       <c r="C81" s="2">
         <v>6982934374992</v>
@@ -4227,7 +4191,7 @@
         <v>43275.660416666666</v>
       </c>
       <c r="F81" s="1" t="s">
-        <v>314</v>
+        <v>275</v>
       </c>
       <c r="G81">
         <v>36.200000000000003</v>
@@ -4236,21 +4200,21 @@
         <v>282</v>
       </c>
       <c r="I81" t="s">
-        <v>315</v>
+        <v>276</v>
       </c>
       <c r="L81">
         <v>2</v>
       </c>
       <c r="N81" t="s">
-        <v>324</v>
+        <v>285</v>
       </c>
     </row>
     <row r="82" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>321</v>
+        <v>282</v>
       </c>
       <c r="B82" t="s">
-        <v>335</v>
+        <v>296</v>
       </c>
       <c r="C82" s="2">
         <v>6982934374992</v>
@@ -4262,7 +4226,7 @@
         <v>43275.660416666666</v>
       </c>
       <c r="F82" s="1" t="s">
-        <v>274</v>
+        <v>235</v>
       </c>
       <c r="G82">
         <v>1.78</v>
@@ -4277,53 +4241,53 @@
         <v>5</v>
       </c>
       <c r="M82" t="s">
-        <v>336</v>
+        <v>297</v>
       </c>
       <c r="N82" t="s">
-        <v>324</v>
+        <v>285</v>
       </c>
     </row>
     <row r="83" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>321</v>
+        <v>282</v>
       </c>
       <c r="B83" t="s">
-        <v>337</v>
+        <v>298</v>
       </c>
       <c r="C83" s="2">
         <v>6983066374961</v>
       </c>
       <c r="D83" t="s">
-        <v>338</v>
+        <v>299</v>
       </c>
       <c r="E83" s="1">
         <v>43275.665972222225</v>
       </c>
       <c r="F83" t="s">
-        <v>271</v>
+        <v>232</v>
       </c>
       <c r="N83" t="s">
-        <v>324</v>
+        <v>285</v>
       </c>
     </row>
     <row r="84" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>321</v>
+        <v>282</v>
       </c>
       <c r="B84" t="s">
-        <v>337</v>
+        <v>298</v>
       </c>
       <c r="C84" s="2">
         <v>6983066374961</v>
       </c>
       <c r="D84" t="s">
-        <v>338</v>
+        <v>299</v>
       </c>
       <c r="E84" s="1">
         <v>43275.665972222225</v>
       </c>
       <c r="F84" t="s">
-        <v>274</v>
+        <v>235</v>
       </c>
       <c r="G84">
         <v>0.22</v>
@@ -4338,18 +4302,18 @@
         <v>2</v>
       </c>
       <c r="M84" t="s">
-        <v>339</v>
+        <v>300</v>
       </c>
       <c r="N84" t="s">
-        <v>324</v>
+        <v>285</v>
       </c>
     </row>
     <row r="85" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>321</v>
+        <v>282</v>
       </c>
       <c r="B85" t="s">
-        <v>340</v>
+        <v>301</v>
       </c>
       <c r="C85" s="2">
         <v>6982882374576</v>
@@ -4361,7 +4325,7 @@
         <v>43275.67291666667</v>
       </c>
       <c r="F85" s="1" t="s">
-        <v>274</v>
+        <v>235</v>
       </c>
       <c r="G85">
         <v>0.27</v>
@@ -4376,18 +4340,18 @@
         <v>17</v>
       </c>
       <c r="M85" t="s">
-        <v>339</v>
+        <v>300</v>
       </c>
       <c r="N85" t="s">
-        <v>324</v>
+        <v>285</v>
       </c>
     </row>
     <row r="86" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>321</v>
+        <v>282</v>
       </c>
       <c r="B86" t="s">
-        <v>282</v>
+        <v>243</v>
       </c>
       <c r="C86" s="2">
         <v>6982854374500</v>
@@ -4399,18 +4363,18 @@
         <v>43275.675694444442</v>
       </c>
       <c r="F86" s="1" t="s">
-        <v>283</v>
+        <v>244</v>
       </c>
       <c r="N86" t="s">
-        <v>324</v>
+        <v>285</v>
       </c>
     </row>
     <row r="87" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>321</v>
+        <v>282</v>
       </c>
       <c r="B87" t="s">
-        <v>341</v>
+        <v>302</v>
       </c>
       <c r="C87" s="2">
         <v>6981881373834</v>
@@ -4422,7 +4386,7 @@
         <v>43275.695833333331</v>
       </c>
       <c r="F87" s="1" t="s">
-        <v>274</v>
+        <v>235</v>
       </c>
       <c r="G87">
         <v>0.04</v>
@@ -4437,18 +4401,18 @@
         <v>1</v>
       </c>
       <c r="M87" t="s">
-        <v>323</v>
+        <v>284</v>
       </c>
       <c r="N87" t="s">
-        <v>324</v>
+        <v>285</v>
       </c>
     </row>
     <row r="88" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>321</v>
+        <v>282</v>
       </c>
       <c r="B88" t="s">
-        <v>341</v>
+        <v>302</v>
       </c>
       <c r="C88" s="2">
         <v>6981881373834</v>
@@ -4460,7 +4424,7 @@
         <v>43275.695833333331</v>
       </c>
       <c r="F88" s="1" t="s">
-        <v>274</v>
+        <v>235</v>
       </c>
       <c r="G88">
         <v>0.84</v>
@@ -4475,18 +4439,18 @@
         <v>32</v>
       </c>
       <c r="M88" t="s">
-        <v>320</v>
+        <v>281</v>
       </c>
       <c r="N88" t="s">
-        <v>324</v>
+        <v>285</v>
       </c>
     </row>
     <row r="89" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>321</v>
+        <v>282</v>
       </c>
       <c r="B89" t="s">
-        <v>282</v>
+        <v>243</v>
       </c>
       <c r="C89" s="2">
         <v>6981316373475</v>
@@ -4498,18 +4462,18 @@
         <v>43275.705555555556</v>
       </c>
       <c r="F89" s="1" t="s">
-        <v>283</v>
+        <v>244</v>
       </c>
       <c r="N89" t="s">
-        <v>324</v>
+        <v>285</v>
       </c>
     </row>
     <row r="90" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>321</v>
+        <v>282</v>
       </c>
       <c r="B90" t="s">
-        <v>342</v>
+        <v>303</v>
       </c>
       <c r="C90" s="2">
         <v>6980670373232</v>
@@ -4521,7 +4485,7 @@
         <v>43275.720138888886</v>
       </c>
       <c r="F90" s="1" t="s">
-        <v>274</v>
+        <v>235</v>
       </c>
       <c r="G90">
         <v>0</v>
@@ -4536,18 +4500,18 @@
         <v>1</v>
       </c>
       <c r="M90" t="s">
-        <v>323</v>
+        <v>284</v>
       </c>
       <c r="N90" t="s">
-        <v>324</v>
+        <v>285</v>
       </c>
     </row>
     <row r="91" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>321</v>
+        <v>282</v>
       </c>
       <c r="B91" t="s">
-        <v>322</v>
+        <v>283</v>
       </c>
       <c r="C91" s="2">
         <v>6979244373084</v>
@@ -4559,15 +4523,15 @@
         <v>43275.743055555555</v>
       </c>
       <c r="F91" t="s">
-        <v>357</v>
+        <v>318</v>
       </c>
       <c r="N91" t="s">
-        <v>324</v>
+        <v>285</v>
       </c>
     </row>
     <row r="93" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>343</v>
+        <v>304</v>
       </c>
       <c r="B93" t="s">
         <v>64</v>
@@ -4582,24 +4546,24 @@
         <v>43276.445138888892</v>
       </c>
       <c r="F93" s="1" t="s">
-        <v>345</v>
+        <v>306</v>
       </c>
       <c r="L93">
         <v>1</v>
       </c>
       <c r="M93" t="s">
-        <v>346</v>
+        <v>307</v>
       </c>
       <c r="N93" t="s">
-        <v>347</v>
+        <v>308</v>
       </c>
     </row>
     <row r="94" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>343</v>
+        <v>304</v>
       </c>
       <c r="B94" s="3" t="s">
-        <v>344</v>
+        <v>305</v>
       </c>
       <c r="C94" s="2">
         <v>6987664372345</v>
@@ -4611,15 +4575,15 @@
         <v>43276.534722222219</v>
       </c>
       <c r="F94" t="s">
-        <v>272</v>
+        <v>233</v>
       </c>
       <c r="N94" t="s">
-        <v>347</v>
+        <v>308</v>
       </c>
     </row>
     <row r="95" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>343</v>
+        <v>304</v>
       </c>
       <c r="B95" t="s">
         <v>30</v>
@@ -4634,7 +4598,7 @@
         <v>43276.551388888889</v>
       </c>
       <c r="F95" s="1" t="s">
-        <v>311</v>
+        <v>272</v>
       </c>
       <c r="G95">
         <v>22</v>
@@ -4643,21 +4607,21 @@
         <v>318</v>
       </c>
       <c r="I95" t="s">
-        <v>348</v>
+        <v>309</v>
       </c>
       <c r="L95">
         <v>1</v>
       </c>
       <c r="N95" t="s">
-        <v>347</v>
+        <v>308</v>
       </c>
     </row>
     <row r="96" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>343</v>
+        <v>304</v>
       </c>
       <c r="B96" t="s">
-        <v>273</v>
+        <v>234</v>
       </c>
       <c r="C96" s="2">
         <v>6989072374165</v>
@@ -4669,7 +4633,7 @@
         <v>43276.624305555553</v>
       </c>
       <c r="F96" s="1" t="s">
-        <v>274</v>
+        <v>235</v>
       </c>
       <c r="G96">
         <v>0.47</v>
@@ -4684,18 +4648,18 @@
         <v>1</v>
       </c>
       <c r="M96" t="s">
-        <v>339</v>
+        <v>300</v>
       </c>
       <c r="N96" t="s">
-        <v>347</v>
+        <v>308</v>
       </c>
     </row>
     <row r="97" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>343</v>
+        <v>304</v>
       </c>
       <c r="B97" t="s">
-        <v>275</v>
+        <v>236</v>
       </c>
       <c r="C97" s="2">
         <v>6989109374195</v>
@@ -4707,7 +4671,7 @@
         <v>43276.626388888886</v>
       </c>
       <c r="F97" s="1" t="s">
-        <v>274</v>
+        <v>235</v>
       </c>
       <c r="G97">
         <v>0.33</v>
@@ -4722,18 +4686,18 @@
         <v>2</v>
       </c>
       <c r="M97" t="s">
-        <v>323</v>
+        <v>284</v>
       </c>
       <c r="N97" t="s">
-        <v>347</v>
+        <v>308</v>
       </c>
     </row>
     <row r="98" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>343</v>
+        <v>304</v>
       </c>
       <c r="B98" t="s">
-        <v>276</v>
+        <v>237</v>
       </c>
       <c r="C98" s="2">
         <v>6989396374373</v>
@@ -4745,7 +4709,7 @@
         <v>43276.631249999999</v>
       </c>
       <c r="F98" s="1" t="s">
-        <v>274</v>
+        <v>235</v>
       </c>
       <c r="G98">
         <v>0.26</v>
@@ -4760,18 +4724,18 @@
         <v>15</v>
       </c>
       <c r="M98" t="s">
-        <v>349</v>
+        <v>310</v>
       </c>
       <c r="N98" t="s">
-        <v>347</v>
+        <v>308</v>
       </c>
     </row>
     <row r="99" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>343</v>
+        <v>304</v>
       </c>
       <c r="B99" t="s">
-        <v>276</v>
+        <v>237</v>
       </c>
       <c r="C99" s="2">
         <v>6989396374373</v>
@@ -4783,7 +4747,7 @@
         <v>43276.631249999999</v>
       </c>
       <c r="F99" s="1" t="s">
-        <v>274</v>
+        <v>235</v>
       </c>
       <c r="G99">
         <v>0.42</v>
@@ -4798,18 +4762,18 @@
         <v>18</v>
       </c>
       <c r="M99" t="s">
-        <v>323</v>
+        <v>284</v>
       </c>
       <c r="N99" t="s">
-        <v>347</v>
+        <v>308</v>
       </c>
     </row>
     <row r="100" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>343</v>
+        <v>304</v>
       </c>
       <c r="B100" t="s">
-        <v>277</v>
+        <v>238</v>
       </c>
       <c r="C100" s="2">
         <v>6989430374420</v>
@@ -4821,7 +4785,7 @@
         <v>43276.634722222225</v>
       </c>
       <c r="F100" s="1" t="s">
-        <v>274</v>
+        <v>235</v>
       </c>
       <c r="G100">
         <v>0.39</v>
@@ -4836,18 +4800,18 @@
         <v>2</v>
       </c>
       <c r="M100" t="s">
-        <v>350</v>
+        <v>311</v>
       </c>
       <c r="N100" t="s">
-        <v>347</v>
+        <v>308</v>
       </c>
     </row>
     <row r="101" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>343</v>
+        <v>304</v>
       </c>
       <c r="B101" t="s">
-        <v>277</v>
+        <v>238</v>
       </c>
       <c r="C101" s="2">
         <v>6989430374420</v>
@@ -4859,7 +4823,7 @@
         <v>43276.634722222225</v>
       </c>
       <c r="F101" s="1" t="s">
-        <v>274</v>
+        <v>235</v>
       </c>
       <c r="G101">
         <v>1.62</v>
@@ -4874,18 +4838,18 @@
         <v>4</v>
       </c>
       <c r="M101" t="s">
-        <v>350</v>
+        <v>311</v>
       </c>
       <c r="N101" t="s">
-        <v>347</v>
+        <v>308</v>
       </c>
     </row>
     <row r="102" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
-        <v>343</v>
+        <v>304</v>
       </c>
       <c r="B102" t="s">
-        <v>278</v>
+        <v>239</v>
       </c>
       <c r="C102" s="2">
         <v>6989441374434</v>
@@ -4897,7 +4861,7 @@
         <v>43276.636805555558</v>
       </c>
       <c r="F102" s="1" t="s">
-        <v>274</v>
+        <v>235</v>
       </c>
       <c r="G102">
         <v>0.16</v>
@@ -4912,18 +4876,18 @@
         <v>2</v>
       </c>
       <c r="M102" t="s">
-        <v>350</v>
+        <v>311</v>
       </c>
       <c r="N102" t="s">
-        <v>347</v>
+        <v>308</v>
       </c>
     </row>
     <row r="103" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
-        <v>343</v>
+        <v>304</v>
       </c>
       <c r="B103" t="s">
-        <v>279</v>
+        <v>240</v>
       </c>
       <c r="C103" s="2">
         <v>6989492374527</v>
@@ -4935,7 +4899,7 @@
         <v>43276.638888888891</v>
       </c>
       <c r="F103" s="1" t="s">
-        <v>274</v>
+        <v>235</v>
       </c>
       <c r="G103">
         <v>0.02</v>
@@ -4950,18 +4914,18 @@
         <v>4</v>
       </c>
       <c r="M103" t="s">
-        <v>350</v>
+        <v>311</v>
       </c>
       <c r="N103" t="s">
-        <v>347</v>
+        <v>308</v>
       </c>
     </row>
     <row r="104" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
-        <v>343</v>
+        <v>304</v>
       </c>
       <c r="B104" t="s">
-        <v>279</v>
+        <v>240</v>
       </c>
       <c r="C104" s="2">
         <v>6989492374527</v>
@@ -4973,7 +4937,7 @@
         <v>43276.638888888891</v>
       </c>
       <c r="F104" s="1" t="s">
-        <v>274</v>
+        <v>235</v>
       </c>
       <c r="G104">
         <v>0.56999999999999995</v>
@@ -4988,18 +4952,18 @@
         <v>2</v>
       </c>
       <c r="M104" t="s">
-        <v>350</v>
+        <v>311</v>
       </c>
       <c r="N104" t="s">
-        <v>347</v>
+        <v>308</v>
       </c>
     </row>
     <row r="105" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
-        <v>343</v>
+        <v>304</v>
       </c>
       <c r="B105" t="s">
-        <v>279</v>
+        <v>240</v>
       </c>
       <c r="C105" s="2">
         <v>6989492374527</v>
@@ -5011,7 +4975,7 @@
         <v>43276.638888888891</v>
       </c>
       <c r="F105" s="1" t="s">
-        <v>274</v>
+        <v>235</v>
       </c>
       <c r="G105">
         <v>0.61</v>
@@ -5026,18 +4990,18 @@
         <v>15</v>
       </c>
       <c r="M105" t="s">
-        <v>349</v>
+        <v>310</v>
       </c>
       <c r="N105" t="s">
-        <v>347</v>
+        <v>308</v>
       </c>
     </row>
     <row r="106" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
-        <v>343</v>
+        <v>304</v>
       </c>
       <c r="B106" t="s">
-        <v>313</v>
+        <v>274</v>
       </c>
       <c r="C106" s="2">
         <v>6989528374583</v>
@@ -5049,7 +5013,7 @@
         <v>43276.642361111109</v>
       </c>
       <c r="F106" s="1" t="s">
-        <v>314</v>
+        <v>275</v>
       </c>
       <c r="G106">
         <v>59.9</v>
@@ -5058,21 +5022,21 @@
         <v>44</v>
       </c>
       <c r="I106" t="s">
-        <v>315</v>
+        <v>276</v>
       </c>
       <c r="L106">
         <v>1</v>
       </c>
       <c r="N106" t="s">
-        <v>347</v>
+        <v>308</v>
       </c>
     </row>
     <row r="107" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
-        <v>343</v>
+        <v>304</v>
       </c>
       <c r="B107" t="s">
-        <v>284</v>
+        <v>245</v>
       </c>
       <c r="C107" s="2">
         <v>6989808375053</v>
@@ -5084,7 +5048,7 @@
         <v>43276.652777777781</v>
       </c>
       <c r="F107" s="1" t="s">
-        <v>274</v>
+        <v>235</v>
       </c>
       <c r="G107">
         <v>0.41</v>
@@ -5099,18 +5063,18 @@
         <v>1</v>
       </c>
       <c r="M107" t="s">
-        <v>339</v>
+        <v>300</v>
       </c>
       <c r="N107" t="s">
-        <v>347</v>
+        <v>308</v>
       </c>
     </row>
     <row r="108" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
-        <v>343</v>
+        <v>304</v>
       </c>
       <c r="B108" t="s">
-        <v>285</v>
+        <v>246</v>
       </c>
       <c r="C108" s="2">
         <v>6990146375345</v>
@@ -5122,7 +5086,7 @@
         <v>43276.659722222219</v>
       </c>
       <c r="F108" s="1" t="s">
-        <v>274</v>
+        <v>235</v>
       </c>
       <c r="G108">
         <v>0.24</v>
@@ -5137,18 +5101,18 @@
         <v>36</v>
       </c>
       <c r="M108" t="s">
-        <v>323</v>
+        <v>284</v>
       </c>
       <c r="N108" t="s">
-        <v>347</v>
+        <v>308</v>
       </c>
     </row>
     <row r="109" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
-        <v>343</v>
+        <v>304</v>
       </c>
       <c r="B109" s="3" t="s">
-        <v>269</v>
+        <v>230</v>
       </c>
       <c r="C109" s="2">
         <v>6990210375427</v>
@@ -5160,18 +5124,18 @@
         <v>43276.665972222225</v>
       </c>
       <c r="F109" s="1" t="s">
-        <v>271</v>
+        <v>232</v>
       </c>
       <c r="N109" t="s">
-        <v>347</v>
+        <v>308</v>
       </c>
     </row>
     <row r="110" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
-        <v>343</v>
+        <v>304</v>
       </c>
       <c r="B110" t="s">
-        <v>333</v>
+        <v>294</v>
       </c>
       <c r="C110" s="2">
         <v>6990211375286</v>
@@ -5183,7 +5147,7 @@
         <v>43276.668055555558</v>
       </c>
       <c r="F110" s="1" t="s">
-        <v>314</v>
+        <v>275</v>
       </c>
       <c r="G110">
         <v>7.9</v>
@@ -5195,15 +5159,15 @@
         <v>1</v>
       </c>
       <c r="N110" t="s">
-        <v>347</v>
+        <v>308</v>
       </c>
     </row>
     <row r="111" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
-        <v>343</v>
+        <v>304</v>
       </c>
       <c r="B111" t="s">
-        <v>333</v>
+        <v>294</v>
       </c>
       <c r="C111" s="2">
         <v>6990211375286</v>
@@ -5215,7 +5179,7 @@
         <v>43276.668055555558</v>
       </c>
       <c r="F111" s="1" t="s">
-        <v>311</v>
+        <v>272</v>
       </c>
       <c r="G111">
         <v>452</v>
@@ -5227,15 +5191,15 @@
         <v>1</v>
       </c>
       <c r="N111" t="s">
-        <v>347</v>
+        <v>308</v>
       </c>
     </row>
     <row r="112" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
-        <v>343</v>
+        <v>304</v>
       </c>
       <c r="B112" t="s">
-        <v>286</v>
+        <v>247</v>
       </c>
       <c r="C112" s="2">
         <v>6990229375196</v>
@@ -5247,7 +5211,7 @@
         <v>43276.671527777777</v>
       </c>
       <c r="F112" s="1" t="s">
-        <v>274</v>
+        <v>235</v>
       </c>
       <c r="G112">
         <v>0.52</v>
@@ -5262,18 +5226,18 @@
         <v>10</v>
       </c>
       <c r="M112" t="s">
-        <v>323</v>
+        <v>284</v>
       </c>
       <c r="N112" t="s">
-        <v>347</v>
+        <v>308</v>
       </c>
     </row>
     <row r="113" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
-        <v>343</v>
+        <v>304</v>
       </c>
       <c r="B113" t="s">
-        <v>286</v>
+        <v>247</v>
       </c>
       <c r="C113" s="2">
         <v>6990229375196</v>
@@ -5298,18 +5262,18 @@
         <v>19</v>
       </c>
       <c r="M113" t="s">
-        <v>323</v>
+        <v>284</v>
       </c>
       <c r="N113" t="s">
-        <v>347</v>
+        <v>308</v>
       </c>
     </row>
     <row r="114" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
-        <v>343</v>
+        <v>304</v>
       </c>
       <c r="B114" t="s">
-        <v>287</v>
+        <v>248</v>
       </c>
       <c r="C114" s="2">
         <v>6990229375192</v>
@@ -5321,7 +5285,7 @@
         <v>43276.673611111109</v>
       </c>
       <c r="F114" s="1" t="s">
-        <v>274</v>
+        <v>235</v>
       </c>
       <c r="G114">
         <v>0.79</v>
@@ -5336,18 +5300,18 @@
         <v>45</v>
       </c>
       <c r="M114" t="s">
-        <v>351</v>
+        <v>312</v>
       </c>
       <c r="N114" t="s">
-        <v>347</v>
+        <v>308</v>
       </c>
     </row>
     <row r="115" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
-        <v>343</v>
+        <v>304</v>
       </c>
       <c r="B115" t="s">
-        <v>352</v>
+        <v>313</v>
       </c>
       <c r="C115" s="2">
         <v>6990342374915</v>
@@ -5359,7 +5323,7 @@
         <v>43276.678472222222</v>
       </c>
       <c r="F115" s="1" t="s">
-        <v>353</v>
+        <v>314</v>
       </c>
       <c r="G115">
         <v>18.399999999999999</v>
@@ -5368,21 +5332,21 @@
         <v>20</v>
       </c>
       <c r="I115" t="s">
-        <v>315</v>
+        <v>276</v>
       </c>
       <c r="L115">
         <v>1</v>
       </c>
       <c r="N115" t="s">
-        <v>347</v>
+        <v>308</v>
       </c>
     </row>
     <row r="116" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
-        <v>343</v>
+        <v>304</v>
       </c>
       <c r="B116" t="s">
-        <v>352</v>
+        <v>313</v>
       </c>
       <c r="C116" s="2">
         <v>6990342374915</v>
@@ -5394,7 +5358,7 @@
         <v>43276.678472222222</v>
       </c>
       <c r="F116" s="1" t="s">
-        <v>353</v>
+        <v>314</v>
       </c>
       <c r="G116">
         <v>14.4</v>
@@ -5403,21 +5367,21 @@
         <v>24</v>
       </c>
       <c r="I116" t="s">
-        <v>315</v>
+        <v>276</v>
       </c>
       <c r="L116">
         <v>1</v>
       </c>
       <c r="N116" t="s">
-        <v>347</v>
+        <v>308</v>
       </c>
     </row>
     <row r="117" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
-        <v>343</v>
+        <v>304</v>
       </c>
       <c r="B117" t="s">
-        <v>288</v>
+        <v>249</v>
       </c>
       <c r="C117" s="2">
         <v>6990469374617</v>
@@ -5429,7 +5393,7 @@
         <v>43276.6875</v>
       </c>
       <c r="F117" s="1" t="s">
-        <v>274</v>
+        <v>235</v>
       </c>
       <c r="G117">
         <v>0.31</v>
@@ -5444,18 +5408,18 @@
         <v>1</v>
       </c>
       <c r="M117" t="s">
-        <v>323</v>
+        <v>284</v>
       </c>
       <c r="N117" t="s">
-        <v>347</v>
+        <v>308</v>
       </c>
     </row>
     <row r="118" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
-        <v>343</v>
+        <v>304</v>
       </c>
       <c r="B118" t="s">
-        <v>291</v>
+        <v>252</v>
       </c>
       <c r="C118" s="2">
         <v>6990696373981</v>
@@ -5467,7 +5431,7 @@
         <v>43276.696527777778</v>
       </c>
       <c r="F118" s="1" t="s">
-        <v>274</v>
+        <v>235</v>
       </c>
       <c r="G118">
         <v>7.0000000000000007E-2</v>
@@ -5482,18 +5446,18 @@
         <v>1</v>
       </c>
       <c r="M118" t="s">
-        <v>323</v>
+        <v>284</v>
       </c>
       <c r="N118" t="s">
-        <v>347</v>
+        <v>308</v>
       </c>
     </row>
     <row r="119" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
-        <v>343</v>
+        <v>304</v>
       </c>
       <c r="B119" t="s">
-        <v>292</v>
+        <v>253</v>
       </c>
       <c r="C119" s="2">
         <v>6990700373975</v>
@@ -5505,7 +5469,7 @@
         <v>43276.697222222225</v>
       </c>
       <c r="F119" s="1" t="s">
-        <v>274</v>
+        <v>235</v>
       </c>
       <c r="G119">
         <v>0.18</v>
@@ -5520,18 +5484,18 @@
         <v>17</v>
       </c>
       <c r="M119" t="s">
-        <v>323</v>
+        <v>284</v>
       </c>
       <c r="N119" t="s">
-        <v>347</v>
+        <v>308</v>
       </c>
     </row>
     <row r="120" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
-        <v>343</v>
+        <v>304</v>
       </c>
       <c r="B120" t="s">
-        <v>293</v>
+        <v>254</v>
       </c>
       <c r="C120" s="2">
         <v>6990705373967</v>
@@ -5543,7 +5507,7 @@
         <v>43276.699305555558</v>
       </c>
       <c r="F120" s="1" t="s">
-        <v>274</v>
+        <v>235</v>
       </c>
       <c r="G120">
         <v>0.39</v>
@@ -5558,18 +5522,18 @@
         <v>14</v>
       </c>
       <c r="M120" t="s">
-        <v>323</v>
+        <v>284</v>
       </c>
       <c r="N120" t="s">
-        <v>347</v>
+        <v>308</v>
       </c>
     </row>
     <row r="121" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
-        <v>343</v>
+        <v>304</v>
       </c>
       <c r="B121" t="s">
-        <v>328</v>
+        <v>289</v>
       </c>
       <c r="C121" s="2">
         <v>6990731373922</v>
@@ -5581,7 +5545,7 @@
         <v>43276.701388888891</v>
       </c>
       <c r="F121" s="1" t="s">
-        <v>274</v>
+        <v>235</v>
       </c>
       <c r="G121">
         <v>0.02</v>
@@ -5596,18 +5560,18 @@
         <v>11</v>
       </c>
       <c r="M121" t="s">
-        <v>354</v>
+        <v>315</v>
       </c>
       <c r="N121" t="s">
-        <v>347</v>
+        <v>308</v>
       </c>
     </row>
     <row r="122" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
-        <v>343</v>
+        <v>304</v>
       </c>
       <c r="B122" t="s">
-        <v>331</v>
+        <v>292</v>
       </c>
       <c r="C122" s="2">
         <v>6991108372720</v>
@@ -5619,7 +5583,7 @@
         <v>43276.717361111114</v>
       </c>
       <c r="F122" s="1" t="s">
-        <v>274</v>
+        <v>235</v>
       </c>
       <c r="G122">
         <v>0.01</v>
@@ -5634,18 +5598,18 @@
         <v>4</v>
       </c>
       <c r="M122" t="s">
-        <v>323</v>
+        <v>284</v>
       </c>
       <c r="N122" t="s">
-        <v>347</v>
+        <v>308</v>
       </c>
     </row>
     <row r="123" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
-        <v>343</v>
+        <v>304</v>
       </c>
       <c r="B123" t="s">
-        <v>335</v>
+        <v>296</v>
       </c>
       <c r="C123" s="2">
         <v>6991153372515</v>
@@ -5657,7 +5621,7 @@
         <v>43276.722222222219</v>
       </c>
       <c r="F123" s="1" t="s">
-        <v>314</v>
+        <v>275</v>
       </c>
       <c r="G123">
         <v>33.1</v>
@@ -5666,18 +5630,18 @@
         <v>18</v>
       </c>
       <c r="I123" t="s">
-        <v>315</v>
+        <v>276</v>
       </c>
       <c r="L123">
         <v>1</v>
       </c>
       <c r="N123" t="s">
-        <v>347</v>
+        <v>308</v>
       </c>
     </row>
     <row r="124" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
-        <v>343</v>
+        <v>304</v>
       </c>
       <c r="B124" t="s">
         <v>80</v>
@@ -5692,7 +5656,7 @@
         <v>43276.724999999999</v>
       </c>
       <c r="F124" s="1" t="s">
-        <v>356</v>
+        <v>317</v>
       </c>
       <c r="G124">
         <v>0</v>
@@ -5704,15 +5668,15 @@
         <v>1</v>
       </c>
       <c r="N124" t="s">
-        <v>347</v>
+        <v>308</v>
       </c>
     </row>
     <row r="125" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
-        <v>343</v>
+        <v>304</v>
       </c>
       <c r="B125" t="s">
-        <v>332</v>
+        <v>293</v>
       </c>
       <c r="C125" s="2">
         <v>6991331372007</v>
@@ -5724,7 +5688,7 @@
         <v>43276.730555555558</v>
       </c>
       <c r="F125" s="1" t="s">
-        <v>274</v>
+        <v>235</v>
       </c>
       <c r="G125">
         <v>0.06</v>
@@ -5739,18 +5703,18 @@
         <v>13</v>
       </c>
       <c r="M125" t="s">
-        <v>351</v>
+        <v>312</v>
       </c>
       <c r="N125" t="s">
-        <v>347</v>
+        <v>308</v>
       </c>
     </row>
     <row r="126" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
-        <v>343</v>
+        <v>304</v>
       </c>
       <c r="B126" s="3" t="s">
-        <v>280</v>
+        <v>241</v>
       </c>
       <c r="C126" s="2">
         <v>6991515371569</v>
@@ -5762,18 +5726,18 @@
         <v>43276.736805555556</v>
       </c>
       <c r="F126" s="1" t="s">
-        <v>271</v>
+        <v>232</v>
       </c>
       <c r="N126" t="s">
-        <v>347</v>
+        <v>308</v>
       </c>
     </row>
     <row r="127" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
-        <v>343</v>
+        <v>304</v>
       </c>
       <c r="B127" t="s">
-        <v>334</v>
+        <v>295</v>
       </c>
       <c r="C127" s="2">
         <v>6990806371700</v>
@@ -5785,7 +5749,7 @@
         <v>43276.75</v>
       </c>
       <c r="F127" s="1" t="s">
-        <v>274</v>
+        <v>235</v>
       </c>
       <c r="G127">
         <v>0.36</v>
@@ -5800,18 +5764,18 @@
         <v>16</v>
       </c>
       <c r="M127" t="s">
-        <v>323</v>
+        <v>284</v>
       </c>
       <c r="N127" t="s">
-        <v>347</v>
+        <v>308</v>
       </c>
     </row>
     <row r="128" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
-        <v>343</v>
+        <v>304</v>
       </c>
       <c r="B128" t="s">
-        <v>340</v>
+        <v>301</v>
       </c>
       <c r="C128" s="2">
         <v>6988299372150</v>
@@ -5823,7 +5787,7 @@
         <v>43276.79791666667</v>
       </c>
       <c r="F128" s="1" t="s">
-        <v>274</v>
+        <v>235</v>
       </c>
       <c r="G128">
         <v>0.09</v>
@@ -5838,18 +5802,18 @@
         <v>17</v>
       </c>
       <c r="M128" t="s">
-        <v>323</v>
+        <v>284</v>
       </c>
       <c r="N128" t="s">
-        <v>347</v>
+        <v>308</v>
       </c>
     </row>
     <row r="129" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
-        <v>343</v>
+        <v>304</v>
       </c>
       <c r="B129" s="3" t="s">
-        <v>344</v>
+        <v>305</v>
       </c>
       <c r="C129" s="2">
         <v>6987664372345</v>
@@ -5861,10 +5825,10 @@
         <v>43276.806944444441</v>
       </c>
       <c r="F129" t="s">
-        <v>357</v>
+        <v>318</v>
       </c>
       <c r="N129" t="s">
-        <v>347</v>
+        <v>308</v>
       </c>
     </row>
     <row r="130" spans="1:14" x14ac:dyDescent="0.2">
@@ -5872,30 +5836,30 @@
     </row>
     <row r="131" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
-        <v>358</v>
+        <v>319</v>
       </c>
       <c r="B131" s="3" t="s">
-        <v>359</v>
+        <v>320</v>
       </c>
       <c r="C131" s="2">
         <v>6986351371839</v>
       </c>
       <c r="D131" t="s">
-        <v>360</v>
+        <v>321</v>
       </c>
       <c r="E131" s="1">
         <v>43277.354166666664</v>
       </c>
       <c r="F131" s="1" t="s">
-        <v>272</v>
+        <v>233</v>
       </c>
       <c r="N131" t="s">
-        <v>361</v>
+        <v>322</v>
       </c>
     </row>
     <row r="132" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
-        <v>358</v>
+        <v>319</v>
       </c>
       <c r="B132" t="s">
         <v>30</v>
@@ -5910,7 +5874,7 @@
         <v>43277.35833333333</v>
       </c>
       <c r="F132" s="1" t="s">
-        <v>311</v>
+        <v>272</v>
       </c>
       <c r="G132">
         <v>33.1</v>
@@ -5922,18 +5886,18 @@
         <v>1</v>
       </c>
       <c r="M132" t="s">
-        <v>362</v>
+        <v>323</v>
       </c>
       <c r="N132" t="s">
-        <v>361</v>
+        <v>322</v>
       </c>
     </row>
     <row r="133" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
-        <v>358</v>
+        <v>319</v>
       </c>
       <c r="B133" t="s">
-        <v>313</v>
+        <v>274</v>
       </c>
       <c r="C133" s="2">
         <v>6986539371185</v>
@@ -5945,7 +5909,7 @@
         <v>43277.365972222222</v>
       </c>
       <c r="F133" s="1" t="s">
-        <v>314</v>
+        <v>275</v>
       </c>
       <c r="G133">
         <v>82.6</v>
@@ -5954,21 +5918,21 @@
         <v>312</v>
       </c>
       <c r="I133" t="s">
-        <v>315</v>
+        <v>276</v>
       </c>
       <c r="L133">
         <v>1</v>
       </c>
       <c r="N133" t="s">
-        <v>361</v>
+        <v>322</v>
       </c>
     </row>
     <row r="134" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
-        <v>358</v>
+        <v>319</v>
       </c>
       <c r="B134" t="s">
-        <v>273</v>
+        <v>234</v>
       </c>
       <c r="C134" s="2">
         <v>6986987369810</v>
@@ -5980,7 +5944,7 @@
         <v>43277.390972222223</v>
       </c>
       <c r="F134" s="1" t="s">
-        <v>274</v>
+        <v>235</v>
       </c>
       <c r="G134">
         <v>1.23</v>
@@ -5995,18 +5959,18 @@
         <v>4</v>
       </c>
       <c r="M134" t="s">
-        <v>323</v>
+        <v>284</v>
       </c>
       <c r="N134" t="s">
-        <v>361</v>
+        <v>322</v>
       </c>
     </row>
     <row r="135" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
-        <v>358</v>
+        <v>319</v>
       </c>
       <c r="B135" t="s">
-        <v>275</v>
+        <v>236</v>
       </c>
       <c r="C135" s="2">
         <v>6987165369223</v>
@@ -6018,7 +5982,7 @@
         <v>43277.402083333334</v>
       </c>
       <c r="F135" s="1" t="s">
-        <v>274</v>
+        <v>235</v>
       </c>
       <c r="G135">
         <v>0.1</v>
@@ -6033,18 +5997,18 @@
         <v>7</v>
       </c>
       <c r="M135" t="s">
-        <v>323</v>
+        <v>284</v>
       </c>
       <c r="N135" t="s">
-        <v>361</v>
+        <v>322</v>
       </c>
     </row>
     <row r="136" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
-        <v>358</v>
+        <v>319</v>
       </c>
       <c r="B136" t="s">
-        <v>276</v>
+        <v>237</v>
       </c>
       <c r="C136" s="2">
         <v>6987303368811</v>
@@ -6056,7 +6020,7 @@
         <v>43277.409722222219</v>
       </c>
       <c r="F136" s="1" t="s">
-        <v>274</v>
+        <v>235</v>
       </c>
       <c r="G136">
         <v>0.04</v>
@@ -6071,41 +6035,41 @@
         <v>1</v>
       </c>
       <c r="M136" t="s">
-        <v>323</v>
+        <v>284</v>
       </c>
       <c r="N136" t="s">
-        <v>361</v>
+        <v>322</v>
       </c>
     </row>
     <row r="137" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
-        <v>358</v>
+        <v>319</v>
       </c>
       <c r="B137" s="3" t="s">
-        <v>269</v>
+        <v>230</v>
       </c>
       <c r="C137" s="2">
         <v>6987650367997</v>
       </c>
       <c r="D137" t="s">
-        <v>363</v>
+        <v>324</v>
       </c>
       <c r="E137" s="1">
         <v>43277.425694444442</v>
       </c>
       <c r="F137" s="1" t="s">
-        <v>271</v>
+        <v>232</v>
       </c>
       <c r="N137" t="s">
-        <v>361</v>
+        <v>322</v>
       </c>
     </row>
     <row r="138" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
-        <v>358</v>
+        <v>319</v>
       </c>
       <c r="B138" t="s">
-        <v>277</v>
+        <v>238</v>
       </c>
       <c r="C138" s="2">
         <v>6985525368428</v>
@@ -6117,7 +6081,7 @@
         <v>43277.557638888888</v>
       </c>
       <c r="F138" s="1" t="s">
-        <v>274</v>
+        <v>235</v>
       </c>
       <c r="G138">
         <v>0.21</v>
@@ -6132,18 +6096,18 @@
         <v>24</v>
       </c>
       <c r="M138" t="s">
-        <v>364</v>
+        <v>325</v>
       </c>
       <c r="N138" t="s">
-        <v>361</v>
+        <v>322</v>
       </c>
     </row>
     <row r="139" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
-        <v>358</v>
+        <v>319</v>
       </c>
       <c r="B139" t="s">
-        <v>278</v>
+        <v>239</v>
       </c>
       <c r="C139" s="2">
         <v>6983906368728</v>
@@ -6155,7 +6119,7 @@
         <v>43277.584722222222</v>
       </c>
       <c r="F139" s="1" t="s">
-        <v>274</v>
+        <v>235</v>
       </c>
       <c r="G139">
         <v>0.11</v>
@@ -6170,15 +6134,15 @@
         <v>25</v>
       </c>
       <c r="M139" t="s">
-        <v>302</v>
+        <v>263</v>
       </c>
       <c r="N139" t="s">
-        <v>361</v>
+        <v>322</v>
       </c>
     </row>
     <row r="140" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
-        <v>358</v>
+        <v>319</v>
       </c>
       <c r="B140" t="s">
         <v>30</v>
@@ -6193,7 +6157,7 @@
         <v>43277.597916666666</v>
       </c>
       <c r="F140" s="1" t="s">
-        <v>311</v>
+        <v>272</v>
       </c>
       <c r="G140">
         <v>153.1</v>
@@ -6205,15 +6169,15 @@
         <v>3</v>
       </c>
       <c r="N140" t="s">
-        <v>361</v>
+        <v>322</v>
       </c>
     </row>
     <row r="141" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
-        <v>358</v>
+        <v>319</v>
       </c>
       <c r="B141" t="s">
-        <v>279</v>
+        <v>240</v>
       </c>
       <c r="C141" s="2">
         <v>6984203369274</v>
@@ -6225,7 +6189,7 @@
         <v>43277.609722222223</v>
       </c>
       <c r="F141" s="1" t="s">
-        <v>274</v>
+        <v>235</v>
       </c>
       <c r="G141">
         <v>7.0000000000000007E-2</v>
@@ -6240,15 +6204,15 @@
         <v>8</v>
       </c>
       <c r="M141" t="s">
-        <v>365</v>
+        <v>326</v>
       </c>
       <c r="N141" t="s">
-        <v>361</v>
+        <v>322</v>
       </c>
     </row>
     <row r="142" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
-        <v>358</v>
+        <v>319</v>
       </c>
       <c r="B142" t="s">
         <v>30</v>
@@ -6263,7 +6227,7 @@
         <v>43277.623611111114</v>
       </c>
       <c r="F142" s="1" t="s">
-        <v>311</v>
+        <v>272</v>
       </c>
       <c r="G142">
         <v>139.4</v>
@@ -6275,15 +6239,15 @@
         <v>3</v>
       </c>
       <c r="N142" t="s">
-        <v>361</v>
+        <v>322</v>
       </c>
     </row>
     <row r="143" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
-        <v>358</v>
+        <v>319</v>
       </c>
       <c r="B143" t="s">
-        <v>284</v>
+        <v>245</v>
       </c>
       <c r="C143" s="2">
         <v>6986354371830</v>
@@ -6295,7 +6259,7 @@
         <v>43277.663888888892</v>
       </c>
       <c r="F143" s="1" t="s">
-        <v>274</v>
+        <v>235</v>
       </c>
       <c r="G143">
         <v>0.18</v>
@@ -6310,64 +6274,64 @@
         <v>3</v>
       </c>
       <c r="M143" t="s">
-        <v>350</v>
+        <v>311</v>
       </c>
       <c r="N143" t="s">
-        <v>361</v>
+        <v>322</v>
       </c>
     </row>
     <row r="144" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
-        <v>358</v>
+        <v>319</v>
       </c>
       <c r="B144" s="3" t="s">
-        <v>359</v>
+        <v>320</v>
       </c>
       <c r="C144" s="2">
         <v>6986351371839</v>
       </c>
       <c r="D144" t="s">
-        <v>360</v>
+        <v>321</v>
       </c>
       <c r="E144" s="1">
         <v>43277.666666666664</v>
       </c>
       <c r="F144" s="1" t="s">
-        <v>357</v>
+        <v>318</v>
       </c>
       <c r="N144" t="s">
-        <v>361</v>
+        <v>322</v>
       </c>
     </row>
     <row r="148" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
-        <v>366</v>
+        <v>327</v>
       </c>
       <c r="B148" s="3" t="s">
-        <v>280</v>
+        <v>241</v>
       </c>
       <c r="C148" s="2">
         <v>6985863359293</v>
       </c>
       <c r="D148" t="s">
-        <v>367</v>
+        <v>328</v>
       </c>
       <c r="E148" s="1">
         <v>43278.409722222219</v>
       </c>
       <c r="F148" s="1" t="s">
-        <v>272</v>
+        <v>233</v>
       </c>
       <c r="N148" t="s">
-        <v>368</v>
+        <v>329</v>
       </c>
     </row>
     <row r="149" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
-        <v>366</v>
+        <v>327</v>
       </c>
       <c r="B149" t="s">
-        <v>273</v>
+        <v>234</v>
       </c>
       <c r="C149" s="2">
         <v>6984603358022</v>
@@ -6379,7 +6343,7 @@
         <v>43278.430555555555</v>
       </c>
       <c r="F149" s="1" t="s">
-        <v>274</v>
+        <v>235</v>
       </c>
       <c r="G149">
         <v>0.37</v>
@@ -6394,18 +6358,18 @@
         <v>4</v>
       </c>
       <c r="M149" t="s">
-        <v>369</v>
+        <v>330</v>
       </c>
       <c r="N149" t="s">
-        <v>368</v>
+        <v>329</v>
       </c>
     </row>
     <row r="150" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
-        <v>366</v>
+        <v>327</v>
       </c>
       <c r="B150" t="s">
-        <v>282</v>
+        <v>243</v>
       </c>
       <c r="C150" s="2">
         <v>6983656356892</v>
@@ -6417,18 +6381,18 @@
         <v>43278.449305555558</v>
       </c>
       <c r="F150" s="1" t="s">
-        <v>283</v>
+        <v>244</v>
       </c>
       <c r="N150" t="s">
-        <v>368</v>
+        <v>329</v>
       </c>
     </row>
     <row r="151" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
-        <v>366</v>
+        <v>327</v>
       </c>
       <c r="B151" t="s">
-        <v>282</v>
+        <v>243</v>
       </c>
       <c r="C151" s="2">
         <v>6983702356823</v>
@@ -6440,18 +6404,18 @@
         <v>43278.452777777777</v>
       </c>
       <c r="F151" s="1" t="s">
-        <v>283</v>
+        <v>244</v>
       </c>
       <c r="N151" t="s">
-        <v>368</v>
+        <v>329</v>
       </c>
     </row>
     <row r="152" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
-        <v>366</v>
+        <v>327</v>
       </c>
       <c r="B152" t="s">
-        <v>275</v>
+        <v>236</v>
       </c>
       <c r="C152" s="2">
         <v>6983103356528</v>
@@ -6463,7 +6427,7 @@
         <v>43278.467361111114</v>
       </c>
       <c r="F152" s="1" t="s">
-        <v>274</v>
+        <v>235</v>
       </c>
       <c r="G152">
         <v>1.21</v>
@@ -6478,38 +6442,38 @@
         <v>4</v>
       </c>
       <c r="M152" t="s">
-        <v>323</v>
+        <v>284</v>
       </c>
       <c r="N152" t="s">
-        <v>368</v>
+        <v>329</v>
       </c>
     </row>
     <row r="153" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
-        <v>366</v>
+        <v>327</v>
       </c>
       <c r="B153" s="3" t="s">
-        <v>370</v>
+        <v>331</v>
       </c>
       <c r="C153" s="2">
         <v>6983090356519</v>
       </c>
       <c r="D153" t="s">
-        <v>371</v>
+        <v>332</v>
       </c>
       <c r="E153" s="1">
         <v>43278.468055555553</v>
       </c>
       <c r="F153" s="1" t="s">
-        <v>271</v>
+        <v>232</v>
       </c>
     </row>
     <row r="154" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
-        <v>366</v>
+        <v>327</v>
       </c>
       <c r="B154" t="s">
-        <v>276</v>
+        <v>237</v>
       </c>
       <c r="C154" s="2">
         <v>6982711357390</v>
@@ -6521,7 +6485,7 @@
         <v>43278.480555555558</v>
       </c>
       <c r="F154" s="1" t="s">
-        <v>274</v>
+        <v>235</v>
       </c>
       <c r="G154">
         <v>0.45</v>
@@ -6536,15 +6500,15 @@
         <v>9</v>
       </c>
       <c r="M154" t="s">
-        <v>323</v>
+        <v>284</v>
       </c>
       <c r="N154" t="s">
-        <v>368</v>
+        <v>329</v>
       </c>
     </row>
     <row r="155" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
-        <v>366</v>
+        <v>327</v>
       </c>
       <c r="B155" t="s">
         <v>30</v>
@@ -6559,7 +6523,7 @@
         <v>43278.493055555555</v>
       </c>
       <c r="F155" s="1" t="s">
-        <v>311</v>
+        <v>272</v>
       </c>
       <c r="G155">
         <v>248.4</v>
@@ -6574,15 +6538,15 @@
         <v>1</v>
       </c>
       <c r="N155" t="s">
-        <v>368</v>
+        <v>329</v>
       </c>
     </row>
     <row r="156" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
-        <v>366</v>
+        <v>327</v>
       </c>
       <c r="B156" t="s">
-        <v>372</v>
+        <v>333</v>
       </c>
       <c r="C156" s="2">
         <v>6982517358590</v>
@@ -6594,7 +6558,7 @@
         <v>43278.500694444447</v>
       </c>
       <c r="F156" s="1" t="s">
-        <v>373</v>
+        <v>334</v>
       </c>
       <c r="G156">
         <v>462.1</v>
@@ -6609,12 +6573,12 @@
         <v>1</v>
       </c>
       <c r="N156" t="s">
-        <v>368</v>
+        <v>329</v>
       </c>
     </row>
     <row r="157" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
-        <v>366</v>
+        <v>327</v>
       </c>
       <c r="B157" t="s">
         <v>30</v>
@@ -6629,7 +6593,7 @@
         <v>43278.559027777781</v>
       </c>
       <c r="F157" s="1" t="s">
-        <v>311</v>
+        <v>272</v>
       </c>
       <c r="G157">
         <v>121.6</v>
@@ -6641,15 +6605,15 @@
         <v>2</v>
       </c>
       <c r="N157" t="s">
-        <v>368</v>
+        <v>329</v>
       </c>
     </row>
     <row r="158" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
-        <v>366</v>
+        <v>327</v>
       </c>
       <c r="B158" t="s">
-        <v>277</v>
+        <v>238</v>
       </c>
       <c r="C158" s="2">
         <v>6982057359742</v>
@@ -6661,7 +6625,7 @@
         <v>43278.569444444445</v>
       </c>
       <c r="F158" s="1" t="s">
-        <v>274</v>
+        <v>235</v>
       </c>
       <c r="G158">
         <v>0.61</v>
@@ -6676,15 +6640,15 @@
         <v>1</v>
       </c>
       <c r="N158" t="s">
-        <v>368</v>
+        <v>329</v>
       </c>
     </row>
     <row r="159" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
-        <v>366</v>
+        <v>327</v>
       </c>
       <c r="B159" t="s">
-        <v>278</v>
+        <v>239</v>
       </c>
       <c r="C159" s="2">
         <v>6982022359836</v>
@@ -6696,7 +6660,7 @@
         <v>43278.572222222225</v>
       </c>
       <c r="F159" s="1" t="s">
-        <v>274</v>
+        <v>235</v>
       </c>
       <c r="G159">
         <v>0.56999999999999995</v>
@@ -6711,18 +6675,18 @@
         <v>24</v>
       </c>
       <c r="M159" t="s">
-        <v>317</v>
+        <v>278</v>
       </c>
       <c r="N159" t="s">
-        <v>368</v>
+        <v>329</v>
       </c>
     </row>
     <row r="160" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
-        <v>366</v>
+        <v>327</v>
       </c>
       <c r="B160" t="s">
-        <v>278</v>
+        <v>239</v>
       </c>
       <c r="C160" s="2">
         <v>6982022359836</v>
@@ -6734,7 +6698,7 @@
         <v>43278.572222222225</v>
       </c>
       <c r="F160" s="1" t="s">
-        <v>274</v>
+        <v>235</v>
       </c>
       <c r="G160">
         <v>0.13</v>
@@ -6749,18 +6713,18 @@
         <v>34</v>
       </c>
       <c r="M160" t="s">
-        <v>374</v>
+        <v>335</v>
       </c>
       <c r="N160" t="s">
-        <v>368</v>
+        <v>329</v>
       </c>
     </row>
     <row r="161" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
-        <v>366</v>
+        <v>327</v>
       </c>
       <c r="B161" t="s">
-        <v>278</v>
+        <v>239</v>
       </c>
       <c r="C161" s="2">
         <v>6982022359836</v>
@@ -6772,7 +6736,7 @@
         <v>43278.572222222225</v>
       </c>
       <c r="F161" s="1" t="s">
-        <v>274</v>
+        <v>235</v>
       </c>
       <c r="G161">
         <v>0.28999999999999998</v>
@@ -6787,38 +6751,38 @@
         <v>16</v>
       </c>
       <c r="N161" t="s">
-        <v>368</v>
+        <v>329</v>
       </c>
     </row>
     <row r="162" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
-        <v>366</v>
+        <v>327</v>
       </c>
       <c r="B162" s="3" t="s">
-        <v>269</v>
+        <v>230</v>
       </c>
       <c r="C162" s="2">
         <v>6981921360308</v>
       </c>
       <c r="D162" t="s">
-        <v>375</v>
+        <v>336</v>
       </c>
       <c r="E162" s="1">
         <v>43278.583333333336</v>
       </c>
       <c r="F162" s="1" t="s">
-        <v>271</v>
+        <v>232</v>
       </c>
       <c r="N162" t="s">
-        <v>368</v>
+        <v>329</v>
       </c>
     </row>
     <row r="163" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
-        <v>366</v>
+        <v>327</v>
       </c>
       <c r="B163" t="s">
-        <v>279</v>
+        <v>240</v>
       </c>
       <c r="C163" s="2">
         <v>6984942359384</v>
@@ -6830,7 +6794,7 @@
         <v>43278.62222222222</v>
       </c>
       <c r="F163" s="1" t="s">
-        <v>274</v>
+        <v>235</v>
       </c>
       <c r="G163">
         <v>0.34</v>
@@ -6845,18 +6809,18 @@
         <v>19</v>
       </c>
       <c r="M163" t="s">
-        <v>364</v>
+        <v>325</v>
       </c>
       <c r="N163" t="s">
-        <v>368</v>
+        <v>329</v>
       </c>
     </row>
     <row r="164" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
-        <v>366</v>
+        <v>327</v>
       </c>
       <c r="B164" t="s">
-        <v>279</v>
+        <v>240</v>
       </c>
       <c r="C164" s="2">
         <v>6984942359384</v>
@@ -6868,7 +6832,7 @@
         <v>43278.62222222222</v>
       </c>
       <c r="F164" s="1" t="s">
-        <v>311</v>
+        <v>272</v>
       </c>
       <c r="G164">
         <v>98.3</v>
@@ -6880,15 +6844,15 @@
         <v>2</v>
       </c>
       <c r="N164" t="s">
-        <v>368</v>
+        <v>329</v>
       </c>
     </row>
     <row r="165" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
-        <v>366</v>
+        <v>327</v>
       </c>
       <c r="B165" t="s">
-        <v>282</v>
+        <v>243</v>
       </c>
       <c r="C165" s="2">
         <v>6985094359323</v>
@@ -6900,18 +6864,18 @@
         <v>43278.62777777778</v>
       </c>
       <c r="F165" s="1" t="s">
-        <v>283</v>
+        <v>244</v>
       </c>
       <c r="N165" t="s">
-        <v>368</v>
+        <v>329</v>
       </c>
     </row>
     <row r="166" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
-        <v>366</v>
+        <v>327</v>
       </c>
       <c r="B166" t="s">
-        <v>284</v>
+        <v>245</v>
       </c>
       <c r="C166" s="2">
         <v>6985160359319</v>
@@ -6923,7 +6887,7 @@
         <v>43278.629166666666</v>
       </c>
       <c r="F166" s="1" t="s">
-        <v>274</v>
+        <v>235</v>
       </c>
       <c r="G166">
         <v>0.06</v>
@@ -6938,18 +6902,18 @@
         <v>35</v>
       </c>
       <c r="M166" t="s">
-        <v>376</v>
+        <v>337</v>
       </c>
       <c r="N166" t="s">
-        <v>368</v>
+        <v>329</v>
       </c>
     </row>
     <row r="167" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
-        <v>366</v>
+        <v>327</v>
       </c>
       <c r="B167" t="s">
-        <v>284</v>
+        <v>245</v>
       </c>
       <c r="C167" s="2">
         <v>6985160359319</v>
@@ -6961,7 +6925,7 @@
         <v>43278.629166666666</v>
       </c>
       <c r="F167" s="1" t="s">
-        <v>274</v>
+        <v>235</v>
       </c>
       <c r="G167">
         <v>7.0000000000000007E-2</v>
@@ -6976,18 +6940,18 @@
         <v>17</v>
       </c>
       <c r="M167" t="s">
-        <v>376</v>
+        <v>337</v>
       </c>
       <c r="N167" t="s">
-        <v>368</v>
+        <v>329</v>
       </c>
     </row>
     <row r="168" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
-        <v>366</v>
+        <v>327</v>
       </c>
       <c r="B168" t="s">
-        <v>372</v>
+        <v>333</v>
       </c>
       <c r="C168" s="2">
         <v>6982267355785</v>
@@ -6999,1603 +6963,2903 @@
         <v>43278.884722222225</v>
       </c>
       <c r="F168" s="1" t="s">
-        <v>373</v>
+        <v>334</v>
       </c>
       <c r="N168" t="s">
-        <v>368</v>
+        <v>329</v>
       </c>
     </row>
     <row r="169" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
-        <v>366</v>
+        <v>327</v>
       </c>
       <c r="B169" s="3" t="s">
-        <v>280</v>
+        <v>241</v>
       </c>
       <c r="C169" s="2">
         <v>6985863359293</v>
       </c>
       <c r="D169" t="s">
-        <v>367</v>
+        <v>328</v>
       </c>
       <c r="E169" s="1">
         <v>43278.638888888891</v>
       </c>
       <c r="F169" s="1" t="s">
-        <v>272</v>
+        <v>233</v>
       </c>
       <c r="N169" t="s">
-        <v>368</v>
+        <v>329</v>
       </c>
     </row>
     <row r="170" spans="1:14" x14ac:dyDescent="0.2">
       <c r="F170" s="1"/>
     </row>
     <row r="171" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B171" t="s">
+      <c r="F171" s="1"/>
+    </row>
+    <row r="172" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A172" t="s">
+        <v>338</v>
+      </c>
+      <c r="B172" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="C172" s="2">
+        <v>6981270353841</v>
+      </c>
+      <c r="D172" t="s">
+        <v>324</v>
+      </c>
+      <c r="E172" s="1">
+        <v>43279.256944444445</v>
+      </c>
+      <c r="F172" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="N172" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="173" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A173" t="s">
+        <v>338</v>
+      </c>
+      <c r="B173" t="s">
+        <v>243</v>
+      </c>
+      <c r="C173" s="2">
+        <v>6980968353518</v>
+      </c>
+      <c r="D173" t="s">
+        <v>83</v>
+      </c>
+      <c r="E173" s="1">
+        <v>43279.265277777777</v>
+      </c>
+      <c r="F173" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="N173" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="174" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A174" t="s">
+        <v>338</v>
+      </c>
+      <c r="B174" t="s">
+        <v>234</v>
+      </c>
+      <c r="C174" s="2">
+        <v>6980970353513</v>
+      </c>
+      <c r="D174" t="s">
+        <v>15</v>
+      </c>
+      <c r="E174" s="1">
+        <v>43279.265972222223</v>
+      </c>
+      <c r="F174" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="G174">
+        <v>0.06</v>
+      </c>
+      <c r="H174">
+        <v>90</v>
+      </c>
+      <c r="K174">
+        <v>1</v>
+      </c>
+      <c r="L174">
+        <v>1</v>
+      </c>
+      <c r="M174" t="s">
+        <v>284</v>
+      </c>
+      <c r="N174" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="175" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A175" t="s">
+        <v>338</v>
+      </c>
+      <c r="B175" t="s">
+        <v>236</v>
+      </c>
+      <c r="C175" s="2">
+        <v>6980945353432</v>
+      </c>
+      <c r="D175" t="s">
+        <v>38</v>
+      </c>
+      <c r="E175" s="1">
+        <v>43279.268055555556</v>
+      </c>
+      <c r="F175" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="G175">
+        <v>0.12</v>
+      </c>
+      <c r="H175">
+        <v>270</v>
+      </c>
+      <c r="K175">
+        <v>1</v>
+      </c>
+      <c r="L175">
+        <v>1</v>
+      </c>
+      <c r="M175" t="s">
+        <v>284</v>
+      </c>
+      <c r="N175" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="176" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A176" t="s">
+        <v>338</v>
+      </c>
+      <c r="B176" t="s">
+        <v>237</v>
+      </c>
+      <c r="C176" s="2">
+        <v>6980935353395</v>
+      </c>
+      <c r="D176" t="s">
         <v>99</v>
       </c>
-      <c r="C171" s="2">
-        <v>6980968353518</v>
-      </c>
-      <c r="D171" t="s">
-        <v>83</v>
-      </c>
-      <c r="E171" s="1">
-        <v>43279.265277777777</v>
-      </c>
-      <c r="F171" s="1"/>
-    </row>
-    <row r="172" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B172" t="s">
+      <c r="E176" s="1">
+        <v>43279.270138888889</v>
+      </c>
+      <c r="F176" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="G176">
+        <v>0.17</v>
+      </c>
+      <c r="H176">
+        <v>90</v>
+      </c>
+      <c r="K176">
+        <v>1</v>
+      </c>
+      <c r="L176">
+        <v>19</v>
+      </c>
+      <c r="M176" t="s">
+        <v>284</v>
+      </c>
+      <c r="N176" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="177" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A177" t="s">
+        <v>338</v>
+      </c>
+      <c r="B177" t="s">
+        <v>237</v>
+      </c>
+      <c r="C177" s="2">
+        <v>6980935353395</v>
+      </c>
+      <c r="D177" t="s">
+        <v>99</v>
+      </c>
+      <c r="E177" s="1">
+        <v>43279.270138888889</v>
+      </c>
+      <c r="F177" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="G177">
+        <v>3.42</v>
+      </c>
+      <c r="H177">
+        <v>90</v>
+      </c>
+      <c r="K177">
+        <v>1</v>
+      </c>
+      <c r="L177">
+        <v>20</v>
+      </c>
+      <c r="M177" t="s">
+        <v>284</v>
+      </c>
+      <c r="N177" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="178" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A178" t="s">
+        <v>338</v>
+      </c>
+      <c r="B178" t="s">
+        <v>237</v>
+      </c>
+      <c r="C178" s="2">
+        <v>6980935353395</v>
+      </c>
+      <c r="D178" t="s">
+        <v>99</v>
+      </c>
+      <c r="E178" s="1">
+        <v>43279.270138888889</v>
+      </c>
+      <c r="F178" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="G178">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="H178">
+        <v>90</v>
+      </c>
+      <c r="K178">
+        <v>1</v>
+      </c>
+      <c r="L178">
+        <v>23</v>
+      </c>
+      <c r="M178" t="s">
+        <v>284</v>
+      </c>
+      <c r="N178" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="179" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A179" t="s">
+        <v>338</v>
+      </c>
+      <c r="B179" t="s">
+        <v>243</v>
+      </c>
+      <c r="C179" s="2">
+        <v>6980911353331</v>
+      </c>
+      <c r="D179" t="s">
         <v>100</v>
       </c>
-      <c r="C172" s="2">
-        <v>6980970353513</v>
-      </c>
-      <c r="D172" t="s">
-        <v>15</v>
-      </c>
-      <c r="E172" s="1">
-        <v>43279.265972222223</v>
-      </c>
-      <c r="F172" s="1"/>
-    </row>
-    <row r="173" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B173" t="s">
+      <c r="E179" s="1">
+        <v>43279.273611111108</v>
+      </c>
+      <c r="F179" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="N179" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="180" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A180" t="s">
+        <v>338</v>
+      </c>
+      <c r="B180" t="s">
+        <v>333</v>
+      </c>
+      <c r="C180" s="2">
+        <v>6980602353081</v>
+      </c>
+      <c r="D180" t="s">
         <v>101</v>
       </c>
-      <c r="C173" s="2">
-        <v>6980945353432</v>
-      </c>
-      <c r="D173" t="s">
-        <v>38</v>
-      </c>
-      <c r="E173" s="1">
-        <v>43279.268055555556</v>
-      </c>
-      <c r="F173" s="1"/>
-    </row>
-    <row r="174" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B174" t="s">
+      <c r="E180" s="1">
+        <v>43279.28125</v>
+      </c>
+      <c r="F180" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="G180">
+        <v>271.5</v>
+      </c>
+      <c r="H180">
+        <v>26</v>
+      </c>
+      <c r="L180">
+        <v>1</v>
+      </c>
+      <c r="N180" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="181" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A181" t="s">
+        <v>338</v>
+      </c>
+      <c r="B181" t="s">
+        <v>238</v>
+      </c>
+      <c r="C181" s="2">
+        <v>6980431352927</v>
+      </c>
+      <c r="D181" t="s">
         <v>102</v>
       </c>
-      <c r="C174" s="2">
-        <v>6980935353395</v>
-      </c>
-      <c r="D174" t="s">
+      <c r="E181" s="1">
+        <v>43279.284722222219</v>
+      </c>
+      <c r="F181" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="G181">
+        <v>1.08</v>
+      </c>
+      <c r="H181">
+        <v>270</v>
+      </c>
+      <c r="K181">
+        <v>1</v>
+      </c>
+      <c r="L181">
+        <v>7</v>
+      </c>
+      <c r="M181" t="s">
+        <v>340</v>
+      </c>
+      <c r="N181" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="182" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A182" t="s">
+        <v>338</v>
+      </c>
+      <c r="B182" t="s">
+        <v>239</v>
+      </c>
+      <c r="C182" s="2">
+        <v>6980212352665</v>
+      </c>
+      <c r="D182" t="s">
         <v>103</v>
       </c>
-      <c r="E174" s="1">
-        <v>43279.270138888889</v>
-      </c>
-      <c r="F174" s="1"/>
-    </row>
-    <row r="175" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B175" t="s">
+      <c r="E182" s="1">
+        <v>43279.290972222225</v>
+      </c>
+      <c r="F182" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="G182">
+        <v>1.1200000000000001</v>
+      </c>
+      <c r="H182">
+        <v>90</v>
+      </c>
+      <c r="K182">
+        <v>1</v>
+      </c>
+      <c r="L182">
+        <v>20</v>
+      </c>
+      <c r="M182" t="s">
+        <v>340</v>
+      </c>
+      <c r="N182" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="183" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A183" t="s">
+        <v>338</v>
+      </c>
+      <c r="B183" t="s">
+        <v>240</v>
+      </c>
+      <c r="C183" s="2">
+        <v>6980059352518</v>
+      </c>
+      <c r="D183" t="s">
         <v>104</v>
       </c>
-      <c r="C175" s="2">
-        <v>6980911353331</v>
-      </c>
-      <c r="D175" t="s">
+      <c r="E183" s="1">
+        <v>43279.296527777777</v>
+      </c>
+      <c r="F183" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="G183">
+        <v>0.41</v>
+      </c>
+      <c r="H183">
+        <v>270</v>
+      </c>
+      <c r="K183">
+        <v>1</v>
+      </c>
+      <c r="L183">
+        <v>5</v>
+      </c>
+      <c r="M183" t="s">
+        <v>341</v>
+      </c>
+      <c r="N183" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="184" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A184" t="s">
+        <v>338</v>
+      </c>
+      <c r="B184" t="s">
+        <v>245</v>
+      </c>
+      <c r="C184" s="2">
+        <v>6980047352508</v>
+      </c>
+      <c r="D184" t="s">
         <v>105</v>
       </c>
-      <c r="E175" s="1">
-        <v>43279.273611111108</v>
-      </c>
-      <c r="F175" s="1"/>
-    </row>
-    <row r="176" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B176" t="s">
-        <v>106</v>
-      </c>
-      <c r="C176" s="2">
-        <v>6980602353081</v>
-      </c>
-      <c r="D176" t="s">
-        <v>107</v>
-      </c>
-      <c r="E176" s="1">
-        <v>43279.28125</v>
-      </c>
-      <c r="F176" s="1"/>
-    </row>
-    <row r="177" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B177" t="s">
-        <v>108</v>
-      </c>
-      <c r="C177" s="2">
-        <v>6980431352927</v>
-      </c>
-      <c r="D177" t="s">
-        <v>109</v>
-      </c>
-      <c r="E177" s="1">
-        <v>43279.284722222219</v>
-      </c>
-      <c r="F177" s="1"/>
-    </row>
-    <row r="178" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B178" t="s">
-        <v>110</v>
-      </c>
-      <c r="C178" s="2">
-        <v>6980212352665</v>
-      </c>
-      <c r="D178" t="s">
-        <v>111</v>
-      </c>
-      <c r="E178" s="1">
-        <v>43279.290972222225</v>
-      </c>
-      <c r="F178" s="1"/>
-    </row>
-    <row r="179" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B179" t="s">
-        <v>112</v>
-      </c>
-      <c r="C179" s="2">
-        <v>6980059352518</v>
-      </c>
-      <c r="D179" t="s">
-        <v>113</v>
-      </c>
-      <c r="E179" s="1">
-        <v>43279.296527777777</v>
-      </c>
-      <c r="F179" s="1"/>
-    </row>
-    <row r="180" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B180" t="s">
-        <v>114</v>
-      </c>
-      <c r="C180" s="2">
-        <v>6980047352508</v>
-      </c>
-      <c r="D180" t="s">
-        <v>115</v>
-      </c>
-      <c r="E180" s="1">
+      <c r="E184" s="1">
         <v>43279.29791666667</v>
       </c>
-      <c r="F180" s="1"/>
-    </row>
-    <row r="181" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B181" t="s">
-        <v>116</v>
-      </c>
-      <c r="C181" s="2">
+      <c r="F184" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="G184">
+        <v>0.72</v>
+      </c>
+      <c r="H184">
+        <v>270</v>
+      </c>
+      <c r="K184">
+        <v>1</v>
+      </c>
+      <c r="L184">
+        <v>39</v>
+      </c>
+      <c r="M184" t="s">
+        <v>269</v>
+      </c>
+      <c r="N184" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="185" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A185" t="s">
+        <v>338</v>
+      </c>
+      <c r="B185" t="s">
+        <v>246</v>
+      </c>
+      <c r="C185" s="2">
         <v>6979533352050</v>
       </c>
-      <c r="D181" t="s">
+      <c r="D185" t="s">
         <v>46</v>
       </c>
-      <c r="E181" s="1">
+      <c r="E185" s="1">
         <v>43279.30972222222</v>
       </c>
-      <c r="F181" s="1"/>
-    </row>
-    <row r="182" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B182" t="s">
-        <v>117</v>
-      </c>
-      <c r="C182" s="2">
+      <c r="F185" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="G185">
+        <v>0.49</v>
+      </c>
+      <c r="H185">
+        <v>90</v>
+      </c>
+      <c r="K185">
+        <v>1</v>
+      </c>
+      <c r="L185">
+        <v>1</v>
+      </c>
+      <c r="M185" t="s">
+        <v>284</v>
+      </c>
+      <c r="N185" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="186" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A186" t="s">
+        <v>338</v>
+      </c>
+      <c r="B186" t="s">
+        <v>247</v>
+      </c>
+      <c r="C186" s="2">
         <v>6979485352018</v>
-      </c>
-      <c r="D182" t="s">
-        <v>46</v>
-      </c>
-      <c r="E182" s="1">
-        <v>43279.311805555553</v>
-      </c>
-      <c r="F182" s="1"/>
-    </row>
-    <row r="183" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B183" t="s">
-        <v>118</v>
-      </c>
-      <c r="C183" s="2">
-        <v>6979450352004</v>
-      </c>
-      <c r="D183" t="s">
-        <v>119</v>
-      </c>
-      <c r="E183" s="1">
-        <v>43279.313194444447</v>
-      </c>
-      <c r="F183" s="1"/>
-    </row>
-    <row r="184" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B184" t="s">
-        <v>120</v>
-      </c>
-      <c r="C184" s="2">
-        <v>6979451352005</v>
-      </c>
-      <c r="D184" t="s">
-        <v>119</v>
-      </c>
-      <c r="E184" s="1">
-        <v>43279.313888888886</v>
-      </c>
-      <c r="F184" s="1"/>
-    </row>
-    <row r="185" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B185" t="s">
-        <v>121</v>
-      </c>
-      <c r="C185" s="2">
-        <v>6979455352012</v>
-      </c>
-      <c r="D185" t="s">
-        <v>122</v>
-      </c>
-      <c r="E185" s="1">
-        <v>43279.314583333333</v>
-      </c>
-      <c r="F185" s="1"/>
-    </row>
-    <row r="186" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B186" t="s">
-        <v>123</v>
-      </c>
-      <c r="C186" s="2">
-        <v>6979459352019</v>
       </c>
       <c r="D186" t="s">
         <v>46</v>
       </c>
       <c r="E186" s="1">
+        <v>43279.311805555553</v>
+      </c>
+      <c r="F186" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="G186">
+        <v>0.44</v>
+      </c>
+      <c r="H186">
+        <v>90</v>
+      </c>
+      <c r="K186">
+        <v>1</v>
+      </c>
+      <c r="L186">
+        <v>11</v>
+      </c>
+      <c r="M186" t="s">
+        <v>284</v>
+      </c>
+      <c r="N186" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="187" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A187" t="s">
+        <v>338</v>
+      </c>
+      <c r="B187" t="s">
+        <v>243</v>
+      </c>
+      <c r="C187" s="2">
+        <v>6979450352004</v>
+      </c>
+      <c r="D187" t="s">
+        <v>106</v>
+      </c>
+      <c r="E187" s="1">
+        <v>43279.313194444447</v>
+      </c>
+      <c r="F187" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="N187" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="188" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A188" t="s">
+        <v>338</v>
+      </c>
+      <c r="B188" t="s">
+        <v>248</v>
+      </c>
+      <c r="C188" s="2">
+        <v>6979451352005</v>
+      </c>
+      <c r="D188" t="s">
+        <v>106</v>
+      </c>
+      <c r="E188" s="1">
+        <v>43279.313888888886</v>
+      </c>
+      <c r="F188" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="G188">
+        <v>0.11</v>
+      </c>
+      <c r="H188">
+        <v>270</v>
+      </c>
+      <c r="K188">
+        <v>1</v>
+      </c>
+      <c r="L188">
+        <v>16</v>
+      </c>
+      <c r="M188" t="s">
+        <v>263</v>
+      </c>
+      <c r="N188" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="189" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A189" t="s">
+        <v>338</v>
+      </c>
+      <c r="B189" t="s">
+        <v>249</v>
+      </c>
+      <c r="C189" s="2">
+        <v>6979455352012</v>
+      </c>
+      <c r="D189" t="s">
+        <v>107</v>
+      </c>
+      <c r="E189" s="1">
+        <v>43279.314583333333</v>
+      </c>
+      <c r="F189" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="G189">
+        <v>0.08</v>
+      </c>
+      <c r="H189">
+        <v>90</v>
+      </c>
+      <c r="K189">
+        <v>1</v>
+      </c>
+      <c r="L189">
+        <v>2</v>
+      </c>
+      <c r="M189" t="s">
+        <v>284</v>
+      </c>
+      <c r="N189" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="190" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A190" t="s">
+        <v>338</v>
+      </c>
+      <c r="B190" t="s">
+        <v>252</v>
+      </c>
+      <c r="C190" s="2">
+        <v>6979459352019</v>
+      </c>
+      <c r="D190" t="s">
+        <v>46</v>
+      </c>
+      <c r="E190" s="1">
         <v>43279.31527777778</v>
       </c>
-      <c r="F186" s="1"/>
-    </row>
-    <row r="187" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B187" t="s">
-        <v>124</v>
-      </c>
-      <c r="C187" s="2">
+      <c r="F190" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="G190">
+        <v>1.04</v>
+      </c>
+      <c r="H190">
+        <v>270</v>
+      </c>
+      <c r="K190">
+        <v>1</v>
+      </c>
+      <c r="L190">
+        <v>1</v>
+      </c>
+      <c r="M190" t="s">
+        <v>284</v>
+      </c>
+      <c r="N190" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="191" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A191" t="s">
+        <v>338</v>
+      </c>
+      <c r="B191" t="s">
+        <v>243</v>
+      </c>
+      <c r="C191" s="2">
         <v>6979457352096</v>
       </c>
-      <c r="D187" t="s">
-        <v>125</v>
-      </c>
-      <c r="E187" s="1">
+      <c r="D191" t="s">
+        <v>108</v>
+      </c>
+      <c r="E191" s="1">
         <v>43279.318749999999</v>
       </c>
-      <c r="F187" s="1"/>
-    </row>
-    <row r="188" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B188" t="s">
-        <v>126</v>
-      </c>
-      <c r="C188" s="2">
+      <c r="F191" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="N191" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="192" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A192" t="s">
+        <v>338</v>
+      </c>
+      <c r="B192" t="s">
+        <v>253</v>
+      </c>
+      <c r="C192" s="2">
         <v>6979451352092</v>
       </c>
-      <c r="D188" t="s">
-        <v>125</v>
-      </c>
-      <c r="E188" s="1">
+      <c r="D192" t="s">
+        <v>108</v>
+      </c>
+      <c r="E192" s="1">
         <v>43279.318749999999</v>
       </c>
-      <c r="F188" s="1"/>
-    </row>
-    <row r="189" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B189" t="s">
-        <v>127</v>
-      </c>
-      <c r="C189" s="2">
+      <c r="F192" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="G192">
+        <v>0.47</v>
+      </c>
+      <c r="H192">
+        <v>270</v>
+      </c>
+      <c r="K192">
+        <v>1</v>
+      </c>
+      <c r="L192">
+        <v>14</v>
+      </c>
+      <c r="M192" t="s">
+        <v>284</v>
+      </c>
+      <c r="N192" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="193" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A193" t="s">
+        <v>338</v>
+      </c>
+      <c r="B193" t="s">
+        <v>254</v>
+      </c>
+      <c r="C193" s="2">
         <v>6979362352012</v>
       </c>
-      <c r="D189" t="s">
-        <v>128</v>
-      </c>
-      <c r="E189" s="1">
+      <c r="D193" t="s">
+        <v>109</v>
+      </c>
+      <c r="E193" s="1">
         <v>43279.321527777778</v>
       </c>
-      <c r="F189" s="1"/>
-    </row>
-    <row r="190" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B190" t="s">
-        <v>129</v>
-      </c>
-      <c r="C190" s="2">
+      <c r="F193" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="G193">
+        <v>0.05</v>
+      </c>
+      <c r="H193">
+        <v>270</v>
+      </c>
+      <c r="K193">
+        <v>1</v>
+      </c>
+      <c r="L193">
+        <v>1</v>
+      </c>
+      <c r="M193" t="s">
+        <v>284</v>
+      </c>
+      <c r="N193" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="194" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A194" t="s">
+        <v>338</v>
+      </c>
+      <c r="B194" t="s">
+        <v>289</v>
+      </c>
+      <c r="C194" s="2">
         <v>6979058351708</v>
       </c>
-      <c r="D190" t="s">
-        <v>130</v>
-      </c>
-      <c r="E190" s="1">
+      <c r="D194" t="s">
+        <v>110</v>
+      </c>
+      <c r="E194" s="1">
         <v>43279.32708333333</v>
       </c>
-      <c r="F190" s="1"/>
-    </row>
-    <row r="191" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B191" t="s">
-        <v>131</v>
-      </c>
-      <c r="C191" s="2">
+      <c r="F194" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="G194">
+        <v>0.16</v>
+      </c>
+      <c r="H194">
+        <v>270</v>
+      </c>
+      <c r="K194">
+        <v>1</v>
+      </c>
+      <c r="L194">
+        <v>1</v>
+      </c>
+      <c r="M194" t="s">
+        <v>263</v>
+      </c>
+      <c r="N194" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="195" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A195" t="s">
+        <v>338</v>
+      </c>
+      <c r="B195" s="3" t="s">
+        <v>342</v>
+      </c>
+      <c r="C195" s="2">
+        <v>6978333351234</v>
+      </c>
+      <c r="D195" t="s">
+        <v>343</v>
+      </c>
+      <c r="E195" s="1">
+        <v>43277.337500000001</v>
+      </c>
+      <c r="F195" s="1" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="196" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A196" t="s">
+        <v>338</v>
+      </c>
+      <c r="B196" t="s">
+        <v>292</v>
+      </c>
+      <c r="C196" s="2">
         <v>6978301351443</v>
       </c>
-      <c r="D191" t="s">
-        <v>132</v>
-      </c>
-      <c r="E191" s="1">
+      <c r="D196" t="s">
+        <v>111</v>
+      </c>
+      <c r="E196" s="1">
         <v>43279.341666666667</v>
       </c>
-      <c r="F191" s="1"/>
-    </row>
-    <row r="192" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B192" t="s">
-        <v>133</v>
-      </c>
-      <c r="C192" s="2">
+      <c r="F196" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="G196">
+        <v>0.09</v>
+      </c>
+      <c r="H196">
+        <v>270</v>
+      </c>
+      <c r="K196">
+        <v>1</v>
+      </c>
+      <c r="L196">
+        <v>1</v>
+      </c>
+      <c r="M196" t="s">
+        <v>263</v>
+      </c>
+      <c r="N196" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="197" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A197" t="s">
+        <v>338</v>
+      </c>
+      <c r="B197" t="s">
+        <v>293</v>
+      </c>
+      <c r="C197" s="2">
         <v>6978297351472</v>
       </c>
-      <c r="D192" t="s">
+      <c r="D197" t="s">
         <v>22</v>
       </c>
-      <c r="E192" s="1">
+      <c r="E197" s="1">
         <v>43279.342361111114</v>
       </c>
-      <c r="F192" s="1"/>
-    </row>
-    <row r="193" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B193" t="s">
-        <v>134</v>
-      </c>
-      <c r="C193" s="2">
+      <c r="F197" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="G197">
+        <v>0.52</v>
+      </c>
+      <c r="H197">
+        <v>270</v>
+      </c>
+      <c r="K197">
+        <v>1</v>
+      </c>
+      <c r="L197">
+        <v>2</v>
+      </c>
+      <c r="M197" t="s">
+        <v>284</v>
+      </c>
+      <c r="N197" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="198" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A198" t="s">
+        <v>338</v>
+      </c>
+      <c r="B198" t="s">
+        <v>295</v>
+      </c>
+      <c r="C198" s="2">
         <v>6978291351490</v>
       </c>
-      <c r="D193" t="s">
+      <c r="D198" t="s">
         <v>23</v>
       </c>
-      <c r="E193" s="1">
+      <c r="E198" s="1">
         <v>43279.34375</v>
       </c>
-      <c r="F193" s="1"/>
-    </row>
-    <row r="194" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B194" t="s">
-        <v>135</v>
-      </c>
-      <c r="C194" s="2">
+      <c r="F198" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="G198">
+        <v>0.38</v>
+      </c>
+      <c r="H198">
+        <v>90</v>
+      </c>
+      <c r="K198">
+        <v>1</v>
+      </c>
+      <c r="L198">
+        <v>1</v>
+      </c>
+      <c r="M198" t="s">
+        <v>284</v>
+      </c>
+      <c r="N198" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="199" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A199" t="s">
+        <v>338</v>
+      </c>
+      <c r="B199" t="s">
+        <v>301</v>
+      </c>
+      <c r="C199" s="2">
         <v>6977910352784</v>
       </c>
-      <c r="D194" t="s">
-        <v>136</v>
-      </c>
-      <c r="E194" s="1">
+      <c r="D199" t="s">
+        <v>112</v>
+      </c>
+      <c r="E199" s="1">
         <v>43279.414583333331</v>
       </c>
-      <c r="F194" s="1"/>
-    </row>
-    <row r="195" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B195" t="s">
-        <v>137</v>
-      </c>
-      <c r="C195" s="2">
+      <c r="F199" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="G199">
+        <v>0.5</v>
+      </c>
+      <c r="H199">
+        <v>90</v>
+      </c>
+      <c r="K199">
+        <v>1</v>
+      </c>
+      <c r="L199">
+        <v>5</v>
+      </c>
+      <c r="M199" t="s">
+        <v>344</v>
+      </c>
+      <c r="N199" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="200" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A200" t="s">
+        <v>338</v>
+      </c>
+      <c r="B200" t="s">
+        <v>302</v>
+      </c>
+      <c r="C200" s="2">
         <v>6977860353046</v>
       </c>
-      <c r="D195" t="s">
+      <c r="D200" t="s">
         <v>29</v>
       </c>
-      <c r="E195" s="1">
+      <c r="E200" s="1">
         <v>43279.419444444444</v>
       </c>
-      <c r="F195" s="1"/>
-    </row>
-    <row r="196" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B196" t="s">
-        <v>138</v>
-      </c>
-      <c r="C196" s="2">
+      <c r="F200" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="G200">
+        <v>0.16</v>
+      </c>
+      <c r="H200">
+        <v>270</v>
+      </c>
+      <c r="K200">
+        <v>1</v>
+      </c>
+      <c r="L200">
+        <v>5</v>
+      </c>
+      <c r="M200" t="s">
+        <v>263</v>
+      </c>
+      <c r="N200" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="201" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A201" t="s">
+        <v>338</v>
+      </c>
+      <c r="B201" t="s">
+        <v>303</v>
+      </c>
+      <c r="C201" s="2">
         <v>6977861353067</v>
-      </c>
-      <c r="D196" t="s">
-        <v>29</v>
-      </c>
-      <c r="E196" s="1">
-        <v>43279.42083333333</v>
-      </c>
-      <c r="F196" s="1"/>
-    </row>
-    <row r="197" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B197" t="s">
-        <v>139</v>
-      </c>
-      <c r="C197" s="2">
-        <v>6977865353087</v>
-      </c>
-      <c r="D197" t="s">
-        <v>77</v>
-      </c>
-      <c r="E197" s="1">
-        <v>43279.422222222223</v>
-      </c>
-      <c r="F197" s="1"/>
-    </row>
-    <row r="198" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B198" t="s">
-        <v>140</v>
-      </c>
-      <c r="C198" s="2">
-        <v>6977856353173</v>
-      </c>
-      <c r="D198" t="s">
-        <v>15</v>
-      </c>
-      <c r="E198" s="1">
-        <v>43279.424305555556</v>
-      </c>
-      <c r="F198" s="1"/>
-    </row>
-    <row r="199" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B199" t="s">
-        <v>141</v>
-      </c>
-      <c r="C199" s="2">
-        <v>6977844353209</v>
-      </c>
-      <c r="D199" t="s">
-        <v>77</v>
-      </c>
-      <c r="E199" s="1">
-        <v>43279.425694444442</v>
-      </c>
-      <c r="F199" s="1"/>
-    </row>
-    <row r="200" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B200" t="s">
-        <v>142</v>
-      </c>
-      <c r="C200" s="2">
-        <v>6977797353337</v>
-      </c>
-      <c r="D200" t="s">
-        <v>52</v>
-      </c>
-      <c r="E200" s="1">
-        <v>43279.428472222222</v>
-      </c>
-      <c r="F200" s="1"/>
-    </row>
-    <row r="201" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B201" t="s">
-        <v>143</v>
-      </c>
-      <c r="C201" s="2">
-        <v>6977575354652</v>
       </c>
       <c r="D201" t="s">
         <v>29</v>
       </c>
       <c r="E201" s="1">
+        <v>43279.42083333333</v>
+      </c>
+      <c r="F201" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="G201">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="H201">
+        <v>90</v>
+      </c>
+      <c r="K201">
+        <v>1</v>
+      </c>
+      <c r="L201">
+        <v>22</v>
+      </c>
+      <c r="M201" t="s">
+        <v>263</v>
+      </c>
+      <c r="N201" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="202" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A202" t="s">
+        <v>338</v>
+      </c>
+      <c r="B202" t="s">
+        <v>303</v>
+      </c>
+      <c r="C202" s="2">
+        <v>6977861353067</v>
+      </c>
+      <c r="D202" t="s">
+        <v>29</v>
+      </c>
+      <c r="E202" s="1">
+        <v>43279.42083333333</v>
+      </c>
+      <c r="F202" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="G202">
+        <v>1.19</v>
+      </c>
+      <c r="H202">
+        <v>90</v>
+      </c>
+      <c r="K202">
+        <v>1</v>
+      </c>
+      <c r="L202">
+        <v>33</v>
+      </c>
+      <c r="M202" t="s">
+        <v>263</v>
+      </c>
+      <c r="N202" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="203" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A203" t="s">
+        <v>338</v>
+      </c>
+      <c r="B203" t="s">
+        <v>303</v>
+      </c>
+      <c r="C203" s="2">
+        <v>6977861353067</v>
+      </c>
+      <c r="D203" t="s">
+        <v>29</v>
+      </c>
+      <c r="E203" s="1">
+        <v>43279.42083333333</v>
+      </c>
+      <c r="F203" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="G203">
+        <v>0.61</v>
+      </c>
+      <c r="H203">
+        <v>90</v>
+      </c>
+      <c r="K203">
+        <v>1</v>
+      </c>
+      <c r="L203">
+        <v>15</v>
+      </c>
+      <c r="M203" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="204" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A204" t="s">
+        <v>338</v>
+      </c>
+      <c r="B204" t="s">
+        <v>345</v>
+      </c>
+      <c r="C204" s="2">
+        <v>6977865353087</v>
+      </c>
+      <c r="D204" t="s">
+        <v>77</v>
+      </c>
+      <c r="E204" s="1">
+        <v>43279.422222222223</v>
+      </c>
+      <c r="F204" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="G204">
+        <v>0.03</v>
+      </c>
+      <c r="H204">
+        <v>270</v>
+      </c>
+      <c r="K204">
+        <v>1</v>
+      </c>
+      <c r="L204">
+        <v>4</v>
+      </c>
+      <c r="M204" t="s">
+        <v>284</v>
+      </c>
+      <c r="N204" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="205" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A205" t="s">
+        <v>338</v>
+      </c>
+      <c r="B205" t="s">
+        <v>346</v>
+      </c>
+      <c r="C205" s="2">
+        <v>6977856353173</v>
+      </c>
+      <c r="D205" t="s">
+        <v>15</v>
+      </c>
+      <c r="E205" s="1">
+        <v>43279.424305555556</v>
+      </c>
+      <c r="F205" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="G205">
+        <v>1.29</v>
+      </c>
+      <c r="H205">
+        <v>270</v>
+      </c>
+      <c r="K205">
+        <v>1</v>
+      </c>
+      <c r="L205">
+        <v>38</v>
+      </c>
+      <c r="M205" t="s">
+        <v>284</v>
+      </c>
+      <c r="N205" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="206" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A206" t="s">
+        <v>338</v>
+      </c>
+      <c r="B206" t="s">
+        <v>347</v>
+      </c>
+      <c r="C206" s="2">
+        <v>6977844353209</v>
+      </c>
+      <c r="D206" t="s">
+        <v>77</v>
+      </c>
+      <c r="E206" s="1">
+        <v>43279.425694444442</v>
+      </c>
+      <c r="F206" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="G206">
+        <v>0.15</v>
+      </c>
+      <c r="H206">
+        <v>270</v>
+      </c>
+      <c r="K206">
+        <v>1</v>
+      </c>
+      <c r="L206">
+        <v>5</v>
+      </c>
+      <c r="M206" t="s">
+        <v>284</v>
+      </c>
+      <c r="N206" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="207" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A207" t="s">
+        <v>338</v>
+      </c>
+      <c r="B207" t="s">
+        <v>348</v>
+      </c>
+      <c r="C207" s="2">
+        <v>6977797353337</v>
+      </c>
+      <c r="D207" t="s">
+        <v>52</v>
+      </c>
+      <c r="E207" s="1">
+        <v>43279.428472222222</v>
+      </c>
+      <c r="F207" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="G207">
+        <v>0.36</v>
+      </c>
+      <c r="H207">
+        <v>270</v>
+      </c>
+      <c r="K207">
+        <v>1</v>
+      </c>
+      <c r="L207">
+        <v>2</v>
+      </c>
+      <c r="M207" t="s">
+        <v>284</v>
+      </c>
+      <c r="N207" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="208" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A208" t="s">
+        <v>338</v>
+      </c>
+      <c r="B208" t="s">
+        <v>349</v>
+      </c>
+      <c r="C208" s="2">
+        <v>6977575354652</v>
+      </c>
+      <c r="D208" t="s">
+        <v>29</v>
+      </c>
+      <c r="E208" s="1">
         <v>43279.447222222225</v>
       </c>
-      <c r="F201" s="1"/>
-    </row>
-    <row r="202" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B202" t="s">
-        <v>144</v>
-      </c>
-      <c r="C202" s="2">
+      <c r="F208" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="G208">
+        <v>0.21</v>
+      </c>
+      <c r="H208">
+        <v>90</v>
+      </c>
+      <c r="K208">
+        <v>1</v>
+      </c>
+      <c r="L208">
+        <v>10</v>
+      </c>
+      <c r="M208" t="s">
+        <v>350</v>
+      </c>
+      <c r="N208" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="209" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A209" t="s">
+        <v>338</v>
+      </c>
+      <c r="B209" t="s">
+        <v>349</v>
+      </c>
+      <c r="C209" s="2">
+        <v>6977575354652</v>
+      </c>
+      <c r="D209" t="s">
+        <v>29</v>
+      </c>
+      <c r="E209" s="1">
+        <v>43279.447222222225</v>
+      </c>
+      <c r="F209" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="G209">
+        <v>0.51</v>
+      </c>
+      <c r="H209">
+        <v>90</v>
+      </c>
+      <c r="K209">
+        <v>1</v>
+      </c>
+      <c r="L209">
+        <v>15</v>
+      </c>
+      <c r="M209" t="s">
+        <v>350</v>
+      </c>
+      <c r="N209" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="210" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A210" t="s">
+        <v>338</v>
+      </c>
+      <c r="B210" t="s">
+        <v>349</v>
+      </c>
+      <c r="C210" s="2">
+        <v>6977575354652</v>
+      </c>
+      <c r="D210" t="s">
+        <v>29</v>
+      </c>
+      <c r="E210" s="1">
+        <v>43279.447222222225</v>
+      </c>
+      <c r="F210" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="G210">
+        <v>0.38</v>
+      </c>
+      <c r="H210">
+        <v>270</v>
+      </c>
+      <c r="K210">
+        <v>1</v>
+      </c>
+      <c r="L210">
+        <v>5</v>
+      </c>
+      <c r="M210" t="s">
+        <v>284</v>
+      </c>
+      <c r="N210" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="211" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A211" t="s">
+        <v>338</v>
+      </c>
+      <c r="B211" t="s">
+        <v>349</v>
+      </c>
+      <c r="C211" s="2">
+        <v>6977575354652</v>
+      </c>
+      <c r="D211" t="s">
+        <v>29</v>
+      </c>
+      <c r="E211" s="1">
+        <v>43279.447222222225</v>
+      </c>
+      <c r="F211" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="G211">
+        <v>0.52</v>
+      </c>
+      <c r="H211">
+        <v>270</v>
+      </c>
+      <c r="K211">
+        <v>1</v>
+      </c>
+      <c r="L211">
+        <v>17</v>
+      </c>
+      <c r="M211" t="s">
+        <v>312</v>
+      </c>
+      <c r="N211" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="212" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A212" t="s">
+        <v>338</v>
+      </c>
+      <c r="B212" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="C212" s="2">
+        <v>6977503355128</v>
+      </c>
+      <c r="D212" t="s">
+        <v>352</v>
+      </c>
+      <c r="E212" s="1">
+        <v>43277.457638888889</v>
+      </c>
+      <c r="F212" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="N212" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="213" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A213" t="s">
+        <v>338</v>
+      </c>
+      <c r="B213" t="s">
+        <v>351</v>
+      </c>
+      <c r="C213" s="2">
         <v>6978571354702</v>
       </c>
-      <c r="D202" t="s">
+      <c r="D213" t="s">
         <v>98</v>
       </c>
-      <c r="E202" s="1">
+      <c r="E213" s="1">
         <v>43279.47152777778</v>
       </c>
-      <c r="F202" s="1"/>
-    </row>
-    <row r="203" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B203" t="s">
-        <v>145</v>
-      </c>
-      <c r="C203" s="2">
+      <c r="F213" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="G213">
+        <v>0</v>
+      </c>
+      <c r="H213">
+        <v>0</v>
+      </c>
+      <c r="K213">
+        <v>1</v>
+      </c>
+      <c r="L213">
+        <v>3</v>
+      </c>
+      <c r="M213" t="s">
+        <v>284</v>
+      </c>
+      <c r="N213" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="214" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A214" t="s">
+        <v>338</v>
+      </c>
+      <c r="B214" t="s">
+        <v>353</v>
+      </c>
+      <c r="C214" s="2">
         <v>6979142354504</v>
       </c>
-      <c r="D203" t="s">
-        <v>146</v>
-      </c>
-      <c r="E203" s="1">
+      <c r="D214" t="s">
+        <v>113</v>
+      </c>
+      <c r="E214" s="1">
         <v>43279.486805555556</v>
       </c>
-      <c r="F203" s="1"/>
-    </row>
-    <row r="204" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B204" t="s">
-        <v>147</v>
-      </c>
-      <c r="C204" s="2">
+      <c r="F214" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="G214">
+        <v>0</v>
+      </c>
+      <c r="H214">
+        <v>0</v>
+      </c>
+      <c r="K214">
+        <v>1</v>
+      </c>
+      <c r="L214">
+        <v>2</v>
+      </c>
+      <c r="M214" t="s">
+        <v>354</v>
+      </c>
+      <c r="N214" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="215" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A215" t="s">
+        <v>338</v>
+      </c>
+      <c r="B215" t="s">
+        <v>355</v>
+      </c>
+      <c r="C215" s="2">
         <v>6979932354155</v>
       </c>
-      <c r="D204" t="s">
+      <c r="D215" t="s">
         <v>96</v>
       </c>
-      <c r="E204" s="1">
+      <c r="E215" s="1">
         <v>43279.498611111114</v>
       </c>
-      <c r="F204" s="1"/>
-    </row>
-    <row r="205" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B205" t="s">
-        <v>148</v>
-      </c>
-      <c r="C205" s="2">
+      <c r="F215" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="G215">
+        <v>0.18</v>
+      </c>
+      <c r="H215">
+        <v>270</v>
+      </c>
+      <c r="K215">
+        <v>1</v>
+      </c>
+      <c r="L215">
+        <v>1</v>
+      </c>
+      <c r="M215" t="s">
+        <v>284</v>
+      </c>
+      <c r="N215" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="216" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A216" t="s">
+        <v>338</v>
+      </c>
+      <c r="B216" t="s">
+        <v>356</v>
+      </c>
+      <c r="C216" s="2">
         <v>6979961354157</v>
       </c>
-      <c r="D205" t="s">
+      <c r="D216" t="s">
         <v>96</v>
       </c>
-      <c r="E205" s="1">
+      <c r="E216" s="1">
         <v>43279.500694444447</v>
       </c>
-      <c r="F205" s="1"/>
-    </row>
-    <row r="206" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B206" t="s">
-        <v>149</v>
-      </c>
-      <c r="C206" s="2">
+      <c r="F216" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="G216">
+        <v>0</v>
+      </c>
+      <c r="H216">
+        <v>0</v>
+      </c>
+      <c r="K216">
+        <v>1</v>
+      </c>
+      <c r="L216">
+        <v>4</v>
+      </c>
+      <c r="M216" t="s">
+        <v>357</v>
+      </c>
+      <c r="N216" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="217" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A217" t="s">
+        <v>338</v>
+      </c>
+      <c r="B217" t="s">
+        <v>358</v>
+      </c>
+      <c r="C217" s="2">
         <v>6980285354065</v>
       </c>
-      <c r="D206" t="s">
+      <c r="D217" t="s">
         <v>87</v>
       </c>
-      <c r="E206" s="1">
+      <c r="E217" s="1">
         <v>43279.506944444445</v>
       </c>
-      <c r="F206" s="1"/>
-    </row>
-    <row r="207" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B207" t="s">
-        <v>150</v>
-      </c>
-      <c r="C207" s="2">
+      <c r="F217" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="G217">
+        <v>0.02</v>
+      </c>
+      <c r="H217">
+        <v>270</v>
+      </c>
+      <c r="K217">
+        <v>1</v>
+      </c>
+      <c r="L217">
+        <v>10</v>
+      </c>
+      <c r="M217" t="s">
+        <v>359</v>
+      </c>
+      <c r="N217" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="218" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A218" t="s">
+        <v>338</v>
+      </c>
+      <c r="B218" t="s">
+        <v>358</v>
+      </c>
+      <c r="C218" s="2">
+        <v>6980285354065</v>
+      </c>
+      <c r="D218" t="s">
+        <v>87</v>
+      </c>
+      <c r="E218" s="1">
+        <v>43279.506944444445</v>
+      </c>
+      <c r="F218" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="G218">
+        <v>0.03</v>
+      </c>
+      <c r="H218">
+        <v>90</v>
+      </c>
+      <c r="K218">
+        <v>1</v>
+      </c>
+      <c r="L218">
+        <v>5</v>
+      </c>
+      <c r="M218" t="s">
+        <v>359</v>
+      </c>
+      <c r="N218" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="219" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A219" t="s">
+        <v>338</v>
+      </c>
+      <c r="B219" t="s">
+        <v>358</v>
+      </c>
+      <c r="C219" s="2">
+        <v>6980285354065</v>
+      </c>
+      <c r="D219" t="s">
+        <v>87</v>
+      </c>
+      <c r="E219" s="1">
+        <v>43279.506944444445</v>
+      </c>
+      <c r="F219" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="G219">
+        <v>0.38</v>
+      </c>
+      <c r="H219">
+        <v>270</v>
+      </c>
+      <c r="K219">
+        <v>1</v>
+      </c>
+      <c r="L219">
+        <v>13</v>
+      </c>
+      <c r="M219" t="s">
+        <v>359</v>
+      </c>
+      <c r="N219" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="220" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A220" t="s">
+        <v>338</v>
+      </c>
+      <c r="B220" t="s">
+        <v>358</v>
+      </c>
+      <c r="C220" s="2">
+        <v>6980285354065</v>
+      </c>
+      <c r="D220" t="s">
+        <v>87</v>
+      </c>
+      <c r="E220" s="1">
+        <v>43279.506944444445</v>
+      </c>
+      <c r="F220" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="G220">
+        <v>1.35</v>
+      </c>
+      <c r="H220">
+        <v>270</v>
+      </c>
+      <c r="K220">
+        <v>1</v>
+      </c>
+      <c r="L220">
+        <v>5</v>
+      </c>
+      <c r="M220" t="s">
+        <v>359</v>
+      </c>
+      <c r="N220" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="221" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A221" t="s">
+        <v>338</v>
+      </c>
+      <c r="B221" t="s">
+        <v>360</v>
+      </c>
+      <c r="C221" s="2">
         <v>6980874353935</v>
       </c>
-      <c r="D207" t="s">
+      <c r="D221" t="s">
         <v>87</v>
       </c>
-      <c r="E207" s="1">
+      <c r="E221" s="1">
         <v>43279.515972222223</v>
       </c>
-      <c r="F207" s="1"/>
-    </row>
-    <row r="208" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B208" t="s">
-        <v>151</v>
-      </c>
-      <c r="C208" s="2">
+      <c r="F221" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="G221">
+        <v>0.38</v>
+      </c>
+      <c r="H221">
+        <v>270</v>
+      </c>
+      <c r="K221">
+        <v>1</v>
+      </c>
+      <c r="L221">
+        <v>1</v>
+      </c>
+      <c r="M221" t="s">
+        <v>263</v>
+      </c>
+      <c r="N221" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="222" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A222" t="s">
+        <v>338</v>
+      </c>
+      <c r="B222" t="s">
+        <v>361</v>
+      </c>
+      <c r="C222" s="2">
         <v>6980891353931</v>
       </c>
-      <c r="D208" t="s">
-        <v>152</v>
-      </c>
-      <c r="E208" s="1">
+      <c r="D222" t="s">
+        <v>114</v>
+      </c>
+      <c r="E222" s="1">
         <v>43279.517361111109</v>
       </c>
-      <c r="F208" s="1"/>
-    </row>
-    <row r="209" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B209" t="s">
-        <v>153</v>
-      </c>
-      <c r="C209" s="2">
+      <c r="F222" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="G222">
+        <v>0.35</v>
+      </c>
+      <c r="H222">
+        <v>90</v>
+      </c>
+      <c r="K222">
+        <v>1</v>
+      </c>
+      <c r="L222">
+        <v>1</v>
+      </c>
+      <c r="M222" t="s">
+        <v>284</v>
+      </c>
+      <c r="N222" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="223" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A223" t="s">
+        <v>338</v>
+      </c>
+      <c r="B223" t="s">
+        <v>362</v>
+      </c>
+      <c r="C223" s="2">
         <v>6980914353924</v>
       </c>
-      <c r="D209" t="s">
-        <v>154</v>
-      </c>
-      <c r="E209" s="1">
+      <c r="D223" t="s">
+        <v>115</v>
+      </c>
+      <c r="E223" s="1">
         <v>43279.518750000003</v>
       </c>
-      <c r="F209" s="1"/>
-    </row>
-    <row r="210" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B210" t="s">
-        <v>155</v>
-      </c>
-      <c r="C210" s="2">
-        <v>7008446366454</v>
-      </c>
-      <c r="D210" t="s">
-        <v>156</v>
-      </c>
-      <c r="E210" s="1">
-        <v>43283.498611111114</v>
-      </c>
-      <c r="F210" s="1"/>
-    </row>
-    <row r="211" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B211" t="s">
-        <v>157</v>
-      </c>
-      <c r="C211" s="2">
-        <v>7008274366146</v>
-      </c>
-      <c r="D211" t="s">
-        <v>158</v>
-      </c>
-      <c r="E211" s="1">
-        <v>43283.506944444445</v>
-      </c>
-      <c r="F211" s="1"/>
-    </row>
-    <row r="212" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B212" t="s">
-        <v>159</v>
-      </c>
-      <c r="C212" s="2">
-        <v>7008058365732</v>
-      </c>
-      <c r="D212" t="s">
-        <v>21</v>
-      </c>
-      <c r="E212" s="1">
-        <v>43283.513888888891</v>
-      </c>
-      <c r="F212" s="1"/>
-    </row>
-    <row r="213" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B213" t="s">
-        <v>160</v>
-      </c>
-      <c r="C213" s="2">
-        <v>7007697364981</v>
-      </c>
-      <c r="D213" t="s">
-        <v>56</v>
-      </c>
-      <c r="E213" s="1">
-        <v>43283.525694444441</v>
-      </c>
-      <c r="F213" s="1"/>
-    </row>
-    <row r="214" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B214" t="s">
-        <v>161</v>
-      </c>
-      <c r="C214" s="2">
-        <v>7007640364853</v>
-      </c>
-      <c r="D214" t="s">
-        <v>16</v>
-      </c>
-      <c r="E214" s="1">
-        <v>43283.529166666667</v>
-      </c>
-      <c r="F214" s="1"/>
-    </row>
-    <row r="215" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B215" t="s">
-        <v>162</v>
-      </c>
-      <c r="C215" s="2">
-        <v>7007642364847</v>
-      </c>
-      <c r="D215" t="s">
-        <v>103</v>
-      </c>
-      <c r="E215" s="1">
-        <v>43283.530555555553</v>
-      </c>
-      <c r="F215" s="1"/>
-    </row>
-    <row r="216" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B216" t="s">
-        <v>163</v>
-      </c>
-      <c r="C216" s="2">
-        <v>7007282364035</v>
-      </c>
-      <c r="D216" t="s">
-        <v>164</v>
-      </c>
-      <c r="E216" s="1">
-        <v>43283.542361111111</v>
-      </c>
-      <c r="F216" s="1"/>
-    </row>
-    <row r="217" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B217" t="s">
-        <v>165</v>
-      </c>
-      <c r="C217" s="2">
-        <v>7006937363535</v>
-      </c>
-      <c r="D217" t="s">
-        <v>166</v>
-      </c>
-      <c r="E217" s="1">
-        <v>43283.552777777775</v>
-      </c>
-      <c r="F217" s="1"/>
-    </row>
-    <row r="218" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B218" t="s">
-        <v>167</v>
-      </c>
-      <c r="C218" s="2">
-        <v>7006658363080</v>
-      </c>
-      <c r="D218" t="s">
-        <v>168</v>
-      </c>
-      <c r="E218" s="1">
-        <v>43283.56527777778</v>
-      </c>
-      <c r="F218" s="1"/>
-    </row>
-    <row r="219" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B219" t="s">
-        <v>169</v>
-      </c>
-      <c r="C219" s="2">
-        <v>7007092363031</v>
-      </c>
-      <c r="D219" t="s">
-        <v>170</v>
-      </c>
-      <c r="E219" s="1">
-        <v>43283.604861111111</v>
-      </c>
-      <c r="F219" s="1"/>
-    </row>
-    <row r="220" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B220" t="s">
-        <v>171</v>
-      </c>
-      <c r="C220" s="2">
-        <v>7007443362987</v>
-      </c>
-      <c r="D220" t="s">
-        <v>172</v>
-      </c>
-      <c r="E220" s="1">
-        <v>43283.613194444442</v>
-      </c>
-      <c r="F220" s="1"/>
-    </row>
-    <row r="221" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B221" t="s">
-        <v>173</v>
-      </c>
-      <c r="C221" s="2">
-        <v>7007870362915</v>
-      </c>
-      <c r="D221" t="s">
-        <v>174</v>
-      </c>
-      <c r="E221" s="1">
-        <v>43283.619444444441</v>
-      </c>
-      <c r="F221" s="1"/>
-    </row>
-    <row r="222" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B222" t="s">
-        <v>175</v>
-      </c>
-      <c r="C222" s="2">
-        <v>7010603362818</v>
-      </c>
-      <c r="D222" t="s">
-        <v>32</v>
-      </c>
-      <c r="E222" s="1">
-        <v>43283.652083333334</v>
-      </c>
-      <c r="F222" s="1"/>
-    </row>
-    <row r="223" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B223" t="s">
-        <v>176</v>
-      </c>
-      <c r="C223" s="2">
-        <v>7009945363862</v>
-      </c>
-      <c r="D223" t="s">
-        <v>19</v>
-      </c>
-      <c r="E223" s="1">
-        <v>43283.67291666667</v>
-      </c>
-      <c r="F223" s="1"/>
-    </row>
-    <row r="224" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B224" t="s">
-        <v>177</v>
+      <c r="F223" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="G223">
+        <v>0.43</v>
+      </c>
+      <c r="H223">
+        <v>270</v>
+      </c>
+      <c r="K223">
+        <v>1</v>
+      </c>
+      <c r="L223">
+        <v>36</v>
+      </c>
+      <c r="M223" t="s">
+        <v>363</v>
+      </c>
+      <c r="N223" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="224" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A224" t="s">
+        <v>338</v>
+      </c>
+      <c r="B224" s="3" t="s">
+        <v>241</v>
       </c>
       <c r="C224" s="2">
-        <v>7009257365321</v>
+        <v>6981270353841</v>
       </c>
       <c r="D224" t="s">
-        <v>58</v>
+        <v>324</v>
       </c>
       <c r="E224" s="1">
-        <v>43283.743055555555</v>
-      </c>
-      <c r="F224" s="1"/>
+        <v>43279.526388888888</v>
+      </c>
+      <c r="F224" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="N224" t="s">
+        <v>364</v>
+      </c>
     </row>
     <row r="225" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B225" t="s">
-        <v>178</v>
-      </c>
-      <c r="C225" s="2">
-        <v>7009246365393</v>
-      </c>
-      <c r="D225" t="s">
-        <v>21</v>
-      </c>
-      <c r="E225" s="1">
-        <v>43283.745138888888</v>
-      </c>
       <c r="F225" s="1"/>
     </row>
     <row r="226" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B226" t="s">
-        <v>179</v>
-      </c>
-      <c r="C226" s="2">
-        <v>7009221365532</v>
-      </c>
-      <c r="D226" t="s">
-        <v>180</v>
-      </c>
-      <c r="E226" s="1">
-        <v>43283.747916666667</v>
-      </c>
       <c r="F226" s="1"/>
     </row>
     <row r="227" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B227" t="s">
-        <v>181</v>
-      </c>
-      <c r="C227" s="2">
-        <v>7009215365581</v>
-      </c>
-      <c r="D227" t="s">
-        <v>70</v>
-      </c>
-      <c r="E227" s="1">
-        <v>43283.749305555553</v>
-      </c>
       <c r="F227" s="1"/>
     </row>
     <row r="228" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B228" t="s">
-        <v>182</v>
-      </c>
-      <c r="C228" s="2">
-        <v>7009220365592</v>
-      </c>
-      <c r="D228" t="s">
-        <v>183</v>
-      </c>
-      <c r="E228" s="1">
-        <v>43283.750694444447</v>
-      </c>
       <c r="F228" s="1"/>
     </row>
     <row r="229" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B229" t="s">
-        <v>184</v>
+        <v>116</v>
       </c>
       <c r="C229" s="2">
-        <v>7009216365643</v>
+        <v>7008446366454</v>
       </c>
       <c r="D229" t="s">
-        <v>185</v>
+        <v>117</v>
       </c>
       <c r="E229" s="1">
-        <v>43283.75277777778</v>
+        <v>43283.498611111114</v>
       </c>
       <c r="F229" s="1"/>
     </row>
     <row r="230" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B230" t="s">
-        <v>186</v>
+        <v>118</v>
       </c>
       <c r="C230" s="2">
-        <v>7009215365667</v>
+        <v>7008274366146</v>
       </c>
       <c r="D230" t="s">
-        <v>187</v>
+        <v>119</v>
       </c>
       <c r="E230" s="1">
-        <v>43283.753472222219</v>
+        <v>43283.506944444445</v>
       </c>
       <c r="F230" s="1"/>
     </row>
     <row r="231" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B231" t="s">
-        <v>188</v>
+        <v>120</v>
       </c>
       <c r="C231" s="2">
-        <v>7009073365892</v>
+        <v>7008058365732</v>
       </c>
       <c r="D231" t="s">
-        <v>189</v>
+        <v>21</v>
       </c>
       <c r="E231" s="1">
-        <v>43283.759027777778</v>
+        <v>43283.513888888891</v>
       </c>
       <c r="F231" s="1"/>
     </row>
     <row r="232" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B232" t="s">
-        <v>190</v>
+        <v>121</v>
       </c>
       <c r="C232" s="2">
-        <v>7008870366106</v>
+        <v>7007697364981</v>
       </c>
       <c r="D232" t="s">
-        <v>191</v>
+        <v>56</v>
       </c>
       <c r="E232" s="1">
-        <v>43283.765277777777</v>
+        <v>43283.525694444441</v>
       </c>
       <c r="F232" s="1"/>
     </row>
     <row r="233" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B233" t="s">
-        <v>192</v>
+        <v>122</v>
       </c>
       <c r="C233" s="2">
-        <v>7008555366617</v>
+        <v>7007640364853</v>
       </c>
       <c r="D233" t="s">
-        <v>193</v>
+        <v>16</v>
       </c>
       <c r="E233" s="1">
-        <v>43283.776388888888</v>
+        <v>43283.529166666667</v>
       </c>
       <c r="F233" s="1"/>
     </row>
     <row r="234" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B234" t="s">
-        <v>194</v>
+        <v>123</v>
       </c>
       <c r="C234" s="2">
-        <v>7008548366629</v>
+        <v>7007642364847</v>
       </c>
       <c r="D234" t="s">
-        <v>40</v>
+        <v>99</v>
       </c>
       <c r="E234" s="1">
-        <v>43283.777777777781</v>
+        <v>43283.530555555553</v>
       </c>
       <c r="F234" s="1"/>
     </row>
     <row r="235" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B235" t="s">
-        <v>195</v>
+        <v>124</v>
       </c>
       <c r="C235" s="2">
-        <v>7008546366650</v>
+        <v>7007282364035</v>
       </c>
       <c r="D235" t="s">
-        <v>36</v>
+        <v>125</v>
       </c>
       <c r="E235" s="1">
-        <v>43283.779166666667</v>
+        <v>43283.542361111111</v>
       </c>
       <c r="F235" s="1"/>
     </row>
     <row r="236" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B236" t="s">
-        <v>196</v>
+        <v>126</v>
       </c>
       <c r="C236" s="2">
-        <v>7005699362925</v>
+        <v>7006937363535</v>
       </c>
       <c r="D236" t="s">
-        <v>197</v>
+        <v>127</v>
       </c>
       <c r="E236" s="1">
-        <v>43284.404861111114</v>
+        <v>43283.552777777775</v>
       </c>
       <c r="F236" s="1"/>
     </row>
     <row r="237" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B237" t="s">
-        <v>198</v>
+        <v>128</v>
       </c>
       <c r="C237" s="2">
-        <v>7003859361323</v>
+        <v>7006658363080</v>
       </c>
       <c r="D237" t="s">
-        <v>199</v>
+        <v>129</v>
       </c>
       <c r="E237" s="1">
-        <v>43284.474305555559</v>
+        <v>43283.56527777778</v>
       </c>
       <c r="F237" s="1"/>
     </row>
     <row r="238" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B238" t="s">
-        <v>200</v>
+        <v>130</v>
       </c>
       <c r="C238" s="2">
-        <v>7003856361321</v>
+        <v>7007092363031</v>
       </c>
       <c r="D238" t="s">
-        <v>199</v>
+        <v>131</v>
       </c>
       <c r="E238" s="1">
-        <v>43284.476388888892</v>
+        <v>43283.604861111111</v>
       </c>
       <c r="F238" s="1"/>
     </row>
     <row r="239" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B239" t="s">
-        <v>201</v>
+        <v>132</v>
       </c>
       <c r="C239" s="2">
-        <v>7003558361140</v>
+        <v>7007443362987</v>
       </c>
       <c r="D239" t="s">
-        <v>202</v>
+        <v>133</v>
       </c>
       <c r="E239" s="1">
-        <v>43284.481944444444</v>
+        <v>43283.613194444442</v>
       </c>
       <c r="F239" s="1"/>
     </row>
     <row r="240" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B240" t="s">
-        <v>203</v>
+        <v>134</v>
       </c>
       <c r="C240" s="2">
-        <v>7003118360900</v>
+        <v>7007870362915</v>
       </c>
       <c r="D240" t="s">
-        <v>204</v>
+        <v>135</v>
       </c>
       <c r="E240" s="1">
-        <v>43284.487500000003</v>
+        <v>43283.619444444441</v>
       </c>
       <c r="F240" s="1"/>
     </row>
     <row r="241" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B241" t="s">
-        <v>205</v>
+        <v>136</v>
       </c>
       <c r="C241" s="2">
-        <v>7002855360420</v>
+        <v>7010603362818</v>
       </c>
       <c r="D241" t="s">
-        <v>202</v>
+        <v>32</v>
       </c>
       <c r="E241" s="1">
-        <v>43284.509027777778</v>
+        <v>43283.652083333334</v>
       </c>
       <c r="F241" s="1"/>
     </row>
     <row r="242" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B242" t="s">
-        <v>206</v>
+        <v>137</v>
       </c>
       <c r="C242" s="2">
-        <v>7002885360403</v>
+        <v>7009945363862</v>
       </c>
       <c r="D242" t="s">
-        <v>207</v>
+        <v>19</v>
       </c>
       <c r="E242" s="1">
-        <v>43284.511111111111</v>
+        <v>43283.67291666667</v>
       </c>
       <c r="F242" s="1"/>
     </row>
     <row r="243" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B243" t="s">
-        <v>208</v>
+        <v>138</v>
       </c>
       <c r="C243" s="2">
-        <v>7003077360282</v>
+        <v>7009257365321</v>
       </c>
       <c r="D243" t="s">
-        <v>209</v>
+        <v>58</v>
       </c>
       <c r="E243" s="1">
-        <v>43284.51458333333</v>
+        <v>43283.743055555555</v>
       </c>
       <c r="F243" s="1"/>
     </row>
     <row r="244" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B244" t="s">
-        <v>210</v>
+        <v>139</v>
       </c>
       <c r="C244" s="2">
-        <v>7004668359365</v>
+        <v>7009246365393</v>
       </c>
       <c r="D244" t="s">
-        <v>211</v>
+        <v>21</v>
       </c>
       <c r="E244" s="1">
-        <v>43284.538194444445</v>
+        <v>43283.745138888888</v>
       </c>
       <c r="F244" s="1"/>
     </row>
     <row r="245" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B245" t="s">
-        <v>212</v>
+        <v>140</v>
       </c>
       <c r="C245" s="2">
-        <v>7004947359182</v>
+        <v>7009221365532</v>
       </c>
       <c r="D245" t="s">
-        <v>213</v>
+        <v>141</v>
       </c>
       <c r="E245" s="1">
-        <v>43284.543055555558</v>
+        <v>43283.747916666667</v>
       </c>
       <c r="F245" s="1"/>
     </row>
     <row r="246" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B246" t="s">
-        <v>214</v>
+        <v>142</v>
       </c>
       <c r="C246" s="2">
-        <v>7005389358896</v>
+        <v>7009215365581</v>
       </c>
       <c r="D246" t="s">
-        <v>91</v>
+        <v>70</v>
       </c>
       <c r="E246" s="1">
-        <v>43284.55</v>
+        <v>43283.749305555553</v>
       </c>
       <c r="F246" s="1"/>
     </row>
     <row r="247" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B247" t="s">
-        <v>215</v>
+        <v>143</v>
       </c>
       <c r="C247" s="2">
-        <v>7005467358844</v>
+        <v>7009220365592</v>
       </c>
       <c r="D247" t="s">
-        <v>91</v>
+        <v>144</v>
       </c>
       <c r="E247" s="1">
-        <v>43284.552083333336</v>
+        <v>43283.750694444447</v>
       </c>
       <c r="F247" s="1"/>
     </row>
     <row r="248" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B248" t="s">
-        <v>216</v>
+        <v>145</v>
       </c>
       <c r="C248" s="2">
-        <v>7005608358776</v>
+        <v>7009216365643</v>
       </c>
       <c r="D248" t="s">
-        <v>202</v>
+        <v>146</v>
       </c>
       <c r="E248" s="1">
-        <v>43284.554861111108</v>
+        <v>43283.75277777778</v>
       </c>
       <c r="F248" s="1"/>
     </row>
     <row r="249" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B249" t="s">
-        <v>217</v>
+        <v>147</v>
       </c>
       <c r="C249" s="2">
-        <v>7005953358605</v>
+        <v>7009215365667</v>
       </c>
       <c r="D249" t="s">
-        <v>218</v>
+        <v>148</v>
       </c>
       <c r="E249" s="1">
-        <v>43284.561111111114</v>
+        <v>43283.753472222219</v>
       </c>
       <c r="F249" s="1"/>
     </row>
     <row r="250" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B250" t="s">
-        <v>219</v>
+        <v>149</v>
       </c>
       <c r="C250" s="2">
-        <v>7005947359962</v>
+        <v>7009073365892</v>
       </c>
       <c r="D250" t="s">
-        <v>43</v>
+        <v>150</v>
       </c>
       <c r="E250" s="1">
-        <v>43284.581250000003</v>
-      </c>
+        <v>43283.759027777778</v>
+      </c>
+      <c r="F250" s="1"/>
     </row>
     <row r="251" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B251" t="s">
-        <v>220</v>
+        <v>151</v>
       </c>
       <c r="C251" s="2">
-        <v>7005968360361</v>
+        <v>7008870366106</v>
       </c>
       <c r="D251" t="s">
-        <v>43</v>
+        <v>152</v>
       </c>
       <c r="E251" s="1">
-        <v>43284.585416666669</v>
+        <v>43283.765277777777</v>
       </c>
       <c r="F251" s="1"/>
     </row>
     <row r="252" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B252" t="s">
-        <v>221</v>
+        <v>153</v>
       </c>
       <c r="C252" s="2">
-        <v>7005953361950</v>
+        <v>7008555366617</v>
       </c>
       <c r="D252" t="s">
-        <v>168</v>
+        <v>154</v>
       </c>
       <c r="E252" s="1">
-        <v>43284.602777777778</v>
-      </c>
+        <v>43283.776388888888</v>
+      </c>
+      <c r="F252" s="1"/>
     </row>
     <row r="253" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B253" t="s">
-        <v>222</v>
+        <v>155</v>
       </c>
       <c r="C253" s="2">
-        <v>7004327359068</v>
+        <v>7008548366629</v>
       </c>
       <c r="D253" t="s">
-        <v>223</v>
+        <v>40</v>
       </c>
       <c r="E253" s="1">
-        <v>43285.468055555553</v>
-      </c>
+        <v>43283.777777777781</v>
+      </c>
+      <c r="F253" s="1"/>
     </row>
     <row r="254" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B254" t="s">
-        <v>224</v>
+        <v>156</v>
       </c>
       <c r="C254" s="2">
-        <v>7004323359062</v>
+        <v>7008546366650</v>
       </c>
       <c r="D254" t="s">
-        <v>225</v>
+        <v>36</v>
       </c>
       <c r="E254" s="1">
-        <v>43285.469444444447</v>
-      </c>
+        <v>43283.779166666667</v>
+      </c>
+      <c r="F254" s="1"/>
     </row>
     <row r="255" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B255" t="s">
-        <v>226</v>
+        <v>157</v>
       </c>
       <c r="C255" s="2">
-        <v>7004287358905</v>
+        <v>7005699362925</v>
       </c>
       <c r="D255" t="s">
-        <v>227</v>
+        <v>158</v>
       </c>
       <c r="E255" s="1">
-        <v>43285.472916666666</v>
-      </c>
+        <v>43284.404861111114</v>
+      </c>
+      <c r="F255" s="1"/>
     </row>
     <row r="256" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B256" t="s">
+        <v>159</v>
+      </c>
+      <c r="C256" s="2">
+        <v>7003859361323</v>
+      </c>
+      <c r="D256" t="s">
+        <v>160</v>
+      </c>
+      <c r="E256" s="1">
+        <v>43284.474305555559</v>
+      </c>
+      <c r="F256" s="1"/>
+    </row>
+    <row r="257" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B257" t="s">
+        <v>161</v>
+      </c>
+      <c r="C257" s="2">
+        <v>7003856361321</v>
+      </c>
+      <c r="D257" t="s">
+        <v>160</v>
+      </c>
+      <c r="E257" s="1">
+        <v>43284.476388888892</v>
+      </c>
+    </row>
+    <row r="258" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B258" t="s">
+        <v>162</v>
+      </c>
+      <c r="C258" s="2">
+        <v>7003558361140</v>
+      </c>
+      <c r="D258" t="s">
+        <v>163</v>
+      </c>
+      <c r="E258" s="1">
+        <v>43284.481944444444</v>
+      </c>
+      <c r="F258" s="1"/>
+    </row>
+    <row r="259" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B259" t="s">
+        <v>164</v>
+      </c>
+      <c r="C259" s="2">
+        <v>7003118360900</v>
+      </c>
+      <c r="D259" t="s">
+        <v>165</v>
+      </c>
+      <c r="E259" s="1">
+        <v>43284.487500000003</v>
+      </c>
+    </row>
+    <row r="260" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B260" t="s">
+        <v>166</v>
+      </c>
+      <c r="C260" s="2">
+        <v>7002855360420</v>
+      </c>
+      <c r="D260" t="s">
+        <v>163</v>
+      </c>
+      <c r="E260" s="1">
+        <v>43284.509027777778</v>
+      </c>
+    </row>
+    <row r="261" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B261" t="s">
+        <v>167</v>
+      </c>
+      <c r="C261" s="2">
+        <v>7002885360403</v>
+      </c>
+      <c r="D261" t="s">
+        <v>168</v>
+      </c>
+      <c r="E261" s="1">
+        <v>43284.511111111111</v>
+      </c>
+    </row>
+    <row r="262" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B262" t="s">
+        <v>169</v>
+      </c>
+      <c r="C262" s="2">
+        <v>7003077360282</v>
+      </c>
+      <c r="D262" t="s">
+        <v>170</v>
+      </c>
+      <c r="E262" s="1">
+        <v>43284.51458333333</v>
+      </c>
+    </row>
+    <row r="263" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B263" t="s">
+        <v>171</v>
+      </c>
+      <c r="C263" s="2">
+        <v>7004668359365</v>
+      </c>
+      <c r="D263" t="s">
+        <v>172</v>
+      </c>
+      <c r="E263" s="1">
+        <v>43284.538194444445</v>
+      </c>
+    </row>
+    <row r="264" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B264" t="s">
+        <v>173</v>
+      </c>
+      <c r="C264" s="2">
+        <v>7004947359182</v>
+      </c>
+      <c r="D264" t="s">
+        <v>174</v>
+      </c>
+      <c r="E264" s="1">
+        <v>43284.543055555558</v>
+      </c>
+    </row>
+    <row r="265" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B265" t="s">
+        <v>175</v>
+      </c>
+      <c r="C265" s="2">
+        <v>7005389358896</v>
+      </c>
+      <c r="D265" t="s">
+        <v>91</v>
+      </c>
+      <c r="E265" s="1">
+        <v>43284.55</v>
+      </c>
+    </row>
+    <row r="266" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B266" t="s">
+        <v>176</v>
+      </c>
+      <c r="C266" s="2">
+        <v>7005467358844</v>
+      </c>
+      <c r="D266" t="s">
+        <v>91</v>
+      </c>
+      <c r="E266" s="1">
+        <v>43284.552083333336</v>
+      </c>
+    </row>
+    <row r="267" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B267" t="s">
+        <v>177</v>
+      </c>
+      <c r="C267" s="2">
+        <v>7005608358776</v>
+      </c>
+      <c r="D267" t="s">
+        <v>163</v>
+      </c>
+      <c r="E267" s="1">
+        <v>43284.554861111108</v>
+      </c>
+    </row>
+    <row r="268" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B268" t="s">
+        <v>178</v>
+      </c>
+      <c r="C268" s="2">
+        <v>7005953358605</v>
+      </c>
+      <c r="D268" t="s">
+        <v>179</v>
+      </c>
+      <c r="E268" s="1">
+        <v>43284.561111111114</v>
+      </c>
+    </row>
+    <row r="269" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B269" t="s">
+        <v>180</v>
+      </c>
+      <c r="C269" s="2">
+        <v>7005947359962</v>
+      </c>
+      <c r="D269" t="s">
+        <v>43</v>
+      </c>
+      <c r="E269" s="1">
+        <v>43284.581250000003</v>
+      </c>
+    </row>
+    <row r="270" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B270" t="s">
+        <v>181</v>
+      </c>
+      <c r="C270" s="2">
+        <v>7005968360361</v>
+      </c>
+      <c r="D270" t="s">
+        <v>43</v>
+      </c>
+      <c r="E270" s="1">
+        <v>43284.585416666669</v>
+      </c>
+    </row>
+    <row r="271" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B271" t="s">
+        <v>182</v>
+      </c>
+      <c r="C271" s="2">
+        <v>7005953361950</v>
+      </c>
+      <c r="D271" t="s">
+        <v>129</v>
+      </c>
+      <c r="E271" s="1">
+        <v>43284.602777777778</v>
+      </c>
+    </row>
+    <row r="272" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B272" t="s">
+        <v>183</v>
+      </c>
+      <c r="C272" s="2">
+        <v>7004327359068</v>
+      </c>
+      <c r="D272" t="s">
+        <v>184</v>
+      </c>
+      <c r="E272" s="1">
+        <v>43285.468055555553</v>
+      </c>
+    </row>
+    <row r="273" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B273" t="s">
+        <v>185</v>
+      </c>
+      <c r="C273" s="2">
+        <v>7004323359062</v>
+      </c>
+      <c r="D273" t="s">
+        <v>186</v>
+      </c>
+      <c r="E273" s="1">
+        <v>43285.469444444447</v>
+      </c>
+    </row>
+    <row r="274" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B274" t="s">
+        <v>187</v>
+      </c>
+      <c r="C274" s="2">
+        <v>7004287358905</v>
+      </c>
+      <c r="D274" t="s">
+        <v>188</v>
+      </c>
+      <c r="E274" s="1">
+        <v>43285.472916666666</v>
+      </c>
+    </row>
+    <row r="275" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B275" t="s">
+        <v>189</v>
+      </c>
+      <c r="C275" s="2">
+        <v>7004221358773</v>
+      </c>
+      <c r="D275" t="s">
+        <v>190</v>
+      </c>
+      <c r="E275" s="1">
+        <v>43285.479861111111</v>
+      </c>
+    </row>
+    <row r="276" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B276" t="s">
+        <v>191</v>
+      </c>
+      <c r="C276" s="2">
+        <v>7003851357814</v>
+      </c>
+      <c r="D276" t="s">
+        <v>192</v>
+      </c>
+      <c r="E276" s="1">
+        <v>43285.495833333334</v>
+      </c>
+    </row>
+    <row r="277" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B277" t="s">
+        <v>193</v>
+      </c>
+      <c r="C277" s="2">
+        <v>7003591357126</v>
+      </c>
+      <c r="D277" t="s">
+        <v>194</v>
+      </c>
+      <c r="E277" s="1">
+        <v>43285.505555555559</v>
+      </c>
+    </row>
+    <row r="278" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B278" t="s">
+        <v>195</v>
+      </c>
+      <c r="C278" s="2">
+        <v>7003588357121</v>
+      </c>
+      <c r="D278" t="s">
+        <v>196</v>
+      </c>
+      <c r="E278" s="1">
+        <v>43285.507638888892</v>
+      </c>
+    </row>
+    <row r="279" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B279" t="s">
+        <v>197</v>
+      </c>
+      <c r="C279" s="2">
+        <v>7003563357072</v>
+      </c>
+      <c r="D279" t="s">
+        <v>198</v>
+      </c>
+      <c r="E279" s="1">
+        <v>43285.509722222225</v>
+      </c>
+    </row>
+    <row r="280" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B280" t="s">
+        <v>199</v>
+      </c>
+      <c r="C280" s="2">
+        <v>7003167356300</v>
+      </c>
+      <c r="D280" t="s">
+        <v>200</v>
+      </c>
+      <c r="E280" s="1">
+        <v>43285.520138888889</v>
+      </c>
+    </row>
+    <row r="281" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B281" t="s">
+        <v>201</v>
+      </c>
+      <c r="C281" s="2">
+        <v>7003070356094</v>
+      </c>
+      <c r="D281" t="s">
+        <v>202</v>
+      </c>
+      <c r="E281" s="1">
+        <v>43285.525000000001</v>
+      </c>
+    </row>
+    <row r="282" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B282" t="s">
+        <v>203</v>
+      </c>
+      <c r="C282" s="2">
+        <v>7002942355831</v>
+      </c>
+      <c r="D282" t="s">
+        <v>204</v>
+      </c>
+      <c r="E282" s="1">
+        <v>43285.529166666667</v>
+      </c>
+    </row>
+    <row r="283" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B283" t="s">
+        <v>205</v>
+      </c>
+      <c r="C283" s="2">
+        <v>7002927355804</v>
+      </c>
+      <c r="D283" t="s">
+        <v>206</v>
+      </c>
+      <c r="E283" s="1">
+        <v>43285.530555555553</v>
+      </c>
+    </row>
+    <row r="284" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B284" t="s">
+        <v>207</v>
+      </c>
+      <c r="C284" s="2">
+        <v>7003815355805</v>
+      </c>
+      <c r="D284" t="s">
+        <v>208</v>
+      </c>
+      <c r="E284" s="1">
+        <v>43285.582638888889</v>
+      </c>
+    </row>
+    <row r="285" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B285" t="s">
+        <v>209</v>
+      </c>
+      <c r="C285" s="2">
+        <v>7003868355815</v>
+      </c>
+      <c r="D285" t="s">
+        <v>210</v>
+      </c>
+      <c r="E285" s="1">
+        <v>43285.584027777775</v>
+      </c>
+    </row>
+    <row r="286" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B286" t="s">
+        <v>211</v>
+      </c>
+      <c r="C286" s="2">
+        <v>7004676355956</v>
+      </c>
+      <c r="D286" t="s">
+        <v>212</v>
+      </c>
+      <c r="E286" s="1">
+        <v>43285.595138888886</v>
+      </c>
+    </row>
+    <row r="287" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B287" t="s">
+        <v>213</v>
+      </c>
+      <c r="C287" s="2">
+        <v>7005109356038</v>
+      </c>
+      <c r="D287" t="s">
+        <v>214</v>
+      </c>
+      <c r="E287" s="1">
+        <v>43285.602083333331</v>
+      </c>
+    </row>
+    <row r="288" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B288" t="s">
+        <v>215</v>
+      </c>
+      <c r="C288" s="2">
+        <v>7005919356186</v>
+      </c>
+      <c r="D288" t="s">
+        <v>216</v>
+      </c>
+      <c r="E288" s="1">
+        <v>43285.617361111108</v>
+      </c>
+    </row>
+    <row r="289" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B289" t="s">
+        <v>217</v>
+      </c>
+      <c r="C289" s="2">
+        <v>7006690356269</v>
+      </c>
+      <c r="D289" t="s">
+        <v>218</v>
+      </c>
+      <c r="E289" s="1">
+        <v>43285.634722222225</v>
+      </c>
+    </row>
+    <row r="290" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B290" t="s">
+        <v>219</v>
+      </c>
+      <c r="C290" s="2">
+        <v>7006735356287</v>
+      </c>
+      <c r="D290" t="s">
+        <v>220</v>
+      </c>
+      <c r="E290" s="1">
+        <v>43285.638194444444</v>
+      </c>
+    </row>
+    <row r="291" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B291" t="s">
+        <v>221</v>
+      </c>
+      <c r="C291" s="2">
+        <v>7006631356457</v>
+      </c>
+      <c r="D291" t="s">
+        <v>222</v>
+      </c>
+      <c r="E291" s="1">
+        <v>43285.645833333336</v>
+      </c>
+    </row>
+    <row r="292" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B292" t="s">
+        <v>223</v>
+      </c>
+      <c r="C292" s="2">
+        <v>7006501356636</v>
+      </c>
+      <c r="D292" t="s">
+        <v>224</v>
+      </c>
+      <c r="E292" s="1">
+        <v>43285.649305555555</v>
+      </c>
+    </row>
+    <row r="293" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B293" t="s">
+        <v>225</v>
+      </c>
+      <c r="C293" s="2">
+        <v>7005394357987</v>
+      </c>
+      <c r="D293" t="s">
+        <v>179</v>
+      </c>
+      <c r="E293" s="1">
+        <v>43285.668749999997</v>
+      </c>
+    </row>
+    <row r="294" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B294" t="s">
+        <v>226</v>
+      </c>
+      <c r="C294" s="2">
+        <v>7004438359158</v>
+      </c>
+      <c r="D294" t="s">
+        <v>227</v>
+      </c>
+      <c r="E294" s="1">
+        <v>43285.722916666666</v>
+      </c>
+    </row>
+    <row r="295" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A295" t="s">
         <v>228</v>
       </c>
-      <c r="C256" s="2">
-        <v>7004221358773</v>
-      </c>
-      <c r="D256" t="s">
-        <v>229</v>
-      </c>
-      <c r="E256" s="1">
-        <v>43285.479861111111</v>
-      </c>
-    </row>
-    <row r="257" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B257" t="s">
-        <v>230</v>
-      </c>
-      <c r="C257" s="2">
-        <v>7003851357814</v>
-      </c>
-      <c r="D257" t="s">
-        <v>231</v>
-      </c>
-      <c r="E257" s="1">
-        <v>43285.495833333334</v>
-      </c>
-    </row>
-    <row r="258" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B258" t="s">
-        <v>232</v>
-      </c>
-      <c r="C258" s="2">
-        <v>7003591357126</v>
-      </c>
-      <c r="D258" t="s">
-        <v>233</v>
-      </c>
-      <c r="E258" s="1">
-        <v>43285.505555555559</v>
-      </c>
-    </row>
-    <row r="259" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B259" t="s">
-        <v>234</v>
-      </c>
-      <c r="C259" s="2">
-        <v>7003588357121</v>
-      </c>
-      <c r="D259" t="s">
-        <v>235</v>
-      </c>
-      <c r="E259" s="1">
-        <v>43285.507638888892</v>
-      </c>
-    </row>
-    <row r="260" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B260" t="s">
-        <v>236</v>
-      </c>
-      <c r="C260" s="2">
-        <v>7003563357072</v>
-      </c>
-      <c r="D260" t="s">
-        <v>237</v>
-      </c>
-      <c r="E260" s="1">
-        <v>43285.509722222225</v>
-      </c>
-    </row>
-    <row r="261" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B261" t="s">
-        <v>238</v>
-      </c>
-      <c r="C261" s="2">
-        <v>7003167356300</v>
-      </c>
-      <c r="D261" t="s">
-        <v>239</v>
-      </c>
-      <c r="E261" s="1">
-        <v>43285.520138888889</v>
-      </c>
-    </row>
-    <row r="262" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B262" t="s">
-        <v>240</v>
-      </c>
-      <c r="C262" s="2">
-        <v>7003070356094</v>
-      </c>
-      <c r="D262" t="s">
-        <v>241</v>
-      </c>
-      <c r="E262" s="1">
-        <v>43285.525000000001</v>
-      </c>
-    </row>
-    <row r="263" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B263" t="s">
-        <v>242</v>
-      </c>
-      <c r="C263" s="2">
-        <v>7002942355831</v>
-      </c>
-      <c r="D263" t="s">
-        <v>243</v>
-      </c>
-      <c r="E263" s="1">
-        <v>43285.529166666667</v>
-      </c>
-    </row>
-    <row r="264" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B264" t="s">
-        <v>244</v>
-      </c>
-      <c r="C264" s="2">
-        <v>7002927355804</v>
-      </c>
-      <c r="D264" t="s">
-        <v>245</v>
-      </c>
-      <c r="E264" s="1">
-        <v>43285.530555555553</v>
-      </c>
-    </row>
-    <row r="265" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B265" t="s">
-        <v>246</v>
-      </c>
-      <c r="C265" s="2">
-        <v>7003815355805</v>
-      </c>
-      <c r="D265" t="s">
-        <v>247</v>
-      </c>
-      <c r="E265" s="1">
-        <v>43285.582638888889</v>
-      </c>
-    </row>
-    <row r="266" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B266" t="s">
-        <v>248</v>
-      </c>
-      <c r="C266" s="2">
-        <v>7003868355815</v>
-      </c>
-      <c r="D266" t="s">
-        <v>249</v>
-      </c>
-      <c r="E266" s="1">
-        <v>43285.584027777775</v>
-      </c>
-    </row>
-    <row r="267" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B267" t="s">
-        <v>250</v>
-      </c>
-      <c r="C267" s="2">
-        <v>7004676355956</v>
-      </c>
-      <c r="D267" t="s">
-        <v>251</v>
-      </c>
-      <c r="E267" s="1">
-        <v>43285.595138888886</v>
-      </c>
-    </row>
-    <row r="268" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B268" t="s">
-        <v>252</v>
-      </c>
-      <c r="C268" s="2">
-        <v>7005109356038</v>
-      </c>
-      <c r="D268" t="s">
-        <v>253</v>
-      </c>
-      <c r="E268" s="1">
-        <v>43285.602083333331</v>
-      </c>
-    </row>
-    <row r="269" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B269" t="s">
-        <v>254</v>
-      </c>
-      <c r="C269" s="2">
-        <v>7005919356186</v>
-      </c>
-      <c r="D269" t="s">
-        <v>255</v>
-      </c>
-      <c r="E269" s="1">
-        <v>43285.617361111108</v>
-      </c>
-    </row>
-    <row r="270" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B270" t="s">
-        <v>256</v>
-      </c>
-      <c r="C270" s="2">
-        <v>7006690356269</v>
-      </c>
-      <c r="D270" t="s">
-        <v>257</v>
-      </c>
-      <c r="E270" s="1">
-        <v>43285.634722222225</v>
-      </c>
-    </row>
-    <row r="271" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B271" t="s">
-        <v>258</v>
-      </c>
-      <c r="C271" s="2">
-        <v>7006735356287</v>
-      </c>
-      <c r="D271" t="s">
-        <v>259</v>
-      </c>
-      <c r="E271" s="1">
-        <v>43285.638194444444</v>
-      </c>
-    </row>
-    <row r="272" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B272" t="s">
-        <v>260</v>
-      </c>
-      <c r="C272" s="2">
-        <v>7006631356457</v>
-      </c>
-      <c r="D272" t="s">
-        <v>261</v>
-      </c>
-      <c r="E272" s="1">
-        <v>43285.645833333336</v>
-      </c>
-    </row>
-    <row r="273" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B273" t="s">
-        <v>262</v>
-      </c>
-      <c r="C273" s="2">
-        <v>7006501356636</v>
-      </c>
-      <c r="D273" t="s">
-        <v>263</v>
-      </c>
-      <c r="E273" s="1">
-        <v>43285.649305555555</v>
-      </c>
-    </row>
-    <row r="274" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B274" t="s">
-        <v>264</v>
-      </c>
-      <c r="C274" s="2">
-        <v>7005394357987</v>
-      </c>
-      <c r="D274" t="s">
-        <v>218</v>
-      </c>
-      <c r="E274" s="1">
-        <v>43285.668749999997</v>
-      </c>
-    </row>
-    <row r="275" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B275" t="s">
-        <v>265</v>
-      </c>
-      <c r="C275" s="2">
-        <v>7004438359158</v>
-      </c>
-      <c r="D275" t="s">
-        <v>266</v>
-      </c>
-      <c r="E275" s="1">
-        <v>43285.722916666666</v>
-      </c>
-    </row>
-    <row r="276" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A276" t="s">
-        <v>267</v>
-      </c>
-      <c r="B276" t="s">
-        <v>267</v>
-      </c>
-      <c r="C276" t="s">
-        <v>267</v>
-      </c>
-      <c r="D276" t="s">
-        <v>267</v>
-      </c>
-      <c r="E276" t="s">
-        <v>267</v>
+      <c r="B295" t="s">
+        <v>228</v>
+      </c>
+      <c r="C295" t="s">
+        <v>228</v>
+      </c>
+      <c r="D295" t="s">
+        <v>228</v>
+      </c>
+      <c r="E295" t="s">
+        <v>228</v>
       </c>
     </row>
   </sheetData>

--- a/Rawdata/tor.riptransekter helags sommar 2018.xlsx
+++ b/Rawdata/tor.riptransekter helags sommar 2018.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="860" yWindow="2440" windowWidth="25440" windowHeight="14140" xr2:uid="{6F562989-0C69-724E-8921-452EAD0C9874}"/>
+    <workbookView xWindow="2260" yWindow="460" windowWidth="25440" windowHeight="14140" xr2:uid="{6F562989-0C69-724E-8921-452EAD0C9874}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1376" uniqueCount="365">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1506" uniqueCount="346">
   <si>
     <t>lya</t>
   </si>
@@ -374,45 +374,18 @@
     <t>930 m</t>
   </si>
   <si>
-    <t>RS1191</t>
-  </si>
-  <si>
     <t>1014 m</t>
   </si>
   <si>
-    <t>RS2131</t>
-  </si>
-  <si>
     <t>1088 m</t>
   </si>
   <si>
-    <t>RS371</t>
-  </si>
-  <si>
-    <t>RS471</t>
-  </si>
-  <si>
-    <t>RS571</t>
-  </si>
-  <si>
-    <t>RS671</t>
-  </si>
-  <si>
-    <t>RS771</t>
-  </si>
-  <si>
     <t>911 m</t>
   </si>
   <si>
-    <t>RS851</t>
-  </si>
-  <si>
     <t>863 m</t>
   </si>
   <si>
-    <t>RS951</t>
-  </si>
-  <si>
     <t>844 m</t>
   </si>
   <si>
@@ -422,87 +395,30 @@
     <t>891 m</t>
   </si>
   <si>
-    <t>KONSTIG FAGEL</t>
-  </si>
-  <si>
-    <t>931 m</t>
-  </si>
-  <si>
-    <t>RS1051</t>
-  </si>
-  <si>
     <t>938 m</t>
   </si>
   <si>
-    <t>NYRIKT28</t>
-  </si>
-  <si>
-    <t>RS11101</t>
-  </si>
-  <si>
-    <t>NYRIKT216</t>
-  </si>
-  <si>
-    <t>RS1251</t>
-  </si>
-  <si>
-    <t>RS1351</t>
-  </si>
-  <si>
     <t>1091 m</t>
   </si>
   <si>
-    <t>RS1441</t>
-  </si>
-  <si>
-    <t>RS1541</t>
-  </si>
-  <si>
     <t>1105 m</t>
   </si>
   <si>
-    <t>RS1631</t>
-  </si>
-  <si>
     <t>1114 m</t>
   </si>
   <si>
-    <t>NYRIKT225</t>
-  </si>
-  <si>
     <t>1116 m</t>
   </si>
   <si>
-    <t>RS1731</t>
-  </si>
-  <si>
     <t>1159 m</t>
   </si>
   <si>
-    <t>RS1831</t>
-  </si>
-  <si>
     <t>1125 m</t>
   </si>
   <si>
-    <t>RS1931</t>
-  </si>
-  <si>
     <t>996 m</t>
   </si>
   <si>
-    <t>RS2021</t>
-  </si>
-  <si>
-    <t>ZZ061TRIANGEL2</t>
-  </si>
-  <si>
-    <t>TALT1</t>
-  </si>
-  <si>
-    <t>832 m</t>
-  </si>
-  <si>
     <t>RS1201</t>
   </si>
   <si>
@@ -1119,6 +1035,33 @@
   </si>
   <si>
     <t>duggregn</t>
+  </si>
+  <si>
+    <t>zz061</t>
+  </si>
+  <si>
+    <t>STARTZZ061</t>
+  </si>
+  <si>
+    <t>993 m</t>
+  </si>
+  <si>
+    <t>soligt, varmt, 20°C</t>
+  </si>
+  <si>
+    <t>bruna, i en bäck</t>
+  </si>
+  <si>
+    <t>grå, svart</t>
+  </si>
+  <si>
+    <t>942 m</t>
+  </si>
+  <si>
+    <t>brun (i vatten)</t>
+  </si>
+  <si>
+    <t>brun på snö</t>
   </si>
 </sst>
 </file>
@@ -1473,11 +1416,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7481D24-4BBD-9743-96A3-63B52605E732}">
-  <dimension ref="A1:O295"/>
+  <dimension ref="A1:O302"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A216" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A229" sqref="A229"/>
+      <pane ySplit="1" topLeftCell="A239" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A262" sqref="A262"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1512,7 +1455,7 @@
         <v>7</v>
       </c>
       <c r="I1" t="s">
-        <v>316</v>
+        <v>288</v>
       </c>
       <c r="J1" t="s">
         <v>8</v>
@@ -1535,33 +1478,33 @@
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>229</v>
+        <v>201</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>230</v>
+        <v>202</v>
       </c>
       <c r="C2" s="2">
         <v>6976680377753</v>
       </c>
       <c r="D2" t="s">
-        <v>231</v>
+        <v>203</v>
       </c>
       <c r="E2" s="1">
         <v>43271.520833333336</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>233</v>
+        <v>205</v>
       </c>
       <c r="N2" t="s">
-        <v>256</v>
+        <v>228</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>229</v>
+        <v>201</v>
       </c>
       <c r="B3" t="s">
-        <v>234</v>
+        <v>206</v>
       </c>
       <c r="C3" s="2">
         <v>6976296377160</v>
@@ -1573,7 +1516,7 @@
         <v>43271.53125</v>
       </c>
       <c r="F3" t="s">
-        <v>235</v>
+        <v>207</v>
       </c>
       <c r="G3">
         <v>2.42</v>
@@ -1588,18 +1531,18 @@
         <v>2</v>
       </c>
       <c r="M3" t="s">
-        <v>255</v>
+        <v>227</v>
       </c>
       <c r="N3" t="s">
-        <v>256</v>
+        <v>228</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>229</v>
+        <v>201</v>
       </c>
       <c r="B4" t="s">
-        <v>236</v>
+        <v>208</v>
       </c>
       <c r="C4" s="2">
         <v>6976013376681</v>
@@ -1611,7 +1554,7 @@
         <v>43271.539583333331</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>235</v>
+        <v>207</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -1626,18 +1569,18 @@
         <v>17</v>
       </c>
       <c r="M4" t="s">
-        <v>257</v>
+        <v>229</v>
       </c>
       <c r="N4" t="s">
-        <v>256</v>
+        <v>228</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>229</v>
+        <v>201</v>
       </c>
       <c r="B5" t="s">
-        <v>237</v>
+        <v>209</v>
       </c>
       <c r="C5" s="2">
         <v>6975623376165</v>
@@ -1649,7 +1592,7 @@
         <v>43271.549305555556</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>235</v>
+        <v>207</v>
       </c>
       <c r="G5">
         <v>0.89</v>
@@ -1664,18 +1607,18 @@
         <v>3</v>
       </c>
       <c r="M5" t="s">
-        <v>257</v>
+        <v>229</v>
       </c>
       <c r="N5" t="s">
-        <v>256</v>
+        <v>228</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>229</v>
+        <v>201</v>
       </c>
       <c r="B6" t="s">
-        <v>238</v>
+        <v>210</v>
       </c>
       <c r="C6" s="2">
         <v>6975398375851</v>
@@ -1687,7 +1630,7 @@
         <v>43271.554861111108</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>235</v>
+        <v>207</v>
       </c>
       <c r="G6">
         <v>2.5299999999999998</v>
@@ -1702,18 +1645,18 @@
         <v>21</v>
       </c>
       <c r="M6" t="s">
-        <v>258</v>
+        <v>230</v>
       </c>
       <c r="N6" t="s">
-        <v>256</v>
+        <v>228</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>229</v>
+        <v>201</v>
       </c>
       <c r="B7" t="s">
-        <v>239</v>
+        <v>211</v>
       </c>
       <c r="C7" s="2">
         <v>6975378375815</v>
@@ -1725,7 +1668,7 @@
         <v>43271.556944444441</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>235</v>
+        <v>207</v>
       </c>
       <c r="G7">
         <v>0.02</v>
@@ -1740,18 +1683,18 @@
         <v>32</v>
       </c>
       <c r="M7" t="s">
-        <v>259</v>
+        <v>231</v>
       </c>
       <c r="N7" t="s">
-        <v>256</v>
+        <v>228</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>229</v>
+        <v>201</v>
       </c>
       <c r="B8" t="s">
-        <v>240</v>
+        <v>212</v>
       </c>
       <c r="C8" s="2">
         <v>6975015375406</v>
@@ -1763,7 +1706,7 @@
         <v>43271.563888888886</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>235</v>
+        <v>207</v>
       </c>
       <c r="G8">
         <v>0.35</v>
@@ -1775,44 +1718,44 @@
         <v>2</v>
       </c>
       <c r="L8" t="s">
-        <v>260</v>
+        <v>232</v>
       </c>
       <c r="M8" t="s">
-        <v>261</v>
+        <v>233</v>
       </c>
       <c r="N8" t="s">
-        <v>256</v>
+        <v>228</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>229</v>
+        <v>201</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>241</v>
+        <v>213</v>
       </c>
       <c r="C9" s="2">
         <v>6974207374604</v>
       </c>
       <c r="D9" t="s">
-        <v>242</v>
+        <v>214</v>
       </c>
       <c r="E9" s="1">
         <v>43271.579861111109</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>232</v>
+        <v>204</v>
       </c>
       <c r="N9" t="s">
-        <v>256</v>
+        <v>228</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>229</v>
+        <v>201</v>
       </c>
       <c r="B10" t="s">
-        <v>243</v>
+        <v>215</v>
       </c>
       <c r="C10" s="2">
         <v>6977240373959</v>
@@ -1824,18 +1767,18 @@
         <v>43271.618055555555</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>244</v>
+        <v>216</v>
       </c>
       <c r="N10" t="s">
-        <v>256</v>
+        <v>228</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>229</v>
+        <v>201</v>
       </c>
       <c r="B11" t="s">
-        <v>245</v>
+        <v>217</v>
       </c>
       <c r="C11" s="2">
         <v>6977315373891</v>
@@ -1847,7 +1790,7 @@
         <v>43271.619444444441</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>235</v>
+        <v>207</v>
       </c>
       <c r="G11">
         <v>0.43</v>
@@ -1862,18 +1805,18 @@
         <v>1</v>
       </c>
       <c r="M11" t="s">
-        <v>262</v>
+        <v>234</v>
       </c>
       <c r="N11" t="s">
-        <v>256</v>
+        <v>228</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>229</v>
+        <v>201</v>
       </c>
       <c r="B12" t="s">
-        <v>243</v>
+        <v>215</v>
       </c>
       <c r="C12" s="2">
         <v>6977394373829</v>
@@ -1885,18 +1828,18 @@
         <v>43271.62222222222</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>244</v>
+        <v>216</v>
       </c>
       <c r="N12" t="s">
-        <v>256</v>
+        <v>228</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>229</v>
+        <v>201</v>
       </c>
       <c r="B13" t="s">
-        <v>246</v>
+        <v>218</v>
       </c>
       <c r="C13" s="2">
         <v>6977624373925</v>
@@ -1908,7 +1851,7 @@
         <v>43271.625694444447</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>235</v>
+        <v>207</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -1923,18 +1866,18 @@
         <v>2</v>
       </c>
       <c r="M13" t="s">
-        <v>263</v>
+        <v>235</v>
       </c>
       <c r="N13" t="s">
-        <v>256</v>
+        <v>228</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>229</v>
+        <v>201</v>
       </c>
       <c r="B14" t="s">
-        <v>243</v>
+        <v>215</v>
       </c>
       <c r="C14" s="2">
         <v>6977758373979</v>
@@ -1946,18 +1889,18 @@
         <v>43271.628472222219</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>244</v>
+        <v>216</v>
       </c>
       <c r="N14" t="s">
-        <v>256</v>
+        <v>228</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>229</v>
+        <v>201</v>
       </c>
       <c r="B15" t="s">
-        <v>247</v>
+        <v>219</v>
       </c>
       <c r="C15" s="2">
         <v>6977791373973</v>
@@ -1969,7 +1912,7 @@
         <v>43271.629861111112</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>235</v>
+        <v>207</v>
       </c>
       <c r="G15">
         <v>0.39</v>
@@ -1984,18 +1927,18 @@
         <v>27</v>
       </c>
       <c r="M15" t="s">
-        <v>264</v>
+        <v>236</v>
       </c>
       <c r="N15" t="s">
-        <v>256</v>
+        <v>228</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>229</v>
+        <v>201</v>
       </c>
       <c r="B16" t="s">
-        <v>248</v>
+        <v>220</v>
       </c>
       <c r="C16" s="2">
         <v>6977844373969</v>
@@ -2007,7 +1950,7 @@
         <v>43271.631944444445</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>235</v>
+        <v>207</v>
       </c>
       <c r="G16">
         <v>0</v>
@@ -2022,18 +1965,18 @@
         <v>1</v>
       </c>
       <c r="M16" t="s">
-        <v>265</v>
+        <v>237</v>
       </c>
       <c r="N16" t="s">
-        <v>256</v>
+        <v>228</v>
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>229</v>
+        <v>201</v>
       </c>
       <c r="B17" t="s">
-        <v>249</v>
+        <v>221</v>
       </c>
       <c r="C17" s="2">
         <v>6978044373945</v>
@@ -2045,7 +1988,7 @@
         <v>43271.634722222225</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>235</v>
+        <v>207</v>
       </c>
       <c r="G17">
         <v>0.1</v>
@@ -2060,41 +2003,41 @@
         <v>1</v>
       </c>
       <c r="M17" t="s">
-        <v>263</v>
+        <v>235</v>
       </c>
       <c r="N17" t="s">
-        <v>256</v>
+        <v>228</v>
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>229</v>
+        <v>201</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>250</v>
+        <v>222</v>
       </c>
       <c r="C18" s="2">
         <v>6978155373957</v>
       </c>
       <c r="D18" t="s">
-        <v>251</v>
+        <v>223</v>
       </c>
       <c r="E18" s="1">
         <v>43271.637499999997</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>232</v>
+        <v>204</v>
       </c>
       <c r="N18" t="s">
-        <v>256</v>
+        <v>228</v>
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>229</v>
+        <v>201</v>
       </c>
       <c r="B19" t="s">
-        <v>252</v>
+        <v>224</v>
       </c>
       <c r="C19" s="2">
         <v>6977403375505</v>
@@ -2106,7 +2049,7 @@
         <v>43271.656944444447</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>235</v>
+        <v>207</v>
       </c>
       <c r="G19">
         <v>0.59</v>
@@ -2118,21 +2061,21 @@
         <v>2</v>
       </c>
       <c r="L19" t="s">
-        <v>266</v>
+        <v>238</v>
       </c>
       <c r="M19" t="s">
-        <v>267</v>
+        <v>239</v>
       </c>
       <c r="N19" t="s">
-        <v>256</v>
+        <v>228</v>
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>229</v>
+        <v>201</v>
       </c>
       <c r="B20" t="s">
-        <v>253</v>
+        <v>225</v>
       </c>
       <c r="C20" s="2">
         <v>6977221375845</v>
@@ -2144,7 +2087,7 @@
         <v>43271.662499999999</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>235</v>
+        <v>207</v>
       </c>
       <c r="G20">
         <v>0</v>
@@ -2159,18 +2102,18 @@
         <v>28</v>
       </c>
       <c r="M20" t="s">
-        <v>268</v>
+        <v>240</v>
       </c>
       <c r="N20" t="s">
-        <v>256</v>
+        <v>228</v>
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>229</v>
+        <v>201</v>
       </c>
       <c r="B21" t="s">
-        <v>254</v>
+        <v>226</v>
       </c>
       <c r="C21" s="2">
         <v>6976904376798</v>
@@ -2182,7 +2125,7 @@
         <v>43271.713888888888</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>235</v>
+        <v>207</v>
       </c>
       <c r="G21">
         <v>0.62</v>
@@ -2197,41 +2140,41 @@
         <v>2</v>
       </c>
       <c r="M21" t="s">
-        <v>269</v>
+        <v>241</v>
       </c>
       <c r="N21" t="s">
-        <v>256</v>
+        <v>228</v>
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>229</v>
+        <v>201</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>230</v>
+        <v>202</v>
       </c>
       <c r="C22" s="2">
         <v>6976680377753</v>
       </c>
       <c r="D22" t="s">
-        <v>231</v>
+        <v>203</v>
       </c>
       <c r="E22" s="1">
         <v>43271.725694444445</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>318</v>
+        <v>290</v>
       </c>
       <c r="N22" t="s">
-        <v>256</v>
+        <v>228</v>
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>270</v>
+        <v>242</v>
       </c>
       <c r="B24" t="s">
-        <v>271</v>
+        <v>243</v>
       </c>
       <c r="C24" s="2">
         <v>6973557372594</v>
@@ -2243,18 +2186,18 @@
         <v>43272.509722222225</v>
       </c>
       <c r="F24" t="s">
-        <v>233</v>
+        <v>205</v>
       </c>
       <c r="N24" t="s">
-        <v>277</v>
+        <v>249</v>
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>270</v>
+        <v>242</v>
       </c>
       <c r="B25" t="s">
-        <v>234</v>
+        <v>206</v>
       </c>
       <c r="C25" s="2">
         <v>6972945370967</v>
@@ -2266,7 +2209,7 @@
         <v>43272.530555555553</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>235</v>
+        <v>207</v>
       </c>
       <c r="G25">
         <v>0.33</v>
@@ -2281,15 +2224,15 @@
         <v>2</v>
       </c>
       <c r="M25" t="s">
-        <v>269</v>
+        <v>241</v>
       </c>
       <c r="N25" t="s">
-        <v>277</v>
+        <v>249</v>
       </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>270</v>
+        <v>242</v>
       </c>
       <c r="B26" t="s">
         <v>30</v>
@@ -2304,7 +2247,7 @@
         <v>43272.53402777778</v>
       </c>
       <c r="F26" t="s">
-        <v>272</v>
+        <v>244</v>
       </c>
       <c r="G26">
         <v>8.5299999999999994</v>
@@ -2316,15 +2259,15 @@
         <v>1</v>
       </c>
       <c r="N26" t="s">
-        <v>277</v>
+        <v>249</v>
       </c>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>270</v>
+        <v>242</v>
       </c>
       <c r="B27" t="s">
-        <v>236</v>
+        <v>208</v>
       </c>
       <c r="C27" s="2">
         <v>6972775370330</v>
@@ -2336,7 +2279,7 @@
         <v>43272.539583333331</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>235</v>
+        <v>207</v>
       </c>
       <c r="G27">
         <v>0.05</v>
@@ -2351,41 +2294,41 @@
         <v>2</v>
       </c>
       <c r="M27" t="s">
-        <v>278</v>
+        <v>250</v>
       </c>
       <c r="N27" t="s">
-        <v>277</v>
+        <v>249</v>
       </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>270</v>
+        <v>242</v>
       </c>
       <c r="B28" t="s">
-        <v>230</v>
+        <v>202</v>
       </c>
       <c r="C28" s="2">
         <v>6972275368795</v>
       </c>
       <c r="D28" t="s">
-        <v>273</v>
+        <v>245</v>
       </c>
       <c r="E28" s="1">
         <v>43272.561111111114</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>232</v>
+        <v>204</v>
       </c>
       <c r="N28" t="s">
-        <v>277</v>
+        <v>249</v>
       </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>270</v>
+        <v>242</v>
       </c>
       <c r="B29" t="s">
-        <v>237</v>
+        <v>209</v>
       </c>
       <c r="C29" s="2">
         <v>6972145368891</v>
@@ -2397,7 +2340,7 @@
         <v>43272.564583333333</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>235</v>
+        <v>207</v>
       </c>
       <c r="G29">
         <v>0</v>
@@ -2412,18 +2355,18 @@
         <v>25</v>
       </c>
       <c r="M29" t="s">
-        <v>279</v>
+        <v>251</v>
       </c>
       <c r="N29" t="s">
-        <v>277</v>
+        <v>249</v>
       </c>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>270</v>
+        <v>242</v>
       </c>
       <c r="B30" t="s">
-        <v>238</v>
+        <v>210</v>
       </c>
       <c r="C30" s="2">
         <v>6971716369396</v>
@@ -2435,7 +2378,7 @@
         <v>43272.57708333333</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>235</v>
+        <v>207</v>
       </c>
       <c r="G30">
         <v>0.18</v>
@@ -2450,18 +2393,18 @@
         <v>9</v>
       </c>
       <c r="M30" t="s">
-        <v>259</v>
+        <v>231</v>
       </c>
       <c r="N30" t="s">
-        <v>277</v>
+        <v>249</v>
       </c>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>270</v>
+        <v>242</v>
       </c>
       <c r="B31" t="s">
-        <v>238</v>
+        <v>210</v>
       </c>
       <c r="C31" s="2">
         <v>6971716369396</v>
@@ -2473,7 +2416,7 @@
         <v>43272.57708333333</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>235</v>
+        <v>207</v>
       </c>
       <c r="G31">
         <v>0.36</v>
@@ -2488,18 +2431,18 @@
         <v>10</v>
       </c>
       <c r="M31" t="s">
-        <v>259</v>
+        <v>231</v>
       </c>
       <c r="N31" t="s">
-        <v>277</v>
+        <v>249</v>
       </c>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>270</v>
+        <v>242</v>
       </c>
       <c r="B32" t="s">
-        <v>239</v>
+        <v>211</v>
       </c>
       <c r="C32" s="2">
         <v>6971670369452</v>
@@ -2511,7 +2454,7 @@
         <v>43272.579861111109</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>235</v>
+        <v>207</v>
       </c>
       <c r="G32">
         <v>0.12</v>
@@ -2526,18 +2469,18 @@
         <v>28</v>
       </c>
       <c r="M32" t="s">
-        <v>259</v>
+        <v>231</v>
       </c>
       <c r="N32" t="s">
-        <v>277</v>
+        <v>249</v>
       </c>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>270</v>
+        <v>242</v>
       </c>
       <c r="B33" t="s">
-        <v>239</v>
+        <v>211</v>
       </c>
       <c r="C33" s="2">
         <v>6971670369452</v>
@@ -2549,7 +2492,7 @@
         <v>43272.579861111109</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>235</v>
+        <v>207</v>
       </c>
       <c r="G33">
         <v>0.03</v>
@@ -2564,15 +2507,15 @@
         <v>32</v>
       </c>
       <c r="M33" t="s">
-        <v>259</v>
+        <v>231</v>
       </c>
       <c r="N33" t="s">
-        <v>277</v>
+        <v>249</v>
       </c>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>270</v>
+        <v>242</v>
       </c>
       <c r="B34" t="s">
         <v>30</v>
@@ -2587,7 +2530,7 @@
         <v>43272.59097222222</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>272</v>
+        <v>244</v>
       </c>
       <c r="G34">
         <v>12</v>
@@ -2599,15 +2542,15 @@
         <v>1</v>
       </c>
       <c r="N34" t="s">
-        <v>277</v>
+        <v>249</v>
       </c>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>270</v>
+        <v>242</v>
       </c>
       <c r="B35" t="s">
-        <v>243</v>
+        <v>215</v>
       </c>
       <c r="C35" s="2">
         <v>6970950370375</v>
@@ -2619,18 +2562,18 @@
         <v>43272.599305555559</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>244</v>
+        <v>216</v>
       </c>
       <c r="N35" t="s">
-        <v>277</v>
+        <v>249</v>
       </c>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>270</v>
+        <v>242</v>
       </c>
       <c r="B36" t="s">
-        <v>274</v>
+        <v>246</v>
       </c>
       <c r="C36" s="2">
         <v>6971077370439</v>
@@ -2642,7 +2585,7 @@
         <v>43272.602777777778</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>275</v>
+        <v>247</v>
       </c>
       <c r="G36">
         <v>18.600000000000001</v>
@@ -2651,21 +2594,21 @@
         <v>348</v>
       </c>
       <c r="I36" t="s">
-        <v>276</v>
+        <v>248</v>
       </c>
       <c r="L36">
         <v>1</v>
       </c>
       <c r="N36" t="s">
-        <v>277</v>
+        <v>249</v>
       </c>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>270</v>
+        <v>242</v>
       </c>
       <c r="B37" t="s">
-        <v>243</v>
+        <v>215</v>
       </c>
       <c r="C37" s="2">
         <v>6971115370459</v>
@@ -2677,18 +2620,18 @@
         <v>43272.604861111111</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>244</v>
+        <v>216</v>
       </c>
       <c r="N37" t="s">
-        <v>277</v>
+        <v>249</v>
       </c>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>270</v>
+        <v>242</v>
       </c>
       <c r="B38" t="s">
-        <v>240</v>
+        <v>212</v>
       </c>
       <c r="C38" s="2">
         <v>6970732370812</v>
@@ -2700,7 +2643,7 @@
         <v>43272.611111111109</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>235</v>
+        <v>207</v>
       </c>
       <c r="G38">
         <v>7.0000000000000007E-2</v>
@@ -2715,18 +2658,18 @@
         <v>12</v>
       </c>
       <c r="M38" t="s">
-        <v>263</v>
+        <v>235</v>
       </c>
       <c r="N38" t="s">
-        <v>277</v>
+        <v>249</v>
       </c>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>270</v>
+        <v>242</v>
       </c>
       <c r="B39" t="s">
-        <v>245</v>
+        <v>217</v>
       </c>
       <c r="C39" s="2">
         <v>6970232371242</v>
@@ -2738,7 +2681,7 @@
         <v>43272.620138888888</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>235</v>
+        <v>207</v>
       </c>
       <c r="G39">
         <v>0.03</v>
@@ -2753,15 +2696,15 @@
         <v>1</v>
       </c>
       <c r="M39" t="s">
-        <v>262</v>
+        <v>234</v>
       </c>
       <c r="N39" t="s">
-        <v>277</v>
+        <v>249</v>
       </c>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>270</v>
+        <v>242</v>
       </c>
       <c r="B40" t="s">
         <v>30</v>
@@ -2776,7 +2719,7 @@
         <v>43272.62222222222</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>272</v>
+        <v>244</v>
       </c>
       <c r="G40">
         <v>89</v>
@@ -2788,15 +2731,15 @@
         <v>2</v>
       </c>
       <c r="N40" t="s">
-        <v>277</v>
+        <v>249</v>
       </c>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>270</v>
+        <v>242</v>
       </c>
       <c r="B41" t="s">
-        <v>241</v>
+        <v>213</v>
       </c>
       <c r="C41" s="2">
         <v>6969791371950</v>
@@ -2808,18 +2751,18 @@
         <v>43272.637499999997</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>232</v>
+        <v>204</v>
       </c>
       <c r="N41" t="s">
-        <v>277</v>
+        <v>249</v>
       </c>
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>270</v>
+        <v>242</v>
       </c>
       <c r="B42" t="s">
-        <v>246</v>
+        <v>218</v>
       </c>
       <c r="C42" s="2">
         <v>6970457371894</v>
@@ -2831,7 +2774,7 @@
         <v>43272.645833333336</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>235</v>
+        <v>207</v>
       </c>
       <c r="G42">
         <v>0</v>
@@ -2846,18 +2789,18 @@
         <v>16</v>
       </c>
       <c r="M42" t="s">
-        <v>280</v>
+        <v>252</v>
       </c>
       <c r="N42" t="s">
-        <v>277</v>
+        <v>249</v>
       </c>
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>270</v>
+        <v>242</v>
       </c>
       <c r="B43" t="s">
-        <v>247</v>
+        <v>219</v>
       </c>
       <c r="C43" s="2">
         <v>6970401372178</v>
@@ -2869,7 +2812,7 @@
         <v>43272.647916666669</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>235</v>
+        <v>207</v>
       </c>
       <c r="G43">
         <v>0.48</v>
@@ -2884,18 +2827,18 @@
         <v>3</v>
       </c>
       <c r="M43" t="s">
-        <v>263</v>
+        <v>235</v>
       </c>
       <c r="N43" t="s">
-        <v>277</v>
+        <v>249</v>
       </c>
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>270</v>
+        <v>242</v>
       </c>
       <c r="B44" t="s">
-        <v>247</v>
+        <v>219</v>
       </c>
       <c r="C44" s="2">
         <v>6970401372178</v>
@@ -2907,7 +2850,7 @@
         <v>43272.647916666669</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>235</v>
+        <v>207</v>
       </c>
       <c r="G44">
         <v>1.0900000000000001</v>
@@ -2919,18 +2862,18 @@
         <v>1</v>
       </c>
       <c r="M44" t="s">
-        <v>263</v>
+        <v>235</v>
       </c>
       <c r="N44" t="s">
-        <v>277</v>
+        <v>249</v>
       </c>
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>270</v>
+        <v>242</v>
       </c>
       <c r="B45" t="s">
-        <v>248</v>
+        <v>220</v>
       </c>
       <c r="C45" s="2">
         <v>6972049372362</v>
@@ -2942,7 +2885,7 @@
         <v>43272.762499999997</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>235</v>
+        <v>207</v>
       </c>
       <c r="G45">
         <v>0.39</v>
@@ -2957,18 +2900,18 @@
         <v>16</v>
       </c>
       <c r="M45" t="s">
-        <v>281</v>
+        <v>253</v>
       </c>
       <c r="N45" t="s">
-        <v>277</v>
+        <v>249</v>
       </c>
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>270</v>
+        <v>242</v>
       </c>
       <c r="B46" t="s">
-        <v>249</v>
+        <v>221</v>
       </c>
       <c r="C46" s="2">
         <v>6972064372366</v>
@@ -2980,7 +2923,7 @@
         <v>43272.763888888891</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>235</v>
+        <v>207</v>
       </c>
       <c r="G46">
         <v>0.08</v>
@@ -2995,18 +2938,18 @@
         <v>17</v>
       </c>
       <c r="M46" t="s">
-        <v>281</v>
+        <v>253</v>
       </c>
       <c r="N46" t="s">
-        <v>277</v>
+        <v>249</v>
       </c>
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>270</v>
+        <v>242</v>
       </c>
       <c r="B47" t="s">
-        <v>249</v>
+        <v>221</v>
       </c>
       <c r="C47" s="2">
         <v>6972064372366</v>
@@ -3018,7 +2961,7 @@
         <v>43272.763888888891</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>235</v>
+        <v>207</v>
       </c>
       <c r="G47">
         <v>0.34</v>
@@ -3033,18 +2976,18 @@
         <v>14</v>
       </c>
       <c r="M47" t="s">
-        <v>281</v>
+        <v>253</v>
       </c>
       <c r="N47" t="s">
-        <v>277</v>
+        <v>249</v>
       </c>
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>270</v>
+        <v>242</v>
       </c>
       <c r="B48" t="s">
-        <v>252</v>
+        <v>224</v>
       </c>
       <c r="C48" s="2">
         <v>6972536372393</v>
@@ -3056,7 +2999,7 @@
         <v>43272.770138888889</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>235</v>
+        <v>207</v>
       </c>
       <c r="G48">
         <v>0</v>
@@ -3071,18 +3014,18 @@
         <v>5</v>
       </c>
       <c r="M48" t="s">
-        <v>281</v>
+        <v>253</v>
       </c>
       <c r="N48" t="s">
-        <v>277</v>
+        <v>249</v>
       </c>
     </row>
     <row r="49" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>270</v>
+        <v>242</v>
       </c>
       <c r="B49" t="s">
-        <v>253</v>
+        <v>225</v>
       </c>
       <c r="C49" s="2">
         <v>6972698372400</v>
@@ -3094,7 +3037,7 @@
         <v>43272.772916666669</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>235</v>
+        <v>207</v>
       </c>
       <c r="G49">
         <v>0.16</v>
@@ -3109,18 +3052,18 @@
         <v>22</v>
       </c>
       <c r="M49" t="s">
-        <v>281</v>
+        <v>253</v>
       </c>
       <c r="N49" t="s">
-        <v>277</v>
+        <v>249</v>
       </c>
     </row>
     <row r="50" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>270</v>
+        <v>242</v>
       </c>
       <c r="B50" t="s">
-        <v>253</v>
+        <v>225</v>
       </c>
       <c r="C50" s="2">
         <v>6972698372400</v>
@@ -3132,7 +3075,7 @@
         <v>43272.772916666669</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>235</v>
+        <v>207</v>
       </c>
       <c r="G50">
         <v>0.31</v>
@@ -3147,18 +3090,18 @@
         <v>18</v>
       </c>
       <c r="M50" t="s">
-        <v>281</v>
+        <v>253</v>
       </c>
       <c r="N50" t="s">
-        <v>277</v>
+        <v>249</v>
       </c>
     </row>
     <row r="51" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>270</v>
+        <v>242</v>
       </c>
       <c r="B51" t="s">
-        <v>271</v>
+        <v>243</v>
       </c>
       <c r="C51" s="2">
         <v>6973557372594</v>
@@ -3170,18 +3113,18 @@
         <v>43272.78402777778</v>
       </c>
       <c r="F51" t="s">
-        <v>318</v>
+        <v>290</v>
       </c>
       <c r="N51" t="s">
-        <v>277</v>
+        <v>249</v>
       </c>
     </row>
     <row r="53" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>282</v>
+        <v>254</v>
       </c>
       <c r="B53" t="s">
-        <v>283</v>
+        <v>255</v>
       </c>
       <c r="C53" s="2">
         <v>6979244373084</v>
@@ -3193,18 +3136,18 @@
         <v>43275.466666666667</v>
       </c>
       <c r="F53" t="s">
-        <v>233</v>
+        <v>205</v>
       </c>
       <c r="N53" t="s">
-        <v>285</v>
+        <v>257</v>
       </c>
     </row>
     <row r="54" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>282</v>
+        <v>254</v>
       </c>
       <c r="B54" t="s">
-        <v>234</v>
+        <v>206</v>
       </c>
       <c r="C54" s="2">
         <v>6979259374093</v>
@@ -3216,7 +3159,7 @@
         <v>43275.482638888891</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>235</v>
+        <v>207</v>
       </c>
       <c r="G54">
         <v>0.47</v>
@@ -3231,18 +3174,18 @@
         <v>38</v>
       </c>
       <c r="M54" t="s">
-        <v>284</v>
+        <v>256</v>
       </c>
       <c r="N54" t="s">
-        <v>285</v>
+        <v>257</v>
       </c>
     </row>
     <row r="55" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>282</v>
+        <v>254</v>
       </c>
       <c r="B55" t="s">
-        <v>236</v>
+        <v>208</v>
       </c>
       <c r="C55" s="2">
         <v>6979294374207</v>
@@ -3254,7 +3197,7 @@
         <v>43275.486111111109</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>235</v>
+        <v>207</v>
       </c>
       <c r="G55">
         <v>0.09</v>
@@ -3269,18 +3212,18 @@
         <v>2</v>
       </c>
       <c r="M55" t="s">
-        <v>284</v>
+        <v>256</v>
       </c>
       <c r="N55" t="s">
-        <v>285</v>
+        <v>257</v>
       </c>
     </row>
     <row r="56" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>282</v>
+        <v>254</v>
       </c>
       <c r="B56" t="s">
-        <v>237</v>
+        <v>209</v>
       </c>
       <c r="C56" s="2">
         <v>6979349374543</v>
@@ -3292,7 +3235,7 @@
         <v>43275.490972222222</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>235</v>
+        <v>207</v>
       </c>
       <c r="G56">
         <v>1.1200000000000001</v>
@@ -3307,18 +3250,18 @@
         <v>10</v>
       </c>
       <c r="M56" t="s">
-        <v>263</v>
+        <v>235</v>
       </c>
       <c r="N56" t="s">
-        <v>285</v>
+        <v>257</v>
       </c>
     </row>
     <row r="57" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>282</v>
+        <v>254</v>
       </c>
       <c r="B57" t="s">
-        <v>238</v>
+        <v>210</v>
       </c>
       <c r="C57" s="2">
         <v>6979393375428</v>
@@ -3330,7 +3273,7 @@
         <v>43275.503472222219</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>235</v>
+        <v>207</v>
       </c>
       <c r="G57">
         <v>1.22</v>
@@ -3345,18 +3288,18 @@
         <v>5</v>
       </c>
       <c r="M57" t="s">
-        <v>263</v>
+        <v>235</v>
       </c>
       <c r="N57" t="s">
-        <v>285</v>
+        <v>257</v>
       </c>
     </row>
     <row r="58" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>282</v>
+        <v>254</v>
       </c>
       <c r="B58" t="s">
-        <v>238</v>
+        <v>210</v>
       </c>
       <c r="C58" s="2">
         <v>6979393375428</v>
@@ -3368,7 +3311,7 @@
         <v>43275.503472222219</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>235</v>
+        <v>207</v>
       </c>
       <c r="G58">
         <v>1.27</v>
@@ -3383,18 +3326,18 @@
         <v>10</v>
       </c>
       <c r="M58" t="s">
-        <v>263</v>
+        <v>235</v>
       </c>
       <c r="N58" t="s">
-        <v>285</v>
+        <v>257</v>
       </c>
     </row>
     <row r="59" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>282</v>
+        <v>254</v>
       </c>
       <c r="B59" t="s">
-        <v>239</v>
+        <v>211</v>
       </c>
       <c r="C59" s="2">
         <v>6979402375452</v>
@@ -3406,7 +3349,7 @@
         <v>43275.505555555559</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>235</v>
+        <v>207</v>
       </c>
       <c r="G59">
         <v>0.11</v>
@@ -3421,18 +3364,18 @@
         <v>3</v>
       </c>
       <c r="M59" t="s">
-        <v>286</v>
+        <v>258</v>
       </c>
       <c r="N59" t="s">
-        <v>285</v>
+        <v>257</v>
       </c>
     </row>
     <row r="60" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>282</v>
+        <v>254</v>
       </c>
       <c r="B60" t="s">
-        <v>240</v>
+        <v>212</v>
       </c>
       <c r="C60" s="2">
         <v>6979403375458</v>
@@ -3444,7 +3387,7 @@
         <v>43275.506249999999</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>235</v>
+        <v>207</v>
       </c>
       <c r="G60">
         <v>0.16</v>
@@ -3459,18 +3402,18 @@
         <v>4</v>
       </c>
       <c r="M60" t="s">
-        <v>284</v>
+        <v>256</v>
       </c>
       <c r="N60" t="s">
-        <v>285</v>
+        <v>257</v>
       </c>
     </row>
     <row r="61" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>282</v>
+        <v>254</v>
       </c>
       <c r="B61" t="s">
-        <v>245</v>
+        <v>217</v>
       </c>
       <c r="C61" s="2">
         <v>6979447375644</v>
@@ -3482,7 +3425,7 @@
         <v>43275.509027777778</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>235</v>
+        <v>207</v>
       </c>
       <c r="G61">
         <v>7.0000000000000007E-2</v>
@@ -3497,18 +3440,18 @@
         <v>2</v>
       </c>
       <c r="M61" t="s">
-        <v>284</v>
+        <v>256</v>
       </c>
       <c r="N61" t="s">
-        <v>285</v>
+        <v>257</v>
       </c>
     </row>
     <row r="62" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>282</v>
+        <v>254</v>
       </c>
       <c r="B62" t="s">
-        <v>246</v>
+        <v>218</v>
       </c>
       <c r="C62" s="2">
         <v>6979449375655</v>
@@ -3520,7 +3463,7 @@
         <v>43275.510416666664</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>235</v>
+        <v>207</v>
       </c>
       <c r="G62">
         <v>0.34</v>
@@ -3535,18 +3478,18 @@
         <v>6</v>
       </c>
       <c r="M62" t="s">
-        <v>263</v>
+        <v>235</v>
       </c>
       <c r="N62" t="s">
-        <v>285</v>
+        <v>257</v>
       </c>
     </row>
     <row r="63" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>282</v>
+        <v>254</v>
       </c>
       <c r="B63" t="s">
-        <v>246</v>
+        <v>218</v>
       </c>
       <c r="C63" s="2">
         <v>6979449375655</v>
@@ -3558,7 +3501,7 @@
         <v>43275.510416666664</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>235</v>
+        <v>207</v>
       </c>
       <c r="G63">
         <v>0.49</v>
@@ -3573,18 +3516,18 @@
         <v>10</v>
       </c>
       <c r="M63" t="s">
-        <v>263</v>
+        <v>235</v>
       </c>
       <c r="N63" t="s">
-        <v>285</v>
+        <v>257</v>
       </c>
     </row>
     <row r="64" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>282</v>
+        <v>254</v>
       </c>
       <c r="B64" t="s">
-        <v>247</v>
+        <v>219</v>
       </c>
       <c r="C64" s="2">
         <v>6979453375702</v>
@@ -3596,7 +3539,7 @@
         <v>43275.511805555558</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>235</v>
+        <v>207</v>
       </c>
       <c r="G64">
         <v>0.96</v>
@@ -3611,18 +3554,18 @@
         <v>16</v>
       </c>
       <c r="M64" t="s">
-        <v>263</v>
+        <v>235</v>
       </c>
       <c r="N64" t="s">
-        <v>285</v>
+        <v>257</v>
       </c>
     </row>
     <row r="65" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>282</v>
+        <v>254</v>
       </c>
       <c r="B65" t="s">
-        <v>247</v>
+        <v>219</v>
       </c>
       <c r="C65" s="2">
         <v>6979453375702</v>
@@ -3634,7 +3577,7 @@
         <v>43275.511805555558</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>235</v>
+        <v>207</v>
       </c>
       <c r="G65">
         <v>1.76</v>
@@ -3649,18 +3592,18 @@
         <v>1</v>
       </c>
       <c r="M65" t="s">
-        <v>263</v>
+        <v>235</v>
       </c>
       <c r="N65" t="s">
-        <v>285</v>
+        <v>257</v>
       </c>
     </row>
     <row r="66" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>282</v>
+        <v>254</v>
       </c>
       <c r="B66" t="s">
-        <v>248</v>
+        <v>220</v>
       </c>
       <c r="C66" s="2">
         <v>6979461376376</v>
@@ -3672,7 +3615,7 @@
         <v>43275.520138888889</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>235</v>
+        <v>207</v>
       </c>
       <c r="G66">
         <v>0.28999999999999998</v>
@@ -3687,18 +3630,18 @@
         <v>13</v>
       </c>
       <c r="M66" t="s">
-        <v>286</v>
+        <v>258</v>
       </c>
       <c r="N66" t="s">
-        <v>285</v>
+        <v>257</v>
       </c>
     </row>
     <row r="67" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>282</v>
+        <v>254</v>
       </c>
       <c r="B67" t="s">
-        <v>287</v>
+        <v>259</v>
       </c>
       <c r="C67" s="2">
         <v>6979540377111</v>
@@ -3710,18 +3653,18 @@
         <v>43275.53125</v>
       </c>
       <c r="F67" t="s">
-        <v>232</v>
+        <v>204</v>
       </c>
       <c r="N67" t="s">
-        <v>285</v>
+        <v>257</v>
       </c>
     </row>
     <row r="68" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>282</v>
+        <v>254</v>
       </c>
       <c r="B68" t="s">
-        <v>249</v>
+        <v>221</v>
       </c>
       <c r="C68" s="2">
         <v>6979810376940</v>
@@ -3733,7 +3676,7 @@
         <v>43275.574305555558</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>235</v>
+        <v>207</v>
       </c>
       <c r="G68">
         <v>0.27</v>
@@ -3748,18 +3691,18 @@
         <v>22</v>
       </c>
       <c r="M68" t="s">
-        <v>286</v>
+        <v>258</v>
       </c>
       <c r="N68" t="s">
-        <v>285</v>
+        <v>257</v>
       </c>
     </row>
     <row r="69" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>282</v>
+        <v>254</v>
       </c>
       <c r="B69" t="s">
-        <v>252</v>
+        <v>224</v>
       </c>
       <c r="C69" s="2">
         <v>6979827376931</v>
@@ -3771,7 +3714,7 @@
         <v>43275.577777777777</v>
       </c>
       <c r="F69" s="1" t="s">
-        <v>235</v>
+        <v>207</v>
       </c>
       <c r="G69">
         <v>0.03</v>
@@ -3786,18 +3729,18 @@
         <v>10</v>
       </c>
       <c r="M69" t="s">
-        <v>284</v>
+        <v>256</v>
       </c>
       <c r="N69" t="s">
-        <v>285</v>
+        <v>257</v>
       </c>
     </row>
     <row r="70" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>282</v>
+        <v>254</v>
       </c>
       <c r="B70" t="s">
-        <v>243</v>
+        <v>215</v>
       </c>
       <c r="C70" s="2">
         <v>6980190376690</v>
@@ -3809,18 +3752,18 @@
         <v>43275.584722222222</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>244</v>
+        <v>216</v>
       </c>
       <c r="N70" t="s">
-        <v>285</v>
+        <v>257</v>
       </c>
     </row>
     <row r="71" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>282</v>
+        <v>254</v>
       </c>
       <c r="B71" t="s">
-        <v>243</v>
+        <v>215</v>
       </c>
       <c r="C71" s="2">
         <v>6980386376751</v>
@@ -3832,18 +3775,18 @@
         <v>43275.587500000001</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>244</v>
+        <v>216</v>
       </c>
       <c r="N71" t="s">
-        <v>285</v>
+        <v>257</v>
       </c>
     </row>
     <row r="72" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>282</v>
+        <v>254</v>
       </c>
       <c r="B72" t="s">
-        <v>253</v>
+        <v>225</v>
       </c>
       <c r="C72" s="2">
         <v>6980495376677</v>
@@ -3855,7 +3798,7 @@
         <v>43275.591666666667</v>
       </c>
       <c r="F72" s="1" t="s">
-        <v>235</v>
+        <v>207</v>
       </c>
       <c r="G72">
         <v>0.06</v>
@@ -3870,18 +3813,18 @@
         <v>26</v>
       </c>
       <c r="M72" t="s">
-        <v>263</v>
+        <v>235</v>
       </c>
       <c r="N72" t="s">
-        <v>285</v>
+        <v>257</v>
       </c>
     </row>
     <row r="73" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>282</v>
+        <v>254</v>
       </c>
       <c r="B73" t="s">
-        <v>254</v>
+        <v>226</v>
       </c>
       <c r="C73" s="2">
         <v>6981379376002</v>
@@ -3893,7 +3836,7 @@
         <v>43275.605555555558</v>
       </c>
       <c r="F73" s="1" t="s">
-        <v>235</v>
+        <v>207</v>
       </c>
       <c r="G73">
         <v>0.04</v>
@@ -3908,18 +3851,18 @@
         <v>11</v>
       </c>
       <c r="M73" t="s">
-        <v>288</v>
+        <v>260</v>
       </c>
       <c r="N73" t="s">
-        <v>285</v>
+        <v>257</v>
       </c>
     </row>
     <row r="74" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>282</v>
+        <v>254</v>
       </c>
       <c r="B74" t="s">
-        <v>289</v>
+        <v>261</v>
       </c>
       <c r="C74" s="2">
         <v>6981405375984</v>
@@ -3931,7 +3874,7 @@
         <v>43275.609722222223</v>
       </c>
       <c r="F74" s="1" t="s">
-        <v>235</v>
+        <v>207</v>
       </c>
       <c r="G74">
         <v>0</v>
@@ -3943,21 +3886,21 @@
         <v>2</v>
       </c>
       <c r="L74" t="s">
-        <v>290</v>
+        <v>262</v>
       </c>
       <c r="M74" t="s">
-        <v>291</v>
+        <v>263</v>
       </c>
       <c r="N74" t="s">
-        <v>285</v>
+        <v>257</v>
       </c>
     </row>
     <row r="75" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>282</v>
+        <v>254</v>
       </c>
       <c r="B75" t="s">
-        <v>292</v>
+        <v>264</v>
       </c>
       <c r="C75" s="2">
         <v>6981405375983</v>
@@ -3969,7 +3912,7 @@
         <v>43275.61041666667</v>
       </c>
       <c r="F75" s="1" t="s">
-        <v>235</v>
+        <v>207</v>
       </c>
       <c r="G75">
         <v>0.13</v>
@@ -3984,18 +3927,18 @@
         <v>19</v>
       </c>
       <c r="M75" t="s">
-        <v>286</v>
+        <v>258</v>
       </c>
       <c r="N75" t="s">
-        <v>285</v>
+        <v>257</v>
       </c>
     </row>
     <row r="76" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>282</v>
+        <v>254</v>
       </c>
       <c r="B76" t="s">
-        <v>292</v>
+        <v>264</v>
       </c>
       <c r="C76" s="2">
         <v>6981405375983</v>
@@ -4007,7 +3950,7 @@
         <v>43275.61041666667</v>
       </c>
       <c r="F76" s="1" t="s">
-        <v>235</v>
+        <v>207</v>
       </c>
       <c r="G76">
         <v>0.98</v>
@@ -4022,18 +3965,18 @@
         <v>20</v>
       </c>
       <c r="M76" t="s">
-        <v>286</v>
+        <v>258</v>
       </c>
       <c r="N76" t="s">
-        <v>285</v>
+        <v>257</v>
       </c>
     </row>
     <row r="77" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>282</v>
+        <v>254</v>
       </c>
       <c r="B77" t="s">
-        <v>274</v>
+        <v>246</v>
       </c>
       <c r="C77" s="2">
         <v>6982053375446</v>
@@ -4045,7 +3988,7 @@
         <v>43275.62777777778</v>
       </c>
       <c r="F77" s="1" t="s">
-        <v>275</v>
+        <v>247</v>
       </c>
       <c r="G77">
         <v>16.2</v>
@@ -4054,21 +3997,21 @@
         <v>352</v>
       </c>
       <c r="I77" t="s">
-        <v>276</v>
+        <v>248</v>
       </c>
       <c r="L77">
         <v>1</v>
       </c>
       <c r="N77" t="s">
-        <v>285</v>
+        <v>257</v>
       </c>
     </row>
     <row r="78" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>282</v>
+        <v>254</v>
       </c>
       <c r="B78" t="s">
-        <v>293</v>
+        <v>265</v>
       </c>
       <c r="C78" s="2">
         <v>6982141375389</v>
@@ -4080,7 +4023,7 @@
         <v>43275.633333333331</v>
       </c>
       <c r="F78" s="1" t="s">
-        <v>235</v>
+        <v>207</v>
       </c>
       <c r="G78">
         <v>0.14000000000000001</v>
@@ -4095,18 +4038,18 @@
         <v>3</v>
       </c>
       <c r="M78" t="s">
-        <v>284</v>
+        <v>256</v>
       </c>
       <c r="N78" t="s">
-        <v>285</v>
+        <v>257</v>
       </c>
     </row>
     <row r="79" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>282</v>
+        <v>254</v>
       </c>
       <c r="B79" t="s">
-        <v>294</v>
+        <v>266</v>
       </c>
       <c r="C79" s="2">
         <v>6982655375095</v>
@@ -4118,7 +4061,7 @@
         <v>43275.652083333334</v>
       </c>
       <c r="F79" s="1" t="s">
-        <v>275</v>
+        <v>247</v>
       </c>
       <c r="G79">
         <v>11.9</v>
@@ -4127,21 +4070,21 @@
         <v>316</v>
       </c>
       <c r="I79" t="s">
-        <v>276</v>
+        <v>248</v>
       </c>
       <c r="L79">
         <v>1</v>
       </c>
       <c r="N79" t="s">
-        <v>285</v>
+        <v>257</v>
       </c>
     </row>
     <row r="80" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>282</v>
+        <v>254</v>
       </c>
       <c r="B80" t="s">
-        <v>295</v>
+        <v>267</v>
       </c>
       <c r="C80" s="2">
         <v>6982782375018</v>
@@ -4153,7 +4096,7 @@
         <v>43275.654861111114</v>
       </c>
       <c r="F80" s="1" t="s">
-        <v>235</v>
+        <v>207</v>
       </c>
       <c r="G80">
         <v>1.41</v>
@@ -4168,18 +4111,18 @@
         <v>42</v>
       </c>
       <c r="M80" t="s">
-        <v>284</v>
+        <v>256</v>
       </c>
       <c r="N80" t="s">
-        <v>285</v>
+        <v>257</v>
       </c>
     </row>
     <row r="81" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>282</v>
+        <v>254</v>
       </c>
       <c r="B81" t="s">
-        <v>296</v>
+        <v>268</v>
       </c>
       <c r="C81" s="2">
         <v>6982934374992</v>
@@ -4191,7 +4134,7 @@
         <v>43275.660416666666</v>
       </c>
       <c r="F81" s="1" t="s">
-        <v>275</v>
+        <v>247</v>
       </c>
       <c r="G81">
         <v>36.200000000000003</v>
@@ -4200,21 +4143,21 @@
         <v>282</v>
       </c>
       <c r="I81" t="s">
-        <v>276</v>
+        <v>248</v>
       </c>
       <c r="L81">
         <v>2</v>
       </c>
       <c r="N81" t="s">
-        <v>285</v>
+        <v>257</v>
       </c>
     </row>
     <row r="82" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>282</v>
+        <v>254</v>
       </c>
       <c r="B82" t="s">
-        <v>296</v>
+        <v>268</v>
       </c>
       <c r="C82" s="2">
         <v>6982934374992</v>
@@ -4226,7 +4169,7 @@
         <v>43275.660416666666</v>
       </c>
       <c r="F82" s="1" t="s">
-        <v>235</v>
+        <v>207</v>
       </c>
       <c r="G82">
         <v>1.78</v>
@@ -4241,53 +4184,53 @@
         <v>5</v>
       </c>
       <c r="M82" t="s">
-        <v>297</v>
+        <v>269</v>
       </c>
       <c r="N82" t="s">
-        <v>285</v>
+        <v>257</v>
       </c>
     </row>
     <row r="83" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>282</v>
+        <v>254</v>
       </c>
       <c r="B83" t="s">
-        <v>298</v>
+        <v>270</v>
       </c>
       <c r="C83" s="2">
         <v>6983066374961</v>
       </c>
       <c r="D83" t="s">
-        <v>299</v>
+        <v>271</v>
       </c>
       <c r="E83" s="1">
         <v>43275.665972222225</v>
       </c>
       <c r="F83" t="s">
-        <v>232</v>
+        <v>204</v>
       </c>
       <c r="N83" t="s">
-        <v>285</v>
+        <v>257</v>
       </c>
     </row>
     <row r="84" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>282</v>
+        <v>254</v>
       </c>
       <c r="B84" t="s">
-        <v>298</v>
+        <v>270</v>
       </c>
       <c r="C84" s="2">
         <v>6983066374961</v>
       </c>
       <c r="D84" t="s">
-        <v>299</v>
+        <v>271</v>
       </c>
       <c r="E84" s="1">
         <v>43275.665972222225</v>
       </c>
       <c r="F84" t="s">
-        <v>235</v>
+        <v>207</v>
       </c>
       <c r="G84">
         <v>0.22</v>
@@ -4302,18 +4245,18 @@
         <v>2</v>
       </c>
       <c r="M84" t="s">
-        <v>300</v>
+        <v>272</v>
       </c>
       <c r="N84" t="s">
-        <v>285</v>
+        <v>257</v>
       </c>
     </row>
     <row r="85" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>282</v>
+        <v>254</v>
       </c>
       <c r="B85" t="s">
-        <v>301</v>
+        <v>273</v>
       </c>
       <c r="C85" s="2">
         <v>6982882374576</v>
@@ -4325,7 +4268,7 @@
         <v>43275.67291666667</v>
       </c>
       <c r="F85" s="1" t="s">
-        <v>235</v>
+        <v>207</v>
       </c>
       <c r="G85">
         <v>0.27</v>
@@ -4340,18 +4283,18 @@
         <v>17</v>
       </c>
       <c r="M85" t="s">
-        <v>300</v>
+        <v>272</v>
       </c>
       <c r="N85" t="s">
-        <v>285</v>
+        <v>257</v>
       </c>
     </row>
     <row r="86" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>282</v>
+        <v>254</v>
       </c>
       <c r="B86" t="s">
-        <v>243</v>
+        <v>215</v>
       </c>
       <c r="C86" s="2">
         <v>6982854374500</v>
@@ -4363,18 +4306,18 @@
         <v>43275.675694444442</v>
       </c>
       <c r="F86" s="1" t="s">
-        <v>244</v>
+        <v>216</v>
       </c>
       <c r="N86" t="s">
-        <v>285</v>
+        <v>257</v>
       </c>
     </row>
     <row r="87" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>282</v>
+        <v>254</v>
       </c>
       <c r="B87" t="s">
-        <v>302</v>
+        <v>274</v>
       </c>
       <c r="C87" s="2">
         <v>6981881373834</v>
@@ -4386,7 +4329,7 @@
         <v>43275.695833333331</v>
       </c>
       <c r="F87" s="1" t="s">
-        <v>235</v>
+        <v>207</v>
       </c>
       <c r="G87">
         <v>0.04</v>
@@ -4401,18 +4344,18 @@
         <v>1</v>
       </c>
       <c r="M87" t="s">
-        <v>284</v>
+        <v>256</v>
       </c>
       <c r="N87" t="s">
-        <v>285</v>
+        <v>257</v>
       </c>
     </row>
     <row r="88" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>282</v>
+        <v>254</v>
       </c>
       <c r="B88" t="s">
-        <v>302</v>
+        <v>274</v>
       </c>
       <c r="C88" s="2">
         <v>6981881373834</v>
@@ -4424,7 +4367,7 @@
         <v>43275.695833333331</v>
       </c>
       <c r="F88" s="1" t="s">
-        <v>235</v>
+        <v>207</v>
       </c>
       <c r="G88">
         <v>0.84</v>
@@ -4439,18 +4382,18 @@
         <v>32</v>
       </c>
       <c r="M88" t="s">
-        <v>281</v>
+        <v>253</v>
       </c>
       <c r="N88" t="s">
-        <v>285</v>
+        <v>257</v>
       </c>
     </row>
     <row r="89" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>282</v>
+        <v>254</v>
       </c>
       <c r="B89" t="s">
-        <v>243</v>
+        <v>215</v>
       </c>
       <c r="C89" s="2">
         <v>6981316373475</v>
@@ -4462,18 +4405,18 @@
         <v>43275.705555555556</v>
       </c>
       <c r="F89" s="1" t="s">
-        <v>244</v>
+        <v>216</v>
       </c>
       <c r="N89" t="s">
-        <v>285</v>
+        <v>257</v>
       </c>
     </row>
     <row r="90" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>282</v>
+        <v>254</v>
       </c>
       <c r="B90" t="s">
-        <v>303</v>
+        <v>275</v>
       </c>
       <c r="C90" s="2">
         <v>6980670373232</v>
@@ -4485,7 +4428,7 @@
         <v>43275.720138888886</v>
       </c>
       <c r="F90" s="1" t="s">
-        <v>235</v>
+        <v>207</v>
       </c>
       <c r="G90">
         <v>0</v>
@@ -4500,18 +4443,18 @@
         <v>1</v>
       </c>
       <c r="M90" t="s">
-        <v>284</v>
+        <v>256</v>
       </c>
       <c r="N90" t="s">
-        <v>285</v>
+        <v>257</v>
       </c>
     </row>
     <row r="91" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>282</v>
+        <v>254</v>
       </c>
       <c r="B91" t="s">
-        <v>283</v>
+        <v>255</v>
       </c>
       <c r="C91" s="2">
         <v>6979244373084</v>
@@ -4523,15 +4466,15 @@
         <v>43275.743055555555</v>
       </c>
       <c r="F91" t="s">
-        <v>318</v>
+        <v>290</v>
       </c>
       <c r="N91" t="s">
-        <v>285</v>
+        <v>257</v>
       </c>
     </row>
     <row r="93" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>304</v>
+        <v>276</v>
       </c>
       <c r="B93" t="s">
         <v>64</v>
@@ -4546,24 +4489,24 @@
         <v>43276.445138888892</v>
       </c>
       <c r="F93" s="1" t="s">
-        <v>306</v>
+        <v>278</v>
       </c>
       <c r="L93">
         <v>1</v>
       </c>
       <c r="M93" t="s">
-        <v>307</v>
+        <v>279</v>
       </c>
       <c r="N93" t="s">
-        <v>308</v>
+        <v>280</v>
       </c>
     </row>
     <row r="94" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>304</v>
+        <v>276</v>
       </c>
       <c r="B94" s="3" t="s">
-        <v>305</v>
+        <v>277</v>
       </c>
       <c r="C94" s="2">
         <v>6987664372345</v>
@@ -4575,15 +4518,15 @@
         <v>43276.534722222219</v>
       </c>
       <c r="F94" t="s">
-        <v>233</v>
+        <v>205</v>
       </c>
       <c r="N94" t="s">
-        <v>308</v>
+        <v>280</v>
       </c>
     </row>
     <row r="95" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>304</v>
+        <v>276</v>
       </c>
       <c r="B95" t="s">
         <v>30</v>
@@ -4598,7 +4541,7 @@
         <v>43276.551388888889</v>
       </c>
       <c r="F95" s="1" t="s">
-        <v>272</v>
+        <v>244</v>
       </c>
       <c r="G95">
         <v>22</v>
@@ -4607,21 +4550,21 @@
         <v>318</v>
       </c>
       <c r="I95" t="s">
-        <v>309</v>
+        <v>281</v>
       </c>
       <c r="L95">
         <v>1</v>
       </c>
       <c r="N95" t="s">
-        <v>308</v>
+        <v>280</v>
       </c>
     </row>
     <row r="96" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>304</v>
+        <v>276</v>
       </c>
       <c r="B96" t="s">
-        <v>234</v>
+        <v>206</v>
       </c>
       <c r="C96" s="2">
         <v>6989072374165</v>
@@ -4633,7 +4576,7 @@
         <v>43276.624305555553</v>
       </c>
       <c r="F96" s="1" t="s">
-        <v>235</v>
+        <v>207</v>
       </c>
       <c r="G96">
         <v>0.47</v>
@@ -4648,18 +4591,18 @@
         <v>1</v>
       </c>
       <c r="M96" t="s">
-        <v>300</v>
+        <v>272</v>
       </c>
       <c r="N96" t="s">
-        <v>308</v>
+        <v>280</v>
       </c>
     </row>
     <row r="97" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>304</v>
+        <v>276</v>
       </c>
       <c r="B97" t="s">
-        <v>236</v>
+        <v>208</v>
       </c>
       <c r="C97" s="2">
         <v>6989109374195</v>
@@ -4671,7 +4614,7 @@
         <v>43276.626388888886</v>
       </c>
       <c r="F97" s="1" t="s">
-        <v>235</v>
+        <v>207</v>
       </c>
       <c r="G97">
         <v>0.33</v>
@@ -4686,18 +4629,18 @@
         <v>2</v>
       </c>
       <c r="M97" t="s">
-        <v>284</v>
+        <v>256</v>
       </c>
       <c r="N97" t="s">
-        <v>308</v>
+        <v>280</v>
       </c>
     </row>
     <row r="98" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>304</v>
+        <v>276</v>
       </c>
       <c r="B98" t="s">
-        <v>237</v>
+        <v>209</v>
       </c>
       <c r="C98" s="2">
         <v>6989396374373</v>
@@ -4709,7 +4652,7 @@
         <v>43276.631249999999</v>
       </c>
       <c r="F98" s="1" t="s">
-        <v>235</v>
+        <v>207</v>
       </c>
       <c r="G98">
         <v>0.26</v>
@@ -4724,18 +4667,18 @@
         <v>15</v>
       </c>
       <c r="M98" t="s">
-        <v>310</v>
+        <v>282</v>
       </c>
       <c r="N98" t="s">
-        <v>308</v>
+        <v>280</v>
       </c>
     </row>
     <row r="99" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>304</v>
+        <v>276</v>
       </c>
       <c r="B99" t="s">
-        <v>237</v>
+        <v>209</v>
       </c>
       <c r="C99" s="2">
         <v>6989396374373</v>
@@ -4747,7 +4690,7 @@
         <v>43276.631249999999</v>
       </c>
       <c r="F99" s="1" t="s">
-        <v>235</v>
+        <v>207</v>
       </c>
       <c r="G99">
         <v>0.42</v>
@@ -4762,18 +4705,18 @@
         <v>18</v>
       </c>
       <c r="M99" t="s">
-        <v>284</v>
+        <v>256</v>
       </c>
       <c r="N99" t="s">
-        <v>308</v>
+        <v>280</v>
       </c>
     </row>
     <row r="100" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>304</v>
+        <v>276</v>
       </c>
       <c r="B100" t="s">
-        <v>238</v>
+        <v>210</v>
       </c>
       <c r="C100" s="2">
         <v>6989430374420</v>
@@ -4785,7 +4728,7 @@
         <v>43276.634722222225</v>
       </c>
       <c r="F100" s="1" t="s">
-        <v>235</v>
+        <v>207</v>
       </c>
       <c r="G100">
         <v>0.39</v>
@@ -4800,18 +4743,18 @@
         <v>2</v>
       </c>
       <c r="M100" t="s">
-        <v>311</v>
+        <v>283</v>
       </c>
       <c r="N100" t="s">
-        <v>308</v>
+        <v>280</v>
       </c>
     </row>
     <row r="101" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>304</v>
+        <v>276</v>
       </c>
       <c r="B101" t="s">
-        <v>238</v>
+        <v>210</v>
       </c>
       <c r="C101" s="2">
         <v>6989430374420</v>
@@ -4823,7 +4766,7 @@
         <v>43276.634722222225</v>
       </c>
       <c r="F101" s="1" t="s">
-        <v>235</v>
+        <v>207</v>
       </c>
       <c r="G101">
         <v>1.62</v>
@@ -4838,18 +4781,18 @@
         <v>4</v>
       </c>
       <c r="M101" t="s">
-        <v>311</v>
+        <v>283</v>
       </c>
       <c r="N101" t="s">
-        <v>308</v>
+        <v>280</v>
       </c>
     </row>
     <row r="102" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
-        <v>304</v>
+        <v>276</v>
       </c>
       <c r="B102" t="s">
-        <v>239</v>
+        <v>211</v>
       </c>
       <c r="C102" s="2">
         <v>6989441374434</v>
@@ -4861,7 +4804,7 @@
         <v>43276.636805555558</v>
       </c>
       <c r="F102" s="1" t="s">
-        <v>235</v>
+        <v>207</v>
       </c>
       <c r="G102">
         <v>0.16</v>
@@ -4876,18 +4819,18 @@
         <v>2</v>
       </c>
       <c r="M102" t="s">
-        <v>311</v>
+        <v>283</v>
       </c>
       <c r="N102" t="s">
-        <v>308</v>
+        <v>280</v>
       </c>
     </row>
     <row r="103" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
-        <v>304</v>
+        <v>276</v>
       </c>
       <c r="B103" t="s">
-        <v>240</v>
+        <v>212</v>
       </c>
       <c r="C103" s="2">
         <v>6989492374527</v>
@@ -4899,7 +4842,7 @@
         <v>43276.638888888891</v>
       </c>
       <c r="F103" s="1" t="s">
-        <v>235</v>
+        <v>207</v>
       </c>
       <c r="G103">
         <v>0.02</v>
@@ -4914,18 +4857,18 @@
         <v>4</v>
       </c>
       <c r="M103" t="s">
-        <v>311</v>
+        <v>283</v>
       </c>
       <c r="N103" t="s">
-        <v>308</v>
+        <v>280</v>
       </c>
     </row>
     <row r="104" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
-        <v>304</v>
+        <v>276</v>
       </c>
       <c r="B104" t="s">
-        <v>240</v>
+        <v>212</v>
       </c>
       <c r="C104" s="2">
         <v>6989492374527</v>
@@ -4937,7 +4880,7 @@
         <v>43276.638888888891</v>
       </c>
       <c r="F104" s="1" t="s">
-        <v>235</v>
+        <v>207</v>
       </c>
       <c r="G104">
         <v>0.56999999999999995</v>
@@ -4952,18 +4895,18 @@
         <v>2</v>
       </c>
       <c r="M104" t="s">
-        <v>311</v>
+        <v>283</v>
       </c>
       <c r="N104" t="s">
-        <v>308</v>
+        <v>280</v>
       </c>
     </row>
     <row r="105" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
-        <v>304</v>
+        <v>276</v>
       </c>
       <c r="B105" t="s">
-        <v>240</v>
+        <v>212</v>
       </c>
       <c r="C105" s="2">
         <v>6989492374527</v>
@@ -4975,7 +4918,7 @@
         <v>43276.638888888891</v>
       </c>
       <c r="F105" s="1" t="s">
-        <v>235</v>
+        <v>207</v>
       </c>
       <c r="G105">
         <v>0.61</v>
@@ -4990,18 +4933,18 @@
         <v>15</v>
       </c>
       <c r="M105" t="s">
-        <v>310</v>
+        <v>282</v>
       </c>
       <c r="N105" t="s">
-        <v>308</v>
+        <v>280</v>
       </c>
     </row>
     <row r="106" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
-        <v>304</v>
+        <v>276</v>
       </c>
       <c r="B106" t="s">
-        <v>274</v>
+        <v>246</v>
       </c>
       <c r="C106" s="2">
         <v>6989528374583</v>
@@ -5013,7 +4956,7 @@
         <v>43276.642361111109</v>
       </c>
       <c r="F106" s="1" t="s">
-        <v>275</v>
+        <v>247</v>
       </c>
       <c r="G106">
         <v>59.9</v>
@@ -5022,21 +4965,21 @@
         <v>44</v>
       </c>
       <c r="I106" t="s">
-        <v>276</v>
+        <v>248</v>
       </c>
       <c r="L106">
         <v>1</v>
       </c>
       <c r="N106" t="s">
-        <v>308</v>
+        <v>280</v>
       </c>
     </row>
     <row r="107" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
-        <v>304</v>
+        <v>276</v>
       </c>
       <c r="B107" t="s">
-        <v>245</v>
+        <v>217</v>
       </c>
       <c r="C107" s="2">
         <v>6989808375053</v>
@@ -5048,7 +4991,7 @@
         <v>43276.652777777781</v>
       </c>
       <c r="F107" s="1" t="s">
-        <v>235</v>
+        <v>207</v>
       </c>
       <c r="G107">
         <v>0.41</v>
@@ -5063,18 +5006,18 @@
         <v>1</v>
       </c>
       <c r="M107" t="s">
-        <v>300</v>
+        <v>272</v>
       </c>
       <c r="N107" t="s">
-        <v>308</v>
+        <v>280</v>
       </c>
     </row>
     <row r="108" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
-        <v>304</v>
+        <v>276</v>
       </c>
       <c r="B108" t="s">
-        <v>246</v>
+        <v>218</v>
       </c>
       <c r="C108" s="2">
         <v>6990146375345</v>
@@ -5086,7 +5029,7 @@
         <v>43276.659722222219</v>
       </c>
       <c r="F108" s="1" t="s">
-        <v>235</v>
+        <v>207</v>
       </c>
       <c r="G108">
         <v>0.24</v>
@@ -5101,18 +5044,18 @@
         <v>36</v>
       </c>
       <c r="M108" t="s">
-        <v>284</v>
+        <v>256</v>
       </c>
       <c r="N108" t="s">
-        <v>308</v>
+        <v>280</v>
       </c>
     </row>
     <row r="109" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
-        <v>304</v>
+        <v>276</v>
       </c>
       <c r="B109" s="3" t="s">
-        <v>230</v>
+        <v>202</v>
       </c>
       <c r="C109" s="2">
         <v>6990210375427</v>
@@ -5124,18 +5067,18 @@
         <v>43276.665972222225</v>
       </c>
       <c r="F109" s="1" t="s">
-        <v>232</v>
+        <v>204</v>
       </c>
       <c r="N109" t="s">
-        <v>308</v>
+        <v>280</v>
       </c>
     </row>
     <row r="110" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
-        <v>304</v>
+        <v>276</v>
       </c>
       <c r="B110" t="s">
-        <v>294</v>
+        <v>266</v>
       </c>
       <c r="C110" s="2">
         <v>6990211375286</v>
@@ -5147,7 +5090,7 @@
         <v>43276.668055555558</v>
       </c>
       <c r="F110" s="1" t="s">
-        <v>275</v>
+        <v>247</v>
       </c>
       <c r="G110">
         <v>7.9</v>
@@ -5159,15 +5102,15 @@
         <v>1</v>
       </c>
       <c r="N110" t="s">
-        <v>308</v>
+        <v>280</v>
       </c>
     </row>
     <row r="111" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
-        <v>304</v>
+        <v>276</v>
       </c>
       <c r="B111" t="s">
-        <v>294</v>
+        <v>266</v>
       </c>
       <c r="C111" s="2">
         <v>6990211375286</v>
@@ -5179,7 +5122,7 @@
         <v>43276.668055555558</v>
       </c>
       <c r="F111" s="1" t="s">
-        <v>272</v>
+        <v>244</v>
       </c>
       <c r="G111">
         <v>452</v>
@@ -5191,15 +5134,15 @@
         <v>1</v>
       </c>
       <c r="N111" t="s">
-        <v>308</v>
+        <v>280</v>
       </c>
     </row>
     <row r="112" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
-        <v>304</v>
+        <v>276</v>
       </c>
       <c r="B112" t="s">
-        <v>247</v>
+        <v>219</v>
       </c>
       <c r="C112" s="2">
         <v>6990229375196</v>
@@ -5211,7 +5154,7 @@
         <v>43276.671527777777</v>
       </c>
       <c r="F112" s="1" t="s">
-        <v>235</v>
+        <v>207</v>
       </c>
       <c r="G112">
         <v>0.52</v>
@@ -5226,18 +5169,18 @@
         <v>10</v>
       </c>
       <c r="M112" t="s">
-        <v>284</v>
+        <v>256</v>
       </c>
       <c r="N112" t="s">
-        <v>308</v>
+        <v>280</v>
       </c>
     </row>
     <row r="113" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
-        <v>304</v>
+        <v>276</v>
       </c>
       <c r="B113" t="s">
-        <v>247</v>
+        <v>219</v>
       </c>
       <c r="C113" s="2">
         <v>6990229375196</v>
@@ -5262,18 +5205,18 @@
         <v>19</v>
       </c>
       <c r="M113" t="s">
-        <v>284</v>
+        <v>256</v>
       </c>
       <c r="N113" t="s">
-        <v>308</v>
+        <v>280</v>
       </c>
     </row>
     <row r="114" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
-        <v>304</v>
+        <v>276</v>
       </c>
       <c r="B114" t="s">
-        <v>248</v>
+        <v>220</v>
       </c>
       <c r="C114" s="2">
         <v>6990229375192</v>
@@ -5285,7 +5228,7 @@
         <v>43276.673611111109</v>
       </c>
       <c r="F114" s="1" t="s">
-        <v>235</v>
+        <v>207</v>
       </c>
       <c r="G114">
         <v>0.79</v>
@@ -5300,18 +5243,18 @@
         <v>45</v>
       </c>
       <c r="M114" t="s">
-        <v>312</v>
+        <v>284</v>
       </c>
       <c r="N114" t="s">
-        <v>308</v>
+        <v>280</v>
       </c>
     </row>
     <row r="115" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
-        <v>304</v>
+        <v>276</v>
       </c>
       <c r="B115" t="s">
-        <v>313</v>
+        <v>285</v>
       </c>
       <c r="C115" s="2">
         <v>6990342374915</v>
@@ -5323,7 +5266,7 @@
         <v>43276.678472222222</v>
       </c>
       <c r="F115" s="1" t="s">
-        <v>314</v>
+        <v>286</v>
       </c>
       <c r="G115">
         <v>18.399999999999999</v>
@@ -5332,21 +5275,21 @@
         <v>20</v>
       </c>
       <c r="I115" t="s">
-        <v>276</v>
+        <v>248</v>
       </c>
       <c r="L115">
         <v>1</v>
       </c>
       <c r="N115" t="s">
-        <v>308</v>
+        <v>280</v>
       </c>
     </row>
     <row r="116" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
-        <v>304</v>
+        <v>276</v>
       </c>
       <c r="B116" t="s">
-        <v>313</v>
+        <v>285</v>
       </c>
       <c r="C116" s="2">
         <v>6990342374915</v>
@@ -5358,7 +5301,7 @@
         <v>43276.678472222222</v>
       </c>
       <c r="F116" s="1" t="s">
-        <v>314</v>
+        <v>286</v>
       </c>
       <c r="G116">
         <v>14.4</v>
@@ -5367,21 +5310,21 @@
         <v>24</v>
       </c>
       <c r="I116" t="s">
-        <v>276</v>
+        <v>248</v>
       </c>
       <c r="L116">
         <v>1</v>
       </c>
       <c r="N116" t="s">
-        <v>308</v>
+        <v>280</v>
       </c>
     </row>
     <row r="117" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
-        <v>304</v>
+        <v>276</v>
       </c>
       <c r="B117" t="s">
-        <v>249</v>
+        <v>221</v>
       </c>
       <c r="C117" s="2">
         <v>6990469374617</v>
@@ -5393,7 +5336,7 @@
         <v>43276.6875</v>
       </c>
       <c r="F117" s="1" t="s">
-        <v>235</v>
+        <v>207</v>
       </c>
       <c r="G117">
         <v>0.31</v>
@@ -5408,18 +5351,18 @@
         <v>1</v>
       </c>
       <c r="M117" t="s">
-        <v>284</v>
+        <v>256</v>
       </c>
       <c r="N117" t="s">
-        <v>308</v>
+        <v>280</v>
       </c>
     </row>
     <row r="118" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
-        <v>304</v>
+        <v>276</v>
       </c>
       <c r="B118" t="s">
-        <v>252</v>
+        <v>224</v>
       </c>
       <c r="C118" s="2">
         <v>6990696373981</v>
@@ -5431,7 +5374,7 @@
         <v>43276.696527777778</v>
       </c>
       <c r="F118" s="1" t="s">
-        <v>235</v>
+        <v>207</v>
       </c>
       <c r="G118">
         <v>7.0000000000000007E-2</v>
@@ -5446,18 +5389,18 @@
         <v>1</v>
       </c>
       <c r="M118" t="s">
-        <v>284</v>
+        <v>256</v>
       </c>
       <c r="N118" t="s">
-        <v>308</v>
+        <v>280</v>
       </c>
     </row>
     <row r="119" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
-        <v>304</v>
+        <v>276</v>
       </c>
       <c r="B119" t="s">
-        <v>253</v>
+        <v>225</v>
       </c>
       <c r="C119" s="2">
         <v>6990700373975</v>
@@ -5469,7 +5412,7 @@
         <v>43276.697222222225</v>
       </c>
       <c r="F119" s="1" t="s">
-        <v>235</v>
+        <v>207</v>
       </c>
       <c r="G119">
         <v>0.18</v>
@@ -5484,18 +5427,18 @@
         <v>17</v>
       </c>
       <c r="M119" t="s">
-        <v>284</v>
+        <v>256</v>
       </c>
       <c r="N119" t="s">
-        <v>308</v>
+        <v>280</v>
       </c>
     </row>
     <row r="120" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
-        <v>304</v>
+        <v>276</v>
       </c>
       <c r="B120" t="s">
-        <v>254</v>
+        <v>226</v>
       </c>
       <c r="C120" s="2">
         <v>6990705373967</v>
@@ -5507,7 +5450,7 @@
         <v>43276.699305555558</v>
       </c>
       <c r="F120" s="1" t="s">
-        <v>235</v>
+        <v>207</v>
       </c>
       <c r="G120">
         <v>0.39</v>
@@ -5522,18 +5465,18 @@
         <v>14</v>
       </c>
       <c r="M120" t="s">
-        <v>284</v>
+        <v>256</v>
       </c>
       <c r="N120" t="s">
-        <v>308</v>
+        <v>280</v>
       </c>
     </row>
     <row r="121" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
-        <v>304</v>
+        <v>276</v>
       </c>
       <c r="B121" t="s">
-        <v>289</v>
+        <v>261</v>
       </c>
       <c r="C121" s="2">
         <v>6990731373922</v>
@@ -5545,7 +5488,7 @@
         <v>43276.701388888891</v>
       </c>
       <c r="F121" s="1" t="s">
-        <v>235</v>
+        <v>207</v>
       </c>
       <c r="G121">
         <v>0.02</v>
@@ -5560,18 +5503,18 @@
         <v>11</v>
       </c>
       <c r="M121" t="s">
-        <v>315</v>
+        <v>287</v>
       </c>
       <c r="N121" t="s">
-        <v>308</v>
+        <v>280</v>
       </c>
     </row>
     <row r="122" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
-        <v>304</v>
+        <v>276</v>
       </c>
       <c r="B122" t="s">
-        <v>292</v>
+        <v>264</v>
       </c>
       <c r="C122" s="2">
         <v>6991108372720</v>
@@ -5583,7 +5526,7 @@
         <v>43276.717361111114</v>
       </c>
       <c r="F122" s="1" t="s">
-        <v>235</v>
+        <v>207</v>
       </c>
       <c r="G122">
         <v>0.01</v>
@@ -5598,18 +5541,18 @@
         <v>4</v>
       </c>
       <c r="M122" t="s">
-        <v>284</v>
+        <v>256</v>
       </c>
       <c r="N122" t="s">
-        <v>308</v>
+        <v>280</v>
       </c>
     </row>
     <row r="123" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
-        <v>304</v>
+        <v>276</v>
       </c>
       <c r="B123" t="s">
-        <v>296</v>
+        <v>268</v>
       </c>
       <c r="C123" s="2">
         <v>6991153372515</v>
@@ -5621,7 +5564,7 @@
         <v>43276.722222222219</v>
       </c>
       <c r="F123" s="1" t="s">
-        <v>275</v>
+        <v>247</v>
       </c>
       <c r="G123">
         <v>33.1</v>
@@ -5630,18 +5573,18 @@
         <v>18</v>
       </c>
       <c r="I123" t="s">
-        <v>276</v>
+        <v>248</v>
       </c>
       <c r="L123">
         <v>1</v>
       </c>
       <c r="N123" t="s">
-        <v>308</v>
+        <v>280</v>
       </c>
     </row>
     <row r="124" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
-        <v>304</v>
+        <v>276</v>
       </c>
       <c r="B124" t="s">
         <v>80</v>
@@ -5656,7 +5599,7 @@
         <v>43276.724999999999</v>
       </c>
       <c r="F124" s="1" t="s">
-        <v>317</v>
+        <v>289</v>
       </c>
       <c r="G124">
         <v>0</v>
@@ -5668,15 +5611,15 @@
         <v>1</v>
       </c>
       <c r="N124" t="s">
-        <v>308</v>
+        <v>280</v>
       </c>
     </row>
     <row r="125" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
-        <v>304</v>
+        <v>276</v>
       </c>
       <c r="B125" t="s">
-        <v>293</v>
+        <v>265</v>
       </c>
       <c r="C125" s="2">
         <v>6991331372007</v>
@@ -5688,7 +5631,7 @@
         <v>43276.730555555558</v>
       </c>
       <c r="F125" s="1" t="s">
-        <v>235</v>
+        <v>207</v>
       </c>
       <c r="G125">
         <v>0.06</v>
@@ -5703,18 +5646,18 @@
         <v>13</v>
       </c>
       <c r="M125" t="s">
-        <v>312</v>
+        <v>284</v>
       </c>
       <c r="N125" t="s">
-        <v>308</v>
+        <v>280</v>
       </c>
     </row>
     <row r="126" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
-        <v>304</v>
+        <v>276</v>
       </c>
       <c r="B126" s="3" t="s">
-        <v>241</v>
+        <v>213</v>
       </c>
       <c r="C126" s="2">
         <v>6991515371569</v>
@@ -5726,18 +5669,18 @@
         <v>43276.736805555556</v>
       </c>
       <c r="F126" s="1" t="s">
-        <v>232</v>
+        <v>204</v>
       </c>
       <c r="N126" t="s">
-        <v>308</v>
+        <v>280</v>
       </c>
     </row>
     <row r="127" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
-        <v>304</v>
+        <v>276</v>
       </c>
       <c r="B127" t="s">
-        <v>295</v>
+        <v>267</v>
       </c>
       <c r="C127" s="2">
         <v>6990806371700</v>
@@ -5749,7 +5692,7 @@
         <v>43276.75</v>
       </c>
       <c r="F127" s="1" t="s">
-        <v>235</v>
+        <v>207</v>
       </c>
       <c r="G127">
         <v>0.36</v>
@@ -5764,18 +5707,18 @@
         <v>16</v>
       </c>
       <c r="M127" t="s">
-        <v>284</v>
+        <v>256</v>
       </c>
       <c r="N127" t="s">
-        <v>308</v>
+        <v>280</v>
       </c>
     </row>
     <row r="128" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
-        <v>304</v>
+        <v>276</v>
       </c>
       <c r="B128" t="s">
-        <v>301</v>
+        <v>273</v>
       </c>
       <c r="C128" s="2">
         <v>6988299372150</v>
@@ -5787,7 +5730,7 @@
         <v>43276.79791666667</v>
       </c>
       <c r="F128" s="1" t="s">
-        <v>235</v>
+        <v>207</v>
       </c>
       <c r="G128">
         <v>0.09</v>
@@ -5802,18 +5745,18 @@
         <v>17</v>
       </c>
       <c r="M128" t="s">
-        <v>284</v>
+        <v>256</v>
       </c>
       <c r="N128" t="s">
-        <v>308</v>
+        <v>280</v>
       </c>
     </row>
     <row r="129" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
-        <v>304</v>
+        <v>276</v>
       </c>
       <c r="B129" s="3" t="s">
-        <v>305</v>
+        <v>277</v>
       </c>
       <c r="C129" s="2">
         <v>6987664372345</v>
@@ -5825,10 +5768,10 @@
         <v>43276.806944444441</v>
       </c>
       <c r="F129" t="s">
-        <v>318</v>
+        <v>290</v>
       </c>
       <c r="N129" t="s">
-        <v>308</v>
+        <v>280</v>
       </c>
     </row>
     <row r="130" spans="1:14" x14ac:dyDescent="0.2">
@@ -5836,30 +5779,30 @@
     </row>
     <row r="131" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
-        <v>319</v>
+        <v>291</v>
       </c>
       <c r="B131" s="3" t="s">
-        <v>320</v>
+        <v>292</v>
       </c>
       <c r="C131" s="2">
         <v>6986351371839</v>
       </c>
       <c r="D131" t="s">
-        <v>321</v>
+        <v>293</v>
       </c>
       <c r="E131" s="1">
         <v>43277.354166666664</v>
       </c>
       <c r="F131" s="1" t="s">
-        <v>233</v>
+        <v>205</v>
       </c>
       <c r="N131" t="s">
-        <v>322</v>
+        <v>294</v>
       </c>
     </row>
     <row r="132" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
-        <v>319</v>
+        <v>291</v>
       </c>
       <c r="B132" t="s">
         <v>30</v>
@@ -5874,7 +5817,7 @@
         <v>43277.35833333333</v>
       </c>
       <c r="F132" s="1" t="s">
-        <v>272</v>
+        <v>244</v>
       </c>
       <c r="G132">
         <v>33.1</v>
@@ -5886,18 +5829,18 @@
         <v>1</v>
       </c>
       <c r="M132" t="s">
-        <v>323</v>
+        <v>295</v>
       </c>
       <c r="N132" t="s">
-        <v>322</v>
+        <v>294</v>
       </c>
     </row>
     <row r="133" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
-        <v>319</v>
+        <v>291</v>
       </c>
       <c r="B133" t="s">
-        <v>274</v>
+        <v>246</v>
       </c>
       <c r="C133" s="2">
         <v>6986539371185</v>
@@ -5909,7 +5852,7 @@
         <v>43277.365972222222</v>
       </c>
       <c r="F133" s="1" t="s">
-        <v>275</v>
+        <v>247</v>
       </c>
       <c r="G133">
         <v>82.6</v>
@@ -5918,21 +5861,21 @@
         <v>312</v>
       </c>
       <c r="I133" t="s">
-        <v>276</v>
+        <v>248</v>
       </c>
       <c r="L133">
         <v>1</v>
       </c>
       <c r="N133" t="s">
-        <v>322</v>
+        <v>294</v>
       </c>
     </row>
     <row r="134" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
-        <v>319</v>
+        <v>291</v>
       </c>
       <c r="B134" t="s">
-        <v>234</v>
+        <v>206</v>
       </c>
       <c r="C134" s="2">
         <v>6986987369810</v>
@@ -5944,7 +5887,7 @@
         <v>43277.390972222223</v>
       </c>
       <c r="F134" s="1" t="s">
-        <v>235</v>
+        <v>207</v>
       </c>
       <c r="G134">
         <v>1.23</v>
@@ -5959,18 +5902,18 @@
         <v>4</v>
       </c>
       <c r="M134" t="s">
-        <v>284</v>
+        <v>256</v>
       </c>
       <c r="N134" t="s">
-        <v>322</v>
+        <v>294</v>
       </c>
     </row>
     <row r="135" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
-        <v>319</v>
+        <v>291</v>
       </c>
       <c r="B135" t="s">
-        <v>236</v>
+        <v>208</v>
       </c>
       <c r="C135" s="2">
         <v>6987165369223</v>
@@ -5982,7 +5925,7 @@
         <v>43277.402083333334</v>
       </c>
       <c r="F135" s="1" t="s">
-        <v>235</v>
+        <v>207</v>
       </c>
       <c r="G135">
         <v>0.1</v>
@@ -5997,18 +5940,18 @@
         <v>7</v>
       </c>
       <c r="M135" t="s">
-        <v>284</v>
+        <v>256</v>
       </c>
       <c r="N135" t="s">
-        <v>322</v>
+        <v>294</v>
       </c>
     </row>
     <row r="136" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
-        <v>319</v>
+        <v>291</v>
       </c>
       <c r="B136" t="s">
-        <v>237</v>
+        <v>209</v>
       </c>
       <c r="C136" s="2">
         <v>6987303368811</v>
@@ -6020,7 +5963,7 @@
         <v>43277.409722222219</v>
       </c>
       <c r="F136" s="1" t="s">
-        <v>235</v>
+        <v>207</v>
       </c>
       <c r="G136">
         <v>0.04</v>
@@ -6035,41 +5978,41 @@
         <v>1</v>
       </c>
       <c r="M136" t="s">
-        <v>284</v>
+        <v>256</v>
       </c>
       <c r="N136" t="s">
-        <v>322</v>
+        <v>294</v>
       </c>
     </row>
     <row r="137" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
-        <v>319</v>
+        <v>291</v>
       </c>
       <c r="B137" s="3" t="s">
-        <v>230</v>
+        <v>202</v>
       </c>
       <c r="C137" s="2">
         <v>6987650367997</v>
       </c>
       <c r="D137" t="s">
-        <v>324</v>
+        <v>296</v>
       </c>
       <c r="E137" s="1">
         <v>43277.425694444442</v>
       </c>
       <c r="F137" s="1" t="s">
-        <v>232</v>
+        <v>204</v>
       </c>
       <c r="N137" t="s">
-        <v>322</v>
+        <v>294</v>
       </c>
     </row>
     <row r="138" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
-        <v>319</v>
+        <v>291</v>
       </c>
       <c r="B138" t="s">
-        <v>238</v>
+        <v>210</v>
       </c>
       <c r="C138" s="2">
         <v>6985525368428</v>
@@ -6081,7 +6024,7 @@
         <v>43277.557638888888</v>
       </c>
       <c r="F138" s="1" t="s">
-        <v>235</v>
+        <v>207</v>
       </c>
       <c r="G138">
         <v>0.21</v>
@@ -6096,18 +6039,18 @@
         <v>24</v>
       </c>
       <c r="M138" t="s">
-        <v>325</v>
+        <v>297</v>
       </c>
       <c r="N138" t="s">
-        <v>322</v>
+        <v>294</v>
       </c>
     </row>
     <row r="139" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
-        <v>319</v>
+        <v>291</v>
       </c>
       <c r="B139" t="s">
-        <v>239</v>
+        <v>211</v>
       </c>
       <c r="C139" s="2">
         <v>6983906368728</v>
@@ -6119,7 +6062,7 @@
         <v>43277.584722222222</v>
       </c>
       <c r="F139" s="1" t="s">
-        <v>235</v>
+        <v>207</v>
       </c>
       <c r="G139">
         <v>0.11</v>
@@ -6134,15 +6077,15 @@
         <v>25</v>
       </c>
       <c r="M139" t="s">
-        <v>263</v>
+        <v>235</v>
       </c>
       <c r="N139" t="s">
-        <v>322</v>
+        <v>294</v>
       </c>
     </row>
     <row r="140" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
-        <v>319</v>
+        <v>291</v>
       </c>
       <c r="B140" t="s">
         <v>30</v>
@@ -6157,7 +6100,7 @@
         <v>43277.597916666666</v>
       </c>
       <c r="F140" s="1" t="s">
-        <v>272</v>
+        <v>244</v>
       </c>
       <c r="G140">
         <v>153.1</v>
@@ -6169,15 +6112,15 @@
         <v>3</v>
       </c>
       <c r="N140" t="s">
-        <v>322</v>
+        <v>294</v>
       </c>
     </row>
     <row r="141" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
-        <v>319</v>
+        <v>291</v>
       </c>
       <c r="B141" t="s">
-        <v>240</v>
+        <v>212</v>
       </c>
       <c r="C141" s="2">
         <v>6984203369274</v>
@@ -6189,7 +6132,7 @@
         <v>43277.609722222223</v>
       </c>
       <c r="F141" s="1" t="s">
-        <v>235</v>
+        <v>207</v>
       </c>
       <c r="G141">
         <v>7.0000000000000007E-2</v>
@@ -6204,15 +6147,15 @@
         <v>8</v>
       </c>
       <c r="M141" t="s">
-        <v>326</v>
+        <v>298</v>
       </c>
       <c r="N141" t="s">
-        <v>322</v>
+        <v>294</v>
       </c>
     </row>
     <row r="142" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
-        <v>319</v>
+        <v>291</v>
       </c>
       <c r="B142" t="s">
         <v>30</v>
@@ -6227,7 +6170,7 @@
         <v>43277.623611111114</v>
       </c>
       <c r="F142" s="1" t="s">
-        <v>272</v>
+        <v>244</v>
       </c>
       <c r="G142">
         <v>139.4</v>
@@ -6239,15 +6182,15 @@
         <v>3</v>
       </c>
       <c r="N142" t="s">
-        <v>322</v>
+        <v>294</v>
       </c>
     </row>
     <row r="143" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
-        <v>319</v>
+        <v>291</v>
       </c>
       <c r="B143" t="s">
-        <v>245</v>
+        <v>217</v>
       </c>
       <c r="C143" s="2">
         <v>6986354371830</v>
@@ -6259,7 +6202,7 @@
         <v>43277.663888888892</v>
       </c>
       <c r="F143" s="1" t="s">
-        <v>235</v>
+        <v>207</v>
       </c>
       <c r="G143">
         <v>0.18</v>
@@ -6274,64 +6217,64 @@
         <v>3</v>
       </c>
       <c r="M143" t="s">
-        <v>311</v>
+        <v>283</v>
       </c>
       <c r="N143" t="s">
-        <v>322</v>
+        <v>294</v>
       </c>
     </row>
     <row r="144" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
-        <v>319</v>
+        <v>291</v>
       </c>
       <c r="B144" s="3" t="s">
-        <v>320</v>
+        <v>292</v>
       </c>
       <c r="C144" s="2">
         <v>6986351371839</v>
       </c>
       <c r="D144" t="s">
-        <v>321</v>
+        <v>293</v>
       </c>
       <c r="E144" s="1">
         <v>43277.666666666664</v>
       </c>
       <c r="F144" s="1" t="s">
-        <v>318</v>
+        <v>290</v>
       </c>
       <c r="N144" t="s">
-        <v>322</v>
+        <v>294</v>
       </c>
     </row>
     <row r="148" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
-        <v>327</v>
+        <v>299</v>
       </c>
       <c r="B148" s="3" t="s">
-        <v>241</v>
+        <v>213</v>
       </c>
       <c r="C148" s="2">
         <v>6985863359293</v>
       </c>
       <c r="D148" t="s">
-        <v>328</v>
+        <v>300</v>
       </c>
       <c r="E148" s="1">
         <v>43278.409722222219</v>
       </c>
       <c r="F148" s="1" t="s">
-        <v>233</v>
+        <v>205</v>
       </c>
       <c r="N148" t="s">
-        <v>329</v>
+        <v>301</v>
       </c>
     </row>
     <row r="149" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
-        <v>327</v>
+        <v>299</v>
       </c>
       <c r="B149" t="s">
-        <v>234</v>
+        <v>206</v>
       </c>
       <c r="C149" s="2">
         <v>6984603358022</v>
@@ -6343,7 +6286,7 @@
         <v>43278.430555555555</v>
       </c>
       <c r="F149" s="1" t="s">
-        <v>235</v>
+        <v>207</v>
       </c>
       <c r="G149">
         <v>0.37</v>
@@ -6358,18 +6301,18 @@
         <v>4</v>
       </c>
       <c r="M149" t="s">
-        <v>330</v>
+        <v>302</v>
       </c>
       <c r="N149" t="s">
-        <v>329</v>
+        <v>301</v>
       </c>
     </row>
     <row r="150" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
-        <v>327</v>
+        <v>299</v>
       </c>
       <c r="B150" t="s">
-        <v>243</v>
+        <v>215</v>
       </c>
       <c r="C150" s="2">
         <v>6983656356892</v>
@@ -6381,18 +6324,18 @@
         <v>43278.449305555558</v>
       </c>
       <c r="F150" s="1" t="s">
-        <v>244</v>
+        <v>216</v>
       </c>
       <c r="N150" t="s">
-        <v>329</v>
+        <v>301</v>
       </c>
     </row>
     <row r="151" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
-        <v>327</v>
+        <v>299</v>
       </c>
       <c r="B151" t="s">
-        <v>243</v>
+        <v>215</v>
       </c>
       <c r="C151" s="2">
         <v>6983702356823</v>
@@ -6404,18 +6347,18 @@
         <v>43278.452777777777</v>
       </c>
       <c r="F151" s="1" t="s">
-        <v>244</v>
+        <v>216</v>
       </c>
       <c r="N151" t="s">
-        <v>329</v>
+        <v>301</v>
       </c>
     </row>
     <row r="152" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
-        <v>327</v>
+        <v>299</v>
       </c>
       <c r="B152" t="s">
-        <v>236</v>
+        <v>208</v>
       </c>
       <c r="C152" s="2">
         <v>6983103356528</v>
@@ -6427,7 +6370,7 @@
         <v>43278.467361111114</v>
       </c>
       <c r="F152" s="1" t="s">
-        <v>235</v>
+        <v>207</v>
       </c>
       <c r="G152">
         <v>1.21</v>
@@ -6442,38 +6385,38 @@
         <v>4</v>
       </c>
       <c r="M152" t="s">
-        <v>284</v>
+        <v>256</v>
       </c>
       <c r="N152" t="s">
-        <v>329</v>
+        <v>301</v>
       </c>
     </row>
     <row r="153" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
-        <v>327</v>
+        <v>299</v>
       </c>
       <c r="B153" s="3" t="s">
-        <v>331</v>
+        <v>303</v>
       </c>
       <c r="C153" s="2">
         <v>6983090356519</v>
       </c>
       <c r="D153" t="s">
-        <v>332</v>
+        <v>304</v>
       </c>
       <c r="E153" s="1">
         <v>43278.468055555553</v>
       </c>
       <c r="F153" s="1" t="s">
-        <v>232</v>
+        <v>204</v>
       </c>
     </row>
     <row r="154" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
-        <v>327</v>
+        <v>299</v>
       </c>
       <c r="B154" t="s">
-        <v>237</v>
+        <v>209</v>
       </c>
       <c r="C154" s="2">
         <v>6982711357390</v>
@@ -6485,7 +6428,7 @@
         <v>43278.480555555558</v>
       </c>
       <c r="F154" s="1" t="s">
-        <v>235</v>
+        <v>207</v>
       </c>
       <c r="G154">
         <v>0.45</v>
@@ -6500,15 +6443,15 @@
         <v>9</v>
       </c>
       <c r="M154" t="s">
-        <v>284</v>
+        <v>256</v>
       </c>
       <c r="N154" t="s">
-        <v>329</v>
+        <v>301</v>
       </c>
     </row>
     <row r="155" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
-        <v>327</v>
+        <v>299</v>
       </c>
       <c r="B155" t="s">
         <v>30</v>
@@ -6523,7 +6466,7 @@
         <v>43278.493055555555</v>
       </c>
       <c r="F155" s="1" t="s">
-        <v>272</v>
+        <v>244</v>
       </c>
       <c r="G155">
         <v>248.4</v>
@@ -6538,15 +6481,15 @@
         <v>1</v>
       </c>
       <c r="N155" t="s">
-        <v>329</v>
+        <v>301</v>
       </c>
     </row>
     <row r="156" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
-        <v>327</v>
+        <v>299</v>
       </c>
       <c r="B156" t="s">
-        <v>333</v>
+        <v>305</v>
       </c>
       <c r="C156" s="2">
         <v>6982517358590</v>
@@ -6558,7 +6501,7 @@
         <v>43278.500694444447</v>
       </c>
       <c r="F156" s="1" t="s">
-        <v>334</v>
+        <v>306</v>
       </c>
       <c r="G156">
         <v>462.1</v>
@@ -6573,12 +6516,12 @@
         <v>1</v>
       </c>
       <c r="N156" t="s">
-        <v>329</v>
+        <v>301</v>
       </c>
     </row>
     <row r="157" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
-        <v>327</v>
+        <v>299</v>
       </c>
       <c r="B157" t="s">
         <v>30</v>
@@ -6593,7 +6536,7 @@
         <v>43278.559027777781</v>
       </c>
       <c r="F157" s="1" t="s">
-        <v>272</v>
+        <v>244</v>
       </c>
       <c r="G157">
         <v>121.6</v>
@@ -6605,15 +6548,15 @@
         <v>2</v>
       </c>
       <c r="N157" t="s">
-        <v>329</v>
+        <v>301</v>
       </c>
     </row>
     <row r="158" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
-        <v>327</v>
+        <v>299</v>
       </c>
       <c r="B158" t="s">
-        <v>238</v>
+        <v>210</v>
       </c>
       <c r="C158" s="2">
         <v>6982057359742</v>
@@ -6625,7 +6568,7 @@
         <v>43278.569444444445</v>
       </c>
       <c r="F158" s="1" t="s">
-        <v>235</v>
+        <v>207</v>
       </c>
       <c r="G158">
         <v>0.61</v>
@@ -6640,15 +6583,15 @@
         <v>1</v>
       </c>
       <c r="N158" t="s">
-        <v>329</v>
+        <v>301</v>
       </c>
     </row>
     <row r="159" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
-        <v>327</v>
+        <v>299</v>
       </c>
       <c r="B159" t="s">
-        <v>239</v>
+        <v>211</v>
       </c>
       <c r="C159" s="2">
         <v>6982022359836</v>
@@ -6660,7 +6603,7 @@
         <v>43278.572222222225</v>
       </c>
       <c r="F159" s="1" t="s">
-        <v>235</v>
+        <v>207</v>
       </c>
       <c r="G159">
         <v>0.56999999999999995</v>
@@ -6675,18 +6618,18 @@
         <v>24</v>
       </c>
       <c r="M159" t="s">
-        <v>278</v>
+        <v>250</v>
       </c>
       <c r="N159" t="s">
-        <v>329</v>
+        <v>301</v>
       </c>
     </row>
     <row r="160" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
-        <v>327</v>
+        <v>299</v>
       </c>
       <c r="B160" t="s">
-        <v>239</v>
+        <v>211</v>
       </c>
       <c r="C160" s="2">
         <v>6982022359836</v>
@@ -6698,7 +6641,7 @@
         <v>43278.572222222225</v>
       </c>
       <c r="F160" s="1" t="s">
-        <v>235</v>
+        <v>207</v>
       </c>
       <c r="G160">
         <v>0.13</v>
@@ -6713,18 +6656,18 @@
         <v>34</v>
       </c>
       <c r="M160" t="s">
-        <v>335</v>
+        <v>307</v>
       </c>
       <c r="N160" t="s">
-        <v>329</v>
+        <v>301</v>
       </c>
     </row>
     <row r="161" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
-        <v>327</v>
+        <v>299</v>
       </c>
       <c r="B161" t="s">
-        <v>239</v>
+        <v>211</v>
       </c>
       <c r="C161" s="2">
         <v>6982022359836</v>
@@ -6736,7 +6679,7 @@
         <v>43278.572222222225</v>
       </c>
       <c r="F161" s="1" t="s">
-        <v>235</v>
+        <v>207</v>
       </c>
       <c r="G161">
         <v>0.28999999999999998</v>
@@ -6751,38 +6694,38 @@
         <v>16</v>
       </c>
       <c r="N161" t="s">
-        <v>329</v>
+        <v>301</v>
       </c>
     </row>
     <row r="162" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
-        <v>327</v>
+        <v>299</v>
       </c>
       <c r="B162" s="3" t="s">
-        <v>230</v>
+        <v>202</v>
       </c>
       <c r="C162" s="2">
         <v>6981921360308</v>
       </c>
       <c r="D162" t="s">
-        <v>336</v>
+        <v>308</v>
       </c>
       <c r="E162" s="1">
         <v>43278.583333333336</v>
       </c>
       <c r="F162" s="1" t="s">
-        <v>232</v>
+        <v>204</v>
       </c>
       <c r="N162" t="s">
-        <v>329</v>
+        <v>301</v>
       </c>
     </row>
     <row r="163" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
-        <v>327</v>
+        <v>299</v>
       </c>
       <c r="B163" t="s">
-        <v>240</v>
+        <v>212</v>
       </c>
       <c r="C163" s="2">
         <v>6984942359384</v>
@@ -6794,7 +6737,7 @@
         <v>43278.62222222222</v>
       </c>
       <c r="F163" s="1" t="s">
-        <v>235</v>
+        <v>207</v>
       </c>
       <c r="G163">
         <v>0.34</v>
@@ -6809,18 +6752,18 @@
         <v>19</v>
       </c>
       <c r="M163" t="s">
-        <v>325</v>
+        <v>297</v>
       </c>
       <c r="N163" t="s">
-        <v>329</v>
+        <v>301</v>
       </c>
     </row>
     <row r="164" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
-        <v>327</v>
+        <v>299</v>
       </c>
       <c r="B164" t="s">
-        <v>240</v>
+        <v>212</v>
       </c>
       <c r="C164" s="2">
         <v>6984942359384</v>
@@ -6832,7 +6775,7 @@
         <v>43278.62222222222</v>
       </c>
       <c r="F164" s="1" t="s">
-        <v>272</v>
+        <v>244</v>
       </c>
       <c r="G164">
         <v>98.3</v>
@@ -6844,15 +6787,15 @@
         <v>2</v>
       </c>
       <c r="N164" t="s">
-        <v>329</v>
+        <v>301</v>
       </c>
     </row>
     <row r="165" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
-        <v>327</v>
+        <v>299</v>
       </c>
       <c r="B165" t="s">
-        <v>243</v>
+        <v>215</v>
       </c>
       <c r="C165" s="2">
         <v>6985094359323</v>
@@ -6864,18 +6807,18 @@
         <v>43278.62777777778</v>
       </c>
       <c r="F165" s="1" t="s">
-        <v>244</v>
+        <v>216</v>
       </c>
       <c r="N165" t="s">
-        <v>329</v>
+        <v>301</v>
       </c>
     </row>
     <row r="166" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
-        <v>327</v>
+        <v>299</v>
       </c>
       <c r="B166" t="s">
-        <v>245</v>
+        <v>217</v>
       </c>
       <c r="C166" s="2">
         <v>6985160359319</v>
@@ -6887,7 +6830,7 @@
         <v>43278.629166666666</v>
       </c>
       <c r="F166" s="1" t="s">
-        <v>235</v>
+        <v>207</v>
       </c>
       <c r="G166">
         <v>0.06</v>
@@ -6902,18 +6845,18 @@
         <v>35</v>
       </c>
       <c r="M166" t="s">
-        <v>337</v>
+        <v>309</v>
       </c>
       <c r="N166" t="s">
-        <v>329</v>
+        <v>301</v>
       </c>
     </row>
     <row r="167" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
-        <v>327</v>
+        <v>299</v>
       </c>
       <c r="B167" t="s">
-        <v>245</v>
+        <v>217</v>
       </c>
       <c r="C167" s="2">
         <v>6985160359319</v>
@@ -6925,7 +6868,7 @@
         <v>43278.629166666666</v>
       </c>
       <c r="F167" s="1" t="s">
-        <v>235</v>
+        <v>207</v>
       </c>
       <c r="G167">
         <v>7.0000000000000007E-2</v>
@@ -6940,18 +6883,18 @@
         <v>17</v>
       </c>
       <c r="M167" t="s">
-        <v>337</v>
+        <v>309</v>
       </c>
       <c r="N167" t="s">
-        <v>329</v>
+        <v>301</v>
       </c>
     </row>
     <row r="168" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
-        <v>327</v>
+        <v>299</v>
       </c>
       <c r="B168" t="s">
-        <v>333</v>
+        <v>305</v>
       </c>
       <c r="C168" s="2">
         <v>6982267355785</v>
@@ -6963,33 +6906,33 @@
         <v>43278.884722222225</v>
       </c>
       <c r="F168" s="1" t="s">
-        <v>334</v>
+        <v>306</v>
       </c>
       <c r="N168" t="s">
-        <v>329</v>
+        <v>301</v>
       </c>
     </row>
     <row r="169" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
-        <v>327</v>
+        <v>299</v>
       </c>
       <c r="B169" s="3" t="s">
-        <v>241</v>
+        <v>213</v>
       </c>
       <c r="C169" s="2">
         <v>6985863359293</v>
       </c>
       <c r="D169" t="s">
-        <v>328</v>
+        <v>300</v>
       </c>
       <c r="E169" s="1">
         <v>43278.638888888891</v>
       </c>
       <c r="F169" s="1" t="s">
-        <v>233</v>
+        <v>205</v>
       </c>
       <c r="N169" t="s">
-        <v>329</v>
+        <v>301</v>
       </c>
     </row>
     <row r="170" spans="1:14" x14ac:dyDescent="0.2">
@@ -7000,33 +6943,33 @@
     </row>
     <row r="172" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
-        <v>338</v>
+        <v>310</v>
       </c>
       <c r="B172" s="3" t="s">
-        <v>241</v>
+        <v>213</v>
       </c>
       <c r="C172" s="2">
         <v>6981270353841</v>
       </c>
       <c r="D172" t="s">
-        <v>324</v>
+        <v>296</v>
       </c>
       <c r="E172" s="1">
         <v>43279.256944444445</v>
       </c>
       <c r="F172" s="1" t="s">
-        <v>233</v>
+        <v>205</v>
       </c>
       <c r="N172" t="s">
-        <v>339</v>
+        <v>311</v>
       </c>
     </row>
     <row r="173" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
-        <v>338</v>
+        <v>310</v>
       </c>
       <c r="B173" t="s">
-        <v>243</v>
+        <v>215</v>
       </c>
       <c r="C173" s="2">
         <v>6980968353518</v>
@@ -7038,18 +6981,18 @@
         <v>43279.265277777777</v>
       </c>
       <c r="F173" s="1" t="s">
-        <v>244</v>
+        <v>216</v>
       </c>
       <c r="N173" t="s">
-        <v>339</v>
+        <v>311</v>
       </c>
     </row>
     <row r="174" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
-        <v>338</v>
+        <v>310</v>
       </c>
       <c r="B174" t="s">
-        <v>234</v>
+        <v>206</v>
       </c>
       <c r="C174" s="2">
         <v>6980970353513</v>
@@ -7061,7 +7004,7 @@
         <v>43279.265972222223</v>
       </c>
       <c r="F174" s="1" t="s">
-        <v>235</v>
+        <v>207</v>
       </c>
       <c r="G174">
         <v>0.06</v>
@@ -7076,18 +7019,18 @@
         <v>1</v>
       </c>
       <c r="M174" t="s">
-        <v>284</v>
+        <v>256</v>
       </c>
       <c r="N174" t="s">
-        <v>339</v>
+        <v>311</v>
       </c>
     </row>
     <row r="175" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
-        <v>338</v>
+        <v>310</v>
       </c>
       <c r="B175" t="s">
-        <v>236</v>
+        <v>208</v>
       </c>
       <c r="C175" s="2">
         <v>6980945353432</v>
@@ -7099,7 +7042,7 @@
         <v>43279.268055555556</v>
       </c>
       <c r="F175" s="1" t="s">
-        <v>235</v>
+        <v>207</v>
       </c>
       <c r="G175">
         <v>0.12</v>
@@ -7114,18 +7057,18 @@
         <v>1</v>
       </c>
       <c r="M175" t="s">
-        <v>284</v>
+        <v>256</v>
       </c>
       <c r="N175" t="s">
-        <v>339</v>
+        <v>311</v>
       </c>
     </row>
     <row r="176" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
-        <v>338</v>
+        <v>310</v>
       </c>
       <c r="B176" t="s">
-        <v>237</v>
+        <v>209</v>
       </c>
       <c r="C176" s="2">
         <v>6980935353395</v>
@@ -7137,7 +7080,7 @@
         <v>43279.270138888889</v>
       </c>
       <c r="F176" s="1" t="s">
-        <v>235</v>
+        <v>207</v>
       </c>
       <c r="G176">
         <v>0.17</v>
@@ -7152,18 +7095,18 @@
         <v>19</v>
       </c>
       <c r="M176" t="s">
-        <v>284</v>
+        <v>256</v>
       </c>
       <c r="N176" t="s">
-        <v>339</v>
+        <v>311</v>
       </c>
     </row>
     <row r="177" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
-        <v>338</v>
+        <v>310</v>
       </c>
       <c r="B177" t="s">
-        <v>237</v>
+        <v>209</v>
       </c>
       <c r="C177" s="2">
         <v>6980935353395</v>
@@ -7175,7 +7118,7 @@
         <v>43279.270138888889</v>
       </c>
       <c r="F177" s="1" t="s">
-        <v>235</v>
+        <v>207</v>
       </c>
       <c r="G177">
         <v>3.42</v>
@@ -7190,18 +7133,18 @@
         <v>20</v>
       </c>
       <c r="M177" t="s">
-        <v>284</v>
+        <v>256</v>
       </c>
       <c r="N177" t="s">
-        <v>339</v>
+        <v>311</v>
       </c>
     </row>
     <row r="178" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
-        <v>338</v>
+        <v>310</v>
       </c>
       <c r="B178" t="s">
-        <v>237</v>
+        <v>209</v>
       </c>
       <c r="C178" s="2">
         <v>6980935353395</v>
@@ -7213,7 +7156,7 @@
         <v>43279.270138888889</v>
       </c>
       <c r="F178" s="1" t="s">
-        <v>235</v>
+        <v>207</v>
       </c>
       <c r="G178">
         <v>1.1499999999999999</v>
@@ -7228,18 +7171,18 @@
         <v>23</v>
       </c>
       <c r="M178" t="s">
-        <v>284</v>
+        <v>256</v>
       </c>
       <c r="N178" t="s">
-        <v>339</v>
+        <v>311</v>
       </c>
     </row>
     <row r="179" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
-        <v>338</v>
+        <v>310</v>
       </c>
       <c r="B179" t="s">
-        <v>243</v>
+        <v>215</v>
       </c>
       <c r="C179" s="2">
         <v>6980911353331</v>
@@ -7251,18 +7194,18 @@
         <v>43279.273611111108</v>
       </c>
       <c r="F179" s="1" t="s">
-        <v>244</v>
+        <v>216</v>
       </c>
       <c r="N179" t="s">
-        <v>339</v>
+        <v>311</v>
       </c>
     </row>
     <row r="180" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
-        <v>338</v>
+        <v>310</v>
       </c>
       <c r="B180" t="s">
-        <v>333</v>
+        <v>305</v>
       </c>
       <c r="C180" s="2">
         <v>6980602353081</v>
@@ -7274,7 +7217,7 @@
         <v>43279.28125</v>
       </c>
       <c r="F180" s="1" t="s">
-        <v>334</v>
+        <v>306</v>
       </c>
       <c r="G180">
         <v>271.5</v>
@@ -7286,15 +7229,15 @@
         <v>1</v>
       </c>
       <c r="N180" t="s">
-        <v>339</v>
+        <v>311</v>
       </c>
     </row>
     <row r="181" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
-        <v>338</v>
+        <v>310</v>
       </c>
       <c r="B181" t="s">
-        <v>238</v>
+        <v>210</v>
       </c>
       <c r="C181" s="2">
         <v>6980431352927</v>
@@ -7306,7 +7249,7 @@
         <v>43279.284722222219</v>
       </c>
       <c r="F181" s="1" t="s">
-        <v>235</v>
+        <v>207</v>
       </c>
       <c r="G181">
         <v>1.08</v>
@@ -7321,18 +7264,18 @@
         <v>7</v>
       </c>
       <c r="M181" t="s">
-        <v>340</v>
+        <v>312</v>
       </c>
       <c r="N181" t="s">
-        <v>339</v>
+        <v>311</v>
       </c>
     </row>
     <row r="182" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
-        <v>338</v>
+        <v>310</v>
       </c>
       <c r="B182" t="s">
-        <v>239</v>
+        <v>211</v>
       </c>
       <c r="C182" s="2">
         <v>6980212352665</v>
@@ -7344,7 +7287,7 @@
         <v>43279.290972222225</v>
       </c>
       <c r="F182" s="1" t="s">
-        <v>235</v>
+        <v>207</v>
       </c>
       <c r="G182">
         <v>1.1200000000000001</v>
@@ -7359,18 +7302,18 @@
         <v>20</v>
       </c>
       <c r="M182" t="s">
-        <v>340</v>
+        <v>312</v>
       </c>
       <c r="N182" t="s">
-        <v>339</v>
+        <v>311</v>
       </c>
     </row>
     <row r="183" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
-        <v>338</v>
+        <v>310</v>
       </c>
       <c r="B183" t="s">
-        <v>240</v>
+        <v>212</v>
       </c>
       <c r="C183" s="2">
         <v>6980059352518</v>
@@ -7382,7 +7325,7 @@
         <v>43279.296527777777</v>
       </c>
       <c r="F183" s="1" t="s">
-        <v>235</v>
+        <v>207</v>
       </c>
       <c r="G183">
         <v>0.41</v>
@@ -7397,18 +7340,18 @@
         <v>5</v>
       </c>
       <c r="M183" t="s">
-        <v>341</v>
+        <v>313</v>
       </c>
       <c r="N183" t="s">
-        <v>339</v>
+        <v>311</v>
       </c>
     </row>
     <row r="184" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
-        <v>338</v>
+        <v>310</v>
       </c>
       <c r="B184" t="s">
-        <v>245</v>
+        <v>217</v>
       </c>
       <c r="C184" s="2">
         <v>6980047352508</v>
@@ -7420,7 +7363,7 @@
         <v>43279.29791666667</v>
       </c>
       <c r="F184" s="1" t="s">
-        <v>235</v>
+        <v>207</v>
       </c>
       <c r="G184">
         <v>0.72</v>
@@ -7435,18 +7378,18 @@
         <v>39</v>
       </c>
       <c r="M184" t="s">
-        <v>269</v>
+        <v>241</v>
       </c>
       <c r="N184" t="s">
-        <v>339</v>
+        <v>311</v>
       </c>
     </row>
     <row r="185" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
-        <v>338</v>
+        <v>310</v>
       </c>
       <c r="B185" t="s">
-        <v>246</v>
+        <v>218</v>
       </c>
       <c r="C185" s="2">
         <v>6979533352050</v>
@@ -7458,7 +7401,7 @@
         <v>43279.30972222222</v>
       </c>
       <c r="F185" s="1" t="s">
-        <v>235</v>
+        <v>207</v>
       </c>
       <c r="G185">
         <v>0.49</v>
@@ -7473,18 +7416,18 @@
         <v>1</v>
       </c>
       <c r="M185" t="s">
-        <v>284</v>
+        <v>256</v>
       </c>
       <c r="N185" t="s">
-        <v>339</v>
+        <v>311</v>
       </c>
     </row>
     <row r="186" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
-        <v>338</v>
+        <v>310</v>
       </c>
       <c r="B186" t="s">
-        <v>247</v>
+        <v>219</v>
       </c>
       <c r="C186" s="2">
         <v>6979485352018</v>
@@ -7496,7 +7439,7 @@
         <v>43279.311805555553</v>
       </c>
       <c r="F186" s="1" t="s">
-        <v>235</v>
+        <v>207</v>
       </c>
       <c r="G186">
         <v>0.44</v>
@@ -7511,18 +7454,18 @@
         <v>11</v>
       </c>
       <c r="M186" t="s">
-        <v>284</v>
+        <v>256</v>
       </c>
       <c r="N186" t="s">
-        <v>339</v>
+        <v>311</v>
       </c>
     </row>
     <row r="187" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
-        <v>338</v>
+        <v>310</v>
       </c>
       <c r="B187" t="s">
-        <v>243</v>
+        <v>215</v>
       </c>
       <c r="C187" s="2">
         <v>6979450352004</v>
@@ -7534,18 +7477,18 @@
         <v>43279.313194444447</v>
       </c>
       <c r="F187" s="1" t="s">
-        <v>244</v>
+        <v>216</v>
       </c>
       <c r="N187" t="s">
-        <v>339</v>
+        <v>311</v>
       </c>
     </row>
     <row r="188" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
-        <v>338</v>
+        <v>310</v>
       </c>
       <c r="B188" t="s">
-        <v>248</v>
+        <v>220</v>
       </c>
       <c r="C188" s="2">
         <v>6979451352005</v>
@@ -7557,7 +7500,7 @@
         <v>43279.313888888886</v>
       </c>
       <c r="F188" s="1" t="s">
-        <v>235</v>
+        <v>207</v>
       </c>
       <c r="G188">
         <v>0.11</v>
@@ -7572,18 +7515,18 @@
         <v>16</v>
       </c>
       <c r="M188" t="s">
-        <v>263</v>
+        <v>235</v>
       </c>
       <c r="N188" t="s">
-        <v>339</v>
+        <v>311</v>
       </c>
     </row>
     <row r="189" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
-        <v>338</v>
+        <v>310</v>
       </c>
       <c r="B189" t="s">
-        <v>249</v>
+        <v>221</v>
       </c>
       <c r="C189" s="2">
         <v>6979455352012</v>
@@ -7595,7 +7538,7 @@
         <v>43279.314583333333</v>
       </c>
       <c r="F189" s="1" t="s">
-        <v>235</v>
+        <v>207</v>
       </c>
       <c r="G189">
         <v>0.08</v>
@@ -7610,18 +7553,18 @@
         <v>2</v>
       </c>
       <c r="M189" t="s">
-        <v>284</v>
+        <v>256</v>
       </c>
       <c r="N189" t="s">
-        <v>339</v>
+        <v>311</v>
       </c>
     </row>
     <row r="190" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
-        <v>338</v>
+        <v>310</v>
       </c>
       <c r="B190" t="s">
-        <v>252</v>
+        <v>224</v>
       </c>
       <c r="C190" s="2">
         <v>6979459352019</v>
@@ -7633,7 +7576,7 @@
         <v>43279.31527777778</v>
       </c>
       <c r="F190" s="1" t="s">
-        <v>235</v>
+        <v>207</v>
       </c>
       <c r="G190">
         <v>1.04</v>
@@ -7648,18 +7591,18 @@
         <v>1</v>
       </c>
       <c r="M190" t="s">
-        <v>284</v>
+        <v>256</v>
       </c>
       <c r="N190" t="s">
-        <v>339</v>
+        <v>311</v>
       </c>
     </row>
     <row r="191" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
-        <v>338</v>
+        <v>310</v>
       </c>
       <c r="B191" t="s">
-        <v>243</v>
+        <v>215</v>
       </c>
       <c r="C191" s="2">
         <v>6979457352096</v>
@@ -7671,18 +7614,18 @@
         <v>43279.318749999999</v>
       </c>
       <c r="F191" s="1" t="s">
-        <v>244</v>
+        <v>216</v>
       </c>
       <c r="N191" t="s">
-        <v>339</v>
+        <v>311</v>
       </c>
     </row>
     <row r="192" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
-        <v>338</v>
+        <v>310</v>
       </c>
       <c r="B192" t="s">
-        <v>253</v>
+        <v>225</v>
       </c>
       <c r="C192" s="2">
         <v>6979451352092</v>
@@ -7694,7 +7637,7 @@
         <v>43279.318749999999</v>
       </c>
       <c r="F192" s="1" t="s">
-        <v>235</v>
+        <v>207</v>
       </c>
       <c r="G192">
         <v>0.47</v>
@@ -7709,18 +7652,18 @@
         <v>14</v>
       </c>
       <c r="M192" t="s">
-        <v>284</v>
+        <v>256</v>
       </c>
       <c r="N192" t="s">
-        <v>339</v>
+        <v>311</v>
       </c>
     </row>
     <row r="193" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
-        <v>338</v>
+        <v>310</v>
       </c>
       <c r="B193" t="s">
-        <v>254</v>
+        <v>226</v>
       </c>
       <c r="C193" s="2">
         <v>6979362352012</v>
@@ -7732,7 +7675,7 @@
         <v>43279.321527777778</v>
       </c>
       <c r="F193" s="1" t="s">
-        <v>235</v>
+        <v>207</v>
       </c>
       <c r="G193">
         <v>0.05</v>
@@ -7747,18 +7690,18 @@
         <v>1</v>
       </c>
       <c r="M193" t="s">
-        <v>284</v>
+        <v>256</v>
       </c>
       <c r="N193" t="s">
-        <v>339</v>
+        <v>311</v>
       </c>
     </row>
     <row r="194" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
-        <v>338</v>
+        <v>310</v>
       </c>
       <c r="B194" t="s">
-        <v>289</v>
+        <v>261</v>
       </c>
       <c r="C194" s="2">
         <v>6979058351708</v>
@@ -7770,7 +7713,7 @@
         <v>43279.32708333333</v>
       </c>
       <c r="F194" s="1" t="s">
-        <v>235</v>
+        <v>207</v>
       </c>
       <c r="G194">
         <v>0.16</v>
@@ -7785,38 +7728,38 @@
         <v>1</v>
       </c>
       <c r="M194" t="s">
-        <v>263</v>
+        <v>235</v>
       </c>
       <c r="N194" t="s">
-        <v>339</v>
+        <v>311</v>
       </c>
     </row>
     <row r="195" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
-        <v>338</v>
+        <v>310</v>
       </c>
       <c r="B195" s="3" t="s">
-        <v>342</v>
+        <v>314</v>
       </c>
       <c r="C195" s="2">
         <v>6978333351234</v>
       </c>
       <c r="D195" t="s">
-        <v>343</v>
+        <v>315</v>
       </c>
       <c r="E195" s="1">
         <v>43277.337500000001</v>
       </c>
       <c r="F195" s="1" t="s">
-        <v>232</v>
+        <v>204</v>
       </c>
     </row>
     <row r="196" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
-        <v>338</v>
+        <v>310</v>
       </c>
       <c r="B196" t="s">
-        <v>292</v>
+        <v>264</v>
       </c>
       <c r="C196" s="2">
         <v>6978301351443</v>
@@ -7828,7 +7771,7 @@
         <v>43279.341666666667</v>
       </c>
       <c r="F196" s="1" t="s">
-        <v>235</v>
+        <v>207</v>
       </c>
       <c r="G196">
         <v>0.09</v>
@@ -7843,18 +7786,18 @@
         <v>1</v>
       </c>
       <c r="M196" t="s">
-        <v>263</v>
+        <v>235</v>
       </c>
       <c r="N196" t="s">
-        <v>339</v>
+        <v>311</v>
       </c>
     </row>
     <row r="197" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
-        <v>338</v>
+        <v>310</v>
       </c>
       <c r="B197" t="s">
-        <v>293</v>
+        <v>265</v>
       </c>
       <c r="C197" s="2">
         <v>6978297351472</v>
@@ -7866,7 +7809,7 @@
         <v>43279.342361111114</v>
       </c>
       <c r="F197" s="1" t="s">
-        <v>235</v>
+        <v>207</v>
       </c>
       <c r="G197">
         <v>0.52</v>
@@ -7881,18 +7824,18 @@
         <v>2</v>
       </c>
       <c r="M197" t="s">
-        <v>284</v>
+        <v>256</v>
       </c>
       <c r="N197" t="s">
-        <v>339</v>
+        <v>311</v>
       </c>
     </row>
     <row r="198" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
-        <v>338</v>
+        <v>310</v>
       </c>
       <c r="B198" t="s">
-        <v>295</v>
+        <v>267</v>
       </c>
       <c r="C198" s="2">
         <v>6978291351490</v>
@@ -7904,7 +7847,7 @@
         <v>43279.34375</v>
       </c>
       <c r="F198" s="1" t="s">
-        <v>235</v>
+        <v>207</v>
       </c>
       <c r="G198">
         <v>0.38</v>
@@ -7919,18 +7862,18 @@
         <v>1</v>
       </c>
       <c r="M198" t="s">
-        <v>284</v>
+        <v>256</v>
       </c>
       <c r="N198" t="s">
-        <v>339</v>
+        <v>311</v>
       </c>
     </row>
     <row r="199" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
-        <v>338</v>
+        <v>310</v>
       </c>
       <c r="B199" t="s">
-        <v>301</v>
+        <v>273</v>
       </c>
       <c r="C199" s="2">
         <v>6977910352784</v>
@@ -7942,7 +7885,7 @@
         <v>43279.414583333331</v>
       </c>
       <c r="F199" s="1" t="s">
-        <v>235</v>
+        <v>207</v>
       </c>
       <c r="G199">
         <v>0.5</v>
@@ -7957,18 +7900,18 @@
         <v>5</v>
       </c>
       <c r="M199" t="s">
-        <v>344</v>
+        <v>316</v>
       </c>
       <c r="N199" t="s">
-        <v>339</v>
+        <v>311</v>
       </c>
     </row>
     <row r="200" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
-        <v>338</v>
+        <v>310</v>
       </c>
       <c r="B200" t="s">
-        <v>302</v>
+        <v>274</v>
       </c>
       <c r="C200" s="2">
         <v>6977860353046</v>
@@ -7980,7 +7923,7 @@
         <v>43279.419444444444</v>
       </c>
       <c r="F200" s="1" t="s">
-        <v>235</v>
+        <v>207</v>
       </c>
       <c r="G200">
         <v>0.16</v>
@@ -7995,18 +7938,18 @@
         <v>5</v>
       </c>
       <c r="M200" t="s">
-        <v>263</v>
+        <v>235</v>
       </c>
       <c r="N200" t="s">
-        <v>339</v>
+        <v>311</v>
       </c>
     </row>
     <row r="201" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
-        <v>338</v>
+        <v>310</v>
       </c>
       <c r="B201" t="s">
-        <v>303</v>
+        <v>275</v>
       </c>
       <c r="C201" s="2">
         <v>6977861353067</v>
@@ -8018,7 +7961,7 @@
         <v>43279.42083333333</v>
       </c>
       <c r="F201" s="1" t="s">
-        <v>235</v>
+        <v>207</v>
       </c>
       <c r="G201">
         <v>7.0000000000000007E-2</v>
@@ -8033,18 +7976,18 @@
         <v>22</v>
       </c>
       <c r="M201" t="s">
-        <v>263</v>
+        <v>235</v>
       </c>
       <c r="N201" t="s">
-        <v>339</v>
+        <v>311</v>
       </c>
     </row>
     <row r="202" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
-        <v>338</v>
+        <v>310</v>
       </c>
       <c r="B202" t="s">
-        <v>303</v>
+        <v>275</v>
       </c>
       <c r="C202" s="2">
         <v>6977861353067</v>
@@ -8056,7 +7999,7 @@
         <v>43279.42083333333</v>
       </c>
       <c r="F202" s="1" t="s">
-        <v>235</v>
+        <v>207</v>
       </c>
       <c r="G202">
         <v>1.19</v>
@@ -8071,18 +8014,18 @@
         <v>33</v>
       </c>
       <c r="M202" t="s">
-        <v>263</v>
+        <v>235</v>
       </c>
       <c r="N202" t="s">
-        <v>339</v>
+        <v>311</v>
       </c>
     </row>
     <row r="203" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
-        <v>338</v>
+        <v>310</v>
       </c>
       <c r="B203" t="s">
-        <v>303</v>
+        <v>275</v>
       </c>
       <c r="C203" s="2">
         <v>6977861353067</v>
@@ -8094,7 +8037,7 @@
         <v>43279.42083333333</v>
       </c>
       <c r="F203" s="1" t="s">
-        <v>235</v>
+        <v>207</v>
       </c>
       <c r="G203">
         <v>0.61</v>
@@ -8109,15 +8052,15 @@
         <v>15</v>
       </c>
       <c r="M203" t="s">
-        <v>263</v>
+        <v>235</v>
       </c>
     </row>
     <row r="204" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
-        <v>338</v>
+        <v>310</v>
       </c>
       <c r="B204" t="s">
-        <v>345</v>
+        <v>317</v>
       </c>
       <c r="C204" s="2">
         <v>6977865353087</v>
@@ -8129,7 +8072,7 @@
         <v>43279.422222222223</v>
       </c>
       <c r="F204" s="1" t="s">
-        <v>235</v>
+        <v>207</v>
       </c>
       <c r="G204">
         <v>0.03</v>
@@ -8144,18 +8087,18 @@
         <v>4</v>
       </c>
       <c r="M204" t="s">
-        <v>284</v>
+        <v>256</v>
       </c>
       <c r="N204" t="s">
-        <v>339</v>
+        <v>311</v>
       </c>
     </row>
     <row r="205" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
-        <v>338</v>
+        <v>310</v>
       </c>
       <c r="B205" t="s">
-        <v>346</v>
+        <v>318</v>
       </c>
       <c r="C205" s="2">
         <v>6977856353173</v>
@@ -8167,7 +8110,7 @@
         <v>43279.424305555556</v>
       </c>
       <c r="F205" s="1" t="s">
-        <v>235</v>
+        <v>207</v>
       </c>
       <c r="G205">
         <v>1.29</v>
@@ -8182,18 +8125,18 @@
         <v>38</v>
       </c>
       <c r="M205" t="s">
-        <v>284</v>
+        <v>256</v>
       </c>
       <c r="N205" t="s">
-        <v>339</v>
+        <v>311</v>
       </c>
     </row>
     <row r="206" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
-        <v>338</v>
+        <v>310</v>
       </c>
       <c r="B206" t="s">
-        <v>347</v>
+        <v>319</v>
       </c>
       <c r="C206" s="2">
         <v>6977844353209</v>
@@ -8205,7 +8148,7 @@
         <v>43279.425694444442</v>
       </c>
       <c r="F206" s="1" t="s">
-        <v>235</v>
+        <v>207</v>
       </c>
       <c r="G206">
         <v>0.15</v>
@@ -8220,18 +8163,18 @@
         <v>5</v>
       </c>
       <c r="M206" t="s">
-        <v>284</v>
+        <v>256</v>
       </c>
       <c r="N206" t="s">
-        <v>339</v>
+        <v>311</v>
       </c>
     </row>
     <row r="207" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
-        <v>338</v>
+        <v>310</v>
       </c>
       <c r="B207" t="s">
-        <v>348</v>
+        <v>320</v>
       </c>
       <c r="C207" s="2">
         <v>6977797353337</v>
@@ -8243,7 +8186,7 @@
         <v>43279.428472222222</v>
       </c>
       <c r="F207" s="1" t="s">
-        <v>235</v>
+        <v>207</v>
       </c>
       <c r="G207">
         <v>0.36</v>
@@ -8258,18 +8201,18 @@
         <v>2</v>
       </c>
       <c r="M207" t="s">
-        <v>284</v>
+        <v>256</v>
       </c>
       <c r="N207" t="s">
-        <v>339</v>
+        <v>311</v>
       </c>
     </row>
     <row r="208" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
-        <v>338</v>
+        <v>310</v>
       </c>
       <c r="B208" t="s">
-        <v>349</v>
+        <v>321</v>
       </c>
       <c r="C208" s="2">
         <v>6977575354652</v>
@@ -8281,7 +8224,7 @@
         <v>43279.447222222225</v>
       </c>
       <c r="F208" s="1" t="s">
-        <v>235</v>
+        <v>207</v>
       </c>
       <c r="G208">
         <v>0.21</v>
@@ -8296,18 +8239,18 @@
         <v>10</v>
       </c>
       <c r="M208" t="s">
-        <v>350</v>
+        <v>322</v>
       </c>
       <c r="N208" t="s">
-        <v>339</v>
+        <v>311</v>
       </c>
     </row>
     <row r="209" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
-        <v>338</v>
+        <v>310</v>
       </c>
       <c r="B209" t="s">
-        <v>349</v>
+        <v>321</v>
       </c>
       <c r="C209" s="2">
         <v>6977575354652</v>
@@ -8319,7 +8262,7 @@
         <v>43279.447222222225</v>
       </c>
       <c r="F209" s="1" t="s">
-        <v>235</v>
+        <v>207</v>
       </c>
       <c r="G209">
         <v>0.51</v>
@@ -8334,18 +8277,18 @@
         <v>15</v>
       </c>
       <c r="M209" t="s">
-        <v>350</v>
+        <v>322</v>
       </c>
       <c r="N209" t="s">
-        <v>339</v>
+        <v>311</v>
       </c>
     </row>
     <row r="210" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
-        <v>338</v>
+        <v>310</v>
       </c>
       <c r="B210" t="s">
-        <v>349</v>
+        <v>321</v>
       </c>
       <c r="C210" s="2">
         <v>6977575354652</v>
@@ -8357,7 +8300,7 @@
         <v>43279.447222222225</v>
       </c>
       <c r="F210" s="1" t="s">
-        <v>235</v>
+        <v>207</v>
       </c>
       <c r="G210">
         <v>0.38</v>
@@ -8372,18 +8315,18 @@
         <v>5</v>
       </c>
       <c r="M210" t="s">
-        <v>284</v>
+        <v>256</v>
       </c>
       <c r="N210" t="s">
-        <v>339</v>
+        <v>311</v>
       </c>
     </row>
     <row r="211" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
-        <v>338</v>
+        <v>310</v>
       </c>
       <c r="B211" t="s">
-        <v>349</v>
+        <v>321</v>
       </c>
       <c r="C211" s="2">
         <v>6977575354652</v>
@@ -8395,7 +8338,7 @@
         <v>43279.447222222225</v>
       </c>
       <c r="F211" s="1" t="s">
-        <v>235</v>
+        <v>207</v>
       </c>
       <c r="G211">
         <v>0.52</v>
@@ -8410,41 +8353,41 @@
         <v>17</v>
       </c>
       <c r="M211" t="s">
-        <v>312</v>
+        <v>284</v>
       </c>
       <c r="N211" t="s">
-        <v>339</v>
+        <v>311</v>
       </c>
     </row>
     <row r="212" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
-        <v>338</v>
+        <v>310</v>
       </c>
       <c r="B212" s="3" t="s">
-        <v>230</v>
+        <v>202</v>
       </c>
       <c r="C212" s="2">
         <v>6977503355128</v>
       </c>
       <c r="D212" t="s">
-        <v>352</v>
+        <v>324</v>
       </c>
       <c r="E212" s="1">
         <v>43277.457638888889</v>
       </c>
       <c r="F212" s="1" t="s">
-        <v>232</v>
+        <v>204</v>
       </c>
       <c r="N212" t="s">
-        <v>364</v>
+        <v>336</v>
       </c>
     </row>
     <row r="213" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
-        <v>338</v>
+        <v>310</v>
       </c>
       <c r="B213" t="s">
-        <v>351</v>
+        <v>323</v>
       </c>
       <c r="C213" s="2">
         <v>6978571354702</v>
@@ -8456,7 +8399,7 @@
         <v>43279.47152777778</v>
       </c>
       <c r="F213" s="1" t="s">
-        <v>235</v>
+        <v>207</v>
       </c>
       <c r="G213">
         <v>0</v>
@@ -8471,18 +8414,18 @@
         <v>3</v>
       </c>
       <c r="M213" t="s">
-        <v>284</v>
+        <v>256</v>
       </c>
       <c r="N213" t="s">
-        <v>364</v>
+        <v>336</v>
       </c>
     </row>
     <row r="214" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
-        <v>338</v>
+        <v>310</v>
       </c>
       <c r="B214" t="s">
-        <v>353</v>
+        <v>325</v>
       </c>
       <c r="C214" s="2">
         <v>6979142354504</v>
@@ -8494,7 +8437,7 @@
         <v>43279.486805555556</v>
       </c>
       <c r="F214" s="1" t="s">
-        <v>235</v>
+        <v>207</v>
       </c>
       <c r="G214">
         <v>0</v>
@@ -8509,18 +8452,18 @@
         <v>2</v>
       </c>
       <c r="M214" t="s">
-        <v>354</v>
+        <v>326</v>
       </c>
       <c r="N214" t="s">
-        <v>364</v>
+        <v>336</v>
       </c>
     </row>
     <row r="215" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
-        <v>338</v>
+        <v>310</v>
       </c>
       <c r="B215" t="s">
-        <v>355</v>
+        <v>327</v>
       </c>
       <c r="C215" s="2">
         <v>6979932354155</v>
@@ -8532,7 +8475,7 @@
         <v>43279.498611111114</v>
       </c>
       <c r="F215" s="1" t="s">
-        <v>235</v>
+        <v>207</v>
       </c>
       <c r="G215">
         <v>0.18</v>
@@ -8547,18 +8490,18 @@
         <v>1</v>
       </c>
       <c r="M215" t="s">
-        <v>284</v>
+        <v>256</v>
       </c>
       <c r="N215" t="s">
-        <v>364</v>
+        <v>336</v>
       </c>
     </row>
     <row r="216" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
-        <v>338</v>
+        <v>310</v>
       </c>
       <c r="B216" t="s">
-        <v>356</v>
+        <v>328</v>
       </c>
       <c r="C216" s="2">
         <v>6979961354157</v>
@@ -8570,7 +8513,7 @@
         <v>43279.500694444447</v>
       </c>
       <c r="F216" s="1" t="s">
-        <v>235</v>
+        <v>207</v>
       </c>
       <c r="G216">
         <v>0</v>
@@ -8585,18 +8528,18 @@
         <v>4</v>
       </c>
       <c r="M216" t="s">
-        <v>357</v>
+        <v>329</v>
       </c>
       <c r="N216" t="s">
-        <v>364</v>
+        <v>336</v>
       </c>
     </row>
     <row r="217" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
-        <v>338</v>
+        <v>310</v>
       </c>
       <c r="B217" t="s">
-        <v>358</v>
+        <v>330</v>
       </c>
       <c r="C217" s="2">
         <v>6980285354065</v>
@@ -8608,7 +8551,7 @@
         <v>43279.506944444445</v>
       </c>
       <c r="F217" s="1" t="s">
-        <v>235</v>
+        <v>207</v>
       </c>
       <c r="G217">
         <v>0.02</v>
@@ -8623,18 +8566,18 @@
         <v>10</v>
       </c>
       <c r="M217" t="s">
-        <v>359</v>
+        <v>331</v>
       </c>
       <c r="N217" t="s">
-        <v>364</v>
+        <v>336</v>
       </c>
     </row>
     <row r="218" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
-        <v>338</v>
+        <v>310</v>
       </c>
       <c r="B218" t="s">
-        <v>358</v>
+        <v>330</v>
       </c>
       <c r="C218" s="2">
         <v>6980285354065</v>
@@ -8646,7 +8589,7 @@
         <v>43279.506944444445</v>
       </c>
       <c r="F218" s="1" t="s">
-        <v>235</v>
+        <v>207</v>
       </c>
       <c r="G218">
         <v>0.03</v>
@@ -8661,18 +8604,18 @@
         <v>5</v>
       </c>
       <c r="M218" t="s">
-        <v>359</v>
+        <v>331</v>
       </c>
       <c r="N218" t="s">
-        <v>364</v>
+        <v>336</v>
       </c>
     </row>
     <row r="219" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
-        <v>338</v>
+        <v>310</v>
       </c>
       <c r="B219" t="s">
-        <v>358</v>
+        <v>330</v>
       </c>
       <c r="C219" s="2">
         <v>6980285354065</v>
@@ -8684,7 +8627,7 @@
         <v>43279.506944444445</v>
       </c>
       <c r="F219" s="1" t="s">
-        <v>235</v>
+        <v>207</v>
       </c>
       <c r="G219">
         <v>0.38</v>
@@ -8699,18 +8642,18 @@
         <v>13</v>
       </c>
       <c r="M219" t="s">
-        <v>359</v>
+        <v>331</v>
       </c>
       <c r="N219" t="s">
-        <v>364</v>
+        <v>336</v>
       </c>
     </row>
     <row r="220" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
-        <v>338</v>
+        <v>310</v>
       </c>
       <c r="B220" t="s">
-        <v>358</v>
+        <v>330</v>
       </c>
       <c r="C220" s="2">
         <v>6980285354065</v>
@@ -8722,7 +8665,7 @@
         <v>43279.506944444445</v>
       </c>
       <c r="F220" s="1" t="s">
-        <v>235</v>
+        <v>207</v>
       </c>
       <c r="G220">
         <v>1.35</v>
@@ -8737,18 +8680,18 @@
         <v>5</v>
       </c>
       <c r="M220" t="s">
-        <v>359</v>
+        <v>331</v>
       </c>
       <c r="N220" t="s">
-        <v>364</v>
+        <v>336</v>
       </c>
     </row>
     <row r="221" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
-        <v>338</v>
+        <v>310</v>
       </c>
       <c r="B221" t="s">
-        <v>360</v>
+        <v>332</v>
       </c>
       <c r="C221" s="2">
         <v>6980874353935</v>
@@ -8760,7 +8703,7 @@
         <v>43279.515972222223</v>
       </c>
       <c r="F221" s="1" t="s">
-        <v>235</v>
+        <v>207</v>
       </c>
       <c r="G221">
         <v>0.38</v>
@@ -8775,18 +8718,18 @@
         <v>1</v>
       </c>
       <c r="M221" t="s">
-        <v>263</v>
+        <v>235</v>
       </c>
       <c r="N221" t="s">
-        <v>364</v>
+        <v>336</v>
       </c>
     </row>
     <row r="222" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
-        <v>338</v>
+        <v>310</v>
       </c>
       <c r="B222" t="s">
-        <v>361</v>
+        <v>333</v>
       </c>
       <c r="C222" s="2">
         <v>6980891353931</v>
@@ -8798,7 +8741,7 @@
         <v>43279.517361111109</v>
       </c>
       <c r="F222" s="1" t="s">
-        <v>235</v>
+        <v>207</v>
       </c>
       <c r="G222">
         <v>0.35</v>
@@ -8813,18 +8756,18 @@
         <v>1</v>
       </c>
       <c r="M222" t="s">
-        <v>284</v>
+        <v>256</v>
       </c>
       <c r="N222" t="s">
-        <v>364</v>
+        <v>336</v>
       </c>
     </row>
     <row r="223" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
-        <v>338</v>
+        <v>310</v>
       </c>
       <c r="B223" t="s">
-        <v>362</v>
+        <v>334</v>
       </c>
       <c r="C223" s="2">
         <v>6980914353924</v>
@@ -8836,7 +8779,7 @@
         <v>43279.518750000003</v>
       </c>
       <c r="F223" s="1" t="s">
-        <v>235</v>
+        <v>207</v>
       </c>
       <c r="G223">
         <v>0.43</v>
@@ -8851,80 +8794,149 @@
         <v>36</v>
       </c>
       <c r="M223" t="s">
-        <v>363</v>
+        <v>335</v>
       </c>
       <c r="N223" t="s">
-        <v>364</v>
+        <v>336</v>
       </c>
     </row>
     <row r="224" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
-        <v>338</v>
+        <v>310</v>
       </c>
       <c r="B224" s="3" t="s">
-        <v>241</v>
+        <v>213</v>
       </c>
       <c r="C224" s="2">
         <v>6981270353841</v>
       </c>
       <c r="D224" t="s">
-        <v>324</v>
+        <v>296</v>
       </c>
       <c r="E224" s="1">
         <v>43279.526388888888</v>
       </c>
       <c r="F224" s="1" t="s">
-        <v>318</v>
+        <v>290</v>
       </c>
       <c r="N224" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="225" spans="2:6" x14ac:dyDescent="0.2">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="225" spans="1:14" x14ac:dyDescent="0.2">
       <c r="F225" s="1"/>
     </row>
-    <row r="226" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:14" x14ac:dyDescent="0.2">
       <c r="F226" s="1"/>
     </row>
-    <row r="227" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:14" x14ac:dyDescent="0.2">
       <c r="F227" s="1"/>
     </row>
-    <row r="228" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="F228" s="1"/>
-    </row>
-    <row r="229" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A228" t="s">
+        <v>337</v>
+      </c>
+      <c r="B228" s="3" t="s">
+        <v>338</v>
+      </c>
+      <c r="C228" s="2">
+        <v>7008546366649</v>
+      </c>
+      <c r="D228" t="s">
+        <v>339</v>
+      </c>
+      <c r="E228" s="1">
+        <v>43283.493055555555</v>
+      </c>
+      <c r="F228" t="s">
+        <v>205</v>
+      </c>
+      <c r="N228" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="229" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A229" t="s">
+        <v>337</v>
+      </c>
       <c r="B229" t="s">
-        <v>116</v>
+        <v>206</v>
       </c>
       <c r="C229" s="2">
         <v>7008446366454</v>
       </c>
       <c r="D229" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E229" s="1">
         <v>43283.498611111114</v>
       </c>
-      <c r="F229" s="1"/>
-    </row>
-    <row r="230" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="F229" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="G229">
+        <v>0</v>
+      </c>
+      <c r="H229">
+        <v>0</v>
+      </c>
+      <c r="K229">
+        <v>1</v>
+      </c>
+      <c r="L229">
+        <v>1</v>
+      </c>
+      <c r="M229" t="s">
+        <v>302</v>
+      </c>
+      <c r="N229" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="230" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A230" t="s">
+        <v>337</v>
+      </c>
       <c r="B230" t="s">
-        <v>118</v>
+        <v>208</v>
       </c>
       <c r="C230" s="2">
         <v>7008274366146</v>
       </c>
       <c r="D230" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="E230" s="1">
         <v>43283.506944444445</v>
       </c>
-      <c r="F230" s="1"/>
-    </row>
-    <row r="231" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="F230" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="G230">
+        <v>0.22</v>
+      </c>
+      <c r="H230">
+        <v>270</v>
+      </c>
+      <c r="K230">
+        <v>1</v>
+      </c>
+      <c r="L230">
+        <v>2</v>
+      </c>
+      <c r="M230" t="s">
+        <v>256</v>
+      </c>
+      <c r="N230" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="231" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A231" t="s">
+        <v>337</v>
+      </c>
       <c r="B231" t="s">
-        <v>120</v>
+        <v>209</v>
       </c>
       <c r="C231" s="2">
         <v>7008058365732</v>
@@ -8935,11 +8947,34 @@
       <c r="E231" s="1">
         <v>43283.513888888891</v>
       </c>
-      <c r="F231" s="1"/>
-    </row>
-    <row r="232" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="F231" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="G231">
+        <v>0.02</v>
+      </c>
+      <c r="H231">
+        <v>90</v>
+      </c>
+      <c r="K231">
+        <v>1</v>
+      </c>
+      <c r="L231">
+        <v>1</v>
+      </c>
+      <c r="M231" t="s">
+        <v>256</v>
+      </c>
+      <c r="N231" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="232" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A232" t="s">
+        <v>337</v>
+      </c>
       <c r="B232" t="s">
-        <v>121</v>
+        <v>210</v>
       </c>
       <c r="C232" s="2">
         <v>7007697364981</v>
@@ -8950,916 +8985,1529 @@
       <c r="E232" s="1">
         <v>43283.525694444441</v>
       </c>
-      <c r="F232" s="1"/>
-    </row>
-    <row r="233" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="F232" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="G232">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="H232">
+        <v>90</v>
+      </c>
+      <c r="L232">
+        <v>15</v>
+      </c>
+      <c r="M232" t="s">
+        <v>341</v>
+      </c>
+      <c r="N232" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="233" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A233" t="s">
+        <v>337</v>
+      </c>
       <c r="B233" t="s">
+        <v>210</v>
+      </c>
+      <c r="C233" s="2">
+        <v>7007697364981</v>
+      </c>
+      <c r="D233" t="s">
+        <v>56</v>
+      </c>
+      <c r="E233" s="1">
+        <v>43283.525694444441</v>
+      </c>
+      <c r="F233" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="G233">
+        <v>0.87</v>
+      </c>
+      <c r="H233">
+        <v>90</v>
+      </c>
+      <c r="L233">
+        <v>9</v>
+      </c>
+      <c r="M233" t="s">
+        <v>341</v>
+      </c>
+      <c r="N233" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="234" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A234" t="s">
+        <v>337</v>
+      </c>
+      <c r="B234" t="s">
+        <v>211</v>
+      </c>
+      <c r="C234" s="2">
+        <v>7007640364853</v>
+      </c>
+      <c r="D234" t="s">
+        <v>16</v>
+      </c>
+      <c r="E234" s="1">
+        <v>43283.529166666667</v>
+      </c>
+      <c r="F234" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="G234">
+        <v>0.1</v>
+      </c>
+      <c r="H234">
+        <v>270</v>
+      </c>
+      <c r="K234">
+        <v>1</v>
+      </c>
+      <c r="L234">
+        <v>3</v>
+      </c>
+      <c r="M234" t="s">
+        <v>235</v>
+      </c>
+      <c r="N234" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="235" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A235" t="s">
+        <v>337</v>
+      </c>
+      <c r="B235" t="s">
+        <v>211</v>
+      </c>
+      <c r="C235" s="2">
+        <v>7007640364853</v>
+      </c>
+      <c r="D235" t="s">
+        <v>16</v>
+      </c>
+      <c r="E235" s="1">
+        <v>43283.529166666667</v>
+      </c>
+      <c r="F235" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="G235">
+        <v>0.06</v>
+      </c>
+      <c r="H235">
+        <v>270</v>
+      </c>
+      <c r="K235">
+        <v>1</v>
+      </c>
+      <c r="L235">
+        <v>4</v>
+      </c>
+      <c r="M235" t="s">
+        <v>256</v>
+      </c>
+      <c r="N235" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="236" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A236" t="s">
+        <v>337</v>
+      </c>
+      <c r="B236" t="s">
+        <v>212</v>
+      </c>
+      <c r="C236" s="2">
+        <v>7007642364847</v>
+      </c>
+      <c r="D236" t="s">
+        <v>99</v>
+      </c>
+      <c r="E236" s="1">
+        <v>43283.530555555553</v>
+      </c>
+      <c r="F236" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="G236">
+        <v>0.4</v>
+      </c>
+      <c r="H236">
+        <v>90</v>
+      </c>
+      <c r="K236">
+        <v>1</v>
+      </c>
+      <c r="L236">
+        <v>12</v>
+      </c>
+      <c r="M236" t="s">
+        <v>256</v>
+      </c>
+      <c r="N236" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="237" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A237" t="s">
+        <v>337</v>
+      </c>
+      <c r="B237" t="s">
+        <v>217</v>
+      </c>
+      <c r="C237" s="2">
+        <v>7007282364035</v>
+      </c>
+      <c r="D237" t="s">
+        <v>118</v>
+      </c>
+      <c r="E237" s="1">
+        <v>43283.542361111111</v>
+      </c>
+      <c r="F237" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="G237">
+        <v>0.21</v>
+      </c>
+      <c r="H237">
+        <v>270</v>
+      </c>
+      <c r="K237">
+        <v>1</v>
+      </c>
+      <c r="L237">
+        <v>1</v>
+      </c>
+      <c r="M237" t="s">
+        <v>297</v>
+      </c>
+      <c r="N237" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="238" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A238" t="s">
+        <v>337</v>
+      </c>
+      <c r="B238" t="s">
+        <v>218</v>
+      </c>
+      <c r="C238" s="2">
+        <v>7006937363535</v>
+      </c>
+      <c r="D238" t="s">
+        <v>119</v>
+      </c>
+      <c r="E238" s="1">
+        <v>43283.552777777775</v>
+      </c>
+      <c r="F238" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="G238">
+        <v>0.15</v>
+      </c>
+      <c r="H238">
+        <v>90</v>
+      </c>
+      <c r="K238">
+        <v>1</v>
+      </c>
+      <c r="L238">
+        <v>4</v>
+      </c>
+      <c r="M238" t="s">
+        <v>234</v>
+      </c>
+      <c r="N238" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="239" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A239" t="s">
+        <v>337</v>
+      </c>
+      <c r="B239" t="s">
+        <v>219</v>
+      </c>
+      <c r="C239" s="2">
+        <v>7006658363080</v>
+      </c>
+      <c r="D239" t="s">
+        <v>120</v>
+      </c>
+      <c r="E239" s="1">
+        <v>43283.56527777778</v>
+      </c>
+      <c r="F239" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="G239">
+        <v>0.3</v>
+      </c>
+      <c r="H239">
+        <v>270</v>
+      </c>
+      <c r="K239">
+        <v>1</v>
+      </c>
+      <c r="L239">
+        <v>3</v>
+      </c>
+      <c r="M239" t="s">
+        <v>297</v>
+      </c>
+      <c r="N239" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="240" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A240" t="s">
+        <v>337</v>
+      </c>
+      <c r="B240" t="s">
+        <v>219</v>
+      </c>
+      <c r="C240" s="2">
+        <v>7006658363080</v>
+      </c>
+      <c r="D240" t="s">
+        <v>120</v>
+      </c>
+      <c r="E240" s="1">
+        <v>43283.56527777778</v>
+      </c>
+      <c r="F240" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="G240">
+        <v>0.11</v>
+      </c>
+      <c r="H240">
+        <v>270</v>
+      </c>
+      <c r="K240">
+        <v>1</v>
+      </c>
+      <c r="L240">
+        <v>1</v>
+      </c>
+      <c r="M240" t="s">
+        <v>342</v>
+      </c>
+      <c r="N240" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="241" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A241" t="s">
+        <v>337</v>
+      </c>
+      <c r="B241" t="s">
+        <v>219</v>
+      </c>
+      <c r="C241" s="2">
+        <v>7006658363080</v>
+      </c>
+      <c r="D241" t="s">
+        <v>120</v>
+      </c>
+      <c r="E241" s="1">
+        <v>43283.56527777778</v>
+      </c>
+      <c r="F241" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="G241">
+        <v>2.77</v>
+      </c>
+      <c r="H241">
+        <v>270</v>
+      </c>
+      <c r="K241">
+        <v>1</v>
+      </c>
+      <c r="L241">
+        <v>12</v>
+      </c>
+      <c r="M241" t="s">
+        <v>297</v>
+      </c>
+      <c r="N241" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="242" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A242" t="s">
+        <v>337</v>
+      </c>
+      <c r="B242" t="s">
+        <v>121</v>
+      </c>
+      <c r="C242" s="2">
+        <v>7007092363031</v>
+      </c>
+      <c r="D242" t="s">
         <v>122</v>
       </c>
-      <c r="C233" s="2">
-        <v>7007640364853</v>
-      </c>
-      <c r="D233" t="s">
-        <v>16</v>
-      </c>
-      <c r="E233" s="1">
-        <v>43283.529166666667</v>
-      </c>
-      <c r="F233" s="1"/>
-    </row>
-    <row r="234" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B234" t="s">
+      <c r="E242" s="1">
+        <v>43283.604861111111</v>
+      </c>
+      <c r="F242" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="G242">
+        <v>71.2</v>
+      </c>
+      <c r="H242">
+        <v>34</v>
+      </c>
+      <c r="L242">
+        <v>1</v>
+      </c>
+      <c r="N242" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="243" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A243" t="s">
+        <v>337</v>
+      </c>
+      <c r="B243" t="s">
+        <v>220</v>
+      </c>
+      <c r="C243" s="2">
+        <v>7007870362915</v>
+      </c>
+      <c r="D243" t="s">
         <v>123</v>
       </c>
-      <c r="C234" s="2">
-        <v>7007642364847</v>
-      </c>
-      <c r="D234" t="s">
-        <v>99</v>
-      </c>
-      <c r="E234" s="1">
-        <v>43283.530555555553</v>
-      </c>
-      <c r="F234" s="1"/>
-    </row>
-    <row r="235" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B235" t="s">
+      <c r="E243" s="1">
+        <v>43283.619444444441</v>
+      </c>
+      <c r="F243" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="G243">
+        <v>0.08</v>
+      </c>
+      <c r="H243">
+        <v>90</v>
+      </c>
+      <c r="K243">
+        <v>1</v>
+      </c>
+      <c r="L243">
+        <v>1</v>
+      </c>
+      <c r="M243" t="s">
+        <v>297</v>
+      </c>
+      <c r="N243" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="244" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A244" t="s">
+        <v>337</v>
+      </c>
+      <c r="B244" t="s">
+        <v>215</v>
+      </c>
+      <c r="C244" s="2">
+        <v>7010603362818</v>
+      </c>
+      <c r="D244" t="s">
+        <v>32</v>
+      </c>
+      <c r="E244" s="1">
+        <v>43283.652083333334</v>
+      </c>
+      <c r="F244" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="N244" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="245" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A245" t="s">
+        <v>337</v>
+      </c>
+      <c r="B245" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="C245" s="2">
+        <v>7010638362876</v>
+      </c>
+      <c r="D245" t="s">
+        <v>343</v>
+      </c>
+      <c r="E245" s="1">
+        <v>43283.654166666667</v>
+      </c>
+      <c r="F245" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="246" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A246" t="s">
+        <v>337</v>
+      </c>
+      <c r="B246" t="s">
+        <v>221</v>
+      </c>
+      <c r="C246" s="2">
+        <v>7009945363862</v>
+      </c>
+      <c r="D246" t="s">
+        <v>19</v>
+      </c>
+      <c r="E246" s="1">
+        <v>43283.67291666667</v>
+      </c>
+      <c r="F246" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="G246">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="H246">
+        <v>270</v>
+      </c>
+      <c r="K246">
+        <v>1</v>
+      </c>
+      <c r="L246">
+        <v>2</v>
+      </c>
+      <c r="M246" t="s">
+        <v>256</v>
+      </c>
+      <c r="N246" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="247" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A247" t="s">
+        <v>337</v>
+      </c>
+      <c r="B247" t="s">
+        <v>215</v>
+      </c>
+      <c r="C247" s="2">
+        <v>7009257365321</v>
+      </c>
+      <c r="D247" t="s">
+        <v>58</v>
+      </c>
+      <c r="E247" s="1">
+        <v>43283.743055555555</v>
+      </c>
+      <c r="F247" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="N247" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="248" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A248" t="s">
+        <v>337</v>
+      </c>
+      <c r="B248" t="s">
+        <v>224</v>
+      </c>
+      <c r="C248" s="2">
+        <v>7009246365393</v>
+      </c>
+      <c r="D248" t="s">
+        <v>21</v>
+      </c>
+      <c r="E248" s="1">
+        <v>43283.745138888888</v>
+      </c>
+      <c r="F248" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="G248">
+        <v>0.12</v>
+      </c>
+      <c r="H248">
+        <v>90</v>
+      </c>
+      <c r="K248">
+        <v>1</v>
+      </c>
+      <c r="L248">
+        <v>1</v>
+      </c>
+      <c r="M248" t="s">
+        <v>256</v>
+      </c>
+      <c r="N248" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="249" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A249" t="s">
+        <v>337</v>
+      </c>
+      <c r="B249" t="s">
+        <v>225</v>
+      </c>
+      <c r="C249" s="2">
+        <v>7009221365532</v>
+      </c>
+      <c r="D249" t="s">
         <v>124</v>
       </c>
-      <c r="C235" s="2">
-        <v>7007282364035</v>
-      </c>
-      <c r="D235" t="s">
+      <c r="E249" s="1">
+        <v>43283.747916666667</v>
+      </c>
+      <c r="F249" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="G249">
+        <v>0.19</v>
+      </c>
+      <c r="H249">
+        <v>90</v>
+      </c>
+      <c r="K249">
+        <v>1</v>
+      </c>
+      <c r="L249">
+        <v>2</v>
+      </c>
+      <c r="M249" t="s">
+        <v>256</v>
+      </c>
+      <c r="N249" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="250" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A250" t="s">
+        <v>337</v>
+      </c>
+      <c r="B250" t="s">
+        <v>226</v>
+      </c>
+      <c r="C250" s="2">
+        <v>7009215365581</v>
+      </c>
+      <c r="D250" t="s">
+        <v>70</v>
+      </c>
+      <c r="E250" s="1">
+        <v>43283.749305555553</v>
+      </c>
+      <c r="F250" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="G250">
+        <v>0.61</v>
+      </c>
+      <c r="H250">
+        <v>90</v>
+      </c>
+      <c r="K250">
+        <v>1</v>
+      </c>
+      <c r="L250">
+        <v>1</v>
+      </c>
+      <c r="M250" t="s">
+        <v>256</v>
+      </c>
+      <c r="N250" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="251" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A251" t="s">
+        <v>337</v>
+      </c>
+      <c r="B251" t="s">
+        <v>226</v>
+      </c>
+      <c r="C251" s="2">
+        <v>7009215365581</v>
+      </c>
+      <c r="D251" t="s">
+        <v>70</v>
+      </c>
+      <c r="E251" s="1">
+        <v>43283.749305555553</v>
+      </c>
+      <c r="F251" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="G251">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="H251">
+        <v>270</v>
+      </c>
+      <c r="K251">
+        <v>1</v>
+      </c>
+      <c r="L251">
+        <v>2</v>
+      </c>
+      <c r="M251" t="s">
+        <v>256</v>
+      </c>
+      <c r="N251" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="252" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A252" t="s">
+        <v>337</v>
+      </c>
+      <c r="B252" t="s">
+        <v>261</v>
+      </c>
+      <c r="C252" s="2">
+        <v>7009220365592</v>
+      </c>
+      <c r="D252" t="s">
         <v>125</v>
       </c>
-      <c r="E235" s="1">
-        <v>43283.542361111111</v>
-      </c>
-      <c r="F235" s="1"/>
-    </row>
-    <row r="236" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B236" t="s">
+      <c r="E252" s="1">
+        <v>43283.750694444447</v>
+      </c>
+      <c r="F252" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="G252">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="H252">
+        <v>90</v>
+      </c>
+      <c r="K252">
+        <v>1</v>
+      </c>
+      <c r="L252">
+        <v>1</v>
+      </c>
+      <c r="M252" t="s">
+        <v>256</v>
+      </c>
+      <c r="N252" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="253" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A253" t="s">
+        <v>337</v>
+      </c>
+      <c r="B253" t="s">
+        <v>264</v>
+      </c>
+      <c r="C253" s="2">
+        <v>7009216365643</v>
+      </c>
+      <c r="D253" t="s">
         <v>126</v>
       </c>
-      <c r="C236" s="2">
-        <v>7006937363535</v>
-      </c>
-      <c r="D236" t="s">
+      <c r="E253" s="1">
+        <v>43283.75277777778</v>
+      </c>
+      <c r="F253" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="G253">
+        <v>0.44</v>
+      </c>
+      <c r="H253">
+        <v>90</v>
+      </c>
+      <c r="K253">
+        <v>1</v>
+      </c>
+      <c r="L253">
+        <v>1</v>
+      </c>
+      <c r="M253" t="s">
+        <v>256</v>
+      </c>
+      <c r="N253" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="254" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A254" t="s">
+        <v>337</v>
+      </c>
+      <c r="B254" t="s">
+        <v>215</v>
+      </c>
+      <c r="C254" s="2">
+        <v>7009215365667</v>
+      </c>
+      <c r="D254" t="s">
         <v>127</v>
       </c>
-      <c r="E236" s="1">
-        <v>43283.552777777775</v>
-      </c>
-      <c r="F236" s="1"/>
-    </row>
-    <row r="237" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B237" t="s">
+      <c r="E254" s="1">
+        <v>43283.753472222219</v>
+      </c>
+      <c r="F254" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="N254" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="255" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A255" t="s">
+        <v>337</v>
+      </c>
+      <c r="B255" t="s">
+        <v>265</v>
+      </c>
+      <c r="C255" s="2">
+        <v>7009073365892</v>
+      </c>
+      <c r="D255" t="s">
         <v>128</v>
       </c>
-      <c r="C237" s="2">
-        <v>7006658363080</v>
-      </c>
-      <c r="D237" t="s">
+      <c r="E255" s="1">
+        <v>43283.759027777778</v>
+      </c>
+      <c r="F255" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="G255">
+        <v>0.11</v>
+      </c>
+      <c r="H255">
+        <v>90</v>
+      </c>
+      <c r="K255">
+        <v>1</v>
+      </c>
+      <c r="L255">
+        <v>1</v>
+      </c>
+      <c r="M255" t="s">
+        <v>344</v>
+      </c>
+      <c r="N255" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="256" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A256" t="s">
+        <v>337</v>
+      </c>
+      <c r="B256" t="s">
+        <v>267</v>
+      </c>
+      <c r="C256" s="2">
+        <v>7008870366106</v>
+      </c>
+      <c r="D256" t="s">
         <v>129</v>
       </c>
-      <c r="E237" s="1">
-        <v>43283.56527777778</v>
-      </c>
-      <c r="F237" s="1"/>
-    </row>
-    <row r="238" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B238" t="s">
+      <c r="E256" s="1">
+        <v>43283.765277777777</v>
+      </c>
+      <c r="F256" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="G256">
+        <v>0.62</v>
+      </c>
+      <c r="H256">
+        <v>90</v>
+      </c>
+      <c r="K256">
+        <v>1</v>
+      </c>
+      <c r="L256">
+        <v>25</v>
+      </c>
+      <c r="M256" t="s">
+        <v>345</v>
+      </c>
+      <c r="N256" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="257" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A257" t="s">
+        <v>337</v>
+      </c>
+      <c r="B257" t="s">
+        <v>273</v>
+      </c>
+      <c r="C257" s="2">
+        <v>7008555366617</v>
+      </c>
+      <c r="D257" t="s">
         <v>130</v>
       </c>
-      <c r="C238" s="2">
-        <v>7007092363031</v>
-      </c>
-      <c r="D238" t="s">
+      <c r="E257" s="1">
+        <v>43283.776388888888</v>
+      </c>
+      <c r="F257" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="G257">
+        <v>0.51</v>
+      </c>
+      <c r="H257">
+        <v>270</v>
+      </c>
+      <c r="K257">
+        <v>1</v>
+      </c>
+      <c r="L257">
+        <v>5</v>
+      </c>
+      <c r="M257" t="s">
+        <v>256</v>
+      </c>
+      <c r="N257" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="258" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A258" t="s">
+        <v>337</v>
+      </c>
+      <c r="B258" t="s">
+        <v>274</v>
+      </c>
+      <c r="C258" s="2">
+        <v>7008548366629</v>
+      </c>
+      <c r="D258" t="s">
+        <v>40</v>
+      </c>
+      <c r="E258" s="1">
+        <v>43283.777777777781</v>
+      </c>
+      <c r="F258" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="G258">
+        <v>0.83</v>
+      </c>
+      <c r="H258">
+        <v>90</v>
+      </c>
+      <c r="K258">
+        <v>1</v>
+      </c>
+      <c r="L258">
+        <v>1</v>
+      </c>
+      <c r="M258" t="s">
+        <v>256</v>
+      </c>
+      <c r="N258" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="259" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A259" t="s">
+        <v>337</v>
+      </c>
+      <c r="B259" s="3" t="s">
+        <v>338</v>
+      </c>
+      <c r="C259" s="2">
+        <v>7008546366649</v>
+      </c>
+      <c r="D259" t="s">
+        <v>339</v>
+      </c>
+      <c r="E259" s="1">
+        <v>43283.78125</v>
+      </c>
+      <c r="F259" t="s">
+        <v>290</v>
+      </c>
+      <c r="N259" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="262" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="C262" s="2"/>
+      <c r="E262" s="1"/>
+    </row>
+    <row r="263" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B263" t="s">
         <v>131</v>
       </c>
-      <c r="E238" s="1">
-        <v>43283.604861111111</v>
-      </c>
-      <c r="F238" s="1"/>
-    </row>
-    <row r="239" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B239" t="s">
+      <c r="C263" s="2">
+        <v>7003859361323</v>
+      </c>
+      <c r="D263" t="s">
         <v>132</v>
       </c>
-      <c r="C239" s="2">
-        <v>7007443362987</v>
-      </c>
-      <c r="D239" t="s">
+      <c r="E263" s="1">
+        <v>43284.474305555559</v>
+      </c>
+    </row>
+    <row r="264" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B264" t="s">
         <v>133</v>
       </c>
-      <c r="E239" s="1">
-        <v>43283.613194444442</v>
-      </c>
-      <c r="F239" s="1"/>
-    </row>
-    <row r="240" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B240" t="s">
+      <c r="C264" s="2">
+        <v>7003856361321</v>
+      </c>
+      <c r="D264" t="s">
+        <v>132</v>
+      </c>
+      <c r="E264" s="1">
+        <v>43284.476388888892</v>
+      </c>
+    </row>
+    <row r="265" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B265" t="s">
         <v>134</v>
       </c>
-      <c r="C240" s="2">
-        <v>7007870362915</v>
-      </c>
-      <c r="D240" t="s">
+      <c r="C265" s="2">
+        <v>7003558361140</v>
+      </c>
+      <c r="D265" t="s">
         <v>135</v>
       </c>
-      <c r="E240" s="1">
-        <v>43283.619444444441</v>
-      </c>
-      <c r="F240" s="1"/>
-    </row>
-    <row r="241" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B241" t="s">
+      <c r="E265" s="1">
+        <v>43284.481944444444</v>
+      </c>
+    </row>
+    <row r="266" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B266" t="s">
         <v>136</v>
       </c>
-      <c r="C241" s="2">
-        <v>7010603362818</v>
-      </c>
-      <c r="D241" t="s">
-        <v>32</v>
-      </c>
-      <c r="E241" s="1">
-        <v>43283.652083333334</v>
-      </c>
-      <c r="F241" s="1"/>
-    </row>
-    <row r="242" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B242" t="s">
+      <c r="C266" s="2">
+        <v>7003118360900</v>
+      </c>
+      <c r="D266" t="s">
         <v>137</v>
       </c>
-      <c r="C242" s="2">
-        <v>7009945363862</v>
-      </c>
-      <c r="D242" t="s">
-        <v>19</v>
-      </c>
-      <c r="E242" s="1">
-        <v>43283.67291666667</v>
-      </c>
-      <c r="F242" s="1"/>
-    </row>
-    <row r="243" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B243" t="s">
+      <c r="E266" s="1">
+        <v>43284.487500000003</v>
+      </c>
+    </row>
+    <row r="267" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B267" t="s">
         <v>138</v>
       </c>
-      <c r="C243" s="2">
-        <v>7009257365321</v>
-      </c>
-      <c r="D243" t="s">
-        <v>58</v>
-      </c>
-      <c r="E243" s="1">
-        <v>43283.743055555555</v>
-      </c>
-      <c r="F243" s="1"/>
-    </row>
-    <row r="244" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B244" t="s">
+      <c r="C267" s="2">
+        <v>7002855360420</v>
+      </c>
+      <c r="D267" t="s">
+        <v>135</v>
+      </c>
+      <c r="E267" s="1">
+        <v>43284.509027777778</v>
+      </c>
+    </row>
+    <row r="268" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B268" t="s">
         <v>139</v>
       </c>
-      <c r="C244" s="2">
-        <v>7009246365393</v>
-      </c>
-      <c r="D244" t="s">
-        <v>21</v>
-      </c>
-      <c r="E244" s="1">
-        <v>43283.745138888888</v>
-      </c>
-      <c r="F244" s="1"/>
-    </row>
-    <row r="245" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B245" t="s">
+      <c r="C268" s="2">
+        <v>7002885360403</v>
+      </c>
+      <c r="D268" t="s">
         <v>140</v>
       </c>
-      <c r="C245" s="2">
-        <v>7009221365532</v>
-      </c>
-      <c r="D245" t="s">
+      <c r="E268" s="1">
+        <v>43284.511111111111</v>
+      </c>
+    </row>
+    <row r="269" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B269" t="s">
         <v>141</v>
       </c>
-      <c r="E245" s="1">
-        <v>43283.747916666667</v>
-      </c>
-      <c r="F245" s="1"/>
-    </row>
-    <row r="246" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B246" t="s">
+      <c r="C269" s="2">
+        <v>7003077360282</v>
+      </c>
+      <c r="D269" t="s">
         <v>142</v>
       </c>
-      <c r="C246" s="2">
-        <v>7009215365581</v>
-      </c>
-      <c r="D246" t="s">
-        <v>70</v>
-      </c>
-      <c r="E246" s="1">
-        <v>43283.749305555553</v>
-      </c>
-      <c r="F246" s="1"/>
-    </row>
-    <row r="247" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B247" t="s">
+      <c r="E269" s="1">
+        <v>43284.51458333333</v>
+      </c>
+    </row>
+    <row r="270" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B270" t="s">
         <v>143</v>
       </c>
-      <c r="C247" s="2">
-        <v>7009220365592</v>
-      </c>
-      <c r="D247" t="s">
+      <c r="C270" s="2">
+        <v>7004668359365</v>
+      </c>
+      <c r="D270" t="s">
         <v>144</v>
       </c>
-      <c r="E247" s="1">
-        <v>43283.750694444447</v>
-      </c>
-      <c r="F247" s="1"/>
-    </row>
-    <row r="248" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B248" t="s">
+      <c r="E270" s="1">
+        <v>43284.538194444445</v>
+      </c>
+    </row>
+    <row r="271" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B271" t="s">
         <v>145</v>
       </c>
-      <c r="C248" s="2">
-        <v>7009216365643</v>
-      </c>
-      <c r="D248" t="s">
+      <c r="C271" s="2">
+        <v>7004947359182</v>
+      </c>
+      <c r="D271" t="s">
         <v>146</v>
       </c>
-      <c r="E248" s="1">
-        <v>43283.75277777778</v>
-      </c>
-      <c r="F248" s="1"/>
-    </row>
-    <row r="249" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B249" t="s">
+      <c r="E271" s="1">
+        <v>43284.543055555558</v>
+      </c>
+    </row>
+    <row r="272" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B272" t="s">
         <v>147</v>
       </c>
-      <c r="C249" s="2">
-        <v>7009215365667</v>
-      </c>
-      <c r="D249" t="s">
-        <v>148</v>
-      </c>
-      <c r="E249" s="1">
-        <v>43283.753472222219</v>
-      </c>
-      <c r="F249" s="1"/>
-    </row>
-    <row r="250" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B250" t="s">
-        <v>149</v>
-      </c>
-      <c r="C250" s="2">
-        <v>7009073365892</v>
-      </c>
-      <c r="D250" t="s">
-        <v>150</v>
-      </c>
-      <c r="E250" s="1">
-        <v>43283.759027777778</v>
-      </c>
-      <c r="F250" s="1"/>
-    </row>
-    <row r="251" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B251" t="s">
-        <v>151</v>
-      </c>
-      <c r="C251" s="2">
-        <v>7008870366106</v>
-      </c>
-      <c r="D251" t="s">
-        <v>152</v>
-      </c>
-      <c r="E251" s="1">
-        <v>43283.765277777777</v>
-      </c>
-      <c r="F251" s="1"/>
-    </row>
-    <row r="252" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B252" t="s">
-        <v>153</v>
-      </c>
-      <c r="C252" s="2">
-        <v>7008555366617</v>
-      </c>
-      <c r="D252" t="s">
-        <v>154</v>
-      </c>
-      <c r="E252" s="1">
-        <v>43283.776388888888</v>
-      </c>
-      <c r="F252" s="1"/>
-    </row>
-    <row r="253" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B253" t="s">
-        <v>155</v>
-      </c>
-      <c r="C253" s="2">
-        <v>7008548366629</v>
-      </c>
-      <c r="D253" t="s">
-        <v>40</v>
-      </c>
-      <c r="E253" s="1">
-        <v>43283.777777777781</v>
-      </c>
-      <c r="F253" s="1"/>
-    </row>
-    <row r="254" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B254" t="s">
-        <v>156</v>
-      </c>
-      <c r="C254" s="2">
-        <v>7008546366650</v>
-      </c>
-      <c r="D254" t="s">
-        <v>36</v>
-      </c>
-      <c r="E254" s="1">
-        <v>43283.779166666667</v>
-      </c>
-      <c r="F254" s="1"/>
-    </row>
-    <row r="255" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B255" t="s">
-        <v>157</v>
-      </c>
-      <c r="C255" s="2">
-        <v>7005699362925</v>
-      </c>
-      <c r="D255" t="s">
-        <v>158</v>
-      </c>
-      <c r="E255" s="1">
-        <v>43284.404861111114</v>
-      </c>
-      <c r="F255" s="1"/>
-    </row>
-    <row r="256" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B256" t="s">
-        <v>159</v>
-      </c>
-      <c r="C256" s="2">
-        <v>7003859361323</v>
-      </c>
-      <c r="D256" t="s">
-        <v>160</v>
-      </c>
-      <c r="E256" s="1">
-        <v>43284.474305555559</v>
-      </c>
-      <c r="F256" s="1"/>
-    </row>
-    <row r="257" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B257" t="s">
-        <v>161</v>
-      </c>
-      <c r="C257" s="2">
-        <v>7003856361321</v>
-      </c>
-      <c r="D257" t="s">
-        <v>160</v>
-      </c>
-      <c r="E257" s="1">
-        <v>43284.476388888892</v>
-      </c>
-    </row>
-    <row r="258" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B258" t="s">
-        <v>162</v>
-      </c>
-      <c r="C258" s="2">
-        <v>7003558361140</v>
-      </c>
-      <c r="D258" t="s">
-        <v>163</v>
-      </c>
-      <c r="E258" s="1">
-        <v>43284.481944444444</v>
-      </c>
-      <c r="F258" s="1"/>
-    </row>
-    <row r="259" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B259" t="s">
-        <v>164</v>
-      </c>
-      <c r="C259" s="2">
-        <v>7003118360900</v>
-      </c>
-      <c r="D259" t="s">
-        <v>165</v>
-      </c>
-      <c r="E259" s="1">
-        <v>43284.487500000003</v>
-      </c>
-    </row>
-    <row r="260" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B260" t="s">
-        <v>166</v>
-      </c>
-      <c r="C260" s="2">
-        <v>7002855360420</v>
-      </c>
-      <c r="D260" t="s">
-        <v>163</v>
-      </c>
-      <c r="E260" s="1">
-        <v>43284.509027777778</v>
-      </c>
-    </row>
-    <row r="261" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B261" t="s">
-        <v>167</v>
-      </c>
-      <c r="C261" s="2">
-        <v>7002885360403</v>
-      </c>
-      <c r="D261" t="s">
-        <v>168</v>
-      </c>
-      <c r="E261" s="1">
-        <v>43284.511111111111</v>
-      </c>
-    </row>
-    <row r="262" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B262" t="s">
-        <v>169</v>
-      </c>
-      <c r="C262" s="2">
-        <v>7003077360282</v>
-      </c>
-      <c r="D262" t="s">
-        <v>170</v>
-      </c>
-      <c r="E262" s="1">
-        <v>43284.51458333333</v>
-      </c>
-    </row>
-    <row r="263" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B263" t="s">
-        <v>171</v>
-      </c>
-      <c r="C263" s="2">
-        <v>7004668359365</v>
-      </c>
-      <c r="D263" t="s">
-        <v>172</v>
-      </c>
-      <c r="E263" s="1">
-        <v>43284.538194444445</v>
-      </c>
-    </row>
-    <row r="264" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B264" t="s">
-        <v>173</v>
-      </c>
-      <c r="C264" s="2">
-        <v>7004947359182</v>
-      </c>
-      <c r="D264" t="s">
-        <v>174</v>
-      </c>
-      <c r="E264" s="1">
-        <v>43284.543055555558</v>
-      </c>
-    </row>
-    <row r="265" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B265" t="s">
-        <v>175</v>
-      </c>
-      <c r="C265" s="2">
+      <c r="C272" s="2">
         <v>7005389358896</v>
       </c>
-      <c r="D265" t="s">
+      <c r="D272" t="s">
         <v>91</v>
       </c>
-      <c r="E265" s="1">
+      <c r="E272" s="1">
         <v>43284.55</v>
-      </c>
-    </row>
-    <row r="266" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B266" t="s">
-        <v>176</v>
-      </c>
-      <c r="C266" s="2">
-        <v>7005467358844</v>
-      </c>
-      <c r="D266" t="s">
-        <v>91</v>
-      </c>
-      <c r="E266" s="1">
-        <v>43284.552083333336</v>
-      </c>
-    </row>
-    <row r="267" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B267" t="s">
-        <v>177</v>
-      </c>
-      <c r="C267" s="2">
-        <v>7005608358776</v>
-      </c>
-      <c r="D267" t="s">
-        <v>163</v>
-      </c>
-      <c r="E267" s="1">
-        <v>43284.554861111108</v>
-      </c>
-    </row>
-    <row r="268" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B268" t="s">
-        <v>178</v>
-      </c>
-      <c r="C268" s="2">
-        <v>7005953358605</v>
-      </c>
-      <c r="D268" t="s">
-        <v>179</v>
-      </c>
-      <c r="E268" s="1">
-        <v>43284.561111111114</v>
-      </c>
-    </row>
-    <row r="269" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B269" t="s">
-        <v>180</v>
-      </c>
-      <c r="C269" s="2">
-        <v>7005947359962</v>
-      </c>
-      <c r="D269" t="s">
-        <v>43</v>
-      </c>
-      <c r="E269" s="1">
-        <v>43284.581250000003</v>
-      </c>
-    </row>
-    <row r="270" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B270" t="s">
-        <v>181</v>
-      </c>
-      <c r="C270" s="2">
-        <v>7005968360361</v>
-      </c>
-      <c r="D270" t="s">
-        <v>43</v>
-      </c>
-      <c r="E270" s="1">
-        <v>43284.585416666669</v>
-      </c>
-    </row>
-    <row r="271" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B271" t="s">
-        <v>182</v>
-      </c>
-      <c r="C271" s="2">
-        <v>7005953361950</v>
-      </c>
-      <c r="D271" t="s">
-        <v>129</v>
-      </c>
-      <c r="E271" s="1">
-        <v>43284.602777777778</v>
-      </c>
-    </row>
-    <row r="272" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B272" t="s">
-        <v>183</v>
-      </c>
-      <c r="C272" s="2">
-        <v>7004327359068</v>
-      </c>
-      <c r="D272" t="s">
-        <v>184</v>
-      </c>
-      <c r="E272" s="1">
-        <v>43285.468055555553</v>
       </c>
     </row>
     <row r="273" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B273" t="s">
-        <v>185</v>
+        <v>148</v>
       </c>
       <c r="C273" s="2">
-        <v>7004323359062</v>
+        <v>7005467358844</v>
       </c>
       <c r="D273" t="s">
-        <v>186</v>
+        <v>91</v>
       </c>
       <c r="E273" s="1">
-        <v>43285.469444444447</v>
+        <v>43284.552083333336</v>
       </c>
     </row>
     <row r="274" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B274" t="s">
-        <v>187</v>
+        <v>149</v>
       </c>
       <c r="C274" s="2">
-        <v>7004287358905</v>
+        <v>7005608358776</v>
       </c>
       <c r="D274" t="s">
-        <v>188</v>
+        <v>135</v>
       </c>
       <c r="E274" s="1">
-        <v>43285.472916666666</v>
+        <v>43284.554861111108</v>
       </c>
     </row>
     <row r="275" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B275" t="s">
-        <v>189</v>
+        <v>150</v>
       </c>
       <c r="C275" s="2">
-        <v>7004221358773</v>
+        <v>7005953358605</v>
       </c>
       <c r="D275" t="s">
-        <v>190</v>
+        <v>151</v>
       </c>
       <c r="E275" s="1">
-        <v>43285.479861111111</v>
+        <v>43284.561111111114</v>
       </c>
     </row>
     <row r="276" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B276" t="s">
-        <v>191</v>
+        <v>152</v>
       </c>
       <c r="C276" s="2">
-        <v>7003851357814</v>
+        <v>7005947359962</v>
       </c>
       <c r="D276" t="s">
-        <v>192</v>
+        <v>43</v>
       </c>
       <c r="E276" s="1">
-        <v>43285.495833333334</v>
+        <v>43284.581250000003</v>
       </c>
     </row>
     <row r="277" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B277" t="s">
-        <v>193</v>
+        <v>153</v>
       </c>
       <c r="C277" s="2">
-        <v>7003591357126</v>
+        <v>7005968360361</v>
       </c>
       <c r="D277" t="s">
-        <v>194</v>
+        <v>43</v>
       </c>
       <c r="E277" s="1">
-        <v>43285.505555555559</v>
+        <v>43284.585416666669</v>
       </c>
     </row>
     <row r="278" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B278" t="s">
-        <v>195</v>
+        <v>154</v>
       </c>
       <c r="C278" s="2">
-        <v>7003588357121</v>
+        <v>7005953361950</v>
       </c>
       <c r="D278" t="s">
-        <v>196</v>
+        <v>120</v>
       </c>
       <c r="E278" s="1">
-        <v>43285.507638888892</v>
+        <v>43284.602777777778</v>
       </c>
     </row>
     <row r="279" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B279" t="s">
-        <v>197</v>
+        <v>155</v>
       </c>
       <c r="C279" s="2">
-        <v>7003563357072</v>
+        <v>7004327359068</v>
       </c>
       <c r="D279" t="s">
-        <v>198</v>
+        <v>156</v>
       </c>
       <c r="E279" s="1">
-        <v>43285.509722222225</v>
+        <v>43285.468055555553</v>
       </c>
     </row>
     <row r="280" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B280" t="s">
-        <v>199</v>
+        <v>157</v>
       </c>
       <c r="C280" s="2">
-        <v>7003167356300</v>
+        <v>7004323359062</v>
       </c>
       <c r="D280" t="s">
-        <v>200</v>
+        <v>158</v>
       </c>
       <c r="E280" s="1">
-        <v>43285.520138888889</v>
+        <v>43285.469444444447</v>
       </c>
     </row>
     <row r="281" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B281" t="s">
-        <v>201</v>
+        <v>159</v>
       </c>
       <c r="C281" s="2">
-        <v>7003070356094</v>
+        <v>7004287358905</v>
       </c>
       <c r="D281" t="s">
-        <v>202</v>
+        <v>160</v>
       </c>
       <c r="E281" s="1">
-        <v>43285.525000000001</v>
+        <v>43285.472916666666</v>
       </c>
     </row>
     <row r="282" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B282" t="s">
-        <v>203</v>
+        <v>161</v>
       </c>
       <c r="C282" s="2">
-        <v>7002942355831</v>
+        <v>7004221358773</v>
       </c>
       <c r="D282" t="s">
-        <v>204</v>
+        <v>162</v>
       </c>
       <c r="E282" s="1">
-        <v>43285.529166666667</v>
+        <v>43285.479861111111</v>
       </c>
     </row>
     <row r="283" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B283" t="s">
-        <v>205</v>
+        <v>163</v>
       </c>
       <c r="C283" s="2">
-        <v>7002927355804</v>
+        <v>7003851357814</v>
       </c>
       <c r="D283" t="s">
-        <v>206</v>
+        <v>164</v>
       </c>
       <c r="E283" s="1">
-        <v>43285.530555555553</v>
+        <v>43285.495833333334</v>
       </c>
     </row>
     <row r="284" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B284" t="s">
-        <v>207</v>
+        <v>165</v>
       </c>
       <c r="C284" s="2">
-        <v>7003815355805</v>
+        <v>7003591357126</v>
       </c>
       <c r="D284" t="s">
-        <v>208</v>
+        <v>166</v>
       </c>
       <c r="E284" s="1">
-        <v>43285.582638888889</v>
+        <v>43285.505555555559</v>
       </c>
     </row>
     <row r="285" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B285" t="s">
-        <v>209</v>
+        <v>167</v>
       </c>
       <c r="C285" s="2">
-        <v>7003868355815</v>
+        <v>7003588357121</v>
       </c>
       <c r="D285" t="s">
-        <v>210</v>
+        <v>168</v>
       </c>
       <c r="E285" s="1">
-        <v>43285.584027777775</v>
+        <v>43285.507638888892</v>
       </c>
     </row>
     <row r="286" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B286" t="s">
-        <v>211</v>
+        <v>169</v>
       </c>
       <c r="C286" s="2">
-        <v>7004676355956</v>
+        <v>7003563357072</v>
       </c>
       <c r="D286" t="s">
-        <v>212</v>
+        <v>170</v>
       </c>
       <c r="E286" s="1">
-        <v>43285.595138888886</v>
+        <v>43285.509722222225</v>
       </c>
     </row>
     <row r="287" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B287" t="s">
-        <v>213</v>
+        <v>171</v>
       </c>
       <c r="C287" s="2">
-        <v>7005109356038</v>
+        <v>7003167356300</v>
       </c>
       <c r="D287" t="s">
-        <v>214</v>
+        <v>172</v>
       </c>
       <c r="E287" s="1">
-        <v>43285.602083333331</v>
+        <v>43285.520138888889</v>
       </c>
     </row>
     <row r="288" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B288" t="s">
-        <v>215</v>
+        <v>173</v>
       </c>
       <c r="C288" s="2">
-        <v>7005919356186</v>
+        <v>7003070356094</v>
       </c>
       <c r="D288" t="s">
-        <v>216</v>
+        <v>174</v>
       </c>
       <c r="E288" s="1">
-        <v>43285.617361111108</v>
+        <v>43285.525000000001</v>
       </c>
     </row>
     <row r="289" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B289" t="s">
-        <v>217</v>
+        <v>175</v>
       </c>
       <c r="C289" s="2">
-        <v>7006690356269</v>
+        <v>7002942355831</v>
       </c>
       <c r="D289" t="s">
-        <v>218</v>
+        <v>176</v>
       </c>
       <c r="E289" s="1">
-        <v>43285.634722222225</v>
+        <v>43285.529166666667</v>
       </c>
     </row>
     <row r="290" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B290" t="s">
-        <v>219</v>
+        <v>177</v>
       </c>
       <c r="C290" s="2">
-        <v>7006735356287</v>
+        <v>7002927355804</v>
       </c>
       <c r="D290" t="s">
-        <v>220</v>
+        <v>178</v>
       </c>
       <c r="E290" s="1">
-        <v>43285.638194444444</v>
+        <v>43285.530555555553</v>
       </c>
     </row>
     <row r="291" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B291" t="s">
-        <v>221</v>
+        <v>179</v>
       </c>
       <c r="C291" s="2">
-        <v>7006631356457</v>
+        <v>7003815355805</v>
       </c>
       <c r="D291" t="s">
-        <v>222</v>
+        <v>180</v>
       </c>
       <c r="E291" s="1">
-        <v>43285.645833333336</v>
+        <v>43285.582638888889</v>
       </c>
     </row>
     <row r="292" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B292" t="s">
-        <v>223</v>
+        <v>181</v>
       </c>
       <c r="C292" s="2">
-        <v>7006501356636</v>
+        <v>7003868355815</v>
       </c>
       <c r="D292" t="s">
-        <v>224</v>
+        <v>182</v>
       </c>
       <c r="E292" s="1">
-        <v>43285.649305555555</v>
+        <v>43285.584027777775</v>
       </c>
     </row>
     <row r="293" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B293" t="s">
-        <v>225</v>
+        <v>183</v>
       </c>
       <c r="C293" s="2">
-        <v>7005394357987</v>
+        <v>7004676355956</v>
       </c>
       <c r="D293" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="E293" s="1">
-        <v>43285.668749999997</v>
+        <v>43285.595138888886</v>
       </c>
     </row>
     <row r="294" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B294" t="s">
-        <v>226</v>
+        <v>185</v>
       </c>
       <c r="C294" s="2">
+        <v>7005109356038</v>
+      </c>
+      <c r="D294" t="s">
+        <v>186</v>
+      </c>
+      <c r="E294" s="1">
+        <v>43285.602083333331</v>
+      </c>
+    </row>
+    <row r="295" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B295" t="s">
+        <v>187</v>
+      </c>
+      <c r="C295" s="2">
+        <v>7005919356186</v>
+      </c>
+      <c r="D295" t="s">
+        <v>188</v>
+      </c>
+      <c r="E295" s="1">
+        <v>43285.617361111108</v>
+      </c>
+    </row>
+    <row r="296" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B296" t="s">
+        <v>189</v>
+      </c>
+      <c r="C296" s="2">
+        <v>7006690356269</v>
+      </c>
+      <c r="D296" t="s">
+        <v>190</v>
+      </c>
+      <c r="E296" s="1">
+        <v>43285.634722222225</v>
+      </c>
+    </row>
+    <row r="297" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B297" t="s">
+        <v>191</v>
+      </c>
+      <c r="C297" s="2">
+        <v>7006735356287</v>
+      </c>
+      <c r="D297" t="s">
+        <v>192</v>
+      </c>
+      <c r="E297" s="1">
+        <v>43285.638194444444</v>
+      </c>
+    </row>
+    <row r="298" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B298" t="s">
+        <v>193</v>
+      </c>
+      <c r="C298" s="2">
+        <v>7006631356457</v>
+      </c>
+      <c r="D298" t="s">
+        <v>194</v>
+      </c>
+      <c r="E298" s="1">
+        <v>43285.645833333336</v>
+      </c>
+    </row>
+    <row r="299" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B299" t="s">
+        <v>195</v>
+      </c>
+      <c r="C299" s="2">
+        <v>7006501356636</v>
+      </c>
+      <c r="D299" t="s">
+        <v>196</v>
+      </c>
+      <c r="E299" s="1">
+        <v>43285.649305555555</v>
+      </c>
+    </row>
+    <row r="300" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B300" t="s">
+        <v>197</v>
+      </c>
+      <c r="C300" s="2">
+        <v>7005394357987</v>
+      </c>
+      <c r="D300" t="s">
+        <v>151</v>
+      </c>
+      <c r="E300" s="1">
+        <v>43285.668749999997</v>
+      </c>
+    </row>
+    <row r="301" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B301" t="s">
+        <v>198</v>
+      </c>
+      <c r="C301" s="2">
         <v>7004438359158</v>
       </c>
-      <c r="D294" t="s">
-        <v>227</v>
-      </c>
-      <c r="E294" s="1">
+      <c r="D301" t="s">
+        <v>199</v>
+      </c>
+      <c r="E301" s="1">
         <v>43285.722916666666</v>
       </c>
     </row>
-    <row r="295" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A295" t="s">
-        <v>228</v>
-      </c>
-      <c r="B295" t="s">
-        <v>228</v>
-      </c>
-      <c r="C295" t="s">
-        <v>228</v>
-      </c>
-      <c r="D295" t="s">
-        <v>228</v>
-      </c>
-      <c r="E295" t="s">
-        <v>228</v>
+    <row r="302" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A302" t="s">
+        <v>200</v>
+      </c>
+      <c r="B302" t="s">
+        <v>200</v>
+      </c>
+      <c r="C302" t="s">
+        <v>200</v>
+      </c>
+      <c r="D302" t="s">
+        <v>200</v>
+      </c>
+      <c r="E302" t="s">
+        <v>200</v>
       </c>
     </row>
   </sheetData>

--- a/Rawdata/tor.riptransekter helags sommar 2018.xlsx
+++ b/Rawdata/tor.riptransekter helags sommar 2018.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="2260" yWindow="460" windowWidth="25440" windowHeight="14140" xr2:uid="{6F562989-0C69-724E-8921-452EAD0C9874}"/>
+    <workbookView xWindow="3140" yWindow="1420" windowWidth="25440" windowHeight="14140" xr2:uid="{6F562989-0C69-724E-8921-452EAD0C9874}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1506" uniqueCount="346">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1625" uniqueCount="340">
   <si>
     <t>lya</t>
   </si>
@@ -419,39 +419,18 @@
     <t>996 m</t>
   </si>
   <si>
-    <t>RS1201</t>
-  </si>
-  <si>
     <t>894 m</t>
   </si>
   <si>
-    <t>RS2141</t>
-  </si>
-  <si>
-    <t>RS381</t>
-  </si>
-  <si>
     <t>883 m</t>
   </si>
   <si>
-    <t>RS481</t>
-  </si>
-  <si>
     <t>900 m</t>
   </si>
   <si>
-    <t>RS581</t>
-  </si>
-  <si>
-    <t>FJALLABB6</t>
-  </si>
-  <si>
     <t>884 m</t>
   </si>
   <si>
-    <t>RS681</t>
-  </si>
-  <si>
     <t>886 m</t>
   </si>
   <si>
@@ -461,36 +440,12 @@
     <t>841 m</t>
   </si>
   <si>
-    <t>RS781</t>
-  </si>
-  <si>
     <t>854 m</t>
   </si>
   <si>
-    <t>RS861</t>
-  </si>
-  <si>
-    <t>RS961</t>
-  </si>
-  <si>
-    <t>RS1061</t>
-  </si>
-  <si>
-    <t>RS11111</t>
-  </si>
-  <si>
     <t>895 m</t>
   </si>
   <si>
-    <t>RS1261</t>
-  </si>
-  <si>
-    <t>RS1361</t>
-  </si>
-  <si>
-    <t>RS1451</t>
-  </si>
-  <si>
     <t>RS1271</t>
   </si>
   <si>
@@ -1062,6 +1017,33 @@
   </si>
   <si>
     <t>brun på snö</t>
+  </si>
+  <si>
+    <t>zz075</t>
+  </si>
+  <si>
+    <t>STARTZZ075</t>
+  </si>
+  <si>
+    <t>mulet, vind 2-3 m/s, temp 12°C</t>
+  </si>
+  <si>
+    <t>ljus, oformliga</t>
+  </si>
+  <si>
+    <t>872 m</t>
+  </si>
+  <si>
+    <t>varnade</t>
+  </si>
+  <si>
+    <t>ljus, stora fibrer</t>
+  </si>
+  <si>
+    <t>ljus, i klumpar, oformliga</t>
+  </si>
+  <si>
+    <t>905 m</t>
   </si>
 </sst>
 </file>
@@ -1416,11 +1398,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7481D24-4BBD-9743-96A3-63B52605E732}">
-  <dimension ref="A1:O302"/>
+  <dimension ref="A1:O316"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A239" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A262" sqref="A262"/>
+      <pane ySplit="1" topLeftCell="A285" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A293" sqref="A293:E316"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1455,7 +1437,7 @@
         <v>7</v>
       </c>
       <c r="I1" t="s">
-        <v>288</v>
+        <v>273</v>
       </c>
       <c r="J1" t="s">
         <v>8</v>
@@ -1478,33 +1460,33 @@
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>201</v>
+        <v>186</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>202</v>
+        <v>187</v>
       </c>
       <c r="C2" s="2">
         <v>6976680377753</v>
       </c>
       <c r="D2" t="s">
-        <v>203</v>
+        <v>188</v>
       </c>
       <c r="E2" s="1">
         <v>43271.520833333336</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>205</v>
+        <v>190</v>
       </c>
       <c r="N2" t="s">
-        <v>228</v>
+        <v>213</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>201</v>
+        <v>186</v>
       </c>
       <c r="B3" t="s">
-        <v>206</v>
+        <v>191</v>
       </c>
       <c r="C3" s="2">
         <v>6976296377160</v>
@@ -1516,7 +1498,7 @@
         <v>43271.53125</v>
       </c>
       <c r="F3" t="s">
-        <v>207</v>
+        <v>192</v>
       </c>
       <c r="G3">
         <v>2.42</v>
@@ -1531,18 +1513,18 @@
         <v>2</v>
       </c>
       <c r="M3" t="s">
-        <v>227</v>
+        <v>212</v>
       </c>
       <c r="N3" t="s">
-        <v>228</v>
+        <v>213</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>201</v>
+        <v>186</v>
       </c>
       <c r="B4" t="s">
-        <v>208</v>
+        <v>193</v>
       </c>
       <c r="C4" s="2">
         <v>6976013376681</v>
@@ -1554,7 +1536,7 @@
         <v>43271.539583333331</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>207</v>
+        <v>192</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -1569,18 +1551,18 @@
         <v>17</v>
       </c>
       <c r="M4" t="s">
-        <v>229</v>
+        <v>214</v>
       </c>
       <c r="N4" t="s">
-        <v>228</v>
+        <v>213</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>201</v>
+        <v>186</v>
       </c>
       <c r="B5" t="s">
-        <v>209</v>
+        <v>194</v>
       </c>
       <c r="C5" s="2">
         <v>6975623376165</v>
@@ -1592,7 +1574,7 @@
         <v>43271.549305555556</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>207</v>
+        <v>192</v>
       </c>
       <c r="G5">
         <v>0.89</v>
@@ -1607,18 +1589,18 @@
         <v>3</v>
       </c>
       <c r="M5" t="s">
-        <v>229</v>
+        <v>214</v>
       </c>
       <c r="N5" t="s">
-        <v>228</v>
+        <v>213</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>201</v>
+        <v>186</v>
       </c>
       <c r="B6" t="s">
-        <v>210</v>
+        <v>195</v>
       </c>
       <c r="C6" s="2">
         <v>6975398375851</v>
@@ -1630,7 +1612,7 @@
         <v>43271.554861111108</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>207</v>
+        <v>192</v>
       </c>
       <c r="G6">
         <v>2.5299999999999998</v>
@@ -1645,18 +1627,18 @@
         <v>21</v>
       </c>
       <c r="M6" t="s">
-        <v>230</v>
+        <v>215</v>
       </c>
       <c r="N6" t="s">
-        <v>228</v>
+        <v>213</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>201</v>
+        <v>186</v>
       </c>
       <c r="B7" t="s">
-        <v>211</v>
+        <v>196</v>
       </c>
       <c r="C7" s="2">
         <v>6975378375815</v>
@@ -1668,7 +1650,7 @@
         <v>43271.556944444441</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>207</v>
+        <v>192</v>
       </c>
       <c r="G7">
         <v>0.02</v>
@@ -1683,18 +1665,18 @@
         <v>32</v>
       </c>
       <c r="M7" t="s">
-        <v>231</v>
+        <v>216</v>
       </c>
       <c r="N7" t="s">
-        <v>228</v>
+        <v>213</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>201</v>
+        <v>186</v>
       </c>
       <c r="B8" t="s">
-        <v>212</v>
+        <v>197</v>
       </c>
       <c r="C8" s="2">
         <v>6975015375406</v>
@@ -1706,7 +1688,7 @@
         <v>43271.563888888886</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>207</v>
+        <v>192</v>
       </c>
       <c r="G8">
         <v>0.35</v>
@@ -1718,44 +1700,44 @@
         <v>2</v>
       </c>
       <c r="L8" t="s">
-        <v>232</v>
+        <v>217</v>
       </c>
       <c r="M8" t="s">
-        <v>233</v>
+        <v>218</v>
       </c>
       <c r="N8" t="s">
-        <v>228</v>
+        <v>213</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>201</v>
+        <v>186</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>213</v>
+        <v>198</v>
       </c>
       <c r="C9" s="2">
         <v>6974207374604</v>
       </c>
       <c r="D9" t="s">
-        <v>214</v>
+        <v>199</v>
       </c>
       <c r="E9" s="1">
         <v>43271.579861111109</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>204</v>
+        <v>189</v>
       </c>
       <c r="N9" t="s">
-        <v>228</v>
+        <v>213</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>201</v>
+        <v>186</v>
       </c>
       <c r="B10" t="s">
-        <v>215</v>
+        <v>200</v>
       </c>
       <c r="C10" s="2">
         <v>6977240373959</v>
@@ -1767,18 +1749,18 @@
         <v>43271.618055555555</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>216</v>
+        <v>201</v>
       </c>
       <c r="N10" t="s">
-        <v>228</v>
+        <v>213</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>201</v>
+        <v>186</v>
       </c>
       <c r="B11" t="s">
-        <v>217</v>
+        <v>202</v>
       </c>
       <c r="C11" s="2">
         <v>6977315373891</v>
@@ -1790,7 +1772,7 @@
         <v>43271.619444444441</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>207</v>
+        <v>192</v>
       </c>
       <c r="G11">
         <v>0.43</v>
@@ -1805,18 +1787,18 @@
         <v>1</v>
       </c>
       <c r="M11" t="s">
-        <v>234</v>
+        <v>219</v>
       </c>
       <c r="N11" t="s">
-        <v>228</v>
+        <v>213</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>201</v>
+        <v>186</v>
       </c>
       <c r="B12" t="s">
-        <v>215</v>
+        <v>200</v>
       </c>
       <c r="C12" s="2">
         <v>6977394373829</v>
@@ -1828,18 +1810,18 @@
         <v>43271.62222222222</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>216</v>
+        <v>201</v>
       </c>
       <c r="N12" t="s">
-        <v>228</v>
+        <v>213</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>201</v>
+        <v>186</v>
       </c>
       <c r="B13" t="s">
-        <v>218</v>
+        <v>203</v>
       </c>
       <c r="C13" s="2">
         <v>6977624373925</v>
@@ -1851,7 +1833,7 @@
         <v>43271.625694444447</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>207</v>
+        <v>192</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -1866,18 +1848,18 @@
         <v>2</v>
       </c>
       <c r="M13" t="s">
-        <v>235</v>
+        <v>220</v>
       </c>
       <c r="N13" t="s">
-        <v>228</v>
+        <v>213</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>201</v>
+        <v>186</v>
       </c>
       <c r="B14" t="s">
-        <v>215</v>
+        <v>200</v>
       </c>
       <c r="C14" s="2">
         <v>6977758373979</v>
@@ -1889,18 +1871,18 @@
         <v>43271.628472222219</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>216</v>
+        <v>201</v>
       </c>
       <c r="N14" t="s">
-        <v>228</v>
+        <v>213</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>201</v>
+        <v>186</v>
       </c>
       <c r="B15" t="s">
-        <v>219</v>
+        <v>204</v>
       </c>
       <c r="C15" s="2">
         <v>6977791373973</v>
@@ -1912,7 +1894,7 @@
         <v>43271.629861111112</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>207</v>
+        <v>192</v>
       </c>
       <c r="G15">
         <v>0.39</v>
@@ -1927,18 +1909,18 @@
         <v>27</v>
       </c>
       <c r="M15" t="s">
-        <v>236</v>
+        <v>221</v>
       </c>
       <c r="N15" t="s">
-        <v>228</v>
+        <v>213</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>201</v>
+        <v>186</v>
       </c>
       <c r="B16" t="s">
-        <v>220</v>
+        <v>205</v>
       </c>
       <c r="C16" s="2">
         <v>6977844373969</v>
@@ -1950,7 +1932,7 @@
         <v>43271.631944444445</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>207</v>
+        <v>192</v>
       </c>
       <c r="G16">
         <v>0</v>
@@ -1965,18 +1947,18 @@
         <v>1</v>
       </c>
       <c r="M16" t="s">
-        <v>237</v>
+        <v>222</v>
       </c>
       <c r="N16" t="s">
-        <v>228</v>
+        <v>213</v>
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>201</v>
+        <v>186</v>
       </c>
       <c r="B17" t="s">
-        <v>221</v>
+        <v>206</v>
       </c>
       <c r="C17" s="2">
         <v>6978044373945</v>
@@ -1988,7 +1970,7 @@
         <v>43271.634722222225</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>207</v>
+        <v>192</v>
       </c>
       <c r="G17">
         <v>0.1</v>
@@ -2003,41 +1985,41 @@
         <v>1</v>
       </c>
       <c r="M17" t="s">
-        <v>235</v>
+        <v>220</v>
       </c>
       <c r="N17" t="s">
-        <v>228</v>
+        <v>213</v>
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>201</v>
+        <v>186</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>222</v>
+        <v>207</v>
       </c>
       <c r="C18" s="2">
         <v>6978155373957</v>
       </c>
       <c r="D18" t="s">
-        <v>223</v>
+        <v>208</v>
       </c>
       <c r="E18" s="1">
         <v>43271.637499999997</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>204</v>
+        <v>189</v>
       </c>
       <c r="N18" t="s">
-        <v>228</v>
+        <v>213</v>
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>201</v>
+        <v>186</v>
       </c>
       <c r="B19" t="s">
-        <v>224</v>
+        <v>209</v>
       </c>
       <c r="C19" s="2">
         <v>6977403375505</v>
@@ -2049,7 +2031,7 @@
         <v>43271.656944444447</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>207</v>
+        <v>192</v>
       </c>
       <c r="G19">
         <v>0.59</v>
@@ -2061,21 +2043,21 @@
         <v>2</v>
       </c>
       <c r="L19" t="s">
-        <v>238</v>
+        <v>223</v>
       </c>
       <c r="M19" t="s">
-        <v>239</v>
+        <v>224</v>
       </c>
       <c r="N19" t="s">
-        <v>228</v>
+        <v>213</v>
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>201</v>
+        <v>186</v>
       </c>
       <c r="B20" t="s">
-        <v>225</v>
+        <v>210</v>
       </c>
       <c r="C20" s="2">
         <v>6977221375845</v>
@@ -2087,7 +2069,7 @@
         <v>43271.662499999999</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>207</v>
+        <v>192</v>
       </c>
       <c r="G20">
         <v>0</v>
@@ -2102,18 +2084,18 @@
         <v>28</v>
       </c>
       <c r="M20" t="s">
-        <v>240</v>
+        <v>225</v>
       </c>
       <c r="N20" t="s">
-        <v>228</v>
+        <v>213</v>
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>201</v>
+        <v>186</v>
       </c>
       <c r="B21" t="s">
-        <v>226</v>
+        <v>211</v>
       </c>
       <c r="C21" s="2">
         <v>6976904376798</v>
@@ -2125,7 +2107,7 @@
         <v>43271.713888888888</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>207</v>
+        <v>192</v>
       </c>
       <c r="G21">
         <v>0.62</v>
@@ -2140,41 +2122,41 @@
         <v>2</v>
       </c>
       <c r="M21" t="s">
-        <v>241</v>
+        <v>226</v>
       </c>
       <c r="N21" t="s">
-        <v>228</v>
+        <v>213</v>
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>201</v>
+        <v>186</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>202</v>
+        <v>187</v>
       </c>
       <c r="C22" s="2">
         <v>6976680377753</v>
       </c>
       <c r="D22" t="s">
-        <v>203</v>
+        <v>188</v>
       </c>
       <c r="E22" s="1">
         <v>43271.725694444445</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>290</v>
+        <v>275</v>
       </c>
       <c r="N22" t="s">
-        <v>228</v>
+        <v>213</v>
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>242</v>
+        <v>227</v>
       </c>
       <c r="B24" t="s">
-        <v>243</v>
+        <v>228</v>
       </c>
       <c r="C24" s="2">
         <v>6973557372594</v>
@@ -2186,18 +2168,18 @@
         <v>43272.509722222225</v>
       </c>
       <c r="F24" t="s">
-        <v>205</v>
+        <v>190</v>
       </c>
       <c r="N24" t="s">
-        <v>249</v>
+        <v>234</v>
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>242</v>
+        <v>227</v>
       </c>
       <c r="B25" t="s">
-        <v>206</v>
+        <v>191</v>
       </c>
       <c r="C25" s="2">
         <v>6972945370967</v>
@@ -2209,7 +2191,7 @@
         <v>43272.530555555553</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>207</v>
+        <v>192</v>
       </c>
       <c r="G25">
         <v>0.33</v>
@@ -2224,15 +2206,15 @@
         <v>2</v>
       </c>
       <c r="M25" t="s">
-        <v>241</v>
+        <v>226</v>
       </c>
       <c r="N25" t="s">
-        <v>249</v>
+        <v>234</v>
       </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>242</v>
+        <v>227</v>
       </c>
       <c r="B26" t="s">
         <v>30</v>
@@ -2247,7 +2229,7 @@
         <v>43272.53402777778</v>
       </c>
       <c r="F26" t="s">
-        <v>244</v>
+        <v>229</v>
       </c>
       <c r="G26">
         <v>8.5299999999999994</v>
@@ -2259,15 +2241,15 @@
         <v>1</v>
       </c>
       <c r="N26" t="s">
-        <v>249</v>
+        <v>234</v>
       </c>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>242</v>
+        <v>227</v>
       </c>
       <c r="B27" t="s">
-        <v>208</v>
+        <v>193</v>
       </c>
       <c r="C27" s="2">
         <v>6972775370330</v>
@@ -2279,7 +2261,7 @@
         <v>43272.539583333331</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>207</v>
+        <v>192</v>
       </c>
       <c r="G27">
         <v>0.05</v>
@@ -2294,41 +2276,41 @@
         <v>2</v>
       </c>
       <c r="M27" t="s">
-        <v>250</v>
+        <v>235</v>
       </c>
       <c r="N27" t="s">
-        <v>249</v>
+        <v>234</v>
       </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>242</v>
+        <v>227</v>
       </c>
       <c r="B28" t="s">
-        <v>202</v>
+        <v>187</v>
       </c>
       <c r="C28" s="2">
         <v>6972275368795</v>
       </c>
       <c r="D28" t="s">
-        <v>245</v>
+        <v>230</v>
       </c>
       <c r="E28" s="1">
         <v>43272.561111111114</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>204</v>
+        <v>189</v>
       </c>
       <c r="N28" t="s">
-        <v>249</v>
+        <v>234</v>
       </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>242</v>
+        <v>227</v>
       </c>
       <c r="B29" t="s">
-        <v>209</v>
+        <v>194</v>
       </c>
       <c r="C29" s="2">
         <v>6972145368891</v>
@@ -2340,7 +2322,7 @@
         <v>43272.564583333333</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>207</v>
+        <v>192</v>
       </c>
       <c r="G29">
         <v>0</v>
@@ -2355,18 +2337,18 @@
         <v>25</v>
       </c>
       <c r="M29" t="s">
-        <v>251</v>
+        <v>236</v>
       </c>
       <c r="N29" t="s">
-        <v>249</v>
+        <v>234</v>
       </c>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>242</v>
+        <v>227</v>
       </c>
       <c r="B30" t="s">
-        <v>210</v>
+        <v>195</v>
       </c>
       <c r="C30" s="2">
         <v>6971716369396</v>
@@ -2378,7 +2360,7 @@
         <v>43272.57708333333</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>207</v>
+        <v>192</v>
       </c>
       <c r="G30">
         <v>0.18</v>
@@ -2393,18 +2375,18 @@
         <v>9</v>
       </c>
       <c r="M30" t="s">
-        <v>231</v>
+        <v>216</v>
       </c>
       <c r="N30" t="s">
-        <v>249</v>
+        <v>234</v>
       </c>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>242</v>
+        <v>227</v>
       </c>
       <c r="B31" t="s">
-        <v>210</v>
+        <v>195</v>
       </c>
       <c r="C31" s="2">
         <v>6971716369396</v>
@@ -2416,7 +2398,7 @@
         <v>43272.57708333333</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>207</v>
+        <v>192</v>
       </c>
       <c r="G31">
         <v>0.36</v>
@@ -2431,18 +2413,18 @@
         <v>10</v>
       </c>
       <c r="M31" t="s">
-        <v>231</v>
+        <v>216</v>
       </c>
       <c r="N31" t="s">
-        <v>249</v>
+        <v>234</v>
       </c>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>242</v>
+        <v>227</v>
       </c>
       <c r="B32" t="s">
-        <v>211</v>
+        <v>196</v>
       </c>
       <c r="C32" s="2">
         <v>6971670369452</v>
@@ -2454,7 +2436,7 @@
         <v>43272.579861111109</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>207</v>
+        <v>192</v>
       </c>
       <c r="G32">
         <v>0.12</v>
@@ -2469,18 +2451,18 @@
         <v>28</v>
       </c>
       <c r="M32" t="s">
-        <v>231</v>
+        <v>216</v>
       </c>
       <c r="N32" t="s">
-        <v>249</v>
+        <v>234</v>
       </c>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>242</v>
+        <v>227</v>
       </c>
       <c r="B33" t="s">
-        <v>211</v>
+        <v>196</v>
       </c>
       <c r="C33" s="2">
         <v>6971670369452</v>
@@ -2492,7 +2474,7 @@
         <v>43272.579861111109</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>207</v>
+        <v>192</v>
       </c>
       <c r="G33">
         <v>0.03</v>
@@ -2507,15 +2489,15 @@
         <v>32</v>
       </c>
       <c r="M33" t="s">
-        <v>231</v>
+        <v>216</v>
       </c>
       <c r="N33" t="s">
-        <v>249</v>
+        <v>234</v>
       </c>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>242</v>
+        <v>227</v>
       </c>
       <c r="B34" t="s">
         <v>30</v>
@@ -2530,7 +2512,7 @@
         <v>43272.59097222222</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>244</v>
+        <v>229</v>
       </c>
       <c r="G34">
         <v>12</v>
@@ -2542,15 +2524,15 @@
         <v>1</v>
       </c>
       <c r="N34" t="s">
-        <v>249</v>
+        <v>234</v>
       </c>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>242</v>
+        <v>227</v>
       </c>
       <c r="B35" t="s">
-        <v>215</v>
+        <v>200</v>
       </c>
       <c r="C35" s="2">
         <v>6970950370375</v>
@@ -2562,18 +2544,18 @@
         <v>43272.599305555559</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>216</v>
+        <v>201</v>
       </c>
       <c r="N35" t="s">
-        <v>249</v>
+        <v>234</v>
       </c>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>242</v>
+        <v>227</v>
       </c>
       <c r="B36" t="s">
-        <v>246</v>
+        <v>231</v>
       </c>
       <c r="C36" s="2">
         <v>6971077370439</v>
@@ -2585,7 +2567,7 @@
         <v>43272.602777777778</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>247</v>
+        <v>232</v>
       </c>
       <c r="G36">
         <v>18.600000000000001</v>
@@ -2594,21 +2576,21 @@
         <v>348</v>
       </c>
       <c r="I36" t="s">
-        <v>248</v>
+        <v>233</v>
       </c>
       <c r="L36">
         <v>1</v>
       </c>
       <c r="N36" t="s">
-        <v>249</v>
+        <v>234</v>
       </c>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>242</v>
+        <v>227</v>
       </c>
       <c r="B37" t="s">
-        <v>215</v>
+        <v>200</v>
       </c>
       <c r="C37" s="2">
         <v>6971115370459</v>
@@ -2620,18 +2602,18 @@
         <v>43272.604861111111</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>216</v>
+        <v>201</v>
       </c>
       <c r="N37" t="s">
-        <v>249</v>
+        <v>234</v>
       </c>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>242</v>
+        <v>227</v>
       </c>
       <c r="B38" t="s">
-        <v>212</v>
+        <v>197</v>
       </c>
       <c r="C38" s="2">
         <v>6970732370812</v>
@@ -2643,7 +2625,7 @@
         <v>43272.611111111109</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>207</v>
+        <v>192</v>
       </c>
       <c r="G38">
         <v>7.0000000000000007E-2</v>
@@ -2658,18 +2640,18 @@
         <v>12</v>
       </c>
       <c r="M38" t="s">
-        <v>235</v>
+        <v>220</v>
       </c>
       <c r="N38" t="s">
-        <v>249</v>
+        <v>234</v>
       </c>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>242</v>
+        <v>227</v>
       </c>
       <c r="B39" t="s">
-        <v>217</v>
+        <v>202</v>
       </c>
       <c r="C39" s="2">
         <v>6970232371242</v>
@@ -2681,7 +2663,7 @@
         <v>43272.620138888888</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>207</v>
+        <v>192</v>
       </c>
       <c r="G39">
         <v>0.03</v>
@@ -2696,15 +2678,15 @@
         <v>1</v>
       </c>
       <c r="M39" t="s">
+        <v>219</v>
+      </c>
+      <c r="N39" t="s">
         <v>234</v>
-      </c>
-      <c r="N39" t="s">
-        <v>249</v>
       </c>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>242</v>
+        <v>227</v>
       </c>
       <c r="B40" t="s">
         <v>30</v>
@@ -2719,7 +2701,7 @@
         <v>43272.62222222222</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>244</v>
+        <v>229</v>
       </c>
       <c r="G40">
         <v>89</v>
@@ -2731,15 +2713,15 @@
         <v>2</v>
       </c>
       <c r="N40" t="s">
-        <v>249</v>
+        <v>234</v>
       </c>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>242</v>
+        <v>227</v>
       </c>
       <c r="B41" t="s">
-        <v>213</v>
+        <v>198</v>
       </c>
       <c r="C41" s="2">
         <v>6969791371950</v>
@@ -2751,18 +2733,18 @@
         <v>43272.637499999997</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>204</v>
+        <v>189</v>
       </c>
       <c r="N41" t="s">
-        <v>249</v>
+        <v>234</v>
       </c>
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>242</v>
+        <v>227</v>
       </c>
       <c r="B42" t="s">
-        <v>218</v>
+        <v>203</v>
       </c>
       <c r="C42" s="2">
         <v>6970457371894</v>
@@ -2774,7 +2756,7 @@
         <v>43272.645833333336</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>207</v>
+        <v>192</v>
       </c>
       <c r="G42">
         <v>0</v>
@@ -2789,18 +2771,18 @@
         <v>16</v>
       </c>
       <c r="M42" t="s">
-        <v>252</v>
+        <v>237</v>
       </c>
       <c r="N42" t="s">
-        <v>249</v>
+        <v>234</v>
       </c>
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>242</v>
+        <v>227</v>
       </c>
       <c r="B43" t="s">
-        <v>219</v>
+        <v>204</v>
       </c>
       <c r="C43" s="2">
         <v>6970401372178</v>
@@ -2812,7 +2794,7 @@
         <v>43272.647916666669</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>207</v>
+        <v>192</v>
       </c>
       <c r="G43">
         <v>0.48</v>
@@ -2827,18 +2809,18 @@
         <v>3</v>
       </c>
       <c r="M43" t="s">
-        <v>235</v>
+        <v>220</v>
       </c>
       <c r="N43" t="s">
-        <v>249</v>
+        <v>234</v>
       </c>
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>242</v>
+        <v>227</v>
       </c>
       <c r="B44" t="s">
-        <v>219</v>
+        <v>204</v>
       </c>
       <c r="C44" s="2">
         <v>6970401372178</v>
@@ -2850,7 +2832,7 @@
         <v>43272.647916666669</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>207</v>
+        <v>192</v>
       </c>
       <c r="G44">
         <v>1.0900000000000001</v>
@@ -2862,18 +2844,18 @@
         <v>1</v>
       </c>
       <c r="M44" t="s">
-        <v>235</v>
+        <v>220</v>
       </c>
       <c r="N44" t="s">
-        <v>249</v>
+        <v>234</v>
       </c>
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>242</v>
+        <v>227</v>
       </c>
       <c r="B45" t="s">
-        <v>220</v>
+        <v>205</v>
       </c>
       <c r="C45" s="2">
         <v>6972049372362</v>
@@ -2885,7 +2867,7 @@
         <v>43272.762499999997</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>207</v>
+        <v>192</v>
       </c>
       <c r="G45">
         <v>0.39</v>
@@ -2900,18 +2882,18 @@
         <v>16</v>
       </c>
       <c r="M45" t="s">
-        <v>253</v>
+        <v>238</v>
       </c>
       <c r="N45" t="s">
-        <v>249</v>
+        <v>234</v>
       </c>
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>242</v>
+        <v>227</v>
       </c>
       <c r="B46" t="s">
-        <v>221</v>
+        <v>206</v>
       </c>
       <c r="C46" s="2">
         <v>6972064372366</v>
@@ -2923,7 +2905,7 @@
         <v>43272.763888888891</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>207</v>
+        <v>192</v>
       </c>
       <c r="G46">
         <v>0.08</v>
@@ -2938,18 +2920,18 @@
         <v>17</v>
       </c>
       <c r="M46" t="s">
-        <v>253</v>
+        <v>238</v>
       </c>
       <c r="N46" t="s">
-        <v>249</v>
+        <v>234</v>
       </c>
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>242</v>
+        <v>227</v>
       </c>
       <c r="B47" t="s">
-        <v>221</v>
+        <v>206</v>
       </c>
       <c r="C47" s="2">
         <v>6972064372366</v>
@@ -2961,7 +2943,7 @@
         <v>43272.763888888891</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>207</v>
+        <v>192</v>
       </c>
       <c r="G47">
         <v>0.34</v>
@@ -2976,18 +2958,18 @@
         <v>14</v>
       </c>
       <c r="M47" t="s">
-        <v>253</v>
+        <v>238</v>
       </c>
       <c r="N47" t="s">
-        <v>249</v>
+        <v>234</v>
       </c>
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>242</v>
+        <v>227</v>
       </c>
       <c r="B48" t="s">
-        <v>224</v>
+        <v>209</v>
       </c>
       <c r="C48" s="2">
         <v>6972536372393</v>
@@ -2999,7 +2981,7 @@
         <v>43272.770138888889</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>207</v>
+        <v>192</v>
       </c>
       <c r="G48">
         <v>0</v>
@@ -3014,18 +2996,18 @@
         <v>5</v>
       </c>
       <c r="M48" t="s">
-        <v>253</v>
+        <v>238</v>
       </c>
       <c r="N48" t="s">
-        <v>249</v>
+        <v>234</v>
       </c>
     </row>
     <row r="49" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>242</v>
+        <v>227</v>
       </c>
       <c r="B49" t="s">
-        <v>225</v>
+        <v>210</v>
       </c>
       <c r="C49" s="2">
         <v>6972698372400</v>
@@ -3037,7 +3019,7 @@
         <v>43272.772916666669</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>207</v>
+        <v>192</v>
       </c>
       <c r="G49">
         <v>0.16</v>
@@ -3052,18 +3034,18 @@
         <v>22</v>
       </c>
       <c r="M49" t="s">
-        <v>253</v>
+        <v>238</v>
       </c>
       <c r="N49" t="s">
-        <v>249</v>
+        <v>234</v>
       </c>
     </row>
     <row r="50" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>242</v>
+        <v>227</v>
       </c>
       <c r="B50" t="s">
-        <v>225</v>
+        <v>210</v>
       </c>
       <c r="C50" s="2">
         <v>6972698372400</v>
@@ -3075,7 +3057,7 @@
         <v>43272.772916666669</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>207</v>
+        <v>192</v>
       </c>
       <c r="G50">
         <v>0.31</v>
@@ -3090,18 +3072,18 @@
         <v>18</v>
       </c>
       <c r="M50" t="s">
-        <v>253</v>
+        <v>238</v>
       </c>
       <c r="N50" t="s">
-        <v>249</v>
+        <v>234</v>
       </c>
     </row>
     <row r="51" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>242</v>
+        <v>227</v>
       </c>
       <c r="B51" t="s">
-        <v>243</v>
+        <v>228</v>
       </c>
       <c r="C51" s="2">
         <v>6973557372594</v>
@@ -3113,18 +3095,18 @@
         <v>43272.78402777778</v>
       </c>
       <c r="F51" t="s">
-        <v>290</v>
+        <v>275</v>
       </c>
       <c r="N51" t="s">
-        <v>249</v>
+        <v>234</v>
       </c>
     </row>
     <row r="53" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>254</v>
+        <v>239</v>
       </c>
       <c r="B53" t="s">
-        <v>255</v>
+        <v>240</v>
       </c>
       <c r="C53" s="2">
         <v>6979244373084</v>
@@ -3136,18 +3118,18 @@
         <v>43275.466666666667</v>
       </c>
       <c r="F53" t="s">
-        <v>205</v>
+        <v>190</v>
       </c>
       <c r="N53" t="s">
-        <v>257</v>
+        <v>242</v>
       </c>
     </row>
     <row r="54" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>254</v>
+        <v>239</v>
       </c>
       <c r="B54" t="s">
-        <v>206</v>
+        <v>191</v>
       </c>
       <c r="C54" s="2">
         <v>6979259374093</v>
@@ -3159,7 +3141,7 @@
         <v>43275.482638888891</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>207</v>
+        <v>192</v>
       </c>
       <c r="G54">
         <v>0.47</v>
@@ -3174,18 +3156,18 @@
         <v>38</v>
       </c>
       <c r="M54" t="s">
-        <v>256</v>
+        <v>241</v>
       </c>
       <c r="N54" t="s">
-        <v>257</v>
+        <v>242</v>
       </c>
     </row>
     <row r="55" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>254</v>
+        <v>239</v>
       </c>
       <c r="B55" t="s">
-        <v>208</v>
+        <v>193</v>
       </c>
       <c r="C55" s="2">
         <v>6979294374207</v>
@@ -3197,7 +3179,7 @@
         <v>43275.486111111109</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>207</v>
+        <v>192</v>
       </c>
       <c r="G55">
         <v>0.09</v>
@@ -3212,18 +3194,18 @@
         <v>2</v>
       </c>
       <c r="M55" t="s">
-        <v>256</v>
+        <v>241</v>
       </c>
       <c r="N55" t="s">
-        <v>257</v>
+        <v>242</v>
       </c>
     </row>
     <row r="56" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>254</v>
+        <v>239</v>
       </c>
       <c r="B56" t="s">
-        <v>209</v>
+        <v>194</v>
       </c>
       <c r="C56" s="2">
         <v>6979349374543</v>
@@ -3235,7 +3217,7 @@
         <v>43275.490972222222</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>207</v>
+        <v>192</v>
       </c>
       <c r="G56">
         <v>1.1200000000000001</v>
@@ -3250,18 +3232,18 @@
         <v>10</v>
       </c>
       <c r="M56" t="s">
-        <v>235</v>
+        <v>220</v>
       </c>
       <c r="N56" t="s">
-        <v>257</v>
+        <v>242</v>
       </c>
     </row>
     <row r="57" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>254</v>
+        <v>239</v>
       </c>
       <c r="B57" t="s">
-        <v>210</v>
+        <v>195</v>
       </c>
       <c r="C57" s="2">
         <v>6979393375428</v>
@@ -3273,7 +3255,7 @@
         <v>43275.503472222219</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>207</v>
+        <v>192</v>
       </c>
       <c r="G57">
         <v>1.22</v>
@@ -3288,18 +3270,18 @@
         <v>5</v>
       </c>
       <c r="M57" t="s">
-        <v>235</v>
+        <v>220</v>
       </c>
       <c r="N57" t="s">
-        <v>257</v>
+        <v>242</v>
       </c>
     </row>
     <row r="58" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>254</v>
+        <v>239</v>
       </c>
       <c r="B58" t="s">
-        <v>210</v>
+        <v>195</v>
       </c>
       <c r="C58" s="2">
         <v>6979393375428</v>
@@ -3311,7 +3293,7 @@
         <v>43275.503472222219</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>207</v>
+        <v>192</v>
       </c>
       <c r="G58">
         <v>1.27</v>
@@ -3326,18 +3308,18 @@
         <v>10</v>
       </c>
       <c r="M58" t="s">
-        <v>235</v>
+        <v>220</v>
       </c>
       <c r="N58" t="s">
-        <v>257</v>
+        <v>242</v>
       </c>
     </row>
     <row r="59" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>254</v>
+        <v>239</v>
       </c>
       <c r="B59" t="s">
-        <v>211</v>
+        <v>196</v>
       </c>
       <c r="C59" s="2">
         <v>6979402375452</v>
@@ -3349,7 +3331,7 @@
         <v>43275.505555555559</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>207</v>
+        <v>192</v>
       </c>
       <c r="G59">
         <v>0.11</v>
@@ -3364,18 +3346,18 @@
         <v>3</v>
       </c>
       <c r="M59" t="s">
-        <v>258</v>
+        <v>243</v>
       </c>
       <c r="N59" t="s">
-        <v>257</v>
+        <v>242</v>
       </c>
     </row>
     <row r="60" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>254</v>
+        <v>239</v>
       </c>
       <c r="B60" t="s">
-        <v>212</v>
+        <v>197</v>
       </c>
       <c r="C60" s="2">
         <v>6979403375458</v>
@@ -3387,7 +3369,7 @@
         <v>43275.506249999999</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>207</v>
+        <v>192</v>
       </c>
       <c r="G60">
         <v>0.16</v>
@@ -3402,18 +3384,18 @@
         <v>4</v>
       </c>
       <c r="M60" t="s">
-        <v>256</v>
+        <v>241</v>
       </c>
       <c r="N60" t="s">
-        <v>257</v>
+        <v>242</v>
       </c>
     </row>
     <row r="61" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>254</v>
+        <v>239</v>
       </c>
       <c r="B61" t="s">
-        <v>217</v>
+        <v>202</v>
       </c>
       <c r="C61" s="2">
         <v>6979447375644</v>
@@ -3425,7 +3407,7 @@
         <v>43275.509027777778</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>207</v>
+        <v>192</v>
       </c>
       <c r="G61">
         <v>7.0000000000000007E-2</v>
@@ -3440,18 +3422,18 @@
         <v>2</v>
       </c>
       <c r="M61" t="s">
-        <v>256</v>
+        <v>241</v>
       </c>
       <c r="N61" t="s">
-        <v>257</v>
+        <v>242</v>
       </c>
     </row>
     <row r="62" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>254</v>
+        <v>239</v>
       </c>
       <c r="B62" t="s">
-        <v>218</v>
+        <v>203</v>
       </c>
       <c r="C62" s="2">
         <v>6979449375655</v>
@@ -3463,7 +3445,7 @@
         <v>43275.510416666664</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>207</v>
+        <v>192</v>
       </c>
       <c r="G62">
         <v>0.34</v>
@@ -3478,18 +3460,18 @@
         <v>6</v>
       </c>
       <c r="M62" t="s">
-        <v>235</v>
+        <v>220</v>
       </c>
       <c r="N62" t="s">
-        <v>257</v>
+        <v>242</v>
       </c>
     </row>
     <row r="63" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>254</v>
+        <v>239</v>
       </c>
       <c r="B63" t="s">
-        <v>218</v>
+        <v>203</v>
       </c>
       <c r="C63" s="2">
         <v>6979449375655</v>
@@ -3501,7 +3483,7 @@
         <v>43275.510416666664</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>207</v>
+        <v>192</v>
       </c>
       <c r="G63">
         <v>0.49</v>
@@ -3516,18 +3498,18 @@
         <v>10</v>
       </c>
       <c r="M63" t="s">
-        <v>235</v>
+        <v>220</v>
       </c>
       <c r="N63" t="s">
-        <v>257</v>
+        <v>242</v>
       </c>
     </row>
     <row r="64" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>254</v>
+        <v>239</v>
       </c>
       <c r="B64" t="s">
-        <v>219</v>
+        <v>204</v>
       </c>
       <c r="C64" s="2">
         <v>6979453375702</v>
@@ -3539,7 +3521,7 @@
         <v>43275.511805555558</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>207</v>
+        <v>192</v>
       </c>
       <c r="G64">
         <v>0.96</v>
@@ -3554,18 +3536,18 @@
         <v>16</v>
       </c>
       <c r="M64" t="s">
-        <v>235</v>
+        <v>220</v>
       </c>
       <c r="N64" t="s">
-        <v>257</v>
+        <v>242</v>
       </c>
     </row>
     <row r="65" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>254</v>
+        <v>239</v>
       </c>
       <c r="B65" t="s">
-        <v>219</v>
+        <v>204</v>
       </c>
       <c r="C65" s="2">
         <v>6979453375702</v>
@@ -3577,7 +3559,7 @@
         <v>43275.511805555558</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>207</v>
+        <v>192</v>
       </c>
       <c r="G65">
         <v>1.76</v>
@@ -3592,18 +3574,18 @@
         <v>1</v>
       </c>
       <c r="M65" t="s">
-        <v>235</v>
+        <v>220</v>
       </c>
       <c r="N65" t="s">
-        <v>257</v>
+        <v>242</v>
       </c>
     </row>
     <row r="66" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>254</v>
+        <v>239</v>
       </c>
       <c r="B66" t="s">
-        <v>220</v>
+        <v>205</v>
       </c>
       <c r="C66" s="2">
         <v>6979461376376</v>
@@ -3615,7 +3597,7 @@
         <v>43275.520138888889</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>207</v>
+        <v>192</v>
       </c>
       <c r="G66">
         <v>0.28999999999999998</v>
@@ -3630,18 +3612,18 @@
         <v>13</v>
       </c>
       <c r="M66" t="s">
-        <v>258</v>
+        <v>243</v>
       </c>
       <c r="N66" t="s">
-        <v>257</v>
+        <v>242</v>
       </c>
     </row>
     <row r="67" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>254</v>
+        <v>239</v>
       </c>
       <c r="B67" t="s">
-        <v>259</v>
+        <v>244</v>
       </c>
       <c r="C67" s="2">
         <v>6979540377111</v>
@@ -3653,18 +3635,18 @@
         <v>43275.53125</v>
       </c>
       <c r="F67" t="s">
-        <v>204</v>
+        <v>189</v>
       </c>
       <c r="N67" t="s">
-        <v>257</v>
+        <v>242</v>
       </c>
     </row>
     <row r="68" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>254</v>
+        <v>239</v>
       </c>
       <c r="B68" t="s">
-        <v>221</v>
+        <v>206</v>
       </c>
       <c r="C68" s="2">
         <v>6979810376940</v>
@@ -3676,7 +3658,7 @@
         <v>43275.574305555558</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>207</v>
+        <v>192</v>
       </c>
       <c r="G68">
         <v>0.27</v>
@@ -3691,18 +3673,18 @@
         <v>22</v>
       </c>
       <c r="M68" t="s">
-        <v>258</v>
+        <v>243</v>
       </c>
       <c r="N68" t="s">
-        <v>257</v>
+        <v>242</v>
       </c>
     </row>
     <row r="69" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>254</v>
+        <v>239</v>
       </c>
       <c r="B69" t="s">
-        <v>224</v>
+        <v>209</v>
       </c>
       <c r="C69" s="2">
         <v>6979827376931</v>
@@ -3714,7 +3696,7 @@
         <v>43275.577777777777</v>
       </c>
       <c r="F69" s="1" t="s">
-        <v>207</v>
+        <v>192</v>
       </c>
       <c r="G69">
         <v>0.03</v>
@@ -3729,18 +3711,18 @@
         <v>10</v>
       </c>
       <c r="M69" t="s">
-        <v>256</v>
+        <v>241</v>
       </c>
       <c r="N69" t="s">
-        <v>257</v>
+        <v>242</v>
       </c>
     </row>
     <row r="70" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>254</v>
+        <v>239</v>
       </c>
       <c r="B70" t="s">
-        <v>215</v>
+        <v>200</v>
       </c>
       <c r="C70" s="2">
         <v>6980190376690</v>
@@ -3752,18 +3734,18 @@
         <v>43275.584722222222</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>216</v>
+        <v>201</v>
       </c>
       <c r="N70" t="s">
-        <v>257</v>
+        <v>242</v>
       </c>
     </row>
     <row r="71" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>254</v>
+        <v>239</v>
       </c>
       <c r="B71" t="s">
-        <v>215</v>
+        <v>200</v>
       </c>
       <c r="C71" s="2">
         <v>6980386376751</v>
@@ -3775,18 +3757,18 @@
         <v>43275.587500000001</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>216</v>
+        <v>201</v>
       </c>
       <c r="N71" t="s">
-        <v>257</v>
+        <v>242</v>
       </c>
     </row>
     <row r="72" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>254</v>
+        <v>239</v>
       </c>
       <c r="B72" t="s">
-        <v>225</v>
+        <v>210</v>
       </c>
       <c r="C72" s="2">
         <v>6980495376677</v>
@@ -3798,7 +3780,7 @@
         <v>43275.591666666667</v>
       </c>
       <c r="F72" s="1" t="s">
-        <v>207</v>
+        <v>192</v>
       </c>
       <c r="G72">
         <v>0.06</v>
@@ -3813,18 +3795,18 @@
         <v>26</v>
       </c>
       <c r="M72" t="s">
-        <v>235</v>
+        <v>220</v>
       </c>
       <c r="N72" t="s">
-        <v>257</v>
+        <v>242</v>
       </c>
     </row>
     <row r="73" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>254</v>
+        <v>239</v>
       </c>
       <c r="B73" t="s">
-        <v>226</v>
+        <v>211</v>
       </c>
       <c r="C73" s="2">
         <v>6981379376002</v>
@@ -3836,7 +3818,7 @@
         <v>43275.605555555558</v>
       </c>
       <c r="F73" s="1" t="s">
-        <v>207</v>
+        <v>192</v>
       </c>
       <c r="G73">
         <v>0.04</v>
@@ -3851,18 +3833,18 @@
         <v>11</v>
       </c>
       <c r="M73" t="s">
-        <v>260</v>
+        <v>245</v>
       </c>
       <c r="N73" t="s">
-        <v>257</v>
+        <v>242</v>
       </c>
     </row>
     <row r="74" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>254</v>
+        <v>239</v>
       </c>
       <c r="B74" t="s">
-        <v>261</v>
+        <v>246</v>
       </c>
       <c r="C74" s="2">
         <v>6981405375984</v>
@@ -3874,7 +3856,7 @@
         <v>43275.609722222223</v>
       </c>
       <c r="F74" s="1" t="s">
-        <v>207</v>
+        <v>192</v>
       </c>
       <c r="G74">
         <v>0</v>
@@ -3886,21 +3868,21 @@
         <v>2</v>
       </c>
       <c r="L74" t="s">
-        <v>262</v>
+        <v>247</v>
       </c>
       <c r="M74" t="s">
-        <v>263</v>
+        <v>248</v>
       </c>
       <c r="N74" t="s">
-        <v>257</v>
+        <v>242</v>
       </c>
     </row>
     <row r="75" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>254</v>
+        <v>239</v>
       </c>
       <c r="B75" t="s">
-        <v>264</v>
+        <v>249</v>
       </c>
       <c r="C75" s="2">
         <v>6981405375983</v>
@@ -3912,7 +3894,7 @@
         <v>43275.61041666667</v>
       </c>
       <c r="F75" s="1" t="s">
-        <v>207</v>
+        <v>192</v>
       </c>
       <c r="G75">
         <v>0.13</v>
@@ -3927,18 +3909,18 @@
         <v>19</v>
       </c>
       <c r="M75" t="s">
-        <v>258</v>
+        <v>243</v>
       </c>
       <c r="N75" t="s">
-        <v>257</v>
+        <v>242</v>
       </c>
     </row>
     <row r="76" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>254</v>
+        <v>239</v>
       </c>
       <c r="B76" t="s">
-        <v>264</v>
+        <v>249</v>
       </c>
       <c r="C76" s="2">
         <v>6981405375983</v>
@@ -3950,7 +3932,7 @@
         <v>43275.61041666667</v>
       </c>
       <c r="F76" s="1" t="s">
-        <v>207</v>
+        <v>192</v>
       </c>
       <c r="G76">
         <v>0.98</v>
@@ -3965,18 +3947,18 @@
         <v>20</v>
       </c>
       <c r="M76" t="s">
-        <v>258</v>
+        <v>243</v>
       </c>
       <c r="N76" t="s">
-        <v>257</v>
+        <v>242</v>
       </c>
     </row>
     <row r="77" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>254</v>
+        <v>239</v>
       </c>
       <c r="B77" t="s">
-        <v>246</v>
+        <v>231</v>
       </c>
       <c r="C77" s="2">
         <v>6982053375446</v>
@@ -3988,7 +3970,7 @@
         <v>43275.62777777778</v>
       </c>
       <c r="F77" s="1" t="s">
-        <v>247</v>
+        <v>232</v>
       </c>
       <c r="G77">
         <v>16.2</v>
@@ -3997,21 +3979,21 @@
         <v>352</v>
       </c>
       <c r="I77" t="s">
-        <v>248</v>
+        <v>233</v>
       </c>
       <c r="L77">
         <v>1</v>
       </c>
       <c r="N77" t="s">
-        <v>257</v>
+        <v>242</v>
       </c>
     </row>
     <row r="78" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>254</v>
+        <v>239</v>
       </c>
       <c r="B78" t="s">
-        <v>265</v>
+        <v>250</v>
       </c>
       <c r="C78" s="2">
         <v>6982141375389</v>
@@ -4023,7 +4005,7 @@
         <v>43275.633333333331</v>
       </c>
       <c r="F78" s="1" t="s">
-        <v>207</v>
+        <v>192</v>
       </c>
       <c r="G78">
         <v>0.14000000000000001</v>
@@ -4038,18 +4020,18 @@
         <v>3</v>
       </c>
       <c r="M78" t="s">
-        <v>256</v>
+        <v>241</v>
       </c>
       <c r="N78" t="s">
-        <v>257</v>
+        <v>242</v>
       </c>
     </row>
     <row r="79" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>254</v>
+        <v>239</v>
       </c>
       <c r="B79" t="s">
-        <v>266</v>
+        <v>251</v>
       </c>
       <c r="C79" s="2">
         <v>6982655375095</v>
@@ -4061,7 +4043,7 @@
         <v>43275.652083333334</v>
       </c>
       <c r="F79" s="1" t="s">
-        <v>247</v>
+        <v>232</v>
       </c>
       <c r="G79">
         <v>11.9</v>
@@ -4070,21 +4052,21 @@
         <v>316</v>
       </c>
       <c r="I79" t="s">
-        <v>248</v>
+        <v>233</v>
       </c>
       <c r="L79">
         <v>1</v>
       </c>
       <c r="N79" t="s">
-        <v>257</v>
+        <v>242</v>
       </c>
     </row>
     <row r="80" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>254</v>
+        <v>239</v>
       </c>
       <c r="B80" t="s">
-        <v>267</v>
+        <v>252</v>
       </c>
       <c r="C80" s="2">
         <v>6982782375018</v>
@@ -4096,7 +4078,7 @@
         <v>43275.654861111114</v>
       </c>
       <c r="F80" s="1" t="s">
-        <v>207</v>
+        <v>192</v>
       </c>
       <c r="G80">
         <v>1.41</v>
@@ -4111,18 +4093,18 @@
         <v>42</v>
       </c>
       <c r="M80" t="s">
-        <v>256</v>
+        <v>241</v>
       </c>
       <c r="N80" t="s">
-        <v>257</v>
+        <v>242</v>
       </c>
     </row>
     <row r="81" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>254</v>
+        <v>239</v>
       </c>
       <c r="B81" t="s">
-        <v>268</v>
+        <v>253</v>
       </c>
       <c r="C81" s="2">
         <v>6982934374992</v>
@@ -4134,7 +4116,7 @@
         <v>43275.660416666666</v>
       </c>
       <c r="F81" s="1" t="s">
-        <v>247</v>
+        <v>232</v>
       </c>
       <c r="G81">
         <v>36.200000000000003</v>
@@ -4143,21 +4125,21 @@
         <v>282</v>
       </c>
       <c r="I81" t="s">
-        <v>248</v>
+        <v>233</v>
       </c>
       <c r="L81">
         <v>2</v>
       </c>
       <c r="N81" t="s">
-        <v>257</v>
+        <v>242</v>
       </c>
     </row>
     <row r="82" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>254</v>
+        <v>239</v>
       </c>
       <c r="B82" t="s">
-        <v>268</v>
+        <v>253</v>
       </c>
       <c r="C82" s="2">
         <v>6982934374992</v>
@@ -4169,7 +4151,7 @@
         <v>43275.660416666666</v>
       </c>
       <c r="F82" s="1" t="s">
-        <v>207</v>
+        <v>192</v>
       </c>
       <c r="G82">
         <v>1.78</v>
@@ -4184,53 +4166,53 @@
         <v>5</v>
       </c>
       <c r="M82" t="s">
-        <v>269</v>
+        <v>254</v>
       </c>
       <c r="N82" t="s">
-        <v>257</v>
+        <v>242</v>
       </c>
     </row>
     <row r="83" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>254</v>
+        <v>239</v>
       </c>
       <c r="B83" t="s">
-        <v>270</v>
+        <v>255</v>
       </c>
       <c r="C83" s="2">
         <v>6983066374961</v>
       </c>
       <c r="D83" t="s">
-        <v>271</v>
+        <v>256</v>
       </c>
       <c r="E83" s="1">
         <v>43275.665972222225</v>
       </c>
       <c r="F83" t="s">
-        <v>204</v>
+        <v>189</v>
       </c>
       <c r="N83" t="s">
-        <v>257</v>
+        <v>242</v>
       </c>
     </row>
     <row r="84" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>254</v>
+        <v>239</v>
       </c>
       <c r="B84" t="s">
-        <v>270</v>
+        <v>255</v>
       </c>
       <c r="C84" s="2">
         <v>6983066374961</v>
       </c>
       <c r="D84" t="s">
-        <v>271</v>
+        <v>256</v>
       </c>
       <c r="E84" s="1">
         <v>43275.665972222225</v>
       </c>
       <c r="F84" t="s">
-        <v>207</v>
+        <v>192</v>
       </c>
       <c r="G84">
         <v>0.22</v>
@@ -4245,18 +4227,18 @@
         <v>2</v>
       </c>
       <c r="M84" t="s">
-        <v>272</v>
+        <v>257</v>
       </c>
       <c r="N84" t="s">
-        <v>257</v>
+        <v>242</v>
       </c>
     </row>
     <row r="85" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>254</v>
+        <v>239</v>
       </c>
       <c r="B85" t="s">
-        <v>273</v>
+        <v>258</v>
       </c>
       <c r="C85" s="2">
         <v>6982882374576</v>
@@ -4268,7 +4250,7 @@
         <v>43275.67291666667</v>
       </c>
       <c r="F85" s="1" t="s">
-        <v>207</v>
+        <v>192</v>
       </c>
       <c r="G85">
         <v>0.27</v>
@@ -4283,18 +4265,18 @@
         <v>17</v>
       </c>
       <c r="M85" t="s">
-        <v>272</v>
+        <v>257</v>
       </c>
       <c r="N85" t="s">
-        <v>257</v>
+        <v>242</v>
       </c>
     </row>
     <row r="86" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>254</v>
+        <v>239</v>
       </c>
       <c r="B86" t="s">
-        <v>215</v>
+        <v>200</v>
       </c>
       <c r="C86" s="2">
         <v>6982854374500</v>
@@ -4306,18 +4288,18 @@
         <v>43275.675694444442</v>
       </c>
       <c r="F86" s="1" t="s">
-        <v>216</v>
+        <v>201</v>
       </c>
       <c r="N86" t="s">
-        <v>257</v>
+        <v>242</v>
       </c>
     </row>
     <row r="87" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>254</v>
+        <v>239</v>
       </c>
       <c r="B87" t="s">
-        <v>274</v>
+        <v>259</v>
       </c>
       <c r="C87" s="2">
         <v>6981881373834</v>
@@ -4329,7 +4311,7 @@
         <v>43275.695833333331</v>
       </c>
       <c r="F87" s="1" t="s">
-        <v>207</v>
+        <v>192</v>
       </c>
       <c r="G87">
         <v>0.04</v>
@@ -4344,18 +4326,18 @@
         <v>1</v>
       </c>
       <c r="M87" t="s">
-        <v>256</v>
+        <v>241</v>
       </c>
       <c r="N87" t="s">
-        <v>257</v>
+        <v>242</v>
       </c>
     </row>
     <row r="88" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>254</v>
+        <v>239</v>
       </c>
       <c r="B88" t="s">
-        <v>274</v>
+        <v>259</v>
       </c>
       <c r="C88" s="2">
         <v>6981881373834</v>
@@ -4367,7 +4349,7 @@
         <v>43275.695833333331</v>
       </c>
       <c r="F88" s="1" t="s">
-        <v>207</v>
+        <v>192</v>
       </c>
       <c r="G88">
         <v>0.84</v>
@@ -4382,18 +4364,18 @@
         <v>32</v>
       </c>
       <c r="M88" t="s">
-        <v>253</v>
+        <v>238</v>
       </c>
       <c r="N88" t="s">
-        <v>257</v>
+        <v>242</v>
       </c>
     </row>
     <row r="89" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>254</v>
+        <v>239</v>
       </c>
       <c r="B89" t="s">
-        <v>215</v>
+        <v>200</v>
       </c>
       <c r="C89" s="2">
         <v>6981316373475</v>
@@ -4405,18 +4387,18 @@
         <v>43275.705555555556</v>
       </c>
       <c r="F89" s="1" t="s">
-        <v>216</v>
+        <v>201</v>
       </c>
       <c r="N89" t="s">
-        <v>257</v>
+        <v>242</v>
       </c>
     </row>
     <row r="90" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>254</v>
+        <v>239</v>
       </c>
       <c r="B90" t="s">
-        <v>275</v>
+        <v>260</v>
       </c>
       <c r="C90" s="2">
         <v>6980670373232</v>
@@ -4428,7 +4410,7 @@
         <v>43275.720138888886</v>
       </c>
       <c r="F90" s="1" t="s">
-        <v>207</v>
+        <v>192</v>
       </c>
       <c r="G90">
         <v>0</v>
@@ -4443,18 +4425,18 @@
         <v>1</v>
       </c>
       <c r="M90" t="s">
-        <v>256</v>
+        <v>241</v>
       </c>
       <c r="N90" t="s">
-        <v>257</v>
+        <v>242</v>
       </c>
     </row>
     <row r="91" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>254</v>
+        <v>239</v>
       </c>
       <c r="B91" t="s">
-        <v>255</v>
+        <v>240</v>
       </c>
       <c r="C91" s="2">
         <v>6979244373084</v>
@@ -4466,15 +4448,15 @@
         <v>43275.743055555555</v>
       </c>
       <c r="F91" t="s">
-        <v>290</v>
+        <v>275</v>
       </c>
       <c r="N91" t="s">
-        <v>257</v>
+        <v>242</v>
       </c>
     </row>
     <row r="93" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>276</v>
+        <v>261</v>
       </c>
       <c r="B93" t="s">
         <v>64</v>
@@ -4489,24 +4471,24 @@
         <v>43276.445138888892</v>
       </c>
       <c r="F93" s="1" t="s">
-        <v>278</v>
+        <v>263</v>
       </c>
       <c r="L93">
         <v>1</v>
       </c>
       <c r="M93" t="s">
-        <v>279</v>
+        <v>264</v>
       </c>
       <c r="N93" t="s">
-        <v>280</v>
+        <v>265</v>
       </c>
     </row>
     <row r="94" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>276</v>
+        <v>261</v>
       </c>
       <c r="B94" s="3" t="s">
-        <v>277</v>
+        <v>262</v>
       </c>
       <c r="C94" s="2">
         <v>6987664372345</v>
@@ -4518,15 +4500,15 @@
         <v>43276.534722222219</v>
       </c>
       <c r="F94" t="s">
-        <v>205</v>
+        <v>190</v>
       </c>
       <c r="N94" t="s">
-        <v>280</v>
+        <v>265</v>
       </c>
     </row>
     <row r="95" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>276</v>
+        <v>261</v>
       </c>
       <c r="B95" t="s">
         <v>30</v>
@@ -4541,7 +4523,7 @@
         <v>43276.551388888889</v>
       </c>
       <c r="F95" s="1" t="s">
-        <v>244</v>
+        <v>229</v>
       </c>
       <c r="G95">
         <v>22</v>
@@ -4550,21 +4532,21 @@
         <v>318</v>
       </c>
       <c r="I95" t="s">
-        <v>281</v>
+        <v>266</v>
       </c>
       <c r="L95">
         <v>1</v>
       </c>
       <c r="N95" t="s">
-        <v>280</v>
+        <v>265</v>
       </c>
     </row>
     <row r="96" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>276</v>
+        <v>261</v>
       </c>
       <c r="B96" t="s">
-        <v>206</v>
+        <v>191</v>
       </c>
       <c r="C96" s="2">
         <v>6989072374165</v>
@@ -4576,7 +4558,7 @@
         <v>43276.624305555553</v>
       </c>
       <c r="F96" s="1" t="s">
-        <v>207</v>
+        <v>192</v>
       </c>
       <c r="G96">
         <v>0.47</v>
@@ -4591,18 +4573,18 @@
         <v>1</v>
       </c>
       <c r="M96" t="s">
-        <v>272</v>
+        <v>257</v>
       </c>
       <c r="N96" t="s">
-        <v>280</v>
+        <v>265</v>
       </c>
     </row>
     <row r="97" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>276</v>
+        <v>261</v>
       </c>
       <c r="B97" t="s">
-        <v>208</v>
+        <v>193</v>
       </c>
       <c r="C97" s="2">
         <v>6989109374195</v>
@@ -4614,7 +4596,7 @@
         <v>43276.626388888886</v>
       </c>
       <c r="F97" s="1" t="s">
-        <v>207</v>
+        <v>192</v>
       </c>
       <c r="G97">
         <v>0.33</v>
@@ -4629,18 +4611,18 @@
         <v>2</v>
       </c>
       <c r="M97" t="s">
-        <v>256</v>
+        <v>241</v>
       </c>
       <c r="N97" t="s">
-        <v>280</v>
+        <v>265</v>
       </c>
     </row>
     <row r="98" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>276</v>
+        <v>261</v>
       </c>
       <c r="B98" t="s">
-        <v>209</v>
+        <v>194</v>
       </c>
       <c r="C98" s="2">
         <v>6989396374373</v>
@@ -4652,7 +4634,7 @@
         <v>43276.631249999999</v>
       </c>
       <c r="F98" s="1" t="s">
-        <v>207</v>
+        <v>192</v>
       </c>
       <c r="G98">
         <v>0.26</v>
@@ -4667,18 +4649,18 @@
         <v>15</v>
       </c>
       <c r="M98" t="s">
-        <v>282</v>
+        <v>267</v>
       </c>
       <c r="N98" t="s">
-        <v>280</v>
+        <v>265</v>
       </c>
     </row>
     <row r="99" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>276</v>
+        <v>261</v>
       </c>
       <c r="B99" t="s">
-        <v>209</v>
+        <v>194</v>
       </c>
       <c r="C99" s="2">
         <v>6989396374373</v>
@@ -4690,7 +4672,7 @@
         <v>43276.631249999999</v>
       </c>
       <c r="F99" s="1" t="s">
-        <v>207</v>
+        <v>192</v>
       </c>
       <c r="G99">
         <v>0.42</v>
@@ -4705,18 +4687,18 @@
         <v>18</v>
       </c>
       <c r="M99" t="s">
-        <v>256</v>
+        <v>241</v>
       </c>
       <c r="N99" t="s">
-        <v>280</v>
+        <v>265</v>
       </c>
     </row>
     <row r="100" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>276</v>
+        <v>261</v>
       </c>
       <c r="B100" t="s">
-        <v>210</v>
+        <v>195</v>
       </c>
       <c r="C100" s="2">
         <v>6989430374420</v>
@@ -4728,7 +4710,7 @@
         <v>43276.634722222225</v>
       </c>
       <c r="F100" s="1" t="s">
-        <v>207</v>
+        <v>192</v>
       </c>
       <c r="G100">
         <v>0.39</v>
@@ -4743,18 +4725,18 @@
         <v>2</v>
       </c>
       <c r="M100" t="s">
-        <v>283</v>
+        <v>268</v>
       </c>
       <c r="N100" t="s">
-        <v>280</v>
+        <v>265</v>
       </c>
     </row>
     <row r="101" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>276</v>
+        <v>261</v>
       </c>
       <c r="B101" t="s">
-        <v>210</v>
+        <v>195</v>
       </c>
       <c r="C101" s="2">
         <v>6989430374420</v>
@@ -4766,7 +4748,7 @@
         <v>43276.634722222225</v>
       </c>
       <c r="F101" s="1" t="s">
-        <v>207</v>
+        <v>192</v>
       </c>
       <c r="G101">
         <v>1.62</v>
@@ -4781,18 +4763,18 @@
         <v>4</v>
       </c>
       <c r="M101" t="s">
-        <v>283</v>
+        <v>268</v>
       </c>
       <c r="N101" t="s">
-        <v>280</v>
+        <v>265</v>
       </c>
     </row>
     <row r="102" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
-        <v>276</v>
+        <v>261</v>
       </c>
       <c r="B102" t="s">
-        <v>211</v>
+        <v>196</v>
       </c>
       <c r="C102" s="2">
         <v>6989441374434</v>
@@ -4804,7 +4786,7 @@
         <v>43276.636805555558</v>
       </c>
       <c r="F102" s="1" t="s">
-        <v>207</v>
+        <v>192</v>
       </c>
       <c r="G102">
         <v>0.16</v>
@@ -4819,18 +4801,18 @@
         <v>2</v>
       </c>
       <c r="M102" t="s">
-        <v>283</v>
+        <v>268</v>
       </c>
       <c r="N102" t="s">
-        <v>280</v>
+        <v>265</v>
       </c>
     </row>
     <row r="103" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
-        <v>276</v>
+        <v>261</v>
       </c>
       <c r="B103" t="s">
-        <v>212</v>
+        <v>197</v>
       </c>
       <c r="C103" s="2">
         <v>6989492374527</v>
@@ -4842,7 +4824,7 @@
         <v>43276.638888888891</v>
       </c>
       <c r="F103" s="1" t="s">
-        <v>207</v>
+        <v>192</v>
       </c>
       <c r="G103">
         <v>0.02</v>
@@ -4857,18 +4839,18 @@
         <v>4</v>
       </c>
       <c r="M103" t="s">
-        <v>283</v>
+        <v>268</v>
       </c>
       <c r="N103" t="s">
-        <v>280</v>
+        <v>265</v>
       </c>
     </row>
     <row r="104" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
-        <v>276</v>
+        <v>261</v>
       </c>
       <c r="B104" t="s">
-        <v>212</v>
+        <v>197</v>
       </c>
       <c r="C104" s="2">
         <v>6989492374527</v>
@@ -4880,7 +4862,7 @@
         <v>43276.638888888891</v>
       </c>
       <c r="F104" s="1" t="s">
-        <v>207</v>
+        <v>192</v>
       </c>
       <c r="G104">
         <v>0.56999999999999995</v>
@@ -4895,18 +4877,18 @@
         <v>2</v>
       </c>
       <c r="M104" t="s">
-        <v>283</v>
+        <v>268</v>
       </c>
       <c r="N104" t="s">
-        <v>280</v>
+        <v>265</v>
       </c>
     </row>
     <row r="105" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
-        <v>276</v>
+        <v>261</v>
       </c>
       <c r="B105" t="s">
-        <v>212</v>
+        <v>197</v>
       </c>
       <c r="C105" s="2">
         <v>6989492374527</v>
@@ -4918,7 +4900,7 @@
         <v>43276.638888888891</v>
       </c>
       <c r="F105" s="1" t="s">
-        <v>207</v>
+        <v>192</v>
       </c>
       <c r="G105">
         <v>0.61</v>
@@ -4933,18 +4915,18 @@
         <v>15</v>
       </c>
       <c r="M105" t="s">
-        <v>282</v>
+        <v>267</v>
       </c>
       <c r="N105" t="s">
-        <v>280</v>
+        <v>265</v>
       </c>
     </row>
     <row r="106" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
-        <v>276</v>
+        <v>261</v>
       </c>
       <c r="B106" t="s">
-        <v>246</v>
+        <v>231</v>
       </c>
       <c r="C106" s="2">
         <v>6989528374583</v>
@@ -4956,7 +4938,7 @@
         <v>43276.642361111109</v>
       </c>
       <c r="F106" s="1" t="s">
-        <v>247</v>
+        <v>232</v>
       </c>
       <c r="G106">
         <v>59.9</v>
@@ -4965,21 +4947,21 @@
         <v>44</v>
       </c>
       <c r="I106" t="s">
-        <v>248</v>
+        <v>233</v>
       </c>
       <c r="L106">
         <v>1</v>
       </c>
       <c r="N106" t="s">
-        <v>280</v>
+        <v>265</v>
       </c>
     </row>
     <row r="107" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
-        <v>276</v>
+        <v>261</v>
       </c>
       <c r="B107" t="s">
-        <v>217</v>
+        <v>202</v>
       </c>
       <c r="C107" s="2">
         <v>6989808375053</v>
@@ -4991,7 +4973,7 @@
         <v>43276.652777777781</v>
       </c>
       <c r="F107" s="1" t="s">
-        <v>207</v>
+        <v>192</v>
       </c>
       <c r="G107">
         <v>0.41</v>
@@ -5006,18 +4988,18 @@
         <v>1</v>
       </c>
       <c r="M107" t="s">
-        <v>272</v>
+        <v>257</v>
       </c>
       <c r="N107" t="s">
-        <v>280</v>
+        <v>265</v>
       </c>
     </row>
     <row r="108" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
-        <v>276</v>
+        <v>261</v>
       </c>
       <c r="B108" t="s">
-        <v>218</v>
+        <v>203</v>
       </c>
       <c r="C108" s="2">
         <v>6990146375345</v>
@@ -5029,7 +5011,7 @@
         <v>43276.659722222219</v>
       </c>
       <c r="F108" s="1" t="s">
-        <v>207</v>
+        <v>192</v>
       </c>
       <c r="G108">
         <v>0.24</v>
@@ -5044,18 +5026,18 @@
         <v>36</v>
       </c>
       <c r="M108" t="s">
-        <v>256</v>
+        <v>241</v>
       </c>
       <c r="N108" t="s">
-        <v>280</v>
+        <v>265</v>
       </c>
     </row>
     <row r="109" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
-        <v>276</v>
+        <v>261</v>
       </c>
       <c r="B109" s="3" t="s">
-        <v>202</v>
+        <v>187</v>
       </c>
       <c r="C109" s="2">
         <v>6990210375427</v>
@@ -5067,18 +5049,18 @@
         <v>43276.665972222225</v>
       </c>
       <c r="F109" s="1" t="s">
-        <v>204</v>
+        <v>189</v>
       </c>
       <c r="N109" t="s">
-        <v>280</v>
+        <v>265</v>
       </c>
     </row>
     <row r="110" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
-        <v>276</v>
+        <v>261</v>
       </c>
       <c r="B110" t="s">
-        <v>266</v>
+        <v>251</v>
       </c>
       <c r="C110" s="2">
         <v>6990211375286</v>
@@ -5090,7 +5072,7 @@
         <v>43276.668055555558</v>
       </c>
       <c r="F110" s="1" t="s">
-        <v>247</v>
+        <v>232</v>
       </c>
       <c r="G110">
         <v>7.9</v>
@@ -5102,15 +5084,15 @@
         <v>1</v>
       </c>
       <c r="N110" t="s">
-        <v>280</v>
+        <v>265</v>
       </c>
     </row>
     <row r="111" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
-        <v>276</v>
+        <v>261</v>
       </c>
       <c r="B111" t="s">
-        <v>266</v>
+        <v>251</v>
       </c>
       <c r="C111" s="2">
         <v>6990211375286</v>
@@ -5122,7 +5104,7 @@
         <v>43276.668055555558</v>
       </c>
       <c r="F111" s="1" t="s">
-        <v>244</v>
+        <v>229</v>
       </c>
       <c r="G111">
         <v>452</v>
@@ -5134,15 +5116,15 @@
         <v>1</v>
       </c>
       <c r="N111" t="s">
-        <v>280</v>
+        <v>265</v>
       </c>
     </row>
     <row r="112" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
-        <v>276</v>
+        <v>261</v>
       </c>
       <c r="B112" t="s">
-        <v>219</v>
+        <v>204</v>
       </c>
       <c r="C112" s="2">
         <v>6990229375196</v>
@@ -5154,7 +5136,7 @@
         <v>43276.671527777777</v>
       </c>
       <c r="F112" s="1" t="s">
-        <v>207</v>
+        <v>192</v>
       </c>
       <c r="G112">
         <v>0.52</v>
@@ -5169,18 +5151,18 @@
         <v>10</v>
       </c>
       <c r="M112" t="s">
-        <v>256</v>
+        <v>241</v>
       </c>
       <c r="N112" t="s">
-        <v>280</v>
+        <v>265</v>
       </c>
     </row>
     <row r="113" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
-        <v>276</v>
+        <v>261</v>
       </c>
       <c r="B113" t="s">
-        <v>219</v>
+        <v>204</v>
       </c>
       <c r="C113" s="2">
         <v>6990229375196</v>
@@ -5205,18 +5187,18 @@
         <v>19</v>
       </c>
       <c r="M113" t="s">
-        <v>256</v>
+        <v>241</v>
       </c>
       <c r="N113" t="s">
-        <v>280</v>
+        <v>265</v>
       </c>
     </row>
     <row r="114" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
-        <v>276</v>
+        <v>261</v>
       </c>
       <c r="B114" t="s">
-        <v>220</v>
+        <v>205</v>
       </c>
       <c r="C114" s="2">
         <v>6990229375192</v>
@@ -5228,7 +5210,7 @@
         <v>43276.673611111109</v>
       </c>
       <c r="F114" s="1" t="s">
-        <v>207</v>
+        <v>192</v>
       </c>
       <c r="G114">
         <v>0.79</v>
@@ -5243,18 +5225,18 @@
         <v>45</v>
       </c>
       <c r="M114" t="s">
-        <v>284</v>
+        <v>269</v>
       </c>
       <c r="N114" t="s">
-        <v>280</v>
+        <v>265</v>
       </c>
     </row>
     <row r="115" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
-        <v>276</v>
+        <v>261</v>
       </c>
       <c r="B115" t="s">
-        <v>285</v>
+        <v>270</v>
       </c>
       <c r="C115" s="2">
         <v>6990342374915</v>
@@ -5266,7 +5248,7 @@
         <v>43276.678472222222</v>
       </c>
       <c r="F115" s="1" t="s">
-        <v>286</v>
+        <v>271</v>
       </c>
       <c r="G115">
         <v>18.399999999999999</v>
@@ -5275,21 +5257,21 @@
         <v>20</v>
       </c>
       <c r="I115" t="s">
-        <v>248</v>
+        <v>233</v>
       </c>
       <c r="L115">
         <v>1</v>
       </c>
       <c r="N115" t="s">
-        <v>280</v>
+        <v>265</v>
       </c>
     </row>
     <row r="116" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
-        <v>276</v>
+        <v>261</v>
       </c>
       <c r="B116" t="s">
-        <v>285</v>
+        <v>270</v>
       </c>
       <c r="C116" s="2">
         <v>6990342374915</v>
@@ -5301,7 +5283,7 @@
         <v>43276.678472222222</v>
       </c>
       <c r="F116" s="1" t="s">
-        <v>286</v>
+        <v>271</v>
       </c>
       <c r="G116">
         <v>14.4</v>
@@ -5310,21 +5292,21 @@
         <v>24</v>
       </c>
       <c r="I116" t="s">
-        <v>248</v>
+        <v>233</v>
       </c>
       <c r="L116">
         <v>1</v>
       </c>
       <c r="N116" t="s">
-        <v>280</v>
+        <v>265</v>
       </c>
     </row>
     <row r="117" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
-        <v>276</v>
+        <v>261</v>
       </c>
       <c r="B117" t="s">
-        <v>221</v>
+        <v>206</v>
       </c>
       <c r="C117" s="2">
         <v>6990469374617</v>
@@ -5336,7 +5318,7 @@
         <v>43276.6875</v>
       </c>
       <c r="F117" s="1" t="s">
-        <v>207</v>
+        <v>192</v>
       </c>
       <c r="G117">
         <v>0.31</v>
@@ -5351,18 +5333,18 @@
         <v>1</v>
       </c>
       <c r="M117" t="s">
-        <v>256</v>
+        <v>241</v>
       </c>
       <c r="N117" t="s">
-        <v>280</v>
+        <v>265</v>
       </c>
     </row>
     <row r="118" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
-        <v>276</v>
+        <v>261</v>
       </c>
       <c r="B118" t="s">
-        <v>224</v>
+        <v>209</v>
       </c>
       <c r="C118" s="2">
         <v>6990696373981</v>
@@ -5374,7 +5356,7 @@
         <v>43276.696527777778</v>
       </c>
       <c r="F118" s="1" t="s">
-        <v>207</v>
+        <v>192</v>
       </c>
       <c r="G118">
         <v>7.0000000000000007E-2</v>
@@ -5389,18 +5371,18 @@
         <v>1</v>
       </c>
       <c r="M118" t="s">
-        <v>256</v>
+        <v>241</v>
       </c>
       <c r="N118" t="s">
-        <v>280</v>
+        <v>265</v>
       </c>
     </row>
     <row r="119" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
-        <v>276</v>
+        <v>261</v>
       </c>
       <c r="B119" t="s">
-        <v>225</v>
+        <v>210</v>
       </c>
       <c r="C119" s="2">
         <v>6990700373975</v>
@@ -5412,7 +5394,7 @@
         <v>43276.697222222225</v>
       </c>
       <c r="F119" s="1" t="s">
-        <v>207</v>
+        <v>192</v>
       </c>
       <c r="G119">
         <v>0.18</v>
@@ -5427,18 +5409,18 @@
         <v>17</v>
       </c>
       <c r="M119" t="s">
-        <v>256</v>
+        <v>241</v>
       </c>
       <c r="N119" t="s">
-        <v>280</v>
+        <v>265</v>
       </c>
     </row>
     <row r="120" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
-        <v>276</v>
+        <v>261</v>
       </c>
       <c r="B120" t="s">
-        <v>226</v>
+        <v>211</v>
       </c>
       <c r="C120" s="2">
         <v>6990705373967</v>
@@ -5450,7 +5432,7 @@
         <v>43276.699305555558</v>
       </c>
       <c r="F120" s="1" t="s">
-        <v>207</v>
+        <v>192</v>
       </c>
       <c r="G120">
         <v>0.39</v>
@@ -5465,18 +5447,18 @@
         <v>14</v>
       </c>
       <c r="M120" t="s">
-        <v>256</v>
+        <v>241</v>
       </c>
       <c r="N120" t="s">
-        <v>280</v>
+        <v>265</v>
       </c>
     </row>
     <row r="121" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
-        <v>276</v>
+        <v>261</v>
       </c>
       <c r="B121" t="s">
-        <v>261</v>
+        <v>246</v>
       </c>
       <c r="C121" s="2">
         <v>6990731373922</v>
@@ -5488,7 +5470,7 @@
         <v>43276.701388888891</v>
       </c>
       <c r="F121" s="1" t="s">
-        <v>207</v>
+        <v>192</v>
       </c>
       <c r="G121">
         <v>0.02</v>
@@ -5503,18 +5485,18 @@
         <v>11</v>
       </c>
       <c r="M121" t="s">
-        <v>287</v>
+        <v>272</v>
       </c>
       <c r="N121" t="s">
-        <v>280</v>
+        <v>265</v>
       </c>
     </row>
     <row r="122" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
-        <v>276</v>
+        <v>261</v>
       </c>
       <c r="B122" t="s">
-        <v>264</v>
+        <v>249</v>
       </c>
       <c r="C122" s="2">
         <v>6991108372720</v>
@@ -5526,7 +5508,7 @@
         <v>43276.717361111114</v>
       </c>
       <c r="F122" s="1" t="s">
-        <v>207</v>
+        <v>192</v>
       </c>
       <c r="G122">
         <v>0.01</v>
@@ -5541,18 +5523,18 @@
         <v>4</v>
       </c>
       <c r="M122" t="s">
-        <v>256</v>
+        <v>241</v>
       </c>
       <c r="N122" t="s">
-        <v>280</v>
+        <v>265</v>
       </c>
     </row>
     <row r="123" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
-        <v>276</v>
+        <v>261</v>
       </c>
       <c r="B123" t="s">
-        <v>268</v>
+        <v>253</v>
       </c>
       <c r="C123" s="2">
         <v>6991153372515</v>
@@ -5564,7 +5546,7 @@
         <v>43276.722222222219</v>
       </c>
       <c r="F123" s="1" t="s">
-        <v>247</v>
+        <v>232</v>
       </c>
       <c r="G123">
         <v>33.1</v>
@@ -5573,18 +5555,18 @@
         <v>18</v>
       </c>
       <c r="I123" t="s">
-        <v>248</v>
+        <v>233</v>
       </c>
       <c r="L123">
         <v>1</v>
       </c>
       <c r="N123" t="s">
-        <v>280</v>
+        <v>265</v>
       </c>
     </row>
     <row r="124" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
-        <v>276</v>
+        <v>261</v>
       </c>
       <c r="B124" t="s">
         <v>80</v>
@@ -5599,7 +5581,7 @@
         <v>43276.724999999999</v>
       </c>
       <c r="F124" s="1" t="s">
-        <v>289</v>
+        <v>274</v>
       </c>
       <c r="G124">
         <v>0</v>
@@ -5611,15 +5593,15 @@
         <v>1</v>
       </c>
       <c r="N124" t="s">
-        <v>280</v>
+        <v>265</v>
       </c>
     </row>
     <row r="125" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
-        <v>276</v>
+        <v>261</v>
       </c>
       <c r="B125" t="s">
-        <v>265</v>
+        <v>250</v>
       </c>
       <c r="C125" s="2">
         <v>6991331372007</v>
@@ -5631,7 +5613,7 @@
         <v>43276.730555555558</v>
       </c>
       <c r="F125" s="1" t="s">
-        <v>207</v>
+        <v>192</v>
       </c>
       <c r="G125">
         <v>0.06</v>
@@ -5646,18 +5628,18 @@
         <v>13</v>
       </c>
       <c r="M125" t="s">
-        <v>284</v>
+        <v>269</v>
       </c>
       <c r="N125" t="s">
-        <v>280</v>
+        <v>265</v>
       </c>
     </row>
     <row r="126" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
-        <v>276</v>
+        <v>261</v>
       </c>
       <c r="B126" s="3" t="s">
-        <v>213</v>
+        <v>198</v>
       </c>
       <c r="C126" s="2">
         <v>6991515371569</v>
@@ -5669,18 +5651,18 @@
         <v>43276.736805555556</v>
       </c>
       <c r="F126" s="1" t="s">
-        <v>204</v>
+        <v>189</v>
       </c>
       <c r="N126" t="s">
-        <v>280</v>
+        <v>265</v>
       </c>
     </row>
     <row r="127" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
-        <v>276</v>
+        <v>261</v>
       </c>
       <c r="B127" t="s">
-        <v>267</v>
+        <v>252</v>
       </c>
       <c r="C127" s="2">
         <v>6990806371700</v>
@@ -5692,7 +5674,7 @@
         <v>43276.75</v>
       </c>
       <c r="F127" s="1" t="s">
-        <v>207</v>
+        <v>192</v>
       </c>
       <c r="G127">
         <v>0.36</v>
@@ -5707,18 +5689,18 @@
         <v>16</v>
       </c>
       <c r="M127" t="s">
-        <v>256</v>
+        <v>241</v>
       </c>
       <c r="N127" t="s">
-        <v>280</v>
+        <v>265</v>
       </c>
     </row>
     <row r="128" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
-        <v>276</v>
+        <v>261</v>
       </c>
       <c r="B128" t="s">
-        <v>273</v>
+        <v>258</v>
       </c>
       <c r="C128" s="2">
         <v>6988299372150</v>
@@ -5730,7 +5712,7 @@
         <v>43276.79791666667</v>
       </c>
       <c r="F128" s="1" t="s">
-        <v>207</v>
+        <v>192</v>
       </c>
       <c r="G128">
         <v>0.09</v>
@@ -5745,18 +5727,18 @@
         <v>17</v>
       </c>
       <c r="M128" t="s">
-        <v>256</v>
+        <v>241</v>
       </c>
       <c r="N128" t="s">
-        <v>280</v>
+        <v>265</v>
       </c>
     </row>
     <row r="129" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
-        <v>276</v>
+        <v>261</v>
       </c>
       <c r="B129" s="3" t="s">
-        <v>277</v>
+        <v>262</v>
       </c>
       <c r="C129" s="2">
         <v>6987664372345</v>
@@ -5768,10 +5750,10 @@
         <v>43276.806944444441</v>
       </c>
       <c r="F129" t="s">
-        <v>290</v>
+        <v>275</v>
       </c>
       <c r="N129" t="s">
-        <v>280</v>
+        <v>265</v>
       </c>
     </row>
     <row r="130" spans="1:14" x14ac:dyDescent="0.2">
@@ -5779,30 +5761,30 @@
     </row>
     <row r="131" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
-        <v>291</v>
+        <v>276</v>
       </c>
       <c r="B131" s="3" t="s">
-        <v>292</v>
+        <v>277</v>
       </c>
       <c r="C131" s="2">
         <v>6986351371839</v>
       </c>
       <c r="D131" t="s">
-        <v>293</v>
+        <v>278</v>
       </c>
       <c r="E131" s="1">
         <v>43277.354166666664</v>
       </c>
       <c r="F131" s="1" t="s">
-        <v>205</v>
+        <v>190</v>
       </c>
       <c r="N131" t="s">
-        <v>294</v>
+        <v>279</v>
       </c>
     </row>
     <row r="132" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
-        <v>291</v>
+        <v>276</v>
       </c>
       <c r="B132" t="s">
         <v>30</v>
@@ -5817,7 +5799,7 @@
         <v>43277.35833333333</v>
       </c>
       <c r="F132" s="1" t="s">
-        <v>244</v>
+        <v>229</v>
       </c>
       <c r="G132">
         <v>33.1</v>
@@ -5829,18 +5811,18 @@
         <v>1</v>
       </c>
       <c r="M132" t="s">
-        <v>295</v>
+        <v>280</v>
       </c>
       <c r="N132" t="s">
-        <v>294</v>
+        <v>279</v>
       </c>
     </row>
     <row r="133" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
-        <v>291</v>
+        <v>276</v>
       </c>
       <c r="B133" t="s">
-        <v>246</v>
+        <v>231</v>
       </c>
       <c r="C133" s="2">
         <v>6986539371185</v>
@@ -5852,7 +5834,7 @@
         <v>43277.365972222222</v>
       </c>
       <c r="F133" s="1" t="s">
-        <v>247</v>
+        <v>232</v>
       </c>
       <c r="G133">
         <v>82.6</v>
@@ -5861,21 +5843,21 @@
         <v>312</v>
       </c>
       <c r="I133" t="s">
-        <v>248</v>
+        <v>233</v>
       </c>
       <c r="L133">
         <v>1</v>
       </c>
       <c r="N133" t="s">
-        <v>294</v>
+        <v>279</v>
       </c>
     </row>
     <row r="134" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
-        <v>291</v>
+        <v>276</v>
       </c>
       <c r="B134" t="s">
-        <v>206</v>
+        <v>191</v>
       </c>
       <c r="C134" s="2">
         <v>6986987369810</v>
@@ -5887,7 +5869,7 @@
         <v>43277.390972222223</v>
       </c>
       <c r="F134" s="1" t="s">
-        <v>207</v>
+        <v>192</v>
       </c>
       <c r="G134">
         <v>1.23</v>
@@ -5902,18 +5884,18 @@
         <v>4</v>
       </c>
       <c r="M134" t="s">
-        <v>256</v>
+        <v>241</v>
       </c>
       <c r="N134" t="s">
-        <v>294</v>
+        <v>279</v>
       </c>
     </row>
     <row r="135" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
-        <v>291</v>
+        <v>276</v>
       </c>
       <c r="B135" t="s">
-        <v>208</v>
+        <v>193</v>
       </c>
       <c r="C135" s="2">
         <v>6987165369223</v>
@@ -5925,7 +5907,7 @@
         <v>43277.402083333334</v>
       </c>
       <c r="F135" s="1" t="s">
-        <v>207</v>
+        <v>192</v>
       </c>
       <c r="G135">
         <v>0.1</v>
@@ -5940,18 +5922,18 @@
         <v>7</v>
       </c>
       <c r="M135" t="s">
-        <v>256</v>
+        <v>241</v>
       </c>
       <c r="N135" t="s">
-        <v>294</v>
+        <v>279</v>
       </c>
     </row>
     <row r="136" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
-        <v>291</v>
+        <v>276</v>
       </c>
       <c r="B136" t="s">
-        <v>209</v>
+        <v>194</v>
       </c>
       <c r="C136" s="2">
         <v>6987303368811</v>
@@ -5963,7 +5945,7 @@
         <v>43277.409722222219</v>
       </c>
       <c r="F136" s="1" t="s">
-        <v>207</v>
+        <v>192</v>
       </c>
       <c r="G136">
         <v>0.04</v>
@@ -5978,41 +5960,41 @@
         <v>1</v>
       </c>
       <c r="M136" t="s">
-        <v>256</v>
+        <v>241</v>
       </c>
       <c r="N136" t="s">
-        <v>294</v>
+        <v>279</v>
       </c>
     </row>
     <row r="137" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
-        <v>291</v>
+        <v>276</v>
       </c>
       <c r="B137" s="3" t="s">
-        <v>202</v>
+        <v>187</v>
       </c>
       <c r="C137" s="2">
         <v>6987650367997</v>
       </c>
       <c r="D137" t="s">
-        <v>296</v>
+        <v>281</v>
       </c>
       <c r="E137" s="1">
         <v>43277.425694444442</v>
       </c>
       <c r="F137" s="1" t="s">
-        <v>204</v>
+        <v>189</v>
       </c>
       <c r="N137" t="s">
-        <v>294</v>
+        <v>279</v>
       </c>
     </row>
     <row r="138" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
-        <v>291</v>
+        <v>276</v>
       </c>
       <c r="B138" t="s">
-        <v>210</v>
+        <v>195</v>
       </c>
       <c r="C138" s="2">
         <v>6985525368428</v>
@@ -6024,7 +6006,7 @@
         <v>43277.557638888888</v>
       </c>
       <c r="F138" s="1" t="s">
-        <v>207</v>
+        <v>192</v>
       </c>
       <c r="G138">
         <v>0.21</v>
@@ -6039,18 +6021,18 @@
         <v>24</v>
       </c>
       <c r="M138" t="s">
-        <v>297</v>
+        <v>282</v>
       </c>
       <c r="N138" t="s">
-        <v>294</v>
+        <v>279</v>
       </c>
     </row>
     <row r="139" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
-        <v>291</v>
+        <v>276</v>
       </c>
       <c r="B139" t="s">
-        <v>211</v>
+        <v>196</v>
       </c>
       <c r="C139" s="2">
         <v>6983906368728</v>
@@ -6062,7 +6044,7 @@
         <v>43277.584722222222</v>
       </c>
       <c r="F139" s="1" t="s">
-        <v>207</v>
+        <v>192</v>
       </c>
       <c r="G139">
         <v>0.11</v>
@@ -6077,15 +6059,15 @@
         <v>25</v>
       </c>
       <c r="M139" t="s">
-        <v>235</v>
+        <v>220</v>
       </c>
       <c r="N139" t="s">
-        <v>294</v>
+        <v>279</v>
       </c>
     </row>
     <row r="140" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
-        <v>291</v>
+        <v>276</v>
       </c>
       <c r="B140" t="s">
         <v>30</v>
@@ -6100,7 +6082,7 @@
         <v>43277.597916666666</v>
       </c>
       <c r="F140" s="1" t="s">
-        <v>244</v>
+        <v>229</v>
       </c>
       <c r="G140">
         <v>153.1</v>
@@ -6112,15 +6094,15 @@
         <v>3</v>
       </c>
       <c r="N140" t="s">
-        <v>294</v>
+        <v>279</v>
       </c>
     </row>
     <row r="141" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
-        <v>291</v>
+        <v>276</v>
       </c>
       <c r="B141" t="s">
-        <v>212</v>
+        <v>197</v>
       </c>
       <c r="C141" s="2">
         <v>6984203369274</v>
@@ -6132,7 +6114,7 @@
         <v>43277.609722222223</v>
       </c>
       <c r="F141" s="1" t="s">
-        <v>207</v>
+        <v>192</v>
       </c>
       <c r="G141">
         <v>7.0000000000000007E-2</v>
@@ -6147,15 +6129,15 @@
         <v>8</v>
       </c>
       <c r="M141" t="s">
-        <v>298</v>
+        <v>283</v>
       </c>
       <c r="N141" t="s">
-        <v>294</v>
+        <v>279</v>
       </c>
     </row>
     <row r="142" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
-        <v>291</v>
+        <v>276</v>
       </c>
       <c r="B142" t="s">
         <v>30</v>
@@ -6170,7 +6152,7 @@
         <v>43277.623611111114</v>
       </c>
       <c r="F142" s="1" t="s">
-        <v>244</v>
+        <v>229</v>
       </c>
       <c r="G142">
         <v>139.4</v>
@@ -6182,15 +6164,15 @@
         <v>3</v>
       </c>
       <c r="N142" t="s">
-        <v>294</v>
+        <v>279</v>
       </c>
     </row>
     <row r="143" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
-        <v>291</v>
+        <v>276</v>
       </c>
       <c r="B143" t="s">
-        <v>217</v>
+        <v>202</v>
       </c>
       <c r="C143" s="2">
         <v>6986354371830</v>
@@ -6202,7 +6184,7 @@
         <v>43277.663888888892</v>
       </c>
       <c r="F143" s="1" t="s">
-        <v>207</v>
+        <v>192</v>
       </c>
       <c r="G143">
         <v>0.18</v>
@@ -6217,64 +6199,64 @@
         <v>3</v>
       </c>
       <c r="M143" t="s">
-        <v>283</v>
+        <v>268</v>
       </c>
       <c r="N143" t="s">
-        <v>294</v>
+        <v>279</v>
       </c>
     </row>
     <row r="144" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
-        <v>291</v>
+        <v>276</v>
       </c>
       <c r="B144" s="3" t="s">
-        <v>292</v>
+        <v>277</v>
       </c>
       <c r="C144" s="2">
         <v>6986351371839</v>
       </c>
       <c r="D144" t="s">
-        <v>293</v>
+        <v>278</v>
       </c>
       <c r="E144" s="1">
         <v>43277.666666666664</v>
       </c>
       <c r="F144" s="1" t="s">
-        <v>290</v>
+        <v>275</v>
       </c>
       <c r="N144" t="s">
-        <v>294</v>
+        <v>279</v>
       </c>
     </row>
     <row r="148" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
-        <v>299</v>
+        <v>284</v>
       </c>
       <c r="B148" s="3" t="s">
-        <v>213</v>
+        <v>198</v>
       </c>
       <c r="C148" s="2">
         <v>6985863359293</v>
       </c>
       <c r="D148" t="s">
-        <v>300</v>
+        <v>285</v>
       </c>
       <c r="E148" s="1">
         <v>43278.409722222219</v>
       </c>
       <c r="F148" s="1" t="s">
-        <v>205</v>
+        <v>190</v>
       </c>
       <c r="N148" t="s">
-        <v>301</v>
+        <v>286</v>
       </c>
     </row>
     <row r="149" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
-        <v>299</v>
+        <v>284</v>
       </c>
       <c r="B149" t="s">
-        <v>206</v>
+        <v>191</v>
       </c>
       <c r="C149" s="2">
         <v>6984603358022</v>
@@ -6286,7 +6268,7 @@
         <v>43278.430555555555</v>
       </c>
       <c r="F149" s="1" t="s">
-        <v>207</v>
+        <v>192</v>
       </c>
       <c r="G149">
         <v>0.37</v>
@@ -6301,18 +6283,18 @@
         <v>4</v>
       </c>
       <c r="M149" t="s">
-        <v>302</v>
+        <v>287</v>
       </c>
       <c r="N149" t="s">
-        <v>301</v>
+        <v>286</v>
       </c>
     </row>
     <row r="150" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
-        <v>299</v>
+        <v>284</v>
       </c>
       <c r="B150" t="s">
-        <v>215</v>
+        <v>200</v>
       </c>
       <c r="C150" s="2">
         <v>6983656356892</v>
@@ -6324,18 +6306,18 @@
         <v>43278.449305555558</v>
       </c>
       <c r="F150" s="1" t="s">
-        <v>216</v>
+        <v>201</v>
       </c>
       <c r="N150" t="s">
-        <v>301</v>
+        <v>286</v>
       </c>
     </row>
     <row r="151" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
-        <v>299</v>
+        <v>284</v>
       </c>
       <c r="B151" t="s">
-        <v>215</v>
+        <v>200</v>
       </c>
       <c r="C151" s="2">
         <v>6983702356823</v>
@@ -6347,18 +6329,18 @@
         <v>43278.452777777777</v>
       </c>
       <c r="F151" s="1" t="s">
-        <v>216</v>
+        <v>201</v>
       </c>
       <c r="N151" t="s">
-        <v>301</v>
+        <v>286</v>
       </c>
     </row>
     <row r="152" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
-        <v>299</v>
+        <v>284</v>
       </c>
       <c r="B152" t="s">
-        <v>208</v>
+        <v>193</v>
       </c>
       <c r="C152" s="2">
         <v>6983103356528</v>
@@ -6370,7 +6352,7 @@
         <v>43278.467361111114</v>
       </c>
       <c r="F152" s="1" t="s">
-        <v>207</v>
+        <v>192</v>
       </c>
       <c r="G152">
         <v>1.21</v>
@@ -6385,38 +6367,38 @@
         <v>4</v>
       </c>
       <c r="M152" t="s">
-        <v>256</v>
+        <v>241</v>
       </c>
       <c r="N152" t="s">
-        <v>301</v>
+        <v>286</v>
       </c>
     </row>
     <row r="153" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
-        <v>299</v>
+        <v>284</v>
       </c>
       <c r="B153" s="3" t="s">
-        <v>303</v>
+        <v>288</v>
       </c>
       <c r="C153" s="2">
         <v>6983090356519</v>
       </c>
       <c r="D153" t="s">
-        <v>304</v>
+        <v>289</v>
       </c>
       <c r="E153" s="1">
         <v>43278.468055555553</v>
       </c>
       <c r="F153" s="1" t="s">
-        <v>204</v>
+        <v>189</v>
       </c>
     </row>
     <row r="154" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
-        <v>299</v>
+        <v>284</v>
       </c>
       <c r="B154" t="s">
-        <v>209</v>
+        <v>194</v>
       </c>
       <c r="C154" s="2">
         <v>6982711357390</v>
@@ -6428,7 +6410,7 @@
         <v>43278.480555555558</v>
       </c>
       <c r="F154" s="1" t="s">
-        <v>207</v>
+        <v>192</v>
       </c>
       <c r="G154">
         <v>0.45</v>
@@ -6443,15 +6425,15 @@
         <v>9</v>
       </c>
       <c r="M154" t="s">
-        <v>256</v>
+        <v>241</v>
       </c>
       <c r="N154" t="s">
-        <v>301</v>
+        <v>286</v>
       </c>
     </row>
     <row r="155" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
-        <v>299</v>
+        <v>284</v>
       </c>
       <c r="B155" t="s">
         <v>30</v>
@@ -6466,7 +6448,7 @@
         <v>43278.493055555555</v>
       </c>
       <c r="F155" s="1" t="s">
-        <v>244</v>
+        <v>229</v>
       </c>
       <c r="G155">
         <v>248.4</v>
@@ -6481,15 +6463,15 @@
         <v>1</v>
       </c>
       <c r="N155" t="s">
-        <v>301</v>
+        <v>286</v>
       </c>
     </row>
     <row r="156" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
-        <v>299</v>
+        <v>284</v>
       </c>
       <c r="B156" t="s">
-        <v>305</v>
+        <v>290</v>
       </c>
       <c r="C156" s="2">
         <v>6982517358590</v>
@@ -6501,7 +6483,7 @@
         <v>43278.500694444447</v>
       </c>
       <c r="F156" s="1" t="s">
-        <v>306</v>
+        <v>291</v>
       </c>
       <c r="G156">
         <v>462.1</v>
@@ -6516,12 +6498,12 @@
         <v>1</v>
       </c>
       <c r="N156" t="s">
-        <v>301</v>
+        <v>286</v>
       </c>
     </row>
     <row r="157" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
-        <v>299</v>
+        <v>284</v>
       </c>
       <c r="B157" t="s">
         <v>30</v>
@@ -6536,7 +6518,7 @@
         <v>43278.559027777781</v>
       </c>
       <c r="F157" s="1" t="s">
-        <v>244</v>
+        <v>229</v>
       </c>
       <c r="G157">
         <v>121.6</v>
@@ -6548,15 +6530,15 @@
         <v>2</v>
       </c>
       <c r="N157" t="s">
-        <v>301</v>
+        <v>286</v>
       </c>
     </row>
     <row r="158" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
-        <v>299</v>
+        <v>284</v>
       </c>
       <c r="B158" t="s">
-        <v>210</v>
+        <v>195</v>
       </c>
       <c r="C158" s="2">
         <v>6982057359742</v>
@@ -6568,7 +6550,7 @@
         <v>43278.569444444445</v>
       </c>
       <c r="F158" s="1" t="s">
-        <v>207</v>
+        <v>192</v>
       </c>
       <c r="G158">
         <v>0.61</v>
@@ -6583,15 +6565,15 @@
         <v>1</v>
       </c>
       <c r="N158" t="s">
-        <v>301</v>
+        <v>286</v>
       </c>
     </row>
     <row r="159" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
-        <v>299</v>
+        <v>284</v>
       </c>
       <c r="B159" t="s">
-        <v>211</v>
+        <v>196</v>
       </c>
       <c r="C159" s="2">
         <v>6982022359836</v>
@@ -6603,7 +6585,7 @@
         <v>43278.572222222225</v>
       </c>
       <c r="F159" s="1" t="s">
-        <v>207</v>
+        <v>192</v>
       </c>
       <c r="G159">
         <v>0.56999999999999995</v>
@@ -6618,18 +6600,18 @@
         <v>24</v>
       </c>
       <c r="M159" t="s">
-        <v>250</v>
+        <v>235</v>
       </c>
       <c r="N159" t="s">
-        <v>301</v>
+        <v>286</v>
       </c>
     </row>
     <row r="160" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
-        <v>299</v>
+        <v>284</v>
       </c>
       <c r="B160" t="s">
-        <v>211</v>
+        <v>196</v>
       </c>
       <c r="C160" s="2">
         <v>6982022359836</v>
@@ -6641,7 +6623,7 @@
         <v>43278.572222222225</v>
       </c>
       <c r="F160" s="1" t="s">
-        <v>207</v>
+        <v>192</v>
       </c>
       <c r="G160">
         <v>0.13</v>
@@ -6656,18 +6638,18 @@
         <v>34</v>
       </c>
       <c r="M160" t="s">
-        <v>307</v>
+        <v>292</v>
       </c>
       <c r="N160" t="s">
-        <v>301</v>
+        <v>286</v>
       </c>
     </row>
     <row r="161" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
-        <v>299</v>
+        <v>284</v>
       </c>
       <c r="B161" t="s">
-        <v>211</v>
+        <v>196</v>
       </c>
       <c r="C161" s="2">
         <v>6982022359836</v>
@@ -6679,7 +6661,7 @@
         <v>43278.572222222225</v>
       </c>
       <c r="F161" s="1" t="s">
-        <v>207</v>
+        <v>192</v>
       </c>
       <c r="G161">
         <v>0.28999999999999998</v>
@@ -6694,38 +6676,38 @@
         <v>16</v>
       </c>
       <c r="N161" t="s">
-        <v>301</v>
+        <v>286</v>
       </c>
     </row>
     <row r="162" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
-        <v>299</v>
+        <v>284</v>
       </c>
       <c r="B162" s="3" t="s">
-        <v>202</v>
+        <v>187</v>
       </c>
       <c r="C162" s="2">
         <v>6981921360308</v>
       </c>
       <c r="D162" t="s">
-        <v>308</v>
+        <v>293</v>
       </c>
       <c r="E162" s="1">
         <v>43278.583333333336</v>
       </c>
       <c r="F162" s="1" t="s">
-        <v>204</v>
+        <v>189</v>
       </c>
       <c r="N162" t="s">
-        <v>301</v>
+        <v>286</v>
       </c>
     </row>
     <row r="163" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
-        <v>299</v>
+        <v>284</v>
       </c>
       <c r="B163" t="s">
-        <v>212</v>
+        <v>197</v>
       </c>
       <c r="C163" s="2">
         <v>6984942359384</v>
@@ -6737,7 +6719,7 @@
         <v>43278.62222222222</v>
       </c>
       <c r="F163" s="1" t="s">
-        <v>207</v>
+        <v>192</v>
       </c>
       <c r="G163">
         <v>0.34</v>
@@ -6752,18 +6734,18 @@
         <v>19</v>
       </c>
       <c r="M163" t="s">
-        <v>297</v>
+        <v>282</v>
       </c>
       <c r="N163" t="s">
-        <v>301</v>
+        <v>286</v>
       </c>
     </row>
     <row r="164" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
-        <v>299</v>
+        <v>284</v>
       </c>
       <c r="B164" t="s">
-        <v>212</v>
+        <v>197</v>
       </c>
       <c r="C164" s="2">
         <v>6984942359384</v>
@@ -6775,7 +6757,7 @@
         <v>43278.62222222222</v>
       </c>
       <c r="F164" s="1" t="s">
-        <v>244</v>
+        <v>229</v>
       </c>
       <c r="G164">
         <v>98.3</v>
@@ -6787,15 +6769,15 @@
         <v>2</v>
       </c>
       <c r="N164" t="s">
-        <v>301</v>
+        <v>286</v>
       </c>
     </row>
     <row r="165" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
-        <v>299</v>
+        <v>284</v>
       </c>
       <c r="B165" t="s">
-        <v>215</v>
+        <v>200</v>
       </c>
       <c r="C165" s="2">
         <v>6985094359323</v>
@@ -6807,18 +6789,18 @@
         <v>43278.62777777778</v>
       </c>
       <c r="F165" s="1" t="s">
-        <v>216</v>
+        <v>201</v>
       </c>
       <c r="N165" t="s">
-        <v>301</v>
+        <v>286</v>
       </c>
     </row>
     <row r="166" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
-        <v>299</v>
+        <v>284</v>
       </c>
       <c r="B166" t="s">
-        <v>217</v>
+        <v>202</v>
       </c>
       <c r="C166" s="2">
         <v>6985160359319</v>
@@ -6830,7 +6812,7 @@
         <v>43278.629166666666</v>
       </c>
       <c r="F166" s="1" t="s">
-        <v>207</v>
+        <v>192</v>
       </c>
       <c r="G166">
         <v>0.06</v>
@@ -6845,18 +6827,18 @@
         <v>35</v>
       </c>
       <c r="M166" t="s">
-        <v>309</v>
+        <v>294</v>
       </c>
       <c r="N166" t="s">
-        <v>301</v>
+        <v>286</v>
       </c>
     </row>
     <row r="167" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
-        <v>299</v>
+        <v>284</v>
       </c>
       <c r="B167" t="s">
-        <v>217</v>
+        <v>202</v>
       </c>
       <c r="C167" s="2">
         <v>6985160359319</v>
@@ -6868,7 +6850,7 @@
         <v>43278.629166666666</v>
       </c>
       <c r="F167" s="1" t="s">
-        <v>207</v>
+        <v>192</v>
       </c>
       <c r="G167">
         <v>7.0000000000000007E-2</v>
@@ -6883,18 +6865,18 @@
         <v>17</v>
       </c>
       <c r="M167" t="s">
-        <v>309</v>
+        <v>294</v>
       </c>
       <c r="N167" t="s">
-        <v>301</v>
+        <v>286</v>
       </c>
     </row>
     <row r="168" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
-        <v>299</v>
+        <v>284</v>
       </c>
       <c r="B168" t="s">
-        <v>305</v>
+        <v>290</v>
       </c>
       <c r="C168" s="2">
         <v>6982267355785</v>
@@ -6906,33 +6888,33 @@
         <v>43278.884722222225</v>
       </c>
       <c r="F168" s="1" t="s">
-        <v>306</v>
+        <v>291</v>
       </c>
       <c r="N168" t="s">
-        <v>301</v>
+        <v>286</v>
       </c>
     </row>
     <row r="169" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
-        <v>299</v>
+        <v>284</v>
       </c>
       <c r="B169" s="3" t="s">
-        <v>213</v>
+        <v>198</v>
       </c>
       <c r="C169" s="2">
         <v>6985863359293</v>
       </c>
       <c r="D169" t="s">
-        <v>300</v>
+        <v>285</v>
       </c>
       <c r="E169" s="1">
         <v>43278.638888888891</v>
       </c>
       <c r="F169" s="1" t="s">
-        <v>205</v>
+        <v>190</v>
       </c>
       <c r="N169" t="s">
-        <v>301</v>
+        <v>286</v>
       </c>
     </row>
     <row r="170" spans="1:14" x14ac:dyDescent="0.2">
@@ -6943,33 +6925,33 @@
     </row>
     <row r="172" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
-        <v>310</v>
+        <v>295</v>
       </c>
       <c r="B172" s="3" t="s">
-        <v>213</v>
+        <v>198</v>
       </c>
       <c r="C172" s="2">
         <v>6981270353841</v>
       </c>
       <c r="D172" t="s">
-        <v>296</v>
+        <v>281</v>
       </c>
       <c r="E172" s="1">
         <v>43279.256944444445</v>
       </c>
       <c r="F172" s="1" t="s">
-        <v>205</v>
+        <v>190</v>
       </c>
       <c r="N172" t="s">
-        <v>311</v>
+        <v>296</v>
       </c>
     </row>
     <row r="173" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
-        <v>310</v>
+        <v>295</v>
       </c>
       <c r="B173" t="s">
-        <v>215</v>
+        <v>200</v>
       </c>
       <c r="C173" s="2">
         <v>6980968353518</v>
@@ -6981,18 +6963,18 @@
         <v>43279.265277777777</v>
       </c>
       <c r="F173" s="1" t="s">
-        <v>216</v>
+        <v>201</v>
       </c>
       <c r="N173" t="s">
-        <v>311</v>
+        <v>296</v>
       </c>
     </row>
     <row r="174" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
-        <v>310</v>
+        <v>295</v>
       </c>
       <c r="B174" t="s">
-        <v>206</v>
+        <v>191</v>
       </c>
       <c r="C174" s="2">
         <v>6980970353513</v>
@@ -7004,7 +6986,7 @@
         <v>43279.265972222223</v>
       </c>
       <c r="F174" s="1" t="s">
-        <v>207</v>
+        <v>192</v>
       </c>
       <c r="G174">
         <v>0.06</v>
@@ -7019,18 +7001,18 @@
         <v>1</v>
       </c>
       <c r="M174" t="s">
-        <v>256</v>
+        <v>241</v>
       </c>
       <c r="N174" t="s">
-        <v>311</v>
+        <v>296</v>
       </c>
     </row>
     <row r="175" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
-        <v>310</v>
+        <v>295</v>
       </c>
       <c r="B175" t="s">
-        <v>208</v>
+        <v>193</v>
       </c>
       <c r="C175" s="2">
         <v>6980945353432</v>
@@ -7042,7 +7024,7 @@
         <v>43279.268055555556</v>
       </c>
       <c r="F175" s="1" t="s">
-        <v>207</v>
+        <v>192</v>
       </c>
       <c r="G175">
         <v>0.12</v>
@@ -7057,18 +7039,18 @@
         <v>1</v>
       </c>
       <c r="M175" t="s">
-        <v>256</v>
+        <v>241</v>
       </c>
       <c r="N175" t="s">
-        <v>311</v>
+        <v>296</v>
       </c>
     </row>
     <row r="176" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
-        <v>310</v>
+        <v>295</v>
       </c>
       <c r="B176" t="s">
-        <v>209</v>
+        <v>194</v>
       </c>
       <c r="C176" s="2">
         <v>6980935353395</v>
@@ -7080,7 +7062,7 @@
         <v>43279.270138888889</v>
       </c>
       <c r="F176" s="1" t="s">
-        <v>207</v>
+        <v>192</v>
       </c>
       <c r="G176">
         <v>0.17</v>
@@ -7095,18 +7077,18 @@
         <v>19</v>
       </c>
       <c r="M176" t="s">
-        <v>256</v>
+        <v>241</v>
       </c>
       <c r="N176" t="s">
-        <v>311</v>
+        <v>296</v>
       </c>
     </row>
     <row r="177" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
-        <v>310</v>
+        <v>295</v>
       </c>
       <c r="B177" t="s">
-        <v>209</v>
+        <v>194</v>
       </c>
       <c r="C177" s="2">
         <v>6980935353395</v>
@@ -7118,7 +7100,7 @@
         <v>43279.270138888889</v>
       </c>
       <c r="F177" s="1" t="s">
-        <v>207</v>
+        <v>192</v>
       </c>
       <c r="G177">
         <v>3.42</v>
@@ -7133,18 +7115,18 @@
         <v>20</v>
       </c>
       <c r="M177" t="s">
-        <v>256</v>
+        <v>241</v>
       </c>
       <c r="N177" t="s">
-        <v>311</v>
+        <v>296</v>
       </c>
     </row>
     <row r="178" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
-        <v>310</v>
+        <v>295</v>
       </c>
       <c r="B178" t="s">
-        <v>209</v>
+        <v>194</v>
       </c>
       <c r="C178" s="2">
         <v>6980935353395</v>
@@ -7156,7 +7138,7 @@
         <v>43279.270138888889</v>
       </c>
       <c r="F178" s="1" t="s">
-        <v>207</v>
+        <v>192</v>
       </c>
       <c r="G178">
         <v>1.1499999999999999</v>
@@ -7171,18 +7153,18 @@
         <v>23</v>
       </c>
       <c r="M178" t="s">
-        <v>256</v>
+        <v>241</v>
       </c>
       <c r="N178" t="s">
-        <v>311</v>
+        <v>296</v>
       </c>
     </row>
     <row r="179" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
-        <v>310</v>
+        <v>295</v>
       </c>
       <c r="B179" t="s">
-        <v>215</v>
+        <v>200</v>
       </c>
       <c r="C179" s="2">
         <v>6980911353331</v>
@@ -7194,18 +7176,18 @@
         <v>43279.273611111108</v>
       </c>
       <c r="F179" s="1" t="s">
-        <v>216</v>
+        <v>201</v>
       </c>
       <c r="N179" t="s">
-        <v>311</v>
+        <v>296</v>
       </c>
     </row>
     <row r="180" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
-        <v>310</v>
+        <v>295</v>
       </c>
       <c r="B180" t="s">
-        <v>305</v>
+        <v>290</v>
       </c>
       <c r="C180" s="2">
         <v>6980602353081</v>
@@ -7217,7 +7199,7 @@
         <v>43279.28125</v>
       </c>
       <c r="F180" s="1" t="s">
-        <v>306</v>
+        <v>291</v>
       </c>
       <c r="G180">
         <v>271.5</v>
@@ -7229,15 +7211,15 @@
         <v>1</v>
       </c>
       <c r="N180" t="s">
-        <v>311</v>
+        <v>296</v>
       </c>
     </row>
     <row r="181" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
-        <v>310</v>
+        <v>295</v>
       </c>
       <c r="B181" t="s">
-        <v>210</v>
+        <v>195</v>
       </c>
       <c r="C181" s="2">
         <v>6980431352927</v>
@@ -7249,7 +7231,7 @@
         <v>43279.284722222219</v>
       </c>
       <c r="F181" s="1" t="s">
-        <v>207</v>
+        <v>192</v>
       </c>
       <c r="G181">
         <v>1.08</v>
@@ -7264,18 +7246,18 @@
         <v>7</v>
       </c>
       <c r="M181" t="s">
-        <v>312</v>
+        <v>297</v>
       </c>
       <c r="N181" t="s">
-        <v>311</v>
+        <v>296</v>
       </c>
     </row>
     <row r="182" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
-        <v>310</v>
+        <v>295</v>
       </c>
       <c r="B182" t="s">
-        <v>211</v>
+        <v>196</v>
       </c>
       <c r="C182" s="2">
         <v>6980212352665</v>
@@ -7287,7 +7269,7 @@
         <v>43279.290972222225</v>
       </c>
       <c r="F182" s="1" t="s">
-        <v>207</v>
+        <v>192</v>
       </c>
       <c r="G182">
         <v>1.1200000000000001</v>
@@ -7302,18 +7284,18 @@
         <v>20</v>
       </c>
       <c r="M182" t="s">
-        <v>312</v>
+        <v>297</v>
       </c>
       <c r="N182" t="s">
-        <v>311</v>
+        <v>296</v>
       </c>
     </row>
     <row r="183" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
-        <v>310</v>
+        <v>295</v>
       </c>
       <c r="B183" t="s">
-        <v>212</v>
+        <v>197</v>
       </c>
       <c r="C183" s="2">
         <v>6980059352518</v>
@@ -7325,7 +7307,7 @@
         <v>43279.296527777777</v>
       </c>
       <c r="F183" s="1" t="s">
-        <v>207</v>
+        <v>192</v>
       </c>
       <c r="G183">
         <v>0.41</v>
@@ -7340,18 +7322,18 @@
         <v>5</v>
       </c>
       <c r="M183" t="s">
-        <v>313</v>
+        <v>298</v>
       </c>
       <c r="N183" t="s">
-        <v>311</v>
+        <v>296</v>
       </c>
     </row>
     <row r="184" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
-        <v>310</v>
+        <v>295</v>
       </c>
       <c r="B184" t="s">
-        <v>217</v>
+        <v>202</v>
       </c>
       <c r="C184" s="2">
         <v>6980047352508</v>
@@ -7363,7 +7345,7 @@
         <v>43279.29791666667</v>
       </c>
       <c r="F184" s="1" t="s">
-        <v>207</v>
+        <v>192</v>
       </c>
       <c r="G184">
         <v>0.72</v>
@@ -7378,18 +7360,18 @@
         <v>39</v>
       </c>
       <c r="M184" t="s">
-        <v>241</v>
+        <v>226</v>
       </c>
       <c r="N184" t="s">
-        <v>311</v>
+        <v>296</v>
       </c>
     </row>
     <row r="185" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
-        <v>310</v>
+        <v>295</v>
       </c>
       <c r="B185" t="s">
-        <v>218</v>
+        <v>203</v>
       </c>
       <c r="C185" s="2">
         <v>6979533352050</v>
@@ -7401,7 +7383,7 @@
         <v>43279.30972222222</v>
       </c>
       <c r="F185" s="1" t="s">
-        <v>207</v>
+        <v>192</v>
       </c>
       <c r="G185">
         <v>0.49</v>
@@ -7416,18 +7398,18 @@
         <v>1</v>
       </c>
       <c r="M185" t="s">
-        <v>256</v>
+        <v>241</v>
       </c>
       <c r="N185" t="s">
-        <v>311</v>
+        <v>296</v>
       </c>
     </row>
     <row r="186" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
-        <v>310</v>
+        <v>295</v>
       </c>
       <c r="B186" t="s">
-        <v>219</v>
+        <v>204</v>
       </c>
       <c r="C186" s="2">
         <v>6979485352018</v>
@@ -7439,7 +7421,7 @@
         <v>43279.311805555553</v>
       </c>
       <c r="F186" s="1" t="s">
-        <v>207</v>
+        <v>192</v>
       </c>
       <c r="G186">
         <v>0.44</v>
@@ -7454,18 +7436,18 @@
         <v>11</v>
       </c>
       <c r="M186" t="s">
-        <v>256</v>
+        <v>241</v>
       </c>
       <c r="N186" t="s">
-        <v>311</v>
+        <v>296</v>
       </c>
     </row>
     <row r="187" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
-        <v>310</v>
+        <v>295</v>
       </c>
       <c r="B187" t="s">
-        <v>215</v>
+        <v>200</v>
       </c>
       <c r="C187" s="2">
         <v>6979450352004</v>
@@ -7477,18 +7459,18 @@
         <v>43279.313194444447</v>
       </c>
       <c r="F187" s="1" t="s">
-        <v>216</v>
+        <v>201</v>
       </c>
       <c r="N187" t="s">
-        <v>311</v>
+        <v>296</v>
       </c>
     </row>
     <row r="188" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
-        <v>310</v>
+        <v>295</v>
       </c>
       <c r="B188" t="s">
-        <v>220</v>
+        <v>205</v>
       </c>
       <c r="C188" s="2">
         <v>6979451352005</v>
@@ -7500,7 +7482,7 @@
         <v>43279.313888888886</v>
       </c>
       <c r="F188" s="1" t="s">
-        <v>207</v>
+        <v>192</v>
       </c>
       <c r="G188">
         <v>0.11</v>
@@ -7515,18 +7497,18 @@
         <v>16</v>
       </c>
       <c r="M188" t="s">
-        <v>235</v>
+        <v>220</v>
       </c>
       <c r="N188" t="s">
-        <v>311</v>
+        <v>296</v>
       </c>
     </row>
     <row r="189" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
-        <v>310</v>
+        <v>295</v>
       </c>
       <c r="B189" t="s">
-        <v>221</v>
+        <v>206</v>
       </c>
       <c r="C189" s="2">
         <v>6979455352012</v>
@@ -7538,7 +7520,7 @@
         <v>43279.314583333333</v>
       </c>
       <c r="F189" s="1" t="s">
-        <v>207</v>
+        <v>192</v>
       </c>
       <c r="G189">
         <v>0.08</v>
@@ -7553,18 +7535,18 @@
         <v>2</v>
       </c>
       <c r="M189" t="s">
-        <v>256</v>
+        <v>241</v>
       </c>
       <c r="N189" t="s">
-        <v>311</v>
+        <v>296</v>
       </c>
     </row>
     <row r="190" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
-        <v>310</v>
+        <v>295</v>
       </c>
       <c r="B190" t="s">
-        <v>224</v>
+        <v>209</v>
       </c>
       <c r="C190" s="2">
         <v>6979459352019</v>
@@ -7576,7 +7558,7 @@
         <v>43279.31527777778</v>
       </c>
       <c r="F190" s="1" t="s">
-        <v>207</v>
+        <v>192</v>
       </c>
       <c r="G190">
         <v>1.04</v>
@@ -7591,18 +7573,18 @@
         <v>1</v>
       </c>
       <c r="M190" t="s">
-        <v>256</v>
+        <v>241</v>
       </c>
       <c r="N190" t="s">
-        <v>311</v>
+        <v>296</v>
       </c>
     </row>
     <row r="191" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
-        <v>310</v>
+        <v>295</v>
       </c>
       <c r="B191" t="s">
-        <v>215</v>
+        <v>200</v>
       </c>
       <c r="C191" s="2">
         <v>6979457352096</v>
@@ -7614,18 +7596,18 @@
         <v>43279.318749999999</v>
       </c>
       <c r="F191" s="1" t="s">
-        <v>216</v>
+        <v>201</v>
       </c>
       <c r="N191" t="s">
-        <v>311</v>
+        <v>296</v>
       </c>
     </row>
     <row r="192" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
-        <v>310</v>
+        <v>295</v>
       </c>
       <c r="B192" t="s">
-        <v>225</v>
+        <v>210</v>
       </c>
       <c r="C192" s="2">
         <v>6979451352092</v>
@@ -7637,7 +7619,7 @@
         <v>43279.318749999999</v>
       </c>
       <c r="F192" s="1" t="s">
-        <v>207</v>
+        <v>192</v>
       </c>
       <c r="G192">
         <v>0.47</v>
@@ -7652,18 +7634,18 @@
         <v>14</v>
       </c>
       <c r="M192" t="s">
-        <v>256</v>
+        <v>241</v>
       </c>
       <c r="N192" t="s">
-        <v>311</v>
+        <v>296</v>
       </c>
     </row>
     <row r="193" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
-        <v>310</v>
+        <v>295</v>
       </c>
       <c r="B193" t="s">
-        <v>226</v>
+        <v>211</v>
       </c>
       <c r="C193" s="2">
         <v>6979362352012</v>
@@ -7675,7 +7657,7 @@
         <v>43279.321527777778</v>
       </c>
       <c r="F193" s="1" t="s">
-        <v>207</v>
+        <v>192</v>
       </c>
       <c r="G193">
         <v>0.05</v>
@@ -7690,18 +7672,18 @@
         <v>1</v>
       </c>
       <c r="M193" t="s">
-        <v>256</v>
+        <v>241</v>
       </c>
       <c r="N193" t="s">
-        <v>311</v>
+        <v>296</v>
       </c>
     </row>
     <row r="194" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
-        <v>310</v>
+        <v>295</v>
       </c>
       <c r="B194" t="s">
-        <v>261</v>
+        <v>246</v>
       </c>
       <c r="C194" s="2">
         <v>6979058351708</v>
@@ -7713,7 +7695,7 @@
         <v>43279.32708333333</v>
       </c>
       <c r="F194" s="1" t="s">
-        <v>207</v>
+        <v>192</v>
       </c>
       <c r="G194">
         <v>0.16</v>
@@ -7728,38 +7710,38 @@
         <v>1</v>
       </c>
       <c r="M194" t="s">
-        <v>235</v>
+        <v>220</v>
       </c>
       <c r="N194" t="s">
-        <v>311</v>
+        <v>296</v>
       </c>
     </row>
     <row r="195" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
-        <v>310</v>
+        <v>295</v>
       </c>
       <c r="B195" s="3" t="s">
-        <v>314</v>
+        <v>299</v>
       </c>
       <c r="C195" s="2">
         <v>6978333351234</v>
       </c>
       <c r="D195" t="s">
-        <v>315</v>
+        <v>300</v>
       </c>
       <c r="E195" s="1">
         <v>43277.337500000001</v>
       </c>
       <c r="F195" s="1" t="s">
-        <v>204</v>
+        <v>189</v>
       </c>
     </row>
     <row r="196" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
-        <v>310</v>
+        <v>295</v>
       </c>
       <c r="B196" t="s">
-        <v>264</v>
+        <v>249</v>
       </c>
       <c r="C196" s="2">
         <v>6978301351443</v>
@@ -7771,7 +7753,7 @@
         <v>43279.341666666667</v>
       </c>
       <c r="F196" s="1" t="s">
-        <v>207</v>
+        <v>192</v>
       </c>
       <c r="G196">
         <v>0.09</v>
@@ -7786,18 +7768,18 @@
         <v>1</v>
       </c>
       <c r="M196" t="s">
-        <v>235</v>
+        <v>220</v>
       </c>
       <c r="N196" t="s">
-        <v>311</v>
+        <v>296</v>
       </c>
     </row>
     <row r="197" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
-        <v>310</v>
+        <v>295</v>
       </c>
       <c r="B197" t="s">
-        <v>265</v>
+        <v>250</v>
       </c>
       <c r="C197" s="2">
         <v>6978297351472</v>
@@ -7809,7 +7791,7 @@
         <v>43279.342361111114</v>
       </c>
       <c r="F197" s="1" t="s">
-        <v>207</v>
+        <v>192</v>
       </c>
       <c r="G197">
         <v>0.52</v>
@@ -7824,18 +7806,18 @@
         <v>2</v>
       </c>
       <c r="M197" t="s">
-        <v>256</v>
+        <v>241</v>
       </c>
       <c r="N197" t="s">
-        <v>311</v>
+        <v>296</v>
       </c>
     </row>
     <row r="198" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
-        <v>310</v>
+        <v>295</v>
       </c>
       <c r="B198" t="s">
-        <v>267</v>
+        <v>252</v>
       </c>
       <c r="C198" s="2">
         <v>6978291351490</v>
@@ -7847,7 +7829,7 @@
         <v>43279.34375</v>
       </c>
       <c r="F198" s="1" t="s">
-        <v>207</v>
+        <v>192</v>
       </c>
       <c r="G198">
         <v>0.38</v>
@@ -7862,18 +7844,18 @@
         <v>1</v>
       </c>
       <c r="M198" t="s">
-        <v>256</v>
+        <v>241</v>
       </c>
       <c r="N198" t="s">
-        <v>311</v>
+        <v>296</v>
       </c>
     </row>
     <row r="199" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
-        <v>310</v>
+        <v>295</v>
       </c>
       <c r="B199" t="s">
-        <v>273</v>
+        <v>258</v>
       </c>
       <c r="C199" s="2">
         <v>6977910352784</v>
@@ -7885,7 +7867,7 @@
         <v>43279.414583333331</v>
       </c>
       <c r="F199" s="1" t="s">
-        <v>207</v>
+        <v>192</v>
       </c>
       <c r="G199">
         <v>0.5</v>
@@ -7900,18 +7882,18 @@
         <v>5</v>
       </c>
       <c r="M199" t="s">
-        <v>316</v>
+        <v>301</v>
       </c>
       <c r="N199" t="s">
-        <v>311</v>
+        <v>296</v>
       </c>
     </row>
     <row r="200" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
-        <v>310</v>
+        <v>295</v>
       </c>
       <c r="B200" t="s">
-        <v>274</v>
+        <v>259</v>
       </c>
       <c r="C200" s="2">
         <v>6977860353046</v>
@@ -7923,7 +7905,7 @@
         <v>43279.419444444444</v>
       </c>
       <c r="F200" s="1" t="s">
-        <v>207</v>
+        <v>192</v>
       </c>
       <c r="G200">
         <v>0.16</v>
@@ -7938,18 +7920,18 @@
         <v>5</v>
       </c>
       <c r="M200" t="s">
-        <v>235</v>
+        <v>220</v>
       </c>
       <c r="N200" t="s">
-        <v>311</v>
+        <v>296</v>
       </c>
     </row>
     <row r="201" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
-        <v>310</v>
+        <v>295</v>
       </c>
       <c r="B201" t="s">
-        <v>275</v>
+        <v>260</v>
       </c>
       <c r="C201" s="2">
         <v>6977861353067</v>
@@ -7961,7 +7943,7 @@
         <v>43279.42083333333</v>
       </c>
       <c r="F201" s="1" t="s">
-        <v>207</v>
+        <v>192</v>
       </c>
       <c r="G201">
         <v>7.0000000000000007E-2</v>
@@ -7976,18 +7958,18 @@
         <v>22</v>
       </c>
       <c r="M201" t="s">
-        <v>235</v>
+        <v>220</v>
       </c>
       <c r="N201" t="s">
-        <v>311</v>
+        <v>296</v>
       </c>
     </row>
     <row r="202" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
-        <v>310</v>
+        <v>295</v>
       </c>
       <c r="B202" t="s">
-        <v>275</v>
+        <v>260</v>
       </c>
       <c r="C202" s="2">
         <v>6977861353067</v>
@@ -7999,7 +7981,7 @@
         <v>43279.42083333333</v>
       </c>
       <c r="F202" s="1" t="s">
-        <v>207</v>
+        <v>192</v>
       </c>
       <c r="G202">
         <v>1.19</v>
@@ -8014,18 +7996,18 @@
         <v>33</v>
       </c>
       <c r="M202" t="s">
-        <v>235</v>
+        <v>220</v>
       </c>
       <c r="N202" t="s">
-        <v>311</v>
+        <v>296</v>
       </c>
     </row>
     <row r="203" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
-        <v>310</v>
+        <v>295</v>
       </c>
       <c r="B203" t="s">
-        <v>275</v>
+        <v>260</v>
       </c>
       <c r="C203" s="2">
         <v>6977861353067</v>
@@ -8037,7 +8019,7 @@
         <v>43279.42083333333</v>
       </c>
       <c r="F203" s="1" t="s">
-        <v>207</v>
+        <v>192</v>
       </c>
       <c r="G203">
         <v>0.61</v>
@@ -8052,15 +8034,15 @@
         <v>15</v>
       </c>
       <c r="M203" t="s">
-        <v>235</v>
+        <v>220</v>
       </c>
     </row>
     <row r="204" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
-        <v>310</v>
+        <v>295</v>
       </c>
       <c r="B204" t="s">
-        <v>317</v>
+        <v>302</v>
       </c>
       <c r="C204" s="2">
         <v>6977865353087</v>
@@ -8072,7 +8054,7 @@
         <v>43279.422222222223</v>
       </c>
       <c r="F204" s="1" t="s">
-        <v>207</v>
+        <v>192</v>
       </c>
       <c r="G204">
         <v>0.03</v>
@@ -8087,18 +8069,18 @@
         <v>4</v>
       </c>
       <c r="M204" t="s">
-        <v>256</v>
+        <v>241</v>
       </c>
       <c r="N204" t="s">
-        <v>311</v>
+        <v>296</v>
       </c>
     </row>
     <row r="205" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
-        <v>310</v>
+        <v>295</v>
       </c>
       <c r="B205" t="s">
-        <v>318</v>
+        <v>303</v>
       </c>
       <c r="C205" s="2">
         <v>6977856353173</v>
@@ -8110,7 +8092,7 @@
         <v>43279.424305555556</v>
       </c>
       <c r="F205" s="1" t="s">
-        <v>207</v>
+        <v>192</v>
       </c>
       <c r="G205">
         <v>1.29</v>
@@ -8125,18 +8107,18 @@
         <v>38</v>
       </c>
       <c r="M205" t="s">
-        <v>256</v>
+        <v>241</v>
       </c>
       <c r="N205" t="s">
-        <v>311</v>
+        <v>296</v>
       </c>
     </row>
     <row r="206" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
-        <v>310</v>
+        <v>295</v>
       </c>
       <c r="B206" t="s">
-        <v>319</v>
+        <v>304</v>
       </c>
       <c r="C206" s="2">
         <v>6977844353209</v>
@@ -8148,7 +8130,7 @@
         <v>43279.425694444442</v>
       </c>
       <c r="F206" s="1" t="s">
-        <v>207</v>
+        <v>192</v>
       </c>
       <c r="G206">
         <v>0.15</v>
@@ -8163,18 +8145,18 @@
         <v>5</v>
       </c>
       <c r="M206" t="s">
-        <v>256</v>
+        <v>241</v>
       </c>
       <c r="N206" t="s">
-        <v>311</v>
+        <v>296</v>
       </c>
     </row>
     <row r="207" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
-        <v>310</v>
+        <v>295</v>
       </c>
       <c r="B207" t="s">
-        <v>320</v>
+        <v>305</v>
       </c>
       <c r="C207" s="2">
         <v>6977797353337</v>
@@ -8186,7 +8168,7 @@
         <v>43279.428472222222</v>
       </c>
       <c r="F207" s="1" t="s">
-        <v>207</v>
+        <v>192</v>
       </c>
       <c r="G207">
         <v>0.36</v>
@@ -8201,18 +8183,18 @@
         <v>2</v>
       </c>
       <c r="M207" t="s">
-        <v>256</v>
+        <v>241</v>
       </c>
       <c r="N207" t="s">
-        <v>311</v>
+        <v>296</v>
       </c>
     </row>
     <row r="208" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
-        <v>310</v>
+        <v>295</v>
       </c>
       <c r="B208" t="s">
-        <v>321</v>
+        <v>306</v>
       </c>
       <c r="C208" s="2">
         <v>6977575354652</v>
@@ -8224,7 +8206,7 @@
         <v>43279.447222222225</v>
       </c>
       <c r="F208" s="1" t="s">
-        <v>207</v>
+        <v>192</v>
       </c>
       <c r="G208">
         <v>0.21</v>
@@ -8239,18 +8221,18 @@
         <v>10</v>
       </c>
       <c r="M208" t="s">
-        <v>322</v>
+        <v>307</v>
       </c>
       <c r="N208" t="s">
-        <v>311</v>
+        <v>296</v>
       </c>
     </row>
     <row r="209" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
-        <v>310</v>
+        <v>295</v>
       </c>
       <c r="B209" t="s">
-        <v>321</v>
+        <v>306</v>
       </c>
       <c r="C209" s="2">
         <v>6977575354652</v>
@@ -8262,7 +8244,7 @@
         <v>43279.447222222225</v>
       </c>
       <c r="F209" s="1" t="s">
-        <v>207</v>
+        <v>192</v>
       </c>
       <c r="G209">
         <v>0.51</v>
@@ -8277,18 +8259,18 @@
         <v>15</v>
       </c>
       <c r="M209" t="s">
-        <v>322</v>
+        <v>307</v>
       </c>
       <c r="N209" t="s">
-        <v>311</v>
+        <v>296</v>
       </c>
     </row>
     <row r="210" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
-        <v>310</v>
+        <v>295</v>
       </c>
       <c r="B210" t="s">
-        <v>321</v>
+        <v>306</v>
       </c>
       <c r="C210" s="2">
         <v>6977575354652</v>
@@ -8300,7 +8282,7 @@
         <v>43279.447222222225</v>
       </c>
       <c r="F210" s="1" t="s">
-        <v>207</v>
+        <v>192</v>
       </c>
       <c r="G210">
         <v>0.38</v>
@@ -8315,18 +8297,18 @@
         <v>5</v>
       </c>
       <c r="M210" t="s">
-        <v>256</v>
+        <v>241</v>
       </c>
       <c r="N210" t="s">
-        <v>311</v>
+        <v>296</v>
       </c>
     </row>
     <row r="211" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
-        <v>310</v>
+        <v>295</v>
       </c>
       <c r="B211" t="s">
-        <v>321</v>
+        <v>306</v>
       </c>
       <c r="C211" s="2">
         <v>6977575354652</v>
@@ -8338,7 +8320,7 @@
         <v>43279.447222222225</v>
       </c>
       <c r="F211" s="1" t="s">
-        <v>207</v>
+        <v>192</v>
       </c>
       <c r="G211">
         <v>0.52</v>
@@ -8353,41 +8335,41 @@
         <v>17</v>
       </c>
       <c r="M211" t="s">
-        <v>284</v>
+        <v>269</v>
       </c>
       <c r="N211" t="s">
-        <v>311</v>
+        <v>296</v>
       </c>
     </row>
     <row r="212" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
-        <v>310</v>
+        <v>295</v>
       </c>
       <c r="B212" s="3" t="s">
-        <v>202</v>
+        <v>187</v>
       </c>
       <c r="C212" s="2">
         <v>6977503355128</v>
       </c>
       <c r="D212" t="s">
-        <v>324</v>
+        <v>309</v>
       </c>
       <c r="E212" s="1">
         <v>43277.457638888889</v>
       </c>
       <c r="F212" s="1" t="s">
-        <v>204</v>
+        <v>189</v>
       </c>
       <c r="N212" t="s">
-        <v>336</v>
+        <v>321</v>
       </c>
     </row>
     <row r="213" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
-        <v>310</v>
+        <v>295</v>
       </c>
       <c r="B213" t="s">
-        <v>323</v>
+        <v>308</v>
       </c>
       <c r="C213" s="2">
         <v>6978571354702</v>
@@ -8399,7 +8381,7 @@
         <v>43279.47152777778</v>
       </c>
       <c r="F213" s="1" t="s">
-        <v>207</v>
+        <v>192</v>
       </c>
       <c r="G213">
         <v>0</v>
@@ -8414,18 +8396,18 @@
         <v>3</v>
       </c>
       <c r="M213" t="s">
-        <v>256</v>
+        <v>241</v>
       </c>
       <c r="N213" t="s">
-        <v>336</v>
+        <v>321</v>
       </c>
     </row>
     <row r="214" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
+        <v>295</v>
+      </c>
+      <c r="B214" t="s">
         <v>310</v>
-      </c>
-      <c r="B214" t="s">
-        <v>325</v>
       </c>
       <c r="C214" s="2">
         <v>6979142354504</v>
@@ -8437,7 +8419,7 @@
         <v>43279.486805555556</v>
       </c>
       <c r="F214" s="1" t="s">
-        <v>207</v>
+        <v>192</v>
       </c>
       <c r="G214">
         <v>0</v>
@@ -8452,18 +8434,18 @@
         <v>2</v>
       </c>
       <c r="M214" t="s">
-        <v>326</v>
+        <v>311</v>
       </c>
       <c r="N214" t="s">
-        <v>336</v>
+        <v>321</v>
       </c>
     </row>
     <row r="215" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
-        <v>310</v>
+        <v>295</v>
       </c>
       <c r="B215" t="s">
-        <v>327</v>
+        <v>312</v>
       </c>
       <c r="C215" s="2">
         <v>6979932354155</v>
@@ -8475,7 +8457,7 @@
         <v>43279.498611111114</v>
       </c>
       <c r="F215" s="1" t="s">
-        <v>207</v>
+        <v>192</v>
       </c>
       <c r="G215">
         <v>0.18</v>
@@ -8490,18 +8472,18 @@
         <v>1</v>
       </c>
       <c r="M215" t="s">
-        <v>256</v>
+        <v>241</v>
       </c>
       <c r="N215" t="s">
-        <v>336</v>
+        <v>321</v>
       </c>
     </row>
     <row r="216" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
-        <v>310</v>
+        <v>295</v>
       </c>
       <c r="B216" t="s">
-        <v>328</v>
+        <v>313</v>
       </c>
       <c r="C216" s="2">
         <v>6979961354157</v>
@@ -8513,7 +8495,7 @@
         <v>43279.500694444447</v>
       </c>
       <c r="F216" s="1" t="s">
-        <v>207</v>
+        <v>192</v>
       </c>
       <c r="G216">
         <v>0</v>
@@ -8528,18 +8510,18 @@
         <v>4</v>
       </c>
       <c r="M216" t="s">
-        <v>329</v>
+        <v>314</v>
       </c>
       <c r="N216" t="s">
-        <v>336</v>
+        <v>321</v>
       </c>
     </row>
     <row r="217" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
-        <v>310</v>
+        <v>295</v>
       </c>
       <c r="B217" t="s">
-        <v>330</v>
+        <v>315</v>
       </c>
       <c r="C217" s="2">
         <v>6980285354065</v>
@@ -8551,7 +8533,7 @@
         <v>43279.506944444445</v>
       </c>
       <c r="F217" s="1" t="s">
-        <v>207</v>
+        <v>192</v>
       </c>
       <c r="G217">
         <v>0.02</v>
@@ -8566,18 +8548,18 @@
         <v>10</v>
       </c>
       <c r="M217" t="s">
-        <v>331</v>
+        <v>316</v>
       </c>
       <c r="N217" t="s">
-        <v>336</v>
+        <v>321</v>
       </c>
     </row>
     <row r="218" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
-        <v>310</v>
+        <v>295</v>
       </c>
       <c r="B218" t="s">
-        <v>330</v>
+        <v>315</v>
       </c>
       <c r="C218" s="2">
         <v>6980285354065</v>
@@ -8589,7 +8571,7 @@
         <v>43279.506944444445</v>
       </c>
       <c r="F218" s="1" t="s">
-        <v>207</v>
+        <v>192</v>
       </c>
       <c r="G218">
         <v>0.03</v>
@@ -8604,18 +8586,18 @@
         <v>5</v>
       </c>
       <c r="M218" t="s">
-        <v>331</v>
+        <v>316</v>
       </c>
       <c r="N218" t="s">
-        <v>336</v>
+        <v>321</v>
       </c>
     </row>
     <row r="219" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
-        <v>310</v>
+        <v>295</v>
       </c>
       <c r="B219" t="s">
-        <v>330</v>
+        <v>315</v>
       </c>
       <c r="C219" s="2">
         <v>6980285354065</v>
@@ -8627,7 +8609,7 @@
         <v>43279.506944444445</v>
       </c>
       <c r="F219" s="1" t="s">
-        <v>207</v>
+        <v>192</v>
       </c>
       <c r="G219">
         <v>0.38</v>
@@ -8642,18 +8624,18 @@
         <v>13</v>
       </c>
       <c r="M219" t="s">
-        <v>331</v>
+        <v>316</v>
       </c>
       <c r="N219" t="s">
-        <v>336</v>
+        <v>321</v>
       </c>
     </row>
     <row r="220" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
-        <v>310</v>
+        <v>295</v>
       </c>
       <c r="B220" t="s">
-        <v>330</v>
+        <v>315</v>
       </c>
       <c r="C220" s="2">
         <v>6980285354065</v>
@@ -8665,7 +8647,7 @@
         <v>43279.506944444445</v>
       </c>
       <c r="F220" s="1" t="s">
-        <v>207</v>
+        <v>192</v>
       </c>
       <c r="G220">
         <v>1.35</v>
@@ -8680,18 +8662,18 @@
         <v>5</v>
       </c>
       <c r="M220" t="s">
-        <v>331</v>
+        <v>316</v>
       </c>
       <c r="N220" t="s">
-        <v>336</v>
+        <v>321</v>
       </c>
     </row>
     <row r="221" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
-        <v>310</v>
+        <v>295</v>
       </c>
       <c r="B221" t="s">
-        <v>332</v>
+        <v>317</v>
       </c>
       <c r="C221" s="2">
         <v>6980874353935</v>
@@ -8703,7 +8685,7 @@
         <v>43279.515972222223</v>
       </c>
       <c r="F221" s="1" t="s">
-        <v>207</v>
+        <v>192</v>
       </c>
       <c r="G221">
         <v>0.38</v>
@@ -8718,18 +8700,18 @@
         <v>1</v>
       </c>
       <c r="M221" t="s">
-        <v>235</v>
+        <v>220</v>
       </c>
       <c r="N221" t="s">
-        <v>336</v>
+        <v>321</v>
       </c>
     </row>
     <row r="222" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
-        <v>310</v>
+        <v>295</v>
       </c>
       <c r="B222" t="s">
-        <v>333</v>
+        <v>318</v>
       </c>
       <c r="C222" s="2">
         <v>6980891353931</v>
@@ -8741,7 +8723,7 @@
         <v>43279.517361111109</v>
       </c>
       <c r="F222" s="1" t="s">
-        <v>207</v>
+        <v>192</v>
       </c>
       <c r="G222">
         <v>0.35</v>
@@ -8756,18 +8738,18 @@
         <v>1</v>
       </c>
       <c r="M222" t="s">
-        <v>256</v>
+        <v>241</v>
       </c>
       <c r="N222" t="s">
-        <v>336</v>
+        <v>321</v>
       </c>
     </row>
     <row r="223" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
-        <v>310</v>
+        <v>295</v>
       </c>
       <c r="B223" t="s">
-        <v>334</v>
+        <v>319</v>
       </c>
       <c r="C223" s="2">
         <v>6980914353924</v>
@@ -8779,7 +8761,7 @@
         <v>43279.518750000003</v>
       </c>
       <c r="F223" s="1" t="s">
-        <v>207</v>
+        <v>192</v>
       </c>
       <c r="G223">
         <v>0.43</v>
@@ -8794,33 +8776,33 @@
         <v>36</v>
       </c>
       <c r="M223" t="s">
-        <v>335</v>
+        <v>320</v>
       </c>
       <c r="N223" t="s">
-        <v>336</v>
+        <v>321</v>
       </c>
     </row>
     <row r="224" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
-        <v>310</v>
+        <v>295</v>
       </c>
       <c r="B224" s="3" t="s">
-        <v>213</v>
+        <v>198</v>
       </c>
       <c r="C224" s="2">
         <v>6981270353841</v>
       </c>
       <c r="D224" t="s">
-        <v>296</v>
+        <v>281</v>
       </c>
       <c r="E224" s="1">
         <v>43279.526388888888</v>
       </c>
       <c r="F224" s="1" t="s">
-        <v>290</v>
+        <v>275</v>
       </c>
       <c r="N224" t="s">
-        <v>336</v>
+        <v>321</v>
       </c>
     </row>
     <row r="225" spans="1:14" x14ac:dyDescent="0.2">
@@ -8834,33 +8816,33 @@
     </row>
     <row r="228" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A228" t="s">
-        <v>337</v>
+        <v>322</v>
       </c>
       <c r="B228" s="3" t="s">
-        <v>338</v>
+        <v>323</v>
       </c>
       <c r="C228" s="2">
         <v>7008546366649</v>
       </c>
       <c r="D228" t="s">
-        <v>339</v>
+        <v>324</v>
       </c>
       <c r="E228" s="1">
         <v>43283.493055555555</v>
       </c>
       <c r="F228" t="s">
-        <v>205</v>
+        <v>190</v>
       </c>
       <c r="N228" t="s">
-        <v>340</v>
+        <v>325</v>
       </c>
     </row>
     <row r="229" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A229" t="s">
-        <v>337</v>
+        <v>322</v>
       </c>
       <c r="B229" t="s">
-        <v>206</v>
+        <v>191</v>
       </c>
       <c r="C229" s="2">
         <v>7008446366454</v>
@@ -8872,7 +8854,7 @@
         <v>43283.498611111114</v>
       </c>
       <c r="F229" s="1" t="s">
-        <v>207</v>
+        <v>192</v>
       </c>
       <c r="G229">
         <v>0</v>
@@ -8887,18 +8869,18 @@
         <v>1</v>
       </c>
       <c r="M229" t="s">
-        <v>302</v>
+        <v>287</v>
       </c>
       <c r="N229" t="s">
-        <v>340</v>
+        <v>325</v>
       </c>
     </row>
     <row r="230" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A230" t="s">
-        <v>337</v>
+        <v>322</v>
       </c>
       <c r="B230" t="s">
-        <v>208</v>
+        <v>193</v>
       </c>
       <c r="C230" s="2">
         <v>7008274366146</v>
@@ -8910,7 +8892,7 @@
         <v>43283.506944444445</v>
       </c>
       <c r="F230" s="1" t="s">
-        <v>207</v>
+        <v>192</v>
       </c>
       <c r="G230">
         <v>0.22</v>
@@ -8925,18 +8907,18 @@
         <v>2</v>
       </c>
       <c r="M230" t="s">
-        <v>256</v>
+        <v>241</v>
       </c>
       <c r="N230" t="s">
-        <v>340</v>
+        <v>325</v>
       </c>
     </row>
     <row r="231" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A231" t="s">
-        <v>337</v>
+        <v>322</v>
       </c>
       <c r="B231" t="s">
-        <v>209</v>
+        <v>194</v>
       </c>
       <c r="C231" s="2">
         <v>7008058365732</v>
@@ -8948,7 +8930,7 @@
         <v>43283.513888888891</v>
       </c>
       <c r="F231" s="1" t="s">
-        <v>207</v>
+        <v>192</v>
       </c>
       <c r="G231">
         <v>0.02</v>
@@ -8963,18 +8945,18 @@
         <v>1</v>
       </c>
       <c r="M231" t="s">
-        <v>256</v>
+        <v>241</v>
       </c>
       <c r="N231" t="s">
-        <v>340</v>
+        <v>325</v>
       </c>
     </row>
     <row r="232" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A232" t="s">
-        <v>337</v>
+        <v>322</v>
       </c>
       <c r="B232" t="s">
-        <v>210</v>
+        <v>195</v>
       </c>
       <c r="C232" s="2">
         <v>7007697364981</v>
@@ -8986,7 +8968,7 @@
         <v>43283.525694444441</v>
       </c>
       <c r="F232" s="1" t="s">
-        <v>207</v>
+        <v>192</v>
       </c>
       <c r="G232">
         <v>0.28999999999999998</v>
@@ -8998,18 +8980,18 @@
         <v>15</v>
       </c>
       <c r="M232" t="s">
-        <v>341</v>
+        <v>326</v>
       </c>
       <c r="N232" t="s">
-        <v>340</v>
+        <v>325</v>
       </c>
     </row>
     <row r="233" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
-        <v>337</v>
+        <v>322</v>
       </c>
       <c r="B233" t="s">
-        <v>210</v>
+        <v>195</v>
       </c>
       <c r="C233" s="2">
         <v>7007697364981</v>
@@ -9021,7 +9003,7 @@
         <v>43283.525694444441</v>
       </c>
       <c r="F233" s="1" t="s">
-        <v>207</v>
+        <v>192</v>
       </c>
       <c r="G233">
         <v>0.87</v>
@@ -9033,18 +9015,18 @@
         <v>9</v>
       </c>
       <c r="M233" t="s">
-        <v>341</v>
+        <v>326</v>
       </c>
       <c r="N233" t="s">
-        <v>340</v>
+        <v>325</v>
       </c>
     </row>
     <row r="234" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A234" t="s">
-        <v>337</v>
+        <v>322</v>
       </c>
       <c r="B234" t="s">
-        <v>211</v>
+        <v>196</v>
       </c>
       <c r="C234" s="2">
         <v>7007640364853</v>
@@ -9056,7 +9038,7 @@
         <v>43283.529166666667</v>
       </c>
       <c r="F234" s="1" t="s">
-        <v>207</v>
+        <v>192</v>
       </c>
       <c r="G234">
         <v>0.1</v>
@@ -9071,18 +9053,18 @@
         <v>3</v>
       </c>
       <c r="M234" t="s">
-        <v>235</v>
+        <v>220</v>
       </c>
       <c r="N234" t="s">
-        <v>340</v>
+        <v>325</v>
       </c>
     </row>
     <row r="235" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
-        <v>337</v>
+        <v>322</v>
       </c>
       <c r="B235" t="s">
-        <v>211</v>
+        <v>196</v>
       </c>
       <c r="C235" s="2">
         <v>7007640364853</v>
@@ -9094,7 +9076,7 @@
         <v>43283.529166666667</v>
       </c>
       <c r="F235" s="1" t="s">
-        <v>207</v>
+        <v>192</v>
       </c>
       <c r="G235">
         <v>0.06</v>
@@ -9109,18 +9091,18 @@
         <v>4</v>
       </c>
       <c r="M235" t="s">
-        <v>256</v>
+        <v>241</v>
       </c>
       <c r="N235" t="s">
-        <v>340</v>
+        <v>325</v>
       </c>
     </row>
     <row r="236" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A236" t="s">
-        <v>337</v>
+        <v>322</v>
       </c>
       <c r="B236" t="s">
-        <v>212</v>
+        <v>197</v>
       </c>
       <c r="C236" s="2">
         <v>7007642364847</v>
@@ -9132,7 +9114,7 @@
         <v>43283.530555555553</v>
       </c>
       <c r="F236" s="1" t="s">
-        <v>207</v>
+        <v>192</v>
       </c>
       <c r="G236">
         <v>0.4</v>
@@ -9147,18 +9129,18 @@
         <v>12</v>
       </c>
       <c r="M236" t="s">
-        <v>256</v>
+        <v>241</v>
       </c>
       <c r="N236" t="s">
-        <v>340</v>
+        <v>325</v>
       </c>
     </row>
     <row r="237" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A237" t="s">
-        <v>337</v>
+        <v>322</v>
       </c>
       <c r="B237" t="s">
-        <v>217</v>
+        <v>202</v>
       </c>
       <c r="C237" s="2">
         <v>7007282364035</v>
@@ -9170,7 +9152,7 @@
         <v>43283.542361111111</v>
       </c>
       <c r="F237" s="1" t="s">
-        <v>207</v>
+        <v>192</v>
       </c>
       <c r="G237">
         <v>0.21</v>
@@ -9185,18 +9167,18 @@
         <v>1</v>
       </c>
       <c r="M237" t="s">
-        <v>297</v>
+        <v>282</v>
       </c>
       <c r="N237" t="s">
-        <v>340</v>
+        <v>325</v>
       </c>
     </row>
     <row r="238" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A238" t="s">
-        <v>337</v>
+        <v>322</v>
       </c>
       <c r="B238" t="s">
-        <v>218</v>
+        <v>203</v>
       </c>
       <c r="C238" s="2">
         <v>7006937363535</v>
@@ -9208,7 +9190,7 @@
         <v>43283.552777777775</v>
       </c>
       <c r="F238" s="1" t="s">
-        <v>207</v>
+        <v>192</v>
       </c>
       <c r="G238">
         <v>0.15</v>
@@ -9223,18 +9205,18 @@
         <v>4</v>
       </c>
       <c r="M238" t="s">
-        <v>234</v>
+        <v>219</v>
       </c>
       <c r="N238" t="s">
-        <v>340</v>
+        <v>325</v>
       </c>
     </row>
     <row r="239" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A239" t="s">
-        <v>337</v>
+        <v>322</v>
       </c>
       <c r="B239" t="s">
-        <v>219</v>
+        <v>204</v>
       </c>
       <c r="C239" s="2">
         <v>7006658363080</v>
@@ -9246,7 +9228,7 @@
         <v>43283.56527777778</v>
       </c>
       <c r="F239" s="1" t="s">
-        <v>207</v>
+        <v>192</v>
       </c>
       <c r="G239">
         <v>0.3</v>
@@ -9261,18 +9243,18 @@
         <v>3</v>
       </c>
       <c r="M239" t="s">
-        <v>297</v>
+        <v>282</v>
       </c>
       <c r="N239" t="s">
-        <v>340</v>
+        <v>325</v>
       </c>
     </row>
     <row r="240" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A240" t="s">
-        <v>337</v>
+        <v>322</v>
       </c>
       <c r="B240" t="s">
-        <v>219</v>
+        <v>204</v>
       </c>
       <c r="C240" s="2">
         <v>7006658363080</v>
@@ -9284,7 +9266,7 @@
         <v>43283.56527777778</v>
       </c>
       <c r="F240" s="1" t="s">
-        <v>207</v>
+        <v>192</v>
       </c>
       <c r="G240">
         <v>0.11</v>
@@ -9299,18 +9281,18 @@
         <v>1</v>
       </c>
       <c r="M240" t="s">
-        <v>342</v>
+        <v>327</v>
       </c>
       <c r="N240" t="s">
-        <v>340</v>
+        <v>325</v>
       </c>
     </row>
     <row r="241" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A241" t="s">
-        <v>337</v>
+        <v>322</v>
       </c>
       <c r="B241" t="s">
-        <v>219</v>
+        <v>204</v>
       </c>
       <c r="C241" s="2">
         <v>7006658363080</v>
@@ -9322,7 +9304,7 @@
         <v>43283.56527777778</v>
       </c>
       <c r="F241" s="1" t="s">
-        <v>207</v>
+        <v>192</v>
       </c>
       <c r="G241">
         <v>2.77</v>
@@ -9337,15 +9319,15 @@
         <v>12</v>
       </c>
       <c r="M241" t="s">
-        <v>297</v>
+        <v>282</v>
       </c>
       <c r="N241" t="s">
-        <v>340</v>
+        <v>325</v>
       </c>
     </row>
     <row r="242" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A242" t="s">
-        <v>337</v>
+        <v>322</v>
       </c>
       <c r="B242" t="s">
         <v>121</v>
@@ -9372,15 +9354,15 @@
         <v>1</v>
       </c>
       <c r="N242" t="s">
-        <v>340</v>
+        <v>325</v>
       </c>
     </row>
     <row r="243" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A243" t="s">
-        <v>337</v>
+        <v>322</v>
       </c>
       <c r="B243" t="s">
-        <v>220</v>
+        <v>205</v>
       </c>
       <c r="C243" s="2">
         <v>7007870362915</v>
@@ -9392,7 +9374,7 @@
         <v>43283.619444444441</v>
       </c>
       <c r="F243" s="1" t="s">
-        <v>207</v>
+        <v>192</v>
       </c>
       <c r="G243">
         <v>0.08</v>
@@ -9407,18 +9389,18 @@
         <v>1</v>
       </c>
       <c r="M243" t="s">
-        <v>297</v>
+        <v>282</v>
       </c>
       <c r="N243" t="s">
-        <v>340</v>
+        <v>325</v>
       </c>
     </row>
     <row r="244" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A244" t="s">
-        <v>337</v>
+        <v>322</v>
       </c>
       <c r="B244" t="s">
-        <v>215</v>
+        <v>200</v>
       </c>
       <c r="C244" s="2">
         <v>7010603362818</v>
@@ -9430,38 +9412,38 @@
         <v>43283.652083333334</v>
       </c>
       <c r="F244" s="1" t="s">
-        <v>216</v>
+        <v>201</v>
       </c>
       <c r="N244" t="s">
-        <v>340</v>
+        <v>325</v>
       </c>
     </row>
     <row r="245" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A245" t="s">
-        <v>337</v>
+        <v>322</v>
       </c>
       <c r="B245" s="3" t="s">
-        <v>213</v>
+        <v>198</v>
       </c>
       <c r="C245" s="2">
         <v>7010638362876</v>
       </c>
       <c r="D245" t="s">
-        <v>343</v>
+        <v>328</v>
       </c>
       <c r="E245" s="1">
         <v>43283.654166666667</v>
       </c>
       <c r="F245" t="s">
-        <v>204</v>
+        <v>189</v>
       </c>
     </row>
     <row r="246" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A246" t="s">
-        <v>337</v>
+        <v>322</v>
       </c>
       <c r="B246" t="s">
-        <v>221</v>
+        <v>206</v>
       </c>
       <c r="C246" s="2">
         <v>7009945363862</v>
@@ -9473,7 +9455,7 @@
         <v>43283.67291666667</v>
       </c>
       <c r="F246" s="1" t="s">
-        <v>207</v>
+        <v>192</v>
       </c>
       <c r="G246">
         <v>7.0000000000000007E-2</v>
@@ -9488,18 +9470,18 @@
         <v>2</v>
       </c>
       <c r="M246" t="s">
-        <v>256</v>
+        <v>241</v>
       </c>
       <c r="N246" t="s">
-        <v>340</v>
+        <v>325</v>
       </c>
     </row>
     <row r="247" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A247" t="s">
-        <v>337</v>
+        <v>322</v>
       </c>
       <c r="B247" t="s">
-        <v>215</v>
+        <v>200</v>
       </c>
       <c r="C247" s="2">
         <v>7009257365321</v>
@@ -9511,18 +9493,18 @@
         <v>43283.743055555555</v>
       </c>
       <c r="F247" s="1" t="s">
-        <v>216</v>
+        <v>201</v>
       </c>
       <c r="N247" t="s">
-        <v>340</v>
+        <v>325</v>
       </c>
     </row>
     <row r="248" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A248" t="s">
-        <v>337</v>
+        <v>322</v>
       </c>
       <c r="B248" t="s">
-        <v>224</v>
+        <v>209</v>
       </c>
       <c r="C248" s="2">
         <v>7009246365393</v>
@@ -9534,7 +9516,7 @@
         <v>43283.745138888888</v>
       </c>
       <c r="F248" s="1" t="s">
-        <v>207</v>
+        <v>192</v>
       </c>
       <c r="G248">
         <v>0.12</v>
@@ -9549,18 +9531,18 @@
         <v>1</v>
       </c>
       <c r="M248" t="s">
-        <v>256</v>
+        <v>241</v>
       </c>
       <c r="N248" t="s">
-        <v>340</v>
+        <v>325</v>
       </c>
     </row>
     <row r="249" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A249" t="s">
-        <v>337</v>
+        <v>322</v>
       </c>
       <c r="B249" t="s">
-        <v>225</v>
+        <v>210</v>
       </c>
       <c r="C249" s="2">
         <v>7009221365532</v>
@@ -9572,7 +9554,7 @@
         <v>43283.747916666667</v>
       </c>
       <c r="F249" s="1" t="s">
-        <v>207</v>
+        <v>192</v>
       </c>
       <c r="G249">
         <v>0.19</v>
@@ -9587,18 +9569,18 @@
         <v>2</v>
       </c>
       <c r="M249" t="s">
-        <v>256</v>
+        <v>241</v>
       </c>
       <c r="N249" t="s">
-        <v>340</v>
+        <v>325</v>
       </c>
     </row>
     <row r="250" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A250" t="s">
-        <v>337</v>
+        <v>322</v>
       </c>
       <c r="B250" t="s">
-        <v>226</v>
+        <v>211</v>
       </c>
       <c r="C250" s="2">
         <v>7009215365581</v>
@@ -9610,7 +9592,7 @@
         <v>43283.749305555553</v>
       </c>
       <c r="F250" s="1" t="s">
-        <v>207</v>
+        <v>192</v>
       </c>
       <c r="G250">
         <v>0.61</v>
@@ -9625,18 +9607,18 @@
         <v>1</v>
       </c>
       <c r="M250" t="s">
-        <v>256</v>
+        <v>241</v>
       </c>
       <c r="N250" t="s">
-        <v>340</v>
+        <v>325</v>
       </c>
     </row>
     <row r="251" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A251" t="s">
-        <v>337</v>
+        <v>322</v>
       </c>
       <c r="B251" t="s">
-        <v>226</v>
+        <v>211</v>
       </c>
       <c r="C251" s="2">
         <v>7009215365581</v>
@@ -9648,7 +9630,7 @@
         <v>43283.749305555553</v>
       </c>
       <c r="F251" s="1" t="s">
-        <v>207</v>
+        <v>192</v>
       </c>
       <c r="G251">
         <v>0.55000000000000004</v>
@@ -9663,18 +9645,18 @@
         <v>2</v>
       </c>
       <c r="M251" t="s">
-        <v>256</v>
+        <v>241</v>
       </c>
       <c r="N251" t="s">
-        <v>340</v>
+        <v>325</v>
       </c>
     </row>
     <row r="252" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A252" t="s">
-        <v>337</v>
+        <v>322</v>
       </c>
       <c r="B252" t="s">
-        <v>261</v>
+        <v>246</v>
       </c>
       <c r="C252" s="2">
         <v>7009220365592</v>
@@ -9686,7 +9668,7 @@
         <v>43283.750694444447</v>
       </c>
       <c r="F252" s="1" t="s">
-        <v>207</v>
+        <v>192</v>
       </c>
       <c r="G252">
         <v>7.0000000000000007E-2</v>
@@ -9701,18 +9683,18 @@
         <v>1</v>
       </c>
       <c r="M252" t="s">
-        <v>256</v>
+        <v>241</v>
       </c>
       <c r="N252" t="s">
-        <v>340</v>
+        <v>325</v>
       </c>
     </row>
     <row r="253" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A253" t="s">
-        <v>337</v>
+        <v>322</v>
       </c>
       <c r="B253" t="s">
-        <v>264</v>
+        <v>249</v>
       </c>
       <c r="C253" s="2">
         <v>7009216365643</v>
@@ -9724,7 +9706,7 @@
         <v>43283.75277777778</v>
       </c>
       <c r="F253" s="1" t="s">
-        <v>207</v>
+        <v>192</v>
       </c>
       <c r="G253">
         <v>0.44</v>
@@ -9739,18 +9721,18 @@
         <v>1</v>
       </c>
       <c r="M253" t="s">
-        <v>256</v>
+        <v>241</v>
       </c>
       <c r="N253" t="s">
-        <v>340</v>
+        <v>325</v>
       </c>
     </row>
     <row r="254" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A254" t="s">
-        <v>337</v>
+        <v>322</v>
       </c>
       <c r="B254" t="s">
-        <v>215</v>
+        <v>200</v>
       </c>
       <c r="C254" s="2">
         <v>7009215365667</v>
@@ -9762,18 +9744,18 @@
         <v>43283.753472222219</v>
       </c>
       <c r="F254" s="1" t="s">
-        <v>216</v>
+        <v>201</v>
       </c>
       <c r="N254" t="s">
-        <v>340</v>
+        <v>325</v>
       </c>
     </row>
     <row r="255" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A255" t="s">
-        <v>337</v>
+        <v>322</v>
       </c>
       <c r="B255" t="s">
-        <v>265</v>
+        <v>250</v>
       </c>
       <c r="C255" s="2">
         <v>7009073365892</v>
@@ -9785,7 +9767,7 @@
         <v>43283.759027777778</v>
       </c>
       <c r="F255" s="1" t="s">
-        <v>207</v>
+        <v>192</v>
       </c>
       <c r="G255">
         <v>0.11</v>
@@ -9800,18 +9782,18 @@
         <v>1</v>
       </c>
       <c r="M255" t="s">
-        <v>344</v>
+        <v>329</v>
       </c>
       <c r="N255" t="s">
-        <v>340</v>
+        <v>325</v>
       </c>
     </row>
     <row r="256" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A256" t="s">
-        <v>337</v>
+        <v>322</v>
       </c>
       <c r="B256" t="s">
-        <v>267</v>
+        <v>252</v>
       </c>
       <c r="C256" s="2">
         <v>7008870366106</v>
@@ -9823,7 +9805,7 @@
         <v>43283.765277777777</v>
       </c>
       <c r="F256" s="1" t="s">
-        <v>207</v>
+        <v>192</v>
       </c>
       <c r="G256">
         <v>0.62</v>
@@ -9838,18 +9820,18 @@
         <v>25</v>
       </c>
       <c r="M256" t="s">
-        <v>345</v>
+        <v>330</v>
       </c>
       <c r="N256" t="s">
-        <v>340</v>
+        <v>325</v>
       </c>
     </row>
     <row r="257" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A257" t="s">
-        <v>337</v>
+        <v>322</v>
       </c>
       <c r="B257" t="s">
-        <v>273</v>
+        <v>258</v>
       </c>
       <c r="C257" s="2">
         <v>7008555366617</v>
@@ -9861,7 +9843,7 @@
         <v>43283.776388888888</v>
       </c>
       <c r="F257" s="1" t="s">
-        <v>207</v>
+        <v>192</v>
       </c>
       <c r="G257">
         <v>0.51</v>
@@ -9876,18 +9858,18 @@
         <v>5</v>
       </c>
       <c r="M257" t="s">
-        <v>256</v>
+        <v>241</v>
       </c>
       <c r="N257" t="s">
-        <v>340</v>
+        <v>325</v>
       </c>
     </row>
     <row r="258" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A258" t="s">
-        <v>337</v>
+        <v>322</v>
       </c>
       <c r="B258" t="s">
-        <v>274</v>
+        <v>259</v>
       </c>
       <c r="C258" s="2">
         <v>7008548366629</v>
@@ -9899,7 +9881,7 @@
         <v>43283.777777777781</v>
       </c>
       <c r="F258" s="1" t="s">
-        <v>207</v>
+        <v>192</v>
       </c>
       <c r="G258">
         <v>0.83</v>
@@ -9914,600 +9896,1291 @@
         <v>1</v>
       </c>
       <c r="M258" t="s">
-        <v>256</v>
+        <v>241</v>
       </c>
       <c r="N258" t="s">
-        <v>340</v>
+        <v>325</v>
       </c>
     </row>
     <row r="259" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A259" t="s">
-        <v>337</v>
+        <v>322</v>
       </c>
       <c r="B259" s="3" t="s">
-        <v>338</v>
+        <v>323</v>
       </c>
       <c r="C259" s="2">
         <v>7008546366649</v>
       </c>
       <c r="D259" t="s">
-        <v>339</v>
+        <v>324</v>
       </c>
       <c r="E259" s="1">
         <v>43283.78125</v>
       </c>
       <c r="F259" t="s">
-        <v>290</v>
+        <v>275</v>
       </c>
       <c r="N259" t="s">
-        <v>340</v>
+        <v>325</v>
       </c>
     </row>
     <row r="262" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="C262" s="2"/>
-      <c r="E262" s="1"/>
+      <c r="A262" t="s">
+        <v>331</v>
+      </c>
+      <c r="B262" s="3" t="s">
+        <v>332</v>
+      </c>
+      <c r="C262" s="2">
+        <v>7005963362616</v>
+      </c>
+      <c r="D262" t="s">
+        <v>167</v>
+      </c>
+      <c r="E262" s="1">
+        <v>43284.409722222219</v>
+      </c>
+      <c r="F262" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="N262" t="s">
+        <v>333</v>
+      </c>
     </row>
     <row r="263" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A263" t="s">
+        <v>331</v>
+      </c>
       <c r="B263" t="s">
-        <v>131</v>
+        <v>191</v>
       </c>
       <c r="C263" s="2">
         <v>7003859361323</v>
       </c>
       <c r="D263" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E263" s="1">
         <v>43284.474305555559</v>
       </c>
+      <c r="F263" t="s">
+        <v>192</v>
+      </c>
+      <c r="G263">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="H263">
+        <v>270</v>
+      </c>
+      <c r="K263">
+        <v>1</v>
+      </c>
+      <c r="L263">
+        <v>16</v>
+      </c>
+      <c r="M263" t="s">
+        <v>334</v>
+      </c>
+      <c r="N263" t="s">
+        <v>333</v>
+      </c>
     </row>
     <row r="264" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A264" t="s">
+        <v>331</v>
+      </c>
       <c r="B264" t="s">
-        <v>133</v>
+        <v>193</v>
       </c>
       <c r="C264" s="2">
         <v>7003856361321</v>
       </c>
       <c r="D264" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E264" s="1">
         <v>43284.476388888892</v>
       </c>
+      <c r="F264" t="s">
+        <v>192</v>
+      </c>
+      <c r="G264">
+        <v>0.15</v>
+      </c>
+      <c r="H264">
+        <v>90</v>
+      </c>
+      <c r="K264">
+        <v>1</v>
+      </c>
+      <c r="L264">
+        <v>18</v>
+      </c>
+      <c r="M264" t="s">
+        <v>334</v>
+      </c>
+      <c r="N264" t="s">
+        <v>333</v>
+      </c>
     </row>
     <row r="265" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A265" t="s">
+        <v>331</v>
+      </c>
       <c r="B265" t="s">
+        <v>193</v>
+      </c>
+      <c r="C265" s="2">
+        <v>7003856361321</v>
+      </c>
+      <c r="D265" t="s">
+        <v>131</v>
+      </c>
+      <c r="E265" s="1">
+        <v>43284.476388888892</v>
+      </c>
+      <c r="F265" t="s">
+        <v>192</v>
+      </c>
+      <c r="G265">
+        <v>0.25</v>
+      </c>
+      <c r="H265">
+        <v>90</v>
+      </c>
+      <c r="K265">
+        <v>1</v>
+      </c>
+      <c r="L265">
+        <v>22</v>
+      </c>
+      <c r="M265" t="s">
+        <v>334</v>
+      </c>
+      <c r="N265" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="266" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A266" t="s">
+        <v>331</v>
+      </c>
+      <c r="B266" t="s">
+        <v>193</v>
+      </c>
+      <c r="C266" s="2">
+        <v>7003856361321</v>
+      </c>
+      <c r="D266" t="s">
+        <v>131</v>
+      </c>
+      <c r="E266" s="1">
+        <v>43284.476388888892</v>
+      </c>
+      <c r="F266" t="s">
+        <v>192</v>
+      </c>
+      <c r="G266">
+        <v>0.18</v>
+      </c>
+      <c r="H266">
+        <v>90</v>
+      </c>
+      <c r="K266">
+        <v>1</v>
+      </c>
+      <c r="L266">
+        <v>10</v>
+      </c>
+      <c r="M266" t="s">
+        <v>334</v>
+      </c>
+      <c r="N266" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="267" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A267" t="s">
+        <v>331</v>
+      </c>
+      <c r="B267" t="s">
+        <v>194</v>
+      </c>
+      <c r="C267" s="2">
+        <v>7003558361140</v>
+      </c>
+      <c r="D267" t="s">
+        <v>132</v>
+      </c>
+      <c r="E267" s="1">
+        <v>43284.481944444444</v>
+      </c>
+      <c r="F267" t="s">
+        <v>192</v>
+      </c>
+      <c r="G267">
+        <v>0.44</v>
+      </c>
+      <c r="H267">
+        <v>270</v>
+      </c>
+      <c r="K267">
+        <v>1</v>
+      </c>
+      <c r="L267">
+        <v>22</v>
+      </c>
+      <c r="M267" t="s">
+        <v>269</v>
+      </c>
+      <c r="N267" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="268" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A268" t="s">
+        <v>331</v>
+      </c>
+      <c r="B268" t="s">
+        <v>195</v>
+      </c>
+      <c r="C268" s="2">
+        <v>7003118360900</v>
+      </c>
+      <c r="D268" t="s">
+        <v>133</v>
+      </c>
+      <c r="E268" s="1">
+        <v>43284.487500000003</v>
+      </c>
+      <c r="F268" t="s">
+        <v>192</v>
+      </c>
+      <c r="G268">
+        <v>0.71</v>
+      </c>
+      <c r="H268">
+        <v>90</v>
+      </c>
+      <c r="K268">
+        <v>1</v>
+      </c>
+      <c r="L268">
+        <v>28</v>
+      </c>
+      <c r="M268" t="s">
+        <v>334</v>
+      </c>
+      <c r="N268" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="269" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A269" t="s">
+        <v>331</v>
+      </c>
+      <c r="B269" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="C269" s="2">
+        <v>7002551360604</v>
+      </c>
+      <c r="D269" t="s">
+        <v>335</v>
+      </c>
+      <c r="E269" s="1">
+        <v>43284.496527777781</v>
+      </c>
+      <c r="F269" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="N269" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="270" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A270" t="s">
+        <v>331</v>
+      </c>
+      <c r="B270" t="s">
+        <v>196</v>
+      </c>
+      <c r="C270" s="2">
+        <v>7002855360420</v>
+      </c>
+      <c r="D270" t="s">
+        <v>132</v>
+      </c>
+      <c r="E270" s="1">
+        <v>43284.509027777778</v>
+      </c>
+      <c r="F270" t="s">
+        <v>192</v>
+      </c>
+      <c r="G270">
+        <v>0.5</v>
+      </c>
+      <c r="H270">
+        <v>90</v>
+      </c>
+      <c r="K270">
+        <v>1</v>
+      </c>
+      <c r="L270">
+        <v>40</v>
+      </c>
+      <c r="M270" t="s">
+        <v>269</v>
+      </c>
+      <c r="N270" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="271" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A271" t="s">
+        <v>331</v>
+      </c>
+      <c r="B271" t="s">
+        <v>196</v>
+      </c>
+      <c r="C271" s="2">
+        <v>7002855360420</v>
+      </c>
+      <c r="D271" t="s">
+        <v>132</v>
+      </c>
+      <c r="E271" s="1">
+        <v>43284.509027777778</v>
+      </c>
+      <c r="F271" t="s">
+        <v>192</v>
+      </c>
+      <c r="G271">
+        <v>0.42</v>
+      </c>
+      <c r="H271">
+        <v>90</v>
+      </c>
+      <c r="K271">
+        <v>1</v>
+      </c>
+      <c r="L271">
+        <v>24</v>
+      </c>
+      <c r="M271" t="s">
+        <v>269</v>
+      </c>
+      <c r="N271" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="272" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A272" t="s">
+        <v>331</v>
+      </c>
+      <c r="B272" t="s">
+        <v>30</v>
+      </c>
+      <c r="C272" s="2">
+        <v>7002885360403</v>
+      </c>
+      <c r="D272" t="s">
         <v>134</v>
       </c>
-      <c r="C265" s="2">
-        <v>7003558361140</v>
-      </c>
-      <c r="D265" t="s">
+      <c r="E272" s="1">
+        <v>43284.511111111111</v>
+      </c>
+      <c r="F272" t="s">
+        <v>229</v>
+      </c>
+      <c r="G272">
+        <v>53.2</v>
+      </c>
+      <c r="H272">
+        <v>282</v>
+      </c>
+      <c r="L272">
+        <v>2</v>
+      </c>
+      <c r="N272" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="273" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A273" t="s">
+        <v>331</v>
+      </c>
+      <c r="B273" t="s">
+        <v>197</v>
+      </c>
+      <c r="C273" s="2">
+        <v>7003077360282</v>
+      </c>
+      <c r="D273" t="s">
         <v>135</v>
       </c>
-      <c r="E265" s="1">
-        <v>43284.481944444444</v>
-      </c>
-    </row>
-    <row r="266" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B266" t="s">
-        <v>136</v>
-      </c>
-      <c r="C266" s="2">
-        <v>7003118360900</v>
-      </c>
-      <c r="D266" t="s">
-        <v>137</v>
-      </c>
-      <c r="E266" s="1">
-        <v>43284.487500000003</v>
-      </c>
-    </row>
-    <row r="267" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B267" t="s">
-        <v>138</v>
-      </c>
-      <c r="C267" s="2">
-        <v>7002855360420</v>
-      </c>
-      <c r="D267" t="s">
-        <v>135</v>
-      </c>
-      <c r="E267" s="1">
-        <v>43284.509027777778</v>
-      </c>
-    </row>
-    <row r="268" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B268" t="s">
-        <v>139</v>
-      </c>
-      <c r="C268" s="2">
-        <v>7002885360403</v>
-      </c>
-      <c r="D268" t="s">
-        <v>140</v>
-      </c>
-      <c r="E268" s="1">
-        <v>43284.511111111111</v>
-      </c>
-    </row>
-    <row r="269" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B269" t="s">
-        <v>141</v>
-      </c>
-      <c r="C269" s="2">
+      <c r="E273" s="1">
+        <v>43284.51458333333</v>
+      </c>
+      <c r="F273" t="s">
+        <v>192</v>
+      </c>
+      <c r="G273">
+        <v>0.17</v>
+      </c>
+      <c r="H273">
+        <v>90</v>
+      </c>
+      <c r="K273">
+        <v>1</v>
+      </c>
+      <c r="L273">
+        <v>52</v>
+      </c>
+      <c r="M273" t="s">
+        <v>282</v>
+      </c>
+      <c r="N273" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="274" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A274" t="s">
+        <v>331</v>
+      </c>
+      <c r="B274" t="s">
+        <v>197</v>
+      </c>
+      <c r="C274" s="2">
         <v>7003077360282</v>
-      </c>
-      <c r="D269" t="s">
-        <v>142</v>
-      </c>
-      <c r="E269" s="1">
-        <v>43284.51458333333</v>
-      </c>
-    </row>
-    <row r="270" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B270" t="s">
-        <v>143</v>
-      </c>
-      <c r="C270" s="2">
-        <v>7004668359365</v>
-      </c>
-      <c r="D270" t="s">
-        <v>144</v>
-      </c>
-      <c r="E270" s="1">
-        <v>43284.538194444445</v>
-      </c>
-    </row>
-    <row r="271" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B271" t="s">
-        <v>145</v>
-      </c>
-      <c r="C271" s="2">
-        <v>7004947359182</v>
-      </c>
-      <c r="D271" t="s">
-        <v>146</v>
-      </c>
-      <c r="E271" s="1">
-        <v>43284.543055555558</v>
-      </c>
-    </row>
-    <row r="272" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B272" t="s">
-        <v>147</v>
-      </c>
-      <c r="C272" s="2">
-        <v>7005389358896</v>
-      </c>
-      <c r="D272" t="s">
-        <v>91</v>
-      </c>
-      <c r="E272" s="1">
-        <v>43284.55</v>
-      </c>
-    </row>
-    <row r="273" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B273" t="s">
-        <v>148</v>
-      </c>
-      <c r="C273" s="2">
-        <v>7005467358844</v>
-      </c>
-      <c r="D273" t="s">
-        <v>91</v>
-      </c>
-      <c r="E273" s="1">
-        <v>43284.552083333336</v>
-      </c>
-    </row>
-    <row r="274" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B274" t="s">
-        <v>149</v>
-      </c>
-      <c r="C274" s="2">
-        <v>7005608358776</v>
       </c>
       <c r="D274" t="s">
         <v>135</v>
       </c>
       <c r="E274" s="1">
+        <v>43284.51458333333</v>
+      </c>
+      <c r="F274" t="s">
+        <v>192</v>
+      </c>
+      <c r="G274">
+        <v>0.83</v>
+      </c>
+      <c r="H274">
+        <v>270</v>
+      </c>
+      <c r="K274">
+        <v>1</v>
+      </c>
+      <c r="L274">
+        <v>24</v>
+      </c>
+      <c r="M274" t="s">
+        <v>334</v>
+      </c>
+      <c r="N274" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="275" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A275" t="s">
+        <v>331</v>
+      </c>
+      <c r="B275" t="s">
+        <v>136</v>
+      </c>
+      <c r="C275" s="2">
+        <v>7004668359365</v>
+      </c>
+      <c r="D275" t="s">
+        <v>137</v>
+      </c>
+      <c r="E275" s="1">
+        <v>43284.538194444445</v>
+      </c>
+      <c r="F275" t="s">
+        <v>229</v>
+      </c>
+      <c r="G275">
+        <v>221.7</v>
+      </c>
+      <c r="H275">
+        <v>47</v>
+      </c>
+      <c r="L275">
+        <v>1</v>
+      </c>
+      <c r="M275" t="s">
+        <v>336</v>
+      </c>
+      <c r="N275" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="276" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A276" t="s">
+        <v>331</v>
+      </c>
+      <c r="B276" t="s">
+        <v>202</v>
+      </c>
+      <c r="C276" s="2">
+        <v>7004947359182</v>
+      </c>
+      <c r="D276" t="s">
+        <v>138</v>
+      </c>
+      <c r="E276" s="1">
+        <v>43284.543055555558</v>
+      </c>
+      <c r="F276" t="s">
+        <v>192</v>
+      </c>
+      <c r="G276">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="H276">
+        <v>90</v>
+      </c>
+      <c r="K276">
+        <v>1</v>
+      </c>
+      <c r="L276">
+        <v>4</v>
+      </c>
+      <c r="M276" t="s">
+        <v>282</v>
+      </c>
+      <c r="N276" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="277" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A277" t="s">
+        <v>331</v>
+      </c>
+      <c r="B277" t="s">
+        <v>203</v>
+      </c>
+      <c r="C277" s="2">
+        <v>7005389358896</v>
+      </c>
+      <c r="D277" t="s">
+        <v>91</v>
+      </c>
+      <c r="E277" s="1">
+        <v>43284.55</v>
+      </c>
+      <c r="F277" t="s">
+        <v>192</v>
+      </c>
+      <c r="G277">
+        <v>0.06</v>
+      </c>
+      <c r="H277">
+        <v>270</v>
+      </c>
+      <c r="K277">
+        <v>1</v>
+      </c>
+      <c r="L277">
+        <v>2</v>
+      </c>
+      <c r="M277" t="s">
+        <v>241</v>
+      </c>
+      <c r="N277" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="278" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A278" t="s">
+        <v>331</v>
+      </c>
+      <c r="B278" t="s">
+        <v>203</v>
+      </c>
+      <c r="C278" s="2">
+        <v>7005389358896</v>
+      </c>
+      <c r="D278" t="s">
+        <v>91</v>
+      </c>
+      <c r="E278" s="1">
+        <v>43284.55</v>
+      </c>
+      <c r="F278" t="s">
+        <v>192</v>
+      </c>
+      <c r="G278">
+        <v>0.64</v>
+      </c>
+      <c r="H278">
+        <v>270</v>
+      </c>
+      <c r="K278">
+        <v>1</v>
+      </c>
+      <c r="L278">
+        <v>3</v>
+      </c>
+      <c r="M278" t="s">
+        <v>337</v>
+      </c>
+      <c r="N278" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="279" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A279" t="s">
+        <v>331</v>
+      </c>
+      <c r="B279" t="s">
+        <v>204</v>
+      </c>
+      <c r="C279" s="2">
+        <v>7005467358844</v>
+      </c>
+      <c r="D279" t="s">
+        <v>91</v>
+      </c>
+      <c r="E279" s="1">
+        <v>43284.552083333336</v>
+      </c>
+      <c r="F279" t="s">
+        <v>192</v>
+      </c>
+      <c r="G279">
+        <v>0.02</v>
+      </c>
+      <c r="H279">
+        <v>90</v>
+      </c>
+      <c r="K279">
+        <v>1</v>
+      </c>
+      <c r="L279">
+        <v>35</v>
+      </c>
+      <c r="M279" t="s">
+        <v>338</v>
+      </c>
+      <c r="N279" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="280" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A280" t="s">
+        <v>331</v>
+      </c>
+      <c r="B280" t="s">
+        <v>205</v>
+      </c>
+      <c r="C280" s="2">
+        <v>7005608358776</v>
+      </c>
+      <c r="D280" t="s">
+        <v>132</v>
+      </c>
+      <c r="E280" s="1">
         <v>43284.554861111108</v>
       </c>
-    </row>
-    <row r="275" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B275" t="s">
+      <c r="F280" t="s">
+        <v>192</v>
+      </c>
+      <c r="G280">
+        <v>0.05</v>
+      </c>
+      <c r="H280">
+        <v>270</v>
+      </c>
+      <c r="K280">
+        <v>1</v>
+      </c>
+      <c r="L280">
+        <v>2</v>
+      </c>
+      <c r="M280" t="s">
+        <v>241</v>
+      </c>
+      <c r="N280" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="281" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A281" t="s">
+        <v>331</v>
+      </c>
+      <c r="B281" t="s">
+        <v>205</v>
+      </c>
+      <c r="C281" s="2">
+        <v>7005608358776</v>
+      </c>
+      <c r="D281" t="s">
+        <v>132</v>
+      </c>
+      <c r="E281" s="1">
+        <v>43284.554861111108</v>
+      </c>
+      <c r="F281" t="s">
+        <v>192</v>
+      </c>
+      <c r="G281">
+        <v>0.38</v>
+      </c>
+      <c r="H281">
+        <v>90</v>
+      </c>
+      <c r="K281">
+        <v>1</v>
+      </c>
+      <c r="L281">
+        <v>1</v>
+      </c>
+      <c r="M281" t="s">
+        <v>241</v>
+      </c>
+      <c r="N281" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="282" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A282" t="s">
+        <v>331</v>
+      </c>
+      <c r="B282" t="s">
+        <v>206</v>
+      </c>
+      <c r="C282" s="2">
+        <v>7005953358605</v>
+      </c>
+      <c r="D282" t="s">
+        <v>139</v>
+      </c>
+      <c r="E282" s="1">
+        <v>43284.561111111114</v>
+      </c>
+      <c r="F282" t="s">
+        <v>192</v>
+      </c>
+      <c r="G282">
+        <v>0.1</v>
+      </c>
+      <c r="H282">
+        <v>90</v>
+      </c>
+      <c r="K282">
+        <v>1</v>
+      </c>
+      <c r="L282">
+        <v>20</v>
+      </c>
+      <c r="M282" t="s">
+        <v>269</v>
+      </c>
+      <c r="N282" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="283" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A283" t="s">
+        <v>331</v>
+      </c>
+      <c r="B283" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="C283" s="2">
+        <v>7006048358564</v>
+      </c>
+      <c r="D283" t="s">
+        <v>339</v>
+      </c>
+      <c r="E283" s="1">
+        <v>43284.5625</v>
+      </c>
+      <c r="F283" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="N283" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="284" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A284" t="s">
+        <v>331</v>
+      </c>
+      <c r="B284" t="s">
+        <v>209</v>
+      </c>
+      <c r="C284" s="2">
+        <v>7005947359962</v>
+      </c>
+      <c r="D284" t="s">
+        <v>43</v>
+      </c>
+      <c r="E284" s="1">
+        <v>43284.581250000003</v>
+      </c>
+      <c r="F284" t="s">
+        <v>192</v>
+      </c>
+      <c r="G284">
+        <v>0.08</v>
+      </c>
+      <c r="H284">
+        <v>90</v>
+      </c>
+      <c r="K284">
+        <v>1</v>
+      </c>
+      <c r="L284">
+        <v>1</v>
+      </c>
+      <c r="M284" t="s">
+        <v>241</v>
+      </c>
+      <c r="N284" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="285" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A285" t="s">
+        <v>331</v>
+      </c>
+      <c r="B285" t="s">
+        <v>210</v>
+      </c>
+      <c r="C285" s="2">
+        <v>7005968360361</v>
+      </c>
+      <c r="D285" t="s">
+        <v>43</v>
+      </c>
+      <c r="E285" s="1">
+        <v>43284.585416666669</v>
+      </c>
+      <c r="F285" t="s">
+        <v>192</v>
+      </c>
+      <c r="G285">
+        <v>0.59</v>
+      </c>
+      <c r="H285">
+        <v>270</v>
+      </c>
+      <c r="K285">
+        <v>1</v>
+      </c>
+      <c r="L285">
+        <v>2</v>
+      </c>
+      <c r="M285" t="s">
+        <v>241</v>
+      </c>
+      <c r="N285" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="286" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A286" t="s">
+        <v>331</v>
+      </c>
+      <c r="B286" t="s">
+        <v>211</v>
+      </c>
+      <c r="C286" s="2">
+        <v>7005953361950</v>
+      </c>
+      <c r="D286" t="s">
+        <v>120</v>
+      </c>
+      <c r="E286" s="1">
+        <v>43284.602777777778</v>
+      </c>
+      <c r="F286" t="s">
+        <v>192</v>
+      </c>
+      <c r="G286">
+        <v>0.09</v>
+      </c>
+      <c r="H286">
+        <v>270</v>
+      </c>
+      <c r="K286">
+        <v>1</v>
+      </c>
+      <c r="L286">
+        <v>14</v>
+      </c>
+      <c r="M286" t="s">
+        <v>337</v>
+      </c>
+      <c r="N286" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="287" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A287" t="s">
+        <v>331</v>
+      </c>
+      <c r="B287" s="3" t="s">
+        <v>332</v>
+      </c>
+      <c r="C287" s="2">
+        <v>7005963362616</v>
+      </c>
+      <c r="D287" t="s">
+        <v>167</v>
+      </c>
+      <c r="E287" s="1">
+        <v>43284.61041666667</v>
+      </c>
+      <c r="F287" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="N287" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="293" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B293" t="s">
+        <v>140</v>
+      </c>
+      <c r="C293" s="2">
+        <v>7004327359068</v>
+      </c>
+      <c r="D293" t="s">
+        <v>141</v>
+      </c>
+      <c r="E293" s="1">
+        <v>43285.468055555553</v>
+      </c>
+    </row>
+    <row r="294" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B294" t="s">
+        <v>142</v>
+      </c>
+      <c r="C294" s="2">
+        <v>7004323359062</v>
+      </c>
+      <c r="D294" t="s">
+        <v>143</v>
+      </c>
+      <c r="E294" s="1">
+        <v>43285.469444444447</v>
+      </c>
+    </row>
+    <row r="295" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B295" t="s">
+        <v>144</v>
+      </c>
+      <c r="C295" s="2">
+        <v>7004287358905</v>
+      </c>
+      <c r="D295" t="s">
+        <v>145</v>
+      </c>
+      <c r="E295" s="1">
+        <v>43285.472916666666</v>
+      </c>
+    </row>
+    <row r="296" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B296" t="s">
+        <v>146</v>
+      </c>
+      <c r="C296" s="2">
+        <v>7004221358773</v>
+      </c>
+      <c r="D296" t="s">
+        <v>147</v>
+      </c>
+      <c r="E296" s="1">
+        <v>43285.479861111111</v>
+      </c>
+    </row>
+    <row r="297" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B297" t="s">
+        <v>148</v>
+      </c>
+      <c r="C297" s="2">
+        <v>7003851357814</v>
+      </c>
+      <c r="D297" t="s">
+        <v>149</v>
+      </c>
+      <c r="E297" s="1">
+        <v>43285.495833333334</v>
+      </c>
+    </row>
+    <row r="298" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B298" t="s">
         <v>150</v>
       </c>
-      <c r="C275" s="2">
-        <v>7005953358605</v>
-      </c>
-      <c r="D275" t="s">
+      <c r="C298" s="2">
+        <v>7003591357126</v>
+      </c>
+      <c r="D298" t="s">
         <v>151</v>
       </c>
-      <c r="E275" s="1">
-        <v>43284.561111111114</v>
-      </c>
-    </row>
-    <row r="276" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B276" t="s">
+      <c r="E298" s="1">
+        <v>43285.505555555559</v>
+      </c>
+    </row>
+    <row r="299" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B299" t="s">
         <v>152</v>
       </c>
-      <c r="C276" s="2">
-        <v>7005947359962</v>
-      </c>
-      <c r="D276" t="s">
-        <v>43</v>
-      </c>
-      <c r="E276" s="1">
-        <v>43284.581250000003</v>
-      </c>
-    </row>
-    <row r="277" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B277" t="s">
+      <c r="C299" s="2">
+        <v>7003588357121</v>
+      </c>
+      <c r="D299" t="s">
         <v>153</v>
       </c>
-      <c r="C277" s="2">
-        <v>7005968360361</v>
-      </c>
-      <c r="D277" t="s">
-        <v>43</v>
-      </c>
-      <c r="E277" s="1">
-        <v>43284.585416666669</v>
-      </c>
-    </row>
-    <row r="278" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B278" t="s">
+      <c r="E299" s="1">
+        <v>43285.507638888892</v>
+      </c>
+    </row>
+    <row r="300" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B300" t="s">
         <v>154</v>
       </c>
-      <c r="C278" s="2">
-        <v>7005953361950</v>
-      </c>
-      <c r="D278" t="s">
-        <v>120</v>
-      </c>
-      <c r="E278" s="1">
-        <v>43284.602777777778</v>
-      </c>
-    </row>
-    <row r="279" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B279" t="s">
+      <c r="C300" s="2">
+        <v>7003563357072</v>
+      </c>
+      <c r="D300" t="s">
         <v>155</v>
       </c>
-      <c r="C279" s="2">
-        <v>7004327359068</v>
-      </c>
-      <c r="D279" t="s">
+      <c r="E300" s="1">
+        <v>43285.509722222225</v>
+      </c>
+    </row>
+    <row r="301" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B301" t="s">
         <v>156</v>
       </c>
-      <c r="E279" s="1">
-        <v>43285.468055555553</v>
-      </c>
-    </row>
-    <row r="280" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B280" t="s">
+      <c r="C301" s="2">
+        <v>7003167356300</v>
+      </c>
+      <c r="D301" t="s">
         <v>157</v>
       </c>
-      <c r="C280" s="2">
-        <v>7004323359062</v>
-      </c>
-      <c r="D280" t="s">
+      <c r="E301" s="1">
+        <v>43285.520138888889</v>
+      </c>
+    </row>
+    <row r="302" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B302" t="s">
         <v>158</v>
       </c>
-      <c r="E280" s="1">
-        <v>43285.469444444447</v>
-      </c>
-    </row>
-    <row r="281" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B281" t="s">
+      <c r="C302" s="2">
+        <v>7003070356094</v>
+      </c>
+      <c r="D302" t="s">
         <v>159</v>
       </c>
-      <c r="C281" s="2">
-        <v>7004287358905</v>
-      </c>
-      <c r="D281" t="s">
+      <c r="E302" s="1">
+        <v>43285.525000000001</v>
+      </c>
+    </row>
+    <row r="303" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B303" t="s">
         <v>160</v>
       </c>
-      <c r="E281" s="1">
-        <v>43285.472916666666</v>
-      </c>
-    </row>
-    <row r="282" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B282" t="s">
+      <c r="C303" s="2">
+        <v>7002942355831</v>
+      </c>
+      <c r="D303" t="s">
         <v>161</v>
       </c>
-      <c r="C282" s="2">
-        <v>7004221358773</v>
-      </c>
-      <c r="D282" t="s">
+      <c r="E303" s="1">
+        <v>43285.529166666667</v>
+      </c>
+    </row>
+    <row r="304" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B304" t="s">
         <v>162</v>
       </c>
-      <c r="E282" s="1">
-        <v>43285.479861111111</v>
-      </c>
-    </row>
-    <row r="283" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B283" t="s">
+      <c r="C304" s="2">
+        <v>7002927355804</v>
+      </c>
+      <c r="D304" t="s">
         <v>163</v>
       </c>
-      <c r="C283" s="2">
-        <v>7003851357814</v>
-      </c>
-      <c r="D283" t="s">
+      <c r="E304" s="1">
+        <v>43285.530555555553</v>
+      </c>
+    </row>
+    <row r="305" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B305" t="s">
         <v>164</v>
       </c>
-      <c r="E283" s="1">
-        <v>43285.495833333334</v>
-      </c>
-    </row>
-    <row r="284" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B284" t="s">
+      <c r="C305" s="2">
+        <v>7003815355805</v>
+      </c>
+      <c r="D305" t="s">
         <v>165</v>
       </c>
-      <c r="C284" s="2">
-        <v>7003591357126</v>
-      </c>
-      <c r="D284" t="s">
+      <c r="E305" s="1">
+        <v>43285.582638888889</v>
+      </c>
+    </row>
+    <row r="306" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B306" t="s">
         <v>166</v>
       </c>
-      <c r="E284" s="1">
-        <v>43285.505555555559</v>
-      </c>
-    </row>
-    <row r="285" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B285" t="s">
+      <c r="C306" s="2">
+        <v>7003868355815</v>
+      </c>
+      <c r="D306" t="s">
         <v>167</v>
       </c>
-      <c r="C285" s="2">
-        <v>7003588357121</v>
-      </c>
-      <c r="D285" t="s">
+      <c r="E306" s="1">
+        <v>43285.584027777775</v>
+      </c>
+    </row>
+    <row r="307" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B307" t="s">
         <v>168</v>
       </c>
-      <c r="E285" s="1">
-        <v>43285.507638888892</v>
-      </c>
-    </row>
-    <row r="286" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B286" t="s">
+      <c r="C307" s="2">
+        <v>7004676355956</v>
+      </c>
+      <c r="D307" t="s">
         <v>169</v>
       </c>
-      <c r="C286" s="2">
-        <v>7003563357072</v>
-      </c>
-      <c r="D286" t="s">
+      <c r="E307" s="1">
+        <v>43285.595138888886</v>
+      </c>
+    </row>
+    <row r="308" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B308" t="s">
         <v>170</v>
       </c>
-      <c r="E286" s="1">
-        <v>43285.509722222225</v>
-      </c>
-    </row>
-    <row r="287" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B287" t="s">
+      <c r="C308" s="2">
+        <v>7005109356038</v>
+      </c>
+      <c r="D308" t="s">
         <v>171</v>
       </c>
-      <c r="C287" s="2">
-        <v>7003167356300</v>
-      </c>
-      <c r="D287" t="s">
+      <c r="E308" s="1">
+        <v>43285.602083333331</v>
+      </c>
+    </row>
+    <row r="309" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B309" t="s">
         <v>172</v>
       </c>
-      <c r="E287" s="1">
-        <v>43285.520138888889</v>
-      </c>
-    </row>
-    <row r="288" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B288" t="s">
+      <c r="C309" s="2">
+        <v>7005919356186</v>
+      </c>
+      <c r="D309" t="s">
         <v>173</v>
       </c>
-      <c r="C288" s="2">
-        <v>7003070356094</v>
-      </c>
-      <c r="D288" t="s">
+      <c r="E309" s="1">
+        <v>43285.617361111108</v>
+      </c>
+    </row>
+    <row r="310" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B310" t="s">
         <v>174</v>
       </c>
-      <c r="E288" s="1">
-        <v>43285.525000000001</v>
-      </c>
-    </row>
-    <row r="289" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B289" t="s">
+      <c r="C310" s="2">
+        <v>7006690356269</v>
+      </c>
+      <c r="D310" t="s">
         <v>175</v>
       </c>
-      <c r="C289" s="2">
-        <v>7002942355831</v>
-      </c>
-      <c r="D289" t="s">
+      <c r="E310" s="1">
+        <v>43285.634722222225</v>
+      </c>
+    </row>
+    <row r="311" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B311" t="s">
         <v>176</v>
       </c>
-      <c r="E289" s="1">
-        <v>43285.529166666667</v>
-      </c>
-    </row>
-    <row r="290" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B290" t="s">
+      <c r="C311" s="2">
+        <v>7006735356287</v>
+      </c>
+      <c r="D311" t="s">
         <v>177</v>
       </c>
-      <c r="C290" s="2">
-        <v>7002927355804</v>
-      </c>
-      <c r="D290" t="s">
+      <c r="E311" s="1">
+        <v>43285.638194444444</v>
+      </c>
+    </row>
+    <row r="312" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B312" t="s">
         <v>178</v>
       </c>
-      <c r="E290" s="1">
-        <v>43285.530555555553</v>
-      </c>
-    </row>
-    <row r="291" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B291" t="s">
+      <c r="C312" s="2">
+        <v>7006631356457</v>
+      </c>
+      <c r="D312" t="s">
         <v>179</v>
       </c>
-      <c r="C291" s="2">
-        <v>7003815355805</v>
-      </c>
-      <c r="D291" t="s">
+      <c r="E312" s="1">
+        <v>43285.645833333336</v>
+      </c>
+    </row>
+    <row r="313" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B313" t="s">
         <v>180</v>
       </c>
-      <c r="E291" s="1">
-        <v>43285.582638888889</v>
-      </c>
-    </row>
-    <row r="292" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B292" t="s">
+      <c r="C313" s="2">
+        <v>7006501356636</v>
+      </c>
+      <c r="D313" t="s">
         <v>181</v>
       </c>
-      <c r="C292" s="2">
-        <v>7003868355815</v>
-      </c>
-      <c r="D292" t="s">
+      <c r="E313" s="1">
+        <v>43285.649305555555</v>
+      </c>
+    </row>
+    <row r="314" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B314" t="s">
         <v>182</v>
       </c>
-      <c r="E292" s="1">
-        <v>43285.584027777775</v>
-      </c>
-    </row>
-    <row r="293" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B293" t="s">
+      <c r="C314" s="2">
+        <v>7005394357987</v>
+      </c>
+      <c r="D314" t="s">
+        <v>139</v>
+      </c>
+      <c r="E314" s="1">
+        <v>43285.668749999997</v>
+      </c>
+    </row>
+    <row r="315" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B315" t="s">
         <v>183</v>
       </c>
-      <c r="C293" s="2">
-        <v>7004676355956</v>
-      </c>
-      <c r="D293" t="s">
+      <c r="C315" s="2">
+        <v>7004438359158</v>
+      </c>
+      <c r="D315" t="s">
         <v>184</v>
       </c>
-      <c r="E293" s="1">
-        <v>43285.595138888886</v>
-      </c>
-    </row>
-    <row r="294" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B294" t="s">
+      <c r="E315" s="1">
+        <v>43285.722916666666</v>
+      </c>
+    </row>
+    <row r="316" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A316" t="s">
         <v>185</v>
       </c>
-      <c r="C294" s="2">
-        <v>7005109356038</v>
-      </c>
-      <c r="D294" t="s">
-        <v>186</v>
-      </c>
-      <c r="E294" s="1">
-        <v>43285.602083333331</v>
-      </c>
-    </row>
-    <row r="295" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B295" t="s">
-        <v>187</v>
-      </c>
-      <c r="C295" s="2">
-        <v>7005919356186</v>
-      </c>
-      <c r="D295" t="s">
-        <v>188</v>
-      </c>
-      <c r="E295" s="1">
-        <v>43285.617361111108</v>
-      </c>
-    </row>
-    <row r="296" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B296" t="s">
-        <v>189</v>
-      </c>
-      <c r="C296" s="2">
-        <v>7006690356269</v>
-      </c>
-      <c r="D296" t="s">
-        <v>190</v>
-      </c>
-      <c r="E296" s="1">
-        <v>43285.634722222225</v>
-      </c>
-    </row>
-    <row r="297" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B297" t="s">
-        <v>191</v>
-      </c>
-      <c r="C297" s="2">
-        <v>7006735356287</v>
-      </c>
-      <c r="D297" t="s">
-        <v>192</v>
-      </c>
-      <c r="E297" s="1">
-        <v>43285.638194444444</v>
-      </c>
-    </row>
-    <row r="298" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B298" t="s">
-        <v>193</v>
-      </c>
-      <c r="C298" s="2">
-        <v>7006631356457</v>
-      </c>
-      <c r="D298" t="s">
-        <v>194</v>
-      </c>
-      <c r="E298" s="1">
-        <v>43285.645833333336</v>
-      </c>
-    </row>
-    <row r="299" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B299" t="s">
-        <v>195</v>
-      </c>
-      <c r="C299" s="2">
-        <v>7006501356636</v>
-      </c>
-      <c r="D299" t="s">
-        <v>196</v>
-      </c>
-      <c r="E299" s="1">
-        <v>43285.649305555555</v>
-      </c>
-    </row>
-    <row r="300" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B300" t="s">
-        <v>197</v>
-      </c>
-      <c r="C300" s="2">
-        <v>7005394357987</v>
-      </c>
-      <c r="D300" t="s">
-        <v>151</v>
-      </c>
-      <c r="E300" s="1">
-        <v>43285.668749999997</v>
-      </c>
-    </row>
-    <row r="301" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B301" t="s">
-        <v>198</v>
-      </c>
-      <c r="C301" s="2">
-        <v>7004438359158</v>
-      </c>
-      <c r="D301" t="s">
-        <v>199</v>
-      </c>
-      <c r="E301" s="1">
-        <v>43285.722916666666</v>
-      </c>
-    </row>
-    <row r="302" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A302" t="s">
-        <v>200</v>
-      </c>
-      <c r="B302" t="s">
-        <v>200</v>
-      </c>
-      <c r="C302" t="s">
-        <v>200</v>
-      </c>
-      <c r="D302" t="s">
-        <v>200</v>
-      </c>
-      <c r="E302" t="s">
-        <v>200</v>
+      <c r="B316" t="s">
+        <v>185</v>
+      </c>
+      <c r="C316" t="s">
+        <v>185</v>
+      </c>
+      <c r="D316" t="s">
+        <v>185</v>
+      </c>
+      <c r="E316" t="s">
+        <v>185</v>
       </c>
     </row>
   </sheetData>

--- a/Rawdata/tor.riptransekter helags sommar 2018.xlsx
+++ b/Rawdata/tor.riptransekter helags sommar 2018.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1625" uniqueCount="340">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1760" uniqueCount="327">
   <si>
     <t>lya</t>
   </si>
@@ -446,93 +446,48 @@
     <t>895 m</t>
   </si>
   <si>
-    <t>RS1271</t>
-  </si>
-  <si>
     <t>838 m</t>
   </si>
   <si>
-    <t>RS2151</t>
-  </si>
-  <si>
     <t>837 m</t>
   </si>
   <si>
-    <t>D111</t>
-  </si>
-  <si>
     <t>839 m</t>
   </si>
   <si>
-    <t>RS391</t>
-  </si>
-  <si>
     <t>842 m</t>
   </si>
   <si>
-    <t>RS491</t>
-  </si>
-  <si>
     <t>856 m</t>
   </si>
   <si>
-    <t>RS591</t>
-  </si>
-  <si>
     <t>851 m</t>
   </si>
   <si>
-    <t>RS691</t>
-  </si>
-  <si>
     <t>853 m</t>
   </si>
   <si>
-    <t>RS791</t>
-  </si>
-  <si>
     <t>855 m</t>
   </si>
   <si>
-    <t>RS871</t>
-  </si>
-  <si>
     <t>825 m</t>
   </si>
   <si>
-    <t>RS971</t>
-  </si>
-  <si>
     <t>815 m</t>
   </si>
   <si>
-    <t>RS1071</t>
-  </si>
-  <si>
     <t>794 m</t>
   </si>
   <si>
-    <t>RS11121</t>
-  </si>
-  <si>
     <t>793 m</t>
   </si>
   <si>
-    <t>RS1281</t>
-  </si>
-  <si>
     <t>831 m</t>
   </si>
   <si>
-    <t>RS1371</t>
-  </si>
-  <si>
     <t>834 m</t>
   </si>
   <si>
-    <t>D25</t>
-  </si>
-  <si>
     <t>858 m</t>
   </si>
   <si>
@@ -542,48 +497,27 @@
     <t>836 m</t>
   </si>
   <si>
-    <t>FJALLVRAK31</t>
-  </si>
-  <si>
     <t>861 m</t>
   </si>
   <si>
-    <t>FALK1</t>
-  </si>
-  <si>
     <t>961 m</t>
   </si>
   <si>
-    <t>RS1461</t>
-  </si>
-  <si>
     <t>967 m</t>
   </si>
   <si>
-    <t>RS1551</t>
-  </si>
-  <si>
     <t>977 m</t>
   </si>
   <si>
-    <t>RS1641</t>
-  </si>
-  <si>
     <t>950 m</t>
   </si>
   <si>
-    <t>RS1741</t>
-  </si>
-  <si>
     <t>SLUT2</t>
   </si>
   <si>
     <t>833 m</t>
   </si>
   <si>
-    <t>hit</t>
-  </si>
-  <si>
     <t>zz104</t>
   </si>
   <si>
@@ -1043,7 +977,34 @@
     <t>ljus, i klumpar, oformliga</t>
   </si>
   <si>
+    <t>zz076</t>
+  </si>
+  <si>
+    <t>783 m</t>
+  </si>
+  <si>
     <t>905 m</t>
+  </si>
+  <si>
+    <t>mulet, vind 1-2 m/s, 10°C</t>
+  </si>
+  <si>
+    <t>STARTZZ076</t>
+  </si>
+  <si>
+    <t>ljusbrun, oformliga</t>
+  </si>
+  <si>
+    <t>soligt varmt, vind 1-2 m/s</t>
+  </si>
+  <si>
+    <t>D2</t>
+  </si>
+  <si>
+    <t>dessutom 7 till 8 kycklingar</t>
+  </si>
+  <si>
+    <t>brun, oformlig</t>
   </si>
 </sst>
 </file>
@@ -1398,11 +1359,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7481D24-4BBD-9743-96A3-63B52605E732}">
-  <dimension ref="A1:O316"/>
+  <dimension ref="A1:O323"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A285" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A293" sqref="A293:E316"/>
+      <pane ySplit="1" topLeftCell="A304" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G323" sqref="G323"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1437,7 +1398,7 @@
         <v>7</v>
       </c>
       <c r="I1" t="s">
-        <v>273</v>
+        <v>251</v>
       </c>
       <c r="J1" t="s">
         <v>8</v>
@@ -1460,33 +1421,33 @@
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>186</v>
+        <v>164</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>187</v>
+        <v>165</v>
       </c>
       <c r="C2" s="2">
         <v>6976680377753</v>
       </c>
       <c r="D2" t="s">
-        <v>188</v>
+        <v>166</v>
       </c>
       <c r="E2" s="1">
         <v>43271.520833333336</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>190</v>
+        <v>168</v>
       </c>
       <c r="N2" t="s">
-        <v>213</v>
+        <v>191</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>186</v>
+        <v>164</v>
       </c>
       <c r="B3" t="s">
-        <v>191</v>
+        <v>169</v>
       </c>
       <c r="C3" s="2">
         <v>6976296377160</v>
@@ -1498,7 +1459,7 @@
         <v>43271.53125</v>
       </c>
       <c r="F3" t="s">
-        <v>192</v>
+        <v>170</v>
       </c>
       <c r="G3">
         <v>2.42</v>
@@ -1513,18 +1474,18 @@
         <v>2</v>
       </c>
       <c r="M3" t="s">
-        <v>212</v>
+        <v>190</v>
       </c>
       <c r="N3" t="s">
-        <v>213</v>
+        <v>191</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>186</v>
+        <v>164</v>
       </c>
       <c r="B4" t="s">
-        <v>193</v>
+        <v>171</v>
       </c>
       <c r="C4" s="2">
         <v>6976013376681</v>
@@ -1536,7 +1497,7 @@
         <v>43271.539583333331</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>192</v>
+        <v>170</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -1551,18 +1512,18 @@
         <v>17</v>
       </c>
       <c r="M4" t="s">
-        <v>214</v>
+        <v>192</v>
       </c>
       <c r="N4" t="s">
-        <v>213</v>
+        <v>191</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>186</v>
+        <v>164</v>
       </c>
       <c r="B5" t="s">
-        <v>194</v>
+        <v>172</v>
       </c>
       <c r="C5" s="2">
         <v>6975623376165</v>
@@ -1574,7 +1535,7 @@
         <v>43271.549305555556</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>192</v>
+        <v>170</v>
       </c>
       <c r="G5">
         <v>0.89</v>
@@ -1589,18 +1550,18 @@
         <v>3</v>
       </c>
       <c r="M5" t="s">
-        <v>214</v>
+        <v>192</v>
       </c>
       <c r="N5" t="s">
-        <v>213</v>
+        <v>191</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>186</v>
+        <v>164</v>
       </c>
       <c r="B6" t="s">
-        <v>195</v>
+        <v>173</v>
       </c>
       <c r="C6" s="2">
         <v>6975398375851</v>
@@ -1612,7 +1573,7 @@
         <v>43271.554861111108</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>192</v>
+        <v>170</v>
       </c>
       <c r="G6">
         <v>2.5299999999999998</v>
@@ -1627,18 +1588,18 @@
         <v>21</v>
       </c>
       <c r="M6" t="s">
-        <v>215</v>
+        <v>193</v>
       </c>
       <c r="N6" t="s">
-        <v>213</v>
+        <v>191</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>186</v>
+        <v>164</v>
       </c>
       <c r="B7" t="s">
-        <v>196</v>
+        <v>174</v>
       </c>
       <c r="C7" s="2">
         <v>6975378375815</v>
@@ -1650,7 +1611,7 @@
         <v>43271.556944444441</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>192</v>
+        <v>170</v>
       </c>
       <c r="G7">
         <v>0.02</v>
@@ -1665,18 +1626,18 @@
         <v>32</v>
       </c>
       <c r="M7" t="s">
-        <v>216</v>
+        <v>194</v>
       </c>
       <c r="N7" t="s">
-        <v>213</v>
+        <v>191</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>186</v>
+        <v>164</v>
       </c>
       <c r="B8" t="s">
-        <v>197</v>
+        <v>175</v>
       </c>
       <c r="C8" s="2">
         <v>6975015375406</v>
@@ -1688,7 +1649,7 @@
         <v>43271.563888888886</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>192</v>
+        <v>170</v>
       </c>
       <c r="G8">
         <v>0.35</v>
@@ -1700,44 +1661,44 @@
         <v>2</v>
       </c>
       <c r="L8" t="s">
-        <v>217</v>
+        <v>195</v>
       </c>
       <c r="M8" t="s">
-        <v>218</v>
+        <v>196</v>
       </c>
       <c r="N8" t="s">
-        <v>213</v>
+        <v>191</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>186</v>
+        <v>164</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>198</v>
+        <v>176</v>
       </c>
       <c r="C9" s="2">
         <v>6974207374604</v>
       </c>
       <c r="D9" t="s">
-        <v>199</v>
+        <v>177</v>
       </c>
       <c r="E9" s="1">
         <v>43271.579861111109</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>189</v>
+        <v>167</v>
       </c>
       <c r="N9" t="s">
-        <v>213</v>
+        <v>191</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>186</v>
+        <v>164</v>
       </c>
       <c r="B10" t="s">
-        <v>200</v>
+        <v>178</v>
       </c>
       <c r="C10" s="2">
         <v>6977240373959</v>
@@ -1749,18 +1710,18 @@
         <v>43271.618055555555</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>201</v>
+        <v>179</v>
       </c>
       <c r="N10" t="s">
-        <v>213</v>
+        <v>191</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>186</v>
+        <v>164</v>
       </c>
       <c r="B11" t="s">
-        <v>202</v>
+        <v>180</v>
       </c>
       <c r="C11" s="2">
         <v>6977315373891</v>
@@ -1772,7 +1733,7 @@
         <v>43271.619444444441</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>192</v>
+        <v>170</v>
       </c>
       <c r="G11">
         <v>0.43</v>
@@ -1787,18 +1748,18 @@
         <v>1</v>
       </c>
       <c r="M11" t="s">
-        <v>219</v>
+        <v>197</v>
       </c>
       <c r="N11" t="s">
-        <v>213</v>
+        <v>191</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>186</v>
+        <v>164</v>
       </c>
       <c r="B12" t="s">
-        <v>200</v>
+        <v>178</v>
       </c>
       <c r="C12" s="2">
         <v>6977394373829</v>
@@ -1810,18 +1771,18 @@
         <v>43271.62222222222</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>201</v>
+        <v>179</v>
       </c>
       <c r="N12" t="s">
-        <v>213</v>
+        <v>191</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>186</v>
+        <v>164</v>
       </c>
       <c r="B13" t="s">
-        <v>203</v>
+        <v>181</v>
       </c>
       <c r="C13" s="2">
         <v>6977624373925</v>
@@ -1833,7 +1794,7 @@
         <v>43271.625694444447</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>192</v>
+        <v>170</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -1848,18 +1809,18 @@
         <v>2</v>
       </c>
       <c r="M13" t="s">
-        <v>220</v>
+        <v>198</v>
       </c>
       <c r="N13" t="s">
-        <v>213</v>
+        <v>191</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>186</v>
+        <v>164</v>
       </c>
       <c r="B14" t="s">
-        <v>200</v>
+        <v>178</v>
       </c>
       <c r="C14" s="2">
         <v>6977758373979</v>
@@ -1871,18 +1832,18 @@
         <v>43271.628472222219</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>201</v>
+        <v>179</v>
       </c>
       <c r="N14" t="s">
-        <v>213</v>
+        <v>191</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>186</v>
+        <v>164</v>
       </c>
       <c r="B15" t="s">
-        <v>204</v>
+        <v>182</v>
       </c>
       <c r="C15" s="2">
         <v>6977791373973</v>
@@ -1894,7 +1855,7 @@
         <v>43271.629861111112</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>192</v>
+        <v>170</v>
       </c>
       <c r="G15">
         <v>0.39</v>
@@ -1909,18 +1870,18 @@
         <v>27</v>
       </c>
       <c r="M15" t="s">
-        <v>221</v>
+        <v>199</v>
       </c>
       <c r="N15" t="s">
-        <v>213</v>
+        <v>191</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>186</v>
+        <v>164</v>
       </c>
       <c r="B16" t="s">
-        <v>205</v>
+        <v>183</v>
       </c>
       <c r="C16" s="2">
         <v>6977844373969</v>
@@ -1932,7 +1893,7 @@
         <v>43271.631944444445</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>192</v>
+        <v>170</v>
       </c>
       <c r="G16">
         <v>0</v>
@@ -1947,18 +1908,18 @@
         <v>1</v>
       </c>
       <c r="M16" t="s">
-        <v>222</v>
+        <v>200</v>
       </c>
       <c r="N16" t="s">
-        <v>213</v>
+        <v>191</v>
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>186</v>
+        <v>164</v>
       </c>
       <c r="B17" t="s">
-        <v>206</v>
+        <v>184</v>
       </c>
       <c r="C17" s="2">
         <v>6978044373945</v>
@@ -1970,7 +1931,7 @@
         <v>43271.634722222225</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>192</v>
+        <v>170</v>
       </c>
       <c r="G17">
         <v>0.1</v>
@@ -1985,41 +1946,41 @@
         <v>1</v>
       </c>
       <c r="M17" t="s">
-        <v>220</v>
+        <v>198</v>
       </c>
       <c r="N17" t="s">
-        <v>213</v>
+        <v>191</v>
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>186</v>
+        <v>164</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>207</v>
+        <v>185</v>
       </c>
       <c r="C18" s="2">
         <v>6978155373957</v>
       </c>
       <c r="D18" t="s">
-        <v>208</v>
+        <v>186</v>
       </c>
       <c r="E18" s="1">
         <v>43271.637499999997</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>189</v>
+        <v>167</v>
       </c>
       <c r="N18" t="s">
-        <v>213</v>
+        <v>191</v>
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>186</v>
+        <v>164</v>
       </c>
       <c r="B19" t="s">
-        <v>209</v>
+        <v>187</v>
       </c>
       <c r="C19" s="2">
         <v>6977403375505</v>
@@ -2031,7 +1992,7 @@
         <v>43271.656944444447</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>192</v>
+        <v>170</v>
       </c>
       <c r="G19">
         <v>0.59</v>
@@ -2043,21 +2004,21 @@
         <v>2</v>
       </c>
       <c r="L19" t="s">
-        <v>223</v>
+        <v>201</v>
       </c>
       <c r="M19" t="s">
-        <v>224</v>
+        <v>202</v>
       </c>
       <c r="N19" t="s">
-        <v>213</v>
+        <v>191</v>
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>186</v>
+        <v>164</v>
       </c>
       <c r="B20" t="s">
-        <v>210</v>
+        <v>188</v>
       </c>
       <c r="C20" s="2">
         <v>6977221375845</v>
@@ -2069,7 +2030,7 @@
         <v>43271.662499999999</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>192</v>
+        <v>170</v>
       </c>
       <c r="G20">
         <v>0</v>
@@ -2084,18 +2045,18 @@
         <v>28</v>
       </c>
       <c r="M20" t="s">
-        <v>225</v>
+        <v>203</v>
       </c>
       <c r="N20" t="s">
-        <v>213</v>
+        <v>191</v>
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>186</v>
+        <v>164</v>
       </c>
       <c r="B21" t="s">
-        <v>211</v>
+        <v>189</v>
       </c>
       <c r="C21" s="2">
         <v>6976904376798</v>
@@ -2107,7 +2068,7 @@
         <v>43271.713888888888</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>192</v>
+        <v>170</v>
       </c>
       <c r="G21">
         <v>0.62</v>
@@ -2122,41 +2083,41 @@
         <v>2</v>
       </c>
       <c r="M21" t="s">
-        <v>226</v>
+        <v>204</v>
       </c>
       <c r="N21" t="s">
-        <v>213</v>
+        <v>191</v>
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>186</v>
+        <v>164</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>187</v>
+        <v>165</v>
       </c>
       <c r="C22" s="2">
         <v>6976680377753</v>
       </c>
       <c r="D22" t="s">
-        <v>188</v>
+        <v>166</v>
       </c>
       <c r="E22" s="1">
         <v>43271.725694444445</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>275</v>
+        <v>253</v>
       </c>
       <c r="N22" t="s">
-        <v>213</v>
+        <v>191</v>
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>227</v>
+        <v>205</v>
       </c>
       <c r="B24" t="s">
-        <v>228</v>
+        <v>206</v>
       </c>
       <c r="C24" s="2">
         <v>6973557372594</v>
@@ -2168,18 +2129,18 @@
         <v>43272.509722222225</v>
       </c>
       <c r="F24" t="s">
-        <v>190</v>
+        <v>168</v>
       </c>
       <c r="N24" t="s">
-        <v>234</v>
+        <v>212</v>
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>227</v>
+        <v>205</v>
       </c>
       <c r="B25" t="s">
-        <v>191</v>
+        <v>169</v>
       </c>
       <c r="C25" s="2">
         <v>6972945370967</v>
@@ -2191,7 +2152,7 @@
         <v>43272.530555555553</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>192</v>
+        <v>170</v>
       </c>
       <c r="G25">
         <v>0.33</v>
@@ -2206,15 +2167,15 @@
         <v>2</v>
       </c>
       <c r="M25" t="s">
-        <v>226</v>
+        <v>204</v>
       </c>
       <c r="N25" t="s">
-        <v>234</v>
+        <v>212</v>
       </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>227</v>
+        <v>205</v>
       </c>
       <c r="B26" t="s">
         <v>30</v>
@@ -2229,7 +2190,7 @@
         <v>43272.53402777778</v>
       </c>
       <c r="F26" t="s">
-        <v>229</v>
+        <v>207</v>
       </c>
       <c r="G26">
         <v>8.5299999999999994</v>
@@ -2241,15 +2202,15 @@
         <v>1</v>
       </c>
       <c r="N26" t="s">
-        <v>234</v>
+        <v>212</v>
       </c>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>227</v>
+        <v>205</v>
       </c>
       <c r="B27" t="s">
-        <v>193</v>
+        <v>171</v>
       </c>
       <c r="C27" s="2">
         <v>6972775370330</v>
@@ -2261,7 +2222,7 @@
         <v>43272.539583333331</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>192</v>
+        <v>170</v>
       </c>
       <c r="G27">
         <v>0.05</v>
@@ -2276,41 +2237,41 @@
         <v>2</v>
       </c>
       <c r="M27" t="s">
-        <v>235</v>
+        <v>213</v>
       </c>
       <c r="N27" t="s">
-        <v>234</v>
+        <v>212</v>
       </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>227</v>
+        <v>205</v>
       </c>
       <c r="B28" t="s">
-        <v>187</v>
+        <v>165</v>
       </c>
       <c r="C28" s="2">
         <v>6972275368795</v>
       </c>
       <c r="D28" t="s">
-        <v>230</v>
+        <v>208</v>
       </c>
       <c r="E28" s="1">
         <v>43272.561111111114</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>189</v>
+        <v>167</v>
       </c>
       <c r="N28" t="s">
-        <v>234</v>
+        <v>212</v>
       </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>227</v>
+        <v>205</v>
       </c>
       <c r="B29" t="s">
-        <v>194</v>
+        <v>172</v>
       </c>
       <c r="C29" s="2">
         <v>6972145368891</v>
@@ -2322,7 +2283,7 @@
         <v>43272.564583333333</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>192</v>
+        <v>170</v>
       </c>
       <c r="G29">
         <v>0</v>
@@ -2337,18 +2298,18 @@
         <v>25</v>
       </c>
       <c r="M29" t="s">
-        <v>236</v>
+        <v>214</v>
       </c>
       <c r="N29" t="s">
-        <v>234</v>
+        <v>212</v>
       </c>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>227</v>
+        <v>205</v>
       </c>
       <c r="B30" t="s">
-        <v>195</v>
+        <v>173</v>
       </c>
       <c r="C30" s="2">
         <v>6971716369396</v>
@@ -2360,7 +2321,7 @@
         <v>43272.57708333333</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>192</v>
+        <v>170</v>
       </c>
       <c r="G30">
         <v>0.18</v>
@@ -2375,18 +2336,18 @@
         <v>9</v>
       </c>
       <c r="M30" t="s">
-        <v>216</v>
+        <v>194</v>
       </c>
       <c r="N30" t="s">
-        <v>234</v>
+        <v>212</v>
       </c>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>227</v>
+        <v>205</v>
       </c>
       <c r="B31" t="s">
-        <v>195</v>
+        <v>173</v>
       </c>
       <c r="C31" s="2">
         <v>6971716369396</v>
@@ -2398,7 +2359,7 @@
         <v>43272.57708333333</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>192</v>
+        <v>170</v>
       </c>
       <c r="G31">
         <v>0.36</v>
@@ -2413,18 +2374,18 @@
         <v>10</v>
       </c>
       <c r="M31" t="s">
-        <v>216</v>
+        <v>194</v>
       </c>
       <c r="N31" t="s">
-        <v>234</v>
+        <v>212</v>
       </c>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>227</v>
+        <v>205</v>
       </c>
       <c r="B32" t="s">
-        <v>196</v>
+        <v>174</v>
       </c>
       <c r="C32" s="2">
         <v>6971670369452</v>
@@ -2436,7 +2397,7 @@
         <v>43272.579861111109</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>192</v>
+        <v>170</v>
       </c>
       <c r="G32">
         <v>0.12</v>
@@ -2451,18 +2412,18 @@
         <v>28</v>
       </c>
       <c r="M32" t="s">
-        <v>216</v>
+        <v>194</v>
       </c>
       <c r="N32" t="s">
-        <v>234</v>
+        <v>212</v>
       </c>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>227</v>
+        <v>205</v>
       </c>
       <c r="B33" t="s">
-        <v>196</v>
+        <v>174</v>
       </c>
       <c r="C33" s="2">
         <v>6971670369452</v>
@@ -2474,7 +2435,7 @@
         <v>43272.579861111109</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>192</v>
+        <v>170</v>
       </c>
       <c r="G33">
         <v>0.03</v>
@@ -2489,15 +2450,15 @@
         <v>32</v>
       </c>
       <c r="M33" t="s">
-        <v>216</v>
+        <v>194</v>
       </c>
       <c r="N33" t="s">
-        <v>234</v>
+        <v>212</v>
       </c>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>227</v>
+        <v>205</v>
       </c>
       <c r="B34" t="s">
         <v>30</v>
@@ -2512,7 +2473,7 @@
         <v>43272.59097222222</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>229</v>
+        <v>207</v>
       </c>
       <c r="G34">
         <v>12</v>
@@ -2524,15 +2485,15 @@
         <v>1</v>
       </c>
       <c r="N34" t="s">
-        <v>234</v>
+        <v>212</v>
       </c>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>227</v>
+        <v>205</v>
       </c>
       <c r="B35" t="s">
-        <v>200</v>
+        <v>178</v>
       </c>
       <c r="C35" s="2">
         <v>6970950370375</v>
@@ -2544,18 +2505,18 @@
         <v>43272.599305555559</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>201</v>
+        <v>179</v>
       </c>
       <c r="N35" t="s">
-        <v>234</v>
+        <v>212</v>
       </c>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>227</v>
+        <v>205</v>
       </c>
       <c r="B36" t="s">
-        <v>231</v>
+        <v>209</v>
       </c>
       <c r="C36" s="2">
         <v>6971077370439</v>
@@ -2567,7 +2528,7 @@
         <v>43272.602777777778</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>232</v>
+        <v>210</v>
       </c>
       <c r="G36">
         <v>18.600000000000001</v>
@@ -2576,21 +2537,21 @@
         <v>348</v>
       </c>
       <c r="I36" t="s">
-        <v>233</v>
+        <v>211</v>
       </c>
       <c r="L36">
         <v>1</v>
       </c>
       <c r="N36" t="s">
-        <v>234</v>
+        <v>212</v>
       </c>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>227</v>
+        <v>205</v>
       </c>
       <c r="B37" t="s">
-        <v>200</v>
+        <v>178</v>
       </c>
       <c r="C37" s="2">
         <v>6971115370459</v>
@@ -2602,18 +2563,18 @@
         <v>43272.604861111111</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>201</v>
+        <v>179</v>
       </c>
       <c r="N37" t="s">
-        <v>234</v>
+        <v>212</v>
       </c>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>227</v>
+        <v>205</v>
       </c>
       <c r="B38" t="s">
-        <v>197</v>
+        <v>175</v>
       </c>
       <c r="C38" s="2">
         <v>6970732370812</v>
@@ -2625,7 +2586,7 @@
         <v>43272.611111111109</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>192</v>
+        <v>170</v>
       </c>
       <c r="G38">
         <v>7.0000000000000007E-2</v>
@@ -2640,18 +2601,18 @@
         <v>12</v>
       </c>
       <c r="M38" t="s">
-        <v>220</v>
+        <v>198</v>
       </c>
       <c r="N38" t="s">
-        <v>234</v>
+        <v>212</v>
       </c>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>227</v>
+        <v>205</v>
       </c>
       <c r="B39" t="s">
-        <v>202</v>
+        <v>180</v>
       </c>
       <c r="C39" s="2">
         <v>6970232371242</v>
@@ -2663,7 +2624,7 @@
         <v>43272.620138888888</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>192</v>
+        <v>170</v>
       </c>
       <c r="G39">
         <v>0.03</v>
@@ -2678,15 +2639,15 @@
         <v>1</v>
       </c>
       <c r="M39" t="s">
-        <v>219</v>
+        <v>197</v>
       </c>
       <c r="N39" t="s">
-        <v>234</v>
+        <v>212</v>
       </c>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>227</v>
+        <v>205</v>
       </c>
       <c r="B40" t="s">
         <v>30</v>
@@ -2701,7 +2662,7 @@
         <v>43272.62222222222</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>229</v>
+        <v>207</v>
       </c>
       <c r="G40">
         <v>89</v>
@@ -2713,15 +2674,15 @@
         <v>2</v>
       </c>
       <c r="N40" t="s">
-        <v>234</v>
+        <v>212</v>
       </c>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>227</v>
+        <v>205</v>
       </c>
       <c r="B41" t="s">
-        <v>198</v>
+        <v>176</v>
       </c>
       <c r="C41" s="2">
         <v>6969791371950</v>
@@ -2733,18 +2694,18 @@
         <v>43272.637499999997</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>189</v>
+        <v>167</v>
       </c>
       <c r="N41" t="s">
-        <v>234</v>
+        <v>212</v>
       </c>
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>227</v>
+        <v>205</v>
       </c>
       <c r="B42" t="s">
-        <v>203</v>
+        <v>181</v>
       </c>
       <c r="C42" s="2">
         <v>6970457371894</v>
@@ -2756,7 +2717,7 @@
         <v>43272.645833333336</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>192</v>
+        <v>170</v>
       </c>
       <c r="G42">
         <v>0</v>
@@ -2771,18 +2732,18 @@
         <v>16</v>
       </c>
       <c r="M42" t="s">
-        <v>237</v>
+        <v>215</v>
       </c>
       <c r="N42" t="s">
-        <v>234</v>
+        <v>212</v>
       </c>
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>227</v>
+        <v>205</v>
       </c>
       <c r="B43" t="s">
-        <v>204</v>
+        <v>182</v>
       </c>
       <c r="C43" s="2">
         <v>6970401372178</v>
@@ -2794,7 +2755,7 @@
         <v>43272.647916666669</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>192</v>
+        <v>170</v>
       </c>
       <c r="G43">
         <v>0.48</v>
@@ -2809,18 +2770,18 @@
         <v>3</v>
       </c>
       <c r="M43" t="s">
-        <v>220</v>
+        <v>198</v>
       </c>
       <c r="N43" t="s">
-        <v>234</v>
+        <v>212</v>
       </c>
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>227</v>
+        <v>205</v>
       </c>
       <c r="B44" t="s">
-        <v>204</v>
+        <v>182</v>
       </c>
       <c r="C44" s="2">
         <v>6970401372178</v>
@@ -2832,7 +2793,7 @@
         <v>43272.647916666669</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>192</v>
+        <v>170</v>
       </c>
       <c r="G44">
         <v>1.0900000000000001</v>
@@ -2844,18 +2805,18 @@
         <v>1</v>
       </c>
       <c r="M44" t="s">
-        <v>220</v>
+        <v>198</v>
       </c>
       <c r="N44" t="s">
-        <v>234</v>
+        <v>212</v>
       </c>
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>227</v>
+        <v>205</v>
       </c>
       <c r="B45" t="s">
-        <v>205</v>
+        <v>183</v>
       </c>
       <c r="C45" s="2">
         <v>6972049372362</v>
@@ -2867,7 +2828,7 @@
         <v>43272.762499999997</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>192</v>
+        <v>170</v>
       </c>
       <c r="G45">
         <v>0.39</v>
@@ -2882,18 +2843,18 @@
         <v>16</v>
       </c>
       <c r="M45" t="s">
-        <v>238</v>
+        <v>216</v>
       </c>
       <c r="N45" t="s">
-        <v>234</v>
+        <v>212</v>
       </c>
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>227</v>
+        <v>205</v>
       </c>
       <c r="B46" t="s">
-        <v>206</v>
+        <v>184</v>
       </c>
       <c r="C46" s="2">
         <v>6972064372366</v>
@@ -2905,7 +2866,7 @@
         <v>43272.763888888891</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>192</v>
+        <v>170</v>
       </c>
       <c r="G46">
         <v>0.08</v>
@@ -2920,18 +2881,18 @@
         <v>17</v>
       </c>
       <c r="M46" t="s">
-        <v>238</v>
+        <v>216</v>
       </c>
       <c r="N46" t="s">
-        <v>234</v>
+        <v>212</v>
       </c>
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>227</v>
+        <v>205</v>
       </c>
       <c r="B47" t="s">
-        <v>206</v>
+        <v>184</v>
       </c>
       <c r="C47" s="2">
         <v>6972064372366</v>
@@ -2943,7 +2904,7 @@
         <v>43272.763888888891</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>192</v>
+        <v>170</v>
       </c>
       <c r="G47">
         <v>0.34</v>
@@ -2958,18 +2919,18 @@
         <v>14</v>
       </c>
       <c r="M47" t="s">
-        <v>238</v>
+        <v>216</v>
       </c>
       <c r="N47" t="s">
-        <v>234</v>
+        <v>212</v>
       </c>
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>227</v>
+        <v>205</v>
       </c>
       <c r="B48" t="s">
-        <v>209</v>
+        <v>187</v>
       </c>
       <c r="C48" s="2">
         <v>6972536372393</v>
@@ -2981,7 +2942,7 @@
         <v>43272.770138888889</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>192</v>
+        <v>170</v>
       </c>
       <c r="G48">
         <v>0</v>
@@ -2996,18 +2957,18 @@
         <v>5</v>
       </c>
       <c r="M48" t="s">
-        <v>238</v>
+        <v>216</v>
       </c>
       <c r="N48" t="s">
-        <v>234</v>
+        <v>212</v>
       </c>
     </row>
     <row r="49" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>227</v>
+        <v>205</v>
       </c>
       <c r="B49" t="s">
-        <v>210</v>
+        <v>188</v>
       </c>
       <c r="C49" s="2">
         <v>6972698372400</v>
@@ -3019,7 +2980,7 @@
         <v>43272.772916666669</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>192</v>
+        <v>170</v>
       </c>
       <c r="G49">
         <v>0.16</v>
@@ -3034,18 +2995,18 @@
         <v>22</v>
       </c>
       <c r="M49" t="s">
-        <v>238</v>
+        <v>216</v>
       </c>
       <c r="N49" t="s">
-        <v>234</v>
+        <v>212</v>
       </c>
     </row>
     <row r="50" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>227</v>
+        <v>205</v>
       </c>
       <c r="B50" t="s">
-        <v>210</v>
+        <v>188</v>
       </c>
       <c r="C50" s="2">
         <v>6972698372400</v>
@@ -3057,7 +3018,7 @@
         <v>43272.772916666669</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>192</v>
+        <v>170</v>
       </c>
       <c r="G50">
         <v>0.31</v>
@@ -3072,18 +3033,18 @@
         <v>18</v>
       </c>
       <c r="M50" t="s">
-        <v>238</v>
+        <v>216</v>
       </c>
       <c r="N50" t="s">
-        <v>234</v>
+        <v>212</v>
       </c>
     </row>
     <row r="51" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>227</v>
+        <v>205</v>
       </c>
       <c r="B51" t="s">
-        <v>228</v>
+        <v>206</v>
       </c>
       <c r="C51" s="2">
         <v>6973557372594</v>
@@ -3095,18 +3056,18 @@
         <v>43272.78402777778</v>
       </c>
       <c r="F51" t="s">
-        <v>275</v>
+        <v>253</v>
       </c>
       <c r="N51" t="s">
-        <v>234</v>
+        <v>212</v>
       </c>
     </row>
     <row r="53" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>239</v>
+        <v>217</v>
       </c>
       <c r="B53" t="s">
-        <v>240</v>
+        <v>218</v>
       </c>
       <c r="C53" s="2">
         <v>6979244373084</v>
@@ -3118,18 +3079,18 @@
         <v>43275.466666666667</v>
       </c>
       <c r="F53" t="s">
-        <v>190</v>
+        <v>168</v>
       </c>
       <c r="N53" t="s">
-        <v>242</v>
+        <v>220</v>
       </c>
     </row>
     <row r="54" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>239</v>
+        <v>217</v>
       </c>
       <c r="B54" t="s">
-        <v>191</v>
+        <v>169</v>
       </c>
       <c r="C54" s="2">
         <v>6979259374093</v>
@@ -3141,7 +3102,7 @@
         <v>43275.482638888891</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>192</v>
+        <v>170</v>
       </c>
       <c r="G54">
         <v>0.47</v>
@@ -3156,18 +3117,18 @@
         <v>38</v>
       </c>
       <c r="M54" t="s">
-        <v>241</v>
+        <v>219</v>
       </c>
       <c r="N54" t="s">
-        <v>242</v>
+        <v>220</v>
       </c>
     </row>
     <row r="55" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>239</v>
+        <v>217</v>
       </c>
       <c r="B55" t="s">
-        <v>193</v>
+        <v>171</v>
       </c>
       <c r="C55" s="2">
         <v>6979294374207</v>
@@ -3179,7 +3140,7 @@
         <v>43275.486111111109</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>192</v>
+        <v>170</v>
       </c>
       <c r="G55">
         <v>0.09</v>
@@ -3194,18 +3155,18 @@
         <v>2</v>
       </c>
       <c r="M55" t="s">
-        <v>241</v>
+        <v>219</v>
       </c>
       <c r="N55" t="s">
-        <v>242</v>
+        <v>220</v>
       </c>
     </row>
     <row r="56" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>239</v>
+        <v>217</v>
       </c>
       <c r="B56" t="s">
-        <v>194</v>
+        <v>172</v>
       </c>
       <c r="C56" s="2">
         <v>6979349374543</v>
@@ -3217,7 +3178,7 @@
         <v>43275.490972222222</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>192</v>
+        <v>170</v>
       </c>
       <c r="G56">
         <v>1.1200000000000001</v>
@@ -3232,18 +3193,18 @@
         <v>10</v>
       </c>
       <c r="M56" t="s">
+        <v>198</v>
+      </c>
+      <c r="N56" t="s">
         <v>220</v>
-      </c>
-      <c r="N56" t="s">
-        <v>242</v>
       </c>
     </row>
     <row r="57" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>239</v>
+        <v>217</v>
       </c>
       <c r="B57" t="s">
-        <v>195</v>
+        <v>173</v>
       </c>
       <c r="C57" s="2">
         <v>6979393375428</v>
@@ -3255,7 +3216,7 @@
         <v>43275.503472222219</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>192</v>
+        <v>170</v>
       </c>
       <c r="G57">
         <v>1.22</v>
@@ -3270,18 +3231,18 @@
         <v>5</v>
       </c>
       <c r="M57" t="s">
+        <v>198</v>
+      </c>
+      <c r="N57" t="s">
         <v>220</v>
-      </c>
-      <c r="N57" t="s">
-        <v>242</v>
       </c>
     </row>
     <row r="58" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>239</v>
+        <v>217</v>
       </c>
       <c r="B58" t="s">
-        <v>195</v>
+        <v>173</v>
       </c>
       <c r="C58" s="2">
         <v>6979393375428</v>
@@ -3293,7 +3254,7 @@
         <v>43275.503472222219</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>192</v>
+        <v>170</v>
       </c>
       <c r="G58">
         <v>1.27</v>
@@ -3308,18 +3269,18 @@
         <v>10</v>
       </c>
       <c r="M58" t="s">
+        <v>198</v>
+      </c>
+      <c r="N58" t="s">
         <v>220</v>
-      </c>
-      <c r="N58" t="s">
-        <v>242</v>
       </c>
     </row>
     <row r="59" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>239</v>
+        <v>217</v>
       </c>
       <c r="B59" t="s">
-        <v>196</v>
+        <v>174</v>
       </c>
       <c r="C59" s="2">
         <v>6979402375452</v>
@@ -3331,7 +3292,7 @@
         <v>43275.505555555559</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>192</v>
+        <v>170</v>
       </c>
       <c r="G59">
         <v>0.11</v>
@@ -3346,18 +3307,18 @@
         <v>3</v>
       </c>
       <c r="M59" t="s">
-        <v>243</v>
+        <v>221</v>
       </c>
       <c r="N59" t="s">
-        <v>242</v>
+        <v>220</v>
       </c>
     </row>
     <row r="60" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>239</v>
+        <v>217</v>
       </c>
       <c r="B60" t="s">
-        <v>197</v>
+        <v>175</v>
       </c>
       <c r="C60" s="2">
         <v>6979403375458</v>
@@ -3369,7 +3330,7 @@
         <v>43275.506249999999</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>192</v>
+        <v>170</v>
       </c>
       <c r="G60">
         <v>0.16</v>
@@ -3384,18 +3345,18 @@
         <v>4</v>
       </c>
       <c r="M60" t="s">
-        <v>241</v>
+        <v>219</v>
       </c>
       <c r="N60" t="s">
-        <v>242</v>
+        <v>220</v>
       </c>
     </row>
     <row r="61" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>239</v>
+        <v>217</v>
       </c>
       <c r="B61" t="s">
-        <v>202</v>
+        <v>180</v>
       </c>
       <c r="C61" s="2">
         <v>6979447375644</v>
@@ -3407,7 +3368,7 @@
         <v>43275.509027777778</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>192</v>
+        <v>170</v>
       </c>
       <c r="G61">
         <v>7.0000000000000007E-2</v>
@@ -3422,18 +3383,18 @@
         <v>2</v>
       </c>
       <c r="M61" t="s">
-        <v>241</v>
+        <v>219</v>
       </c>
       <c r="N61" t="s">
-        <v>242</v>
+        <v>220</v>
       </c>
     </row>
     <row r="62" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>239</v>
+        <v>217</v>
       </c>
       <c r="B62" t="s">
-        <v>203</v>
+        <v>181</v>
       </c>
       <c r="C62" s="2">
         <v>6979449375655</v>
@@ -3445,7 +3406,7 @@
         <v>43275.510416666664</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>192</v>
+        <v>170</v>
       </c>
       <c r="G62">
         <v>0.34</v>
@@ -3460,18 +3421,18 @@
         <v>6</v>
       </c>
       <c r="M62" t="s">
+        <v>198</v>
+      </c>
+      <c r="N62" t="s">
         <v>220</v>
-      </c>
-      <c r="N62" t="s">
-        <v>242</v>
       </c>
     </row>
     <row r="63" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>239</v>
+        <v>217</v>
       </c>
       <c r="B63" t="s">
-        <v>203</v>
+        <v>181</v>
       </c>
       <c r="C63" s="2">
         <v>6979449375655</v>
@@ -3483,7 +3444,7 @@
         <v>43275.510416666664</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>192</v>
+        <v>170</v>
       </c>
       <c r="G63">
         <v>0.49</v>
@@ -3498,18 +3459,18 @@
         <v>10</v>
       </c>
       <c r="M63" t="s">
+        <v>198</v>
+      </c>
+      <c r="N63" t="s">
         <v>220</v>
-      </c>
-      <c r="N63" t="s">
-        <v>242</v>
       </c>
     </row>
     <row r="64" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>239</v>
+        <v>217</v>
       </c>
       <c r="B64" t="s">
-        <v>204</v>
+        <v>182</v>
       </c>
       <c r="C64" s="2">
         <v>6979453375702</v>
@@ -3521,7 +3482,7 @@
         <v>43275.511805555558</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>192</v>
+        <v>170</v>
       </c>
       <c r="G64">
         <v>0.96</v>
@@ -3536,18 +3497,18 @@
         <v>16</v>
       </c>
       <c r="M64" t="s">
+        <v>198</v>
+      </c>
+      <c r="N64" t="s">
         <v>220</v>
-      </c>
-      <c r="N64" t="s">
-        <v>242</v>
       </c>
     </row>
     <row r="65" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>239</v>
+        <v>217</v>
       </c>
       <c r="B65" t="s">
-        <v>204</v>
+        <v>182</v>
       </c>
       <c r="C65" s="2">
         <v>6979453375702</v>
@@ -3559,7 +3520,7 @@
         <v>43275.511805555558</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>192</v>
+        <v>170</v>
       </c>
       <c r="G65">
         <v>1.76</v>
@@ -3574,18 +3535,18 @@
         <v>1</v>
       </c>
       <c r="M65" t="s">
+        <v>198</v>
+      </c>
+      <c r="N65" t="s">
         <v>220</v>
-      </c>
-      <c r="N65" t="s">
-        <v>242</v>
       </c>
     </row>
     <row r="66" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>239</v>
+        <v>217</v>
       </c>
       <c r="B66" t="s">
-        <v>205</v>
+        <v>183</v>
       </c>
       <c r="C66" s="2">
         <v>6979461376376</v>
@@ -3597,7 +3558,7 @@
         <v>43275.520138888889</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>192</v>
+        <v>170</v>
       </c>
       <c r="G66">
         <v>0.28999999999999998</v>
@@ -3612,18 +3573,18 @@
         <v>13</v>
       </c>
       <c r="M66" t="s">
-        <v>243</v>
+        <v>221</v>
       </c>
       <c r="N66" t="s">
-        <v>242</v>
+        <v>220</v>
       </c>
     </row>
     <row r="67" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>239</v>
+        <v>217</v>
       </c>
       <c r="B67" t="s">
-        <v>244</v>
+        <v>222</v>
       </c>
       <c r="C67" s="2">
         <v>6979540377111</v>
@@ -3635,18 +3596,18 @@
         <v>43275.53125</v>
       </c>
       <c r="F67" t="s">
-        <v>189</v>
+        <v>167</v>
       </c>
       <c r="N67" t="s">
-        <v>242</v>
+        <v>220</v>
       </c>
     </row>
     <row r="68" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>239</v>
+        <v>217</v>
       </c>
       <c r="B68" t="s">
-        <v>206</v>
+        <v>184</v>
       </c>
       <c r="C68" s="2">
         <v>6979810376940</v>
@@ -3658,7 +3619,7 @@
         <v>43275.574305555558</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>192</v>
+        <v>170</v>
       </c>
       <c r="G68">
         <v>0.27</v>
@@ -3673,18 +3634,18 @@
         <v>22</v>
       </c>
       <c r="M68" t="s">
-        <v>243</v>
+        <v>221</v>
       </c>
       <c r="N68" t="s">
-        <v>242</v>
+        <v>220</v>
       </c>
     </row>
     <row r="69" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>239</v>
+        <v>217</v>
       </c>
       <c r="B69" t="s">
-        <v>209</v>
+        <v>187</v>
       </c>
       <c r="C69" s="2">
         <v>6979827376931</v>
@@ -3696,7 +3657,7 @@
         <v>43275.577777777777</v>
       </c>
       <c r="F69" s="1" t="s">
-        <v>192</v>
+        <v>170</v>
       </c>
       <c r="G69">
         <v>0.03</v>
@@ -3711,18 +3672,18 @@
         <v>10</v>
       </c>
       <c r="M69" t="s">
-        <v>241</v>
+        <v>219</v>
       </c>
       <c r="N69" t="s">
-        <v>242</v>
+        <v>220</v>
       </c>
     </row>
     <row r="70" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>239</v>
+        <v>217</v>
       </c>
       <c r="B70" t="s">
-        <v>200</v>
+        <v>178</v>
       </c>
       <c r="C70" s="2">
         <v>6980190376690</v>
@@ -3734,18 +3695,18 @@
         <v>43275.584722222222</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>201</v>
+        <v>179</v>
       </c>
       <c r="N70" t="s">
-        <v>242</v>
+        <v>220</v>
       </c>
     </row>
     <row r="71" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>239</v>
+        <v>217</v>
       </c>
       <c r="B71" t="s">
-        <v>200</v>
+        <v>178</v>
       </c>
       <c r="C71" s="2">
         <v>6980386376751</v>
@@ -3757,18 +3718,18 @@
         <v>43275.587500000001</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>201</v>
+        <v>179</v>
       </c>
       <c r="N71" t="s">
-        <v>242</v>
+        <v>220</v>
       </c>
     </row>
     <row r="72" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>239</v>
+        <v>217</v>
       </c>
       <c r="B72" t="s">
-        <v>210</v>
+        <v>188</v>
       </c>
       <c r="C72" s="2">
         <v>6980495376677</v>
@@ -3780,7 +3741,7 @@
         <v>43275.591666666667</v>
       </c>
       <c r="F72" s="1" t="s">
-        <v>192</v>
+        <v>170</v>
       </c>
       <c r="G72">
         <v>0.06</v>
@@ -3795,18 +3756,18 @@
         <v>26</v>
       </c>
       <c r="M72" t="s">
+        <v>198</v>
+      </c>
+      <c r="N72" t="s">
         <v>220</v>
-      </c>
-      <c r="N72" t="s">
-        <v>242</v>
       </c>
     </row>
     <row r="73" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>239</v>
+        <v>217</v>
       </c>
       <c r="B73" t="s">
-        <v>211</v>
+        <v>189</v>
       </c>
       <c r="C73" s="2">
         <v>6981379376002</v>
@@ -3818,7 +3779,7 @@
         <v>43275.605555555558</v>
       </c>
       <c r="F73" s="1" t="s">
-        <v>192</v>
+        <v>170</v>
       </c>
       <c r="G73">
         <v>0.04</v>
@@ -3833,18 +3794,18 @@
         <v>11</v>
       </c>
       <c r="M73" t="s">
-        <v>245</v>
+        <v>223</v>
       </c>
       <c r="N73" t="s">
-        <v>242</v>
+        <v>220</v>
       </c>
     </row>
     <row r="74" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>239</v>
+        <v>217</v>
       </c>
       <c r="B74" t="s">
-        <v>246</v>
+        <v>224</v>
       </c>
       <c r="C74" s="2">
         <v>6981405375984</v>
@@ -3856,7 +3817,7 @@
         <v>43275.609722222223</v>
       </c>
       <c r="F74" s="1" t="s">
-        <v>192</v>
+        <v>170</v>
       </c>
       <c r="G74">
         <v>0</v>
@@ -3868,21 +3829,21 @@
         <v>2</v>
       </c>
       <c r="L74" t="s">
-        <v>247</v>
+        <v>225</v>
       </c>
       <c r="M74" t="s">
-        <v>248</v>
+        <v>226</v>
       </c>
       <c r="N74" t="s">
-        <v>242</v>
+        <v>220</v>
       </c>
     </row>
     <row r="75" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>239</v>
+        <v>217</v>
       </c>
       <c r="B75" t="s">
-        <v>249</v>
+        <v>227</v>
       </c>
       <c r="C75" s="2">
         <v>6981405375983</v>
@@ -3894,7 +3855,7 @@
         <v>43275.61041666667</v>
       </c>
       <c r="F75" s="1" t="s">
-        <v>192</v>
+        <v>170</v>
       </c>
       <c r="G75">
         <v>0.13</v>
@@ -3909,18 +3870,18 @@
         <v>19</v>
       </c>
       <c r="M75" t="s">
-        <v>243</v>
+        <v>221</v>
       </c>
       <c r="N75" t="s">
-        <v>242</v>
+        <v>220</v>
       </c>
     </row>
     <row r="76" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>239</v>
+        <v>217</v>
       </c>
       <c r="B76" t="s">
-        <v>249</v>
+        <v>227</v>
       </c>
       <c r="C76" s="2">
         <v>6981405375983</v>
@@ -3932,7 +3893,7 @@
         <v>43275.61041666667</v>
       </c>
       <c r="F76" s="1" t="s">
-        <v>192</v>
+        <v>170</v>
       </c>
       <c r="G76">
         <v>0.98</v>
@@ -3947,18 +3908,18 @@
         <v>20</v>
       </c>
       <c r="M76" t="s">
-        <v>243</v>
+        <v>221</v>
       </c>
       <c r="N76" t="s">
-        <v>242</v>
+        <v>220</v>
       </c>
     </row>
     <row r="77" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>239</v>
+        <v>217</v>
       </c>
       <c r="B77" t="s">
-        <v>231</v>
+        <v>209</v>
       </c>
       <c r="C77" s="2">
         <v>6982053375446</v>
@@ -3970,7 +3931,7 @@
         <v>43275.62777777778</v>
       </c>
       <c r="F77" s="1" t="s">
-        <v>232</v>
+        <v>210</v>
       </c>
       <c r="G77">
         <v>16.2</v>
@@ -3979,21 +3940,21 @@
         <v>352</v>
       </c>
       <c r="I77" t="s">
-        <v>233</v>
+        <v>211</v>
       </c>
       <c r="L77">
         <v>1</v>
       </c>
       <c r="N77" t="s">
-        <v>242</v>
+        <v>220</v>
       </c>
     </row>
     <row r="78" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>239</v>
+        <v>217</v>
       </c>
       <c r="B78" t="s">
-        <v>250</v>
+        <v>228</v>
       </c>
       <c r="C78" s="2">
         <v>6982141375389</v>
@@ -4005,7 +3966,7 @@
         <v>43275.633333333331</v>
       </c>
       <c r="F78" s="1" t="s">
-        <v>192</v>
+        <v>170</v>
       </c>
       <c r="G78">
         <v>0.14000000000000001</v>
@@ -4020,18 +3981,18 @@
         <v>3</v>
       </c>
       <c r="M78" t="s">
-        <v>241</v>
+        <v>219</v>
       </c>
       <c r="N78" t="s">
-        <v>242</v>
+        <v>220</v>
       </c>
     </row>
     <row r="79" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>239</v>
+        <v>217</v>
       </c>
       <c r="B79" t="s">
-        <v>251</v>
+        <v>229</v>
       </c>
       <c r="C79" s="2">
         <v>6982655375095</v>
@@ -4043,7 +4004,7 @@
         <v>43275.652083333334</v>
       </c>
       <c r="F79" s="1" t="s">
-        <v>232</v>
+        <v>210</v>
       </c>
       <c r="G79">
         <v>11.9</v>
@@ -4052,21 +4013,21 @@
         <v>316</v>
       </c>
       <c r="I79" t="s">
-        <v>233</v>
+        <v>211</v>
       </c>
       <c r="L79">
         <v>1</v>
       </c>
       <c r="N79" t="s">
-        <v>242</v>
+        <v>220</v>
       </c>
     </row>
     <row r="80" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>239</v>
+        <v>217</v>
       </c>
       <c r="B80" t="s">
-        <v>252</v>
+        <v>230</v>
       </c>
       <c r="C80" s="2">
         <v>6982782375018</v>
@@ -4078,7 +4039,7 @@
         <v>43275.654861111114</v>
       </c>
       <c r="F80" s="1" t="s">
-        <v>192</v>
+        <v>170</v>
       </c>
       <c r="G80">
         <v>1.41</v>
@@ -4093,18 +4054,18 @@
         <v>42</v>
       </c>
       <c r="M80" t="s">
-        <v>241</v>
+        <v>219</v>
       </c>
       <c r="N80" t="s">
-        <v>242</v>
+        <v>220</v>
       </c>
     </row>
     <row r="81" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>239</v>
+        <v>217</v>
       </c>
       <c r="B81" t="s">
-        <v>253</v>
+        <v>231</v>
       </c>
       <c r="C81" s="2">
         <v>6982934374992</v>
@@ -4116,7 +4077,7 @@
         <v>43275.660416666666</v>
       </c>
       <c r="F81" s="1" t="s">
-        <v>232</v>
+        <v>210</v>
       </c>
       <c r="G81">
         <v>36.200000000000003</v>
@@ -4125,21 +4086,21 @@
         <v>282</v>
       </c>
       <c r="I81" t="s">
-        <v>233</v>
+        <v>211</v>
       </c>
       <c r="L81">
         <v>2</v>
       </c>
       <c r="N81" t="s">
-        <v>242</v>
+        <v>220</v>
       </c>
     </row>
     <row r="82" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>239</v>
+        <v>217</v>
       </c>
       <c r="B82" t="s">
-        <v>253</v>
+        <v>231</v>
       </c>
       <c r="C82" s="2">
         <v>6982934374992</v>
@@ -4151,7 +4112,7 @@
         <v>43275.660416666666</v>
       </c>
       <c r="F82" s="1" t="s">
-        <v>192</v>
+        <v>170</v>
       </c>
       <c r="G82">
         <v>1.78</v>
@@ -4166,53 +4127,53 @@
         <v>5</v>
       </c>
       <c r="M82" t="s">
-        <v>254</v>
+        <v>232</v>
       </c>
       <c r="N82" t="s">
-        <v>242</v>
+        <v>220</v>
       </c>
     </row>
     <row r="83" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>239</v>
+        <v>217</v>
       </c>
       <c r="B83" t="s">
-        <v>255</v>
+        <v>233</v>
       </c>
       <c r="C83" s="2">
         <v>6983066374961</v>
       </c>
       <c r="D83" t="s">
-        <v>256</v>
+        <v>234</v>
       </c>
       <c r="E83" s="1">
         <v>43275.665972222225</v>
       </c>
       <c r="F83" t="s">
-        <v>189</v>
+        <v>167</v>
       </c>
       <c r="N83" t="s">
-        <v>242</v>
+        <v>220</v>
       </c>
     </row>
     <row r="84" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>239</v>
+        <v>217</v>
       </c>
       <c r="B84" t="s">
-        <v>255</v>
+        <v>233</v>
       </c>
       <c r="C84" s="2">
         <v>6983066374961</v>
       </c>
       <c r="D84" t="s">
-        <v>256</v>
+        <v>234</v>
       </c>
       <c r="E84" s="1">
         <v>43275.665972222225</v>
       </c>
       <c r="F84" t="s">
-        <v>192</v>
+        <v>170</v>
       </c>
       <c r="G84">
         <v>0.22</v>
@@ -4227,18 +4188,18 @@
         <v>2</v>
       </c>
       <c r="M84" t="s">
-        <v>257</v>
+        <v>235</v>
       </c>
       <c r="N84" t="s">
-        <v>242</v>
+        <v>220</v>
       </c>
     </row>
     <row r="85" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>239</v>
+        <v>217</v>
       </c>
       <c r="B85" t="s">
-        <v>258</v>
+        <v>236</v>
       </c>
       <c r="C85" s="2">
         <v>6982882374576</v>
@@ -4250,7 +4211,7 @@
         <v>43275.67291666667</v>
       </c>
       <c r="F85" s="1" t="s">
-        <v>192</v>
+        <v>170</v>
       </c>
       <c r="G85">
         <v>0.27</v>
@@ -4265,18 +4226,18 @@
         <v>17</v>
       </c>
       <c r="M85" t="s">
-        <v>257</v>
+        <v>235</v>
       </c>
       <c r="N85" t="s">
-        <v>242</v>
+        <v>220</v>
       </c>
     </row>
     <row r="86" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>239</v>
+        <v>217</v>
       </c>
       <c r="B86" t="s">
-        <v>200</v>
+        <v>178</v>
       </c>
       <c r="C86" s="2">
         <v>6982854374500</v>
@@ -4288,18 +4249,18 @@
         <v>43275.675694444442</v>
       </c>
       <c r="F86" s="1" t="s">
-        <v>201</v>
+        <v>179</v>
       </c>
       <c r="N86" t="s">
-        <v>242</v>
+        <v>220</v>
       </c>
     </row>
     <row r="87" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>239</v>
+        <v>217</v>
       </c>
       <c r="B87" t="s">
-        <v>259</v>
+        <v>237</v>
       </c>
       <c r="C87" s="2">
         <v>6981881373834</v>
@@ -4311,7 +4272,7 @@
         <v>43275.695833333331</v>
       </c>
       <c r="F87" s="1" t="s">
-        <v>192</v>
+        <v>170</v>
       </c>
       <c r="G87">
         <v>0.04</v>
@@ -4326,18 +4287,18 @@
         <v>1</v>
       </c>
       <c r="M87" t="s">
-        <v>241</v>
+        <v>219</v>
       </c>
       <c r="N87" t="s">
-        <v>242</v>
+        <v>220</v>
       </c>
     </row>
     <row r="88" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>239</v>
+        <v>217</v>
       </c>
       <c r="B88" t="s">
-        <v>259</v>
+        <v>237</v>
       </c>
       <c r="C88" s="2">
         <v>6981881373834</v>
@@ -4349,7 +4310,7 @@
         <v>43275.695833333331</v>
       </c>
       <c r="F88" s="1" t="s">
-        <v>192</v>
+        <v>170</v>
       </c>
       <c r="G88">
         <v>0.84</v>
@@ -4364,18 +4325,18 @@
         <v>32</v>
       </c>
       <c r="M88" t="s">
-        <v>238</v>
+        <v>216</v>
       </c>
       <c r="N88" t="s">
-        <v>242</v>
+        <v>220</v>
       </c>
     </row>
     <row r="89" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>239</v>
+        <v>217</v>
       </c>
       <c r="B89" t="s">
-        <v>200</v>
+        <v>178</v>
       </c>
       <c r="C89" s="2">
         <v>6981316373475</v>
@@ -4387,18 +4348,18 @@
         <v>43275.705555555556</v>
       </c>
       <c r="F89" s="1" t="s">
-        <v>201</v>
+        <v>179</v>
       </c>
       <c r="N89" t="s">
-        <v>242</v>
+        <v>220</v>
       </c>
     </row>
     <row r="90" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>239</v>
+        <v>217</v>
       </c>
       <c r="B90" t="s">
-        <v>260</v>
+        <v>238</v>
       </c>
       <c r="C90" s="2">
         <v>6980670373232</v>
@@ -4410,7 +4371,7 @@
         <v>43275.720138888886</v>
       </c>
       <c r="F90" s="1" t="s">
-        <v>192</v>
+        <v>170</v>
       </c>
       <c r="G90">
         <v>0</v>
@@ -4425,18 +4386,18 @@
         <v>1</v>
       </c>
       <c r="M90" t="s">
-        <v>241</v>
+        <v>219</v>
       </c>
       <c r="N90" t="s">
-        <v>242</v>
+        <v>220</v>
       </c>
     </row>
     <row r="91" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>239</v>
+        <v>217</v>
       </c>
       <c r="B91" t="s">
-        <v>240</v>
+        <v>218</v>
       </c>
       <c r="C91" s="2">
         <v>6979244373084</v>
@@ -4448,15 +4409,15 @@
         <v>43275.743055555555</v>
       </c>
       <c r="F91" t="s">
-        <v>275</v>
+        <v>253</v>
       </c>
       <c r="N91" t="s">
-        <v>242</v>
+        <v>220</v>
       </c>
     </row>
     <row r="93" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>261</v>
+        <v>239</v>
       </c>
       <c r="B93" t="s">
         <v>64</v>
@@ -4471,24 +4432,24 @@
         <v>43276.445138888892</v>
       </c>
       <c r="F93" s="1" t="s">
-        <v>263</v>
+        <v>241</v>
       </c>
       <c r="L93">
         <v>1</v>
       </c>
       <c r="M93" t="s">
-        <v>264</v>
+        <v>242</v>
       </c>
       <c r="N93" t="s">
-        <v>265</v>
+        <v>243</v>
       </c>
     </row>
     <row r="94" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>261</v>
+        <v>239</v>
       </c>
       <c r="B94" s="3" t="s">
-        <v>262</v>
+        <v>240</v>
       </c>
       <c r="C94" s="2">
         <v>6987664372345</v>
@@ -4500,15 +4461,15 @@
         <v>43276.534722222219</v>
       </c>
       <c r="F94" t="s">
-        <v>190</v>
+        <v>168</v>
       </c>
       <c r="N94" t="s">
-        <v>265</v>
+        <v>243</v>
       </c>
     </row>
     <row r="95" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>261</v>
+        <v>239</v>
       </c>
       <c r="B95" t="s">
         <v>30</v>
@@ -4523,7 +4484,7 @@
         <v>43276.551388888889</v>
       </c>
       <c r="F95" s="1" t="s">
-        <v>229</v>
+        <v>207</v>
       </c>
       <c r="G95">
         <v>22</v>
@@ -4532,21 +4493,21 @@
         <v>318</v>
       </c>
       <c r="I95" t="s">
-        <v>266</v>
+        <v>244</v>
       </c>
       <c r="L95">
         <v>1</v>
       </c>
       <c r="N95" t="s">
-        <v>265</v>
+        <v>243</v>
       </c>
     </row>
     <row r="96" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>261</v>
+        <v>239</v>
       </c>
       <c r="B96" t="s">
-        <v>191</v>
+        <v>169</v>
       </c>
       <c r="C96" s="2">
         <v>6989072374165</v>
@@ -4558,7 +4519,7 @@
         <v>43276.624305555553</v>
       </c>
       <c r="F96" s="1" t="s">
-        <v>192</v>
+        <v>170</v>
       </c>
       <c r="G96">
         <v>0.47</v>
@@ -4573,18 +4534,18 @@
         <v>1</v>
       </c>
       <c r="M96" t="s">
-        <v>257</v>
+        <v>235</v>
       </c>
       <c r="N96" t="s">
-        <v>265</v>
+        <v>243</v>
       </c>
     </row>
     <row r="97" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>261</v>
+        <v>239</v>
       </c>
       <c r="B97" t="s">
-        <v>193</v>
+        <v>171</v>
       </c>
       <c r="C97" s="2">
         <v>6989109374195</v>
@@ -4596,7 +4557,7 @@
         <v>43276.626388888886</v>
       </c>
       <c r="F97" s="1" t="s">
-        <v>192</v>
+        <v>170</v>
       </c>
       <c r="G97">
         <v>0.33</v>
@@ -4611,18 +4572,18 @@
         <v>2</v>
       </c>
       <c r="M97" t="s">
-        <v>241</v>
+        <v>219</v>
       </c>
       <c r="N97" t="s">
-        <v>265</v>
+        <v>243</v>
       </c>
     </row>
     <row r="98" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>261</v>
+        <v>239</v>
       </c>
       <c r="B98" t="s">
-        <v>194</v>
+        <v>172</v>
       </c>
       <c r="C98" s="2">
         <v>6989396374373</v>
@@ -4634,7 +4595,7 @@
         <v>43276.631249999999</v>
       </c>
       <c r="F98" s="1" t="s">
-        <v>192</v>
+        <v>170</v>
       </c>
       <c r="G98">
         <v>0.26</v>
@@ -4649,18 +4610,18 @@
         <v>15</v>
       </c>
       <c r="M98" t="s">
-        <v>267</v>
+        <v>245</v>
       </c>
       <c r="N98" t="s">
-        <v>265</v>
+        <v>243</v>
       </c>
     </row>
     <row r="99" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>261</v>
+        <v>239</v>
       </c>
       <c r="B99" t="s">
-        <v>194</v>
+        <v>172</v>
       </c>
       <c r="C99" s="2">
         <v>6989396374373</v>
@@ -4672,7 +4633,7 @@
         <v>43276.631249999999</v>
       </c>
       <c r="F99" s="1" t="s">
-        <v>192</v>
+        <v>170</v>
       </c>
       <c r="G99">
         <v>0.42</v>
@@ -4687,18 +4648,18 @@
         <v>18</v>
       </c>
       <c r="M99" t="s">
-        <v>241</v>
+        <v>219</v>
       </c>
       <c r="N99" t="s">
-        <v>265</v>
+        <v>243</v>
       </c>
     </row>
     <row r="100" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>261</v>
+        <v>239</v>
       </c>
       <c r="B100" t="s">
-        <v>195</v>
+        <v>173</v>
       </c>
       <c r="C100" s="2">
         <v>6989430374420</v>
@@ -4710,7 +4671,7 @@
         <v>43276.634722222225</v>
       </c>
       <c r="F100" s="1" t="s">
-        <v>192</v>
+        <v>170</v>
       </c>
       <c r="G100">
         <v>0.39</v>
@@ -4725,18 +4686,18 @@
         <v>2</v>
       </c>
       <c r="M100" t="s">
-        <v>268</v>
+        <v>246</v>
       </c>
       <c r="N100" t="s">
-        <v>265</v>
+        <v>243</v>
       </c>
     </row>
     <row r="101" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>261</v>
+        <v>239</v>
       </c>
       <c r="B101" t="s">
-        <v>195</v>
+        <v>173</v>
       </c>
       <c r="C101" s="2">
         <v>6989430374420</v>
@@ -4748,7 +4709,7 @@
         <v>43276.634722222225</v>
       </c>
       <c r="F101" s="1" t="s">
-        <v>192</v>
+        <v>170</v>
       </c>
       <c r="G101">
         <v>1.62</v>
@@ -4763,18 +4724,18 @@
         <v>4</v>
       </c>
       <c r="M101" t="s">
-        <v>268</v>
+        <v>246</v>
       </c>
       <c r="N101" t="s">
-        <v>265</v>
+        <v>243</v>
       </c>
     </row>
     <row r="102" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
-        <v>261</v>
+        <v>239</v>
       </c>
       <c r="B102" t="s">
-        <v>196</v>
+        <v>174</v>
       </c>
       <c r="C102" s="2">
         <v>6989441374434</v>
@@ -4786,7 +4747,7 @@
         <v>43276.636805555558</v>
       </c>
       <c r="F102" s="1" t="s">
-        <v>192</v>
+        <v>170</v>
       </c>
       <c r="G102">
         <v>0.16</v>
@@ -4801,18 +4762,18 @@
         <v>2</v>
       </c>
       <c r="M102" t="s">
-        <v>268</v>
+        <v>246</v>
       </c>
       <c r="N102" t="s">
-        <v>265</v>
+        <v>243</v>
       </c>
     </row>
     <row r="103" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
-        <v>261</v>
+        <v>239</v>
       </c>
       <c r="B103" t="s">
-        <v>197</v>
+        <v>175</v>
       </c>
       <c r="C103" s="2">
         <v>6989492374527</v>
@@ -4824,7 +4785,7 @@
         <v>43276.638888888891</v>
       </c>
       <c r="F103" s="1" t="s">
-        <v>192</v>
+        <v>170</v>
       </c>
       <c r="G103">
         <v>0.02</v>
@@ -4839,18 +4800,18 @@
         <v>4</v>
       </c>
       <c r="M103" t="s">
-        <v>268</v>
+        <v>246</v>
       </c>
       <c r="N103" t="s">
-        <v>265</v>
+        <v>243</v>
       </c>
     </row>
     <row r="104" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
-        <v>261</v>
+        <v>239</v>
       </c>
       <c r="B104" t="s">
-        <v>197</v>
+        <v>175</v>
       </c>
       <c r="C104" s="2">
         <v>6989492374527</v>
@@ -4862,7 +4823,7 @@
         <v>43276.638888888891</v>
       </c>
       <c r="F104" s="1" t="s">
-        <v>192</v>
+        <v>170</v>
       </c>
       <c r="G104">
         <v>0.56999999999999995</v>
@@ -4877,18 +4838,18 @@
         <v>2</v>
       </c>
       <c r="M104" t="s">
-        <v>268</v>
+        <v>246</v>
       </c>
       <c r="N104" t="s">
-        <v>265</v>
+        <v>243</v>
       </c>
     </row>
     <row r="105" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
-        <v>261</v>
+        <v>239</v>
       </c>
       <c r="B105" t="s">
-        <v>197</v>
+        <v>175</v>
       </c>
       <c r="C105" s="2">
         <v>6989492374527</v>
@@ -4900,7 +4861,7 @@
         <v>43276.638888888891</v>
       </c>
       <c r="F105" s="1" t="s">
-        <v>192</v>
+        <v>170</v>
       </c>
       <c r="G105">
         <v>0.61</v>
@@ -4915,18 +4876,18 @@
         <v>15</v>
       </c>
       <c r="M105" t="s">
-        <v>267</v>
+        <v>245</v>
       </c>
       <c r="N105" t="s">
-        <v>265</v>
+        <v>243</v>
       </c>
     </row>
     <row r="106" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
-        <v>261</v>
+        <v>239</v>
       </c>
       <c r="B106" t="s">
-        <v>231</v>
+        <v>209</v>
       </c>
       <c r="C106" s="2">
         <v>6989528374583</v>
@@ -4938,7 +4899,7 @@
         <v>43276.642361111109</v>
       </c>
       <c r="F106" s="1" t="s">
-        <v>232</v>
+        <v>210</v>
       </c>
       <c r="G106">
         <v>59.9</v>
@@ -4947,21 +4908,21 @@
         <v>44</v>
       </c>
       <c r="I106" t="s">
-        <v>233</v>
+        <v>211</v>
       </c>
       <c r="L106">
         <v>1</v>
       </c>
       <c r="N106" t="s">
-        <v>265</v>
+        <v>243</v>
       </c>
     </row>
     <row r="107" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
-        <v>261</v>
+        <v>239</v>
       </c>
       <c r="B107" t="s">
-        <v>202</v>
+        <v>180</v>
       </c>
       <c r="C107" s="2">
         <v>6989808375053</v>
@@ -4973,7 +4934,7 @@
         <v>43276.652777777781</v>
       </c>
       <c r="F107" s="1" t="s">
-        <v>192</v>
+        <v>170</v>
       </c>
       <c r="G107">
         <v>0.41</v>
@@ -4988,18 +4949,18 @@
         <v>1</v>
       </c>
       <c r="M107" t="s">
-        <v>257</v>
+        <v>235</v>
       </c>
       <c r="N107" t="s">
-        <v>265</v>
+        <v>243</v>
       </c>
     </row>
     <row r="108" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
-        <v>261</v>
+        <v>239</v>
       </c>
       <c r="B108" t="s">
-        <v>203</v>
+        <v>181</v>
       </c>
       <c r="C108" s="2">
         <v>6990146375345</v>
@@ -5011,7 +4972,7 @@
         <v>43276.659722222219</v>
       </c>
       <c r="F108" s="1" t="s">
-        <v>192</v>
+        <v>170</v>
       </c>
       <c r="G108">
         <v>0.24</v>
@@ -5026,18 +4987,18 @@
         <v>36</v>
       </c>
       <c r="M108" t="s">
-        <v>241</v>
+        <v>219</v>
       </c>
       <c r="N108" t="s">
-        <v>265</v>
+        <v>243</v>
       </c>
     </row>
     <row r="109" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
-        <v>261</v>
+        <v>239</v>
       </c>
       <c r="B109" s="3" t="s">
-        <v>187</v>
+        <v>165</v>
       </c>
       <c r="C109" s="2">
         <v>6990210375427</v>
@@ -5049,18 +5010,18 @@
         <v>43276.665972222225</v>
       </c>
       <c r="F109" s="1" t="s">
-        <v>189</v>
+        <v>167</v>
       </c>
       <c r="N109" t="s">
-        <v>265</v>
+        <v>243</v>
       </c>
     </row>
     <row r="110" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
-        <v>261</v>
+        <v>239</v>
       </c>
       <c r="B110" t="s">
-        <v>251</v>
+        <v>229</v>
       </c>
       <c r="C110" s="2">
         <v>6990211375286</v>
@@ -5072,7 +5033,7 @@
         <v>43276.668055555558</v>
       </c>
       <c r="F110" s="1" t="s">
-        <v>232</v>
+        <v>210</v>
       </c>
       <c r="G110">
         <v>7.9</v>
@@ -5084,15 +5045,15 @@
         <v>1</v>
       </c>
       <c r="N110" t="s">
-        <v>265</v>
+        <v>243</v>
       </c>
     </row>
     <row r="111" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
-        <v>261</v>
+        <v>239</v>
       </c>
       <c r="B111" t="s">
-        <v>251</v>
+        <v>229</v>
       </c>
       <c r="C111" s="2">
         <v>6990211375286</v>
@@ -5104,7 +5065,7 @@
         <v>43276.668055555558</v>
       </c>
       <c r="F111" s="1" t="s">
-        <v>229</v>
+        <v>207</v>
       </c>
       <c r="G111">
         <v>452</v>
@@ -5116,15 +5077,15 @@
         <v>1</v>
       </c>
       <c r="N111" t="s">
-        <v>265</v>
+        <v>243</v>
       </c>
     </row>
     <row r="112" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
-        <v>261</v>
+        <v>239</v>
       </c>
       <c r="B112" t="s">
-        <v>204</v>
+        <v>182</v>
       </c>
       <c r="C112" s="2">
         <v>6990229375196</v>
@@ -5136,7 +5097,7 @@
         <v>43276.671527777777</v>
       </c>
       <c r="F112" s="1" t="s">
-        <v>192</v>
+        <v>170</v>
       </c>
       <c r="G112">
         <v>0.52</v>
@@ -5151,18 +5112,18 @@
         <v>10</v>
       </c>
       <c r="M112" t="s">
-        <v>241</v>
+        <v>219</v>
       </c>
       <c r="N112" t="s">
-        <v>265</v>
+        <v>243</v>
       </c>
     </row>
     <row r="113" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
-        <v>261</v>
+        <v>239</v>
       </c>
       <c r="B113" t="s">
-        <v>204</v>
+        <v>182</v>
       </c>
       <c r="C113" s="2">
         <v>6990229375196</v>
@@ -5187,18 +5148,18 @@
         <v>19</v>
       </c>
       <c r="M113" t="s">
-        <v>241</v>
+        <v>219</v>
       </c>
       <c r="N113" t="s">
-        <v>265</v>
+        <v>243</v>
       </c>
     </row>
     <row r="114" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
-        <v>261</v>
+        <v>239</v>
       </c>
       <c r="B114" t="s">
-        <v>205</v>
+        <v>183</v>
       </c>
       <c r="C114" s="2">
         <v>6990229375192</v>
@@ -5210,7 +5171,7 @@
         <v>43276.673611111109</v>
       </c>
       <c r="F114" s="1" t="s">
-        <v>192</v>
+        <v>170</v>
       </c>
       <c r="G114">
         <v>0.79</v>
@@ -5225,18 +5186,18 @@
         <v>45</v>
       </c>
       <c r="M114" t="s">
-        <v>269</v>
+        <v>247</v>
       </c>
       <c r="N114" t="s">
-        <v>265</v>
+        <v>243</v>
       </c>
     </row>
     <row r="115" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
-        <v>261</v>
+        <v>239</v>
       </c>
       <c r="B115" t="s">
-        <v>270</v>
+        <v>248</v>
       </c>
       <c r="C115" s="2">
         <v>6990342374915</v>
@@ -5248,7 +5209,7 @@
         <v>43276.678472222222</v>
       </c>
       <c r="F115" s="1" t="s">
-        <v>271</v>
+        <v>249</v>
       </c>
       <c r="G115">
         <v>18.399999999999999</v>
@@ -5257,21 +5218,21 @@
         <v>20</v>
       </c>
       <c r="I115" t="s">
-        <v>233</v>
+        <v>211</v>
       </c>
       <c r="L115">
         <v>1</v>
       </c>
       <c r="N115" t="s">
-        <v>265</v>
+        <v>243</v>
       </c>
     </row>
     <row r="116" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
-        <v>261</v>
+        <v>239</v>
       </c>
       <c r="B116" t="s">
-        <v>270</v>
+        <v>248</v>
       </c>
       <c r="C116" s="2">
         <v>6990342374915</v>
@@ -5283,7 +5244,7 @@
         <v>43276.678472222222</v>
       </c>
       <c r="F116" s="1" t="s">
-        <v>271</v>
+        <v>249</v>
       </c>
       <c r="G116">
         <v>14.4</v>
@@ -5292,21 +5253,21 @@
         <v>24</v>
       </c>
       <c r="I116" t="s">
-        <v>233</v>
+        <v>211</v>
       </c>
       <c r="L116">
         <v>1</v>
       </c>
       <c r="N116" t="s">
-        <v>265</v>
+        <v>243</v>
       </c>
     </row>
     <row r="117" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
-        <v>261</v>
+        <v>239</v>
       </c>
       <c r="B117" t="s">
-        <v>206</v>
+        <v>184</v>
       </c>
       <c r="C117" s="2">
         <v>6990469374617</v>
@@ -5318,7 +5279,7 @@
         <v>43276.6875</v>
       </c>
       <c r="F117" s="1" t="s">
-        <v>192</v>
+        <v>170</v>
       </c>
       <c r="G117">
         <v>0.31</v>
@@ -5333,18 +5294,18 @@
         <v>1</v>
       </c>
       <c r="M117" t="s">
-        <v>241</v>
+        <v>219</v>
       </c>
       <c r="N117" t="s">
-        <v>265</v>
+        <v>243</v>
       </c>
     </row>
     <row r="118" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
-        <v>261</v>
+        <v>239</v>
       </c>
       <c r="B118" t="s">
-        <v>209</v>
+        <v>187</v>
       </c>
       <c r="C118" s="2">
         <v>6990696373981</v>
@@ -5356,7 +5317,7 @@
         <v>43276.696527777778</v>
       </c>
       <c r="F118" s="1" t="s">
-        <v>192</v>
+        <v>170</v>
       </c>
       <c r="G118">
         <v>7.0000000000000007E-2</v>
@@ -5371,18 +5332,18 @@
         <v>1</v>
       </c>
       <c r="M118" t="s">
-        <v>241</v>
+        <v>219</v>
       </c>
       <c r="N118" t="s">
-        <v>265</v>
+        <v>243</v>
       </c>
     </row>
     <row r="119" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
-        <v>261</v>
+        <v>239</v>
       </c>
       <c r="B119" t="s">
-        <v>210</v>
+        <v>188</v>
       </c>
       <c r="C119" s="2">
         <v>6990700373975</v>
@@ -5394,7 +5355,7 @@
         <v>43276.697222222225</v>
       </c>
       <c r="F119" s="1" t="s">
-        <v>192</v>
+        <v>170</v>
       </c>
       <c r="G119">
         <v>0.18</v>
@@ -5409,18 +5370,18 @@
         <v>17</v>
       </c>
       <c r="M119" t="s">
-        <v>241</v>
+        <v>219</v>
       </c>
       <c r="N119" t="s">
-        <v>265</v>
+        <v>243</v>
       </c>
     </row>
     <row r="120" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
-        <v>261</v>
+        <v>239</v>
       </c>
       <c r="B120" t="s">
-        <v>211</v>
+        <v>189</v>
       </c>
       <c r="C120" s="2">
         <v>6990705373967</v>
@@ -5432,7 +5393,7 @@
         <v>43276.699305555558</v>
       </c>
       <c r="F120" s="1" t="s">
-        <v>192</v>
+        <v>170</v>
       </c>
       <c r="G120">
         <v>0.39</v>
@@ -5447,18 +5408,18 @@
         <v>14</v>
       </c>
       <c r="M120" t="s">
-        <v>241</v>
+        <v>219</v>
       </c>
       <c r="N120" t="s">
-        <v>265</v>
+        <v>243</v>
       </c>
     </row>
     <row r="121" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
-        <v>261</v>
+        <v>239</v>
       </c>
       <c r="B121" t="s">
-        <v>246</v>
+        <v>224</v>
       </c>
       <c r="C121" s="2">
         <v>6990731373922</v>
@@ -5470,7 +5431,7 @@
         <v>43276.701388888891</v>
       </c>
       <c r="F121" s="1" t="s">
-        <v>192</v>
+        <v>170</v>
       </c>
       <c r="G121">
         <v>0.02</v>
@@ -5485,18 +5446,18 @@
         <v>11</v>
       </c>
       <c r="M121" t="s">
-        <v>272</v>
+        <v>250</v>
       </c>
       <c r="N121" t="s">
-        <v>265</v>
+        <v>243</v>
       </c>
     </row>
     <row r="122" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
-        <v>261</v>
+        <v>239</v>
       </c>
       <c r="B122" t="s">
-        <v>249</v>
+        <v>227</v>
       </c>
       <c r="C122" s="2">
         <v>6991108372720</v>
@@ -5508,7 +5469,7 @@
         <v>43276.717361111114</v>
       </c>
       <c r="F122" s="1" t="s">
-        <v>192</v>
+        <v>170</v>
       </c>
       <c r="G122">
         <v>0.01</v>
@@ -5523,18 +5484,18 @@
         <v>4</v>
       </c>
       <c r="M122" t="s">
-        <v>241</v>
+        <v>219</v>
       </c>
       <c r="N122" t="s">
-        <v>265</v>
+        <v>243</v>
       </c>
     </row>
     <row r="123" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
-        <v>261</v>
+        <v>239</v>
       </c>
       <c r="B123" t="s">
-        <v>253</v>
+        <v>231</v>
       </c>
       <c r="C123" s="2">
         <v>6991153372515</v>
@@ -5546,7 +5507,7 @@
         <v>43276.722222222219</v>
       </c>
       <c r="F123" s="1" t="s">
-        <v>232</v>
+        <v>210</v>
       </c>
       <c r="G123">
         <v>33.1</v>
@@ -5555,18 +5516,18 @@
         <v>18</v>
       </c>
       <c r="I123" t="s">
-        <v>233</v>
+        <v>211</v>
       </c>
       <c r="L123">
         <v>1</v>
       </c>
       <c r="N123" t="s">
-        <v>265</v>
+        <v>243</v>
       </c>
     </row>
     <row r="124" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
-        <v>261</v>
+        <v>239</v>
       </c>
       <c r="B124" t="s">
         <v>80</v>
@@ -5581,7 +5542,7 @@
         <v>43276.724999999999</v>
       </c>
       <c r="F124" s="1" t="s">
-        <v>274</v>
+        <v>252</v>
       </c>
       <c r="G124">
         <v>0</v>
@@ -5593,15 +5554,15 @@
         <v>1</v>
       </c>
       <c r="N124" t="s">
-        <v>265</v>
+        <v>243</v>
       </c>
     </row>
     <row r="125" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
-        <v>261</v>
+        <v>239</v>
       </c>
       <c r="B125" t="s">
-        <v>250</v>
+        <v>228</v>
       </c>
       <c r="C125" s="2">
         <v>6991331372007</v>
@@ -5613,7 +5574,7 @@
         <v>43276.730555555558</v>
       </c>
       <c r="F125" s="1" t="s">
-        <v>192</v>
+        <v>170</v>
       </c>
       <c r="G125">
         <v>0.06</v>
@@ -5628,18 +5589,18 @@
         <v>13</v>
       </c>
       <c r="M125" t="s">
-        <v>269</v>
+        <v>247</v>
       </c>
       <c r="N125" t="s">
-        <v>265</v>
+        <v>243</v>
       </c>
     </row>
     <row r="126" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
-        <v>261</v>
+        <v>239</v>
       </c>
       <c r="B126" s="3" t="s">
-        <v>198</v>
+        <v>176</v>
       </c>
       <c r="C126" s="2">
         <v>6991515371569</v>
@@ -5651,18 +5612,18 @@
         <v>43276.736805555556</v>
       </c>
       <c r="F126" s="1" t="s">
-        <v>189</v>
+        <v>167</v>
       </c>
       <c r="N126" t="s">
-        <v>265</v>
+        <v>243</v>
       </c>
     </row>
     <row r="127" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
-        <v>261</v>
+        <v>239</v>
       </c>
       <c r="B127" t="s">
-        <v>252</v>
+        <v>230</v>
       </c>
       <c r="C127" s="2">
         <v>6990806371700</v>
@@ -5674,7 +5635,7 @@
         <v>43276.75</v>
       </c>
       <c r="F127" s="1" t="s">
-        <v>192</v>
+        <v>170</v>
       </c>
       <c r="G127">
         <v>0.36</v>
@@ -5689,18 +5650,18 @@
         <v>16</v>
       </c>
       <c r="M127" t="s">
-        <v>241</v>
+        <v>219</v>
       </c>
       <c r="N127" t="s">
-        <v>265</v>
+        <v>243</v>
       </c>
     </row>
     <row r="128" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
-        <v>261</v>
+        <v>239</v>
       </c>
       <c r="B128" t="s">
-        <v>258</v>
+        <v>236</v>
       </c>
       <c r="C128" s="2">
         <v>6988299372150</v>
@@ -5712,7 +5673,7 @@
         <v>43276.79791666667</v>
       </c>
       <c r="F128" s="1" t="s">
-        <v>192</v>
+        <v>170</v>
       </c>
       <c r="G128">
         <v>0.09</v>
@@ -5727,18 +5688,18 @@
         <v>17</v>
       </c>
       <c r="M128" t="s">
-        <v>241</v>
+        <v>219</v>
       </c>
       <c r="N128" t="s">
-        <v>265</v>
+        <v>243</v>
       </c>
     </row>
     <row r="129" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
-        <v>261</v>
+        <v>239</v>
       </c>
       <c r="B129" s="3" t="s">
-        <v>262</v>
+        <v>240</v>
       </c>
       <c r="C129" s="2">
         <v>6987664372345</v>
@@ -5750,10 +5711,10 @@
         <v>43276.806944444441</v>
       </c>
       <c r="F129" t="s">
-        <v>275</v>
+        <v>253</v>
       </c>
       <c r="N129" t="s">
-        <v>265</v>
+        <v>243</v>
       </c>
     </row>
     <row r="130" spans="1:14" x14ac:dyDescent="0.2">
@@ -5761,30 +5722,30 @@
     </row>
     <row r="131" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
-        <v>276</v>
+        <v>254</v>
       </c>
       <c r="B131" s="3" t="s">
-        <v>277</v>
+        <v>255</v>
       </c>
       <c r="C131" s="2">
         <v>6986351371839</v>
       </c>
       <c r="D131" t="s">
-        <v>278</v>
+        <v>256</v>
       </c>
       <c r="E131" s="1">
         <v>43277.354166666664</v>
       </c>
       <c r="F131" s="1" t="s">
-        <v>190</v>
+        <v>168</v>
       </c>
       <c r="N131" t="s">
-        <v>279</v>
+        <v>257</v>
       </c>
     </row>
     <row r="132" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
-        <v>276</v>
+        <v>254</v>
       </c>
       <c r="B132" t="s">
         <v>30</v>
@@ -5799,7 +5760,7 @@
         <v>43277.35833333333</v>
       </c>
       <c r="F132" s="1" t="s">
-        <v>229</v>
+        <v>207</v>
       </c>
       <c r="G132">
         <v>33.1</v>
@@ -5811,18 +5772,18 @@
         <v>1</v>
       </c>
       <c r="M132" t="s">
-        <v>280</v>
+        <v>258</v>
       </c>
       <c r="N132" t="s">
-        <v>279</v>
+        <v>257</v>
       </c>
     </row>
     <row r="133" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
-        <v>276</v>
+        <v>254</v>
       </c>
       <c r="B133" t="s">
-        <v>231</v>
+        <v>209</v>
       </c>
       <c r="C133" s="2">
         <v>6986539371185</v>
@@ -5834,7 +5795,7 @@
         <v>43277.365972222222</v>
       </c>
       <c r="F133" s="1" t="s">
-        <v>232</v>
+        <v>210</v>
       </c>
       <c r="G133">
         <v>82.6</v>
@@ -5843,21 +5804,21 @@
         <v>312</v>
       </c>
       <c r="I133" t="s">
-        <v>233</v>
+        <v>211</v>
       </c>
       <c r="L133">
         <v>1</v>
       </c>
       <c r="N133" t="s">
-        <v>279</v>
+        <v>257</v>
       </c>
     </row>
     <row r="134" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
-        <v>276</v>
+        <v>254</v>
       </c>
       <c r="B134" t="s">
-        <v>191</v>
+        <v>169</v>
       </c>
       <c r="C134" s="2">
         <v>6986987369810</v>
@@ -5869,7 +5830,7 @@
         <v>43277.390972222223</v>
       </c>
       <c r="F134" s="1" t="s">
-        <v>192</v>
+        <v>170</v>
       </c>
       <c r="G134">
         <v>1.23</v>
@@ -5884,18 +5845,18 @@
         <v>4</v>
       </c>
       <c r="M134" t="s">
-        <v>241</v>
+        <v>219</v>
       </c>
       <c r="N134" t="s">
-        <v>279</v>
+        <v>257</v>
       </c>
     </row>
     <row r="135" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
-        <v>276</v>
+        <v>254</v>
       </c>
       <c r="B135" t="s">
-        <v>193</v>
+        <v>171</v>
       </c>
       <c r="C135" s="2">
         <v>6987165369223</v>
@@ -5907,7 +5868,7 @@
         <v>43277.402083333334</v>
       </c>
       <c r="F135" s="1" t="s">
-        <v>192</v>
+        <v>170</v>
       </c>
       <c r="G135">
         <v>0.1</v>
@@ -5922,18 +5883,18 @@
         <v>7</v>
       </c>
       <c r="M135" t="s">
-        <v>241</v>
+        <v>219</v>
       </c>
       <c r="N135" t="s">
-        <v>279</v>
+        <v>257</v>
       </c>
     </row>
     <row r="136" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
-        <v>276</v>
+        <v>254</v>
       </c>
       <c r="B136" t="s">
-        <v>194</v>
+        <v>172</v>
       </c>
       <c r="C136" s="2">
         <v>6987303368811</v>
@@ -5945,7 +5906,7 @@
         <v>43277.409722222219</v>
       </c>
       <c r="F136" s="1" t="s">
-        <v>192</v>
+        <v>170</v>
       </c>
       <c r="G136">
         <v>0.04</v>
@@ -5960,41 +5921,41 @@
         <v>1</v>
       </c>
       <c r="M136" t="s">
-        <v>241</v>
+        <v>219</v>
       </c>
       <c r="N136" t="s">
-        <v>279</v>
+        <v>257</v>
       </c>
     </row>
     <row r="137" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
-        <v>276</v>
+        <v>254</v>
       </c>
       <c r="B137" s="3" t="s">
-        <v>187</v>
+        <v>165</v>
       </c>
       <c r="C137" s="2">
         <v>6987650367997</v>
       </c>
       <c r="D137" t="s">
-        <v>281</v>
+        <v>259</v>
       </c>
       <c r="E137" s="1">
         <v>43277.425694444442</v>
       </c>
       <c r="F137" s="1" t="s">
-        <v>189</v>
+        <v>167</v>
       </c>
       <c r="N137" t="s">
-        <v>279</v>
+        <v>257</v>
       </c>
     </row>
     <row r="138" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
-        <v>276</v>
+        <v>254</v>
       </c>
       <c r="B138" t="s">
-        <v>195</v>
+        <v>173</v>
       </c>
       <c r="C138" s="2">
         <v>6985525368428</v>
@@ -6006,7 +5967,7 @@
         <v>43277.557638888888</v>
       </c>
       <c r="F138" s="1" t="s">
-        <v>192</v>
+        <v>170</v>
       </c>
       <c r="G138">
         <v>0.21</v>
@@ -6021,18 +5982,18 @@
         <v>24</v>
       </c>
       <c r="M138" t="s">
-        <v>282</v>
+        <v>260</v>
       </c>
       <c r="N138" t="s">
-        <v>279</v>
+        <v>257</v>
       </c>
     </row>
     <row r="139" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
-        <v>276</v>
+        <v>254</v>
       </c>
       <c r="B139" t="s">
-        <v>196</v>
+        <v>174</v>
       </c>
       <c r="C139" s="2">
         <v>6983906368728</v>
@@ -6044,7 +6005,7 @@
         <v>43277.584722222222</v>
       </c>
       <c r="F139" s="1" t="s">
-        <v>192</v>
+        <v>170</v>
       </c>
       <c r="G139">
         <v>0.11</v>
@@ -6059,15 +6020,15 @@
         <v>25</v>
       </c>
       <c r="M139" t="s">
-        <v>220</v>
+        <v>198</v>
       </c>
       <c r="N139" t="s">
-        <v>279</v>
+        <v>257</v>
       </c>
     </row>
     <row r="140" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
-        <v>276</v>
+        <v>254</v>
       </c>
       <c r="B140" t="s">
         <v>30</v>
@@ -6082,7 +6043,7 @@
         <v>43277.597916666666</v>
       </c>
       <c r="F140" s="1" t="s">
-        <v>229</v>
+        <v>207</v>
       </c>
       <c r="G140">
         <v>153.1</v>
@@ -6094,15 +6055,15 @@
         <v>3</v>
       </c>
       <c r="N140" t="s">
-        <v>279</v>
+        <v>257</v>
       </c>
     </row>
     <row r="141" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
-        <v>276</v>
+        <v>254</v>
       </c>
       <c r="B141" t="s">
-        <v>197</v>
+        <v>175</v>
       </c>
       <c r="C141" s="2">
         <v>6984203369274</v>
@@ -6114,7 +6075,7 @@
         <v>43277.609722222223</v>
       </c>
       <c r="F141" s="1" t="s">
-        <v>192</v>
+        <v>170</v>
       </c>
       <c r="G141">
         <v>7.0000000000000007E-2</v>
@@ -6129,15 +6090,15 @@
         <v>8</v>
       </c>
       <c r="M141" t="s">
-        <v>283</v>
+        <v>261</v>
       </c>
       <c r="N141" t="s">
-        <v>279</v>
+        <v>257</v>
       </c>
     </row>
     <row r="142" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
-        <v>276</v>
+        <v>254</v>
       </c>
       <c r="B142" t="s">
         <v>30</v>
@@ -6152,7 +6113,7 @@
         <v>43277.623611111114</v>
       </c>
       <c r="F142" s="1" t="s">
-        <v>229</v>
+        <v>207</v>
       </c>
       <c r="G142">
         <v>139.4</v>
@@ -6164,15 +6125,15 @@
         <v>3</v>
       </c>
       <c r="N142" t="s">
-        <v>279</v>
+        <v>257</v>
       </c>
     </row>
     <row r="143" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
-        <v>276</v>
+        <v>254</v>
       </c>
       <c r="B143" t="s">
-        <v>202</v>
+        <v>180</v>
       </c>
       <c r="C143" s="2">
         <v>6986354371830</v>
@@ -6184,7 +6145,7 @@
         <v>43277.663888888892</v>
       </c>
       <c r="F143" s="1" t="s">
-        <v>192</v>
+        <v>170</v>
       </c>
       <c r="G143">
         <v>0.18</v>
@@ -6199,64 +6160,64 @@
         <v>3</v>
       </c>
       <c r="M143" t="s">
-        <v>268</v>
+        <v>246</v>
       </c>
       <c r="N143" t="s">
-        <v>279</v>
+        <v>257</v>
       </c>
     </row>
     <row r="144" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
-        <v>276</v>
+        <v>254</v>
       </c>
       <c r="B144" s="3" t="s">
-        <v>277</v>
+        <v>255</v>
       </c>
       <c r="C144" s="2">
         <v>6986351371839</v>
       </c>
       <c r="D144" t="s">
-        <v>278</v>
+        <v>256</v>
       </c>
       <c r="E144" s="1">
         <v>43277.666666666664</v>
       </c>
       <c r="F144" s="1" t="s">
-        <v>275</v>
+        <v>253</v>
       </c>
       <c r="N144" t="s">
-        <v>279</v>
+        <v>257</v>
       </c>
     </row>
     <row r="148" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
-        <v>284</v>
+        <v>262</v>
       </c>
       <c r="B148" s="3" t="s">
-        <v>198</v>
+        <v>176</v>
       </c>
       <c r="C148" s="2">
         <v>6985863359293</v>
       </c>
       <c r="D148" t="s">
-        <v>285</v>
+        <v>263</v>
       </c>
       <c r="E148" s="1">
         <v>43278.409722222219</v>
       </c>
       <c r="F148" s="1" t="s">
-        <v>190</v>
+        <v>168</v>
       </c>
       <c r="N148" t="s">
-        <v>286</v>
+        <v>264</v>
       </c>
     </row>
     <row r="149" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
-        <v>284</v>
+        <v>262</v>
       </c>
       <c r="B149" t="s">
-        <v>191</v>
+        <v>169</v>
       </c>
       <c r="C149" s="2">
         <v>6984603358022</v>
@@ -6268,7 +6229,7 @@
         <v>43278.430555555555</v>
       </c>
       <c r="F149" s="1" t="s">
-        <v>192</v>
+        <v>170</v>
       </c>
       <c r="G149">
         <v>0.37</v>
@@ -6283,18 +6244,18 @@
         <v>4</v>
       </c>
       <c r="M149" t="s">
-        <v>287</v>
+        <v>265</v>
       </c>
       <c r="N149" t="s">
-        <v>286</v>
+        <v>264</v>
       </c>
     </row>
     <row r="150" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
-        <v>284</v>
+        <v>262</v>
       </c>
       <c r="B150" t="s">
-        <v>200</v>
+        <v>178</v>
       </c>
       <c r="C150" s="2">
         <v>6983656356892</v>
@@ -6306,18 +6267,18 @@
         <v>43278.449305555558</v>
       </c>
       <c r="F150" s="1" t="s">
-        <v>201</v>
+        <v>179</v>
       </c>
       <c r="N150" t="s">
-        <v>286</v>
+        <v>264</v>
       </c>
     </row>
     <row r="151" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
-        <v>284</v>
+        <v>262</v>
       </c>
       <c r="B151" t="s">
-        <v>200</v>
+        <v>178</v>
       </c>
       <c r="C151" s="2">
         <v>6983702356823</v>
@@ -6329,18 +6290,18 @@
         <v>43278.452777777777</v>
       </c>
       <c r="F151" s="1" t="s">
-        <v>201</v>
+        <v>179</v>
       </c>
       <c r="N151" t="s">
-        <v>286</v>
+        <v>264</v>
       </c>
     </row>
     <row r="152" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
-        <v>284</v>
+        <v>262</v>
       </c>
       <c r="B152" t="s">
-        <v>193</v>
+        <v>171</v>
       </c>
       <c r="C152" s="2">
         <v>6983103356528</v>
@@ -6352,7 +6313,7 @@
         <v>43278.467361111114</v>
       </c>
       <c r="F152" s="1" t="s">
-        <v>192</v>
+        <v>170</v>
       </c>
       <c r="G152">
         <v>1.21</v>
@@ -6367,38 +6328,38 @@
         <v>4</v>
       </c>
       <c r="M152" t="s">
-        <v>241</v>
+        <v>219</v>
       </c>
       <c r="N152" t="s">
-        <v>286</v>
+        <v>264</v>
       </c>
     </row>
     <row r="153" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
-        <v>284</v>
+        <v>262</v>
       </c>
       <c r="B153" s="3" t="s">
-        <v>288</v>
+        <v>266</v>
       </c>
       <c r="C153" s="2">
         <v>6983090356519</v>
       </c>
       <c r="D153" t="s">
-        <v>289</v>
+        <v>267</v>
       </c>
       <c r="E153" s="1">
         <v>43278.468055555553</v>
       </c>
       <c r="F153" s="1" t="s">
-        <v>189</v>
+        <v>167</v>
       </c>
     </row>
     <row r="154" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
-        <v>284</v>
+        <v>262</v>
       </c>
       <c r="B154" t="s">
-        <v>194</v>
+        <v>172</v>
       </c>
       <c r="C154" s="2">
         <v>6982711357390</v>
@@ -6410,7 +6371,7 @@
         <v>43278.480555555558</v>
       </c>
       <c r="F154" s="1" t="s">
-        <v>192</v>
+        <v>170</v>
       </c>
       <c r="G154">
         <v>0.45</v>
@@ -6425,15 +6386,15 @@
         <v>9</v>
       </c>
       <c r="M154" t="s">
-        <v>241</v>
+        <v>219</v>
       </c>
       <c r="N154" t="s">
-        <v>286</v>
+        <v>264</v>
       </c>
     </row>
     <row r="155" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
-        <v>284</v>
+        <v>262</v>
       </c>
       <c r="B155" t="s">
         <v>30</v>
@@ -6448,7 +6409,7 @@
         <v>43278.493055555555</v>
       </c>
       <c r="F155" s="1" t="s">
-        <v>229</v>
+        <v>207</v>
       </c>
       <c r="G155">
         <v>248.4</v>
@@ -6463,15 +6424,15 @@
         <v>1</v>
       </c>
       <c r="N155" t="s">
-        <v>286</v>
+        <v>264</v>
       </c>
     </row>
     <row r="156" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
-        <v>284</v>
+        <v>262</v>
       </c>
       <c r="B156" t="s">
-        <v>290</v>
+        <v>268</v>
       </c>
       <c r="C156" s="2">
         <v>6982517358590</v>
@@ -6483,7 +6444,7 @@
         <v>43278.500694444447</v>
       </c>
       <c r="F156" s="1" t="s">
-        <v>291</v>
+        <v>269</v>
       </c>
       <c r="G156">
         <v>462.1</v>
@@ -6498,12 +6459,12 @@
         <v>1</v>
       </c>
       <c r="N156" t="s">
-        <v>286</v>
+        <v>264</v>
       </c>
     </row>
     <row r="157" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
-        <v>284</v>
+        <v>262</v>
       </c>
       <c r="B157" t="s">
         <v>30</v>
@@ -6518,7 +6479,7 @@
         <v>43278.559027777781</v>
       </c>
       <c r="F157" s="1" t="s">
-        <v>229</v>
+        <v>207</v>
       </c>
       <c r="G157">
         <v>121.6</v>
@@ -6530,15 +6491,15 @@
         <v>2</v>
       </c>
       <c r="N157" t="s">
-        <v>286</v>
+        <v>264</v>
       </c>
     </row>
     <row r="158" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
-        <v>284</v>
+        <v>262</v>
       </c>
       <c r="B158" t="s">
-        <v>195</v>
+        <v>173</v>
       </c>
       <c r="C158" s="2">
         <v>6982057359742</v>
@@ -6550,7 +6511,7 @@
         <v>43278.569444444445</v>
       </c>
       <c r="F158" s="1" t="s">
-        <v>192</v>
+        <v>170</v>
       </c>
       <c r="G158">
         <v>0.61</v>
@@ -6565,15 +6526,15 @@
         <v>1</v>
       </c>
       <c r="N158" t="s">
-        <v>286</v>
+        <v>264</v>
       </c>
     </row>
     <row r="159" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
-        <v>284</v>
+        <v>262</v>
       </c>
       <c r="B159" t="s">
-        <v>196</v>
+        <v>174</v>
       </c>
       <c r="C159" s="2">
         <v>6982022359836</v>
@@ -6585,7 +6546,7 @@
         <v>43278.572222222225</v>
       </c>
       <c r="F159" s="1" t="s">
-        <v>192</v>
+        <v>170</v>
       </c>
       <c r="G159">
         <v>0.56999999999999995</v>
@@ -6600,18 +6561,18 @@
         <v>24</v>
       </c>
       <c r="M159" t="s">
-        <v>235</v>
+        <v>213</v>
       </c>
       <c r="N159" t="s">
-        <v>286</v>
+        <v>264</v>
       </c>
     </row>
     <row r="160" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
-        <v>284</v>
+        <v>262</v>
       </c>
       <c r="B160" t="s">
-        <v>196</v>
+        <v>174</v>
       </c>
       <c r="C160" s="2">
         <v>6982022359836</v>
@@ -6623,7 +6584,7 @@
         <v>43278.572222222225</v>
       </c>
       <c r="F160" s="1" t="s">
-        <v>192</v>
+        <v>170</v>
       </c>
       <c r="G160">
         <v>0.13</v>
@@ -6638,18 +6599,18 @@
         <v>34</v>
       </c>
       <c r="M160" t="s">
-        <v>292</v>
+        <v>270</v>
       </c>
       <c r="N160" t="s">
-        <v>286</v>
+        <v>264</v>
       </c>
     </row>
     <row r="161" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
-        <v>284</v>
+        <v>262</v>
       </c>
       <c r="B161" t="s">
-        <v>196</v>
+        <v>174</v>
       </c>
       <c r="C161" s="2">
         <v>6982022359836</v>
@@ -6661,7 +6622,7 @@
         <v>43278.572222222225</v>
       </c>
       <c r="F161" s="1" t="s">
-        <v>192</v>
+        <v>170</v>
       </c>
       <c r="G161">
         <v>0.28999999999999998</v>
@@ -6676,38 +6637,38 @@
         <v>16</v>
       </c>
       <c r="N161" t="s">
-        <v>286</v>
+        <v>264</v>
       </c>
     </row>
     <row r="162" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
-        <v>284</v>
+        <v>262</v>
       </c>
       <c r="B162" s="3" t="s">
-        <v>187</v>
+        <v>165</v>
       </c>
       <c r="C162" s="2">
         <v>6981921360308</v>
       </c>
       <c r="D162" t="s">
-        <v>293</v>
+        <v>271</v>
       </c>
       <c r="E162" s="1">
         <v>43278.583333333336</v>
       </c>
       <c r="F162" s="1" t="s">
-        <v>189</v>
+        <v>167</v>
       </c>
       <c r="N162" t="s">
-        <v>286</v>
+        <v>264</v>
       </c>
     </row>
     <row r="163" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
-        <v>284</v>
+        <v>262</v>
       </c>
       <c r="B163" t="s">
-        <v>197</v>
+        <v>175</v>
       </c>
       <c r="C163" s="2">
         <v>6984942359384</v>
@@ -6719,7 +6680,7 @@
         <v>43278.62222222222</v>
       </c>
       <c r="F163" s="1" t="s">
-        <v>192</v>
+        <v>170</v>
       </c>
       <c r="G163">
         <v>0.34</v>
@@ -6734,18 +6695,18 @@
         <v>19</v>
       </c>
       <c r="M163" t="s">
-        <v>282</v>
+        <v>260</v>
       </c>
       <c r="N163" t="s">
-        <v>286</v>
+        <v>264</v>
       </c>
     </row>
     <row r="164" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
-        <v>284</v>
+        <v>262</v>
       </c>
       <c r="B164" t="s">
-        <v>197</v>
+        <v>175</v>
       </c>
       <c r="C164" s="2">
         <v>6984942359384</v>
@@ -6757,7 +6718,7 @@
         <v>43278.62222222222</v>
       </c>
       <c r="F164" s="1" t="s">
-        <v>229</v>
+        <v>207</v>
       </c>
       <c r="G164">
         <v>98.3</v>
@@ -6769,15 +6730,15 @@
         <v>2</v>
       </c>
       <c r="N164" t="s">
-        <v>286</v>
+        <v>264</v>
       </c>
     </row>
     <row r="165" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
-        <v>284</v>
+        <v>262</v>
       </c>
       <c r="B165" t="s">
-        <v>200</v>
+        <v>178</v>
       </c>
       <c r="C165" s="2">
         <v>6985094359323</v>
@@ -6789,18 +6750,18 @@
         <v>43278.62777777778</v>
       </c>
       <c r="F165" s="1" t="s">
-        <v>201</v>
+        <v>179</v>
       </c>
       <c r="N165" t="s">
-        <v>286</v>
+        <v>264</v>
       </c>
     </row>
     <row r="166" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
-        <v>284</v>
+        <v>262</v>
       </c>
       <c r="B166" t="s">
-        <v>202</v>
+        <v>180</v>
       </c>
       <c r="C166" s="2">
         <v>6985160359319</v>
@@ -6812,7 +6773,7 @@
         <v>43278.629166666666</v>
       </c>
       <c r="F166" s="1" t="s">
-        <v>192</v>
+        <v>170</v>
       </c>
       <c r="G166">
         <v>0.06</v>
@@ -6827,18 +6788,18 @@
         <v>35</v>
       </c>
       <c r="M166" t="s">
-        <v>294</v>
+        <v>272</v>
       </c>
       <c r="N166" t="s">
-        <v>286</v>
+        <v>264</v>
       </c>
     </row>
     <row r="167" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
-        <v>284</v>
+        <v>262</v>
       </c>
       <c r="B167" t="s">
-        <v>202</v>
+        <v>180</v>
       </c>
       <c r="C167" s="2">
         <v>6985160359319</v>
@@ -6850,7 +6811,7 @@
         <v>43278.629166666666</v>
       </c>
       <c r="F167" s="1" t="s">
-        <v>192</v>
+        <v>170</v>
       </c>
       <c r="G167">
         <v>7.0000000000000007E-2</v>
@@ -6865,18 +6826,18 @@
         <v>17</v>
       </c>
       <c r="M167" t="s">
-        <v>294</v>
+        <v>272</v>
       </c>
       <c r="N167" t="s">
-        <v>286</v>
+        <v>264</v>
       </c>
     </row>
     <row r="168" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
-        <v>284</v>
+        <v>262</v>
       </c>
       <c r="B168" t="s">
-        <v>290</v>
+        <v>268</v>
       </c>
       <c r="C168" s="2">
         <v>6982267355785</v>
@@ -6888,33 +6849,33 @@
         <v>43278.884722222225</v>
       </c>
       <c r="F168" s="1" t="s">
-        <v>291</v>
+        <v>269</v>
       </c>
       <c r="N168" t="s">
-        <v>286</v>
+        <v>264</v>
       </c>
     </row>
     <row r="169" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
-        <v>284</v>
+        <v>262</v>
       </c>
       <c r="B169" s="3" t="s">
-        <v>198</v>
+        <v>176</v>
       </c>
       <c r="C169" s="2">
         <v>6985863359293</v>
       </c>
       <c r="D169" t="s">
-        <v>285</v>
+        <v>263</v>
       </c>
       <c r="E169" s="1">
         <v>43278.638888888891</v>
       </c>
       <c r="F169" s="1" t="s">
-        <v>190</v>
+        <v>168</v>
       </c>
       <c r="N169" t="s">
-        <v>286</v>
+        <v>264</v>
       </c>
     </row>
     <row r="170" spans="1:14" x14ac:dyDescent="0.2">
@@ -6925,33 +6886,33 @@
     </row>
     <row r="172" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
-        <v>295</v>
+        <v>273</v>
       </c>
       <c r="B172" s="3" t="s">
-        <v>198</v>
+        <v>176</v>
       </c>
       <c r="C172" s="2">
         <v>6981270353841</v>
       </c>
       <c r="D172" t="s">
-        <v>281</v>
+        <v>259</v>
       </c>
       <c r="E172" s="1">
         <v>43279.256944444445</v>
       </c>
       <c r="F172" s="1" t="s">
-        <v>190</v>
+        <v>168</v>
       </c>
       <c r="N172" t="s">
-        <v>296</v>
+        <v>274</v>
       </c>
     </row>
     <row r="173" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
-        <v>295</v>
+        <v>273</v>
       </c>
       <c r="B173" t="s">
-        <v>200</v>
+        <v>178</v>
       </c>
       <c r="C173" s="2">
         <v>6980968353518</v>
@@ -6963,18 +6924,18 @@
         <v>43279.265277777777</v>
       </c>
       <c r="F173" s="1" t="s">
-        <v>201</v>
+        <v>179</v>
       </c>
       <c r="N173" t="s">
-        <v>296</v>
+        <v>274</v>
       </c>
     </row>
     <row r="174" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
-        <v>295</v>
+        <v>273</v>
       </c>
       <c r="B174" t="s">
-        <v>191</v>
+        <v>169</v>
       </c>
       <c r="C174" s="2">
         <v>6980970353513</v>
@@ -6986,7 +6947,7 @@
         <v>43279.265972222223</v>
       </c>
       <c r="F174" s="1" t="s">
-        <v>192</v>
+        <v>170</v>
       </c>
       <c r="G174">
         <v>0.06</v>
@@ -7001,18 +6962,18 @@
         <v>1</v>
       </c>
       <c r="M174" t="s">
-        <v>241</v>
+        <v>219</v>
       </c>
       <c r="N174" t="s">
-        <v>296</v>
+        <v>274</v>
       </c>
     </row>
     <row r="175" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
-        <v>295</v>
+        <v>273</v>
       </c>
       <c r="B175" t="s">
-        <v>193</v>
+        <v>171</v>
       </c>
       <c r="C175" s="2">
         <v>6980945353432</v>
@@ -7024,7 +6985,7 @@
         <v>43279.268055555556</v>
       </c>
       <c r="F175" s="1" t="s">
-        <v>192</v>
+        <v>170</v>
       </c>
       <c r="G175">
         <v>0.12</v>
@@ -7039,18 +7000,18 @@
         <v>1</v>
       </c>
       <c r="M175" t="s">
-        <v>241</v>
+        <v>219</v>
       </c>
       <c r="N175" t="s">
-        <v>296</v>
+        <v>274</v>
       </c>
     </row>
     <row r="176" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
-        <v>295</v>
+        <v>273</v>
       </c>
       <c r="B176" t="s">
-        <v>194</v>
+        <v>172</v>
       </c>
       <c r="C176" s="2">
         <v>6980935353395</v>
@@ -7062,7 +7023,7 @@
         <v>43279.270138888889</v>
       </c>
       <c r="F176" s="1" t="s">
-        <v>192</v>
+        <v>170</v>
       </c>
       <c r="G176">
         <v>0.17</v>
@@ -7077,18 +7038,18 @@
         <v>19</v>
       </c>
       <c r="M176" t="s">
-        <v>241</v>
+        <v>219</v>
       </c>
       <c r="N176" t="s">
-        <v>296</v>
+        <v>274</v>
       </c>
     </row>
     <row r="177" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
-        <v>295</v>
+        <v>273</v>
       </c>
       <c r="B177" t="s">
-        <v>194</v>
+        <v>172</v>
       </c>
       <c r="C177" s="2">
         <v>6980935353395</v>
@@ -7100,7 +7061,7 @@
         <v>43279.270138888889</v>
       </c>
       <c r="F177" s="1" t="s">
-        <v>192</v>
+        <v>170</v>
       </c>
       <c r="G177">
         <v>3.42</v>
@@ -7115,18 +7076,18 @@
         <v>20</v>
       </c>
       <c r="M177" t="s">
-        <v>241</v>
+        <v>219</v>
       </c>
       <c r="N177" t="s">
-        <v>296</v>
+        <v>274</v>
       </c>
     </row>
     <row r="178" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
-        <v>295</v>
+        <v>273</v>
       </c>
       <c r="B178" t="s">
-        <v>194</v>
+        <v>172</v>
       </c>
       <c r="C178" s="2">
         <v>6980935353395</v>
@@ -7138,7 +7099,7 @@
         <v>43279.270138888889</v>
       </c>
       <c r="F178" s="1" t="s">
-        <v>192</v>
+        <v>170</v>
       </c>
       <c r="G178">
         <v>1.1499999999999999</v>
@@ -7153,18 +7114,18 @@
         <v>23</v>
       </c>
       <c r="M178" t="s">
-        <v>241</v>
+        <v>219</v>
       </c>
       <c r="N178" t="s">
-        <v>296</v>
+        <v>274</v>
       </c>
     </row>
     <row r="179" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
-        <v>295</v>
+        <v>273</v>
       </c>
       <c r="B179" t="s">
-        <v>200</v>
+        <v>178</v>
       </c>
       <c r="C179" s="2">
         <v>6980911353331</v>
@@ -7176,18 +7137,18 @@
         <v>43279.273611111108</v>
       </c>
       <c r="F179" s="1" t="s">
-        <v>201</v>
+        <v>179</v>
       </c>
       <c r="N179" t="s">
-        <v>296</v>
+        <v>274</v>
       </c>
     </row>
     <row r="180" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
-        <v>295</v>
+        <v>273</v>
       </c>
       <c r="B180" t="s">
-        <v>290</v>
+        <v>268</v>
       </c>
       <c r="C180" s="2">
         <v>6980602353081</v>
@@ -7199,7 +7160,7 @@
         <v>43279.28125</v>
       </c>
       <c r="F180" s="1" t="s">
-        <v>291</v>
+        <v>269</v>
       </c>
       <c r="G180">
         <v>271.5</v>
@@ -7211,15 +7172,15 @@
         <v>1</v>
       </c>
       <c r="N180" t="s">
-        <v>296</v>
+        <v>274</v>
       </c>
     </row>
     <row r="181" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
-        <v>295</v>
+        <v>273</v>
       </c>
       <c r="B181" t="s">
-        <v>195</v>
+        <v>173</v>
       </c>
       <c r="C181" s="2">
         <v>6980431352927</v>
@@ -7231,7 +7192,7 @@
         <v>43279.284722222219</v>
       </c>
       <c r="F181" s="1" t="s">
-        <v>192</v>
+        <v>170</v>
       </c>
       <c r="G181">
         <v>1.08</v>
@@ -7246,18 +7207,18 @@
         <v>7</v>
       </c>
       <c r="M181" t="s">
-        <v>297</v>
+        <v>275</v>
       </c>
       <c r="N181" t="s">
-        <v>296</v>
+        <v>274</v>
       </c>
     </row>
     <row r="182" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
-        <v>295</v>
+        <v>273</v>
       </c>
       <c r="B182" t="s">
-        <v>196</v>
+        <v>174</v>
       </c>
       <c r="C182" s="2">
         <v>6980212352665</v>
@@ -7269,7 +7230,7 @@
         <v>43279.290972222225</v>
       </c>
       <c r="F182" s="1" t="s">
-        <v>192</v>
+        <v>170</v>
       </c>
       <c r="G182">
         <v>1.1200000000000001</v>
@@ -7284,18 +7245,18 @@
         <v>20</v>
       </c>
       <c r="M182" t="s">
-        <v>297</v>
+        <v>275</v>
       </c>
       <c r="N182" t="s">
-        <v>296</v>
+        <v>274</v>
       </c>
     </row>
     <row r="183" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
-        <v>295</v>
+        <v>273</v>
       </c>
       <c r="B183" t="s">
-        <v>197</v>
+        <v>175</v>
       </c>
       <c r="C183" s="2">
         <v>6980059352518</v>
@@ -7307,7 +7268,7 @@
         <v>43279.296527777777</v>
       </c>
       <c r="F183" s="1" t="s">
-        <v>192</v>
+        <v>170</v>
       </c>
       <c r="G183">
         <v>0.41</v>
@@ -7322,18 +7283,18 @@
         <v>5</v>
       </c>
       <c r="M183" t="s">
-        <v>298</v>
+        <v>276</v>
       </c>
       <c r="N183" t="s">
-        <v>296</v>
+        <v>274</v>
       </c>
     </row>
     <row r="184" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
-        <v>295</v>
+        <v>273</v>
       </c>
       <c r="B184" t="s">
-        <v>202</v>
+        <v>180</v>
       </c>
       <c r="C184" s="2">
         <v>6980047352508</v>
@@ -7345,7 +7306,7 @@
         <v>43279.29791666667</v>
       </c>
       <c r="F184" s="1" t="s">
-        <v>192</v>
+        <v>170</v>
       </c>
       <c r="G184">
         <v>0.72</v>
@@ -7360,18 +7321,18 @@
         <v>39</v>
       </c>
       <c r="M184" t="s">
-        <v>226</v>
+        <v>204</v>
       </c>
       <c r="N184" t="s">
-        <v>296</v>
+        <v>274</v>
       </c>
     </row>
     <row r="185" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
-        <v>295</v>
+        <v>273</v>
       </c>
       <c r="B185" t="s">
-        <v>203</v>
+        <v>181</v>
       </c>
       <c r="C185" s="2">
         <v>6979533352050</v>
@@ -7383,7 +7344,7 @@
         <v>43279.30972222222</v>
       </c>
       <c r="F185" s="1" t="s">
-        <v>192</v>
+        <v>170</v>
       </c>
       <c r="G185">
         <v>0.49</v>
@@ -7398,18 +7359,18 @@
         <v>1</v>
       </c>
       <c r="M185" t="s">
-        <v>241</v>
+        <v>219</v>
       </c>
       <c r="N185" t="s">
-        <v>296</v>
+        <v>274</v>
       </c>
     </row>
     <row r="186" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
-        <v>295</v>
+        <v>273</v>
       </c>
       <c r="B186" t="s">
-        <v>204</v>
+        <v>182</v>
       </c>
       <c r="C186" s="2">
         <v>6979485352018</v>
@@ -7421,7 +7382,7 @@
         <v>43279.311805555553</v>
       </c>
       <c r="F186" s="1" t="s">
-        <v>192</v>
+        <v>170</v>
       </c>
       <c r="G186">
         <v>0.44</v>
@@ -7436,18 +7397,18 @@
         <v>11</v>
       </c>
       <c r="M186" t="s">
-        <v>241</v>
+        <v>219</v>
       </c>
       <c r="N186" t="s">
-        <v>296</v>
+        <v>274</v>
       </c>
     </row>
     <row r="187" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
-        <v>295</v>
+        <v>273</v>
       </c>
       <c r="B187" t="s">
-        <v>200</v>
+        <v>178</v>
       </c>
       <c r="C187" s="2">
         <v>6979450352004</v>
@@ -7459,18 +7420,18 @@
         <v>43279.313194444447</v>
       </c>
       <c r="F187" s="1" t="s">
-        <v>201</v>
+        <v>179</v>
       </c>
       <c r="N187" t="s">
-        <v>296</v>
+        <v>274</v>
       </c>
     </row>
     <row r="188" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
-        <v>295</v>
+        <v>273</v>
       </c>
       <c r="B188" t="s">
-        <v>205</v>
+        <v>183</v>
       </c>
       <c r="C188" s="2">
         <v>6979451352005</v>
@@ -7482,7 +7443,7 @@
         <v>43279.313888888886</v>
       </c>
       <c r="F188" s="1" t="s">
-        <v>192</v>
+        <v>170</v>
       </c>
       <c r="G188">
         <v>0.11</v>
@@ -7497,18 +7458,18 @@
         <v>16</v>
       </c>
       <c r="M188" t="s">
-        <v>220</v>
+        <v>198</v>
       </c>
       <c r="N188" t="s">
-        <v>296</v>
+        <v>274</v>
       </c>
     </row>
     <row r="189" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
-        <v>295</v>
+        <v>273</v>
       </c>
       <c r="B189" t="s">
-        <v>206</v>
+        <v>184</v>
       </c>
       <c r="C189" s="2">
         <v>6979455352012</v>
@@ -7520,7 +7481,7 @@
         <v>43279.314583333333</v>
       </c>
       <c r="F189" s="1" t="s">
-        <v>192</v>
+        <v>170</v>
       </c>
       <c r="G189">
         <v>0.08</v>
@@ -7535,18 +7496,18 @@
         <v>2</v>
       </c>
       <c r="M189" t="s">
-        <v>241</v>
+        <v>219</v>
       </c>
       <c r="N189" t="s">
-        <v>296</v>
+        <v>274</v>
       </c>
     </row>
     <row r="190" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
-        <v>295</v>
+        <v>273</v>
       </c>
       <c r="B190" t="s">
-        <v>209</v>
+        <v>187</v>
       </c>
       <c r="C190" s="2">
         <v>6979459352019</v>
@@ -7558,7 +7519,7 @@
         <v>43279.31527777778</v>
       </c>
       <c r="F190" s="1" t="s">
-        <v>192</v>
+        <v>170</v>
       </c>
       <c r="G190">
         <v>1.04</v>
@@ -7573,18 +7534,18 @@
         <v>1</v>
       </c>
       <c r="M190" t="s">
-        <v>241</v>
+        <v>219</v>
       </c>
       <c r="N190" t="s">
-        <v>296</v>
+        <v>274</v>
       </c>
     </row>
     <row r="191" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
-        <v>295</v>
+        <v>273</v>
       </c>
       <c r="B191" t="s">
-        <v>200</v>
+        <v>178</v>
       </c>
       <c r="C191" s="2">
         <v>6979457352096</v>
@@ -7596,18 +7557,18 @@
         <v>43279.318749999999</v>
       </c>
       <c r="F191" s="1" t="s">
-        <v>201</v>
+        <v>179</v>
       </c>
       <c r="N191" t="s">
-        <v>296</v>
+        <v>274</v>
       </c>
     </row>
     <row r="192" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
-        <v>295</v>
+        <v>273</v>
       </c>
       <c r="B192" t="s">
-        <v>210</v>
+        <v>188</v>
       </c>
       <c r="C192" s="2">
         <v>6979451352092</v>
@@ -7619,7 +7580,7 @@
         <v>43279.318749999999</v>
       </c>
       <c r="F192" s="1" t="s">
-        <v>192</v>
+        <v>170</v>
       </c>
       <c r="G192">
         <v>0.47</v>
@@ -7634,18 +7595,18 @@
         <v>14</v>
       </c>
       <c r="M192" t="s">
-        <v>241</v>
+        <v>219</v>
       </c>
       <c r="N192" t="s">
-        <v>296</v>
+        <v>274</v>
       </c>
     </row>
     <row r="193" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
-        <v>295</v>
+        <v>273</v>
       </c>
       <c r="B193" t="s">
-        <v>211</v>
+        <v>189</v>
       </c>
       <c r="C193" s="2">
         <v>6979362352012</v>
@@ -7657,7 +7618,7 @@
         <v>43279.321527777778</v>
       </c>
       <c r="F193" s="1" t="s">
-        <v>192</v>
+        <v>170</v>
       </c>
       <c r="G193">
         <v>0.05</v>
@@ -7672,18 +7633,18 @@
         <v>1</v>
       </c>
       <c r="M193" t="s">
-        <v>241</v>
+        <v>219</v>
       </c>
       <c r="N193" t="s">
-        <v>296</v>
+        <v>274</v>
       </c>
     </row>
     <row r="194" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
-        <v>295</v>
+        <v>273</v>
       </c>
       <c r="B194" t="s">
-        <v>246</v>
+        <v>224</v>
       </c>
       <c r="C194" s="2">
         <v>6979058351708</v>
@@ -7695,7 +7656,7 @@
         <v>43279.32708333333</v>
       </c>
       <c r="F194" s="1" t="s">
-        <v>192</v>
+        <v>170</v>
       </c>
       <c r="G194">
         <v>0.16</v>
@@ -7710,38 +7671,38 @@
         <v>1</v>
       </c>
       <c r="M194" t="s">
-        <v>220</v>
+        <v>198</v>
       </c>
       <c r="N194" t="s">
-        <v>296</v>
+        <v>274</v>
       </c>
     </row>
     <row r="195" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
-        <v>295</v>
+        <v>273</v>
       </c>
       <c r="B195" s="3" t="s">
-        <v>299</v>
+        <v>277</v>
       </c>
       <c r="C195" s="2">
         <v>6978333351234</v>
       </c>
       <c r="D195" t="s">
-        <v>300</v>
+        <v>278</v>
       </c>
       <c r="E195" s="1">
         <v>43277.337500000001</v>
       </c>
       <c r="F195" s="1" t="s">
-        <v>189</v>
+        <v>167</v>
       </c>
     </row>
     <row r="196" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
-        <v>295</v>
+        <v>273</v>
       </c>
       <c r="B196" t="s">
-        <v>249</v>
+        <v>227</v>
       </c>
       <c r="C196" s="2">
         <v>6978301351443</v>
@@ -7753,7 +7714,7 @@
         <v>43279.341666666667</v>
       </c>
       <c r="F196" s="1" t="s">
-        <v>192</v>
+        <v>170</v>
       </c>
       <c r="G196">
         <v>0.09</v>
@@ -7768,18 +7729,18 @@
         <v>1</v>
       </c>
       <c r="M196" t="s">
-        <v>220</v>
+        <v>198</v>
       </c>
       <c r="N196" t="s">
-        <v>296</v>
+        <v>274</v>
       </c>
     </row>
     <row r="197" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
-        <v>295</v>
+        <v>273</v>
       </c>
       <c r="B197" t="s">
-        <v>250</v>
+        <v>228</v>
       </c>
       <c r="C197" s="2">
         <v>6978297351472</v>
@@ -7791,7 +7752,7 @@
         <v>43279.342361111114</v>
       </c>
       <c r="F197" s="1" t="s">
-        <v>192</v>
+        <v>170</v>
       </c>
       <c r="G197">
         <v>0.52</v>
@@ -7806,18 +7767,18 @@
         <v>2</v>
       </c>
       <c r="M197" t="s">
-        <v>241</v>
+        <v>219</v>
       </c>
       <c r="N197" t="s">
-        <v>296</v>
+        <v>274</v>
       </c>
     </row>
     <row r="198" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
-        <v>295</v>
+        <v>273</v>
       </c>
       <c r="B198" t="s">
-        <v>252</v>
+        <v>230</v>
       </c>
       <c r="C198" s="2">
         <v>6978291351490</v>
@@ -7829,7 +7790,7 @@
         <v>43279.34375</v>
       </c>
       <c r="F198" s="1" t="s">
-        <v>192</v>
+        <v>170</v>
       </c>
       <c r="G198">
         <v>0.38</v>
@@ -7844,18 +7805,18 @@
         <v>1</v>
       </c>
       <c r="M198" t="s">
-        <v>241</v>
+        <v>219</v>
       </c>
       <c r="N198" t="s">
-        <v>296</v>
+        <v>274</v>
       </c>
     </row>
     <row r="199" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
-        <v>295</v>
+        <v>273</v>
       </c>
       <c r="B199" t="s">
-        <v>258</v>
+        <v>236</v>
       </c>
       <c r="C199" s="2">
         <v>6977910352784</v>
@@ -7867,7 +7828,7 @@
         <v>43279.414583333331</v>
       </c>
       <c r="F199" s="1" t="s">
-        <v>192</v>
+        <v>170</v>
       </c>
       <c r="G199">
         <v>0.5</v>
@@ -7882,18 +7843,18 @@
         <v>5</v>
       </c>
       <c r="M199" t="s">
-        <v>301</v>
+        <v>279</v>
       </c>
       <c r="N199" t="s">
-        <v>296</v>
+        <v>274</v>
       </c>
     </row>
     <row r="200" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
-        <v>295</v>
+        <v>273</v>
       </c>
       <c r="B200" t="s">
-        <v>259</v>
+        <v>237</v>
       </c>
       <c r="C200" s="2">
         <v>6977860353046</v>
@@ -7905,7 +7866,7 @@
         <v>43279.419444444444</v>
       </c>
       <c r="F200" s="1" t="s">
-        <v>192</v>
+        <v>170</v>
       </c>
       <c r="G200">
         <v>0.16</v>
@@ -7920,18 +7881,18 @@
         <v>5</v>
       </c>
       <c r="M200" t="s">
-        <v>220</v>
+        <v>198</v>
       </c>
       <c r="N200" t="s">
-        <v>296</v>
+        <v>274</v>
       </c>
     </row>
     <row r="201" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
-        <v>295</v>
+        <v>273</v>
       </c>
       <c r="B201" t="s">
-        <v>260</v>
+        <v>238</v>
       </c>
       <c r="C201" s="2">
         <v>6977861353067</v>
@@ -7943,7 +7904,7 @@
         <v>43279.42083333333</v>
       </c>
       <c r="F201" s="1" t="s">
-        <v>192</v>
+        <v>170</v>
       </c>
       <c r="G201">
         <v>7.0000000000000007E-2</v>
@@ -7958,18 +7919,18 @@
         <v>22</v>
       </c>
       <c r="M201" t="s">
-        <v>220</v>
+        <v>198</v>
       </c>
       <c r="N201" t="s">
-        <v>296</v>
+        <v>274</v>
       </c>
     </row>
     <row r="202" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
-        <v>295</v>
+        <v>273</v>
       </c>
       <c r="B202" t="s">
-        <v>260</v>
+        <v>238</v>
       </c>
       <c r="C202" s="2">
         <v>6977861353067</v>
@@ -7981,7 +7942,7 @@
         <v>43279.42083333333</v>
       </c>
       <c r="F202" s="1" t="s">
-        <v>192</v>
+        <v>170</v>
       </c>
       <c r="G202">
         <v>1.19</v>
@@ -7996,18 +7957,18 @@
         <v>33</v>
       </c>
       <c r="M202" t="s">
-        <v>220</v>
+        <v>198</v>
       </c>
       <c r="N202" t="s">
-        <v>296</v>
+        <v>274</v>
       </c>
     </row>
     <row r="203" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
-        <v>295</v>
+        <v>273</v>
       </c>
       <c r="B203" t="s">
-        <v>260</v>
+        <v>238</v>
       </c>
       <c r="C203" s="2">
         <v>6977861353067</v>
@@ -8019,7 +7980,7 @@
         <v>43279.42083333333</v>
       </c>
       <c r="F203" s="1" t="s">
-        <v>192</v>
+        <v>170</v>
       </c>
       <c r="G203">
         <v>0.61</v>
@@ -8034,15 +7995,15 @@
         <v>15</v>
       </c>
       <c r="M203" t="s">
-        <v>220</v>
+        <v>198</v>
       </c>
     </row>
     <row r="204" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
-        <v>295</v>
+        <v>273</v>
       </c>
       <c r="B204" t="s">
-        <v>302</v>
+        <v>280</v>
       </c>
       <c r="C204" s="2">
         <v>6977865353087</v>
@@ -8054,7 +8015,7 @@
         <v>43279.422222222223</v>
       </c>
       <c r="F204" s="1" t="s">
-        <v>192</v>
+        <v>170</v>
       </c>
       <c r="G204">
         <v>0.03</v>
@@ -8069,18 +8030,18 @@
         <v>4</v>
       </c>
       <c r="M204" t="s">
-        <v>241</v>
+        <v>219</v>
       </c>
       <c r="N204" t="s">
-        <v>296</v>
+        <v>274</v>
       </c>
     </row>
     <row r="205" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
-        <v>295</v>
+        <v>273</v>
       </c>
       <c r="B205" t="s">
-        <v>303</v>
+        <v>281</v>
       </c>
       <c r="C205" s="2">
         <v>6977856353173</v>
@@ -8092,7 +8053,7 @@
         <v>43279.424305555556</v>
       </c>
       <c r="F205" s="1" t="s">
-        <v>192</v>
+        <v>170</v>
       </c>
       <c r="G205">
         <v>1.29</v>
@@ -8107,18 +8068,18 @@
         <v>38</v>
       </c>
       <c r="M205" t="s">
-        <v>241</v>
+        <v>219</v>
       </c>
       <c r="N205" t="s">
-        <v>296</v>
+        <v>274</v>
       </c>
     </row>
     <row r="206" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
-        <v>295</v>
+        <v>273</v>
       </c>
       <c r="B206" t="s">
-        <v>304</v>
+        <v>282</v>
       </c>
       <c r="C206" s="2">
         <v>6977844353209</v>
@@ -8130,7 +8091,7 @@
         <v>43279.425694444442</v>
       </c>
       <c r="F206" s="1" t="s">
-        <v>192</v>
+        <v>170</v>
       </c>
       <c r="G206">
         <v>0.15</v>
@@ -8145,18 +8106,18 @@
         <v>5</v>
       </c>
       <c r="M206" t="s">
-        <v>241</v>
+        <v>219</v>
       </c>
       <c r="N206" t="s">
-        <v>296</v>
+        <v>274</v>
       </c>
     </row>
     <row r="207" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
-        <v>295</v>
+        <v>273</v>
       </c>
       <c r="B207" t="s">
-        <v>305</v>
+        <v>283</v>
       </c>
       <c r="C207" s="2">
         <v>6977797353337</v>
@@ -8168,7 +8129,7 @@
         <v>43279.428472222222</v>
       </c>
       <c r="F207" s="1" t="s">
-        <v>192</v>
+        <v>170</v>
       </c>
       <c r="G207">
         <v>0.36</v>
@@ -8183,18 +8144,18 @@
         <v>2</v>
       </c>
       <c r="M207" t="s">
-        <v>241</v>
+        <v>219</v>
       </c>
       <c r="N207" t="s">
-        <v>296</v>
+        <v>274</v>
       </c>
     </row>
     <row r="208" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
-        <v>295</v>
+        <v>273</v>
       </c>
       <c r="B208" t="s">
-        <v>306</v>
+        <v>284</v>
       </c>
       <c r="C208" s="2">
         <v>6977575354652</v>
@@ -8206,7 +8167,7 @@
         <v>43279.447222222225</v>
       </c>
       <c r="F208" s="1" t="s">
-        <v>192</v>
+        <v>170</v>
       </c>
       <c r="G208">
         <v>0.21</v>
@@ -8221,18 +8182,18 @@
         <v>10</v>
       </c>
       <c r="M208" t="s">
-        <v>307</v>
+        <v>285</v>
       </c>
       <c r="N208" t="s">
-        <v>296</v>
+        <v>274</v>
       </c>
     </row>
     <row r="209" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
-        <v>295</v>
+        <v>273</v>
       </c>
       <c r="B209" t="s">
-        <v>306</v>
+        <v>284</v>
       </c>
       <c r="C209" s="2">
         <v>6977575354652</v>
@@ -8244,7 +8205,7 @@
         <v>43279.447222222225</v>
       </c>
       <c r="F209" s="1" t="s">
-        <v>192</v>
+        <v>170</v>
       </c>
       <c r="G209">
         <v>0.51</v>
@@ -8259,18 +8220,18 @@
         <v>15</v>
       </c>
       <c r="M209" t="s">
-        <v>307</v>
+        <v>285</v>
       </c>
       <c r="N209" t="s">
-        <v>296</v>
+        <v>274</v>
       </c>
     </row>
     <row r="210" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
-        <v>295</v>
+        <v>273</v>
       </c>
       <c r="B210" t="s">
-        <v>306</v>
+        <v>284</v>
       </c>
       <c r="C210" s="2">
         <v>6977575354652</v>
@@ -8282,7 +8243,7 @@
         <v>43279.447222222225</v>
       </c>
       <c r="F210" s="1" t="s">
-        <v>192</v>
+        <v>170</v>
       </c>
       <c r="G210">
         <v>0.38</v>
@@ -8297,18 +8258,18 @@
         <v>5</v>
       </c>
       <c r="M210" t="s">
-        <v>241</v>
+        <v>219</v>
       </c>
       <c r="N210" t="s">
-        <v>296</v>
+        <v>274</v>
       </c>
     </row>
     <row r="211" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
-        <v>295</v>
+        <v>273</v>
       </c>
       <c r="B211" t="s">
-        <v>306</v>
+        <v>284</v>
       </c>
       <c r="C211" s="2">
         <v>6977575354652</v>
@@ -8320,7 +8281,7 @@
         <v>43279.447222222225</v>
       </c>
       <c r="F211" s="1" t="s">
-        <v>192</v>
+        <v>170</v>
       </c>
       <c r="G211">
         <v>0.52</v>
@@ -8335,41 +8296,41 @@
         <v>17</v>
       </c>
       <c r="M211" t="s">
-        <v>269</v>
+        <v>247</v>
       </c>
       <c r="N211" t="s">
-        <v>296</v>
+        <v>274</v>
       </c>
     </row>
     <row r="212" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
-        <v>295</v>
+        <v>273</v>
       </c>
       <c r="B212" s="3" t="s">
-        <v>187</v>
+        <v>165</v>
       </c>
       <c r="C212" s="2">
         <v>6977503355128</v>
       </c>
       <c r="D212" t="s">
-        <v>309</v>
+        <v>287</v>
       </c>
       <c r="E212" s="1">
         <v>43277.457638888889</v>
       </c>
       <c r="F212" s="1" t="s">
-        <v>189</v>
+        <v>167</v>
       </c>
       <c r="N212" t="s">
-        <v>321</v>
+        <v>299</v>
       </c>
     </row>
     <row r="213" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
-        <v>295</v>
+        <v>273</v>
       </c>
       <c r="B213" t="s">
-        <v>308</v>
+        <v>286</v>
       </c>
       <c r="C213" s="2">
         <v>6978571354702</v>
@@ -8381,7 +8342,7 @@
         <v>43279.47152777778</v>
       </c>
       <c r="F213" s="1" t="s">
-        <v>192</v>
+        <v>170</v>
       </c>
       <c r="G213">
         <v>0</v>
@@ -8396,18 +8357,18 @@
         <v>3</v>
       </c>
       <c r="M213" t="s">
-        <v>241</v>
+        <v>219</v>
       </c>
       <c r="N213" t="s">
-        <v>321</v>
+        <v>299</v>
       </c>
     </row>
     <row r="214" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
-        <v>295</v>
+        <v>273</v>
       </c>
       <c r="B214" t="s">
-        <v>310</v>
+        <v>288</v>
       </c>
       <c r="C214" s="2">
         <v>6979142354504</v>
@@ -8419,7 +8380,7 @@
         <v>43279.486805555556</v>
       </c>
       <c r="F214" s="1" t="s">
-        <v>192</v>
+        <v>170</v>
       </c>
       <c r="G214">
         <v>0</v>
@@ -8434,18 +8395,18 @@
         <v>2</v>
       </c>
       <c r="M214" t="s">
-        <v>311</v>
+        <v>289</v>
       </c>
       <c r="N214" t="s">
-        <v>321</v>
+        <v>299</v>
       </c>
     </row>
     <row r="215" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
-        <v>295</v>
+        <v>273</v>
       </c>
       <c r="B215" t="s">
-        <v>312</v>
+        <v>290</v>
       </c>
       <c r="C215" s="2">
         <v>6979932354155</v>
@@ -8457,7 +8418,7 @@
         <v>43279.498611111114</v>
       </c>
       <c r="F215" s="1" t="s">
-        <v>192</v>
+        <v>170</v>
       </c>
       <c r="G215">
         <v>0.18</v>
@@ -8472,18 +8433,18 @@
         <v>1</v>
       </c>
       <c r="M215" t="s">
-        <v>241</v>
+        <v>219</v>
       </c>
       <c r="N215" t="s">
-        <v>321</v>
+        <v>299</v>
       </c>
     </row>
     <row r="216" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
-        <v>295</v>
+        <v>273</v>
       </c>
       <c r="B216" t="s">
-        <v>313</v>
+        <v>291</v>
       </c>
       <c r="C216" s="2">
         <v>6979961354157</v>
@@ -8495,7 +8456,7 @@
         <v>43279.500694444447</v>
       </c>
       <c r="F216" s="1" t="s">
-        <v>192</v>
+        <v>170</v>
       </c>
       <c r="G216">
         <v>0</v>
@@ -8510,18 +8471,18 @@
         <v>4</v>
       </c>
       <c r="M216" t="s">
-        <v>314</v>
+        <v>292</v>
       </c>
       <c r="N216" t="s">
-        <v>321</v>
+        <v>299</v>
       </c>
     </row>
     <row r="217" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
-        <v>295</v>
+        <v>273</v>
       </c>
       <c r="B217" t="s">
-        <v>315</v>
+        <v>293</v>
       </c>
       <c r="C217" s="2">
         <v>6980285354065</v>
@@ -8533,7 +8494,7 @@
         <v>43279.506944444445</v>
       </c>
       <c r="F217" s="1" t="s">
-        <v>192</v>
+        <v>170</v>
       </c>
       <c r="G217">
         <v>0.02</v>
@@ -8548,18 +8509,18 @@
         <v>10</v>
       </c>
       <c r="M217" t="s">
-        <v>316</v>
+        <v>294</v>
       </c>
       <c r="N217" t="s">
-        <v>321</v>
+        <v>299</v>
       </c>
     </row>
     <row r="218" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
-        <v>295</v>
+        <v>273</v>
       </c>
       <c r="B218" t="s">
-        <v>315</v>
+        <v>293</v>
       </c>
       <c r="C218" s="2">
         <v>6980285354065</v>
@@ -8571,7 +8532,7 @@
         <v>43279.506944444445</v>
       </c>
       <c r="F218" s="1" t="s">
-        <v>192</v>
+        <v>170</v>
       </c>
       <c r="G218">
         <v>0.03</v>
@@ -8586,18 +8547,18 @@
         <v>5</v>
       </c>
       <c r="M218" t="s">
-        <v>316</v>
+        <v>294</v>
       </c>
       <c r="N218" t="s">
-        <v>321</v>
+        <v>299</v>
       </c>
     </row>
     <row r="219" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
-        <v>295</v>
+        <v>273</v>
       </c>
       <c r="B219" t="s">
-        <v>315</v>
+        <v>293</v>
       </c>
       <c r="C219" s="2">
         <v>6980285354065</v>
@@ -8609,7 +8570,7 @@
         <v>43279.506944444445</v>
       </c>
       <c r="F219" s="1" t="s">
-        <v>192</v>
+        <v>170</v>
       </c>
       <c r="G219">
         <v>0.38</v>
@@ -8624,18 +8585,18 @@
         <v>13</v>
       </c>
       <c r="M219" t="s">
-        <v>316</v>
+        <v>294</v>
       </c>
       <c r="N219" t="s">
-        <v>321</v>
+        <v>299</v>
       </c>
     </row>
     <row r="220" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
-        <v>295</v>
+        <v>273</v>
       </c>
       <c r="B220" t="s">
-        <v>315</v>
+        <v>293</v>
       </c>
       <c r="C220" s="2">
         <v>6980285354065</v>
@@ -8647,7 +8608,7 @@
         <v>43279.506944444445</v>
       </c>
       <c r="F220" s="1" t="s">
-        <v>192</v>
+        <v>170</v>
       </c>
       <c r="G220">
         <v>1.35</v>
@@ -8662,18 +8623,18 @@
         <v>5</v>
       </c>
       <c r="M220" t="s">
-        <v>316</v>
+        <v>294</v>
       </c>
       <c r="N220" t="s">
-        <v>321</v>
+        <v>299</v>
       </c>
     </row>
     <row r="221" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
+        <v>273</v>
+      </c>
+      <c r="B221" t="s">
         <v>295</v>
-      </c>
-      <c r="B221" t="s">
-        <v>317</v>
       </c>
       <c r="C221" s="2">
         <v>6980874353935</v>
@@ -8685,7 +8646,7 @@
         <v>43279.515972222223</v>
       </c>
       <c r="F221" s="1" t="s">
-        <v>192</v>
+        <v>170</v>
       </c>
       <c r="G221">
         <v>0.38</v>
@@ -8700,18 +8661,18 @@
         <v>1</v>
       </c>
       <c r="M221" t="s">
-        <v>220</v>
+        <v>198</v>
       </c>
       <c r="N221" t="s">
-        <v>321</v>
+        <v>299</v>
       </c>
     </row>
     <row r="222" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
-        <v>295</v>
+        <v>273</v>
       </c>
       <c r="B222" t="s">
-        <v>318</v>
+        <v>296</v>
       </c>
       <c r="C222" s="2">
         <v>6980891353931</v>
@@ -8723,7 +8684,7 @@
         <v>43279.517361111109</v>
       </c>
       <c r="F222" s="1" t="s">
-        <v>192</v>
+        <v>170</v>
       </c>
       <c r="G222">
         <v>0.35</v>
@@ -8738,18 +8699,18 @@
         <v>1</v>
       </c>
       <c r="M222" t="s">
-        <v>241</v>
+        <v>219</v>
       </c>
       <c r="N222" t="s">
-        <v>321</v>
+        <v>299</v>
       </c>
     </row>
     <row r="223" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
-        <v>295</v>
+        <v>273</v>
       </c>
       <c r="B223" t="s">
-        <v>319</v>
+        <v>297</v>
       </c>
       <c r="C223" s="2">
         <v>6980914353924</v>
@@ -8761,7 +8722,7 @@
         <v>43279.518750000003</v>
       </c>
       <c r="F223" s="1" t="s">
-        <v>192</v>
+        <v>170</v>
       </c>
       <c r="G223">
         <v>0.43</v>
@@ -8776,33 +8737,33 @@
         <v>36</v>
       </c>
       <c r="M223" t="s">
-        <v>320</v>
+        <v>298</v>
       </c>
       <c r="N223" t="s">
-        <v>321</v>
+        <v>299</v>
       </c>
     </row>
     <row r="224" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
-        <v>295</v>
+        <v>273</v>
       </c>
       <c r="B224" s="3" t="s">
-        <v>198</v>
+        <v>176</v>
       </c>
       <c r="C224" s="2">
         <v>6981270353841</v>
       </c>
       <c r="D224" t="s">
-        <v>281</v>
+        <v>259</v>
       </c>
       <c r="E224" s="1">
         <v>43279.526388888888</v>
       </c>
       <c r="F224" s="1" t="s">
-        <v>275</v>
+        <v>253</v>
       </c>
       <c r="N224" t="s">
-        <v>321</v>
+        <v>299</v>
       </c>
     </row>
     <row r="225" spans="1:14" x14ac:dyDescent="0.2">
@@ -8816,33 +8777,33 @@
     </row>
     <row r="228" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A228" t="s">
-        <v>322</v>
+        <v>300</v>
       </c>
       <c r="B228" s="3" t="s">
-        <v>323</v>
+        <v>301</v>
       </c>
       <c r="C228" s="2">
         <v>7008546366649</v>
       </c>
       <c r="D228" t="s">
-        <v>324</v>
+        <v>302</v>
       </c>
       <c r="E228" s="1">
         <v>43283.493055555555</v>
       </c>
       <c r="F228" t="s">
-        <v>190</v>
+        <v>168</v>
       </c>
       <c r="N228" t="s">
-        <v>325</v>
+        <v>303</v>
       </c>
     </row>
     <row r="229" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A229" t="s">
-        <v>322</v>
+        <v>300</v>
       </c>
       <c r="B229" t="s">
-        <v>191</v>
+        <v>169</v>
       </c>
       <c r="C229" s="2">
         <v>7008446366454</v>
@@ -8854,7 +8815,7 @@
         <v>43283.498611111114</v>
       </c>
       <c r="F229" s="1" t="s">
-        <v>192</v>
+        <v>170</v>
       </c>
       <c r="G229">
         <v>0</v>
@@ -8869,18 +8830,18 @@
         <v>1</v>
       </c>
       <c r="M229" t="s">
-        <v>287</v>
+        <v>265</v>
       </c>
       <c r="N229" t="s">
-        <v>325</v>
+        <v>303</v>
       </c>
     </row>
     <row r="230" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A230" t="s">
-        <v>322</v>
+        <v>300</v>
       </c>
       <c r="B230" t="s">
-        <v>193</v>
+        <v>171</v>
       </c>
       <c r="C230" s="2">
         <v>7008274366146</v>
@@ -8892,7 +8853,7 @@
         <v>43283.506944444445</v>
       </c>
       <c r="F230" s="1" t="s">
-        <v>192</v>
+        <v>170</v>
       </c>
       <c r="G230">
         <v>0.22</v>
@@ -8907,18 +8868,18 @@
         <v>2</v>
       </c>
       <c r="M230" t="s">
-        <v>241</v>
+        <v>219</v>
       </c>
       <c r="N230" t="s">
-        <v>325</v>
+        <v>303</v>
       </c>
     </row>
     <row r="231" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A231" t="s">
-        <v>322</v>
+        <v>300</v>
       </c>
       <c r="B231" t="s">
-        <v>194</v>
+        <v>172</v>
       </c>
       <c r="C231" s="2">
         <v>7008058365732</v>
@@ -8930,7 +8891,7 @@
         <v>43283.513888888891</v>
       </c>
       <c r="F231" s="1" t="s">
-        <v>192</v>
+        <v>170</v>
       </c>
       <c r="G231">
         <v>0.02</v>
@@ -8945,18 +8906,18 @@
         <v>1</v>
       </c>
       <c r="M231" t="s">
-        <v>241</v>
+        <v>219</v>
       </c>
       <c r="N231" t="s">
-        <v>325</v>
+        <v>303</v>
       </c>
     </row>
     <row r="232" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A232" t="s">
-        <v>322</v>
+        <v>300</v>
       </c>
       <c r="B232" t="s">
-        <v>195</v>
+        <v>173</v>
       </c>
       <c r="C232" s="2">
         <v>7007697364981</v>
@@ -8968,7 +8929,7 @@
         <v>43283.525694444441</v>
       </c>
       <c r="F232" s="1" t="s">
-        <v>192</v>
+        <v>170</v>
       </c>
       <c r="G232">
         <v>0.28999999999999998</v>
@@ -8980,18 +8941,18 @@
         <v>15</v>
       </c>
       <c r="M232" t="s">
-        <v>326</v>
+        <v>304</v>
       </c>
       <c r="N232" t="s">
-        <v>325</v>
+        <v>303</v>
       </c>
     </row>
     <row r="233" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
-        <v>322</v>
+        <v>300</v>
       </c>
       <c r="B233" t="s">
-        <v>195</v>
+        <v>173</v>
       </c>
       <c r="C233" s="2">
         <v>7007697364981</v>
@@ -9003,7 +8964,7 @@
         <v>43283.525694444441</v>
       </c>
       <c r="F233" s="1" t="s">
-        <v>192</v>
+        <v>170</v>
       </c>
       <c r="G233">
         <v>0.87</v>
@@ -9015,18 +8976,18 @@
         <v>9</v>
       </c>
       <c r="M233" t="s">
-        <v>326</v>
+        <v>304</v>
       </c>
       <c r="N233" t="s">
-        <v>325</v>
+        <v>303</v>
       </c>
     </row>
     <row r="234" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A234" t="s">
-        <v>322</v>
+        <v>300</v>
       </c>
       <c r="B234" t="s">
-        <v>196</v>
+        <v>174</v>
       </c>
       <c r="C234" s="2">
         <v>7007640364853</v>
@@ -9038,7 +8999,7 @@
         <v>43283.529166666667</v>
       </c>
       <c r="F234" s="1" t="s">
-        <v>192</v>
+        <v>170</v>
       </c>
       <c r="G234">
         <v>0.1</v>
@@ -9053,18 +9014,18 @@
         <v>3</v>
       </c>
       <c r="M234" t="s">
-        <v>220</v>
+        <v>198</v>
       </c>
       <c r="N234" t="s">
-        <v>325</v>
+        <v>303</v>
       </c>
     </row>
     <row r="235" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
-        <v>322</v>
+        <v>300</v>
       </c>
       <c r="B235" t="s">
-        <v>196</v>
+        <v>174</v>
       </c>
       <c r="C235" s="2">
         <v>7007640364853</v>
@@ -9076,7 +9037,7 @@
         <v>43283.529166666667</v>
       </c>
       <c r="F235" s="1" t="s">
-        <v>192</v>
+        <v>170</v>
       </c>
       <c r="G235">
         <v>0.06</v>
@@ -9091,18 +9052,18 @@
         <v>4</v>
       </c>
       <c r="M235" t="s">
-        <v>241</v>
+        <v>219</v>
       </c>
       <c r="N235" t="s">
-        <v>325</v>
+        <v>303</v>
       </c>
     </row>
     <row r="236" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A236" t="s">
-        <v>322</v>
+        <v>300</v>
       </c>
       <c r="B236" t="s">
-        <v>197</v>
+        <v>175</v>
       </c>
       <c r="C236" s="2">
         <v>7007642364847</v>
@@ -9114,7 +9075,7 @@
         <v>43283.530555555553</v>
       </c>
       <c r="F236" s="1" t="s">
-        <v>192</v>
+        <v>170</v>
       </c>
       <c r="G236">
         <v>0.4</v>
@@ -9129,18 +9090,18 @@
         <v>12</v>
       </c>
       <c r="M236" t="s">
-        <v>241</v>
+        <v>219</v>
       </c>
       <c r="N236" t="s">
-        <v>325</v>
+        <v>303</v>
       </c>
     </row>
     <row r="237" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A237" t="s">
-        <v>322</v>
+        <v>300</v>
       </c>
       <c r="B237" t="s">
-        <v>202</v>
+        <v>180</v>
       </c>
       <c r="C237" s="2">
         <v>7007282364035</v>
@@ -9152,7 +9113,7 @@
         <v>43283.542361111111</v>
       </c>
       <c r="F237" s="1" t="s">
-        <v>192</v>
+        <v>170</v>
       </c>
       <c r="G237">
         <v>0.21</v>
@@ -9167,18 +9128,18 @@
         <v>1</v>
       </c>
       <c r="M237" t="s">
-        <v>282</v>
+        <v>260</v>
       </c>
       <c r="N237" t="s">
-        <v>325</v>
+        <v>303</v>
       </c>
     </row>
     <row r="238" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A238" t="s">
-        <v>322</v>
+        <v>300</v>
       </c>
       <c r="B238" t="s">
-        <v>203</v>
+        <v>181</v>
       </c>
       <c r="C238" s="2">
         <v>7006937363535</v>
@@ -9190,7 +9151,7 @@
         <v>43283.552777777775</v>
       </c>
       <c r="F238" s="1" t="s">
-        <v>192</v>
+        <v>170</v>
       </c>
       <c r="G238">
         <v>0.15</v>
@@ -9205,18 +9166,18 @@
         <v>4</v>
       </c>
       <c r="M238" t="s">
-        <v>219</v>
+        <v>197</v>
       </c>
       <c r="N238" t="s">
-        <v>325</v>
+        <v>303</v>
       </c>
     </row>
     <row r="239" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A239" t="s">
-        <v>322</v>
+        <v>300</v>
       </c>
       <c r="B239" t="s">
-        <v>204</v>
+        <v>182</v>
       </c>
       <c r="C239" s="2">
         <v>7006658363080</v>
@@ -9228,7 +9189,7 @@
         <v>43283.56527777778</v>
       </c>
       <c r="F239" s="1" t="s">
-        <v>192</v>
+        <v>170</v>
       </c>
       <c r="G239">
         <v>0.3</v>
@@ -9243,18 +9204,18 @@
         <v>3</v>
       </c>
       <c r="M239" t="s">
-        <v>282</v>
+        <v>260</v>
       </c>
       <c r="N239" t="s">
-        <v>325</v>
+        <v>303</v>
       </c>
     </row>
     <row r="240" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A240" t="s">
-        <v>322</v>
+        <v>300</v>
       </c>
       <c r="B240" t="s">
-        <v>204</v>
+        <v>182</v>
       </c>
       <c r="C240" s="2">
         <v>7006658363080</v>
@@ -9266,7 +9227,7 @@
         <v>43283.56527777778</v>
       </c>
       <c r="F240" s="1" t="s">
-        <v>192</v>
+        <v>170</v>
       </c>
       <c r="G240">
         <v>0.11</v>
@@ -9281,18 +9242,18 @@
         <v>1</v>
       </c>
       <c r="M240" t="s">
-        <v>327</v>
+        <v>305</v>
       </c>
       <c r="N240" t="s">
-        <v>325</v>
+        <v>303</v>
       </c>
     </row>
     <row r="241" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A241" t="s">
-        <v>322</v>
+        <v>300</v>
       </c>
       <c r="B241" t="s">
-        <v>204</v>
+        <v>182</v>
       </c>
       <c r="C241" s="2">
         <v>7006658363080</v>
@@ -9304,7 +9265,7 @@
         <v>43283.56527777778</v>
       </c>
       <c r="F241" s="1" t="s">
-        <v>192</v>
+        <v>170</v>
       </c>
       <c r="G241">
         <v>2.77</v>
@@ -9319,15 +9280,15 @@
         <v>12</v>
       </c>
       <c r="M241" t="s">
-        <v>282</v>
+        <v>260</v>
       </c>
       <c r="N241" t="s">
-        <v>325</v>
+        <v>303</v>
       </c>
     </row>
     <row r="242" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A242" t="s">
-        <v>322</v>
+        <v>300</v>
       </c>
       <c r="B242" t="s">
         <v>121</v>
@@ -9354,15 +9315,15 @@
         <v>1</v>
       </c>
       <c r="N242" t="s">
-        <v>325</v>
+        <v>303</v>
       </c>
     </row>
     <row r="243" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A243" t="s">
-        <v>322</v>
+        <v>300</v>
       </c>
       <c r="B243" t="s">
-        <v>205</v>
+        <v>183</v>
       </c>
       <c r="C243" s="2">
         <v>7007870362915</v>
@@ -9374,7 +9335,7 @@
         <v>43283.619444444441</v>
       </c>
       <c r="F243" s="1" t="s">
-        <v>192</v>
+        <v>170</v>
       </c>
       <c r="G243">
         <v>0.08</v>
@@ -9389,18 +9350,18 @@
         <v>1</v>
       </c>
       <c r="M243" t="s">
-        <v>282</v>
+        <v>260</v>
       </c>
       <c r="N243" t="s">
-        <v>325</v>
+        <v>303</v>
       </c>
     </row>
     <row r="244" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A244" t="s">
-        <v>322</v>
+        <v>300</v>
       </c>
       <c r="B244" t="s">
-        <v>200</v>
+        <v>178</v>
       </c>
       <c r="C244" s="2">
         <v>7010603362818</v>
@@ -9412,38 +9373,38 @@
         <v>43283.652083333334</v>
       </c>
       <c r="F244" s="1" t="s">
-        <v>201</v>
+        <v>179</v>
       </c>
       <c r="N244" t="s">
-        <v>325</v>
+        <v>303</v>
       </c>
     </row>
     <row r="245" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A245" t="s">
-        <v>322</v>
+        <v>300</v>
       </c>
       <c r="B245" s="3" t="s">
-        <v>198</v>
+        <v>176</v>
       </c>
       <c r="C245" s="2">
         <v>7010638362876</v>
       </c>
       <c r="D245" t="s">
-        <v>328</v>
+        <v>306</v>
       </c>
       <c r="E245" s="1">
         <v>43283.654166666667</v>
       </c>
       <c r="F245" t="s">
-        <v>189</v>
+        <v>167</v>
       </c>
     </row>
     <row r="246" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A246" t="s">
-        <v>322</v>
+        <v>300</v>
       </c>
       <c r="B246" t="s">
-        <v>206</v>
+        <v>184</v>
       </c>
       <c r="C246" s="2">
         <v>7009945363862</v>
@@ -9455,7 +9416,7 @@
         <v>43283.67291666667</v>
       </c>
       <c r="F246" s="1" t="s">
-        <v>192</v>
+        <v>170</v>
       </c>
       <c r="G246">
         <v>7.0000000000000007E-2</v>
@@ -9470,18 +9431,18 @@
         <v>2</v>
       </c>
       <c r="M246" t="s">
-        <v>241</v>
+        <v>219</v>
       </c>
       <c r="N246" t="s">
-        <v>325</v>
+        <v>303</v>
       </c>
     </row>
     <row r="247" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A247" t="s">
-        <v>322</v>
+        <v>300</v>
       </c>
       <c r="B247" t="s">
-        <v>200</v>
+        <v>178</v>
       </c>
       <c r="C247" s="2">
         <v>7009257365321</v>
@@ -9493,18 +9454,18 @@
         <v>43283.743055555555</v>
       </c>
       <c r="F247" s="1" t="s">
-        <v>201</v>
+        <v>179</v>
       </c>
       <c r="N247" t="s">
-        <v>325</v>
+        <v>303</v>
       </c>
     </row>
     <row r="248" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A248" t="s">
-        <v>322</v>
+        <v>300</v>
       </c>
       <c r="B248" t="s">
-        <v>209</v>
+        <v>187</v>
       </c>
       <c r="C248" s="2">
         <v>7009246365393</v>
@@ -9516,7 +9477,7 @@
         <v>43283.745138888888</v>
       </c>
       <c r="F248" s="1" t="s">
-        <v>192</v>
+        <v>170</v>
       </c>
       <c r="G248">
         <v>0.12</v>
@@ -9531,18 +9492,18 @@
         <v>1</v>
       </c>
       <c r="M248" t="s">
-        <v>241</v>
+        <v>219</v>
       </c>
       <c r="N248" t="s">
-        <v>325</v>
+        <v>303</v>
       </c>
     </row>
     <row r="249" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A249" t="s">
-        <v>322</v>
+        <v>300</v>
       </c>
       <c r="B249" t="s">
-        <v>210</v>
+        <v>188</v>
       </c>
       <c r="C249" s="2">
         <v>7009221365532</v>
@@ -9554,7 +9515,7 @@
         <v>43283.747916666667</v>
       </c>
       <c r="F249" s="1" t="s">
-        <v>192</v>
+        <v>170</v>
       </c>
       <c r="G249">
         <v>0.19</v>
@@ -9569,18 +9530,18 @@
         <v>2</v>
       </c>
       <c r="M249" t="s">
-        <v>241</v>
+        <v>219</v>
       </c>
       <c r="N249" t="s">
-        <v>325</v>
+        <v>303</v>
       </c>
     </row>
     <row r="250" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A250" t="s">
-        <v>322</v>
+        <v>300</v>
       </c>
       <c r="B250" t="s">
-        <v>211</v>
+        <v>189</v>
       </c>
       <c r="C250" s="2">
         <v>7009215365581</v>
@@ -9592,7 +9553,7 @@
         <v>43283.749305555553</v>
       </c>
       <c r="F250" s="1" t="s">
-        <v>192</v>
+        <v>170</v>
       </c>
       <c r="G250">
         <v>0.61</v>
@@ -9607,18 +9568,18 @@
         <v>1</v>
       </c>
       <c r="M250" t="s">
-        <v>241</v>
+        <v>219</v>
       </c>
       <c r="N250" t="s">
-        <v>325</v>
+        <v>303</v>
       </c>
     </row>
     <row r="251" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A251" t="s">
-        <v>322</v>
+        <v>300</v>
       </c>
       <c r="B251" t="s">
-        <v>211</v>
+        <v>189</v>
       </c>
       <c r="C251" s="2">
         <v>7009215365581</v>
@@ -9630,7 +9591,7 @@
         <v>43283.749305555553</v>
       </c>
       <c r="F251" s="1" t="s">
-        <v>192</v>
+        <v>170</v>
       </c>
       <c r="G251">
         <v>0.55000000000000004</v>
@@ -9645,18 +9606,18 @@
         <v>2</v>
       </c>
       <c r="M251" t="s">
-        <v>241</v>
+        <v>219</v>
       </c>
       <c r="N251" t="s">
-        <v>325</v>
+        <v>303</v>
       </c>
     </row>
     <row r="252" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A252" t="s">
-        <v>322</v>
+        <v>300</v>
       </c>
       <c r="B252" t="s">
-        <v>246</v>
+        <v>224</v>
       </c>
       <c r="C252" s="2">
         <v>7009220365592</v>
@@ -9668,7 +9629,7 @@
         <v>43283.750694444447</v>
       </c>
       <c r="F252" s="1" t="s">
-        <v>192</v>
+        <v>170</v>
       </c>
       <c r="G252">
         <v>7.0000000000000007E-2</v>
@@ -9683,18 +9644,18 @@
         <v>1</v>
       </c>
       <c r="M252" t="s">
-        <v>241</v>
+        <v>219</v>
       </c>
       <c r="N252" t="s">
-        <v>325</v>
+        <v>303</v>
       </c>
     </row>
     <row r="253" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A253" t="s">
-        <v>322</v>
+        <v>300</v>
       </c>
       <c r="B253" t="s">
-        <v>249</v>
+        <v>227</v>
       </c>
       <c r="C253" s="2">
         <v>7009216365643</v>
@@ -9706,7 +9667,7 @@
         <v>43283.75277777778</v>
       </c>
       <c r="F253" s="1" t="s">
-        <v>192</v>
+        <v>170</v>
       </c>
       <c r="G253">
         <v>0.44</v>
@@ -9721,18 +9682,18 @@
         <v>1</v>
       </c>
       <c r="M253" t="s">
-        <v>241</v>
+        <v>219</v>
       </c>
       <c r="N253" t="s">
-        <v>325</v>
+        <v>303</v>
       </c>
     </row>
     <row r="254" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A254" t="s">
-        <v>322</v>
+        <v>300</v>
       </c>
       <c r="B254" t="s">
-        <v>200</v>
+        <v>178</v>
       </c>
       <c r="C254" s="2">
         <v>7009215365667</v>
@@ -9744,18 +9705,18 @@
         <v>43283.753472222219</v>
       </c>
       <c r="F254" s="1" t="s">
-        <v>201</v>
+        <v>179</v>
       </c>
       <c r="N254" t="s">
-        <v>325</v>
+        <v>303</v>
       </c>
     </row>
     <row r="255" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A255" t="s">
-        <v>322</v>
+        <v>300</v>
       </c>
       <c r="B255" t="s">
-        <v>250</v>
+        <v>228</v>
       </c>
       <c r="C255" s="2">
         <v>7009073365892</v>
@@ -9767,7 +9728,7 @@
         <v>43283.759027777778</v>
       </c>
       <c r="F255" s="1" t="s">
-        <v>192</v>
+        <v>170</v>
       </c>
       <c r="G255">
         <v>0.11</v>
@@ -9782,18 +9743,18 @@
         <v>1</v>
       </c>
       <c r="M255" t="s">
-        <v>329</v>
+        <v>307</v>
       </c>
       <c r="N255" t="s">
-        <v>325</v>
+        <v>303</v>
       </c>
     </row>
     <row r="256" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A256" t="s">
-        <v>322</v>
+        <v>300</v>
       </c>
       <c r="B256" t="s">
-        <v>252</v>
+        <v>230</v>
       </c>
       <c r="C256" s="2">
         <v>7008870366106</v>
@@ -9805,7 +9766,7 @@
         <v>43283.765277777777</v>
       </c>
       <c r="F256" s="1" t="s">
-        <v>192</v>
+        <v>170</v>
       </c>
       <c r="G256">
         <v>0.62</v>
@@ -9820,18 +9781,18 @@
         <v>25</v>
       </c>
       <c r="M256" t="s">
-        <v>330</v>
+        <v>308</v>
       </c>
       <c r="N256" t="s">
-        <v>325</v>
+        <v>303</v>
       </c>
     </row>
     <row r="257" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A257" t="s">
-        <v>322</v>
+        <v>300</v>
       </c>
       <c r="B257" t="s">
-        <v>258</v>
+        <v>236</v>
       </c>
       <c r="C257" s="2">
         <v>7008555366617</v>
@@ -9843,7 +9804,7 @@
         <v>43283.776388888888</v>
       </c>
       <c r="F257" s="1" t="s">
-        <v>192</v>
+        <v>170</v>
       </c>
       <c r="G257">
         <v>0.51</v>
@@ -9858,18 +9819,18 @@
         <v>5</v>
       </c>
       <c r="M257" t="s">
-        <v>241</v>
+        <v>219</v>
       </c>
       <c r="N257" t="s">
-        <v>325</v>
+        <v>303</v>
       </c>
     </row>
     <row r="258" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A258" t="s">
-        <v>322</v>
+        <v>300</v>
       </c>
       <c r="B258" t="s">
-        <v>259</v>
+        <v>237</v>
       </c>
       <c r="C258" s="2">
         <v>7008548366629</v>
@@ -9881,7 +9842,7 @@
         <v>43283.777777777781</v>
       </c>
       <c r="F258" s="1" t="s">
-        <v>192</v>
+        <v>170</v>
       </c>
       <c r="G258">
         <v>0.83</v>
@@ -9896,64 +9857,64 @@
         <v>1</v>
       </c>
       <c r="M258" t="s">
-        <v>241</v>
+        <v>219</v>
       </c>
       <c r="N258" t="s">
-        <v>325</v>
+        <v>303</v>
       </c>
     </row>
     <row r="259" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A259" t="s">
-        <v>322</v>
+        <v>300</v>
       </c>
       <c r="B259" s="3" t="s">
-        <v>323</v>
+        <v>301</v>
       </c>
       <c r="C259" s="2">
         <v>7008546366649</v>
       </c>
       <c r="D259" t="s">
-        <v>324</v>
+        <v>302</v>
       </c>
       <c r="E259" s="1">
         <v>43283.78125</v>
       </c>
       <c r="F259" t="s">
-        <v>275</v>
+        <v>253</v>
       </c>
       <c r="N259" t="s">
-        <v>325</v>
+        <v>303</v>
       </c>
     </row>
     <row r="262" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A262" t="s">
-        <v>331</v>
+        <v>309</v>
       </c>
       <c r="B262" s="3" t="s">
-        <v>332</v>
+        <v>310</v>
       </c>
       <c r="C262" s="2">
         <v>7005963362616</v>
       </c>
       <c r="D262" t="s">
-        <v>167</v>
+        <v>153</v>
       </c>
       <c r="E262" s="1">
         <v>43284.409722222219</v>
       </c>
       <c r="F262" s="1" t="s">
-        <v>190</v>
+        <v>168</v>
       </c>
       <c r="N262" t="s">
-        <v>333</v>
+        <v>311</v>
       </c>
     </row>
     <row r="263" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A263" t="s">
-        <v>331</v>
+        <v>309</v>
       </c>
       <c r="B263" t="s">
-        <v>191</v>
+        <v>169</v>
       </c>
       <c r="C263" s="2">
         <v>7003859361323</v>
@@ -9965,7 +9926,7 @@
         <v>43284.474305555559</v>
       </c>
       <c r="F263" t="s">
-        <v>192</v>
+        <v>170</v>
       </c>
       <c r="G263">
         <v>0.56999999999999995</v>
@@ -9980,18 +9941,18 @@
         <v>16</v>
       </c>
       <c r="M263" t="s">
-        <v>334</v>
+        <v>312</v>
       </c>
       <c r="N263" t="s">
-        <v>333</v>
+        <v>311</v>
       </c>
     </row>
     <row r="264" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A264" t="s">
-        <v>331</v>
+        <v>309</v>
       </c>
       <c r="B264" t="s">
-        <v>193</v>
+        <v>171</v>
       </c>
       <c r="C264" s="2">
         <v>7003856361321</v>
@@ -10003,7 +9964,7 @@
         <v>43284.476388888892</v>
       </c>
       <c r="F264" t="s">
-        <v>192</v>
+        <v>170</v>
       </c>
       <c r="G264">
         <v>0.15</v>
@@ -10018,18 +9979,18 @@
         <v>18</v>
       </c>
       <c r="M264" t="s">
-        <v>334</v>
+        <v>312</v>
       </c>
       <c r="N264" t="s">
-        <v>333</v>
+        <v>311</v>
       </c>
     </row>
     <row r="265" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A265" t="s">
-        <v>331</v>
+        <v>309</v>
       </c>
       <c r="B265" t="s">
-        <v>193</v>
+        <v>171</v>
       </c>
       <c r="C265" s="2">
         <v>7003856361321</v>
@@ -10041,7 +10002,7 @@
         <v>43284.476388888892</v>
       </c>
       <c r="F265" t="s">
-        <v>192</v>
+        <v>170</v>
       </c>
       <c r="G265">
         <v>0.25</v>
@@ -10056,18 +10017,18 @@
         <v>22</v>
       </c>
       <c r="M265" t="s">
-        <v>334</v>
+        <v>312</v>
       </c>
       <c r="N265" t="s">
-        <v>333</v>
+        <v>311</v>
       </c>
     </row>
     <row r="266" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A266" t="s">
-        <v>331</v>
+        <v>309</v>
       </c>
       <c r="B266" t="s">
-        <v>193</v>
+        <v>171</v>
       </c>
       <c r="C266" s="2">
         <v>7003856361321</v>
@@ -10079,7 +10040,7 @@
         <v>43284.476388888892</v>
       </c>
       <c r="F266" t="s">
-        <v>192</v>
+        <v>170</v>
       </c>
       <c r="G266">
         <v>0.18</v>
@@ -10094,18 +10055,18 @@
         <v>10</v>
       </c>
       <c r="M266" t="s">
-        <v>334</v>
+        <v>312</v>
       </c>
       <c r="N266" t="s">
-        <v>333</v>
+        <v>311</v>
       </c>
     </row>
     <row r="267" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A267" t="s">
-        <v>331</v>
+        <v>309</v>
       </c>
       <c r="B267" t="s">
-        <v>194</v>
+        <v>172</v>
       </c>
       <c r="C267" s="2">
         <v>7003558361140</v>
@@ -10117,7 +10078,7 @@
         <v>43284.481944444444</v>
       </c>
       <c r="F267" t="s">
-        <v>192</v>
+        <v>170</v>
       </c>
       <c r="G267">
         <v>0.44</v>
@@ -10132,18 +10093,18 @@
         <v>22</v>
       </c>
       <c r="M267" t="s">
-        <v>269</v>
+        <v>247</v>
       </c>
       <c r="N267" t="s">
-        <v>333</v>
+        <v>311</v>
       </c>
     </row>
     <row r="268" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A268" t="s">
-        <v>331</v>
+        <v>309</v>
       </c>
       <c r="B268" t="s">
-        <v>195</v>
+        <v>173</v>
       </c>
       <c r="C268" s="2">
         <v>7003118360900</v>
@@ -10155,7 +10116,7 @@
         <v>43284.487500000003</v>
       </c>
       <c r="F268" t="s">
-        <v>192</v>
+        <v>170</v>
       </c>
       <c r="G268">
         <v>0.71</v>
@@ -10170,41 +10131,41 @@
         <v>28</v>
       </c>
       <c r="M268" t="s">
-        <v>334</v>
+        <v>312</v>
       </c>
       <c r="N268" t="s">
-        <v>333</v>
+        <v>311</v>
       </c>
     </row>
     <row r="269" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A269" t="s">
-        <v>331</v>
+        <v>309</v>
       </c>
       <c r="B269" s="3" t="s">
-        <v>198</v>
+        <v>176</v>
       </c>
       <c r="C269" s="2">
         <v>7002551360604</v>
       </c>
       <c r="D269" t="s">
-        <v>335</v>
+        <v>313</v>
       </c>
       <c r="E269" s="1">
         <v>43284.496527777781</v>
       </c>
       <c r="F269" s="1" t="s">
-        <v>189</v>
+        <v>167</v>
       </c>
       <c r="N269" t="s">
-        <v>333</v>
+        <v>311</v>
       </c>
     </row>
     <row r="270" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A270" t="s">
-        <v>331</v>
+        <v>309</v>
       </c>
       <c r="B270" t="s">
-        <v>196</v>
+        <v>174</v>
       </c>
       <c r="C270" s="2">
         <v>7002855360420</v>
@@ -10216,7 +10177,7 @@
         <v>43284.509027777778</v>
       </c>
       <c r="F270" t="s">
-        <v>192</v>
+        <v>170</v>
       </c>
       <c r="G270">
         <v>0.5</v>
@@ -10231,18 +10192,18 @@
         <v>40</v>
       </c>
       <c r="M270" t="s">
-        <v>269</v>
+        <v>247</v>
       </c>
       <c r="N270" t="s">
-        <v>333</v>
+        <v>311</v>
       </c>
     </row>
     <row r="271" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A271" t="s">
-        <v>331</v>
+        <v>309</v>
       </c>
       <c r="B271" t="s">
-        <v>196</v>
+        <v>174</v>
       </c>
       <c r="C271" s="2">
         <v>7002855360420</v>
@@ -10254,7 +10215,7 @@
         <v>43284.509027777778</v>
       </c>
       <c r="F271" t="s">
-        <v>192</v>
+        <v>170</v>
       </c>
       <c r="G271">
         <v>0.42</v>
@@ -10269,15 +10230,15 @@
         <v>24</v>
       </c>
       <c r="M271" t="s">
-        <v>269</v>
+        <v>247</v>
       </c>
       <c r="N271" t="s">
-        <v>333</v>
+        <v>311</v>
       </c>
     </row>
     <row r="272" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A272" t="s">
-        <v>331</v>
+        <v>309</v>
       </c>
       <c r="B272" t="s">
         <v>30</v>
@@ -10292,7 +10253,7 @@
         <v>43284.511111111111</v>
       </c>
       <c r="F272" t="s">
-        <v>229</v>
+        <v>207</v>
       </c>
       <c r="G272">
         <v>53.2</v>
@@ -10304,15 +10265,15 @@
         <v>2</v>
       </c>
       <c r="N272" t="s">
-        <v>333</v>
+        <v>311</v>
       </c>
     </row>
     <row r="273" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A273" t="s">
-        <v>331</v>
+        <v>309</v>
       </c>
       <c r="B273" t="s">
-        <v>197</v>
+        <v>175</v>
       </c>
       <c r="C273" s="2">
         <v>7003077360282</v>
@@ -10324,7 +10285,7 @@
         <v>43284.51458333333</v>
       </c>
       <c r="F273" t="s">
-        <v>192</v>
+        <v>170</v>
       </c>
       <c r="G273">
         <v>0.17</v>
@@ -10339,18 +10300,18 @@
         <v>52</v>
       </c>
       <c r="M273" t="s">
-        <v>282</v>
+        <v>260</v>
       </c>
       <c r="N273" t="s">
-        <v>333</v>
+        <v>311</v>
       </c>
     </row>
     <row r="274" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A274" t="s">
-        <v>331</v>
+        <v>309</v>
       </c>
       <c r="B274" t="s">
-        <v>197</v>
+        <v>175</v>
       </c>
       <c r="C274" s="2">
         <v>7003077360282</v>
@@ -10362,7 +10323,7 @@
         <v>43284.51458333333</v>
       </c>
       <c r="F274" t="s">
-        <v>192</v>
+        <v>170</v>
       </c>
       <c r="G274">
         <v>0.83</v>
@@ -10377,15 +10338,15 @@
         <v>24</v>
       </c>
       <c r="M274" t="s">
-        <v>334</v>
+        <v>312</v>
       </c>
       <c r="N274" t="s">
-        <v>333</v>
+        <v>311</v>
       </c>
     </row>
     <row r="275" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A275" t="s">
-        <v>331</v>
+        <v>309</v>
       </c>
       <c r="B275" t="s">
         <v>136</v>
@@ -10400,7 +10361,7 @@
         <v>43284.538194444445</v>
       </c>
       <c r="F275" t="s">
-        <v>229</v>
+        <v>207</v>
       </c>
       <c r="G275">
         <v>221.7</v>
@@ -10412,18 +10373,18 @@
         <v>1</v>
       </c>
       <c r="M275" t="s">
-        <v>336</v>
+        <v>314</v>
       </c>
       <c r="N275" t="s">
-        <v>333</v>
+        <v>311</v>
       </c>
     </row>
     <row r="276" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A276" t="s">
-        <v>331</v>
+        <v>309</v>
       </c>
       <c r="B276" t="s">
-        <v>202</v>
+        <v>180</v>
       </c>
       <c r="C276" s="2">
         <v>7004947359182</v>
@@ -10435,7 +10396,7 @@
         <v>43284.543055555558</v>
       </c>
       <c r="F276" t="s">
-        <v>192</v>
+        <v>170</v>
       </c>
       <c r="G276">
         <v>0.28999999999999998</v>
@@ -10450,18 +10411,18 @@
         <v>4</v>
       </c>
       <c r="M276" t="s">
-        <v>282</v>
+        <v>260</v>
       </c>
       <c r="N276" t="s">
-        <v>333</v>
+        <v>311</v>
       </c>
     </row>
     <row r="277" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A277" t="s">
-        <v>331</v>
+        <v>309</v>
       </c>
       <c r="B277" t="s">
-        <v>203</v>
+        <v>181</v>
       </c>
       <c r="C277" s="2">
         <v>7005389358896</v>
@@ -10473,7 +10434,7 @@
         <v>43284.55</v>
       </c>
       <c r="F277" t="s">
-        <v>192</v>
+        <v>170</v>
       </c>
       <c r="G277">
         <v>0.06</v>
@@ -10488,18 +10449,18 @@
         <v>2</v>
       </c>
       <c r="M277" t="s">
-        <v>241</v>
+        <v>219</v>
       </c>
       <c r="N277" t="s">
-        <v>333</v>
+        <v>311</v>
       </c>
     </row>
     <row r="278" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A278" t="s">
-        <v>331</v>
+        <v>309</v>
       </c>
       <c r="B278" t="s">
-        <v>203</v>
+        <v>181</v>
       </c>
       <c r="C278" s="2">
         <v>7005389358896</v>
@@ -10511,7 +10472,7 @@
         <v>43284.55</v>
       </c>
       <c r="F278" t="s">
-        <v>192</v>
+        <v>170</v>
       </c>
       <c r="G278">
         <v>0.64</v>
@@ -10526,18 +10487,18 @@
         <v>3</v>
       </c>
       <c r="M278" t="s">
-        <v>337</v>
+        <v>315</v>
       </c>
       <c r="N278" t="s">
-        <v>333</v>
+        <v>311</v>
       </c>
     </row>
     <row r="279" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A279" t="s">
-        <v>331</v>
+        <v>309</v>
       </c>
       <c r="B279" t="s">
-        <v>204</v>
+        <v>182</v>
       </c>
       <c r="C279" s="2">
         <v>7005467358844</v>
@@ -10549,7 +10510,7 @@
         <v>43284.552083333336</v>
       </c>
       <c r="F279" t="s">
-        <v>192</v>
+        <v>170</v>
       </c>
       <c r="G279">
         <v>0.02</v>
@@ -10564,18 +10525,18 @@
         <v>35</v>
       </c>
       <c r="M279" t="s">
-        <v>338</v>
+        <v>316</v>
       </c>
       <c r="N279" t="s">
-        <v>333</v>
+        <v>311</v>
       </c>
     </row>
     <row r="280" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A280" t="s">
-        <v>331</v>
+        <v>309</v>
       </c>
       <c r="B280" t="s">
-        <v>205</v>
+        <v>183</v>
       </c>
       <c r="C280" s="2">
         <v>7005608358776</v>
@@ -10587,7 +10548,7 @@
         <v>43284.554861111108</v>
       </c>
       <c r="F280" t="s">
-        <v>192</v>
+        <v>170</v>
       </c>
       <c r="G280">
         <v>0.05</v>
@@ -10602,18 +10563,18 @@
         <v>2</v>
       </c>
       <c r="M280" t="s">
-        <v>241</v>
+        <v>219</v>
       </c>
       <c r="N280" t="s">
-        <v>333</v>
+        <v>311</v>
       </c>
     </row>
     <row r="281" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A281" t="s">
-        <v>331</v>
+        <v>309</v>
       </c>
       <c r="B281" t="s">
-        <v>205</v>
+        <v>183</v>
       </c>
       <c r="C281" s="2">
         <v>7005608358776</v>
@@ -10625,7 +10586,7 @@
         <v>43284.554861111108</v>
       </c>
       <c r="F281" t="s">
-        <v>192</v>
+        <v>170</v>
       </c>
       <c r="G281">
         <v>0.38</v>
@@ -10640,18 +10601,18 @@
         <v>1</v>
       </c>
       <c r="M281" t="s">
-        <v>241</v>
+        <v>219</v>
       </c>
       <c r="N281" t="s">
-        <v>333</v>
+        <v>311</v>
       </c>
     </row>
     <row r="282" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A282" t="s">
-        <v>331</v>
+        <v>309</v>
       </c>
       <c r="B282" t="s">
-        <v>206</v>
+        <v>184</v>
       </c>
       <c r="C282" s="2">
         <v>7005953358605</v>
@@ -10663,7 +10624,7 @@
         <v>43284.561111111114</v>
       </c>
       <c r="F282" t="s">
-        <v>192</v>
+        <v>170</v>
       </c>
       <c r="G282">
         <v>0.1</v>
@@ -10678,41 +10639,41 @@
         <v>20</v>
       </c>
       <c r="M282" t="s">
-        <v>269</v>
+        <v>247</v>
       </c>
       <c r="N282" t="s">
-        <v>333</v>
+        <v>311</v>
       </c>
     </row>
     <row r="283" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A283" t="s">
-        <v>331</v>
+        <v>309</v>
       </c>
       <c r="B283" s="3" t="s">
-        <v>187</v>
+        <v>165</v>
       </c>
       <c r="C283" s="2">
         <v>7006048358564</v>
       </c>
       <c r="D283" t="s">
-        <v>339</v>
+        <v>319</v>
       </c>
       <c r="E283" s="1">
         <v>43284.5625</v>
       </c>
       <c r="F283" s="1" t="s">
-        <v>189</v>
+        <v>167</v>
       </c>
       <c r="N283" t="s">
-        <v>333</v>
+        <v>311</v>
       </c>
     </row>
     <row r="284" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A284" t="s">
-        <v>331</v>
+        <v>309</v>
       </c>
       <c r="B284" t="s">
-        <v>209</v>
+        <v>187</v>
       </c>
       <c r="C284" s="2">
         <v>7005947359962</v>
@@ -10724,7 +10685,7 @@
         <v>43284.581250000003</v>
       </c>
       <c r="F284" t="s">
-        <v>192</v>
+        <v>170</v>
       </c>
       <c r="G284">
         <v>0.08</v>
@@ -10739,18 +10700,18 @@
         <v>1</v>
       </c>
       <c r="M284" t="s">
-        <v>241</v>
+        <v>219</v>
       </c>
       <c r="N284" t="s">
-        <v>333</v>
+        <v>311</v>
       </c>
     </row>
     <row r="285" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A285" t="s">
-        <v>331</v>
+        <v>309</v>
       </c>
       <c r="B285" t="s">
-        <v>210</v>
+        <v>188</v>
       </c>
       <c r="C285" s="2">
         <v>7005968360361</v>
@@ -10762,7 +10723,7 @@
         <v>43284.585416666669</v>
       </c>
       <c r="F285" t="s">
-        <v>192</v>
+        <v>170</v>
       </c>
       <c r="G285">
         <v>0.59</v>
@@ -10777,18 +10738,18 @@
         <v>2</v>
       </c>
       <c r="M285" t="s">
-        <v>241</v>
+        <v>219</v>
       </c>
       <c r="N285" t="s">
-        <v>333</v>
+        <v>311</v>
       </c>
     </row>
     <row r="286" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A286" t="s">
-        <v>331</v>
+        <v>309</v>
       </c>
       <c r="B286" t="s">
-        <v>211</v>
+        <v>189</v>
       </c>
       <c r="C286" s="2">
         <v>7005953361950</v>
@@ -10800,7 +10761,7 @@
         <v>43284.602777777778</v>
       </c>
       <c r="F286" t="s">
-        <v>192</v>
+        <v>170</v>
       </c>
       <c r="G286">
         <v>0.09</v>
@@ -10815,372 +10776,1159 @@
         <v>14</v>
       </c>
       <c r="M286" t="s">
-        <v>337</v>
+        <v>315</v>
       </c>
       <c r="N286" t="s">
-        <v>333</v>
+        <v>311</v>
       </c>
     </row>
     <row r="287" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A287" t="s">
-        <v>331</v>
+        <v>309</v>
       </c>
       <c r="B287" s="3" t="s">
-        <v>332</v>
+        <v>310</v>
       </c>
       <c r="C287" s="2">
         <v>7005963362616</v>
       </c>
       <c r="D287" t="s">
-        <v>167</v>
+        <v>153</v>
       </c>
       <c r="E287" s="1">
         <v>43284.61041666667</v>
       </c>
       <c r="F287" s="1" t="s">
-        <v>275</v>
+        <v>253</v>
       </c>
       <c r="N287" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="293" spans="2:5" x14ac:dyDescent="0.2">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="292" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A292" t="s">
+        <v>317</v>
+      </c>
+      <c r="B292" s="3" t="s">
+        <v>321</v>
+      </c>
+      <c r="C292" s="2">
+        <v>7004400359209</v>
+      </c>
+      <c r="D292" t="s">
+        <v>141</v>
+      </c>
+      <c r="E292" s="1">
+        <v>43285.465277777781</v>
+      </c>
+      <c r="F292" t="s">
+        <v>168</v>
+      </c>
+      <c r="N292" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="293" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A293" t="s">
+        <v>317</v>
+      </c>
       <c r="B293" t="s">
-        <v>140</v>
+        <v>169</v>
       </c>
       <c r="C293" s="2">
         <v>7004327359068</v>
       </c>
       <c r="D293" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E293" s="1">
         <v>43285.468055555553</v>
       </c>
-    </row>
-    <row r="294" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="F293" t="s">
+        <v>170</v>
+      </c>
+      <c r="G293">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="H293">
+        <v>90</v>
+      </c>
+      <c r="K293">
+        <v>1</v>
+      </c>
+      <c r="L293">
+        <v>1</v>
+      </c>
+      <c r="M293" t="s">
+        <v>198</v>
+      </c>
+      <c r="N293" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="294" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A294" t="s">
+        <v>317</v>
+      </c>
       <c r="B294" t="s">
-        <v>142</v>
+        <v>171</v>
       </c>
       <c r="C294" s="2">
         <v>7004323359062</v>
       </c>
       <c r="D294" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="E294" s="1">
         <v>43285.469444444447</v>
       </c>
-    </row>
-    <row r="295" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="F294" t="s">
+        <v>170</v>
+      </c>
+      <c r="G294">
+        <v>0.1</v>
+      </c>
+      <c r="H294">
+        <v>90</v>
+      </c>
+      <c r="K294">
+        <v>1</v>
+      </c>
+      <c r="L294">
+        <v>1</v>
+      </c>
+      <c r="M294" t="s">
+        <v>219</v>
+      </c>
+      <c r="N294" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="295" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A295" t="s">
+        <v>317</v>
+      </c>
       <c r="B295" t="s">
+        <v>171</v>
+      </c>
+      <c r="C295" s="2">
+        <v>7004323359062</v>
+      </c>
+      <c r="D295" t="s">
+        <v>141</v>
+      </c>
+      <c r="E295" s="1">
+        <v>43285.469444444447</v>
+      </c>
+      <c r="F295" t="s">
+        <v>170</v>
+      </c>
+      <c r="G295">
+        <v>1.01</v>
+      </c>
+      <c r="H295">
+        <v>90</v>
+      </c>
+      <c r="K295">
+        <v>1</v>
+      </c>
+      <c r="L295">
+        <v>1</v>
+      </c>
+      <c r="M295" t="s">
+        <v>315</v>
+      </c>
+      <c r="N295" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="296" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A296" t="s">
+        <v>317</v>
+      </c>
+      <c r="B296" t="s">
+        <v>248</v>
+      </c>
+      <c r="C296" s="2">
+        <v>7004287358905</v>
+      </c>
+      <c r="D296" t="s">
+        <v>142</v>
+      </c>
+      <c r="E296" s="1">
+        <v>43285.472916666666</v>
+      </c>
+      <c r="F296" t="s">
+        <v>249</v>
+      </c>
+      <c r="G296">
+        <v>11.1</v>
+      </c>
+      <c r="H296">
+        <v>322</v>
+      </c>
+      <c r="I296" t="s">
+        <v>211</v>
+      </c>
+      <c r="L296">
+        <v>1</v>
+      </c>
+      <c r="N296" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="297" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A297" t="s">
+        <v>317</v>
+      </c>
+      <c r="B297" t="s">
+        <v>248</v>
+      </c>
+      <c r="C297" s="2">
+        <v>7004287358905</v>
+      </c>
+      <c r="D297" t="s">
+        <v>142</v>
+      </c>
+      <c r="E297" s="1">
+        <v>43285.472916666666</v>
+      </c>
+      <c r="F297" t="s">
+        <v>249</v>
+      </c>
+      <c r="G297">
+        <v>11.9</v>
+      </c>
+      <c r="H297">
+        <v>296</v>
+      </c>
+      <c r="I297" t="s">
+        <v>244</v>
+      </c>
+      <c r="L297">
+        <v>1</v>
+      </c>
+      <c r="N297" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="298" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A298" t="s">
+        <v>317</v>
+      </c>
+      <c r="B298" t="s">
+        <v>172</v>
+      </c>
+      <c r="C298" s="2">
+        <v>7004221358773</v>
+      </c>
+      <c r="D298" t="s">
+        <v>143</v>
+      </c>
+      <c r="E298" s="1">
+        <v>43285.479861111111</v>
+      </c>
+      <c r="F298" t="s">
+        <v>170</v>
+      </c>
+      <c r="G298">
+        <v>0.69</v>
+      </c>
+      <c r="H298">
+        <v>90</v>
+      </c>
+      <c r="K298">
+        <v>1</v>
+      </c>
+      <c r="L298">
+        <v>28</v>
+      </c>
+      <c r="M298" t="s">
+        <v>315</v>
+      </c>
+      <c r="N298" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="299" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A299" t="s">
+        <v>317</v>
+      </c>
+      <c r="B299" t="s">
+        <v>172</v>
+      </c>
+      <c r="C299" s="2">
+        <v>7004221358773</v>
+      </c>
+      <c r="D299" t="s">
+        <v>143</v>
+      </c>
+      <c r="E299" s="1">
+        <v>43285.479861111111</v>
+      </c>
+      <c r="F299" t="s">
+        <v>170</v>
+      </c>
+      <c r="G299">
+        <v>0.35</v>
+      </c>
+      <c r="H299">
+        <v>270</v>
+      </c>
+      <c r="K299">
+        <v>1</v>
+      </c>
+      <c r="L299">
+        <v>36</v>
+      </c>
+      <c r="M299" t="s">
+        <v>315</v>
+      </c>
+      <c r="N299" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="300" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A300" t="s">
+        <v>317</v>
+      </c>
+      <c r="B300" t="s">
+        <v>173</v>
+      </c>
+      <c r="C300" s="2">
+        <v>7003851357814</v>
+      </c>
+      <c r="D300" t="s">
         <v>144</v>
       </c>
-      <c r="C295" s="2">
-        <v>7004287358905</v>
-      </c>
-      <c r="D295" t="s">
+      <c r="E300" s="1">
+        <v>43285.495833333334</v>
+      </c>
+      <c r="F300" t="s">
+        <v>170</v>
+      </c>
+      <c r="G300">
+        <v>0.42</v>
+      </c>
+      <c r="H300">
+        <v>270</v>
+      </c>
+      <c r="K300">
+        <v>1</v>
+      </c>
+      <c r="L300">
+        <v>31</v>
+      </c>
+      <c r="M300" t="s">
+        <v>260</v>
+      </c>
+      <c r="N300" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="301" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A301" t="s">
+        <v>317</v>
+      </c>
+      <c r="B301" t="s">
+        <v>174</v>
+      </c>
+      <c r="C301" s="2">
+        <v>7003591357126</v>
+      </c>
+      <c r="D301" t="s">
         <v>145</v>
       </c>
-      <c r="E295" s="1">
-        <v>43285.472916666666</v>
-      </c>
-    </row>
-    <row r="296" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B296" t="s">
+      <c r="E301" s="1">
+        <v>43285.505555555559</v>
+      </c>
+      <c r="F301" t="s">
+        <v>170</v>
+      </c>
+      <c r="G301">
+        <v>0.27</v>
+      </c>
+      <c r="H301">
+        <v>270</v>
+      </c>
+      <c r="K301">
+        <v>1</v>
+      </c>
+      <c r="L301">
+        <v>8</v>
+      </c>
+      <c r="M301" t="s">
+        <v>322</v>
+      </c>
+      <c r="N301" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="302" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A302" t="s">
+        <v>317</v>
+      </c>
+      <c r="B302" t="s">
+        <v>175</v>
+      </c>
+      <c r="C302" s="2">
+        <v>7003588357121</v>
+      </c>
+      <c r="D302" t="s">
         <v>146</v>
       </c>
-      <c r="C296" s="2">
-        <v>7004221358773</v>
-      </c>
-      <c r="D296" t="s">
+      <c r="E302" s="1">
+        <v>43285.507638888892</v>
+      </c>
+      <c r="F302" t="s">
+        <v>170</v>
+      </c>
+      <c r="G302">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="H302">
+        <v>90</v>
+      </c>
+      <c r="K302">
+        <v>1</v>
+      </c>
+      <c r="L302">
+        <v>34</v>
+      </c>
+      <c r="M302" t="s">
+        <v>260</v>
+      </c>
+      <c r="N302" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="303" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A303" t="s">
+        <v>317</v>
+      </c>
+      <c r="B303" t="s">
+        <v>180</v>
+      </c>
+      <c r="C303" s="2">
+        <v>7003563357072</v>
+      </c>
+      <c r="D303" t="s">
         <v>147</v>
       </c>
-      <c r="E296" s="1">
-        <v>43285.479861111111</v>
-      </c>
-    </row>
-    <row r="297" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B297" t="s">
+      <c r="E303" s="1">
+        <v>43285.509722222225</v>
+      </c>
+      <c r="F303" t="s">
+        <v>170</v>
+      </c>
+      <c r="G303">
+        <v>0.43</v>
+      </c>
+      <c r="H303">
+        <v>270</v>
+      </c>
+      <c r="K303">
+        <v>1</v>
+      </c>
+      <c r="L303">
+        <v>27</v>
+      </c>
+      <c r="M303" t="s">
+        <v>247</v>
+      </c>
+      <c r="N303" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="304" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A304" t="s">
+        <v>317</v>
+      </c>
+      <c r="B304" t="s">
+        <v>181</v>
+      </c>
+      <c r="C304" s="2">
+        <v>7003167356300</v>
+      </c>
+      <c r="D304" t="s">
         <v>148</v>
       </c>
-      <c r="C297" s="2">
-        <v>7003851357814</v>
-      </c>
-      <c r="D297" t="s">
+      <c r="E304" s="1">
+        <v>43285.520138888889</v>
+      </c>
+      <c r="F304" t="s">
+        <v>170</v>
+      </c>
+      <c r="G304">
+        <v>0.33</v>
+      </c>
+      <c r="H304">
+        <v>270</v>
+      </c>
+      <c r="K304">
+        <v>1</v>
+      </c>
+      <c r="L304">
+        <v>42</v>
+      </c>
+      <c r="M304" t="s">
+        <v>315</v>
+      </c>
+      <c r="N304" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="305" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A305" t="s">
+        <v>317</v>
+      </c>
+      <c r="B305" t="s">
+        <v>181</v>
+      </c>
+      <c r="C305" s="2">
+        <v>7003167356300</v>
+      </c>
+      <c r="D305" t="s">
+        <v>148</v>
+      </c>
+      <c r="E305" s="1">
+        <v>43285.520138888889</v>
+      </c>
+      <c r="F305" t="s">
+        <v>170</v>
+      </c>
+      <c r="G305">
+        <v>1.1100000000000001</v>
+      </c>
+      <c r="H305">
+        <v>270</v>
+      </c>
+      <c r="K305">
+        <v>1</v>
+      </c>
+      <c r="L305">
+        <v>12</v>
+      </c>
+      <c r="M305" t="s">
+        <v>247</v>
+      </c>
+      <c r="N305" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="306" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A306" t="s">
+        <v>317</v>
+      </c>
+      <c r="B306" t="s">
+        <v>182</v>
+      </c>
+      <c r="C306" s="2">
+        <v>7003070356094</v>
+      </c>
+      <c r="D306" t="s">
         <v>149</v>
       </c>
-      <c r="E297" s="1">
-        <v>43285.495833333334</v>
-      </c>
-    </row>
-    <row r="298" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B298" t="s">
+      <c r="E306" s="1">
+        <v>43285.525000000001</v>
+      </c>
+      <c r="F306" t="s">
+        <v>170</v>
+      </c>
+      <c r="G306">
+        <v>0.61</v>
+      </c>
+      <c r="H306">
+        <v>270</v>
+      </c>
+      <c r="K306">
+        <v>1</v>
+      </c>
+      <c r="L306">
+        <v>5</v>
+      </c>
+      <c r="M306" t="s">
+        <v>219</v>
+      </c>
+      <c r="N306" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="307" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A307" t="s">
+        <v>317</v>
+      </c>
+      <c r="B307" t="s">
+        <v>183</v>
+      </c>
+      <c r="C307" s="2">
+        <v>7002942355831</v>
+      </c>
+      <c r="D307" t="s">
         <v>150</v>
       </c>
-      <c r="C298" s="2">
-        <v>7003591357126</v>
-      </c>
-      <c r="D298" t="s">
+      <c r="E307" s="1">
+        <v>43285.529166666667</v>
+      </c>
+      <c r="F307" t="s">
+        <v>170</v>
+      </c>
+      <c r="G307">
+        <v>0.4</v>
+      </c>
+      <c r="H307">
+        <v>270</v>
+      </c>
+      <c r="K307">
+        <v>1</v>
+      </c>
+      <c r="L307">
+        <v>43</v>
+      </c>
+      <c r="M307" t="s">
+        <v>204</v>
+      </c>
+      <c r="N307" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="308" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A308" t="s">
+        <v>317</v>
+      </c>
+      <c r="B308" t="s">
+        <v>184</v>
+      </c>
+      <c r="C308" s="2">
+        <v>7002927355804</v>
+      </c>
+      <c r="D308" t="s">
         <v>151</v>
       </c>
-      <c r="E298" s="1">
-        <v>43285.505555555559</v>
-      </c>
-    </row>
-    <row r="299" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B299" t="s">
+      <c r="E308" s="1">
+        <v>43285.530555555553</v>
+      </c>
+      <c r="F308" t="s">
+        <v>170</v>
+      </c>
+      <c r="G308">
+        <v>0.04</v>
+      </c>
+      <c r="H308">
+        <v>270</v>
+      </c>
+      <c r="K308">
+        <v>1</v>
+      </c>
+      <c r="L308">
+        <v>14</v>
+      </c>
+      <c r="M308" t="s">
+        <v>298</v>
+      </c>
+      <c r="N308" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="309" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A309" t="s">
+        <v>317</v>
+      </c>
+      <c r="B309" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="C309" s="2">
+        <v>7002767355630</v>
+      </c>
+      <c r="D309" t="s">
+        <v>318</v>
+      </c>
+      <c r="E309" s="1">
+        <v>43285.534722222219</v>
+      </c>
+      <c r="F309" t="s">
+        <v>167</v>
+      </c>
+      <c r="N309" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="310" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A310" t="s">
+        <v>317</v>
+      </c>
+      <c r="B310" t="s">
+        <v>187</v>
+      </c>
+      <c r="C310" s="2">
+        <v>7003815355805</v>
+      </c>
+      <c r="D310" t="s">
         <v>152</v>
       </c>
-      <c r="C299" s="2">
-        <v>7003588357121</v>
-      </c>
-      <c r="D299" t="s">
+      <c r="E310" s="1">
+        <v>43285.582638888889</v>
+      </c>
+      <c r="F310" t="s">
+        <v>170</v>
+      </c>
+      <c r="G310">
+        <v>0.19</v>
+      </c>
+      <c r="H310">
+        <v>90</v>
+      </c>
+      <c r="K310">
+        <v>1</v>
+      </c>
+      <c r="L310">
+        <v>1</v>
+      </c>
+      <c r="M310" t="s">
+        <v>219</v>
+      </c>
+      <c r="N310" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="311" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A311" t="s">
+        <v>317</v>
+      </c>
+      <c r="B311" t="s">
+        <v>188</v>
+      </c>
+      <c r="C311" s="2">
+        <v>7003868355815</v>
+      </c>
+      <c r="D311" t="s">
         <v>153</v>
       </c>
-      <c r="E299" s="1">
-        <v>43285.507638888892</v>
-      </c>
-    </row>
-    <row r="300" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B300" t="s">
+      <c r="E311" s="1">
+        <v>43285.584027777775</v>
+      </c>
+      <c r="F311" t="s">
+        <v>170</v>
+      </c>
+      <c r="G311">
+        <v>0.13</v>
+      </c>
+      <c r="H311">
+        <v>90</v>
+      </c>
+      <c r="K311">
+        <v>1</v>
+      </c>
+      <c r="L311">
+        <v>46</v>
+      </c>
+      <c r="M311" t="s">
+        <v>219</v>
+      </c>
+      <c r="N311" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="312" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A312" t="s">
+        <v>317</v>
+      </c>
+      <c r="B312" t="s">
+        <v>324</v>
+      </c>
+      <c r="C312" s="2">
+        <v>7004676355956</v>
+      </c>
+      <c r="D312" t="s">
         <v>154</v>
       </c>
-      <c r="C300" s="2">
-        <v>7003563357072</v>
-      </c>
-      <c r="D300" t="s">
+      <c r="E312" s="1">
+        <v>43285.595138888886</v>
+      </c>
+      <c r="F312" t="s">
+        <v>249</v>
+      </c>
+      <c r="G312">
+        <v>7.2</v>
+      </c>
+      <c r="H312">
+        <v>320</v>
+      </c>
+      <c r="I312" t="s">
+        <v>244</v>
+      </c>
+      <c r="L312">
+        <v>1</v>
+      </c>
+      <c r="N312" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="313" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A313" t="s">
+        <v>317</v>
+      </c>
+      <c r="B313" t="s">
         <v>155</v>
       </c>
-      <c r="E300" s="1">
-        <v>43285.509722222225</v>
-      </c>
-    </row>
-    <row r="301" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B301" t="s">
+      <c r="C313" s="2">
+        <v>7005109356038</v>
+      </c>
+      <c r="D313" t="s">
         <v>156</v>
       </c>
-      <c r="C301" s="2">
-        <v>7003167356300</v>
-      </c>
-      <c r="D301" t="s">
+      <c r="E313" s="1">
+        <v>43285.602083333331</v>
+      </c>
+      <c r="F313" t="s">
+        <v>249</v>
+      </c>
+      <c r="G313">
+        <v>4.5</v>
+      </c>
+      <c r="H313">
+        <v>72</v>
+      </c>
+      <c r="I313" t="s">
+        <v>244</v>
+      </c>
+      <c r="L313">
+        <v>1</v>
+      </c>
+      <c r="M313" t="s">
+        <v>325</v>
+      </c>
+      <c r="N313" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="314" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A314" t="s">
+        <v>317</v>
+      </c>
+      <c r="B314" t="s">
+        <v>155</v>
+      </c>
+      <c r="C314" s="2">
+        <v>7005109356038</v>
+      </c>
+      <c r="D314" t="s">
+        <v>156</v>
+      </c>
+      <c r="E314" s="1">
+        <v>43285.602083333331</v>
+      </c>
+      <c r="F314" t="s">
+        <v>249</v>
+      </c>
+      <c r="G314">
+        <v>4.2</v>
+      </c>
+      <c r="H314">
+        <v>66</v>
+      </c>
+      <c r="I314" t="s">
+        <v>244</v>
+      </c>
+      <c r="L314">
+        <v>1</v>
+      </c>
+      <c r="N314" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="315" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A315" t="s">
+        <v>317</v>
+      </c>
+      <c r="B315" t="s">
+        <v>268</v>
+      </c>
+      <c r="C315" s="2">
+        <v>7005919356186</v>
+      </c>
+      <c r="D315" t="s">
         <v>157</v>
       </c>
-      <c r="E301" s="1">
-        <v>43285.520138888889</v>
-      </c>
-    </row>
-    <row r="302" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B302" t="s">
+      <c r="E315" s="1">
+        <v>43285.617361111108</v>
+      </c>
+      <c r="F315" t="s">
+        <v>269</v>
+      </c>
+      <c r="G315">
+        <v>887.2</v>
+      </c>
+      <c r="H315">
+        <v>326</v>
+      </c>
+      <c r="L315">
+        <v>1</v>
+      </c>
+      <c r="N315" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="316" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A316" t="s">
+        <v>317</v>
+      </c>
+      <c r="B316" t="s">
+        <v>268</v>
+      </c>
+      <c r="C316" s="2">
+        <v>7005919356186</v>
+      </c>
+      <c r="D316" t="s">
+        <v>157</v>
+      </c>
+      <c r="E316" s="1">
+        <v>43285.617361111108</v>
+      </c>
+      <c r="F316" t="s">
+        <v>170</v>
+      </c>
+      <c r="G316">
+        <v>1.78</v>
+      </c>
+      <c r="H316">
+        <v>90</v>
+      </c>
+      <c r="K316">
+        <v>1</v>
+      </c>
+      <c r="L316">
+        <v>11</v>
+      </c>
+      <c r="M316" t="s">
+        <v>326</v>
+      </c>
+      <c r="N316" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="317" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A317" t="s">
+        <v>317</v>
+      </c>
+      <c r="B317" t="s">
+        <v>121</v>
+      </c>
+      <c r="C317" s="2">
+        <v>7006690356269</v>
+      </c>
+      <c r="D317" t="s">
         <v>158</v>
       </c>
-      <c r="C302" s="2">
-        <v>7003070356094</v>
-      </c>
-      <c r="D302" t="s">
+      <c r="E317" s="1">
+        <v>43285.634722222225</v>
+      </c>
+      <c r="F317" t="s">
+        <v>121</v>
+      </c>
+      <c r="G317">
+        <v>209.7</v>
+      </c>
+      <c r="H317">
+        <v>34</v>
+      </c>
+      <c r="L317">
+        <v>1</v>
+      </c>
+      <c r="N317" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="318" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A318" t="s">
+        <v>317</v>
+      </c>
+      <c r="B318" t="s">
+        <v>189</v>
+      </c>
+      <c r="C318" s="2">
+        <v>7006735356287</v>
+      </c>
+      <c r="D318" t="s">
         <v>159</v>
       </c>
-      <c r="E302" s="1">
-        <v>43285.525000000001</v>
-      </c>
-    </row>
-    <row r="303" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B303" t="s">
+      <c r="E318" s="1">
+        <v>43285.638194444444</v>
+      </c>
+      <c r="F318" t="s">
+        <v>170</v>
+      </c>
+      <c r="G318">
+        <v>0.38</v>
+      </c>
+      <c r="H318">
+        <v>90</v>
+      </c>
+      <c r="L318">
+        <v>1</v>
+      </c>
+      <c r="M318" t="s">
+        <v>198</v>
+      </c>
+      <c r="N318" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="319" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A319" t="s">
+        <v>317</v>
+      </c>
+      <c r="B319" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="C319" s="2">
+        <v>7006803356301</v>
+      </c>
+      <c r="D319" t="s">
+        <v>51</v>
+      </c>
+      <c r="E319" s="1">
+        <v>43285.640277777777</v>
+      </c>
+      <c r="F319" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="320" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A320" t="s">
+        <v>317</v>
+      </c>
+      <c r="B320" t="s">
+        <v>224</v>
+      </c>
+      <c r="C320" s="2">
+        <v>7006631356457</v>
+      </c>
+      <c r="D320" t="s">
         <v>160</v>
       </c>
-      <c r="C303" s="2">
-        <v>7002942355831</v>
-      </c>
-      <c r="D303" t="s">
+      <c r="E320" s="1">
+        <v>43285.645833333336</v>
+      </c>
+      <c r="F320" t="s">
+        <v>170</v>
+      </c>
+      <c r="G320">
+        <v>0.38</v>
+      </c>
+      <c r="H320">
+        <v>270</v>
+      </c>
+      <c r="K320">
+        <v>1</v>
+      </c>
+      <c r="L320">
+        <v>28</v>
+      </c>
+      <c r="M320" t="s">
+        <v>219</v>
+      </c>
+      <c r="N320" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="321" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A321" t="s">
+        <v>317</v>
+      </c>
+      <c r="B321" t="s">
+        <v>227</v>
+      </c>
+      <c r="C321" s="2">
+        <v>7006501356636</v>
+      </c>
+      <c r="D321" t="s">
         <v>161</v>
       </c>
-      <c r="E303" s="1">
-        <v>43285.529166666667</v>
-      </c>
-    </row>
-    <row r="304" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B304" t="s">
+      <c r="E321" s="1">
+        <v>43285.649305555555</v>
+      </c>
+      <c r="F321" t="s">
+        <v>170</v>
+      </c>
+      <c r="G321">
+        <v>0.54</v>
+      </c>
+      <c r="H321">
+        <v>270</v>
+      </c>
+      <c r="K321">
+        <v>1</v>
+      </c>
+      <c r="L321">
+        <v>1</v>
+      </c>
+      <c r="M321" t="s">
+        <v>219</v>
+      </c>
+      <c r="N321" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="322" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A322" t="s">
+        <v>317</v>
+      </c>
+      <c r="B322" t="s">
+        <v>228</v>
+      </c>
+      <c r="C322" s="2">
+        <v>7005394357987</v>
+      </c>
+      <c r="D322" t="s">
+        <v>139</v>
+      </c>
+      <c r="E322" s="1">
+        <v>43285.668749999997</v>
+      </c>
+      <c r="F322" t="s">
+        <v>170</v>
+      </c>
+      <c r="G322">
+        <v>0.21</v>
+      </c>
+      <c r="H322">
+        <v>270</v>
+      </c>
+      <c r="K322">
+        <v>1</v>
+      </c>
+      <c r="L322">
+        <v>1</v>
+      </c>
+      <c r="M322" t="s">
+        <v>198</v>
+      </c>
+      <c r="N322" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="323" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A323" t="s">
+        <v>317</v>
+      </c>
+      <c r="B323" t="s">
         <v>162</v>
       </c>
-      <c r="C304" s="2">
-        <v>7002927355804</v>
-      </c>
-      <c r="D304" t="s">
+      <c r="C323" s="2">
+        <v>7004438359158</v>
+      </c>
+      <c r="D323" t="s">
         <v>163</v>
       </c>
-      <c r="E304" s="1">
-        <v>43285.530555555553</v>
-      </c>
-    </row>
-    <row r="305" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B305" t="s">
-        <v>164</v>
-      </c>
-      <c r="C305" s="2">
-        <v>7003815355805</v>
-      </c>
-      <c r="D305" t="s">
-        <v>165</v>
-      </c>
-      <c r="E305" s="1">
-        <v>43285.582638888889</v>
-      </c>
-    </row>
-    <row r="306" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B306" t="s">
-        <v>166</v>
-      </c>
-      <c r="C306" s="2">
-        <v>7003868355815</v>
-      </c>
-      <c r="D306" t="s">
-        <v>167</v>
-      </c>
-      <c r="E306" s="1">
-        <v>43285.584027777775</v>
-      </c>
-    </row>
-    <row r="307" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B307" t="s">
-        <v>168</v>
-      </c>
-      <c r="C307" s="2">
-        <v>7004676355956</v>
-      </c>
-      <c r="D307" t="s">
-        <v>169</v>
-      </c>
-      <c r="E307" s="1">
-        <v>43285.595138888886</v>
-      </c>
-    </row>
-    <row r="308" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B308" t="s">
-        <v>170</v>
-      </c>
-      <c r="C308" s="2">
-        <v>7005109356038</v>
-      </c>
-      <c r="D308" t="s">
-        <v>171</v>
-      </c>
-      <c r="E308" s="1">
-        <v>43285.602083333331</v>
-      </c>
-    </row>
-    <row r="309" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B309" t="s">
-        <v>172</v>
-      </c>
-      <c r="C309" s="2">
-        <v>7005919356186</v>
-      </c>
-      <c r="D309" t="s">
-        <v>173</v>
-      </c>
-      <c r="E309" s="1">
-        <v>43285.617361111108</v>
-      </c>
-    </row>
-    <row r="310" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B310" t="s">
-        <v>174</v>
-      </c>
-      <c r="C310" s="2">
-        <v>7006690356269</v>
-      </c>
-      <c r="D310" t="s">
-        <v>175</v>
-      </c>
-      <c r="E310" s="1">
-        <v>43285.634722222225</v>
-      </c>
-    </row>
-    <row r="311" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B311" t="s">
-        <v>176</v>
-      </c>
-      <c r="C311" s="2">
-        <v>7006735356287</v>
-      </c>
-      <c r="D311" t="s">
-        <v>177</v>
-      </c>
-      <c r="E311" s="1">
-        <v>43285.638194444444</v>
-      </c>
-    </row>
-    <row r="312" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B312" t="s">
-        <v>178</v>
-      </c>
-      <c r="C312" s="2">
-        <v>7006631356457</v>
-      </c>
-      <c r="D312" t="s">
-        <v>179</v>
-      </c>
-      <c r="E312" s="1">
-        <v>43285.645833333336</v>
-      </c>
-    </row>
-    <row r="313" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B313" t="s">
-        <v>180</v>
-      </c>
-      <c r="C313" s="2">
-        <v>7006501356636</v>
-      </c>
-      <c r="D313" t="s">
-        <v>181</v>
-      </c>
-      <c r="E313" s="1">
-        <v>43285.649305555555</v>
-      </c>
-    </row>
-    <row r="314" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B314" t="s">
-        <v>182</v>
-      </c>
-      <c r="C314" s="2">
-        <v>7005394357987</v>
-      </c>
-      <c r="D314" t="s">
-        <v>139</v>
-      </c>
-      <c r="E314" s="1">
-        <v>43285.668749999997</v>
-      </c>
-    </row>
-    <row r="315" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B315" t="s">
-        <v>183</v>
-      </c>
-      <c r="C315" s="2">
-        <v>7004438359158</v>
-      </c>
-      <c r="D315" t="s">
-        <v>184</v>
-      </c>
-      <c r="E315" s="1">
+      <c r="E323" s="1">
         <v>43285.722916666666</v>
       </c>
-    </row>
-    <row r="316" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A316" t="s">
-        <v>185</v>
-      </c>
-      <c r="B316" t="s">
-        <v>185</v>
-      </c>
-      <c r="C316" t="s">
-        <v>185</v>
-      </c>
-      <c r="D316" t="s">
-        <v>185</v>
-      </c>
-      <c r="E316" t="s">
-        <v>185</v>
+      <c r="F323" t="s">
+        <v>253</v>
+      </c>
+      <c r="N323" t="s">
+        <v>323</v>
       </c>
     </row>
   </sheetData>
